--- a/English translation/その他文字 (Items, Skills, Characters, Descriptions)/固有名詞 (Literally everything else).xlsx
+++ b/English translation/その他文字 (Items, Skills, Characters, Descriptions)/固有名詞 (Literally everything else).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21943" windowHeight="8091" tabRatio="627" firstSheet="10" activeTab="19"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21943" windowHeight="8091" tabRatio="627" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="名前" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3640" uniqueCount="2342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3640" uniqueCount="2345">
   <si>
     <t>カテゴリ</t>
   </si>
@@ -10893,14 +10893,23 @@
     <t>A bra bellonging to a succubus.</t>
   </si>
   <si>
-    <t>A bra bellonging to a succubus.It smells sweet.</t>
-  </si>
-  <si>
     <t>情報收集→ミラージュを呼び出す【❤】
 まだは包布はずしままストーリー進行</t>
   </si>
   <si>
     <t>もう一度ミラージュを呼び出す【❤】選だ</t>
+  </si>
+  <si>
+    <t>A bra bellonging to a succubus. It smells sweet.</t>
+  </si>
+  <si>
+    <t>HP+5, Str+1, Mag+3</t>
+  </si>
+  <si>
+    <t>Spirit+1, Spd+8, Mov+1</t>
+  </si>
+  <si>
+    <t>Max HP+10, Mag+4, Luk+2</t>
   </si>
 </sst>
 </file>
@@ -18271,7 +18280,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -18715,8 +18724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G203"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="B151" workbookViewId="0">
+      <selection activeCell="D165" sqref="D165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15"/>
@@ -22079,7 +22088,7 @@
         <v>2249</v>
       </c>
       <c r="D164" s="30" t="s">
-        <v>758</v>
+        <v>2344</v>
       </c>
       <c r="E164" s="34" t="s">
         <v>759</v>
@@ -22653,7 +22662,7 @@
         <v>2275</v>
       </c>
       <c r="D192" s="30" t="s">
-        <v>2339</v>
+        <v>2341</v>
       </c>
       <c r="E192" s="38" t="s">
         <v>853</v>
@@ -22865,7 +22874,7 @@
         <v>2285</v>
       </c>
       <c r="D202" s="30" t="s">
-        <v>895</v>
+        <v>2342</v>
       </c>
       <c r="E202" s="34" t="s">
         <v>896</v>
@@ -22886,7 +22895,7 @@
         <v>2286</v>
       </c>
       <c r="D203" s="30" t="s">
-        <v>899</v>
+        <v>2343</v>
       </c>
       <c r="E203" s="34" t="s">
         <v>900</v>
@@ -23859,7 +23868,7 @@
         <v>908</v>
       </c>
       <c r="C72" s="44" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="D72" s="34" t="s">
         <v>1041</v>
@@ -23883,7 +23892,7 @@
       <c r="A74" s="34"/>
       <c r="B74" s="34"/>
       <c r="C74" s="34" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="D74" s="34" t="s">
         <v>1041</v>
@@ -24036,7 +24045,7 @@
         <v>908</v>
       </c>
       <c r="C85" s="44" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="D85" s="34" t="s">
         <v>1067</v>
@@ -24092,7 +24101,7 @@
         <v>908</v>
       </c>
       <c r="C89" s="44" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="D89" s="34" t="s">
         <v>1077</v>
@@ -24116,7 +24125,7 @@
       <c r="A91" s="34"/>
       <c r="B91" s="34"/>
       <c r="C91" s="34" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="D91" s="34" t="s">
         <v>1077</v>

--- a/English translation/その他文字 (Items, Skills, Characters, Descriptions)/固有名詞 (Literally everything else).xlsx
+++ b/English translation/その他文字 (Items, Skills, Characters, Descriptions)/固有名詞 (Literally everything else).xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacob Wai\Roming\サキュバス戦記new\English translation\English Translation\Dreamon-Senki-Translation\English translation\その他文字 (Items, Skills, Characters, Descriptions)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian Ho\Documents\GitHub\Satou-Dreamon-Senki-Proofreading\Dreamon-Senki-Translation\English translation\その他文字 (Items, Skills, Characters, Descriptions)\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21943" windowHeight="8091" tabRatio="627" firstSheet="4" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21945" windowHeight="8085" tabRatio="627"/>
   </bookViews>
   <sheets>
     <sheet name="名前" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3843" uniqueCount="2547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3843" uniqueCount="2546">
   <si>
     <t>カテゴリ</t>
   </si>
@@ -6611,9 +6611,6 @@
     <t>Bullion</t>
   </si>
   <si>
-    <t>Candleabra</t>
-  </si>
-  <si>
     <t>Enigmatic Statue</t>
   </si>
   <si>
@@ -6759,9 +6756,6 @@
   </si>
   <si>
     <t>English Desc.</t>
-  </si>
-  <si>
-    <t>A cloth with the power to surpress curses. Originally wrapped around the holy sword Mithrus. It's used to cover the hilt of the sword.</t>
   </si>
   <si>
     <t>Start with a degree of hardness.</t>
@@ -6956,12 +6950,6 @@
     <t>An idol of the Goddess. It increases various abilities.</t>
   </si>
   <si>
-    <t>The holy sword of wind. Use to unleash it's true power.</t>
-  </si>
-  <si>
-    <t>The holy sword of light.  Use to unleash it's true power.</t>
-  </si>
-  <si>
     <t>Luk+10</t>
   </si>
   <si>
@@ -7031,9 +7019,6 @@
     <t>The Holy Sword Revival</t>
   </si>
   <si>
-    <t>The Royal Monastary</t>
-  </si>
-  <si>
     <t>A Tingle of Temptation</t>
   </si>
   <si>
@@ -7247,9 +7232,6 @@
     <t>Chancellor</t>
   </si>
   <si>
-    <t>Knight of the third Order</t>
-  </si>
-  <si>
     <t>Lady</t>
   </si>
   <si>
@@ -7280,9 +7262,6 @@
     <t>Professor</t>
   </si>
   <si>
-    <t>Upstart Theif</t>
-  </si>
-  <si>
     <t>Martial Artist</t>
   </si>
   <si>
@@ -7319,9 +7298,6 @@
     <t>Moumei</t>
   </si>
   <si>
-    <t>Highschool Girl</t>
-  </si>
-  <si>
     <t>Middle Student</t>
   </si>
   <si>
@@ -7533,15 +7509,6 @@
   </si>
   <si>
     <t>Enemy Type 1: Junior Schoolgirl A</t>
-  </si>
-  <si>
-    <t>Enemy Type 2:  Junior Schoolgirl B</t>
-  </si>
-  <si>
-    <t>Enemy Type 3: Middle Schholgirl</t>
-  </si>
-  <si>
-    <t>Enemy Type 4: Highschool Girl</t>
   </si>
   <si>
     <t>Knight (About CC)</t>
@@ -7724,12 +7691,42 @@
   <si>
     <t>Thanks.
 Anything else you'd like to sell to me?</t>
+  </si>
+  <si>
+    <t>Knight of the Third Order</t>
+  </si>
+  <si>
+    <t>High School Girl</t>
+  </si>
+  <si>
+    <t>Enemy Type 4: High School Girl</t>
+  </si>
+  <si>
+    <t>Enemy Type 3: Middle Schoolgirl</t>
+  </si>
+  <si>
+    <t>Enemy Type 2: Junior Schoolgirl B</t>
+  </si>
+  <si>
+    <t>The holy sword of light. Use to unleash its true power.</t>
+  </si>
+  <si>
+    <t>The holy sword of wind. Use to unleash its true power.</t>
+  </si>
+  <si>
+    <t>A cloth with the power to suppress curses. Originally wrapped around the holy sword Mithrus. It's used to cover the hilt of the sword.</t>
+  </si>
+  <si>
+    <t>Candelabra</t>
+  </si>
+  <si>
+    <t>The Royal Monastery</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -8438,22 +8435,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="2" width="12.0703125" customWidth="1"/>
+    <col min="1" max="2" width="12.125" customWidth="1"/>
     <col min="3" max="3" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="30.85546875" customWidth="1"/>
-    <col min="5" max="5" width="68.140625" customWidth="1"/>
-    <col min="6" max="6" width="60.140625" customWidth="1"/>
+    <col min="4" max="4" width="30.875" customWidth="1"/>
+    <col min="5" max="5" width="68.125" customWidth="1"/>
+    <col min="6" max="6" width="60.125" customWidth="1"/>
     <col min="7" max="7" width="26" customWidth="1"/>
-    <col min="8" max="8" width="24.92578125" customWidth="1"/>
+    <col min="8" max="8" width="24.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="15">
+    <row r="1" spans="1:8" s="1" customFormat="1">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -8464,13 +8461,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>2384</v>
+        <v>2379</v>
       </c>
       <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>2385</v>
+        <v>2380</v>
       </c>
       <c r="G1" s="26" t="s">
         <v>3</v>
@@ -8479,7 +8476,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15">
+    <row r="2" spans="1:8">
       <c r="A2" s="28" t="s">
         <v>6</v>
       </c>
@@ -8490,7 +8487,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>2386</v>
+        <v>2381</v>
       </c>
       <c r="E2" s="28"/>
       <c r="F2" s="28"/>
@@ -8499,7 +8496,7 @@
       </c>
       <c r="H2" s="28"/>
     </row>
-    <row r="3" spans="1:8" ht="15">
+    <row r="3" spans="1:8">
       <c r="A3" s="28" t="s">
         <v>6</v>
       </c>
@@ -8510,7 +8507,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>2387</v>
+        <v>2382</v>
       </c>
       <c r="E3" s="28"/>
       <c r="F3" s="28"/>
@@ -8519,7 +8516,7 @@
       </c>
       <c r="H3" s="28"/>
     </row>
-    <row r="4" spans="1:8" ht="15">
+    <row r="4" spans="1:8">
       <c r="A4" s="28" t="s">
         <v>6</v>
       </c>
@@ -8528,7 +8525,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>2388</v>
+        <v>2383</v>
       </c>
       <c r="E4" s="28"/>
       <c r="F4" s="28"/>
@@ -8537,7 +8534,7 @@
       </c>
       <c r="H4" s="28"/>
     </row>
-    <row r="5" spans="1:8" ht="15">
+    <row r="5" spans="1:8">
       <c r="A5" s="28" t="s">
         <v>6</v>
       </c>
@@ -8548,7 +8545,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>2391</v>
+        <v>2536</v>
       </c>
       <c r="E5" s="28"/>
       <c r="F5" s="28"/>
@@ -8557,7 +8554,7 @@
       </c>
       <c r="H5" s="28"/>
     </row>
-    <row r="6" spans="1:8" ht="15">
+    <row r="6" spans="1:8">
       <c r="A6" s="28" t="s">
         <v>6</v>
       </c>
@@ -8575,7 +8572,7 @@
       </c>
       <c r="H6" s="28"/>
     </row>
-    <row r="7" spans="1:8" ht="15">
+    <row r="7" spans="1:8">
       <c r="A7" s="28" t="s">
         <v>6</v>
       </c>
@@ -8584,7 +8581,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>2389</v>
+        <v>2384</v>
       </c>
       <c r="E7" s="28"/>
       <c r="F7" s="28"/>
@@ -8593,7 +8590,7 @@
       </c>
       <c r="H7" s="28"/>
     </row>
-    <row r="8" spans="1:8" ht="15">
+    <row r="8" spans="1:8">
       <c r="A8" s="28" t="s">
         <v>6</v>
       </c>
@@ -8602,7 +8599,7 @@
         <v>22</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>2390</v>
+        <v>2385</v>
       </c>
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
@@ -8611,7 +8608,7 @@
       </c>
       <c r="H8" s="28"/>
     </row>
-    <row r="9" spans="1:8" ht="15">
+    <row r="9" spans="1:8">
       <c r="A9" s="28" t="s">
         <v>6</v>
       </c>
@@ -8622,7 +8619,7 @@
         <v>24</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>2392</v>
+        <v>2386</v>
       </c>
       <c r="E9" s="28"/>
       <c r="F9" s="28"/>
@@ -8631,7 +8628,7 @@
       </c>
       <c r="H9" s="28"/>
     </row>
-    <row r="10" spans="1:8" ht="15">
+    <row r="10" spans="1:8">
       <c r="A10" s="28" t="s">
         <v>26</v>
       </c>
@@ -8640,7 +8637,7 @@
         <v>27</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>2393</v>
+        <v>2387</v>
       </c>
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
@@ -8649,23 +8646,23 @@
       </c>
       <c r="H10" s="28"/>
     </row>
-    <row r="11" spans="1:8" ht="15">
+    <row r="11" spans="1:8">
       <c r="A11" s="28" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="28"/>
       <c r="C11" s="28" t="s">
-        <v>2449</v>
+        <v>2441</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>2450</v>
+        <v>2442</v>
       </c>
       <c r="E11" s="28"/>
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
     </row>
-    <row r="12" spans="1:8" ht="15">
+    <row r="12" spans="1:8">
       <c r="A12" s="28" t="s">
         <v>26</v>
       </c>
@@ -8674,7 +8671,7 @@
         <v>29</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>2394</v>
+        <v>2388</v>
       </c>
       <c r="E12" s="28"/>
       <c r="F12" s="28"/>
@@ -8683,7 +8680,7 @@
       </c>
       <c r="H12" s="28"/>
     </row>
-    <row r="13" spans="1:8" ht="15">
+    <row r="13" spans="1:8">
       <c r="A13" s="28" t="s">
         <v>31</v>
       </c>
@@ -8692,7 +8689,7 @@
         <v>32</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>2395</v>
+        <v>2389</v>
       </c>
       <c r="E13" s="28"/>
       <c r="F13" s="28"/>
@@ -8701,7 +8698,7 @@
       </c>
       <c r="H13" s="28"/>
     </row>
-    <row r="14" spans="1:8" ht="15">
+    <row r="14" spans="1:8">
       <c r="A14" s="28" t="s">
         <v>31</v>
       </c>
@@ -8710,7 +8707,7 @@
         <v>34</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>2396</v>
+        <v>2390</v>
       </c>
       <c r="E14" s="28"/>
       <c r="F14" s="28"/>
@@ -8719,7 +8716,7 @@
       </c>
       <c r="H14" s="28"/>
     </row>
-    <row r="15" spans="1:8" ht="15">
+    <row r="15" spans="1:8">
       <c r="A15" s="28" t="s">
         <v>31</v>
       </c>
@@ -8728,7 +8725,7 @@
         <v>36</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>2397</v>
+        <v>2391</v>
       </c>
       <c r="E15" s="28"/>
       <c r="F15" s="28"/>
@@ -8737,7 +8734,7 @@
       </c>
       <c r="H15" s="28"/>
     </row>
-    <row r="16" spans="1:8" ht="15">
+    <row r="16" spans="1:8">
       <c r="A16" s="28" t="s">
         <v>31</v>
       </c>
@@ -8746,7 +8743,7 @@
         <v>38</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>2398</v>
+        <v>2392</v>
       </c>
       <c r="E16" s="28"/>
       <c r="F16" s="28"/>
@@ -8755,7 +8752,7 @@
       </c>
       <c r="H16" s="28"/>
     </row>
-    <row r="17" spans="1:8" ht="15">
+    <row r="17" spans="1:8">
       <c r="A17" s="28" t="s">
         <v>31</v>
       </c>
@@ -8764,7 +8761,7 @@
         <v>40</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>2399</v>
+        <v>2393</v>
       </c>
       <c r="E17" s="28"/>
       <c r="F17" s="28"/>
@@ -8773,55 +8770,55 @@
       </c>
       <c r="H17" s="28"/>
     </row>
-    <row r="18" spans="1:8" ht="15">
+    <row r="18" spans="1:8">
       <c r="A18" s="28" t="s">
         <v>31</v>
       </c>
       <c r="B18" s="28"/>
       <c r="C18" s="28" t="s">
-        <v>2451</v>
+        <v>2443</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>2454</v>
+        <v>2446</v>
       </c>
       <c r="E18" s="28"/>
       <c r="F18" s="28"/>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
     </row>
-    <row r="19" spans="1:8" ht="15">
+    <row r="19" spans="1:8">
       <c r="A19" s="28" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="28"/>
       <c r="C19" s="28" t="s">
-        <v>2452</v>
+        <v>2444</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>2455</v>
+        <v>2447</v>
       </c>
       <c r="E19" s="28"/>
       <c r="F19" s="28"/>
       <c r="G19" s="28"/>
       <c r="H19" s="28"/>
     </row>
-    <row r="20" spans="1:8" ht="15">
+    <row r="20" spans="1:8">
       <c r="A20" s="28" t="s">
         <v>31</v>
       </c>
       <c r="B20" s="28"/>
       <c r="C20" s="28" t="s">
-        <v>2453</v>
+        <v>2445</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>2456</v>
+        <v>2448</v>
       </c>
       <c r="E20" s="28"/>
       <c r="F20" s="28"/>
       <c r="G20" s="28"/>
       <c r="H20" s="28"/>
     </row>
-    <row r="21" spans="1:8" ht="15">
+    <row r="21" spans="1:8">
       <c r="A21" s="28" t="s">
         <v>31</v>
       </c>
@@ -8839,7 +8836,7 @@
       </c>
       <c r="H21" s="28"/>
     </row>
-    <row r="22" spans="1:8" ht="15">
+    <row r="22" spans="1:8">
       <c r="A22" s="28" t="s">
         <v>31</v>
       </c>
@@ -8848,7 +8845,7 @@
         <v>44</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>2400</v>
+        <v>2394</v>
       </c>
       <c r="E22" s="28"/>
       <c r="F22" s="28"/>
@@ -8857,7 +8854,7 @@
       </c>
       <c r="H22" s="28"/>
     </row>
-    <row r="23" spans="1:8" ht="15">
+    <row r="23" spans="1:8">
       <c r="A23" s="28" t="s">
         <v>31</v>
       </c>
@@ -8875,7 +8872,7 @@
       </c>
       <c r="H23" s="28"/>
     </row>
-    <row r="24" spans="1:8" ht="15">
+    <row r="24" spans="1:8">
       <c r="A24" s="28" t="s">
         <v>31</v>
       </c>
@@ -8884,7 +8881,7 @@
         <v>48</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>2401</v>
+        <v>2395</v>
       </c>
       <c r="E24" s="28"/>
       <c r="F24" s="28"/>
@@ -8893,7 +8890,7 @@
       </c>
       <c r="H24" s="28"/>
     </row>
-    <row r="25" spans="1:8" ht="15">
+    <row r="25" spans="1:8">
       <c r="A25" s="28" t="s">
         <v>31</v>
       </c>
@@ -8911,7 +8908,7 @@
       </c>
       <c r="H25" s="28"/>
     </row>
-    <row r="26" spans="1:8" ht="15">
+    <row r="26" spans="1:8">
       <c r="A26" s="28" t="s">
         <v>31</v>
       </c>
@@ -8929,7 +8926,7 @@
       </c>
       <c r="H26" s="28"/>
     </row>
-    <row r="27" spans="1:8" ht="15">
+    <row r="27" spans="1:8">
       <c r="A27" s="28" t="s">
         <v>31</v>
       </c>
@@ -8947,7 +8944,7 @@
       </c>
       <c r="H27" s="28"/>
     </row>
-    <row r="28" spans="1:8" ht="15">
+    <row r="28" spans="1:8">
       <c r="A28" s="28" t="s">
         <v>31</v>
       </c>
@@ -8965,7 +8962,7 @@
       </c>
       <c r="H28" s="28"/>
     </row>
-    <row r="29" spans="1:8" ht="15">
+    <row r="29" spans="1:8">
       <c r="A29" s="28" t="s">
         <v>31</v>
       </c>
@@ -8974,7 +8971,7 @@
         <v>57</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>2402</v>
+        <v>2139</v>
       </c>
       <c r="E29" s="28"/>
       <c r="F29" s="28"/>
@@ -8983,7 +8980,7 @@
       </c>
       <c r="H29" s="28"/>
     </row>
-    <row r="30" spans="1:8" ht="15">
+    <row r="30" spans="1:8">
       <c r="A30" s="28" t="s">
         <v>31</v>
       </c>
@@ -8992,7 +8989,7 @@
         <v>59</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>2403</v>
+        <v>2396</v>
       </c>
       <c r="E30" s="28"/>
       <c r="F30" s="28"/>
@@ -9001,7 +8998,7 @@
       </c>
       <c r="H30" s="28"/>
     </row>
-    <row r="31" spans="1:8" ht="15">
+    <row r="31" spans="1:8">
       <c r="A31" s="28" t="s">
         <v>31</v>
       </c>
@@ -9010,7 +9007,7 @@
         <v>61</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>2404</v>
+        <v>2397</v>
       </c>
       <c r="E31" s="28"/>
       <c r="F31" s="28"/>
@@ -9019,7 +9016,7 @@
       </c>
       <c r="H31" s="28"/>
     </row>
-    <row r="32" spans="1:8" ht="15">
+    <row r="32" spans="1:8">
       <c r="A32" s="28" t="s">
         <v>63</v>
       </c>
@@ -9030,20 +9027,20 @@
         <v>65</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>2407</v>
+        <v>2400</v>
       </c>
       <c r="E32" s="28" t="s">
-        <v>2343</v>
+        <v>2338</v>
       </c>
       <c r="F32" s="28" t="s">
-        <v>2447</v>
+        <v>2439</v>
       </c>
       <c r="G32" s="28" t="s">
         <v>66</v>
       </c>
       <c r="H32" s="28"/>
     </row>
-    <row r="33" spans="1:8" ht="15">
+    <row r="33" spans="1:8">
       <c r="A33" s="28" t="s">
         <v>63</v>
       </c>
@@ -9054,20 +9051,20 @@
         <v>67</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>2408</v>
+        <v>2401</v>
       </c>
       <c r="E33" s="28" t="s">
-        <v>2344</v>
+        <v>2339</v>
       </c>
       <c r="F33" s="28" t="s">
-        <v>2448</v>
+        <v>2440</v>
       </c>
       <c r="G33" s="34" t="s">
         <v>68</v>
       </c>
       <c r="H33" s="28"/>
     </row>
-    <row r="34" spans="1:8" ht="15">
+    <row r="34" spans="1:8">
       <c r="A34" s="28" t="s">
         <v>63</v>
       </c>
@@ -9078,7 +9075,7 @@
         <v>69</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>2409</v>
+        <v>2402</v>
       </c>
       <c r="E34" s="28"/>
       <c r="F34" s="28"/>
@@ -9087,7 +9084,7 @@
       </c>
       <c r="H34" s="28"/>
     </row>
-    <row r="35" spans="1:8" ht="15">
+    <row r="35" spans="1:8">
       <c r="A35" s="28" t="s">
         <v>63</v>
       </c>
@@ -9098,10 +9095,10 @@
         <v>71</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>2410</v>
+        <v>2403</v>
       </c>
       <c r="E35" s="28" t="s">
-        <v>2345</v>
+        <v>2340</v>
       </c>
       <c r="F35" s="28"/>
       <c r="G35" s="28" t="s">
@@ -9109,7 +9106,7 @@
       </c>
       <c r="H35" s="28"/>
     </row>
-    <row r="36" spans="1:8" ht="15">
+    <row r="36" spans="1:8">
       <c r="A36" s="28" t="s">
         <v>63</v>
       </c>
@@ -9120,10 +9117,10 @@
         <v>73</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>2411</v>
+        <v>2404</v>
       </c>
       <c r="E36" s="28" t="s">
-        <v>2346</v>
+        <v>2341</v>
       </c>
       <c r="F36" s="28"/>
       <c r="G36" s="34" t="s">
@@ -9131,7 +9128,7 @@
       </c>
       <c r="H36" s="28"/>
     </row>
-    <row r="37" spans="1:8" ht="15">
+    <row r="37" spans="1:8">
       <c r="A37" s="28" t="s">
         <v>63</v>
       </c>
@@ -9142,10 +9139,10 @@
         <v>75</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>2412</v>
+        <v>2405</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>2347</v>
+        <v>2342</v>
       </c>
       <c r="F37" s="28"/>
       <c r="G37" s="28" t="s">
@@ -9153,7 +9150,7 @@
       </c>
       <c r="H37" s="28"/>
     </row>
-    <row r="38" spans="1:8" ht="15">
+    <row r="38" spans="1:8">
       <c r="A38" s="28" t="s">
         <v>63</v>
       </c>
@@ -9164,10 +9161,10 @@
         <v>77</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>2413</v>
+        <v>2406</v>
       </c>
       <c r="E38" s="28" t="s">
-        <v>2348</v>
+        <v>2343</v>
       </c>
       <c r="F38" s="28"/>
       <c r="G38" s="28" t="s">
@@ -9175,7 +9172,7 @@
       </c>
       <c r="H38" s="28"/>
     </row>
-    <row r="39" spans="1:8" ht="15">
+    <row r="39" spans="1:8">
       <c r="A39" s="28" t="s">
         <v>63</v>
       </c>
@@ -9186,10 +9183,10 @@
         <v>79</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>2417</v>
+        <v>2409</v>
       </c>
       <c r="E39" s="28" t="s">
-        <v>2349</v>
+        <v>2344</v>
       </c>
       <c r="F39" s="28"/>
       <c r="G39" s="28" t="s">
@@ -9197,7 +9194,7 @@
       </c>
       <c r="H39" s="28"/>
     </row>
-    <row r="40" spans="1:8" ht="15">
+    <row r="40" spans="1:8">
       <c r="A40" s="28" t="s">
         <v>63</v>
       </c>
@@ -9208,10 +9205,10 @@
         <v>79</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>2417</v>
+        <v>2409</v>
       </c>
       <c r="E40" s="28" t="s">
-        <v>2350</v>
+        <v>2345</v>
       </c>
       <c r="F40" s="28"/>
       <c r="G40" s="28" t="s">
@@ -9219,7 +9216,7 @@
       </c>
       <c r="H40" s="28"/>
     </row>
-    <row r="41" spans="1:8" ht="15">
+    <row r="41" spans="1:8">
       <c r="A41" s="28" t="s">
         <v>63</v>
       </c>
@@ -9230,10 +9227,10 @@
         <v>81</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>2415</v>
+        <v>2537</v>
       </c>
       <c r="E41" s="28" t="s">
-        <v>2351</v>
+        <v>2346</v>
       </c>
       <c r="F41" s="28"/>
       <c r="G41" s="28" t="s">
@@ -9241,7 +9238,7 @@
       </c>
       <c r="H41" s="28"/>
     </row>
-    <row r="42" spans="1:8" ht="15">
+    <row r="42" spans="1:8">
       <c r="A42" s="28" t="s">
         <v>63</v>
       </c>
@@ -9252,10 +9249,10 @@
         <v>83</v>
       </c>
       <c r="D42" s="28" t="s">
-        <v>2414</v>
+        <v>2407</v>
       </c>
       <c r="E42" s="28" t="s">
-        <v>2352</v>
+        <v>2347</v>
       </c>
       <c r="F42" s="28"/>
       <c r="G42" s="28" t="s">
@@ -9263,7 +9260,7 @@
       </c>
       <c r="H42" s="28"/>
     </row>
-    <row r="43" spans="1:8" ht="15">
+    <row r="43" spans="1:8">
       <c r="A43" s="28" t="s">
         <v>63</v>
       </c>
@@ -9274,10 +9271,10 @@
         <v>85</v>
       </c>
       <c r="D43" s="28" t="s">
-        <v>2416</v>
+        <v>2408</v>
       </c>
       <c r="E43" s="28" t="s">
-        <v>2353</v>
+        <v>2348</v>
       </c>
       <c r="F43" s="28"/>
       <c r="G43" s="28" t="s">
@@ -9285,7 +9282,7 @@
       </c>
       <c r="H43" s="28"/>
     </row>
-    <row r="44" spans="1:8" ht="15">
+    <row r="44" spans="1:8">
       <c r="A44" s="28" t="s">
         <v>63</v>
       </c>
@@ -9296,10 +9293,10 @@
         <v>87</v>
       </c>
       <c r="D44" s="28" t="s">
-        <v>2406</v>
+        <v>2399</v>
       </c>
       <c r="E44" s="28" t="s">
-        <v>2354</v>
+        <v>2349</v>
       </c>
       <c r="F44" s="28"/>
       <c r="G44" s="28" t="s">
@@ -9307,7 +9304,7 @@
       </c>
       <c r="H44" s="28"/>
     </row>
-    <row r="45" spans="1:8" ht="15">
+    <row r="45" spans="1:8">
       <c r="A45" s="28" t="s">
         <v>63</v>
       </c>
@@ -9318,10 +9315,10 @@
         <v>89</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>2418</v>
+        <v>2410</v>
       </c>
       <c r="E45" s="28" t="s">
-        <v>2355</v>
+        <v>2350</v>
       </c>
       <c r="F45" s="28"/>
       <c r="G45" s="41" t="s">
@@ -9329,7 +9326,7 @@
       </c>
       <c r="H45" s="28"/>
     </row>
-    <row r="46" spans="1:8" ht="15">
+    <row r="46" spans="1:8">
       <c r="A46" s="28" t="s">
         <v>63</v>
       </c>
@@ -9340,10 +9337,10 @@
         <v>91</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>2419</v>
+        <v>2411</v>
       </c>
       <c r="E46" s="28" t="s">
-        <v>2356</v>
+        <v>2351</v>
       </c>
       <c r="F46" s="28"/>
       <c r="G46" s="28" t="s">
@@ -9351,7 +9348,7 @@
       </c>
       <c r="H46" s="28"/>
     </row>
-    <row r="47" spans="1:8" ht="15">
+    <row r="47" spans="1:8">
       <c r="A47" s="28" t="s">
         <v>63</v>
       </c>
@@ -9362,10 +9359,10 @@
         <v>93</v>
       </c>
       <c r="D47" s="28" t="s">
-        <v>2420</v>
+        <v>2412</v>
       </c>
       <c r="E47" s="28" t="s">
-        <v>2357</v>
+        <v>2352</v>
       </c>
       <c r="F47" s="28"/>
       <c r="G47" s="28" t="s">
@@ -9373,7 +9370,7 @@
       </c>
       <c r="H47" s="28"/>
     </row>
-    <row r="48" spans="1:8" ht="15">
+    <row r="48" spans="1:8">
       <c r="A48" s="28" t="s">
         <v>63</v>
       </c>
@@ -9384,10 +9381,10 @@
         <v>95</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>2435</v>
+        <v>2427</v>
       </c>
       <c r="E48" s="28" t="s">
-        <v>2358</v>
+        <v>2353</v>
       </c>
       <c r="F48" s="28"/>
       <c r="G48" s="28" t="s">
@@ -9395,7 +9392,7 @@
       </c>
       <c r="H48" s="28"/>
     </row>
-    <row r="49" spans="1:8" ht="15">
+    <row r="49" spans="1:8">
       <c r="A49" s="28" t="s">
         <v>63</v>
       </c>
@@ -9406,10 +9403,10 @@
         <v>97</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>2436</v>
+        <v>2428</v>
       </c>
       <c r="E49" s="28" t="s">
-        <v>2359</v>
+        <v>2354</v>
       </c>
       <c r="F49" s="28"/>
       <c r="G49" s="28" t="s">
@@ -9417,7 +9414,7 @@
       </c>
       <c r="H49" s="28"/>
     </row>
-    <row r="50" spans="1:8" ht="15">
+    <row r="50" spans="1:8">
       <c r="A50" s="28" t="s">
         <v>63</v>
       </c>
@@ -9428,10 +9425,10 @@
         <v>99</v>
       </c>
       <c r="D50" s="28" t="s">
-        <v>2437</v>
+        <v>2429</v>
       </c>
       <c r="E50" s="28" t="s">
-        <v>2360</v>
+        <v>2355</v>
       </c>
       <c r="F50" s="28"/>
       <c r="G50" s="28" t="s">
@@ -9439,7 +9436,7 @@
       </c>
       <c r="H50" s="28"/>
     </row>
-    <row r="51" spans="1:8" ht="15">
+    <row r="51" spans="1:8">
       <c r="A51" s="28" t="s">
         <v>63</v>
       </c>
@@ -9450,10 +9447,10 @@
         <v>101</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>2438</v>
+        <v>2430</v>
       </c>
       <c r="E51" s="28" t="s">
-        <v>2361</v>
+        <v>2356</v>
       </c>
       <c r="F51" s="28"/>
       <c r="G51" s="28" t="s">
@@ -9461,7 +9458,7 @@
       </c>
       <c r="H51" s="28"/>
     </row>
-    <row r="52" spans="1:8" ht="15">
+    <row r="52" spans="1:8">
       <c r="A52" s="28" t="s">
         <v>63</v>
       </c>
@@ -9472,10 +9469,10 @@
         <v>103</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>2444</v>
+        <v>2436</v>
       </c>
       <c r="E52" s="28" t="s">
-        <v>2362</v>
+        <v>2357</v>
       </c>
       <c r="F52" s="28"/>
       <c r="G52" s="28" t="s">
@@ -9483,7 +9480,7 @@
       </c>
       <c r="H52" s="28"/>
     </row>
-    <row r="53" spans="1:8" ht="15">
+    <row r="53" spans="1:8">
       <c r="A53" s="28" t="s">
         <v>63</v>
       </c>
@@ -9494,10 +9491,10 @@
         <v>105</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>2434</v>
+        <v>2426</v>
       </c>
       <c r="E53" s="28" t="s">
-        <v>2363</v>
+        <v>2358</v>
       </c>
       <c r="F53" s="28"/>
       <c r="G53" s="28" t="s">
@@ -9505,7 +9502,7 @@
       </c>
       <c r="H53" s="28"/>
     </row>
-    <row r="54" spans="1:8" ht="15">
+    <row r="54" spans="1:8">
       <c r="A54" s="28" t="s">
         <v>63</v>
       </c>
@@ -9516,10 +9513,10 @@
         <v>108</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>2439</v>
+        <v>2431</v>
       </c>
       <c r="E54" s="28" t="s">
-        <v>2364</v>
+        <v>2359</v>
       </c>
       <c r="F54" s="28"/>
       <c r="G54" s="28" t="s">
@@ -9527,7 +9524,7 @@
       </c>
       <c r="H54" s="28"/>
     </row>
-    <row r="55" spans="1:8" ht="15">
+    <row r="55" spans="1:8">
       <c r="A55" s="28" t="s">
         <v>63</v>
       </c>
@@ -9538,7 +9535,7 @@
         <v>111</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>2440</v>
+        <v>2432</v>
       </c>
       <c r="E55" s="28" t="s">
         <v>2008</v>
@@ -9549,7 +9546,7 @@
       </c>
       <c r="H55" s="28"/>
     </row>
-    <row r="56" spans="1:8" ht="15">
+    <row r="56" spans="1:8">
       <c r="A56" s="28" t="s">
         <v>63</v>
       </c>
@@ -9560,10 +9557,10 @@
         <v>111</v>
       </c>
       <c r="D56" s="28" t="s">
-        <v>2440</v>
+        <v>2432</v>
       </c>
       <c r="E56" s="28" t="s">
-        <v>2365</v>
+        <v>2360</v>
       </c>
       <c r="F56" s="28"/>
       <c r="G56" s="28" t="s">
@@ -9571,7 +9568,7 @@
       </c>
       <c r="H56" s="28"/>
     </row>
-    <row r="57" spans="1:8" ht="15">
+    <row r="57" spans="1:8">
       <c r="A57" s="28" t="s">
         <v>63</v>
       </c>
@@ -9582,10 +9579,10 @@
         <v>113</v>
       </c>
       <c r="D57" s="28" t="s">
-        <v>2441</v>
+        <v>2433</v>
       </c>
       <c r="E57" s="28" t="s">
-        <v>2366</v>
+        <v>2361</v>
       </c>
       <c r="F57" s="28"/>
       <c r="G57" s="28" t="s">
@@ -9593,7 +9590,7 @@
       </c>
       <c r="H57" s="28"/>
     </row>
-    <row r="58" spans="1:8" ht="15">
+    <row r="58" spans="1:8">
       <c r="A58" s="28" t="s">
         <v>63</v>
       </c>
@@ -9604,10 +9601,10 @@
         <v>115</v>
       </c>
       <c r="D58" s="28" t="s">
-        <v>2442</v>
+        <v>2434</v>
       </c>
       <c r="E58" s="28" t="s">
-        <v>2367</v>
+        <v>2362</v>
       </c>
       <c r="F58" s="28"/>
       <c r="G58" s="28" t="s">
@@ -9615,7 +9612,7 @@
       </c>
       <c r="H58" s="28"/>
     </row>
-    <row r="59" spans="1:8" ht="15">
+    <row r="59" spans="1:8">
       <c r="A59" s="28" t="s">
         <v>63</v>
       </c>
@@ -9626,10 +9623,10 @@
         <v>117</v>
       </c>
       <c r="D59" s="28" t="s">
-        <v>2443</v>
+        <v>2435</v>
       </c>
       <c r="E59" s="28" t="s">
-        <v>2368</v>
+        <v>2363</v>
       </c>
       <c r="F59" s="28"/>
       <c r="G59" s="28" t="s">
@@ -9637,7 +9634,7 @@
       </c>
       <c r="H59" s="28"/>
     </row>
-    <row r="60" spans="1:8" ht="15">
+    <row r="60" spans="1:8">
       <c r="A60" s="28" t="s">
         <v>63</v>
       </c>
@@ -9648,10 +9645,10 @@
         <v>120</v>
       </c>
       <c r="D60" s="28" t="s">
-        <v>2426</v>
+        <v>2418</v>
       </c>
       <c r="E60" s="28" t="s">
-        <v>2369</v>
+        <v>2364</v>
       </c>
       <c r="F60" s="28"/>
       <c r="G60" s="28" t="s">
@@ -9659,7 +9656,7 @@
       </c>
       <c r="H60" s="28"/>
     </row>
-    <row r="61" spans="1:8" ht="15">
+    <row r="61" spans="1:8">
       <c r="A61" s="28" t="s">
         <v>2009</v>
       </c>
@@ -9670,7 +9667,7 @@
         <v>122</v>
       </c>
       <c r="D61" s="28" t="s">
-        <v>2432</v>
+        <v>2424</v>
       </c>
       <c r="E61" s="28" t="s">
         <v>2010</v>
@@ -9681,7 +9678,7 @@
       </c>
       <c r="H61" s="28"/>
     </row>
-    <row r="62" spans="1:8" ht="15">
+    <row r="62" spans="1:8">
       <c r="A62" s="28" t="s">
         <v>63</v>
       </c>
@@ -9692,10 +9689,10 @@
         <v>122</v>
       </c>
       <c r="D62" s="28" t="s">
-        <v>2432</v>
+        <v>2424</v>
       </c>
       <c r="E62" s="28" t="s">
-        <v>2370</v>
+        <v>2365</v>
       </c>
       <c r="F62" s="28"/>
       <c r="G62" s="28" t="s">
@@ -9703,7 +9700,7 @@
       </c>
       <c r="H62" s="28"/>
     </row>
-    <row r="63" spans="1:8" ht="15">
+    <row r="63" spans="1:8">
       <c r="A63" s="28" t="s">
         <v>63</v>
       </c>
@@ -9714,10 +9711,10 @@
         <v>124</v>
       </c>
       <c r="D63" s="28" t="s">
-        <v>2433</v>
+        <v>2425</v>
       </c>
       <c r="E63" s="28" t="s">
-        <v>2371</v>
+        <v>2366</v>
       </c>
       <c r="F63" s="28"/>
       <c r="G63" s="28" t="s">
@@ -9725,7 +9722,7 @@
       </c>
       <c r="H63" s="28"/>
     </row>
-    <row r="64" spans="1:8" ht="15">
+    <row r="64" spans="1:8">
       <c r="A64" s="28" t="s">
         <v>63</v>
       </c>
@@ -9736,10 +9733,10 @@
         <v>126</v>
       </c>
       <c r="D64" s="28" t="s">
-        <v>2431</v>
+        <v>2423</v>
       </c>
       <c r="E64" s="28" t="s">
-        <v>2372</v>
+        <v>2367</v>
       </c>
       <c r="F64" s="28"/>
       <c r="G64" s="28" t="s">
@@ -9747,7 +9744,7 @@
       </c>
       <c r="H64" s="28"/>
     </row>
-    <row r="65" spans="1:8" ht="15">
+    <row r="65" spans="1:8">
       <c r="A65" s="28" t="s">
         <v>63</v>
       </c>
@@ -9759,7 +9756,7 @@
       </c>
       <c r="D65" s="28"/>
       <c r="E65" s="28" t="s">
-        <v>2373</v>
+        <v>2368</v>
       </c>
       <c r="F65" s="28"/>
       <c r="G65" s="28" t="s">
@@ -9767,7 +9764,7 @@
       </c>
       <c r="H65" s="28"/>
     </row>
-    <row r="66" spans="1:8" ht="15">
+    <row r="66" spans="1:8">
       <c r="A66" s="28" t="s">
         <v>63</v>
       </c>
@@ -9778,10 +9775,10 @@
         <v>77</v>
       </c>
       <c r="D66" s="28" t="s">
-        <v>2413</v>
+        <v>2406</v>
       </c>
       <c r="E66" s="28" t="s">
-        <v>2374</v>
+        <v>2369</v>
       </c>
       <c r="F66" s="28"/>
       <c r="G66" s="28" t="s">
@@ -9789,7 +9786,7 @@
       </c>
       <c r="H66" s="28"/>
     </row>
-    <row r="67" spans="1:8" ht="15">
+    <row r="67" spans="1:8">
       <c r="A67" s="28" t="s">
         <v>63</v>
       </c>
@@ -9800,10 +9797,10 @@
         <v>130</v>
       </c>
       <c r="D67" s="28" t="s">
-        <v>2427</v>
+        <v>2419</v>
       </c>
       <c r="E67" s="28" t="s">
-        <v>2375</v>
+        <v>2370</v>
       </c>
       <c r="F67" s="28"/>
       <c r="G67" s="28" t="s">
@@ -9811,7 +9808,7 @@
       </c>
       <c r="H67" s="28"/>
     </row>
-    <row r="68" spans="1:8" ht="15">
+    <row r="68" spans="1:8">
       <c r="A68" s="28" t="s">
         <v>63</v>
       </c>
@@ -9822,10 +9819,10 @@
         <v>133</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>2428</v>
+        <v>2420</v>
       </c>
       <c r="E68" s="28" t="s">
-        <v>2376</v>
+        <v>2371</v>
       </c>
       <c r="F68" s="28"/>
       <c r="G68" s="28" t="s">
@@ -9833,7 +9830,7 @@
       </c>
       <c r="H68" s="28"/>
     </row>
-    <row r="69" spans="1:8" ht="15">
+    <row r="69" spans="1:8">
       <c r="A69" s="28" t="s">
         <v>63</v>
       </c>
@@ -9844,10 +9841,10 @@
         <v>135</v>
       </c>
       <c r="D69" s="28" t="s">
-        <v>2429</v>
+        <v>2421</v>
       </c>
       <c r="E69" s="28" t="s">
-        <v>2376</v>
+        <v>2371</v>
       </c>
       <c r="F69" s="28"/>
       <c r="G69" s="28" t="s">
@@ -9855,7 +9852,7 @@
       </c>
       <c r="H69" s="28"/>
     </row>
-    <row r="70" spans="1:8" ht="15">
+    <row r="70" spans="1:8">
       <c r="A70" s="28" t="s">
         <v>63</v>
       </c>
@@ -9866,10 +9863,10 @@
         <v>137</v>
       </c>
       <c r="D70" s="28" t="s">
-        <v>2430</v>
+        <v>2422</v>
       </c>
       <c r="E70" s="28" t="s">
-        <v>2377</v>
+        <v>2372</v>
       </c>
       <c r="F70" s="28"/>
       <c r="G70" s="28" t="s">
@@ -9877,7 +9874,7 @@
       </c>
       <c r="H70" s="28"/>
     </row>
-    <row r="71" spans="1:8" ht="15">
+    <row r="71" spans="1:8">
       <c r="A71" s="28" t="s">
         <v>63</v>
       </c>
@@ -9888,10 +9885,10 @@
         <v>139</v>
       </c>
       <c r="D71" s="28" t="s">
-        <v>2424</v>
+        <v>2416</v>
       </c>
       <c r="E71" s="28" t="s">
-        <v>2378</v>
+        <v>2373</v>
       </c>
       <c r="F71" s="28"/>
       <c r="G71" s="28" t="s">
@@ -9899,7 +9896,7 @@
       </c>
       <c r="H71" s="28"/>
     </row>
-    <row r="72" spans="1:8" ht="15">
+    <row r="72" spans="1:8">
       <c r="A72" s="28" t="s">
         <v>63</v>
       </c>
@@ -9910,10 +9907,10 @@
         <v>141</v>
       </c>
       <c r="D72" s="28" t="s">
-        <v>2425</v>
+        <v>2417</v>
       </c>
       <c r="E72" s="28" t="s">
-        <v>2379</v>
+        <v>2374</v>
       </c>
       <c r="F72" s="28"/>
       <c r="G72" s="28" t="s">
@@ -9921,7 +9918,7 @@
       </c>
       <c r="H72" s="28"/>
     </row>
-    <row r="73" spans="1:8" ht="15">
+    <row r="73" spans="1:8">
       <c r="A73" s="28" t="s">
         <v>63</v>
       </c>
@@ -9932,10 +9929,10 @@
         <v>143</v>
       </c>
       <c r="D73" s="28" t="s">
-        <v>2422</v>
+        <v>2414</v>
       </c>
       <c r="E73" s="28" t="s">
-        <v>2380</v>
+        <v>2375</v>
       </c>
       <c r="F73" s="28"/>
       <c r="G73" s="28" t="s">
@@ -9943,7 +9940,7 @@
       </c>
       <c r="H73" s="28"/>
     </row>
-    <row r="74" spans="1:8" ht="15">
+    <row r="74" spans="1:8">
       <c r="A74" s="28" t="s">
         <v>63</v>
       </c>
@@ -9954,7 +9951,7 @@
         <v>146</v>
       </c>
       <c r="D74" s="28" t="s">
-        <v>2423</v>
+        <v>2415</v>
       </c>
       <c r="E74" s="28"/>
       <c r="F74" s="28"/>
@@ -9963,7 +9960,7 @@
       </c>
       <c r="H74" s="28"/>
     </row>
-    <row r="75" spans="1:8" ht="15">
+    <row r="75" spans="1:8">
       <c r="A75" s="28" t="s">
         <v>63</v>
       </c>
@@ -9974,10 +9971,10 @@
         <v>148</v>
       </c>
       <c r="D75" s="28" t="s">
-        <v>2421</v>
+        <v>2413</v>
       </c>
       <c r="E75" s="28" t="s">
-        <v>2381</v>
+        <v>2376</v>
       </c>
       <c r="F75" s="28"/>
       <c r="G75" s="28" t="s">
@@ -9985,7 +9982,7 @@
       </c>
       <c r="H75" s="28"/>
     </row>
-    <row r="76" spans="1:8" ht="15">
+    <row r="76" spans="1:8">
       <c r="A76" s="28" t="s">
         <v>63</v>
       </c>
@@ -9996,10 +9993,10 @@
         <v>151</v>
       </c>
       <c r="D76" s="28" t="s">
-        <v>2445</v>
+        <v>2437</v>
       </c>
       <c r="E76" s="28" t="s">
-        <v>2382</v>
+        <v>2377</v>
       </c>
       <c r="F76" s="28"/>
       <c r="G76" s="28" t="s">
@@ -10007,7 +10004,7 @@
       </c>
       <c r="H76" s="28"/>
     </row>
-    <row r="77" spans="1:8" ht="15">
+    <row r="77" spans="1:8">
       <c r="A77" s="28" t="s">
         <v>63</v>
       </c>
@@ -10018,10 +10015,10 @@
         <v>153</v>
       </c>
       <c r="D77" s="28" t="s">
-        <v>2446</v>
+        <v>2438</v>
       </c>
       <c r="E77" s="28" t="s">
-        <v>2383</v>
+        <v>2378</v>
       </c>
       <c r="F77" s="28"/>
       <c r="G77" s="28" t="s">
@@ -10042,14 +10039,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B251"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B246" sqref="B246"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" style="17" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="32.75" style="17" customWidth="1"/>
+    <col min="2" max="2" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -11413,20 +11410,20 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="21.0703125" customWidth="1"/>
-    <col min="2" max="2" width="53.0703125" customWidth="1"/>
-    <col min="3" max="3" width="58.7109375" customWidth="1"/>
-    <col min="4" max="4" width="47.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.125" customWidth="1"/>
+    <col min="2" max="2" width="53.125" customWidth="1"/>
+    <col min="3" max="3" width="58.75" customWidth="1"/>
+    <col min="4" max="4" width="47.75" customWidth="1"/>
     <col min="5" max="5" width="20.5" customWidth="1"/>
-    <col min="6" max="6" width="53.7109375" customWidth="1"/>
+    <col min="6" max="6" width="53.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15">
+    <row r="1" spans="1:6">
       <c r="A1" s="39" t="s">
         <v>1628</v>
       </c>
@@ -11437,17 +11434,17 @@
         <v>1629</v>
       </c>
       <c r="D1" s="39" t="s">
-        <v>2325</v>
+        <v>2320</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="2" spans="1:6" ht="15">
+    <row r="2" spans="1:6">
       <c r="A2" s="28" t="s">
         <v>1630</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>2326</v>
+        <v>2321</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>1632</v>
@@ -11459,15 +11456,15 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15">
+    <row r="3" spans="1:6">
       <c r="A3" s="28" t="s">
         <v>1634</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>2327</v>
+        <v>2322</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>2342</v>
+        <v>2337</v>
       </c>
       <c r="E3" t="s">
         <v>1635</v>
@@ -11476,15 +11473,15 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15">
+    <row r="4" spans="1:6">
       <c r="A4" s="28" t="s">
         <v>1637</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>2328</v>
+        <v>2323</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>2342</v>
+        <v>2337</v>
       </c>
       <c r="E4" t="s">
         <v>1638</v>
@@ -11493,15 +11490,15 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15">
+    <row r="5" spans="1:6">
       <c r="A5" s="28" t="s">
         <v>1639</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>2329</v>
+        <v>2324</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>2342</v>
+        <v>2337</v>
       </c>
       <c r="E5" t="s">
         <v>1640</v>
@@ -11510,15 +11507,15 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15">
+    <row r="6" spans="1:6">
       <c r="A6" s="28" t="s">
         <v>1641</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>2330</v>
+        <v>2325</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>2342</v>
+        <v>2337</v>
       </c>
       <c r="E6" t="s">
         <v>1642</v>
@@ -11527,12 +11524,12 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15">
+    <row r="7" spans="1:6">
       <c r="A7" s="28" t="s">
         <v>1643</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>2337</v>
+        <v>2332</v>
       </c>
       <c r="C7" s="28" t="s">
         <v>1645</v>
@@ -11544,12 +11541,12 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15">
+    <row r="8" spans="1:6">
       <c r="A8" s="28" t="s">
         <v>1647</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>2338</v>
+        <v>2333</v>
       </c>
       <c r="C8" s="28" t="s">
         <v>1649</v>
@@ -11561,15 +11558,15 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15">
+    <row r="9" spans="1:6">
       <c r="A9" s="28" t="s">
         <v>1651</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>2331</v>
+        <v>2326</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>2342</v>
+        <v>2337</v>
       </c>
       <c r="E9" t="s">
         <v>1652</v>
@@ -11578,15 +11575,15 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15">
+    <row r="10" spans="1:6">
       <c r="A10" s="28" t="s">
         <v>1653</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>2332</v>
+        <v>2327</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>2342</v>
+        <v>2337</v>
       </c>
       <c r="E10" t="s">
         <v>1654</v>
@@ -11595,15 +11592,15 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15">
+    <row r="11" spans="1:6">
       <c r="A11" s="28" t="s">
         <v>1655</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>2333</v>
+        <v>2328</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>2342</v>
+        <v>2337</v>
       </c>
       <c r="E11" t="s">
         <v>1656</v>
@@ -11612,12 +11609,12 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15">
+    <row r="12" spans="1:6">
       <c r="A12" s="28" t="s">
         <v>1657</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>2339</v>
+        <v>2334</v>
       </c>
       <c r="C12" s="28" t="s">
         <v>1659</v>
@@ -11629,12 +11626,12 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15">
+    <row r="13" spans="1:6">
       <c r="A13" s="28" t="s">
         <v>1661</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>2340</v>
+        <v>2335</v>
       </c>
       <c r="C13" s="28" t="s">
         <v>1663</v>
@@ -11646,12 +11643,12 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15">
+    <row r="14" spans="1:6">
       <c r="A14" s="28" t="s">
         <v>1665</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>2341</v>
+        <v>2336</v>
       </c>
       <c r="C14" s="28" t="s">
         <v>1667</v>
@@ -11663,12 +11660,12 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15">
+    <row r="15" spans="1:6">
       <c r="A15" s="28" t="s">
         <v>1669</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>2334</v>
+        <v>2329</v>
       </c>
       <c r="C15" s="28" t="s">
         <v>1671</v>
@@ -11680,15 +11677,15 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15">
+    <row r="16" spans="1:6">
       <c r="A16" s="28" t="s">
         <v>1673</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>2335</v>
+        <v>2330</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>2342</v>
+        <v>2337</v>
       </c>
       <c r="E16" t="s">
         <v>1674</v>
@@ -11697,15 +11694,15 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15">
+    <row r="17" spans="1:6">
       <c r="A17" s="28" t="s">
         <v>1675</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>2336</v>
+        <v>2331</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>2342</v>
+        <v>2337</v>
       </c>
       <c r="E17" t="s">
         <v>1676</v>
@@ -11714,31 +11711,31 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15">
+    <row r="18" spans="1:6">
       <c r="B18" s="28"/>
     </row>
-    <row r="19" spans="1:6" ht="15">
+    <row r="19" spans="1:6">
       <c r="B19" s="28"/>
     </row>
-    <row r="20" spans="1:6" ht="15">
+    <row r="20" spans="1:6">
       <c r="B20" s="28"/>
     </row>
-    <row r="21" spans="1:6" ht="15">
+    <row r="21" spans="1:6">
       <c r="B21" s="28"/>
     </row>
-    <row r="22" spans="1:6" ht="15">
+    <row r="22" spans="1:6">
       <c r="B22" s="28"/>
     </row>
-    <row r="23" spans="1:6" ht="15">
+    <row r="23" spans="1:6">
       <c r="B23" s="28"/>
     </row>
-    <row r="24" spans="1:6" ht="15">
+    <row r="24" spans="1:6">
       <c r="B24" s="28"/>
     </row>
-    <row r="25" spans="1:6" ht="15">
+    <row r="25" spans="1:6">
       <c r="B25" s="28"/>
     </row>
-    <row r="26" spans="1:6" ht="15">
+    <row r="26" spans="1:6">
       <c r="B26" s="28"/>
     </row>
   </sheetData>
@@ -11753,44 +11750,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" customWidth="1"/>
-    <col min="2" max="2" width="40.2109375" customWidth="1"/>
-    <col min="3" max="3" width="42.0703125" customWidth="1"/>
+    <col min="1" max="1" width="33.625" customWidth="1"/>
+    <col min="2" max="2" width="40.25" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15">
+    <row r="1" spans="1:4">
       <c r="A1" s="45" t="s">
         <v>1677</v>
       </c>
       <c r="B1" s="45" t="s">
-        <v>2519</v>
+        <v>2508</v>
       </c>
       <c r="C1" s="45"/>
       <c r="D1" s="45"/>
     </row>
-    <row r="2" spans="1:4" ht="15">
+    <row r="2" spans="1:4">
       <c r="A2" s="45" t="s">
         <v>1679</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>2520</v>
+        <v>2509</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="45"/>
     </row>
-    <row r="3" spans="1:4" ht="15">
+    <row r="3" spans="1:4">
       <c r="A3" s="45" t="s">
         <v>1681</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>2521</v>
+        <v>2510</v>
       </c>
       <c r="C3" s="45"/>
       <c r="D3" s="45"/>
@@ -11800,12 +11797,12 @@
         <v>1683</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>2522</v>
+        <v>2511</v>
       </c>
       <c r="C4" s="45"/>
       <c r="D4" s="45"/>
     </row>
-    <row r="5" spans="1:4" ht="15">
+    <row r="5" spans="1:4">
       <c r="A5" s="47" t="s">
         <v>1085</v>
       </c>
@@ -11823,85 +11820,85 @@
         <v>1687</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>2523</v>
+        <v>2512</v>
       </c>
       <c r="D6" s="48" t="s">
         <v>1688</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15">
+    <row r="7" spans="1:4">
       <c r="A7" s="45"/>
       <c r="B7" s="45" t="s">
         <v>1689</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>2524</v>
+        <v>2513</v>
       </c>
       <c r="D7" s="45" t="s">
         <v>1690</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="32.15" customHeight="1">
+    <row r="8" spans="1:4" ht="32.1" customHeight="1">
       <c r="A8" s="45"/>
       <c r="B8" s="48" t="s">
         <v>1691</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>2525</v>
+        <v>2514</v>
       </c>
       <c r="D8" s="49" t="s">
         <v>1692</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15">
+    <row r="9" spans="1:4">
       <c r="A9" s="45"/>
       <c r="B9" s="45" t="s">
         <v>1693</v>
       </c>
       <c r="C9" s="45" t="s">
-        <v>2526</v>
+        <v>2515</v>
       </c>
       <c r="D9" s="45" t="s">
         <v>1694</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18.899999999999999" customHeight="1">
+    <row r="10" spans="1:4" ht="18.95" customHeight="1">
       <c r="A10" s="45"/>
       <c r="B10" s="45" t="s">
         <v>1695</v>
       </c>
       <c r="C10" s="45" t="s">
-        <v>2527</v>
+        <v>2516</v>
       </c>
       <c r="D10" s="45" t="s">
         <v>1696</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15">
+    <row r="11" spans="1:4">
       <c r="A11" s="45"/>
       <c r="B11" s="45" t="s">
         <v>1697</v>
       </c>
       <c r="C11" s="45" t="s">
-        <v>2537</v>
+        <v>2526</v>
       </c>
       <c r="D11" s="45" t="s">
         <v>1698</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="29.15">
+    <row r="12" spans="1:4" ht="30">
       <c r="A12" s="45"/>
       <c r="B12" s="48" t="s">
         <v>1699</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>2529</v>
+        <v>2518</v>
       </c>
       <c r="D12" s="49" t="s">
         <v>1700</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15">
+    <row r="13" spans="1:4">
       <c r="A13" s="45"/>
       <c r="B13" s="45"/>
       <c r="C13" s="45"/>
@@ -11909,7 +11906,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="29.15">
+    <row r="14" spans="1:4" ht="30">
       <c r="A14" s="32" t="s">
         <v>1702</v>
       </c>
@@ -11917,109 +11914,109 @@
         <v>1703</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>2535</v>
+        <v>2524</v>
       </c>
       <c r="D14" s="46" t="s">
         <v>1704</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15">
+    <row r="15" spans="1:4">
       <c r="A15" s="45"/>
       <c r="B15" s="45" t="s">
         <v>1705</v>
       </c>
       <c r="C15" s="45" t="s">
-        <v>2536</v>
+        <v>2525</v>
       </c>
       <c r="D15" s="45" t="s">
         <v>1706</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15">
+    <row r="16" spans="1:4">
       <c r="A16" s="45"/>
       <c r="B16" s="45" t="s">
         <v>1707</v>
       </c>
       <c r="C16" s="45" t="s">
-        <v>2528</v>
+        <v>2517</v>
       </c>
       <c r="D16" s="45" t="s">
         <v>1708</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15">
+    <row r="17" spans="1:4">
       <c r="A17" s="45"/>
       <c r="B17" s="45" t="s">
         <v>1709</v>
       </c>
       <c r="C17" s="45" t="s">
-        <v>2538</v>
+        <v>2527</v>
       </c>
       <c r="D17" s="45" t="s">
         <v>1710</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="29.15">
+    <row r="18" spans="1:4" ht="30">
       <c r="A18" s="45"/>
       <c r="B18" s="48" t="s">
         <v>1711</v>
       </c>
       <c r="C18" s="48" t="s">
-        <v>2539</v>
+        <v>2528</v>
       </c>
       <c r="D18" s="49" t="s">
         <v>1692</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15">
+    <row r="19" spans="1:4">
       <c r="A19" s="45"/>
       <c r="B19" s="45" t="s">
         <v>1712</v>
       </c>
       <c r="C19" s="45" t="s">
-        <v>2540</v>
+        <v>2529</v>
       </c>
       <c r="D19" s="45" t="s">
         <v>1696</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15">
+    <row r="20" spans="1:4">
       <c r="A20" s="45"/>
       <c r="B20" s="45" t="s">
         <v>1707</v>
       </c>
       <c r="C20" s="45" t="s">
-        <v>2528</v>
+        <v>2517</v>
       </c>
       <c r="D20" s="45" t="s">
         <v>1708</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="29.15">
+    <row r="21" spans="1:4" ht="30">
       <c r="A21" s="45"/>
       <c r="B21" s="48" t="s">
         <v>1699</v>
       </c>
       <c r="C21" s="48" t="s">
-        <v>2541</v>
+        <v>2530</v>
       </c>
       <c r="D21" s="49" t="s">
         <v>1713</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15">
+    <row r="22" spans="1:4">
       <c r="A22" s="45"/>
       <c r="B22" s="45" t="s">
         <v>1712</v>
       </c>
       <c r="C22" s="45" t="s">
-        <v>2542</v>
+        <v>2531</v>
       </c>
       <c r="D22" s="45" t="s">
         <v>1714</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15">
+    <row r="23" spans="1:4">
       <c r="A23" s="32" t="s">
         <v>1715</v>
       </c>
@@ -12027,10 +12024,10 @@
         <v>1707</v>
       </c>
       <c r="C23" s="45" t="s">
-        <v>2528</v>
+        <v>2517</v>
       </c>
       <c r="D23" s="45" t="s">
-        <v>2530</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="33.75" customHeight="1">
@@ -12039,13 +12036,13 @@
         <v>1716</v>
       </c>
       <c r="C24" s="48" t="s">
-        <v>2539</v>
+        <v>2528</v>
       </c>
       <c r="D24" s="46" t="s">
-        <v>2531</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="45"/>
       <c r="B25" s="45"/>
       <c r="C25" s="45"/>
@@ -12053,61 +12050,61 @@
         <v>1694</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15">
+    <row r="26" spans="1:4">
       <c r="A26" s="45"/>
       <c r="B26" s="45" t="s">
+        <v>2521</v>
+      </c>
+      <c r="C26" s="45" t="s">
         <v>2532</v>
-      </c>
-      <c r="C26" s="45" t="s">
-        <v>2543</v>
       </c>
       <c r="D26" s="45" t="s">
         <v>1708</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="29.15">
+    <row r="27" spans="1:4" ht="30">
       <c r="A27" s="45"/>
       <c r="B27" s="46" t="s">
+        <v>2522</v>
+      </c>
+      <c r="C27" s="46" t="s">
         <v>2533</v>
       </c>
-      <c r="C27" s="46" t="s">
-        <v>2544</v>
-      </c>
       <c r="D27" s="46" t="s">
-        <v>2534</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15">
+        <v>2523</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="45"/>
       <c r="B28" s="45" t="s">
         <v>1717</v>
       </c>
       <c r="C28" s="45" t="s">
-        <v>2545</v>
+        <v>2534</v>
       </c>
       <c r="D28" s="45" t="s">
         <v>1718</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="29.15">
+    <row r="29" spans="1:4" ht="30">
       <c r="A29" s="45"/>
       <c r="B29" s="48" t="s">
         <v>1719</v>
       </c>
       <c r="C29" s="48" t="s">
-        <v>2546</v>
+        <v>2535</v>
       </c>
       <c r="D29" s="46" t="s">
         <v>1720</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15">
+    <row r="30" spans="1:4">
       <c r="A30" s="45"/>
       <c r="B30" s="45" t="s">
         <v>1721</v>
       </c>
       <c r="C30" s="45" t="s">
-        <v>2538</v>
+        <v>2527</v>
       </c>
       <c r="D30" s="45" t="s">
         <v>1694</v>
@@ -12129,10 +12126,10 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="21.0703125" customWidth="1"/>
-    <col min="2" max="2" width="36.0703125" customWidth="1"/>
+    <col min="1" max="1" width="21.125" customWidth="1"/>
+    <col min="2" max="2" width="36.125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12223,11 +12220,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B76"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="68" customWidth="1"/>
     <col min="2" max="2" width="59" customWidth="1"/>
@@ -12857,10 +12854,10 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" customWidth="1"/>
-    <col min="2" max="2" width="27.2109375" customWidth="1"/>
+    <col min="1" max="1" width="31.75" customWidth="1"/>
+    <col min="2" max="2" width="27.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -12903,7 +12900,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="28.3">
+    <row r="7" spans="1:2" ht="31.5">
       <c r="A7" s="2" t="s">
         <v>1881</v>
       </c>
@@ -12931,14 +12928,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" customWidth="1"/>
-    <col min="2" max="2" width="45.0703125" customWidth="1"/>
+    <col min="1" max="1" width="45.75" customWidth="1"/>
+    <col min="2" max="2" width="45.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1">
@@ -13221,7 +13218,7 @@
         <v>1927</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="42.45">
+    <row r="47" spans="1:2" ht="47.25">
       <c r="A47" s="5" t="s">
         <v>1928</v>
       </c>
@@ -13233,7 +13230,7 @@
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
     </row>
-    <row r="49" spans="1:2" ht="28.3">
+    <row r="49" spans="1:2" ht="31.5">
       <c r="A49" s="5" t="s">
         <v>1930</v>
       </c>
@@ -13253,13 +13250,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="16.92578125" customWidth="1"/>
+    <col min="1" max="1" width="16.875" customWidth="1"/>
     <col min="2" max="2" width="30.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="30.5" customWidth="1"/>
   </cols>
@@ -13275,7 +13272,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" ht="16.5">
       <c r="A2" s="4" t="s">
         <v>1932</v>
       </c>
@@ -13283,7 +13280,7 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" ht="16.5">
       <c r="A3" s="4" t="s">
         <v>1934</v>
       </c>
@@ -13291,7 +13288,7 @@
         <v>1935</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" ht="16.5">
       <c r="A4" s="4" t="s">
         <v>1936</v>
       </c>
@@ -13299,7 +13296,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" ht="16.5">
       <c r="A5" s="4" t="s">
         <v>1938</v>
       </c>
@@ -13371,7 +13368,7 @@
         <v>1954</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="28.3">
+    <row r="14" spans="1:3" ht="31.5">
       <c r="A14" t="s">
         <v>1955</v>
       </c>
@@ -13435,7 +13432,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="28.3">
+    <row r="22" spans="1:3" ht="31.5">
       <c r="A22" t="s">
         <v>1968</v>
       </c>
@@ -13478,10 +13475,10 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="14.2109375" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.25" customWidth="1"/>
+    <col min="2" max="2" width="11.375" customWidth="1"/>
     <col min="3" max="3" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13620,7 +13617,7 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -13659,14 +13656,14 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.92578125" style="28" customWidth="1"/>
-    <col min="2" max="2" width="14.78515625" style="28" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="28" customWidth="1"/>
+    <col min="1" max="1" width="14.875" style="28" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="28" customWidth="1"/>
+    <col min="3" max="3" width="12.125" style="28" customWidth="1"/>
     <col min="4" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
@@ -13770,20 +13767,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G143"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
   <cols>
     <col min="3" max="3" width="27.5" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" customWidth="1"/>
-    <col min="6" max="6" width="28.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="28.875" customWidth="1"/>
+    <col min="5" max="5" width="23.75" customWidth="1"/>
+    <col min="6" max="6" width="28.625" customWidth="1"/>
+    <col min="7" max="7" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
+    <row r="1" spans="1:7">
       <c r="A1" s="39" t="s">
         <v>1</v>
       </c>
@@ -13797,7 +13794,7 @@
         <v>2014</v>
       </c>
       <c r="E1" s="43" t="s">
-        <v>2467</v>
+        <v>2459</v>
       </c>
       <c r="F1" s="39" t="s">
         <v>1436</v>
@@ -13806,7 +13803,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15">
+    <row r="2" spans="1:7">
       <c r="A2" s="28" t="s">
         <v>1305</v>
       </c>
@@ -13817,7 +13814,7 @@
         <v>909</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>2468</v>
+        <v>2460</v>
       </c>
       <c r="E2" s="28"/>
       <c r="F2" s="28" t="s">
@@ -13825,7 +13822,7 @@
       </c>
       <c r="G2" s="28"/>
     </row>
-    <row r="3" spans="1:7" ht="15">
+    <row r="3" spans="1:7">
       <c r="A3" s="28" t="s">
         <v>1305</v>
       </c>
@@ -13836,7 +13833,7 @@
         <v>1439</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>2469</v>
+        <v>2461</v>
       </c>
       <c r="E3" s="28"/>
       <c r="F3" s="28" t="s">
@@ -13844,7 +13841,7 @@
       </c>
       <c r="G3" s="28"/>
     </row>
-    <row r="4" spans="1:7" ht="15">
+    <row r="4" spans="1:7">
       <c r="A4" s="28" t="s">
         <v>1305</v>
       </c>
@@ -13855,7 +13852,7 @@
         <v>1441</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>2470</v>
+        <v>2462</v>
       </c>
       <c r="E4" s="28"/>
       <c r="F4" s="28" t="s">
@@ -13863,7 +13860,7 @@
       </c>
       <c r="G4" s="28"/>
     </row>
-    <row r="5" spans="1:7" ht="15">
+    <row r="5" spans="1:7">
       <c r="A5" s="28" t="s">
         <v>1305</v>
       </c>
@@ -13874,7 +13871,7 @@
         <v>1443</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>2471</v>
+        <v>2463</v>
       </c>
       <c r="E5" s="28"/>
       <c r="F5" s="28" t="s">
@@ -13882,7 +13879,7 @@
       </c>
       <c r="G5" s="28"/>
     </row>
-    <row r="6" spans="1:7" ht="15">
+    <row r="6" spans="1:7">
       <c r="A6" s="28" t="s">
         <v>1305</v>
       </c>
@@ -13893,7 +13890,7 @@
         <v>1445</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>2472</v>
+        <v>2464</v>
       </c>
       <c r="E6" s="28"/>
       <c r="F6" s="28" t="s">
@@ -13901,7 +13898,7 @@
       </c>
       <c r="G6" s="28"/>
     </row>
-    <row r="7" spans="1:7" ht="15">
+    <row r="7" spans="1:7">
       <c r="A7" s="28" t="s">
         <v>1305</v>
       </c>
@@ -13912,7 +13909,7 @@
         <v>1447</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>2473</v>
+        <v>2465</v>
       </c>
       <c r="E7" s="28"/>
       <c r="F7" s="28" t="s">
@@ -13920,7 +13917,7 @@
       </c>
       <c r="G7" s="28"/>
     </row>
-    <row r="8" spans="1:7" ht="15">
+    <row r="8" spans="1:7">
       <c r="A8" s="28" t="s">
         <v>1305</v>
       </c>
@@ -13931,7 +13928,7 @@
         <v>1449</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>2474</v>
+        <v>2466</v>
       </c>
       <c r="E8" s="28"/>
       <c r="F8" s="28" t="s">
@@ -13939,7 +13936,7 @@
       </c>
       <c r="G8" s="28"/>
     </row>
-    <row r="9" spans="1:7" ht="15">
+    <row r="9" spans="1:7">
       <c r="A9" s="28" t="s">
         <v>1305</v>
       </c>
@@ -13950,7 +13947,7 @@
         <v>1452</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>2475</v>
+        <v>2467</v>
       </c>
       <c r="E9" s="28"/>
       <c r="F9" s="28" t="s">
@@ -13958,7 +13955,7 @@
       </c>
       <c r="G9" s="28"/>
     </row>
-    <row r="10" spans="1:7" ht="15">
+    <row r="10" spans="1:7">
       <c r="A10" s="28" t="s">
         <v>1305</v>
       </c>
@@ -13969,7 +13966,7 @@
         <v>1454</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>2476</v>
+        <v>2468</v>
       </c>
       <c r="E10" s="28"/>
       <c r="F10" s="32" t="s">
@@ -13977,7 +13974,7 @@
       </c>
       <c r="G10" s="28"/>
     </row>
-    <row r="11" spans="1:7" ht="15">
+    <row r="11" spans="1:7">
       <c r="A11" s="28" t="s">
         <v>1305</v>
       </c>
@@ -13988,7 +13985,7 @@
         <v>1456</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>2477</v>
+        <v>2469</v>
       </c>
       <c r="E11" s="28"/>
       <c r="F11" s="32" t="s">
@@ -13996,7 +13993,7 @@
       </c>
       <c r="G11" s="28"/>
     </row>
-    <row r="12" spans="1:7" ht="15">
+    <row r="12" spans="1:7">
       <c r="A12" s="28" t="s">
         <v>1305</v>
       </c>
@@ -14007,7 +14004,7 @@
         <v>1458</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>2481</v>
+        <v>2473</v>
       </c>
       <c r="E12" s="28"/>
       <c r="F12" s="32" t="s">
@@ -14015,7 +14012,7 @@
       </c>
       <c r="G12" s="28"/>
     </row>
-    <row r="13" spans="1:7" ht="15">
+    <row r="13" spans="1:7">
       <c r="A13" s="28" t="s">
         <v>1305</v>
       </c>
@@ -14026,7 +14023,7 @@
         <v>1460</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>2478</v>
+        <v>2470</v>
       </c>
       <c r="E13" s="28"/>
       <c r="F13" s="32" t="s">
@@ -14034,7 +14031,7 @@
       </c>
       <c r="G13" s="28"/>
     </row>
-    <row r="14" spans="1:7" ht="15">
+    <row r="14" spans="1:7">
       <c r="A14" s="28" t="s">
         <v>915</v>
       </c>
@@ -14045,7 +14042,7 @@
         <v>36</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>2397</v>
+        <v>2391</v>
       </c>
       <c r="E14" s="28"/>
       <c r="F14" s="28" t="s">
@@ -14053,7 +14050,7 @@
       </c>
       <c r="G14" s="28"/>
     </row>
-    <row r="15" spans="1:7" ht="15">
+    <row r="15" spans="1:7">
       <c r="A15" s="28" t="s">
         <v>915</v>
       </c>
@@ -14064,7 +14061,7 @@
         <v>1462</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>2479</v>
+        <v>2471</v>
       </c>
       <c r="E15" s="28"/>
       <c r="F15" s="28" t="s">
@@ -14072,7 +14069,7 @@
       </c>
       <c r="G15" s="28"/>
     </row>
-    <row r="16" spans="1:7" ht="15">
+    <row r="16" spans="1:7">
       <c r="A16" s="28" t="s">
         <v>915</v>
       </c>
@@ -14083,7 +14080,7 @@
         <v>1464</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>2480</v>
+        <v>2472</v>
       </c>
       <c r="E16" s="28"/>
       <c r="F16" s="28" t="s">
@@ -14091,7 +14088,7 @@
       </c>
       <c r="G16" s="28"/>
     </row>
-    <row r="17" spans="1:7" ht="15">
+    <row r="17" spans="1:7">
       <c r="A17" s="28" t="s">
         <v>915</v>
       </c>
@@ -14102,7 +14099,7 @@
         <v>1466</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>2482</v>
+        <v>2474</v>
       </c>
       <c r="E17" s="28"/>
       <c r="F17" s="28" t="s">
@@ -14110,7 +14107,7 @@
       </c>
       <c r="G17" s="28"/>
     </row>
-    <row r="18" spans="1:7" ht="15">
+    <row r="18" spans="1:7">
       <c r="A18" s="28" t="s">
         <v>915</v>
       </c>
@@ -14121,7 +14118,7 @@
         <v>1449</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>2474</v>
+        <v>2466</v>
       </c>
       <c r="E18" s="28"/>
       <c r="F18" s="28" t="s">
@@ -14129,7 +14126,7 @@
       </c>
       <c r="G18" s="28"/>
     </row>
-    <row r="19" spans="1:7" ht="15">
+    <row r="19" spans="1:7">
       <c r="A19" s="28" t="s">
         <v>915</v>
       </c>
@@ -14140,7 +14137,7 @@
         <v>1468</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>2483</v>
+        <v>2475</v>
       </c>
       <c r="E19" s="28"/>
       <c r="F19" s="28" t="s">
@@ -14148,7 +14145,7 @@
       </c>
       <c r="G19" s="28"/>
     </row>
-    <row r="20" spans="1:7" ht="15">
+    <row r="20" spans="1:7">
       <c r="A20" s="28" t="s">
         <v>915</v>
       </c>
@@ -14159,7 +14156,7 @@
         <v>1470</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>2484</v>
+        <v>2476</v>
       </c>
       <c r="E20" s="28"/>
       <c r="F20" s="28" t="s">
@@ -14167,7 +14164,7 @@
       </c>
       <c r="G20" s="28"/>
     </row>
-    <row r="21" spans="1:7" ht="15">
+    <row r="21" spans="1:7">
       <c r="A21" s="28" t="s">
         <v>915</v>
       </c>
@@ -14178,7 +14175,7 @@
         <v>1472</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>2485</v>
+        <v>2477</v>
       </c>
       <c r="E21" s="28"/>
       <c r="F21" s="28" t="s">
@@ -14186,7 +14183,7 @@
       </c>
       <c r="G21" s="28"/>
     </row>
-    <row r="22" spans="1:7" ht="15">
+    <row r="22" spans="1:7">
       <c r="A22" s="28" t="s">
         <v>915</v>
       </c>
@@ -14197,7 +14194,7 @@
         <v>1452</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>2475</v>
+        <v>2467</v>
       </c>
       <c r="E22" s="28"/>
       <c r="F22" s="28" t="s">
@@ -14205,7 +14202,7 @@
       </c>
       <c r="G22" s="28"/>
     </row>
-    <row r="23" spans="1:7" ht="15">
+    <row r="23" spans="1:7">
       <c r="A23" s="28" t="s">
         <v>915</v>
       </c>
@@ -14216,7 +14213,7 @@
         <v>1474</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>2486</v>
+        <v>2478</v>
       </c>
       <c r="E23" s="28"/>
       <c r="F23" s="32" t="s">
@@ -14224,7 +14221,7 @@
       </c>
       <c r="G23" s="28"/>
     </row>
-    <row r="24" spans="1:7" ht="15">
+    <row r="24" spans="1:7">
       <c r="A24" s="28" t="s">
         <v>915</v>
       </c>
@@ -14235,7 +14232,7 @@
         <v>1476</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>2487</v>
+        <v>2540</v>
       </c>
       <c r="E24" s="28"/>
       <c r="F24" s="32" t="s">
@@ -14243,7 +14240,7 @@
       </c>
       <c r="G24" s="28"/>
     </row>
-    <row r="25" spans="1:7" ht="15">
+    <row r="25" spans="1:7">
       <c r="A25" s="28" t="s">
         <v>915</v>
       </c>
@@ -14254,7 +14251,7 @@
         <v>1478</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>2488</v>
+        <v>2539</v>
       </c>
       <c r="E25" s="28"/>
       <c r="F25" s="32" t="s">
@@ -14262,7 +14259,7 @@
       </c>
       <c r="G25" s="28"/>
     </row>
-    <row r="26" spans="1:7" ht="15">
+    <row r="26" spans="1:7">
       <c r="A26" s="28" t="s">
         <v>915</v>
       </c>
@@ -14273,7 +14270,7 @@
         <v>1480</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>2489</v>
+        <v>2538</v>
       </c>
       <c r="E26" s="28"/>
       <c r="F26" s="32" t="s">
@@ -14281,7 +14278,7 @@
       </c>
       <c r="G26" s="28"/>
     </row>
-    <row r="27" spans="1:7" ht="15">
+    <row r="27" spans="1:7">
       <c r="A27" s="28" t="s">
         <v>946</v>
       </c>
@@ -14292,7 +14289,7 @@
         <v>1482</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>2490</v>
+        <v>2479</v>
       </c>
       <c r="E27" s="28"/>
       <c r="F27" s="28" t="s">
@@ -14300,7 +14297,7 @@
       </c>
       <c r="G27" s="28"/>
     </row>
-    <row r="28" spans="1:7" ht="15">
+    <row r="28" spans="1:7">
       <c r="A28" s="28" t="s">
         <v>946</v>
       </c>
@@ -14311,7 +14308,7 @@
         <v>1484</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>2491</v>
+        <v>2480</v>
       </c>
       <c r="E28" s="28"/>
       <c r="F28" s="28" t="s">
@@ -14319,7 +14316,7 @@
       </c>
       <c r="G28" s="28"/>
     </row>
-    <row r="29" spans="1:7" ht="15">
+    <row r="29" spans="1:7">
       <c r="A29" s="28" t="s">
         <v>946</v>
       </c>
@@ -14330,7 +14327,7 @@
         <v>1464</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>2480</v>
+        <v>2472</v>
       </c>
       <c r="E29" s="28"/>
       <c r="F29" s="28" t="s">
@@ -14338,7 +14335,7 @@
       </c>
       <c r="G29" s="28"/>
     </row>
-    <row r="30" spans="1:7" ht="15">
+    <row r="30" spans="1:7">
       <c r="A30" s="28" t="s">
         <v>946</v>
       </c>
@@ -14349,7 +14346,7 @@
         <v>1468</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>2483</v>
+        <v>2475</v>
       </c>
       <c r="E30" s="28"/>
       <c r="F30" s="28" t="s">
@@ -14357,7 +14354,7 @@
       </c>
       <c r="G30" s="28"/>
     </row>
-    <row r="31" spans="1:7" ht="15">
+    <row r="31" spans="1:7">
       <c r="A31" s="28" t="s">
         <v>946</v>
       </c>
@@ -14368,7 +14365,7 @@
         <v>1470</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>2484</v>
+        <v>2476</v>
       </c>
       <c r="E31" s="28"/>
       <c r="F31" s="28" t="s">
@@ -14376,7 +14373,7 @@
       </c>
       <c r="G31" s="28"/>
     </row>
-    <row r="32" spans="1:7" ht="15">
+    <row r="32" spans="1:7">
       <c r="A32" s="28" t="s">
         <v>946</v>
       </c>
@@ -14387,7 +14384,7 @@
         <v>1486</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>2492</v>
+        <v>2481</v>
       </c>
       <c r="E32" s="28"/>
       <c r="F32" s="28" t="s">
@@ -14395,7 +14392,7 @@
       </c>
       <c r="G32" s="28"/>
     </row>
-    <row r="33" spans="1:7" ht="15">
+    <row r="33" spans="1:7">
       <c r="A33" s="28" t="s">
         <v>946</v>
       </c>
@@ -14406,7 +14403,7 @@
         <v>1449</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>2474</v>
+        <v>2466</v>
       </c>
       <c r="E33" s="28"/>
       <c r="F33" s="28" t="s">
@@ -14414,7 +14411,7 @@
       </c>
       <c r="G33" s="28"/>
     </row>
-    <row r="34" spans="1:7" ht="15">
+    <row r="34" spans="1:7">
       <c r="A34" s="28" t="s">
         <v>946</v>
       </c>
@@ -14425,7 +14422,7 @@
         <v>1488</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>2493</v>
+        <v>2482</v>
       </c>
       <c r="E34" s="28"/>
       <c r="F34" s="28" t="s">
@@ -14433,7 +14430,7 @@
       </c>
       <c r="G34" s="28"/>
     </row>
-    <row r="35" spans="1:7" ht="15">
+    <row r="35" spans="1:7">
       <c r="A35" s="28" t="s">
         <v>946</v>
       </c>
@@ -14441,18 +14438,18 @@
         <v>1437</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>2464</v>
+        <v>2456</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>2518</v>
+        <v>2507</v>
       </c>
       <c r="E35" s="28"/>
       <c r="F35" s="28" t="s">
-        <v>2465</v>
+        <v>2457</v>
       </c>
       <c r="G35" s="28"/>
     </row>
-    <row r="36" spans="1:7" ht="15">
+    <row r="36" spans="1:7">
       <c r="A36" s="28" t="s">
         <v>946</v>
       </c>
@@ -14463,7 +14460,7 @@
         <v>1445</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>2472</v>
+        <v>2464</v>
       </c>
       <c r="E36" s="28"/>
       <c r="F36" s="28" t="s">
@@ -14471,7 +14468,7 @@
       </c>
       <c r="G36" s="28"/>
     </row>
-    <row r="37" spans="1:7" ht="15">
+    <row r="37" spans="1:7">
       <c r="A37" s="28" t="s">
         <v>946</v>
       </c>
@@ -14482,7 +14479,7 @@
         <v>1447</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>2473</v>
+        <v>2465</v>
       </c>
       <c r="E37" s="28"/>
       <c r="F37" s="28" t="s">
@@ -14490,7 +14487,7 @@
       </c>
       <c r="G37" s="28"/>
     </row>
-    <row r="38" spans="1:7" ht="15">
+    <row r="38" spans="1:7">
       <c r="A38" s="28" t="s">
         <v>946</v>
       </c>
@@ -14501,7 +14498,7 @@
         <v>1490</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>2494</v>
+        <v>2483</v>
       </c>
       <c r="E38" s="28"/>
       <c r="F38" s="28" t="s">
@@ -14509,7 +14506,7 @@
       </c>
       <c r="G38" s="28"/>
     </row>
-    <row r="39" spans="1:7" ht="15">
+    <row r="39" spans="1:7">
       <c r="A39" s="28" t="s">
         <v>946</v>
       </c>
@@ -14520,7 +14517,7 @@
         <v>1492</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>2503</v>
+        <v>2492</v>
       </c>
       <c r="E39" s="28"/>
       <c r="F39" s="28" t="s">
@@ -14528,7 +14525,7 @@
       </c>
       <c r="G39" s="28"/>
     </row>
-    <row r="40" spans="1:7" ht="15">
+    <row r="40" spans="1:7">
       <c r="A40" s="28" t="s">
         <v>946</v>
       </c>
@@ -14539,7 +14536,7 @@
         <v>1494</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>2495</v>
+        <v>2484</v>
       </c>
       <c r="E40" s="28"/>
       <c r="F40" s="28" t="s">
@@ -14547,7 +14544,7 @@
       </c>
       <c r="G40" s="28"/>
     </row>
-    <row r="41" spans="1:7" ht="15">
+    <row r="41" spans="1:7">
       <c r="A41" s="28" t="s">
         <v>946</v>
       </c>
@@ -14558,7 +14555,7 @@
         <v>1496</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>2496</v>
+        <v>2485</v>
       </c>
       <c r="E41" s="28"/>
       <c r="F41" s="28" t="s">
@@ -14566,7 +14563,7 @@
       </c>
       <c r="G41" s="28"/>
     </row>
-    <row r="42" spans="1:7" ht="15">
+    <row r="42" spans="1:7">
       <c r="A42" s="28" t="s">
         <v>946</v>
       </c>
@@ -14577,7 +14574,7 @@
         <v>1498</v>
       </c>
       <c r="D42" s="28" t="s">
-        <v>2397</v>
+        <v>2391</v>
       </c>
       <c r="E42" s="28"/>
       <c r="F42" s="28" t="s">
@@ -14585,7 +14582,7 @@
       </c>
       <c r="G42" s="28"/>
     </row>
-    <row r="43" spans="1:7" ht="15">
+    <row r="43" spans="1:7">
       <c r="A43" s="28" t="s">
         <v>946</v>
       </c>
@@ -14596,7 +14593,7 @@
         <v>87</v>
       </c>
       <c r="D43" s="28" t="s">
-        <v>2406</v>
+        <v>2399</v>
       </c>
       <c r="E43" s="28"/>
       <c r="F43" s="28" t="s">
@@ -14604,7 +14601,7 @@
       </c>
       <c r="G43" s="28"/>
     </row>
-    <row r="44" spans="1:7" ht="15">
+    <row r="44" spans="1:7">
       <c r="A44" s="28" t="s">
         <v>946</v>
       </c>
@@ -14615,7 +14612,7 @@
         <v>1452</v>
       </c>
       <c r="D44" s="28" t="s">
-        <v>2475</v>
+        <v>2467</v>
       </c>
       <c r="E44" s="28"/>
       <c r="F44" s="28" t="s">
@@ -14623,7 +14620,7 @@
       </c>
       <c r="G44" s="28"/>
     </row>
-    <row r="45" spans="1:7" ht="15">
+    <row r="45" spans="1:7">
       <c r="A45" s="28" t="s">
         <v>946</v>
       </c>
@@ -14634,7 +14631,7 @@
         <v>1499</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>2497</v>
+        <v>2486</v>
       </c>
       <c r="E45" s="28"/>
       <c r="F45" s="32" t="s">
@@ -14642,7 +14639,7 @@
       </c>
       <c r="G45" s="28"/>
     </row>
-    <row r="46" spans="1:7" ht="15">
+    <row r="46" spans="1:7">
       <c r="A46" s="28" t="s">
         <v>946</v>
       </c>
@@ -14653,7 +14650,7 @@
         <v>1501</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>2498</v>
+        <v>2487</v>
       </c>
       <c r="E46" s="28"/>
       <c r="F46" s="32" t="s">
@@ -14661,7 +14658,7 @@
       </c>
       <c r="G46" s="28"/>
     </row>
-    <row r="47" spans="1:7" ht="15">
+    <row r="47" spans="1:7">
       <c r="A47" s="28" t="s">
         <v>946</v>
       </c>
@@ -14672,7 +14669,7 @@
         <v>1503</v>
       </c>
       <c r="D47" s="28" t="s">
-        <v>2499</v>
+        <v>2488</v>
       </c>
       <c r="E47" s="28"/>
       <c r="F47" s="32" t="s">
@@ -14680,7 +14677,7 @@
       </c>
       <c r="G47" s="28"/>
     </row>
-    <row r="48" spans="1:7" ht="15">
+    <row r="48" spans="1:7">
       <c r="A48" s="28" t="s">
         <v>946</v>
       </c>
@@ -14691,7 +14688,7 @@
         <v>1505</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>2500</v>
+        <v>2489</v>
       </c>
       <c r="E48" s="28"/>
       <c r="F48" s="32" t="s">
@@ -14699,7 +14696,7 @@
       </c>
       <c r="G48" s="28"/>
     </row>
-    <row r="49" spans="1:7" ht="15">
+    <row r="49" spans="1:7">
       <c r="A49" s="37" t="s">
         <v>985</v>
       </c>
@@ -14710,7 +14707,7 @@
         <v>1507</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>2504</v>
+        <v>2493</v>
       </c>
       <c r="E49" s="28"/>
       <c r="F49" s="30" t="s">
@@ -14718,7 +14715,7 @@
       </c>
       <c r="G49" s="28"/>
     </row>
-    <row r="50" spans="1:7" ht="15">
+    <row r="50" spans="1:7">
       <c r="A50" s="37" t="s">
         <v>985</v>
       </c>
@@ -14729,7 +14726,7 @@
         <v>1509</v>
       </c>
       <c r="D50" s="28" t="s">
-        <v>2505</v>
+        <v>2494</v>
       </c>
       <c r="E50" s="28"/>
       <c r="F50" s="30" t="s">
@@ -14737,7 +14734,7 @@
       </c>
       <c r="G50" s="28"/>
     </row>
-    <row r="51" spans="1:7" ht="15">
+    <row r="51" spans="1:7">
       <c r="A51" s="37" t="s">
         <v>985</v>
       </c>
@@ -14748,7 +14745,7 @@
         <v>1492</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>2503</v>
+        <v>2492</v>
       </c>
       <c r="E51" s="28"/>
       <c r="F51" s="30" t="s">
@@ -14756,7 +14753,7 @@
       </c>
       <c r="G51" s="28"/>
     </row>
-    <row r="52" spans="1:7" ht="15">
+    <row r="52" spans="1:7">
       <c r="A52" s="37" t="s">
         <v>985</v>
       </c>
@@ -14767,7 +14764,7 @@
         <v>1511</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>2502</v>
+        <v>2491</v>
       </c>
       <c r="E52" s="28"/>
       <c r="F52" s="30" t="s">
@@ -14775,7 +14772,7 @@
       </c>
       <c r="G52" s="28"/>
     </row>
-    <row r="53" spans="1:7" ht="15">
+    <row r="53" spans="1:7">
       <c r="A53" s="37" t="s">
         <v>985</v>
       </c>
@@ -14786,7 +14783,7 @@
         <v>1513</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>2398</v>
+        <v>2392</v>
       </c>
       <c r="E53" s="28"/>
       <c r="F53" s="30" t="s">
@@ -14794,7 +14791,7 @@
       </c>
       <c r="G53" s="28"/>
     </row>
-    <row r="54" spans="1:7" ht="15">
+    <row r="54" spans="1:7">
       <c r="A54" s="37" t="s">
         <v>985</v>
       </c>
@@ -14805,7 +14802,7 @@
         <v>1515</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>2501</v>
+        <v>2490</v>
       </c>
       <c r="E54" s="28"/>
       <c r="F54" s="30" t="s">
@@ -14813,7 +14810,7 @@
       </c>
       <c r="G54" s="28"/>
     </row>
-    <row r="55" spans="1:7" ht="15">
+    <row r="55" spans="1:7">
       <c r="A55" s="37" t="s">
         <v>985</v>
       </c>
@@ -14824,7 +14821,7 @@
         <v>1452</v>
       </c>
       <c r="D55" s="45" t="s">
-        <v>2475</v>
+        <v>2467</v>
       </c>
       <c r="E55" s="28"/>
       <c r="F55" s="30" t="s">
@@ -14832,7 +14829,7 @@
       </c>
       <c r="G55" s="28"/>
     </row>
-    <row r="56" spans="1:7" ht="15">
+    <row r="56" spans="1:7">
       <c r="A56" s="37" t="s">
         <v>985</v>
       </c>
@@ -14843,7 +14840,7 @@
         <v>1517</v>
       </c>
       <c r="D56" s="45" t="s">
-        <v>2507</v>
+        <v>2496</v>
       </c>
       <c r="E56" s="28"/>
       <c r="F56" s="30" t="s">
@@ -14851,7 +14848,7 @@
       </c>
       <c r="G56" s="28"/>
     </row>
-    <row r="57" spans="1:7" ht="15">
+    <row r="57" spans="1:7">
       <c r="A57" s="37" t="s">
         <v>985</v>
       </c>
@@ -14862,7 +14859,7 @@
         <v>1519</v>
       </c>
       <c r="D57" s="45" t="s">
-        <v>2508</v>
+        <v>2497</v>
       </c>
       <c r="E57" s="28"/>
       <c r="F57" s="30" t="s">
@@ -14870,7 +14867,7 @@
       </c>
       <c r="G57" s="28"/>
     </row>
-    <row r="58" spans="1:7" ht="15">
+    <row r="58" spans="1:7">
       <c r="A58" s="37" t="s">
         <v>985</v>
       </c>
@@ -14881,7 +14878,7 @@
         <v>1521</v>
       </c>
       <c r="D58" s="45" t="s">
-        <v>2509</v>
+        <v>2498</v>
       </c>
       <c r="E58" s="28"/>
       <c r="F58" s="30" t="s">
@@ -14889,7 +14886,7 @@
       </c>
       <c r="G58" s="28"/>
     </row>
-    <row r="59" spans="1:7" ht="15">
+    <row r="59" spans="1:7">
       <c r="A59" s="37" t="s">
         <v>985</v>
       </c>
@@ -14900,7 +14897,7 @@
         <v>1523</v>
       </c>
       <c r="D59" s="45" t="s">
-        <v>2510</v>
+        <v>2499</v>
       </c>
       <c r="E59" s="28"/>
       <c r="F59" s="30" t="s">
@@ -14908,7 +14905,7 @@
       </c>
       <c r="G59" s="28"/>
     </row>
-    <row r="60" spans="1:7" ht="15">
+    <row r="60" spans="1:7">
       <c r="A60" s="37" t="s">
         <v>985</v>
       </c>
@@ -14919,7 +14916,7 @@
         <v>1525</v>
       </c>
       <c r="D60" s="45" t="s">
-        <v>2511</v>
+        <v>2500</v>
       </c>
       <c r="E60" s="28"/>
       <c r="F60" s="30" t="s">
@@ -14927,7 +14924,7 @@
       </c>
       <c r="G60" s="28"/>
     </row>
-    <row r="61" spans="1:7" ht="15">
+    <row r="61" spans="1:7">
       <c r="A61" s="37" t="s">
         <v>985</v>
       </c>
@@ -14938,7 +14935,7 @@
         <v>1527</v>
       </c>
       <c r="D61" s="45" t="s">
-        <v>2506</v>
+        <v>2495</v>
       </c>
       <c r="E61" s="28"/>
       <c r="F61" s="30" t="s">
@@ -14946,7 +14943,7 @@
       </c>
       <c r="G61" s="28"/>
     </row>
-    <row r="62" spans="1:7" ht="15">
+    <row r="62" spans="1:7">
       <c r="A62" s="37" t="s">
         <v>1014</v>
       </c>
@@ -14957,7 +14954,7 @@
         <v>1529</v>
       </c>
       <c r="D62" s="28" t="s">
-        <v>2512</v>
+        <v>2501</v>
       </c>
       <c r="E62" s="28"/>
       <c r="F62" s="30" t="s">
@@ -14965,7 +14962,7 @@
       </c>
       <c r="G62" s="28"/>
     </row>
-    <row r="63" spans="1:7" ht="15">
+    <row r="63" spans="1:7">
       <c r="A63" s="37" t="s">
         <v>1014</v>
       </c>
@@ -14976,7 +14973,7 @@
         <v>1531</v>
       </c>
       <c r="D63" s="45" t="s">
-        <v>2513</v>
+        <v>2502</v>
       </c>
       <c r="E63" s="28"/>
       <c r="F63" s="30" t="s">
@@ -14984,7 +14981,7 @@
       </c>
       <c r="G63" s="28"/>
     </row>
-    <row r="64" spans="1:7" ht="15">
+    <row r="64" spans="1:7">
       <c r="A64" s="37" t="s">
         <v>1014</v>
       </c>
@@ -14995,7 +14992,7 @@
         <v>1533</v>
       </c>
       <c r="D64" s="28" t="s">
-        <v>2514</v>
+        <v>2503</v>
       </c>
       <c r="E64" s="28"/>
       <c r="F64" s="30" t="s">
@@ -15003,7 +15000,7 @@
       </c>
       <c r="G64" s="28"/>
     </row>
-    <row r="65" spans="1:7" ht="15">
+    <row r="65" spans="1:7">
       <c r="A65" s="37" t="s">
         <v>1014</v>
       </c>
@@ -15014,7 +15011,7 @@
         <v>1535</v>
       </c>
       <c r="D65" s="28" t="s">
-        <v>2515</v>
+        <v>2504</v>
       </c>
       <c r="E65" s="28"/>
       <c r="F65" s="30" t="s">
@@ -15022,7 +15019,7 @@
       </c>
       <c r="G65" s="28"/>
     </row>
-    <row r="66" spans="1:7" ht="15">
+    <row r="66" spans="1:7">
       <c r="A66" s="37" t="s">
         <v>1014</v>
       </c>
@@ -15033,7 +15030,7 @@
         <v>99</v>
       </c>
       <c r="D66" s="28" t="s">
-        <v>2437</v>
+        <v>2429</v>
       </c>
       <c r="E66" s="28"/>
       <c r="F66" s="30" t="s">
@@ -15041,7 +15038,7 @@
       </c>
       <c r="G66" s="28"/>
     </row>
-    <row r="67" spans="1:7" ht="15">
+    <row r="67" spans="1:7">
       <c r="A67" s="37" t="s">
         <v>1014</v>
       </c>
@@ -15052,7 +15049,7 @@
         <v>1537</v>
       </c>
       <c r="D67" s="28" t="s">
-        <v>2438</v>
+        <v>2430</v>
       </c>
       <c r="E67" s="28"/>
       <c r="F67" s="30" t="s">
@@ -15060,7 +15057,7 @@
       </c>
       <c r="G67" s="28"/>
     </row>
-    <row r="68" spans="1:7" ht="15">
+    <row r="68" spans="1:7">
       <c r="A68" s="37" t="s">
         <v>1014</v>
       </c>
@@ -15071,7 +15068,7 @@
         <v>1538</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>2516</v>
+        <v>2505</v>
       </c>
       <c r="E68" s="28"/>
       <c r="F68" s="30" t="s">
@@ -15079,7 +15076,7 @@
       </c>
       <c r="G68" s="28"/>
     </row>
-    <row r="69" spans="1:7" ht="15">
+    <row r="69" spans="1:7">
       <c r="A69" s="37" t="s">
         <v>1014</v>
       </c>
@@ -15090,7 +15087,7 @@
         <v>1498</v>
       </c>
       <c r="D69" s="28" t="s">
-        <v>2397</v>
+        <v>2391</v>
       </c>
       <c r="E69" s="28"/>
       <c r="F69" s="30" t="s">
@@ -15098,7 +15095,7 @@
       </c>
       <c r="G69" s="28"/>
     </row>
-    <row r="70" spans="1:7" ht="15">
+    <row r="70" spans="1:7">
       <c r="A70" s="28" t="s">
         <v>1014</v>
       </c>
@@ -15109,7 +15106,7 @@
         <v>1540</v>
       </c>
       <c r="D70" s="28" t="s">
-        <v>2517</v>
+        <v>2506</v>
       </c>
       <c r="E70" s="28"/>
       <c r="F70" s="30" t="s">
@@ -15117,7 +15114,7 @@
       </c>
       <c r="G70" s="28"/>
     </row>
-    <row r="71" spans="1:7" ht="15">
+    <row r="71" spans="1:7">
       <c r="A71" s="28" t="s">
         <v>1040</v>
       </c>
@@ -15134,7 +15131,7 @@
       </c>
       <c r="G71" s="28"/>
     </row>
-    <row r="72" spans="1:7" ht="15">
+    <row r="72" spans="1:7">
       <c r="A72" s="28" t="s">
         <v>1040</v>
       </c>
@@ -15151,7 +15148,7 @@
       </c>
       <c r="G72" s="28"/>
     </row>
-    <row r="73" spans="1:7" ht="15">
+    <row r="73" spans="1:7">
       <c r="A73" s="28" t="s">
         <v>1040</v>
       </c>
@@ -15168,7 +15165,7 @@
       </c>
       <c r="G73" s="28"/>
     </row>
-    <row r="74" spans="1:7" ht="15">
+    <row r="74" spans="1:7">
       <c r="A74" s="28" t="s">
         <v>1040</v>
       </c>
@@ -15185,7 +15182,7 @@
       </c>
       <c r="G74" s="28"/>
     </row>
-    <row r="75" spans="1:7" ht="15">
+    <row r="75" spans="1:7">
       <c r="A75" s="28" t="s">
         <v>1040</v>
       </c>
@@ -15196,7 +15193,7 @@
         <v>1537</v>
       </c>
       <c r="D75" s="28" t="s">
-        <v>2438</v>
+        <v>2430</v>
       </c>
       <c r="E75" s="28"/>
       <c r="F75" s="30" t="s">
@@ -15204,7 +15201,7 @@
       </c>
       <c r="G75" s="28"/>
     </row>
-    <row r="76" spans="1:7" ht="15">
+    <row r="76" spans="1:7">
       <c r="A76" s="28" t="s">
         <v>1040</v>
       </c>
@@ -15215,7 +15212,7 @@
         <v>38</v>
       </c>
       <c r="D76" s="28" t="s">
-        <v>2398</v>
+        <v>2392</v>
       </c>
       <c r="E76" s="28"/>
       <c r="F76" s="30" t="s">
@@ -15223,7 +15220,7 @@
       </c>
       <c r="G76" s="28"/>
     </row>
-    <row r="77" spans="1:7" ht="15">
+    <row r="77" spans="1:7">
       <c r="A77" s="28" t="s">
         <v>1040</v>
       </c>
@@ -15240,7 +15237,7 @@
       </c>
       <c r="G77" s="28"/>
     </row>
-    <row r="78" spans="1:7" ht="15">
+    <row r="78" spans="1:7">
       <c r="A78" s="28" t="s">
         <v>1040</v>
       </c>
@@ -15248,7 +15245,7 @@
         <v>1437</v>
       </c>
       <c r="C78" s="28" t="s">
-        <v>2466</v>
+        <v>2458</v>
       </c>
       <c r="D78" s="28"/>
       <c r="E78" s="28"/>
@@ -15257,7 +15254,7 @@
       </c>
       <c r="G78" s="28"/>
     </row>
-    <row r="79" spans="1:7" ht="15">
+    <row r="79" spans="1:7">
       <c r="A79" s="28" t="s">
         <v>1040</v>
       </c>
@@ -15274,7 +15271,7 @@
       </c>
       <c r="G79" s="28"/>
     </row>
-    <row r="80" spans="1:7" ht="15">
+    <row r="80" spans="1:7">
       <c r="A80" s="28" t="s">
         <v>1040</v>
       </c>
@@ -15285,7 +15282,7 @@
         <v>1452</v>
       </c>
       <c r="D80" s="28" t="s">
-        <v>2475</v>
+        <v>2467</v>
       </c>
       <c r="E80" s="28"/>
       <c r="F80" s="30" t="s">
@@ -15293,7 +15290,7 @@
       </c>
       <c r="G80" s="28"/>
     </row>
-    <row r="81" spans="1:7" ht="15">
+    <row r="81" spans="1:7">
       <c r="A81" s="28" t="s">
         <v>1040</v>
       </c>
@@ -15310,7 +15307,7 @@
       </c>
       <c r="G81" s="28"/>
     </row>
-    <row r="82" spans="1:7" ht="15">
+    <row r="82" spans="1:7">
       <c r="A82" s="28" t="s">
         <v>1040</v>
       </c>
@@ -15327,7 +15324,7 @@
       </c>
       <c r="G82" s="28"/>
     </row>
-    <row r="83" spans="1:7" ht="15">
+    <row r="83" spans="1:7">
       <c r="A83" s="28" t="s">
         <v>1040</v>
       </c>
@@ -15344,7 +15341,7 @@
       </c>
       <c r="G83" s="28"/>
     </row>
-    <row r="84" spans="1:7" ht="15">
+    <row r="84" spans="1:7">
       <c r="A84" s="28" t="s">
         <v>1040</v>
       </c>
@@ -15361,7 +15358,7 @@
       </c>
       <c r="G84" s="28"/>
     </row>
-    <row r="85" spans="1:7" ht="15">
+    <row r="85" spans="1:7">
       <c r="A85" s="28" t="s">
         <v>1040</v>
       </c>
@@ -15378,7 +15375,7 @@
       </c>
       <c r="G85" s="28"/>
     </row>
-    <row r="86" spans="1:7" ht="15">
+    <row r="86" spans="1:7">
       <c r="A86" s="28" t="s">
         <v>1045</v>
       </c>
@@ -15395,7 +15392,7 @@
       </c>
       <c r="G86" s="28"/>
     </row>
-    <row r="87" spans="1:7" ht="15">
+    <row r="87" spans="1:7">
       <c r="A87" s="28" t="s">
         <v>1045</v>
       </c>
@@ -15412,7 +15409,7 @@
       </c>
       <c r="G87" s="28"/>
     </row>
-    <row r="88" spans="1:7" ht="15">
+    <row r="88" spans="1:7">
       <c r="A88" s="28" t="s">
         <v>1045</v>
       </c>
@@ -15429,7 +15426,7 @@
       </c>
       <c r="G88" s="28"/>
     </row>
-    <row r="89" spans="1:7" ht="15">
+    <row r="89" spans="1:7">
       <c r="A89" s="28" t="s">
         <v>1045</v>
       </c>
@@ -15446,7 +15443,7 @@
       </c>
       <c r="G89" s="28"/>
     </row>
-    <row r="90" spans="1:7" ht="15">
+    <row r="90" spans="1:7">
       <c r="A90" s="28" t="s">
         <v>1045</v>
       </c>
@@ -15457,7 +15454,7 @@
         <v>1498</v>
       </c>
       <c r="D90" s="28" t="s">
-        <v>2397</v>
+        <v>2391</v>
       </c>
       <c r="E90" s="28"/>
       <c r="F90" s="30" t="s">
@@ -15465,7 +15462,7 @@
       </c>
       <c r="G90" s="28"/>
     </row>
-    <row r="91" spans="1:7" ht="15">
+    <row r="91" spans="1:7">
       <c r="A91" s="28" t="s">
         <v>1045</v>
       </c>
@@ -15476,7 +15473,7 @@
         <v>38</v>
       </c>
       <c r="D91" s="28" t="s">
-        <v>2398</v>
+        <v>2392</v>
       </c>
       <c r="E91" s="28"/>
       <c r="F91" s="30" t="s">
@@ -15484,7 +15481,7 @@
       </c>
       <c r="G91" s="28"/>
     </row>
-    <row r="92" spans="1:7" ht="15">
+    <row r="92" spans="1:7">
       <c r="A92" s="28" t="s">
         <v>1045</v>
       </c>
@@ -15501,7 +15498,7 @@
       </c>
       <c r="G92" s="28"/>
     </row>
-    <row r="93" spans="1:7" ht="15">
+    <row r="93" spans="1:7">
       <c r="A93" s="28" t="s">
         <v>1045</v>
       </c>
@@ -15518,7 +15515,7 @@
       </c>
       <c r="G93" s="28"/>
     </row>
-    <row r="94" spans="1:7" ht="15">
+    <row r="94" spans="1:7">
       <c r="A94" s="28" t="s">
         <v>1045</v>
       </c>
@@ -15535,7 +15532,7 @@
       </c>
       <c r="G94" s="28"/>
     </row>
-    <row r="95" spans="1:7" ht="15">
+    <row r="95" spans="1:7">
       <c r="A95" s="28" t="s">
         <v>1045</v>
       </c>
@@ -15552,7 +15549,7 @@
       </c>
       <c r="G95" s="28"/>
     </row>
-    <row r="96" spans="1:7" ht="15">
+    <row r="96" spans="1:7">
       <c r="A96" s="28" t="s">
         <v>1045</v>
       </c>
@@ -15563,7 +15560,7 @@
         <v>34</v>
       </c>
       <c r="D96" s="28" t="s">
-        <v>2396</v>
+        <v>2390</v>
       </c>
       <c r="E96" s="28"/>
       <c r="F96" s="30" t="s">
@@ -15573,7 +15570,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="15">
+    <row r="97" spans="1:7">
       <c r="A97" s="28" t="s">
         <v>1045</v>
       </c>
@@ -15584,7 +15581,7 @@
         <v>1498</v>
       </c>
       <c r="D97" s="28" t="s">
-        <v>2397</v>
+        <v>2391</v>
       </c>
       <c r="E97" s="28"/>
       <c r="F97" s="30" t="s">
@@ -15592,7 +15589,7 @@
       </c>
       <c r="G97" s="28"/>
     </row>
-    <row r="98" spans="1:7" ht="15">
+    <row r="98" spans="1:7">
       <c r="A98" s="28" t="s">
         <v>1045</v>
       </c>
@@ -15600,7 +15597,7 @@
         <v>1437</v>
       </c>
       <c r="C98" s="28" t="s">
-        <v>2466</v>
+        <v>2458</v>
       </c>
       <c r="D98" s="28"/>
       <c r="E98" s="28"/>
@@ -15609,7 +15606,7 @@
       </c>
       <c r="G98" s="28"/>
     </row>
-    <row r="99" spans="1:7" ht="15">
+    <row r="99" spans="1:7">
       <c r="A99" s="28" t="s">
         <v>1045</v>
       </c>
@@ -15626,7 +15623,7 @@
       </c>
       <c r="G99" s="28"/>
     </row>
-    <row r="100" spans="1:7" ht="15">
+    <row r="100" spans="1:7">
       <c r="A100" s="28" t="s">
         <v>1045</v>
       </c>
@@ -15645,7 +15642,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="15">
+    <row r="101" spans="1:7">
       <c r="A101" s="28" t="s">
         <v>1045</v>
       </c>
@@ -15662,7 +15659,7 @@
       </c>
       <c r="G101" s="28"/>
     </row>
-    <row r="102" spans="1:7" ht="15">
+    <row r="102" spans="1:7">
       <c r="A102" s="28" t="s">
         <v>1045</v>
       </c>
@@ -15679,7 +15676,7 @@
       </c>
       <c r="G102" s="28"/>
     </row>
-    <row r="103" spans="1:7" ht="15">
+    <row r="103" spans="1:7">
       <c r="A103" s="28" t="s">
         <v>1045</v>
       </c>
@@ -15696,7 +15693,7 @@
       </c>
       <c r="G103" s="28"/>
     </row>
-    <row r="104" spans="1:7" ht="15">
+    <row r="104" spans="1:7">
       <c r="A104" s="28" t="s">
         <v>1045</v>
       </c>
@@ -15713,7 +15710,7 @@
       </c>
       <c r="G104" s="28"/>
     </row>
-    <row r="105" spans="1:7" ht="15">
+    <row r="105" spans="1:7">
       <c r="A105" s="28" t="s">
         <v>1045</v>
       </c>
@@ -15730,7 +15727,7 @@
       </c>
       <c r="G105" s="28"/>
     </row>
-    <row r="106" spans="1:7" ht="15">
+    <row r="106" spans="1:7">
       <c r="A106" s="28" t="s">
         <v>1045</v>
       </c>
@@ -15747,7 +15744,7 @@
       </c>
       <c r="G106" s="28"/>
     </row>
-    <row r="107" spans="1:7" ht="15">
+    <row r="107" spans="1:7">
       <c r="A107" s="28" t="s">
         <v>1045</v>
       </c>
@@ -15764,7 +15761,7 @@
       </c>
       <c r="G107" s="28"/>
     </row>
-    <row r="108" spans="1:7" ht="15">
+    <row r="108" spans="1:7">
       <c r="A108" s="28" t="s">
         <v>1045</v>
       </c>
@@ -15781,7 +15778,7 @@
       </c>
       <c r="G108" s="28"/>
     </row>
-    <row r="109" spans="1:7" ht="15">
+    <row r="109" spans="1:7">
       <c r="A109" s="28" t="s">
         <v>1045</v>
       </c>
@@ -15798,7 +15795,7 @@
       </c>
       <c r="G109" s="28"/>
     </row>
-    <row r="110" spans="1:7" ht="15">
+    <row r="110" spans="1:7">
       <c r="A110" s="28" t="s">
         <v>1045</v>
       </c>
@@ -15815,7 +15812,7 @@
       </c>
       <c r="G110" s="28"/>
     </row>
-    <row r="111" spans="1:7" ht="15">
+    <row r="111" spans="1:7">
       <c r="A111" s="28" t="s">
         <v>1052</v>
       </c>
@@ -15832,7 +15829,7 @@
       </c>
       <c r="G111" s="28"/>
     </row>
-    <row r="112" spans="1:7" ht="15">
+    <row r="112" spans="1:7">
       <c r="A112" s="28" t="s">
         <v>1052</v>
       </c>
@@ -15849,7 +15846,7 @@
       </c>
       <c r="G112" s="28"/>
     </row>
-    <row r="113" spans="1:7" ht="15">
+    <row r="113" spans="1:7">
       <c r="A113" s="28" t="s">
         <v>1052</v>
       </c>
@@ -15866,7 +15863,7 @@
       </c>
       <c r="G113" s="28"/>
     </row>
-    <row r="114" spans="1:7" ht="15">
+    <row r="114" spans="1:7">
       <c r="A114" s="28" t="s">
         <v>1052</v>
       </c>
@@ -15883,7 +15880,7 @@
       </c>
       <c r="G114" s="28"/>
     </row>
-    <row r="115" spans="1:7" ht="15">
+    <row r="115" spans="1:7">
       <c r="A115" s="28" t="s">
         <v>1052</v>
       </c>
@@ -15900,7 +15897,7 @@
       </c>
       <c r="G115" s="28"/>
     </row>
-    <row r="116" spans="1:7" ht="15">
+    <row r="116" spans="1:7">
       <c r="A116" s="28" t="s">
         <v>1052</v>
       </c>
@@ -15917,7 +15914,7 @@
       </c>
       <c r="G116" s="28"/>
     </row>
-    <row r="117" spans="1:7" ht="15">
+    <row r="117" spans="1:7">
       <c r="A117" s="28" t="s">
         <v>1052</v>
       </c>
@@ -15934,7 +15931,7 @@
       </c>
       <c r="G117" s="28"/>
     </row>
-    <row r="118" spans="1:7" ht="15">
+    <row r="118" spans="1:7">
       <c r="A118" s="28" t="s">
         <v>1052</v>
       </c>
@@ -15942,7 +15939,7 @@
         <v>1437</v>
       </c>
       <c r="C118" s="28" t="s">
-        <v>2466</v>
+        <v>2458</v>
       </c>
       <c r="D118" s="28"/>
       <c r="E118" s="28"/>
@@ -15951,7 +15948,7 @@
       </c>
       <c r="G118" s="28"/>
     </row>
-    <row r="119" spans="1:7" ht="15">
+    <row r="119" spans="1:7">
       <c r="A119" s="28" t="s">
         <v>1052</v>
       </c>
@@ -15968,7 +15965,7 @@
       </c>
       <c r="G119" s="28"/>
     </row>
-    <row r="120" spans="1:7" ht="15">
+    <row r="120" spans="1:7">
       <c r="A120" s="28" t="s">
         <v>1052</v>
       </c>
@@ -15985,7 +15982,7 @@
       </c>
       <c r="G120" s="28"/>
     </row>
-    <row r="121" spans="1:7" ht="15">
+    <row r="121" spans="1:7">
       <c r="A121" s="28" t="s">
         <v>1052</v>
       </c>
@@ -16002,7 +15999,7 @@
       </c>
       <c r="G121" s="28"/>
     </row>
-    <row r="122" spans="1:7" ht="15">
+    <row r="122" spans="1:7">
       <c r="A122" s="28" t="s">
         <v>1052</v>
       </c>
@@ -16019,7 +16016,7 @@
       </c>
       <c r="G122" s="28"/>
     </row>
-    <row r="123" spans="1:7" ht="15">
+    <row r="123" spans="1:7">
       <c r="A123" s="28" t="s">
         <v>1052</v>
       </c>
@@ -16036,7 +16033,7 @@
       </c>
       <c r="G123" s="28"/>
     </row>
-    <row r="124" spans="1:7" ht="15">
+    <row r="124" spans="1:7">
       <c r="A124" s="28" t="s">
         <v>1052</v>
       </c>
@@ -16053,7 +16050,7 @@
       </c>
       <c r="G124" s="28"/>
     </row>
-    <row r="125" spans="1:7" ht="15">
+    <row r="125" spans="1:7">
       <c r="A125" s="28" t="s">
         <v>1052</v>
       </c>
@@ -16070,7 +16067,7 @@
       </c>
       <c r="G125" s="28"/>
     </row>
-    <row r="126" spans="1:7" ht="15">
+    <row r="126" spans="1:7">
       <c r="A126" s="28" t="s">
         <v>1052</v>
       </c>
@@ -16087,7 +16084,7 @@
       </c>
       <c r="G126" s="28"/>
     </row>
-    <row r="127" spans="1:7" ht="15">
+    <row r="127" spans="1:7">
       <c r="A127" s="28" t="s">
         <v>1052</v>
       </c>
@@ -16104,7 +16101,7 @@
       </c>
       <c r="G127" s="28"/>
     </row>
-    <row r="128" spans="1:7" ht="15">
+    <row r="128" spans="1:7">
       <c r="A128" s="28" t="s">
         <v>1071</v>
       </c>
@@ -16121,7 +16118,7 @@
       </c>
       <c r="G128" s="28"/>
     </row>
-    <row r="129" spans="1:7" ht="15">
+    <row r="129" spans="1:7">
       <c r="A129" s="28" t="s">
         <v>1071</v>
       </c>
@@ -16138,7 +16135,7 @@
       </c>
       <c r="G129" s="28"/>
     </row>
-    <row r="130" spans="1:7" ht="15">
+    <row r="130" spans="1:7">
       <c r="A130" s="28" t="s">
         <v>1071</v>
       </c>
@@ -16155,7 +16152,7 @@
       </c>
       <c r="G130" s="28"/>
     </row>
-    <row r="131" spans="1:7" ht="15">
+    <row r="131" spans="1:7">
       <c r="A131" s="28" t="s">
         <v>1071</v>
       </c>
@@ -16172,7 +16169,7 @@
       </c>
       <c r="G131" s="28"/>
     </row>
-    <row r="132" spans="1:7" ht="15">
+    <row r="132" spans="1:7">
       <c r="A132" s="28" t="s">
         <v>1071</v>
       </c>
@@ -16180,7 +16177,7 @@
         <v>1437</v>
       </c>
       <c r="C132" s="28" t="s">
-        <v>2466</v>
+        <v>2458</v>
       </c>
       <c r="D132" s="28"/>
       <c r="E132" s="28"/>
@@ -16189,7 +16186,7 @@
       </c>
       <c r="G132" s="28"/>
     </row>
-    <row r="133" spans="1:7" ht="15">
+    <row r="133" spans="1:7">
       <c r="A133" s="28" t="s">
         <v>1071</v>
       </c>
@@ -16206,7 +16203,7 @@
       </c>
       <c r="G133" s="28"/>
     </row>
-    <row r="134" spans="1:7" ht="15">
+    <row r="134" spans="1:7">
       <c r="A134" s="28" t="s">
         <v>1071</v>
       </c>
@@ -16223,7 +16220,7 @@
       </c>
       <c r="G134" s="28"/>
     </row>
-    <row r="135" spans="1:7" ht="15">
+    <row r="135" spans="1:7">
       <c r="A135" s="28" t="s">
         <v>1071</v>
       </c>
@@ -16240,7 +16237,7 @@
       </c>
       <c r="G135" s="28"/>
     </row>
-    <row r="136" spans="1:7" ht="15">
+    <row r="136" spans="1:7">
       <c r="A136" s="28" t="s">
         <v>1071</v>
       </c>
@@ -16257,7 +16254,7 @@
       </c>
       <c r="G136" s="28"/>
     </row>
-    <row r="137" spans="1:7" ht="15">
+    <row r="137" spans="1:7">
       <c r="A137" s="28" t="s">
         <v>1071</v>
       </c>
@@ -16274,7 +16271,7 @@
       </c>
       <c r="G137" s="28"/>
     </row>
-    <row r="138" spans="1:7" ht="15">
+    <row r="138" spans="1:7">
       <c r="A138" s="28" t="s">
         <v>1071</v>
       </c>
@@ -16291,7 +16288,7 @@
       </c>
       <c r="G138" s="28"/>
     </row>
-    <row r="139" spans="1:7" ht="15">
+    <row r="139" spans="1:7">
       <c r="A139" s="28" t="s">
         <v>1081</v>
       </c>
@@ -16308,7 +16305,7 @@
       </c>
       <c r="G139" s="28"/>
     </row>
-    <row r="140" spans="1:7" ht="15">
+    <row r="140" spans="1:7">
       <c r="A140" s="28" t="s">
         <v>1081</v>
       </c>
@@ -16325,7 +16322,7 @@
       </c>
       <c r="G140" s="28"/>
     </row>
-    <row r="141" spans="1:7" ht="15">
+    <row r="141" spans="1:7">
       <c r="A141" s="28" t="s">
         <v>1081</v>
       </c>
@@ -16342,7 +16339,7 @@
       </c>
       <c r="G141" s="28"/>
     </row>
-    <row r="142" spans="1:7" ht="15">
+    <row r="142" spans="1:7">
       <c r="A142" s="28" t="s">
         <v>1081</v>
       </c>
@@ -16359,7 +16356,7 @@
       </c>
       <c r="G142" s="28"/>
     </row>
-    <row r="143" spans="1:7" ht="15">
+    <row r="143" spans="1:7">
       <c r="A143" s="28" t="s">
         <v>1081</v>
       </c>
@@ -16392,10 +16389,10 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="28" customWidth="1"/>
-    <col min="2" max="2" width="13.2109375" style="28" customWidth="1"/>
+    <col min="1" max="1" width="16.75" style="28" customWidth="1"/>
+    <col min="2" max="2" width="13.25" style="28" customWidth="1"/>
     <col min="3" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
@@ -16642,21 +16639,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G203"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="21.375" customWidth="1"/>
     <col min="2" max="2" width="49" customWidth="1"/>
-    <col min="3" max="3" width="27.92578125" customWidth="1"/>
-    <col min="4" max="4" width="92.92578125" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" customWidth="1"/>
-    <col min="6" max="6" width="60.92578125" customWidth="1"/>
+    <col min="3" max="3" width="27.875" customWidth="1"/>
+    <col min="4" max="4" width="92.875" customWidth="1"/>
+    <col min="5" max="5" width="25.75" customWidth="1"/>
+    <col min="6" max="6" width="60.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="15">
+    <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="26" t="s">
         <v>2</v>
       </c>
@@ -16667,7 +16664,7 @@
         <v>2041</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="E1" s="26" t="s">
         <v>3</v>
@@ -16679,7 +16676,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.9">
+    <row r="2" spans="1:7">
       <c r="A2" s="27" t="s">
         <v>200</v>
       </c>
@@ -16690,7 +16687,7 @@
         <v>2042</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>2294</v>
+        <v>2542</v>
       </c>
       <c r="E2" s="28" t="s">
         <v>202</v>
@@ -16700,7 +16697,7 @@
       </c>
       <c r="G2" s="28"/>
     </row>
-    <row r="3" spans="1:7" ht="15.9">
+    <row r="3" spans="1:7">
       <c r="A3" s="27" t="s">
         <v>204</v>
       </c>
@@ -16711,7 +16708,7 @@
         <v>2043</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>2295</v>
+        <v>2541</v>
       </c>
       <c r="E3" s="28" t="s">
         <v>206</v>
@@ -16721,7 +16718,7 @@
       </c>
       <c r="G3" s="28"/>
     </row>
-    <row r="4" spans="1:7" ht="15.9">
+    <row r="4" spans="1:7">
       <c r="A4" s="27" t="s">
         <v>208</v>
       </c>
@@ -16732,7 +16729,7 @@
         <v>2044</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>2230</v>
+        <v>2543</v>
       </c>
       <c r="E4" s="29" t="s">
         <v>210</v>
@@ -16742,7 +16739,7 @@
       </c>
       <c r="G4" s="28"/>
     </row>
-    <row r="5" spans="1:7" ht="15.9">
+    <row r="5" spans="1:7">
       <c r="A5" s="27" t="s">
         <v>212</v>
       </c>
@@ -16753,7 +16750,7 @@
         <v>2045</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>2231</v>
+        <v>2229</v>
       </c>
       <c r="E5" s="28" t="s">
         <v>214</v>
@@ -16763,7 +16760,7 @@
       </c>
       <c r="G5" s="28"/>
     </row>
-    <row r="6" spans="1:7" ht="15.9">
+    <row r="6" spans="1:7">
       <c r="A6" s="27" t="s">
         <v>216</v>
       </c>
@@ -16774,7 +16771,7 @@
         <v>2046</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>2232</v>
+        <v>2230</v>
       </c>
       <c r="E6" s="28" t="s">
         <v>218</v>
@@ -16784,7 +16781,7 @@
       </c>
       <c r="G6" s="28"/>
     </row>
-    <row r="7" spans="1:7" ht="15.9">
+    <row r="7" spans="1:7">
       <c r="A7" s="27" t="s">
         <v>220</v>
       </c>
@@ -16795,7 +16792,7 @@
         <v>2047</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>2233</v>
+        <v>2231</v>
       </c>
       <c r="E7" s="28" t="s">
         <v>222</v>
@@ -16816,7 +16813,7 @@
         <v>2048</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>2234</v>
+        <v>2232</v>
       </c>
       <c r="E8" s="28" t="s">
         <v>226</v>
@@ -16826,7 +16823,7 @@
       </c>
       <c r="G8" s="28"/>
     </row>
-    <row r="9" spans="1:7" ht="15.9">
+    <row r="9" spans="1:7">
       <c r="A9" s="27" t="s">
         <v>228</v>
       </c>
@@ -16837,7 +16834,7 @@
         <v>2049</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>2235</v>
+        <v>2233</v>
       </c>
       <c r="E9" s="28" t="s">
         <v>230</v>
@@ -16847,7 +16844,7 @@
       </c>
       <c r="G9" s="28"/>
     </row>
-    <row r="10" spans="1:7" ht="15.9">
+    <row r="10" spans="1:7">
       <c r="A10" s="27" t="s">
         <v>232</v>
       </c>
@@ -16858,7 +16855,7 @@
         <v>2050</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>2235</v>
+        <v>2233</v>
       </c>
       <c r="E10" s="28" t="s">
         <v>233</v>
@@ -16868,7 +16865,7 @@
       </c>
       <c r="G10" s="28"/>
     </row>
-    <row r="11" spans="1:7" ht="15.9">
+    <row r="11" spans="1:7">
       <c r="A11" s="27" t="s">
         <v>234</v>
       </c>
@@ -16879,7 +16876,7 @@
         <v>2051</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>2235</v>
+        <v>2233</v>
       </c>
       <c r="E11" s="28" t="s">
         <v>235</v>
@@ -16889,7 +16886,7 @@
       </c>
       <c r="G11" s="28"/>
     </row>
-    <row r="12" spans="1:7" ht="15.9">
+    <row r="12" spans="1:7">
       <c r="A12" s="27" t="s">
         <v>236</v>
       </c>
@@ -16900,7 +16897,7 @@
         <v>2052</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
       <c r="E12" s="28" t="s">
         <v>238</v>
@@ -16910,7 +16907,7 @@
       </c>
       <c r="G12" s="28"/>
     </row>
-    <row r="13" spans="1:7" ht="15.9">
+    <row r="13" spans="1:7">
       <c r="A13" s="27" t="s">
         <v>240</v>
       </c>
@@ -16921,7 +16918,7 @@
         <v>2053</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>2237</v>
+        <v>2235</v>
       </c>
       <c r="E13" s="28" t="s">
         <v>242</v>
@@ -16931,7 +16928,7 @@
       </c>
       <c r="G13" s="28"/>
     </row>
-    <row r="14" spans="1:7" ht="15.9">
+    <row r="14" spans="1:7">
       <c r="A14" s="27" t="s">
         <v>244</v>
       </c>
@@ -16942,7 +16939,7 @@
         <v>2054</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>2238</v>
+        <v>2236</v>
       </c>
       <c r="E14" s="28" t="s">
         <v>246</v>
@@ -16952,7 +16949,7 @@
       </c>
       <c r="G14" s="28"/>
     </row>
-    <row r="15" spans="1:7" ht="15.9">
+    <row r="15" spans="1:7">
       <c r="A15" s="27" t="s">
         <v>248</v>
       </c>
@@ -16963,7 +16960,7 @@
         <v>2055</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>2239</v>
+        <v>2237</v>
       </c>
       <c r="E15" s="28" t="s">
         <v>250</v>
@@ -16973,7 +16970,7 @@
       </c>
       <c r="G15" s="28"/>
     </row>
-    <row r="16" spans="1:7" ht="15.9">
+    <row r="16" spans="1:7">
       <c r="A16" s="27" t="s">
         <v>252</v>
       </c>
@@ -16984,7 +16981,7 @@
         <v>2056</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>2240</v>
+        <v>2238</v>
       </c>
       <c r="E16" s="28" t="s">
         <v>254</v>
@@ -16994,7 +16991,7 @@
       </c>
       <c r="G16" s="28"/>
     </row>
-    <row r="17" spans="1:7" ht="15.9">
+    <row r="17" spans="1:7">
       <c r="A17" s="27" t="s">
         <v>256</v>
       </c>
@@ -17005,7 +17002,7 @@
         <v>2057</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>2463</v>
+        <v>2455</v>
       </c>
       <c r="E17" s="28" t="s">
         <v>258</v>
@@ -17015,7 +17012,7 @@
       </c>
       <c r="G17" s="28"/>
     </row>
-    <row r="18" spans="1:7" ht="15.9">
+    <row r="18" spans="1:7">
       <c r="A18" s="27" t="s">
         <v>260</v>
       </c>
@@ -17026,7 +17023,7 @@
         <v>2058</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>2241</v>
+        <v>2239</v>
       </c>
       <c r="E18" s="28" t="s">
         <v>262</v>
@@ -17036,7 +17033,7 @@
       </c>
       <c r="G18" s="28"/>
     </row>
-    <row r="19" spans="1:7" ht="15.9">
+    <row r="19" spans="1:7">
       <c r="A19" s="27" t="s">
         <v>264</v>
       </c>
@@ -17047,7 +17044,7 @@
         <v>2059</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
       <c r="E19" s="28" t="s">
         <v>266</v>
@@ -17057,7 +17054,7 @@
       </c>
       <c r="G19" s="28"/>
     </row>
-    <row r="20" spans="1:7" ht="15.9">
+    <row r="20" spans="1:7">
       <c r="A20" s="27" t="s">
         <v>268</v>
       </c>
@@ -17068,7 +17065,7 @@
         <v>2060</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>2243</v>
+        <v>2241</v>
       </c>
       <c r="E20" s="28" t="s">
         <v>270</v>
@@ -17078,7 +17075,7 @@
       </c>
       <c r="G20" s="28"/>
     </row>
-    <row r="21" spans="1:7" ht="15.9">
+    <row r="21" spans="1:7">
       <c r="A21" s="27" t="s">
         <v>272</v>
       </c>
@@ -17089,7 +17086,7 @@
         <v>2061</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
       <c r="E21" s="28" t="s">
         <v>274</v>
@@ -17099,7 +17096,7 @@
       </c>
       <c r="G21" s="28"/>
     </row>
-    <row r="22" spans="1:7" ht="15.9">
+    <row r="22" spans="1:7">
       <c r="A22" s="27" t="s">
         <v>276</v>
       </c>
@@ -17110,7 +17107,7 @@
         <v>2062</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
       <c r="E22" s="28" t="s">
         <v>278</v>
@@ -17120,7 +17117,7 @@
       </c>
       <c r="G22" s="28"/>
     </row>
-    <row r="23" spans="1:7" ht="15.9">
+    <row r="23" spans="1:7">
       <c r="A23" s="27" t="s">
         <v>280</v>
       </c>
@@ -17131,7 +17128,7 @@
         <v>2063</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>2246</v>
+        <v>2244</v>
       </c>
       <c r="E23" s="28" t="s">
         <v>282</v>
@@ -17141,7 +17138,7 @@
       </c>
       <c r="G23" s="28"/>
     </row>
-    <row r="24" spans="1:7" ht="15.9">
+    <row r="24" spans="1:7">
       <c r="A24" s="27" t="s">
         <v>284</v>
       </c>
@@ -17152,7 +17149,7 @@
         <v>2064</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>2247</v>
+        <v>2245</v>
       </c>
       <c r="E24" s="28" t="s">
         <v>286</v>
@@ -17162,7 +17159,7 @@
       </c>
       <c r="G24" s="28"/>
     </row>
-    <row r="25" spans="1:7" ht="15.9">
+    <row r="25" spans="1:7">
       <c r="A25" s="27" t="s">
         <v>288</v>
       </c>
@@ -17173,7 +17170,7 @@
         <v>2065</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>2248</v>
+        <v>2246</v>
       </c>
       <c r="E25" s="28" t="s">
         <v>290</v>
@@ -17183,7 +17180,7 @@
       </c>
       <c r="G25" s="28"/>
     </row>
-    <row r="26" spans="1:7" ht="15.9">
+    <row r="26" spans="1:7">
       <c r="A26" s="27" t="s">
         <v>292</v>
       </c>
@@ -17194,7 +17191,7 @@
         <v>2066</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
       <c r="E26" s="28" t="s">
         <v>294</v>
@@ -17204,7 +17201,7 @@
       </c>
       <c r="G26" s="28"/>
     </row>
-    <row r="27" spans="1:7" ht="15.9">
+    <row r="27" spans="1:7">
       <c r="A27" s="27" t="s">
         <v>296</v>
       </c>
@@ -17215,7 +17212,7 @@
         <v>2067</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="E27" s="28" t="s">
         <v>298</v>
@@ -17225,7 +17222,7 @@
       </c>
       <c r="G27" s="28"/>
     </row>
-    <row r="28" spans="1:7" ht="15.9">
+    <row r="28" spans="1:7">
       <c r="A28" s="27" t="s">
         <v>300</v>
       </c>
@@ -17236,7 +17233,7 @@
         <v>2068</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>2251</v>
+        <v>2249</v>
       </c>
       <c r="E28" s="28" t="s">
         <v>302</v>
@@ -17246,7 +17243,7 @@
       </c>
       <c r="G28" s="28"/>
     </row>
-    <row r="29" spans="1:7" ht="15.9">
+    <row r="29" spans="1:7">
       <c r="A29" s="27" t="s">
         <v>304</v>
       </c>
@@ -17257,7 +17254,7 @@
         <v>2069</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
       <c r="E29" s="28" t="s">
         <v>306</v>
@@ -17267,7 +17264,7 @@
       </c>
       <c r="G29" s="28"/>
     </row>
-    <row r="30" spans="1:7" ht="15.9">
+    <row r="30" spans="1:7">
       <c r="A30" s="27" t="s">
         <v>308</v>
       </c>
@@ -17278,7 +17275,7 @@
         <v>2070</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>2253</v>
+        <v>2251</v>
       </c>
       <c r="E30" s="28" t="s">
         <v>309</v>
@@ -17288,7 +17285,7 @@
       </c>
       <c r="G30" s="28"/>
     </row>
-    <row r="31" spans="1:7" ht="15.9">
+    <row r="31" spans="1:7">
       <c r="A31" s="27" t="s">
         <v>311</v>
       </c>
@@ -17299,7 +17296,7 @@
         <v>2071</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>2254</v>
+        <v>2252</v>
       </c>
       <c r="E31" s="28" t="s">
         <v>313</v>
@@ -17309,7 +17306,7 @@
       </c>
       <c r="G31" s="28"/>
     </row>
-    <row r="32" spans="1:7" ht="15.9">
+    <row r="32" spans="1:7">
       <c r="A32" s="27" t="s">
         <v>315</v>
       </c>
@@ -17320,7 +17317,7 @@
         <v>2072</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>2255</v>
+        <v>2253</v>
       </c>
       <c r="E32" s="28" t="s">
         <v>317</v>
@@ -17330,7 +17327,7 @@
       </c>
       <c r="G32" s="28"/>
     </row>
-    <row r="33" spans="1:7" ht="15.9">
+    <row r="33" spans="1:7">
       <c r="A33" s="27" t="s">
         <v>319</v>
       </c>
@@ -17341,7 +17338,7 @@
         <v>2073</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>2256</v>
+        <v>2254</v>
       </c>
       <c r="E33" s="28" t="s">
         <v>321</v>
@@ -17351,7 +17348,7 @@
       </c>
       <c r="G33" s="28"/>
     </row>
-    <row r="34" spans="1:7" ht="15.9">
+    <row r="34" spans="1:7">
       <c r="A34" s="27" t="s">
         <v>323</v>
       </c>
@@ -17362,7 +17359,7 @@
         <v>2074</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>2257</v>
+        <v>2255</v>
       </c>
       <c r="E34" s="28" t="s">
         <v>325</v>
@@ -17372,7 +17369,7 @@
       </c>
       <c r="G34" s="28"/>
     </row>
-    <row r="35" spans="1:7" ht="15.9">
+    <row r="35" spans="1:7">
       <c r="A35" s="27" t="s">
         <v>327</v>
       </c>
@@ -17383,7 +17380,7 @@
         <v>2075</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>2258</v>
+        <v>2256</v>
       </c>
       <c r="E35" s="28" t="s">
         <v>329</v>
@@ -17393,7 +17390,7 @@
       </c>
       <c r="G35" s="28"/>
     </row>
-    <row r="36" spans="1:7" ht="15.9">
+    <row r="36" spans="1:7">
       <c r="A36" s="27" t="s">
         <v>331</v>
       </c>
@@ -17404,7 +17401,7 @@
         <v>2076</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>2259</v>
+        <v>2257</v>
       </c>
       <c r="E36" s="28" t="s">
         <v>333</v>
@@ -17414,7 +17411,7 @@
       </c>
       <c r="G36" s="28"/>
     </row>
-    <row r="37" spans="1:7" ht="15.9">
+    <row r="37" spans="1:7">
       <c r="A37" s="27" t="s">
         <v>335</v>
       </c>
@@ -17425,7 +17422,7 @@
         <v>2077</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
       <c r="E37" s="28" t="s">
         <v>337</v>
@@ -17435,7 +17432,7 @@
       </c>
       <c r="G37" s="28"/>
     </row>
-    <row r="38" spans="1:7" ht="15.9">
+    <row r="38" spans="1:7">
       <c r="A38" s="27" t="s">
         <v>339</v>
       </c>
@@ -17446,7 +17443,7 @@
         <v>2078</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>2261</v>
+        <v>2259</v>
       </c>
       <c r="E38" s="28" t="s">
         <v>341</v>
@@ -17456,7 +17453,7 @@
       </c>
       <c r="G38" s="28"/>
     </row>
-    <row r="39" spans="1:7" ht="15.9">
+    <row r="39" spans="1:7">
       <c r="A39" s="27" t="s">
         <v>343</v>
       </c>
@@ -17467,7 +17464,7 @@
         <v>2079</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>2262</v>
+        <v>2260</v>
       </c>
       <c r="E39" s="28" t="s">
         <v>345</v>
@@ -17477,7 +17474,7 @@
       </c>
       <c r="G39" s="28"/>
     </row>
-    <row r="40" spans="1:7" ht="15.9">
+    <row r="40" spans="1:7">
       <c r="A40" s="27" t="s">
         <v>347</v>
       </c>
@@ -17488,7 +17485,7 @@
         <v>2080</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>2263</v>
+        <v>2261</v>
       </c>
       <c r="E40" s="31" t="s">
         <v>349</v>
@@ -17498,7 +17495,7 @@
       </c>
       <c r="G40" s="28"/>
     </row>
-    <row r="41" spans="1:7" ht="15.9">
+    <row r="41" spans="1:7">
       <c r="A41" s="27" t="s">
         <v>351</v>
       </c>
@@ -17509,7 +17506,7 @@
         <v>2081</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>2264</v>
+        <v>2262</v>
       </c>
       <c r="E41" s="28" t="s">
         <v>353</v>
@@ -17519,7 +17516,7 @@
       </c>
       <c r="G41" s="28"/>
     </row>
-    <row r="42" spans="1:7" ht="15.9">
+    <row r="42" spans="1:7">
       <c r="A42" s="27" t="s">
         <v>355</v>
       </c>
@@ -17530,7 +17527,7 @@
         <v>2082</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>2264</v>
+        <v>2262</v>
       </c>
       <c r="E42" s="28" t="s">
         <v>356</v>
@@ -17540,7 +17537,7 @@
       </c>
       <c r="G42" s="28"/>
     </row>
-    <row r="43" spans="1:7" ht="15.9">
+    <row r="43" spans="1:7">
       <c r="A43" s="27" t="s">
         <v>357</v>
       </c>
@@ -17551,7 +17548,7 @@
         <v>2083</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>2264</v>
+        <v>2262</v>
       </c>
       <c r="E43" s="28" t="s">
         <v>358</v>
@@ -17561,7 +17558,7 @@
       </c>
       <c r="G43" s="28"/>
     </row>
-    <row r="44" spans="1:7" ht="15.9">
+    <row r="44" spans="1:7">
       <c r="A44" s="27" t="s">
         <v>359</v>
       </c>
@@ -17572,7 +17569,7 @@
         <v>2084</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>2265</v>
+        <v>2263</v>
       </c>
       <c r="E44" s="28" t="s">
         <v>361</v>
@@ -17582,7 +17579,7 @@
       </c>
       <c r="G44" s="28"/>
     </row>
-    <row r="45" spans="1:7" ht="15.9">
+    <row r="45" spans="1:7">
       <c r="A45" s="27" t="s">
         <v>363</v>
       </c>
@@ -17593,7 +17590,7 @@
         <v>2085</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>2266</v>
+        <v>2264</v>
       </c>
       <c r="E45" s="28" t="s">
         <v>365</v>
@@ -17603,7 +17600,7 @@
       </c>
       <c r="G45" s="28"/>
     </row>
-    <row r="46" spans="1:7" ht="15.9">
+    <row r="46" spans="1:7">
       <c r="A46" s="27" t="s">
         <v>367</v>
       </c>
@@ -17614,7 +17611,7 @@
         <v>2086</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="E46" s="28" t="s">
         <v>369</v>
@@ -17624,7 +17621,7 @@
       </c>
       <c r="G46" s="28"/>
     </row>
-    <row r="47" spans="1:7" ht="15.9">
+    <row r="47" spans="1:7">
       <c r="A47" s="27" t="s">
         <v>371</v>
       </c>
@@ -17635,7 +17632,7 @@
         <v>2087</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
       <c r="E47" s="28" t="s">
         <v>373</v>
@@ -17645,7 +17642,7 @@
       </c>
       <c r="G47" s="28"/>
     </row>
-    <row r="48" spans="1:7" ht="15.9">
+    <row r="48" spans="1:7">
       <c r="A48" s="27" t="s">
         <v>375</v>
       </c>
@@ -17666,7 +17663,7 @@
       </c>
       <c r="G48" s="28"/>
     </row>
-    <row r="49" spans="1:7" ht="15.9">
+    <row r="49" spans="1:7">
       <c r="A49" s="27" t="s">
         <v>379</v>
       </c>
@@ -17687,7 +17684,7 @@
       </c>
       <c r="G49" s="28"/>
     </row>
-    <row r="50" spans="1:7" ht="15.9">
+    <row r="50" spans="1:7">
       <c r="A50" s="27" t="s">
         <v>383</v>
       </c>
@@ -17708,7 +17705,7 @@
       </c>
       <c r="G50" s="28"/>
     </row>
-    <row r="51" spans="1:7" ht="15.9">
+    <row r="51" spans="1:7">
       <c r="A51" s="27" t="s">
         <v>387</v>
       </c>
@@ -17729,7 +17726,7 @@
       </c>
       <c r="G51" s="28"/>
     </row>
-    <row r="52" spans="1:7" ht="15.9">
+    <row r="52" spans="1:7">
       <c r="A52" s="27" t="s">
         <v>391</v>
       </c>
@@ -17750,7 +17747,7 @@
       </c>
       <c r="G52" s="28"/>
     </row>
-    <row r="53" spans="1:7" ht="15.9">
+    <row r="53" spans="1:7">
       <c r="A53" s="27" t="s">
         <v>395</v>
       </c>
@@ -17771,7 +17768,7 @@
       </c>
       <c r="G53" s="28"/>
     </row>
-    <row r="54" spans="1:7" ht="15.9">
+    <row r="54" spans="1:7">
       <c r="A54" s="27" t="s">
         <v>399</v>
       </c>
@@ -17792,7 +17789,7 @@
       </c>
       <c r="G54" s="28"/>
     </row>
-    <row r="55" spans="1:7" ht="15.9">
+    <row r="55" spans="1:7">
       <c r="A55" s="27" t="s">
         <v>403</v>
       </c>
@@ -17813,7 +17810,7 @@
       </c>
       <c r="G55" s="28"/>
     </row>
-    <row r="56" spans="1:7" ht="15.9">
+    <row r="56" spans="1:7">
       <c r="A56" s="27" t="s">
         <v>407</v>
       </c>
@@ -17834,7 +17831,7 @@
       </c>
       <c r="G56" s="28"/>
     </row>
-    <row r="57" spans="1:7" ht="15.9">
+    <row r="57" spans="1:7">
       <c r="A57" s="27" t="s">
         <v>411</v>
       </c>
@@ -17855,7 +17852,7 @@
       </c>
       <c r="G57" s="28"/>
     </row>
-    <row r="58" spans="1:7" ht="15.9">
+    <row r="58" spans="1:7">
       <c r="A58" s="27" t="s">
         <v>415</v>
       </c>
@@ -17876,7 +17873,7 @@
       </c>
       <c r="G58" s="28"/>
     </row>
-    <row r="59" spans="1:7" ht="15.9">
+    <row r="59" spans="1:7">
       <c r="A59" s="27" t="s">
         <v>419</v>
       </c>
@@ -17897,7 +17894,7 @@
       </c>
       <c r="G59" s="28"/>
     </row>
-    <row r="60" spans="1:7" ht="15.9">
+    <row r="60" spans="1:7">
       <c r="A60" s="27" t="s">
         <v>422</v>
       </c>
@@ -17918,7 +17915,7 @@
       </c>
       <c r="G60" s="28"/>
     </row>
-    <row r="61" spans="1:7" ht="15.9">
+    <row r="61" spans="1:7">
       <c r="A61" s="27" t="s">
         <v>425</v>
       </c>
@@ -17939,7 +17936,7 @@
       </c>
       <c r="G61" s="28"/>
     </row>
-    <row r="62" spans="1:7" ht="15.9">
+    <row r="62" spans="1:7">
       <c r="A62" s="27" t="s">
         <v>428</v>
       </c>
@@ -17960,7 +17957,7 @@
       </c>
       <c r="G62" s="28"/>
     </row>
-    <row r="63" spans="1:7" ht="15.9">
+    <row r="63" spans="1:7">
       <c r="A63" s="27" t="s">
         <v>432</v>
       </c>
@@ -17981,7 +17978,7 @@
       </c>
       <c r="G63" s="28"/>
     </row>
-    <row r="64" spans="1:7" ht="15.9">
+    <row r="64" spans="1:7">
       <c r="A64" s="27" t="s">
         <v>436</v>
       </c>
@@ -17992,7 +17989,7 @@
         <v>2104</v>
       </c>
       <c r="D64" s="24" t="s">
-        <v>2297</v>
+        <v>2293</v>
       </c>
       <c r="E64" s="28" t="s">
         <v>438</v>
@@ -18002,7 +17999,7 @@
       </c>
       <c r="G64" s="28"/>
     </row>
-    <row r="65" spans="1:7" ht="15.9">
+    <row r="65" spans="1:7">
       <c r="A65" s="27" t="s">
         <v>440</v>
       </c>
@@ -18013,7 +18010,7 @@
         <v>2105</v>
       </c>
       <c r="D65" s="24" t="s">
-        <v>2296</v>
+        <v>2292</v>
       </c>
       <c r="E65" s="28" t="s">
         <v>442</v>
@@ -18023,7 +18020,7 @@
       </c>
       <c r="G65" s="28"/>
     </row>
-    <row r="66" spans="1:7" ht="15.9">
+    <row r="66" spans="1:7">
       <c r="A66" s="27" t="s">
         <v>443</v>
       </c>
@@ -18044,7 +18041,7 @@
       </c>
       <c r="G66" s="28"/>
     </row>
-    <row r="67" spans="1:7" ht="15.9">
+    <row r="67" spans="1:7">
       <c r="A67" s="27" t="s">
         <v>447</v>
       </c>
@@ -18065,7 +18062,7 @@
       </c>
       <c r="G67" s="28"/>
     </row>
-    <row r="68" spans="1:7" ht="15.9">
+    <row r="68" spans="1:7">
       <c r="A68" s="27" t="s">
         <v>451</v>
       </c>
@@ -18086,7 +18083,7 @@
       </c>
       <c r="G68" s="28"/>
     </row>
-    <row r="69" spans="1:7" ht="15.9">
+    <row r="69" spans="1:7">
       <c r="A69" s="27" t="s">
         <v>455</v>
       </c>
@@ -18107,7 +18104,7 @@
       </c>
       <c r="G69" s="28"/>
     </row>
-    <row r="70" spans="1:7" ht="15.9">
+    <row r="70" spans="1:7">
       <c r="A70" s="27" t="s">
         <v>459</v>
       </c>
@@ -18128,7 +18125,7 @@
       </c>
       <c r="G70" s="28"/>
     </row>
-    <row r="71" spans="1:7" ht="15.9">
+    <row r="71" spans="1:7">
       <c r="A71" s="27" t="s">
         <v>463</v>
       </c>
@@ -18149,7 +18146,7 @@
       </c>
       <c r="G71" s="28"/>
     </row>
-    <row r="72" spans="1:7" ht="15.9">
+    <row r="72" spans="1:7">
       <c r="A72" s="27" t="s">
         <v>467</v>
       </c>
@@ -18170,7 +18167,7 @@
       </c>
       <c r="G72" s="28"/>
     </row>
-    <row r="73" spans="1:7" ht="15.9">
+    <row r="73" spans="1:7">
       <c r="A73" s="27" t="s">
         <v>471</v>
       </c>
@@ -18191,7 +18188,7 @@
       </c>
       <c r="G73" s="28"/>
     </row>
-    <row r="74" spans="1:7" ht="15.9">
+    <row r="74" spans="1:7">
       <c r="A74" s="27" t="s">
         <v>475</v>
       </c>
@@ -18212,7 +18209,7 @@
       </c>
       <c r="G74" s="28"/>
     </row>
-    <row r="75" spans="1:7" ht="15.9">
+    <row r="75" spans="1:7">
       <c r="A75" s="27" t="s">
         <v>479</v>
       </c>
@@ -18233,7 +18230,7 @@
       </c>
       <c r="G75" s="28"/>
     </row>
-    <row r="76" spans="1:7" ht="15.9">
+    <row r="76" spans="1:7">
       <c r="A76" s="27" t="s">
         <v>483</v>
       </c>
@@ -18254,7 +18251,7 @@
       </c>
       <c r="G76" s="28"/>
     </row>
-    <row r="77" spans="1:7" ht="15.9">
+    <row r="77" spans="1:7">
       <c r="A77" s="27" t="s">
         <v>487</v>
       </c>
@@ -18275,7 +18272,7 @@
       </c>
       <c r="G77" s="28"/>
     </row>
-    <row r="78" spans="1:7" ht="15.9">
+    <row r="78" spans="1:7">
       <c r="A78" s="27" t="s">
         <v>491</v>
       </c>
@@ -18296,7 +18293,7 @@
       </c>
       <c r="G78" s="28"/>
     </row>
-    <row r="79" spans="1:7" ht="15.9">
+    <row r="79" spans="1:7">
       <c r="A79" s="27" t="s">
         <v>495</v>
       </c>
@@ -18317,7 +18314,7 @@
       </c>
       <c r="G79" s="28"/>
     </row>
-    <row r="80" spans="1:7" ht="15.9">
+    <row r="80" spans="1:7">
       <c r="A80" s="27" t="s">
         <v>499</v>
       </c>
@@ -18338,7 +18335,7 @@
       </c>
       <c r="G80" s="28"/>
     </row>
-    <row r="81" spans="1:7" ht="15.9">
+    <row r="81" spans="1:7">
       <c r="A81" s="27" t="s">
         <v>503</v>
       </c>
@@ -18359,7 +18356,7 @@
       </c>
       <c r="G81" s="28"/>
     </row>
-    <row r="82" spans="1:7" ht="15.9">
+    <row r="82" spans="1:7">
       <c r="A82" s="27" t="s">
         <v>507</v>
       </c>
@@ -18380,7 +18377,7 @@
       </c>
       <c r="G82" s="28"/>
     </row>
-    <row r="83" spans="1:7" ht="15.9">
+    <row r="83" spans="1:7">
       <c r="A83" s="27" t="s">
         <v>511</v>
       </c>
@@ -18401,7 +18398,7 @@
       </c>
       <c r="G83" s="28"/>
     </row>
-    <row r="84" spans="1:7" ht="15.9">
+    <row r="84" spans="1:7">
       <c r="A84" s="27" t="s">
         <v>515</v>
       </c>
@@ -18409,10 +18406,10 @@
         <v>516</v>
       </c>
       <c r="C84" s="24" t="s">
-        <v>2298</v>
+        <v>2294</v>
       </c>
       <c r="D84" s="24" t="s">
-        <v>2300</v>
+        <v>2296</v>
       </c>
       <c r="E84" s="28" t="s">
         <v>517</v>
@@ -18422,7 +18419,7 @@
       </c>
       <c r="G84" s="28"/>
     </row>
-    <row r="85" spans="1:7" ht="15.9">
+    <row r="85" spans="1:7">
       <c r="A85" s="27" t="s">
         <v>519</v>
       </c>
@@ -18430,10 +18427,10 @@
         <v>520</v>
       </c>
       <c r="C85" s="24" t="s">
-        <v>2299</v>
+        <v>2295</v>
       </c>
       <c r="D85" s="24" t="s">
-        <v>2301</v>
+        <v>2297</v>
       </c>
       <c r="E85" s="28" t="s">
         <v>521</v>
@@ -18443,7 +18440,7 @@
       </c>
       <c r="G85" s="28"/>
     </row>
-    <row r="86" spans="1:7" ht="15.9">
+    <row r="86" spans="1:7">
       <c r="A86" s="27" t="s">
         <v>523</v>
       </c>
@@ -18464,7 +18461,7 @@
       </c>
       <c r="G86" s="28"/>
     </row>
-    <row r="87" spans="1:7" ht="15.9">
+    <row r="87" spans="1:7">
       <c r="A87" s="27" t="s">
         <v>527</v>
       </c>
@@ -18485,7 +18482,7 @@
       </c>
       <c r="G87" s="28"/>
     </row>
-    <row r="88" spans="1:7" ht="15.9">
+    <row r="88" spans="1:7">
       <c r="A88" s="27" t="s">
         <v>531</v>
       </c>
@@ -18506,7 +18503,7 @@
       </c>
       <c r="G88" s="28"/>
     </row>
-    <row r="89" spans="1:7" ht="15.9">
+    <row r="89" spans="1:7">
       <c r="A89" s="27" t="s">
         <v>535</v>
       </c>
@@ -18527,7 +18524,7 @@
       </c>
       <c r="G89" s="28"/>
     </row>
-    <row r="90" spans="1:7" ht="15.9">
+    <row r="90" spans="1:7">
       <c r="A90" s="27" t="s">
         <v>539</v>
       </c>
@@ -18548,7 +18545,7 @@
       </c>
       <c r="G90" s="28"/>
     </row>
-    <row r="91" spans="1:7" ht="15.9">
+    <row r="91" spans="1:7">
       <c r="A91" s="27" t="s">
         <v>543</v>
       </c>
@@ -18569,7 +18566,7 @@
       </c>
       <c r="G91" s="28"/>
     </row>
-    <row r="92" spans="1:7" ht="15.9">
+    <row r="92" spans="1:7">
       <c r="A92" s="27" t="s">
         <v>545</v>
       </c>
@@ -18590,7 +18587,7 @@
       </c>
       <c r="G92" s="28"/>
     </row>
-    <row r="93" spans="1:7" ht="15.9">
+    <row r="93" spans="1:7">
       <c r="A93" s="27" t="s">
         <v>547</v>
       </c>
@@ -18611,7 +18608,7 @@
       </c>
       <c r="G93" s="28"/>
     </row>
-    <row r="94" spans="1:7" ht="15.9">
+    <row r="94" spans="1:7">
       <c r="A94" s="27" t="s">
         <v>549</v>
       </c>
@@ -18632,7 +18629,7 @@
       </c>
       <c r="G94" s="28"/>
     </row>
-    <row r="95" spans="1:7" ht="15.9">
+    <row r="95" spans="1:7">
       <c r="A95" s="27" t="s">
         <v>551</v>
       </c>
@@ -18653,7 +18650,7 @@
       </c>
       <c r="G95" s="28"/>
     </row>
-    <row r="96" spans="1:7" ht="15.9">
+    <row r="96" spans="1:7">
       <c r="A96" s="27" t="s">
         <v>553</v>
       </c>
@@ -18674,7 +18671,7 @@
       </c>
       <c r="G96" s="28"/>
     </row>
-    <row r="97" spans="1:7" ht="15.9">
+    <row r="97" spans="1:7">
       <c r="A97" s="27" t="s">
         <v>557</v>
       </c>
@@ -18695,7 +18692,7 @@
       </c>
       <c r="G97" s="28"/>
     </row>
-    <row r="98" spans="1:7" ht="15.9">
+    <row r="98" spans="1:7">
       <c r="A98" s="27" t="s">
         <v>561</v>
       </c>
@@ -18716,7 +18713,7 @@
       </c>
       <c r="G98" s="28"/>
     </row>
-    <row r="99" spans="1:7" ht="15.9">
+    <row r="99" spans="1:7">
       <c r="A99" s="27" t="s">
         <v>44</v>
       </c>
@@ -18727,7 +18724,7 @@
         <v>2132</v>
       </c>
       <c r="D99" s="24" t="s">
-        <v>2302</v>
+        <v>2298</v>
       </c>
       <c r="E99" s="28" t="s">
         <v>45</v>
@@ -18737,7 +18734,7 @@
       </c>
       <c r="G99" s="28"/>
     </row>
-    <row r="100" spans="1:7" ht="15.9">
+    <row r="100" spans="1:7">
       <c r="A100" s="27" t="s">
         <v>46</v>
       </c>
@@ -18748,7 +18745,7 @@
         <v>2133</v>
       </c>
       <c r="D100" s="24" t="s">
-        <v>2303</v>
+        <v>2299</v>
       </c>
       <c r="E100" s="28" t="s">
         <v>47</v>
@@ -18758,7 +18755,7 @@
       </c>
       <c r="G100" s="28"/>
     </row>
-    <row r="101" spans="1:7" ht="15.9">
+    <row r="101" spans="1:7">
       <c r="A101" s="27" t="s">
         <v>48</v>
       </c>
@@ -18766,10 +18763,10 @@
         <v>569</v>
       </c>
       <c r="C101" s="24" t="s">
-        <v>2401</v>
+        <v>2395</v>
       </c>
       <c r="D101" s="24" t="s">
-        <v>2304</v>
+        <v>2300</v>
       </c>
       <c r="E101" s="28" t="s">
         <v>48</v>
@@ -18779,7 +18776,7 @@
       </c>
       <c r="G101" s="28"/>
     </row>
-    <row r="102" spans="1:7" ht="15.9">
+    <row r="102" spans="1:7">
       <c r="A102" s="27" t="s">
         <v>49</v>
       </c>
@@ -18790,7 +18787,7 @@
         <v>2134</v>
       </c>
       <c r="D102" s="24" t="s">
-        <v>2305</v>
+        <v>2301</v>
       </c>
       <c r="E102" s="28" t="s">
         <v>50</v>
@@ -18800,7 +18797,7 @@
       </c>
       <c r="G102" s="28"/>
     </row>
-    <row r="103" spans="1:7" ht="15.9">
+    <row r="103" spans="1:7">
       <c r="A103" s="27" t="s">
         <v>51</v>
       </c>
@@ -18811,7 +18808,7 @@
         <v>2135</v>
       </c>
       <c r="D103" s="24" t="s">
-        <v>2306</v>
+        <v>2302</v>
       </c>
       <c r="E103" s="28" t="s">
         <v>52</v>
@@ -18821,7 +18818,7 @@
       </c>
       <c r="G103" s="28"/>
     </row>
-    <row r="104" spans="1:7" ht="15.9">
+    <row r="104" spans="1:7">
       <c r="A104" s="27" t="s">
         <v>575</v>
       </c>
@@ -18832,7 +18829,7 @@
         <v>2136</v>
       </c>
       <c r="D104" s="24" t="s">
-        <v>2307</v>
+        <v>2303</v>
       </c>
       <c r="E104" s="28" t="s">
         <v>43</v>
@@ -18842,7 +18839,7 @@
       </c>
       <c r="G104" s="28"/>
     </row>
-    <row r="105" spans="1:7" ht="15.9">
+    <row r="105" spans="1:7">
       <c r="A105" s="27" t="s">
         <v>53</v>
       </c>
@@ -18863,7 +18860,7 @@
       </c>
       <c r="G105" s="28"/>
     </row>
-    <row r="106" spans="1:7" ht="15.9">
+    <row r="106" spans="1:7">
       <c r="A106" s="27" t="s">
         <v>55</v>
       </c>
@@ -18884,7 +18881,7 @@
       </c>
       <c r="G106" s="28"/>
     </row>
-    <row r="107" spans="1:7" ht="15.9">
+    <row r="107" spans="1:7">
       <c r="A107" s="27" t="s">
         <v>57</v>
       </c>
@@ -18905,7 +18902,7 @@
       </c>
       <c r="G107" s="28"/>
     </row>
-    <row r="108" spans="1:7" ht="15.9">
+    <row r="108" spans="1:7">
       <c r="A108" s="27" t="s">
         <v>61</v>
       </c>
@@ -18913,10 +18910,10 @@
         <v>584</v>
       </c>
       <c r="C108" s="24" t="s">
-        <v>2404</v>
+        <v>2397</v>
       </c>
       <c r="D108" s="24" t="s">
-        <v>2405</v>
+        <v>2398</v>
       </c>
       <c r="E108" s="28" t="s">
         <v>60</v>
@@ -18926,7 +18923,7 @@
       </c>
       <c r="G108" s="28"/>
     </row>
-    <row r="109" spans="1:7" ht="15.9">
+    <row r="109" spans="1:7">
       <c r="A109" s="27" t="s">
         <v>59</v>
       </c>
@@ -18947,7 +18944,7 @@
       </c>
       <c r="G109" s="28"/>
     </row>
-    <row r="110" spans="1:7" ht="15.9">
+    <row r="110" spans="1:7">
       <c r="A110" s="27" t="s">
         <v>588</v>
       </c>
@@ -18955,10 +18952,10 @@
         <v>589</v>
       </c>
       <c r="C110" s="24" t="s">
+        <v>2304</v>
+      </c>
+      <c r="D110" s="24" t="s">
         <v>2308</v>
-      </c>
-      <c r="D110" s="24" t="s">
-        <v>2312</v>
       </c>
       <c r="E110" s="28" t="s">
         <v>590</v>
@@ -18968,7 +18965,7 @@
       </c>
       <c r="G110" s="28"/>
     </row>
-    <row r="111" spans="1:7" ht="15.9">
+    <row r="111" spans="1:7">
       <c r="A111" s="27" t="s">
         <v>592</v>
       </c>
@@ -18976,7 +18973,7 @@
         <v>593</v>
       </c>
       <c r="C111" s="24" t="s">
-        <v>2309</v>
+        <v>2305</v>
       </c>
       <c r="D111" s="24" t="s">
         <v>593</v>
@@ -18989,7 +18986,7 @@
       </c>
       <c r="G111" s="28"/>
     </row>
-    <row r="112" spans="1:7" ht="15.9">
+    <row r="112" spans="1:7">
       <c r="A112" s="27" t="s">
         <v>595</v>
       </c>
@@ -18997,7 +18994,7 @@
         <v>593</v>
       </c>
       <c r="C112" s="24" t="s">
-        <v>2310</v>
+        <v>2306</v>
       </c>
       <c r="D112" s="24" t="s">
         <v>593</v>
@@ -19010,7 +19007,7 @@
       </c>
       <c r="G112" s="28"/>
     </row>
-    <row r="113" spans="1:7" ht="15.9">
+    <row r="113" spans="1:7">
       <c r="A113" s="27" t="s">
         <v>596</v>
       </c>
@@ -19018,7 +19015,7 @@
         <v>597</v>
       </c>
       <c r="C113" s="24" t="s">
-        <v>2311</v>
+        <v>2307</v>
       </c>
       <c r="D113" s="24" t="s">
         <v>597</v>
@@ -19031,7 +19028,7 @@
       </c>
       <c r="G113" s="28"/>
     </row>
-    <row r="114" spans="1:7" ht="15.9">
+    <row r="114" spans="1:7">
       <c r="A114" s="27" t="s">
         <v>600</v>
       </c>
@@ -19052,7 +19049,7 @@
       </c>
       <c r="G114" s="28"/>
     </row>
-    <row r="115" spans="1:7" ht="15.9">
+    <row r="115" spans="1:7">
       <c r="A115" s="27" t="s">
         <v>604</v>
       </c>
@@ -19073,7 +19070,7 @@
       </c>
       <c r="G115" s="28"/>
     </row>
-    <row r="116" spans="1:7" ht="15.9">
+    <row r="116" spans="1:7">
       <c r="A116" s="27" t="s">
         <v>606</v>
       </c>
@@ -19094,7 +19091,7 @@
       </c>
       <c r="G116" s="28"/>
     </row>
-    <row r="117" spans="1:7" ht="15.9">
+    <row r="117" spans="1:7">
       <c r="A117" s="27" t="s">
         <v>609</v>
       </c>
@@ -19105,7 +19102,7 @@
         <v>2144</v>
       </c>
       <c r="D117" s="24" t="s">
-        <v>2269</v>
+        <v>2267</v>
       </c>
       <c r="E117" s="28" t="s">
         <v>610</v>
@@ -19115,7 +19112,7 @@
       </c>
       <c r="G117" s="28"/>
     </row>
-    <row r="118" spans="1:7" ht="15.9">
+    <row r="118" spans="1:7">
       <c r="A118" s="27" t="s">
         <v>611</v>
       </c>
@@ -19134,7 +19131,7 @@
       </c>
       <c r="G118" s="28"/>
     </row>
-    <row r="119" spans="1:7" ht="15.9">
+    <row r="119" spans="1:7">
       <c r="A119" s="27" t="s">
         <v>613</v>
       </c>
@@ -19155,7 +19152,7 @@
       </c>
       <c r="G119" s="28"/>
     </row>
-    <row r="120" spans="1:7" ht="15.9">
+    <row r="120" spans="1:7">
       <c r="A120" s="27" t="s">
         <v>616</v>
       </c>
@@ -19176,7 +19173,7 @@
       </c>
       <c r="G120" s="28"/>
     </row>
-    <row r="121" spans="1:7" ht="15.9">
+    <row r="121" spans="1:7">
       <c r="A121" s="27" t="s">
         <v>619</v>
       </c>
@@ -19197,7 +19194,7 @@
       </c>
       <c r="G121" s="28"/>
     </row>
-    <row r="122" spans="1:7" ht="15.9">
+    <row r="122" spans="1:7">
       <c r="A122" s="27" t="s">
         <v>623</v>
       </c>
@@ -19218,7 +19215,7 @@
       </c>
       <c r="G122" s="28"/>
     </row>
-    <row r="123" spans="1:7" ht="15.9">
+    <row r="123" spans="1:7">
       <c r="A123" s="27" t="s">
         <v>627</v>
       </c>
@@ -19239,7 +19236,7 @@
       </c>
       <c r="G123" s="28"/>
     </row>
-    <row r="124" spans="1:7" ht="15.9">
+    <row r="124" spans="1:7">
       <c r="A124" s="27" t="s">
         <v>631</v>
       </c>
@@ -19260,7 +19257,7 @@
       </c>
       <c r="G124" s="28"/>
     </row>
-    <row r="125" spans="1:7" ht="15.9">
+    <row r="125" spans="1:7">
       <c r="A125" s="27" t="s">
         <v>635</v>
       </c>
@@ -19281,7 +19278,7 @@
       </c>
       <c r="G125" s="28"/>
     </row>
-    <row r="126" spans="1:7" ht="15.9">
+    <row r="126" spans="1:7">
       <c r="A126" s="27" t="s">
         <v>639</v>
       </c>
@@ -19302,7 +19299,7 @@
       </c>
       <c r="G126" s="28"/>
     </row>
-    <row r="127" spans="1:7" ht="15.9">
+    <row r="127" spans="1:7">
       <c r="A127" s="27" t="s">
         <v>643</v>
       </c>
@@ -19323,7 +19320,7 @@
       </c>
       <c r="G127" s="28"/>
     </row>
-    <row r="128" spans="1:7" ht="15.9">
+    <row r="128" spans="1:7">
       <c r="A128" s="27" t="s">
         <v>647</v>
       </c>
@@ -19338,7 +19335,7 @@
       <c r="F128" s="28"/>
       <c r="G128" s="28"/>
     </row>
-    <row r="129" spans="1:7" ht="15.9">
+    <row r="129" spans="1:7">
       <c r="A129" s="27" t="s">
         <v>649</v>
       </c>
@@ -19353,7 +19350,7 @@
       <c r="F129" s="28"/>
       <c r="G129" s="28"/>
     </row>
-    <row r="130" spans="1:7" ht="15.9">
+    <row r="130" spans="1:7">
       <c r="A130" s="27" t="s">
         <v>651</v>
       </c>
@@ -19368,7 +19365,7 @@
       <c r="F130" s="28"/>
       <c r="G130" s="28"/>
     </row>
-    <row r="131" spans="1:7" ht="15.9">
+    <row r="131" spans="1:7">
       <c r="A131" s="27" t="s">
         <v>653</v>
       </c>
@@ -19383,7 +19380,7 @@
       <c r="F131" s="28"/>
       <c r="G131" s="28"/>
     </row>
-    <row r="132" spans="1:7" ht="15.9">
+    <row r="132" spans="1:7">
       <c r="A132" s="27" t="s">
         <v>655</v>
       </c>
@@ -19398,7 +19395,7 @@
       <c r="F132" s="28"/>
       <c r="G132" s="28"/>
     </row>
-    <row r="133" spans="1:7" ht="15.9">
+    <row r="133" spans="1:7">
       <c r="A133" s="27" t="s">
         <v>657</v>
       </c>
@@ -19413,7 +19410,7 @@
       <c r="F133" s="28"/>
       <c r="G133" s="28"/>
     </row>
-    <row r="134" spans="1:7" ht="15.9">
+    <row r="134" spans="1:7">
       <c r="A134" s="27" t="s">
         <v>659</v>
       </c>
@@ -19428,7 +19425,7 @@
       <c r="F134" s="28"/>
       <c r="G134" s="28"/>
     </row>
-    <row r="135" spans="1:7" ht="15.9">
+    <row r="135" spans="1:7">
       <c r="A135" s="27" t="s">
         <v>661</v>
       </c>
@@ -19443,7 +19440,7 @@
       <c r="F135" s="28"/>
       <c r="G135" s="28"/>
     </row>
-    <row r="136" spans="1:7" ht="15.9">
+    <row r="136" spans="1:7">
       <c r="A136" s="27" t="s">
         <v>663</v>
       </c>
@@ -19458,7 +19455,7 @@
       <c r="F136" s="28"/>
       <c r="G136" s="28"/>
     </row>
-    <row r="137" spans="1:7" ht="15.9">
+    <row r="137" spans="1:7">
       <c r="A137" s="27" t="s">
         <v>665</v>
       </c>
@@ -19473,7 +19470,7 @@
       <c r="F137" s="28"/>
       <c r="G137" s="28"/>
     </row>
-    <row r="138" spans="1:7" ht="15.9">
+    <row r="138" spans="1:7">
       <c r="A138" s="27" t="s">
         <v>667</v>
       </c>
@@ -19488,7 +19485,7 @@
       <c r="F138" s="28"/>
       <c r="G138" s="28"/>
     </row>
-    <row r="139" spans="1:7" ht="15.9">
+    <row r="139" spans="1:7">
       <c r="A139" s="27" t="s">
         <v>669</v>
       </c>
@@ -19503,7 +19500,7 @@
       <c r="F139" s="28"/>
       <c r="G139" s="28"/>
     </row>
-    <row r="140" spans="1:7" ht="15.9">
+    <row r="140" spans="1:7">
       <c r="A140" s="27" t="s">
         <v>671</v>
       </c>
@@ -19518,7 +19515,7 @@
       <c r="F140" s="28"/>
       <c r="G140" s="28"/>
     </row>
-    <row r="141" spans="1:7" ht="15.9">
+    <row r="141" spans="1:7">
       <c r="A141" s="27" t="s">
         <v>673</v>
       </c>
@@ -19533,7 +19530,7 @@
       <c r="F141" s="28"/>
       <c r="G141" s="28"/>
     </row>
-    <row r="142" spans="1:7" ht="15.9">
+    <row r="142" spans="1:7">
       <c r="A142" s="27" t="s">
         <v>675</v>
       </c>
@@ -19544,7 +19541,7 @@
         <v>2169</v>
       </c>
       <c r="D142" s="24" t="s">
-        <v>2270</v>
+        <v>2268</v>
       </c>
       <c r="E142" s="28" t="s">
         <v>677</v>
@@ -19554,7 +19551,7 @@
       </c>
       <c r="G142" s="28"/>
     </row>
-    <row r="143" spans="1:7" ht="15.9">
+    <row r="143" spans="1:7">
       <c r="A143" s="27" t="s">
         <v>679</v>
       </c>
@@ -19565,7 +19562,7 @@
         <v>2170</v>
       </c>
       <c r="D143" s="24" t="s">
-        <v>2271</v>
+        <v>2269</v>
       </c>
       <c r="E143" s="28" t="s">
         <v>681</v>
@@ -19575,7 +19572,7 @@
       </c>
       <c r="G143" s="28"/>
     </row>
-    <row r="144" spans="1:7" ht="15.9">
+    <row r="144" spans="1:7">
       <c r="A144" s="27" t="s">
         <v>683</v>
       </c>
@@ -19586,7 +19583,7 @@
         <v>2171</v>
       </c>
       <c r="D144" s="24" t="s">
-        <v>2272</v>
+        <v>2270</v>
       </c>
       <c r="E144" s="28" t="s">
         <v>685</v>
@@ -19596,7 +19593,7 @@
       </c>
       <c r="G144" s="28"/>
     </row>
-    <row r="145" spans="1:7" ht="15.9">
+    <row r="145" spans="1:7">
       <c r="A145" s="27" t="s">
         <v>687</v>
       </c>
@@ -19617,7 +19614,7 @@
       </c>
       <c r="G145" s="28"/>
     </row>
-    <row r="146" spans="1:7" ht="15.9">
+    <row r="146" spans="1:7">
       <c r="A146" s="27" t="s">
         <v>691</v>
       </c>
@@ -19638,7 +19635,7 @@
       </c>
       <c r="G146" s="28"/>
     </row>
-    <row r="147" spans="1:7" ht="15.9">
+    <row r="147" spans="1:7">
       <c r="A147" s="27" t="s">
         <v>695</v>
       </c>
@@ -19659,7 +19656,7 @@
       </c>
       <c r="G147" s="28"/>
     </row>
-    <row r="148" spans="1:7" ht="15.9">
+    <row r="148" spans="1:7">
       <c r="A148" s="27" t="s">
         <v>699</v>
       </c>
@@ -19670,7 +19667,7 @@
         <v>2175</v>
       </c>
       <c r="D148" s="24" t="s">
-        <v>2283</v>
+        <v>2281</v>
       </c>
       <c r="E148" s="28" t="s">
         <v>701</v>
@@ -19680,7 +19677,7 @@
       </c>
       <c r="G148" s="28"/>
     </row>
-    <row r="149" spans="1:7" ht="15.9">
+    <row r="149" spans="1:7">
       <c r="A149" s="27" t="s">
         <v>703</v>
       </c>
@@ -19691,7 +19688,7 @@
         <v>2176</v>
       </c>
       <c r="D149" s="24" t="s">
-        <v>2284</v>
+        <v>2282</v>
       </c>
       <c r="E149" s="28" t="s">
         <v>705</v>
@@ -19701,7 +19698,7 @@
       </c>
       <c r="G149" s="28"/>
     </row>
-    <row r="150" spans="1:7" ht="15.9">
+    <row r="150" spans="1:7">
       <c r="A150" s="27" t="s">
         <v>707</v>
       </c>
@@ -19712,7 +19709,7 @@
         <v>2177</v>
       </c>
       <c r="D150" s="24" t="s">
-        <v>2285</v>
+        <v>2283</v>
       </c>
       <c r="E150" s="28" t="s">
         <v>709</v>
@@ -19722,7 +19719,7 @@
       </c>
       <c r="G150" s="28"/>
     </row>
-    <row r="151" spans="1:7" ht="15.9">
+    <row r="151" spans="1:7">
       <c r="A151" s="27" t="s">
         <v>711</v>
       </c>
@@ -19733,7 +19730,7 @@
         <v>2178</v>
       </c>
       <c r="D151" s="24" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="E151" s="28" t="s">
         <v>713</v>
@@ -19743,7 +19740,7 @@
       </c>
       <c r="G151" s="28"/>
     </row>
-    <row r="152" spans="1:7" ht="15.9">
+    <row r="152" spans="1:7">
       <c r="A152" s="27" t="s">
         <v>715</v>
       </c>
@@ -19754,7 +19751,7 @@
         <v>2179</v>
       </c>
       <c r="D152" s="24" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="E152" s="28" t="s">
         <v>717</v>
@@ -19764,7 +19761,7 @@
       </c>
       <c r="G152" s="28"/>
     </row>
-    <row r="153" spans="1:7" ht="15.9">
+    <row r="153" spans="1:7">
       <c r="A153" s="27" t="s">
         <v>719</v>
       </c>
@@ -19772,10 +19769,10 @@
         <v>720</v>
       </c>
       <c r="C153" s="24" t="s">
-        <v>2180</v>
+        <v>2544</v>
       </c>
       <c r="D153" s="24" t="s">
-        <v>2288</v>
+        <v>2286</v>
       </c>
       <c r="E153" s="28" t="s">
         <v>721</v>
@@ -19785,7 +19782,7 @@
       </c>
       <c r="G153" s="28"/>
     </row>
-    <row r="154" spans="1:7" ht="15.9">
+    <row r="154" spans="1:7">
       <c r="A154" s="27" t="s">
         <v>723</v>
       </c>
@@ -19793,10 +19790,10 @@
         <v>724</v>
       </c>
       <c r="C154" s="24" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="D154" s="24" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
       <c r="E154" s="32" t="s">
         <v>725</v>
@@ -19806,7 +19803,7 @@
       </c>
       <c r="G154" s="28"/>
     </row>
-    <row r="155" spans="1:7" ht="15.9">
+    <row r="155" spans="1:7">
       <c r="A155" s="27" t="s">
         <v>727</v>
       </c>
@@ -19814,10 +19811,10 @@
         <v>700</v>
       </c>
       <c r="C155" s="24" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="D155" s="24" t="s">
-        <v>2283</v>
+        <v>2281</v>
       </c>
       <c r="E155" s="28" t="s">
         <v>728</v>
@@ -19827,7 +19824,7 @@
       </c>
       <c r="G155" s="28"/>
     </row>
-    <row r="156" spans="1:7" ht="15.9">
+    <row r="156" spans="1:7">
       <c r="A156" s="27" t="s">
         <v>729</v>
       </c>
@@ -19835,10 +19832,10 @@
         <v>730</v>
       </c>
       <c r="C156" s="24" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="D156" s="24" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="E156" s="28" t="s">
         <v>731</v>
@@ -19848,7 +19845,7 @@
       </c>
       <c r="G156" s="28"/>
     </row>
-    <row r="157" spans="1:7" ht="15.9">
+    <row r="157" spans="1:7">
       <c r="A157" s="27" t="s">
         <v>733</v>
       </c>
@@ -19856,7 +19853,7 @@
         <v>734</v>
       </c>
       <c r="C157" s="24" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="D157" s="24" t="s">
         <v>734</v>
@@ -19869,7 +19866,7 @@
       </c>
       <c r="G157" s="28"/>
     </row>
-    <row r="158" spans="1:7" ht="15.9">
+    <row r="158" spans="1:7">
       <c r="A158" s="27" t="s">
         <v>737</v>
       </c>
@@ -19877,7 +19874,7 @@
         <v>734</v>
       </c>
       <c r="C158" s="24" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="D158" s="24" t="s">
         <v>734</v>
@@ -19890,7 +19887,7 @@
       </c>
       <c r="G158" s="28"/>
     </row>
-    <row r="159" spans="1:7" ht="15.9">
+    <row r="159" spans="1:7">
       <c r="A159" s="27" t="s">
         <v>739</v>
       </c>
@@ -19898,7 +19895,7 @@
         <v>740</v>
       </c>
       <c r="C159" s="24" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="D159" s="24" t="s">
         <v>740</v>
@@ -19911,7 +19908,7 @@
       </c>
       <c r="G159" s="28"/>
     </row>
-    <row r="160" spans="1:7" ht="15.9">
+    <row r="160" spans="1:7">
       <c r="A160" s="27" t="s">
         <v>743</v>
       </c>
@@ -19919,10 +19916,10 @@
         <v>744</v>
       </c>
       <c r="C160" s="24" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="D160" s="24" t="s">
-        <v>2290</v>
+        <v>2288</v>
       </c>
       <c r="E160" s="28" t="s">
         <v>745</v>
@@ -19932,7 +19929,7 @@
       </c>
       <c r="G160" s="28"/>
     </row>
-    <row r="161" spans="1:7" ht="15.9">
+    <row r="161" spans="1:7">
       <c r="A161" s="27" t="s">
         <v>746</v>
       </c>
@@ -19940,10 +19937,10 @@
         <v>747</v>
       </c>
       <c r="C161" s="24" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="D161" s="24" t="s">
-        <v>2291</v>
+        <v>2289</v>
       </c>
       <c r="E161" s="28" t="s">
         <v>748</v>
@@ -19953,7 +19950,7 @@
       </c>
       <c r="G161" s="28"/>
     </row>
-    <row r="162" spans="1:7" ht="15.9">
+    <row r="162" spans="1:7">
       <c r="A162" s="27" t="s">
         <v>749</v>
       </c>
@@ -19961,10 +19958,10 @@
         <v>750</v>
       </c>
       <c r="C162" s="24" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="D162" s="24" t="s">
-        <v>2293</v>
+        <v>2291</v>
       </c>
       <c r="E162" s="28" t="s">
         <v>751</v>
@@ -19974,7 +19971,7 @@
       </c>
       <c r="G162" s="28"/>
     </row>
-    <row r="163" spans="1:7" ht="15.9">
+    <row r="163" spans="1:7">
       <c r="A163" s="27" t="s">
         <v>753</v>
       </c>
@@ -19982,10 +19979,10 @@
         <v>754</v>
       </c>
       <c r="C163" s="24" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="D163" s="24" t="s">
-        <v>2292</v>
+        <v>2290</v>
       </c>
       <c r="E163" s="28" t="s">
         <v>755</v>
@@ -19995,7 +19992,7 @@
       </c>
       <c r="G163" s="28"/>
     </row>
-    <row r="164" spans="1:7" ht="15.9">
+    <row r="164" spans="1:7">
       <c r="A164" s="27" t="s">
         <v>757</v>
       </c>
@@ -20003,10 +20000,10 @@
         <v>758</v>
       </c>
       <c r="C164" s="24" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="D164" s="24" t="s">
-        <v>2282</v>
+        <v>2280</v>
       </c>
       <c r="E164" s="28" t="s">
         <v>759</v>
@@ -20016,7 +20013,7 @@
       </c>
       <c r="G164" s="28"/>
     </row>
-    <row r="165" spans="1:7" ht="15.9">
+    <row r="165" spans="1:7">
       <c r="A165" s="27" t="s">
         <v>761</v>
       </c>
@@ -20024,7 +20021,7 @@
         <v>762</v>
       </c>
       <c r="C165" s="24" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="D165" s="24" t="s">
         <v>762</v>
@@ -20037,7 +20034,7 @@
       </c>
       <c r="G165" s="28"/>
     </row>
-    <row r="166" spans="1:7" ht="15.9">
+    <row r="166" spans="1:7">
       <c r="A166" s="27" t="s">
         <v>765</v>
       </c>
@@ -20045,7 +20042,7 @@
         <v>766</v>
       </c>
       <c r="C166" s="24" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="D166" s="24" t="s">
         <v>766</v>
@@ -20058,7 +20055,7 @@
       </c>
       <c r="G166" s="28"/>
     </row>
-    <row r="167" spans="1:7" ht="15.9">
+    <row r="167" spans="1:7">
       <c r="A167" s="27" t="s">
         <v>769</v>
       </c>
@@ -20066,7 +20063,7 @@
         <v>766</v>
       </c>
       <c r="C167" s="24" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="D167" s="24" t="s">
         <v>766</v>
@@ -20079,7 +20076,7 @@
       </c>
       <c r="G167" s="28"/>
     </row>
-    <row r="168" spans="1:7" ht="15.9">
+    <row r="168" spans="1:7">
       <c r="A168" s="27" t="s">
         <v>771</v>
       </c>
@@ -20087,10 +20084,10 @@
         <v>772</v>
       </c>
       <c r="C168" s="24" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="D168" s="24" t="s">
-        <v>2274</v>
+        <v>2272</v>
       </c>
       <c r="E168" s="28" t="s">
         <v>773</v>
@@ -20100,7 +20097,7 @@
       </c>
       <c r="G168" s="28"/>
     </row>
-    <row r="169" spans="1:7" ht="15.9">
+    <row r="169" spans="1:7">
       <c r="A169" s="27" t="s">
         <v>775</v>
       </c>
@@ -20108,7 +20105,7 @@
         <v>776</v>
       </c>
       <c r="C169" s="24" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="D169" s="24" t="s">
         <v>776</v>
@@ -20121,7 +20118,7 @@
       </c>
       <c r="G169" s="28"/>
     </row>
-    <row r="170" spans="1:7" ht="15.9">
+    <row r="170" spans="1:7">
       <c r="A170" s="27" t="s">
         <v>779</v>
       </c>
@@ -20129,7 +20126,7 @@
         <v>780</v>
       </c>
       <c r="C170" s="24" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="D170" s="24" t="s">
         <v>780</v>
@@ -20140,7 +20137,7 @@
       <c r="F170" s="28"/>
       <c r="G170" s="28"/>
     </row>
-    <row r="171" spans="1:7" ht="15.9">
+    <row r="171" spans="1:7">
       <c r="A171" s="27" t="s">
         <v>782</v>
       </c>
@@ -20148,7 +20145,7 @@
         <v>783</v>
       </c>
       <c r="C171" s="24" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="D171" s="24" t="s">
         <v>783</v>
@@ -20159,7 +20156,7 @@
       <c r="F171" s="28"/>
       <c r="G171" s="28"/>
     </row>
-    <row r="172" spans="1:7" ht="15.9">
+    <row r="172" spans="1:7">
       <c r="A172" s="27" t="s">
         <v>785</v>
       </c>
@@ -20167,7 +20164,7 @@
         <v>786</v>
       </c>
       <c r="C172" s="24" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="D172" s="24" t="s">
         <v>786</v>
@@ -20178,7 +20175,7 @@
       <c r="F172" s="28"/>
       <c r="G172" s="28"/>
     </row>
-    <row r="173" spans="1:7" ht="15.9">
+    <row r="173" spans="1:7">
       <c r="A173" s="27" t="s">
         <v>785</v>
       </c>
@@ -20186,7 +20183,7 @@
         <v>788</v>
       </c>
       <c r="C173" s="24" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="D173" s="24" t="s">
         <v>788</v>
@@ -20197,7 +20194,7 @@
       <c r="F173" s="28"/>
       <c r="G173" s="28"/>
     </row>
-    <row r="174" spans="1:7" ht="15.9">
+    <row r="174" spans="1:7">
       <c r="A174" s="27" t="s">
         <v>789</v>
       </c>
@@ -20205,7 +20202,7 @@
         <v>790</v>
       </c>
       <c r="C174" s="24" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="D174" s="24" t="s">
         <v>790</v>
@@ -20216,7 +20213,7 @@
       <c r="F174" s="28"/>
       <c r="G174" s="28"/>
     </row>
-    <row r="175" spans="1:7" ht="15.9">
+    <row r="175" spans="1:7">
       <c r="A175" s="27" t="s">
         <v>792</v>
       </c>
@@ -20224,7 +20221,7 @@
         <v>793</v>
       </c>
       <c r="C175" s="24" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="D175" s="24" t="s">
         <v>793</v>
@@ -20235,7 +20232,7 @@
       <c r="F175" s="28"/>
       <c r="G175" s="28"/>
     </row>
-    <row r="176" spans="1:7" ht="15.9">
+    <row r="176" spans="1:7">
       <c r="A176" s="27" t="s">
         <v>792</v>
       </c>
@@ -20243,7 +20240,7 @@
         <v>795</v>
       </c>
       <c r="C176" s="24" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="D176" s="24" t="s">
         <v>795</v>
@@ -20254,7 +20251,7 @@
       <c r="F176" s="28"/>
       <c r="G176" s="28"/>
     </row>
-    <row r="177" spans="1:7" ht="15.9">
+    <row r="177" spans="1:7">
       <c r="A177" s="27" t="s">
         <v>796</v>
       </c>
@@ -20262,7 +20259,7 @@
         <v>797</v>
       </c>
       <c r="C177" s="24" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="D177" s="24" t="s">
         <v>797</v>
@@ -20273,7 +20270,7 @@
       <c r="F177" s="28"/>
       <c r="G177" s="28"/>
     </row>
-    <row r="178" spans="1:7" ht="15.9">
+    <row r="178" spans="1:7">
       <c r="A178" s="27" t="s">
         <v>799</v>
       </c>
@@ -20281,7 +20278,7 @@
         <v>800</v>
       </c>
       <c r="C178" s="24" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="D178" s="24" t="s">
         <v>800</v>
@@ -20294,7 +20291,7 @@
       </c>
       <c r="G178" s="28"/>
     </row>
-    <row r="179" spans="1:7" ht="15.9">
+    <row r="179" spans="1:7">
       <c r="A179" s="27" t="s">
         <v>803</v>
       </c>
@@ -20302,7 +20299,7 @@
         <v>804</v>
       </c>
       <c r="C179" s="24" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="D179" s="24" t="s">
         <v>804</v>
@@ -20315,7 +20312,7 @@
       </c>
       <c r="G179" s="28"/>
     </row>
-    <row r="180" spans="1:7" ht="15.9">
+    <row r="180" spans="1:7">
       <c r="A180" s="27" t="s">
         <v>807</v>
       </c>
@@ -20323,7 +20320,7 @@
         <v>808</v>
       </c>
       <c r="C180" s="24" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="D180" s="24" t="s">
         <v>808</v>
@@ -20336,7 +20333,7 @@
       </c>
       <c r="G180" s="28"/>
     </row>
-    <row r="181" spans="1:7" ht="15.9">
+    <row r="181" spans="1:7">
       <c r="A181" s="27" t="s">
         <v>811</v>
       </c>
@@ -20344,7 +20341,7 @@
         <v>812</v>
       </c>
       <c r="C181" s="24" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="D181" s="24" t="s">
         <v>812</v>
@@ -20357,7 +20354,7 @@
       </c>
       <c r="G181" s="28"/>
     </row>
-    <row r="182" spans="1:7" ht="15.9">
+    <row r="182" spans="1:7">
       <c r="A182" s="27" t="s">
         <v>815</v>
       </c>
@@ -20365,7 +20362,7 @@
         <v>816</v>
       </c>
       <c r="C182" s="24" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="D182" s="24" t="s">
         <v>816</v>
@@ -20378,7 +20375,7 @@
       </c>
       <c r="G182" s="28"/>
     </row>
-    <row r="183" spans="1:7" ht="15.9">
+    <row r="183" spans="1:7">
       <c r="A183" s="27" t="s">
         <v>819</v>
       </c>
@@ -20386,7 +20383,7 @@
         <v>820</v>
       </c>
       <c r="C183" s="24" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="D183" s="24" t="s">
         <v>820</v>
@@ -20399,7 +20396,7 @@
       </c>
       <c r="G183" s="28"/>
     </row>
-    <row r="184" spans="1:7" ht="15.9">
+    <row r="184" spans="1:7">
       <c r="A184" s="27" t="s">
         <v>823</v>
       </c>
@@ -20407,7 +20404,7 @@
         <v>824</v>
       </c>
       <c r="C184" s="24" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="D184" s="24" t="s">
         <v>824</v>
@@ -20420,7 +20417,7 @@
       </c>
       <c r="G184" s="28"/>
     </row>
-    <row r="185" spans="1:7" ht="15.9">
+    <row r="185" spans="1:7">
       <c r="A185" s="27" t="s">
         <v>827</v>
       </c>
@@ -20428,7 +20425,7 @@
         <v>828</v>
       </c>
       <c r="C185" s="24" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="D185" s="24" t="s">
         <v>828</v>
@@ -20441,7 +20438,7 @@
       </c>
       <c r="G185" s="28"/>
     </row>
-    <row r="186" spans="1:7" ht="15.9">
+    <row r="186" spans="1:7">
       <c r="A186" s="27" t="s">
         <v>831</v>
       </c>
@@ -20449,7 +20446,7 @@
         <v>832</v>
       </c>
       <c r="C186" s="24" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="D186" s="24" t="s">
         <v>832</v>
@@ -20462,7 +20459,7 @@
       </c>
       <c r="G186" s="28"/>
     </row>
-    <row r="187" spans="1:7" ht="15.9">
+    <row r="187" spans="1:7">
       <c r="A187" s="27" t="s">
         <v>835</v>
       </c>
@@ -20470,7 +20467,7 @@
         <v>836</v>
       </c>
       <c r="C187" s="24" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="D187" s="24" t="s">
         <v>836</v>
@@ -20483,7 +20480,7 @@
       </c>
       <c r="G187" s="28"/>
     </row>
-    <row r="188" spans="1:7" ht="15.9">
+    <row r="188" spans="1:7">
       <c r="A188" s="27" t="s">
         <v>839</v>
       </c>
@@ -20491,7 +20488,7 @@
         <v>840</v>
       </c>
       <c r="C188" s="24" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="D188" s="24" t="s">
         <v>840</v>
@@ -20504,7 +20501,7 @@
       </c>
       <c r="G188" s="28"/>
     </row>
-    <row r="189" spans="1:7" ht="15.9">
+    <row r="189" spans="1:7">
       <c r="A189" s="27" t="s">
         <v>843</v>
       </c>
@@ -20512,7 +20509,7 @@
         <v>844</v>
       </c>
       <c r="C189" s="24" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="D189" s="24" t="s">
         <v>844</v>
@@ -20525,7 +20522,7 @@
       </c>
       <c r="G189" s="28"/>
     </row>
-    <row r="190" spans="1:7" ht="15.9">
+    <row r="190" spans="1:7">
       <c r="A190" s="27" t="s">
         <v>847</v>
       </c>
@@ -20533,7 +20530,7 @@
         <v>848</v>
       </c>
       <c r="C190" s="24" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="D190" s="24" t="s">
         <v>848</v>
@@ -20546,7 +20543,7 @@
       </c>
       <c r="G190" s="28"/>
     </row>
-    <row r="191" spans="1:7" ht="15.9">
+    <row r="191" spans="1:7">
       <c r="A191" s="27" t="s">
         <v>851</v>
       </c>
@@ -20554,10 +20551,10 @@
         <v>852</v>
       </c>
       <c r="C191" s="24" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="D191" s="24" t="s">
-        <v>2276</v>
+        <v>2274</v>
       </c>
       <c r="E191" s="28" t="s">
         <v>853</v>
@@ -20569,7 +20566,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="192" spans="1:7" s="13" customFormat="1" ht="15.9">
+    <row r="192" spans="1:7" s="13" customFormat="1">
       <c r="A192" s="33" t="s">
         <v>851</v>
       </c>
@@ -20577,10 +20574,10 @@
         <v>856</v>
       </c>
       <c r="C192" s="24" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="D192" s="24" t="s">
-        <v>2279</v>
+        <v>2277</v>
       </c>
       <c r="E192" s="32" t="s">
         <v>853</v>
@@ -20592,7 +20589,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="15.9">
+    <row r="193" spans="1:7">
       <c r="A193" s="27" t="s">
         <v>859</v>
       </c>
@@ -20600,7 +20597,7 @@
         <v>860</v>
       </c>
       <c r="C193" s="24" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="D193" s="24" t="s">
         <v>860</v>
@@ -20613,7 +20610,7 @@
       </c>
       <c r="G193" s="28"/>
     </row>
-    <row r="194" spans="1:7" ht="15.9">
+    <row r="194" spans="1:7">
       <c r="A194" s="27" t="s">
         <v>863</v>
       </c>
@@ -20621,7 +20618,7 @@
         <v>864</v>
       </c>
       <c r="C194" s="24" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="D194" s="24" t="s">
         <v>864</v>
@@ -20634,7 +20631,7 @@
       </c>
       <c r="G194" s="28"/>
     </row>
-    <row r="195" spans="1:7" ht="15.9">
+    <row r="195" spans="1:7">
       <c r="A195" s="27" t="s">
         <v>867</v>
       </c>
@@ -20642,7 +20639,7 @@
         <v>868</v>
       </c>
       <c r="C195" s="24" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="D195" s="24" t="s">
         <v>868</v>
@@ -20655,7 +20652,7 @@
       </c>
       <c r="G195" s="28"/>
     </row>
-    <row r="196" spans="1:7" ht="15.9">
+    <row r="196" spans="1:7">
       <c r="A196" s="27" t="s">
         <v>871</v>
       </c>
@@ -20663,10 +20660,10 @@
         <v>872</v>
       </c>
       <c r="C196" s="24" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="D196" s="24" t="s">
-        <v>2275</v>
+        <v>2273</v>
       </c>
       <c r="E196" s="28" t="s">
         <v>873</v>
@@ -20676,7 +20673,7 @@
       </c>
       <c r="G196" s="28"/>
     </row>
-    <row r="197" spans="1:7" ht="15.9">
+    <row r="197" spans="1:7">
       <c r="A197" s="27" t="s">
         <v>875</v>
       </c>
@@ -20684,7 +20681,7 @@
         <v>876</v>
       </c>
       <c r="C197" s="24" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="D197" s="24" t="s">
         <v>876</v>
@@ -20697,7 +20694,7 @@
       </c>
       <c r="G197" s="28"/>
     </row>
-    <row r="198" spans="1:7" ht="15.9">
+    <row r="198" spans="1:7">
       <c r="A198" s="27" t="s">
         <v>878</v>
       </c>
@@ -20705,7 +20702,7 @@
         <v>879</v>
       </c>
       <c r="C198" s="24" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="D198" s="24" t="s">
         <v>879</v>
@@ -20718,7 +20715,7 @@
       </c>
       <c r="G198" s="28"/>
     </row>
-    <row r="199" spans="1:7" ht="15.9">
+    <row r="199" spans="1:7">
       <c r="A199" s="27" t="s">
         <v>882</v>
       </c>
@@ -20726,7 +20723,7 @@
         <v>883</v>
       </c>
       <c r="C199" s="24" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="D199" s="24" t="s">
         <v>883</v>
@@ -20739,7 +20736,7 @@
       </c>
       <c r="G199" s="28"/>
     </row>
-    <row r="200" spans="1:7" ht="15.9">
+    <row r="200" spans="1:7">
       <c r="A200" s="27" t="s">
         <v>886</v>
       </c>
@@ -20747,7 +20744,7 @@
         <v>887</v>
       </c>
       <c r="C200" s="24" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="D200" s="24" t="s">
         <v>887</v>
@@ -20760,7 +20757,7 @@
       </c>
       <c r="G200" s="28"/>
     </row>
-    <row r="201" spans="1:7" ht="15.9">
+    <row r="201" spans="1:7">
       <c r="A201" s="27" t="s">
         <v>890</v>
       </c>
@@ -20768,7 +20765,7 @@
         <v>891</v>
       </c>
       <c r="C201" s="24" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="D201" s="24" t="s">
         <v>891</v>
@@ -20781,7 +20778,7 @@
       </c>
       <c r="G201" s="28"/>
     </row>
-    <row r="202" spans="1:7" ht="15.9">
+    <row r="202" spans="1:7">
       <c r="A202" s="27" t="s">
         <v>894</v>
       </c>
@@ -20789,10 +20786,10 @@
         <v>895</v>
       </c>
       <c r="C202" s="24" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="D202" s="24" t="s">
-        <v>2280</v>
+        <v>2278</v>
       </c>
       <c r="E202" s="28" t="s">
         <v>896</v>
@@ -20802,7 +20799,7 @@
       </c>
       <c r="G202" s="28"/>
     </row>
-    <row r="203" spans="1:7" ht="15.9">
+    <row r="203" spans="1:7">
       <c r="A203" s="27" t="s">
         <v>898</v>
       </c>
@@ -20810,10 +20807,10 @@
         <v>899</v>
       </c>
       <c r="C203" s="24" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="D203" s="24" t="s">
-        <v>2281</v>
+        <v>2279</v>
       </c>
       <c r="E203" s="28" t="s">
         <v>900</v>
@@ -20835,20 +20832,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="4" max="4" width="34.2109375" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" customWidth="1"/>
+    <col min="4" max="4" width="34.25" customWidth="1"/>
+    <col min="5" max="5" width="32.375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="15">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
@@ -20868,7 +20865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="23" customFormat="1" ht="15.9">
+    <row r="2" spans="1:6" s="23" customFormat="1">
       <c r="A2" s="34" t="s">
         <v>64</v>
       </c>
@@ -20880,13 +20877,13 @@
         <v>904</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>2457</v>
+        <v>2449</v>
       </c>
       <c r="F2" s="34" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="23" customFormat="1" ht="15">
+    <row r="3" spans="1:6" s="23" customFormat="1">
       <c r="A3" s="34"/>
       <c r="B3" s="34"/>
       <c r="C3" s="34"/>
@@ -20894,13 +20891,13 @@
         <v>906</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>2458</v>
+        <v>2450</v>
       </c>
       <c r="F3" s="34" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="23" customFormat="1" ht="15">
+    <row r="4" spans="1:6" s="23" customFormat="1">
       <c r="A4" s="28" t="s">
         <v>7</v>
       </c>
@@ -20914,13 +20911,13 @@
         <v>910</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>2459</v>
+        <v>2451</v>
       </c>
       <c r="F4" s="34" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="23" customFormat="1" ht="15">
+    <row r="5" spans="1:6" s="23" customFormat="1">
       <c r="A5" s="28"/>
       <c r="B5" s="34"/>
       <c r="C5" s="34"/>
@@ -20928,13 +20925,13 @@
         <v>912</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>2460</v>
+        <v>2452</v>
       </c>
       <c r="F5" s="34" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15">
+    <row r="6" spans="1:6">
       <c r="A6" s="28"/>
       <c r="B6" s="28"/>
       <c r="C6" s="28" t="s">
@@ -20944,13 +20941,13 @@
         <v>910</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>2459</v>
+        <v>2451</v>
       </c>
       <c r="F6" s="34" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15">
+    <row r="7" spans="1:6">
       <c r="A7" s="28"/>
       <c r="B7" s="28"/>
       <c r="C7" s="28"/>
@@ -20958,13 +20955,13 @@
         <v>912</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>2460</v>
+        <v>2452</v>
       </c>
       <c r="F7" s="34" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15">
+    <row r="8" spans="1:6">
       <c r="A8" s="28" t="s">
         <v>915</v>
       </c>
@@ -20976,13 +20973,13 @@
         <v>916</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>2461</v>
+        <v>2453</v>
       </c>
       <c r="F8" s="28" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15">
+    <row r="9" spans="1:6">
       <c r="A9" s="28"/>
       <c r="B9" s="34"/>
       <c r="C9" s="28"/>
@@ -20990,13 +20987,13 @@
         <v>918</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>2462</v>
+        <v>2454</v>
       </c>
       <c r="F9" s="28" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15">
+    <row r="10" spans="1:6">
       <c r="A10" s="28" t="s">
         <v>915</v>
       </c>
@@ -21014,7 +21011,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15">
+    <row r="11" spans="1:6">
       <c r="A11" s="28"/>
       <c r="B11" s="34"/>
       <c r="C11" s="28"/>
@@ -21026,7 +21023,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15">
+    <row r="12" spans="1:6">
       <c r="A12" s="28"/>
       <c r="B12" s="34"/>
       <c r="C12" s="28" t="s">
@@ -21040,7 +21037,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15">
+    <row r="13" spans="1:6">
       <c r="A13" s="28"/>
       <c r="B13" s="34"/>
       <c r="C13" s="28"/>
@@ -21052,7 +21049,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15">
+    <row r="14" spans="1:6">
       <c r="A14" s="28"/>
       <c r="B14" s="34"/>
       <c r="C14" s="28" t="s">
@@ -21066,7 +21063,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15">
+    <row r="15" spans="1:6">
       <c r="A15" s="28"/>
       <c r="B15" s="34"/>
       <c r="C15" s="28"/>
@@ -21078,7 +21075,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15">
+    <row r="16" spans="1:6">
       <c r="A16" s="28" t="s">
         <v>915</v>
       </c>
@@ -21096,7 +21093,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15">
+    <row r="17" spans="1:6">
       <c r="A17" s="28"/>
       <c r="B17" s="34"/>
       <c r="C17" s="28"/>
@@ -21108,7 +21105,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15">
+    <row r="18" spans="1:6">
       <c r="A18" s="28"/>
       <c r="B18" s="34" t="s">
         <v>927</v>
@@ -21124,7 +21121,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15">
+    <row r="19" spans="1:6">
       <c r="A19" s="28"/>
       <c r="B19" s="34"/>
       <c r="C19" s="28"/>
@@ -21136,7 +21133,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15">
+    <row r="20" spans="1:6">
       <c r="A20" s="28"/>
       <c r="B20" s="34" t="s">
         <v>927</v>
@@ -21152,7 +21149,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15">
+    <row r="21" spans="1:6">
       <c r="A21" s="28"/>
       <c r="B21" s="34"/>
       <c r="C21" s="28"/>
@@ -21164,7 +21161,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15">
+    <row r="22" spans="1:6">
       <c r="A22" s="28"/>
       <c r="B22" s="34"/>
       <c r="C22" s="28" t="s">
@@ -21178,7 +21175,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15">
+    <row r="23" spans="1:6">
       <c r="A23" s="28"/>
       <c r="B23" s="34"/>
       <c r="C23" s="28"/>
@@ -21190,7 +21187,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15">
+    <row r="24" spans="1:6">
       <c r="A24" s="28"/>
       <c r="B24" s="34" t="s">
         <v>927</v>
@@ -21206,7 +21203,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15">
+    <row r="25" spans="1:6">
       <c r="A25" s="28"/>
       <c r="B25" s="34"/>
       <c r="C25" s="28"/>
@@ -21218,7 +21215,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15">
+    <row r="26" spans="1:6">
       <c r="A26" s="28" t="s">
         <v>946</v>
       </c>
@@ -21236,7 +21233,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15">
+    <row r="27" spans="1:6">
       <c r="A27" s="28"/>
       <c r="B27" s="34"/>
       <c r="C27" s="28" t="s">
@@ -21250,7 +21247,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15">
+    <row r="28" spans="1:6">
       <c r="A28" s="28"/>
       <c r="B28" s="34"/>
       <c r="C28" s="28"/>
@@ -21262,7 +21259,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15">
+    <row r="29" spans="1:6">
       <c r="A29" s="28"/>
       <c r="B29" s="34"/>
       <c r="C29" s="28" t="s">
@@ -21276,7 +21273,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15">
+    <row r="30" spans="1:6">
       <c r="A30" s="28"/>
       <c r="B30" s="34"/>
       <c r="C30" s="28" t="s">
@@ -21290,7 +21287,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15">
+    <row r="31" spans="1:6">
       <c r="A31" s="28"/>
       <c r="B31" s="34"/>
       <c r="C31" s="28"/>
@@ -21302,7 +21299,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15">
+    <row r="32" spans="1:6">
       <c r="A32" s="28" t="s">
         <v>946</v>
       </c>
@@ -21320,7 +21317,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15">
+    <row r="33" spans="1:6">
       <c r="A33" s="28"/>
       <c r="B33" s="34"/>
       <c r="C33" s="28" t="s">
@@ -21334,7 +21331,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15">
+    <row r="34" spans="1:6">
       <c r="A34" s="28"/>
       <c r="B34" s="34"/>
       <c r="C34" s="28"/>
@@ -21346,7 +21343,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15">
+    <row r="35" spans="1:6">
       <c r="A35" s="28" t="s">
         <v>946</v>
       </c>
@@ -21362,7 +21359,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15">
+    <row r="36" spans="1:6">
       <c r="A36" s="28"/>
       <c r="B36" s="34"/>
       <c r="C36" s="28"/>
@@ -21374,7 +21371,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15">
+    <row r="37" spans="1:6">
       <c r="A37" s="28" t="s">
         <v>946</v>
       </c>
@@ -21392,7 +21389,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15">
+    <row r="38" spans="1:6">
       <c r="A38" s="28"/>
       <c r="B38" s="34"/>
       <c r="C38" s="28"/>
@@ -21404,7 +21401,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15">
+    <row r="39" spans="1:6">
       <c r="A39" s="28"/>
       <c r="B39" s="34" t="s">
         <v>927</v>
@@ -21420,7 +21417,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15">
+    <row r="40" spans="1:6">
       <c r="A40" s="28"/>
       <c r="B40" s="34"/>
       <c r="C40" s="28"/>
@@ -21432,7 +21429,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15">
+    <row r="41" spans="1:6">
       <c r="A41" s="28"/>
       <c r="B41" s="34" t="s">
         <v>927</v>
@@ -21448,7 +21445,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15">
+    <row r="42" spans="1:6">
       <c r="A42" s="28"/>
       <c r="B42" s="34"/>
       <c r="C42" s="28"/>
@@ -21460,7 +21457,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15">
+    <row r="43" spans="1:6">
       <c r="A43" s="37" t="s">
         <v>985</v>
       </c>
@@ -21478,7 +21475,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15">
+    <row r="44" spans="1:6">
       <c r="A44" s="28"/>
       <c r="B44" s="34"/>
       <c r="C44" s="28"/>
@@ -21490,7 +21487,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15">
+    <row r="45" spans="1:6">
       <c r="A45" s="28"/>
       <c r="B45" s="34"/>
       <c r="C45" s="28"/>
@@ -21502,7 +21499,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15">
+    <row r="46" spans="1:6">
       <c r="A46" s="28"/>
       <c r="B46" s="34" t="s">
         <v>993</v>
@@ -21518,7 +21515,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15">
+    <row r="47" spans="1:6">
       <c r="A47" s="28"/>
       <c r="B47" s="34"/>
       <c r="C47" s="28"/>
@@ -21530,7 +21527,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15">
+    <row r="48" spans="1:6">
       <c r="A48" s="28"/>
       <c r="B48" s="34" t="s">
         <v>993</v>
@@ -21546,7 +21543,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15">
+    <row r="49" spans="1:6">
       <c r="A49" s="28"/>
       <c r="B49" s="34"/>
       <c r="C49" s="28"/>
@@ -21558,7 +21555,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15">
+    <row r="50" spans="1:6">
       <c r="A50" s="28"/>
       <c r="B50" s="34" t="s">
         <v>993</v>
@@ -21574,7 +21571,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15">
+    <row r="51" spans="1:6">
       <c r="A51" s="28"/>
       <c r="B51" s="34"/>
       <c r="C51" s="28"/>
@@ -21586,7 +21583,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15">
+    <row r="52" spans="1:6">
       <c r="A52" s="28"/>
       <c r="B52" s="34" t="s">
         <v>993</v>
@@ -21602,7 +21599,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15">
+    <row r="53" spans="1:6">
       <c r="A53" s="28"/>
       <c r="B53" s="34"/>
       <c r="C53" s="28"/>
@@ -21614,7 +21611,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15">
+    <row r="54" spans="1:6">
       <c r="A54" s="28"/>
       <c r="B54" s="34" t="s">
         <v>993</v>
@@ -21630,7 +21627,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15">
+    <row r="55" spans="1:6">
       <c r="A55" s="28"/>
       <c r="B55" s="34"/>
       <c r="C55" s="28"/>
@@ -21642,7 +21639,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15">
+    <row r="56" spans="1:6">
       <c r="A56" s="28"/>
       <c r="B56" s="28" t="s">
         <v>993</v>
@@ -21658,7 +21655,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15">
+    <row r="57" spans="1:6">
       <c r="A57" s="28"/>
       <c r="B57" s="28"/>
       <c r="C57" s="28"/>
@@ -21670,7 +21667,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15">
+    <row r="58" spans="1:6">
       <c r="A58" s="28"/>
       <c r="B58" s="28" t="s">
         <v>993</v>
@@ -21686,7 +21683,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15">
+    <row r="59" spans="1:6">
       <c r="A59" s="28"/>
       <c r="B59" s="28"/>
       <c r="C59" s="28"/>
@@ -21698,7 +21695,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15">
+    <row r="60" spans="1:6">
       <c r="A60" s="28"/>
       <c r="B60" s="28" t="s">
         <v>993</v>
@@ -21714,7 +21711,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15">
+    <row r="61" spans="1:6">
       <c r="A61" s="28"/>
       <c r="B61" s="28"/>
       <c r="C61" s="28"/>
@@ -21726,7 +21723,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15">
+    <row r="62" spans="1:6">
       <c r="A62" s="28" t="s">
         <v>1014</v>
       </c>
@@ -21744,7 +21741,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15">
+    <row r="63" spans="1:6">
       <c r="A63" s="28"/>
       <c r="B63" s="28"/>
       <c r="C63" s="28"/>
@@ -21756,7 +21753,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15">
+    <row r="64" spans="1:6">
       <c r="A64" s="28"/>
       <c r="B64" s="28" t="s">
         <v>903</v>
@@ -21772,7 +21769,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15">
+    <row r="65" spans="1:6">
       <c r="A65" s="28"/>
       <c r="B65" s="28"/>
       <c r="C65" s="28"/>
@@ -21784,7 +21781,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15">
+    <row r="66" spans="1:6">
       <c r="A66" s="28"/>
       <c r="B66" s="28" t="s">
         <v>903</v>
@@ -21800,7 +21797,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15">
+    <row r="67" spans="1:6">
       <c r="A67" s="28"/>
       <c r="B67" s="28"/>
       <c r="C67" s="28"/>
@@ -21812,7 +21809,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15">
+    <row r="68" spans="1:6">
       <c r="A68" s="28"/>
       <c r="B68" s="28" t="s">
         <v>903</v>
@@ -21828,7 +21825,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15">
+    <row r="69" spans="1:6">
       <c r="A69" s="28"/>
       <c r="B69" s="28"/>
       <c r="C69" s="28"/>
@@ -21840,7 +21837,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15">
+    <row r="70" spans="1:6">
       <c r="A70" s="28"/>
       <c r="B70" s="28" t="s">
         <v>903</v>
@@ -21856,7 +21853,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15">
+    <row r="71" spans="1:6">
       <c r="A71" s="28"/>
       <c r="B71" s="28"/>
       <c r="C71" s="28"/>
@@ -21868,7 +21865,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="29.15">
+    <row r="72" spans="1:6" ht="30">
       <c r="A72" s="28" t="s">
         <v>1040</v>
       </c>
@@ -21876,7 +21873,7 @@
         <v>908</v>
       </c>
       <c r="C72" s="38" t="s">
-        <v>2277</v>
+        <v>2275</v>
       </c>
       <c r="D72" s="28" t="s">
         <v>1041</v>
@@ -21886,7 +21883,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15">
+    <row r="73" spans="1:6">
       <c r="A73" s="28"/>
       <c r="B73" s="28"/>
       <c r="C73" s="28"/>
@@ -21898,11 +21895,11 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="15">
+    <row r="74" spans="1:6">
       <c r="A74" s="28"/>
       <c r="B74" s="28"/>
       <c r="C74" s="28" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
       <c r="D74" s="28" t="s">
         <v>1041</v>
@@ -21912,7 +21909,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15">
+    <row r="75" spans="1:6">
       <c r="A75" s="28" t="s">
         <v>1045</v>
       </c>
@@ -21930,7 +21927,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15">
+    <row r="76" spans="1:6">
       <c r="A76" s="28"/>
       <c r="B76" s="28"/>
       <c r="C76" s="28"/>
@@ -21942,7 +21939,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="15">
+    <row r="77" spans="1:6">
       <c r="A77" s="28"/>
       <c r="B77" s="28"/>
       <c r="C77" s="28" t="s">
@@ -21956,7 +21953,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15">
+    <row r="78" spans="1:6">
       <c r="A78" s="28" t="s">
         <v>1052</v>
       </c>
@@ -21974,7 +21971,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="15">
+    <row r="79" spans="1:6">
       <c r="A79" s="28"/>
       <c r="B79" s="28"/>
       <c r="C79" s="28"/>
@@ -21986,7 +21983,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15">
+    <row r="80" spans="1:6">
       <c r="A80" s="28"/>
       <c r="B80" s="28"/>
       <c r="C80" s="28"/>
@@ -21998,7 +21995,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="15">
+    <row r="81" spans="1:6">
       <c r="A81" s="28" t="s">
         <v>1052</v>
       </c>
@@ -22016,7 +22013,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="15">
+    <row r="82" spans="1:6">
       <c r="A82" s="28"/>
       <c r="B82" s="28"/>
       <c r="C82" s="28"/>
@@ -22028,7 +22025,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="15">
+    <row r="83" spans="1:6">
       <c r="A83" s="28" t="s">
         <v>1052</v>
       </c>
@@ -22046,7 +22043,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="15">
+    <row r="84" spans="1:6">
       <c r="A84" s="28"/>
       <c r="B84" s="28"/>
       <c r="C84" s="28"/>
@@ -22058,7 +22055,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="29.15">
+    <row r="85" spans="1:6" ht="30">
       <c r="A85" s="28" t="s">
         <v>1052</v>
       </c>
@@ -22066,7 +22063,7 @@
         <v>908</v>
       </c>
       <c r="C85" s="38" t="s">
-        <v>2277</v>
+        <v>2275</v>
       </c>
       <c r="D85" s="28" t="s">
         <v>1067</v>
@@ -22076,7 +22073,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="15">
+    <row r="86" spans="1:6">
       <c r="A86" s="28"/>
       <c r="B86" s="28"/>
       <c r="C86" s="28"/>
@@ -22088,7 +22085,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="15">
+    <row r="87" spans="1:6">
       <c r="A87" s="28" t="s">
         <v>1071</v>
       </c>
@@ -22106,7 +22103,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="15">
+    <row r="88" spans="1:6">
       <c r="A88" s="28"/>
       <c r="B88" s="28"/>
       <c r="C88" s="28"/>
@@ -22118,7 +22115,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="29.15">
+    <row r="89" spans="1:6" ht="30">
       <c r="A89" s="28" t="s">
         <v>1071</v>
       </c>
@@ -22126,7 +22123,7 @@
         <v>908</v>
       </c>
       <c r="C89" s="38" t="s">
-        <v>2277</v>
+        <v>2275</v>
       </c>
       <c r="D89" s="28" t="s">
         <v>1077</v>
@@ -22136,7 +22133,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="15">
+    <row r="90" spans="1:6">
       <c r="A90" s="28"/>
       <c r="B90" s="28"/>
       <c r="C90" s="28"/>
@@ -22148,11 +22145,11 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="15">
+    <row r="91" spans="1:6">
       <c r="A91" s="28"/>
       <c r="B91" s="28"/>
       <c r="C91" s="28" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
       <c r="D91" s="28" t="s">
         <v>1077</v>
@@ -22162,7 +22159,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="15">
+    <row r="92" spans="1:6">
       <c r="A92" s="28" t="s">
         <v>1081</v>
       </c>
@@ -22192,23 +22189,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L92"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="13.92578125" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="35.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.92578125" customWidth="1"/>
-    <col min="5" max="5" width="30.2109375" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="2" max="2" width="19.375" customWidth="1"/>
+    <col min="3" max="3" width="35.625" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="5" max="5" width="30.25" customWidth="1"/>
+    <col min="6" max="6" width="13.625" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15">
+    <row r="1" spans="1:9" s="1" customFormat="1">
       <c r="A1" s="44" t="s">
         <v>1085</v>
       </c>
@@ -22229,7 +22226,7 @@
       <c r="H1" s="44"/>
       <c r="I1" s="44"/>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9">
       <c r="A2" s="45" t="s">
         <v>1088</v>
       </c>
@@ -22246,7 +22243,7 @@
       <c r="H2" s="45"/>
       <c r="I2" s="45"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9">
       <c r="A3" s="45" t="s">
         <v>1088</v>
       </c>
@@ -22263,7 +22260,7 @@
       <c r="H3" s="45"/>
       <c r="I3" s="45"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9">
       <c r="A4" s="45" t="s">
         <v>1088</v>
       </c>
@@ -22280,7 +22277,7 @@
       <c r="H4" s="45"/>
       <c r="I4" s="45"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9">
       <c r="A5" s="45" t="s">
         <v>1088</v>
       </c>
@@ -22297,7 +22294,7 @@
       <c r="H5" s="45"/>
       <c r="I5" s="45"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9">
       <c r="A6" s="45" t="s">
         <v>1097</v>
       </c>
@@ -22318,7 +22315,7 @@
       <c r="H6" s="45"/>
       <c r="I6" s="45"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9">
       <c r="A7" s="45" t="s">
         <v>1097</v>
       </c>
@@ -22339,7 +22336,7 @@
       <c r="H7" s="45"/>
       <c r="I7" s="45"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9">
       <c r="A8" s="45" t="s">
         <v>1097</v>
       </c>
@@ -22360,7 +22357,7 @@
       <c r="H8" s="45"/>
       <c r="I8" s="45"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9">
       <c r="A9" s="45" t="s">
         <v>1097</v>
       </c>
@@ -22381,7 +22378,7 @@
       <c r="H9" s="45"/>
       <c r="I9" s="45"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9">
       <c r="A10" s="45" t="s">
         <v>1097</v>
       </c>
@@ -22402,7 +22399,7 @@
       <c r="H10" s="45"/>
       <c r="I10" s="45"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9">
       <c r="A11" s="45" t="s">
         <v>1097</v>
       </c>
@@ -22423,7 +22420,7 @@
       <c r="H11" s="45"/>
       <c r="I11" s="45"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9">
       <c r="A12" s="45" t="s">
         <v>1121</v>
       </c>
@@ -22440,7 +22437,7 @@
       <c r="H12" s="45"/>
       <c r="I12" s="45"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9">
       <c r="A13" s="45" t="s">
         <v>1121</v>
       </c>
@@ -22457,7 +22454,7 @@
       <c r="H13" s="45"/>
       <c r="I13" s="45"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9">
       <c r="A14" s="45" t="s">
         <v>1121</v>
       </c>
@@ -22474,7 +22471,7 @@
       <c r="H14" s="45"/>
       <c r="I14" s="45"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9">
       <c r="A15" s="45" t="s">
         <v>1121</v>
       </c>
@@ -22491,7 +22488,7 @@
       <c r="H15" s="45"/>
       <c r="I15" s="45"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9">
       <c r="A16" s="45" t="s">
         <v>1121</v>
       </c>
@@ -22508,7 +22505,7 @@
       <c r="H16" s="45"/>
       <c r="I16" s="45"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9">
       <c r="A17" s="45" t="s">
         <v>1121</v>
       </c>
@@ -22525,7 +22522,7 @@
       <c r="H17" s="45"/>
       <c r="I17" s="45"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9">
       <c r="A18" s="45" t="s">
         <v>1129</v>
       </c>
@@ -22554,7 +22551,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9">
       <c r="A19" s="45" t="s">
         <v>1129</v>
       </c>
@@ -22579,7 +22576,7 @@
       <c r="H19" s="45"/>
       <c r="I19" s="45"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9">
       <c r="A20" s="45" t="s">
         <v>1129</v>
       </c>
@@ -22604,7 +22601,7 @@
       <c r="H20" s="45"/>
       <c r="I20" s="45"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9">
       <c r="A21" s="45" t="s">
         <v>1129</v>
       </c>
@@ -22629,7 +22626,7 @@
       <c r="H21" s="45"/>
       <c r="I21" s="45"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9">
       <c r="A22" s="45" t="s">
         <v>1129</v>
       </c>
@@ -22654,7 +22651,7 @@
       <c r="H22" s="45"/>
       <c r="I22" s="45"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9">
       <c r="A23" s="45" t="s">
         <v>1129</v>
       </c>
@@ -22679,7 +22676,7 @@
       <c r="H23" s="45"/>
       <c r="I23" s="45"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9">
       <c r="A24" s="45" t="s">
         <v>1129</v>
       </c>
@@ -22704,7 +22701,7 @@
       <c r="H24" s="45"/>
       <c r="I24" s="45"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9">
       <c r="A25" s="45" t="s">
         <v>1129</v>
       </c>
@@ -22729,7 +22726,7 @@
       <c r="H25" s="45"/>
       <c r="I25" s="45"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9">
       <c r="A26" s="45" t="s">
         <v>1129</v>
       </c>
@@ -22754,7 +22751,7 @@
       <c r="H26" s="45"/>
       <c r="I26" s="45"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9">
       <c r="A27" s="45" t="s">
         <v>1129</v>
       </c>
@@ -22779,7 +22776,7 @@
       <c r="H27" s="45"/>
       <c r="I27" s="45"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9">
       <c r="A28" s="45" t="s">
         <v>1129</v>
       </c>
@@ -22804,7 +22801,7 @@
       <c r="H28" s="45"/>
       <c r="I28" s="45"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9">
       <c r="A29" s="45" t="s">
         <v>1177</v>
       </c>
@@ -22821,7 +22818,7 @@
       <c r="H29" s="45"/>
       <c r="I29" s="45"/>
     </row>
-    <row r="30" spans="1:9" ht="15">
+    <row r="30" spans="1:9">
       <c r="A30" s="45" t="s">
         <v>1177</v>
       </c>
@@ -22838,7 +22835,7 @@
       <c r="H30" s="45"/>
       <c r="I30" s="45"/>
     </row>
-    <row r="31" spans="1:9" ht="15">
+    <row r="31" spans="1:9">
       <c r="A31" s="45" t="s">
         <v>1177</v>
       </c>
@@ -22855,7 +22852,7 @@
       <c r="H31" s="45"/>
       <c r="I31" s="45"/>
     </row>
-    <row r="32" spans="1:9" ht="15">
+    <row r="32" spans="1:9">
       <c r="A32" s="45" t="s">
         <v>1177</v>
       </c>
@@ -22872,7 +22869,7 @@
       <c r="H32" s="45"/>
       <c r="I32" s="45"/>
     </row>
-    <row r="33" spans="1:9" ht="15">
+    <row r="33" spans="1:9">
       <c r="A33" s="45" t="s">
         <v>1177</v>
       </c>
@@ -22889,7 +22886,7 @@
       <c r="H33" s="45"/>
       <c r="I33" s="45"/>
     </row>
-    <row r="34" spans="1:9" ht="15">
+    <row r="34" spans="1:9">
       <c r="A34" s="45" t="s">
         <v>1177</v>
       </c>
@@ -22906,7 +22903,7 @@
       <c r="H34" s="45"/>
       <c r="I34" s="45"/>
     </row>
-    <row r="35" spans="1:9" ht="15">
+    <row r="35" spans="1:9">
       <c r="A35" s="45" t="s">
         <v>1177</v>
       </c>
@@ -22923,7 +22920,7 @@
       <c r="H35" s="45"/>
       <c r="I35" s="45"/>
     </row>
-    <row r="36" spans="1:9" ht="15">
+    <row r="36" spans="1:9">
       <c r="A36" s="45" t="s">
         <v>1177</v>
       </c>
@@ -22940,7 +22937,7 @@
       <c r="H36" s="45"/>
       <c r="I36" s="45"/>
     </row>
-    <row r="37" spans="1:9" ht="15">
+    <row r="37" spans="1:9">
       <c r="A37" s="45" t="s">
         <v>1177</v>
       </c>
@@ -22957,7 +22954,7 @@
       <c r="H37" s="45"/>
       <c r="I37" s="45"/>
     </row>
-    <row r="38" spans="1:9" ht="15">
+    <row r="38" spans="1:9">
       <c r="A38" s="45" t="s">
         <v>1177</v>
       </c>
@@ -22974,7 +22971,7 @@
       <c r="H38" s="45"/>
       <c r="I38" s="45"/>
     </row>
-    <row r="39" spans="1:9" ht="15">
+    <row r="39" spans="1:9">
       <c r="A39" s="45" t="s">
         <v>1177</v>
       </c>
@@ -22991,7 +22988,7 @@
       <c r="H39" s="45"/>
       <c r="I39" s="45"/>
     </row>
-    <row r="40" spans="1:9" ht="15">
+    <row r="40" spans="1:9">
       <c r="A40" s="45" t="s">
         <v>1177</v>
       </c>
@@ -23008,7 +23005,7 @@
       <c r="H40" s="45"/>
       <c r="I40" s="45"/>
     </row>
-    <row r="41" spans="1:9" ht="15">
+    <row r="41" spans="1:9">
       <c r="A41" s="45" t="s">
         <v>1177</v>
       </c>
@@ -23025,7 +23022,7 @@
       <c r="H41" s="45"/>
       <c r="I41" s="45"/>
     </row>
-    <row r="42" spans="1:9" ht="15">
+    <row r="42" spans="1:9">
       <c r="A42" s="45" t="s">
         <v>1177</v>
       </c>
@@ -23042,7 +23039,7 @@
       <c r="H42" s="45"/>
       <c r="I42" s="45"/>
     </row>
-    <row r="43" spans="1:9" ht="15">
+    <row r="43" spans="1:9">
       <c r="A43" s="45" t="s">
         <v>1177</v>
       </c>
@@ -23059,7 +23056,7 @@
       <c r="H43" s="45"/>
       <c r="I43" s="45"/>
     </row>
-    <row r="44" spans="1:9" ht="15">
+    <row r="44" spans="1:9">
       <c r="A44" s="45" t="s">
         <v>1177</v>
       </c>
@@ -23076,7 +23073,7 @@
       <c r="H44" s="45"/>
       <c r="I44" s="45"/>
     </row>
-    <row r="45" spans="1:9" ht="15">
+    <row r="45" spans="1:9">
       <c r="A45" s="45" t="s">
         <v>1177</v>
       </c>
@@ -23093,7 +23090,7 @@
       <c r="H45" s="45"/>
       <c r="I45" s="45"/>
     </row>
-    <row r="46" spans="1:9" ht="15">
+    <row r="46" spans="1:9">
       <c r="A46" s="45" t="s">
         <v>1177</v>
       </c>
@@ -23110,7 +23107,7 @@
       <c r="H46" s="45"/>
       <c r="I46" s="45"/>
     </row>
-    <row r="47" spans="1:9" ht="15">
+    <row r="47" spans="1:9">
       <c r="A47" s="45" t="s">
         <v>1177</v>
       </c>
@@ -23127,7 +23124,7 @@
       <c r="H47" s="45"/>
       <c r="I47" s="45"/>
     </row>
-    <row r="48" spans="1:9" ht="15">
+    <row r="48" spans="1:9">
       <c r="A48" s="45" t="s">
         <v>1177</v>
       </c>
@@ -23144,7 +23141,7 @@
       <c r="H48" s="45"/>
       <c r="I48" s="45"/>
     </row>
-    <row r="49" spans="1:9" ht="15">
+    <row r="49" spans="1:9">
       <c r="A49" s="45" t="s">
         <v>1177</v>
       </c>
@@ -23161,7 +23158,7 @@
       <c r="H49" s="45"/>
       <c r="I49" s="45"/>
     </row>
-    <row r="50" spans="1:9" ht="15">
+    <row r="50" spans="1:9">
       <c r="A50" s="45" t="s">
         <v>1177</v>
       </c>
@@ -23178,7 +23175,7 @@
       <c r="H50" s="45"/>
       <c r="I50" s="45"/>
     </row>
-    <row r="51" spans="1:9" ht="15">
+    <row r="51" spans="1:9">
       <c r="A51" s="45" t="s">
         <v>1177</v>
       </c>
@@ -23195,7 +23192,7 @@
       <c r="H51" s="45"/>
       <c r="I51" s="45"/>
     </row>
-    <row r="52" spans="1:9" ht="15">
+    <row r="52" spans="1:9">
       <c r="A52" s="45" t="s">
         <v>1177</v>
       </c>
@@ -23212,7 +23209,7 @@
       <c r="H52" s="45"/>
       <c r="I52" s="45"/>
     </row>
-    <row r="53" spans="1:9" ht="15">
+    <row r="53" spans="1:9">
       <c r="A53" s="45" t="s">
         <v>1177</v>
       </c>
@@ -23229,7 +23226,7 @@
       <c r="H53" s="45"/>
       <c r="I53" s="45"/>
     </row>
-    <row r="54" spans="1:9" ht="15">
+    <row r="54" spans="1:9">
       <c r="A54" s="45" t="s">
         <v>1177</v>
       </c>
@@ -23246,7 +23243,7 @@
       <c r="H54" s="45"/>
       <c r="I54" s="45"/>
     </row>
-    <row r="55" spans="1:9" ht="15">
+    <row r="55" spans="1:9">
       <c r="A55" s="45" t="s">
         <v>1225</v>
       </c>
@@ -23263,7 +23260,7 @@
       <c r="H55" s="45"/>
       <c r="I55" s="45"/>
     </row>
-    <row r="56" spans="1:9" ht="15">
+    <row r="56" spans="1:9">
       <c r="A56" s="45" t="s">
         <v>1225</v>
       </c>
@@ -23280,7 +23277,7 @@
       <c r="H56" s="45"/>
       <c r="I56" s="45"/>
     </row>
-    <row r="57" spans="1:9" ht="15">
+    <row r="57" spans="1:9">
       <c r="A57" s="45" t="s">
         <v>1225</v>
       </c>
@@ -23297,7 +23294,7 @@
       <c r="H57" s="45"/>
       <c r="I57" s="45"/>
     </row>
-    <row r="58" spans="1:9" ht="15">
+    <row r="58" spans="1:9">
       <c r="A58" s="45" t="s">
         <v>1225</v>
       </c>
@@ -23314,7 +23311,7 @@
       <c r="H58" s="45"/>
       <c r="I58" s="45"/>
     </row>
-    <row r="59" spans="1:9" ht="15">
+    <row r="59" spans="1:9">
       <c r="A59" s="45" t="s">
         <v>1225</v>
       </c>
@@ -23331,7 +23328,7 @@
       <c r="H59" s="45"/>
       <c r="I59" s="45"/>
     </row>
-    <row r="60" spans="1:9" ht="15">
+    <row r="60" spans="1:9">
       <c r="A60" s="45" t="s">
         <v>1225</v>
       </c>
@@ -23348,7 +23345,7 @@
       <c r="H60" s="45"/>
       <c r="I60" s="45"/>
     </row>
-    <row r="61" spans="1:9" ht="15">
+    <row r="61" spans="1:9">
       <c r="A61" s="45" t="s">
         <v>1225</v>
       </c>
@@ -23365,7 +23362,7 @@
       <c r="H61" s="45"/>
       <c r="I61" s="45"/>
     </row>
-    <row r="62" spans="1:9" ht="15">
+    <row r="62" spans="1:9">
       <c r="A62" s="45" t="s">
         <v>1225</v>
       </c>
@@ -23382,7 +23379,7 @@
       <c r="H62" s="45"/>
       <c r="I62" s="45"/>
     </row>
-    <row r="63" spans="1:9" ht="15">
+    <row r="63" spans="1:9">
       <c r="A63" s="45" t="s">
         <v>1225</v>
       </c>
@@ -23399,7 +23396,7 @@
       <c r="H63" s="45"/>
       <c r="I63" s="45"/>
     </row>
-    <row r="64" spans="1:9" ht="15">
+    <row r="64" spans="1:9">
       <c r="A64" s="45" t="s">
         <v>1225</v>
       </c>
@@ -23416,7 +23413,7 @@
       <c r="H64" s="45"/>
       <c r="I64" s="45"/>
     </row>
-    <row r="65" spans="1:10" ht="15">
+    <row r="65" spans="1:10">
       <c r="A65" s="45" t="s">
         <v>1225</v>
       </c>
@@ -23433,7 +23430,7 @@
       <c r="H65" s="45"/>
       <c r="I65" s="45"/>
     </row>
-    <row r="66" spans="1:10" ht="15">
+    <row r="66" spans="1:10">
       <c r="A66" s="45" t="s">
         <v>1225</v>
       </c>
@@ -23450,7 +23447,7 @@
       <c r="H66" s="45"/>
       <c r="I66" s="45"/>
     </row>
-    <row r="67" spans="1:10" ht="15">
+    <row r="67" spans="1:10">
       <c r="A67" s="45" t="s">
         <v>1225</v>
       </c>
@@ -23467,7 +23464,7 @@
       <c r="H67" s="45"/>
       <c r="I67" s="45"/>
     </row>
-    <row r="68" spans="1:10" ht="15">
+    <row r="68" spans="1:10">
       <c r="A68" s="45" t="s">
         <v>1225</v>
       </c>
@@ -23484,7 +23481,7 @@
       <c r="H68" s="45"/>
       <c r="I68" s="45"/>
     </row>
-    <row r="69" spans="1:10" ht="15">
+    <row r="69" spans="1:10">
       <c r="A69" s="45" t="s">
         <v>1225</v>
       </c>
@@ -23501,7 +23498,7 @@
       <c r="H69" s="45"/>
       <c r="I69" s="45"/>
     </row>
-    <row r="70" spans="1:10" ht="15">
+    <row r="70" spans="1:10">
       <c r="A70" s="45" t="s">
         <v>1225</v>
       </c>
@@ -23518,7 +23515,7 @@
       <c r="H70" s="45"/>
       <c r="I70" s="45"/>
     </row>
-    <row r="71" spans="1:10" ht="15">
+    <row r="71" spans="1:10">
       <c r="A71" s="45" t="s">
         <v>1225</v>
       </c>
@@ -23900,18 +23897,18 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="11.2109375" customWidth="1"/>
+    <col min="1" max="1" width="11.25" customWidth="1"/>
     <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="25.0703125" customWidth="1"/>
-    <col min="4" max="4" width="12.2109375" customWidth="1"/>
+    <col min="3" max="3" width="25.125" customWidth="1"/>
+    <col min="4" max="4" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15">
+    <row r="1" spans="1:4">
       <c r="A1" s="42" t="s">
         <v>1301</v>
       </c>
@@ -23919,13 +23916,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>2313</v>
+        <v>2309</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15">
+    <row r="2" spans="1:4">
       <c r="A2" s="28" t="s">
         <v>1302</v>
       </c>
@@ -23933,13 +23930,13 @@
         <v>1303</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>1304</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15">
+    <row r="3" spans="1:4">
       <c r="A3" s="28" t="s">
         <v>1305</v>
       </c>
@@ -23947,13 +23944,13 @@
         <v>1306</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>2315</v>
+        <v>2311</v>
       </c>
       <c r="D3" s="28" t="s">
         <v>1307</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15">
+    <row r="4" spans="1:4">
       <c r="A4" s="28" t="s">
         <v>915</v>
       </c>
@@ -23961,13 +23958,13 @@
         <v>1308</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>2319</v>
+        <v>2545</v>
       </c>
       <c r="D4" s="28" t="s">
         <v>1309</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15">
+    <row r="5" spans="1:4">
       <c r="A5" s="28" t="s">
         <v>946</v>
       </c>
@@ -23975,13 +23972,13 @@
         <v>1310</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>2316</v>
+        <v>2312</v>
       </c>
       <c r="D5" s="28" t="s">
         <v>1311</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15">
+    <row r="6" spans="1:4">
       <c r="A6" s="28" t="s">
         <v>985</v>
       </c>
@@ -23989,13 +23986,13 @@
         <v>1312</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>2317</v>
+        <v>2313</v>
       </c>
       <c r="D6" s="28" t="s">
         <v>1313</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15">
+    <row r="7" spans="1:4">
       <c r="A7" s="28" t="s">
         <v>1014</v>
       </c>
@@ -24003,13 +24000,13 @@
         <v>1314</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>2318</v>
+        <v>2314</v>
       </c>
       <c r="D7" s="28" t="s">
         <v>1315</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15">
+    <row r="8" spans="1:4">
       <c r="A8" s="28" t="s">
         <v>1040</v>
       </c>
@@ -24017,13 +24014,13 @@
         <v>1316</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>2320</v>
+        <v>2315</v>
       </c>
       <c r="D8" s="28" t="s">
         <v>1317</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15">
+    <row r="9" spans="1:4">
       <c r="A9" s="28" t="s">
         <v>1045</v>
       </c>
@@ -24031,13 +24028,13 @@
         <v>1318</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>2321</v>
+        <v>2316</v>
       </c>
       <c r="D9" s="28" t="s">
         <v>1318</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15">
+    <row r="10" spans="1:4">
       <c r="A10" s="28" t="s">
         <v>1052</v>
       </c>
@@ -24045,13 +24042,13 @@
         <v>1319</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>2322</v>
+        <v>2317</v>
       </c>
       <c r="D10" s="28" t="s">
         <v>1320</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15">
+    <row r="11" spans="1:4">
       <c r="A11" s="28" t="s">
         <v>1071</v>
       </c>
@@ -24059,13 +24056,13 @@
         <v>1321</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>2323</v>
+        <v>2318</v>
       </c>
       <c r="D11" s="28" t="s">
         <v>1322</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15">
+    <row r="12" spans="1:4">
       <c r="A12" s="28" t="s">
         <v>1081</v>
       </c>
@@ -24073,7 +24070,7 @@
         <v>1323</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>2324</v>
+        <v>2319</v>
       </c>
       <c r="D12" s="28" t="s">
         <v>1324</v>
@@ -24091,14 +24088,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="3" max="3" width="13.92578125" customWidth="1"/>
-    <col min="4" max="4" width="12.0703125" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1">

--- a/English translation/その他文字 (Items, Skills, Characters, Descriptions)/固有名詞 (Literally everything else).xlsx
+++ b/English translation/その他文字 (Items, Skills, Characters, Descriptions)/固有名詞 (Literally everything else).xlsx
@@ -9,38 +9,38 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21943" windowHeight="8091" tabRatio="627" firstSheet="4" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21943" windowHeight="8091" tabRatio="627" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="名前" sheetId="1" r:id="rId1"/>
-    <sheet name="狀態異常" sheetId="4" r:id="rId2"/>
-    <sheet name="情報收集" sheetId="11" r:id="rId3"/>
-    <sheet name="ステータス" sheetId="5" r:id="rId4"/>
-    <sheet name="アイテム" sheetId="6" r:id="rId5"/>
-    <sheet name="選択肢" sheetId="7" r:id="rId6"/>
-    <sheet name="システム" sheetId="8" r:id="rId7"/>
-    <sheet name="地点" sheetId="9" r:id="rId8"/>
-    <sheet name="スキル" sheetId="3" r:id="rId9"/>
-    <sheet name="命乞いリスト" sheetId="10" r:id="rId10"/>
-    <sheet name="フリークエスト" sheetId="12" r:id="rId11"/>
-    <sheet name="ジョツプ" sheetId="13" r:id="rId12"/>
-    <sheet name="酒場" sheetId="14" r:id="rId13"/>
-    <sheet name="武器" sheetId="15" r:id="rId14"/>
-    <sheet name="宝物庫" sheetId="16" r:id="rId15"/>
-    <sheet name="汎用セリフ、イベント" sheetId="17" r:id="rId16"/>
+    <sheet name="names-名前" sheetId="1" r:id="rId1"/>
+    <sheet name="狀態異常" sheetId="4" state="hidden" r:id="rId2"/>
+    <sheet name="Investigate 情報收集" sheetId="11" r:id="rId3"/>
+    <sheet name="Status-ステータス" sheetId="5" r:id="rId4"/>
+    <sheet name="Itemsアイテム" sheetId="6" r:id="rId5"/>
+    <sheet name="Choices-選択肢" sheetId="7" r:id="rId6"/>
+    <sheet name="System-システム" sheetId="8" r:id="rId7"/>
+    <sheet name="Chapters-地点" sheetId="9" r:id="rId8"/>
+    <sheet name="Skills-スキル" sheetId="3" r:id="rId9"/>
+    <sheet name="Spare-命乞いリスト" sheetId="10" r:id="rId10"/>
+    <sheet name="Quest Names-フリークエスト" sheetId="12" r:id="rId11"/>
+    <sheet name="Shop-ジョツプ" sheetId="13" r:id="rId12"/>
+    <sheet name="Tavern-酒場" sheetId="14" r:id="rId13"/>
+    <sheet name="Weapons-武器" sheetId="15" r:id="rId14"/>
+    <sheet name="Treasury-宝物庫" sheetId="16" r:id="rId15"/>
+    <sheet name="Common Events-汎用セリフ、イベント" sheetId="17" r:id="rId16"/>
     <sheet name="單字統一翻譯" sheetId="18" r:id="rId17"/>
     <sheet name="常見生詞" sheetId="19" r:id="rId18"/>
     <sheet name="ラミア" sheetId="20" r:id="rId19"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">名前!$A$1:$H$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'names-名前'!$A$1:$H$77</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3843" uniqueCount="2547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3931" uniqueCount="2718">
   <si>
     <t>カテゴリ</t>
   </si>
@@ -5076,25 +5076,13 @@
     <t>買う</t>
   </si>
   <si>
-    <t>買進</t>
-  </si>
-  <si>
     <t>売る</t>
   </si>
   <si>
-    <t>賣出</t>
-  </si>
-  <si>
     <t>はい</t>
   </si>
   <si>
-    <t>是</t>
-  </si>
-  <si>
     <t>いいえ</t>
-  </si>
-  <si>
-    <t>否</t>
   </si>
   <si>
     <t>セリフ</t>
@@ -5677,12 +5665,6 @@
   </si>
   <si>
     <t>有天之恩惠的槍。可以讓裝備者的HP自動回復。</t>
-  </si>
-  <si>
-    <t>可以</t>
-  </si>
-  <si>
-    <t>取消</t>
   </si>
   <si>
     <t>セリフ翻訳</t>
@@ -6356,9 +6338,6 @@
     <t>Gem of Healing</t>
   </si>
   <si>
-    <t>Gem of Life</t>
-  </si>
-  <si>
     <t>Turnwheel Gem</t>
   </si>
   <si>
@@ -6398,27 +6377,9 @@
     <t>Class Change Certificate</t>
   </si>
   <si>
-    <t>Healing Tome</t>
-  </si>
-  <si>
-    <t>Healing Cane</t>
-  </si>
-  <si>
-    <t>Healing Staff</t>
-  </si>
-  <si>
     <t>Forest Staff</t>
   </si>
   <si>
-    <t>All Recovery Staff (Weak)</t>
-  </si>
-  <si>
-    <t>All Recovery Staff (Medium)</t>
-  </si>
-  <si>
-    <t>All Recovery Staff (Strong)</t>
-  </si>
-  <si>
     <t>Prayer Staff</t>
   </si>
   <si>
@@ -6494,27 +6455,6 @@
     <t>Martial artist</t>
   </si>
   <si>
-    <t>Speed Boost</t>
-  </si>
-  <si>
-    <t>Attack Boost+</t>
-  </si>
-  <si>
-    <t>Luck Boost+</t>
-  </si>
-  <si>
-    <t>Skill Boost+</t>
-  </si>
-  <si>
-    <t>Speed Boost+</t>
-  </si>
-  <si>
-    <t>Magic Boost+</t>
-  </si>
-  <si>
-    <t>Mythical Boost</t>
-  </si>
-  <si>
     <t>HP Down</t>
   </si>
   <si>
@@ -6536,48 +6476,6 @@
     <t>Luk Down</t>
   </si>
   <si>
-    <t>Force Weakness: Breasts</t>
-  </si>
-  <si>
-    <t>Force Weakness: Feet</t>
-  </si>
-  <si>
-    <t>Force Weakness: Kiss</t>
-  </si>
-  <si>
-    <t>Force Weakness: Fellatio</t>
-  </si>
-  <si>
-    <t>Force Weakness: Handjob</t>
-  </si>
-  <si>
-    <t>Force Weakness: Sex</t>
-  </si>
-  <si>
-    <t>Force Weakness: Charm</t>
-  </si>
-  <si>
-    <t>Resist Weakness: Breasts</t>
-  </si>
-  <si>
-    <t>Resist Weakness: Feet</t>
-  </si>
-  <si>
-    <t>Resist Weakness: Kiss</t>
-  </si>
-  <si>
-    <t>Resist Weakness: Fellatio</t>
-  </si>
-  <si>
-    <t>Resist Weakness: Handjob</t>
-  </si>
-  <si>
-    <t>Resist Weakness: Sex</t>
-  </si>
-  <si>
-    <t>Resist Weakness: Charm</t>
-  </si>
-  <si>
     <t>Power Band</t>
   </si>
   <si>
@@ -6698,9 +6596,6 @@
     <t>Dream Prison</t>
   </si>
   <si>
-    <t>Paizuri Hold Temptation</t>
-  </si>
-  <si>
     <t>Firestorm Dance</t>
   </si>
   <si>
@@ -6815,12 +6710,6 @@
     <t>Increases Max HP by 50 for 3 turns.</t>
   </si>
   <si>
-    <t>Poisons an adjacent enemy.</t>
-  </si>
-  <si>
-    <t>Badly poisons an adjacent enemy.</t>
-  </si>
-  <si>
     <t>Permanently decreases foe's Strength by 1 after combat.</t>
   </si>
   <si>
@@ -6878,10 +6767,6 @@
     <t>A magical leaf that can be used multiple times. Restores 120 HP to an adjacent ally.</t>
   </si>
   <si>
-    <t>隣接する味方を指定して、その技を強化する</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Increases Strength by 2 when held.</t>
   </si>
   <si>
@@ -6895,10 +6780,6 @@
   </si>
   <si>
     <t>A necklace engraved with the crest of the holy family.  Holds an unknown power.</t>
-  </si>
-  <si>
-    <t>食べると自分の体力を30回復するキノコ。大きいので5回も使える。</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>A bra bellonging to a succubus.</t>
@@ -7289,9 +7170,6 @@
     <t>Black Mage</t>
   </si>
   <si>
-    <t>Unit speciallising in disrupting enemy actions.</t>
-  </si>
-  <si>
     <t>Village Girl</t>
   </si>
   <si>
@@ -7724,6 +7602,643 @@
   <si>
     <t>Thanks.
 Anything else you'd like to sell to me?</t>
+  </si>
+  <si>
+    <t>Want some help?
+Fufu, it all depends on how famous you are-</t>
+  </si>
+  <si>
+    <t>Is this right?</t>
+  </si>
+  <si>
+    <t>Thanks!
+Do you want anyone else?</t>
+  </si>
+  <si>
+    <t>Anyone else?</t>
+  </si>
+  <si>
+    <t>Short Sword</t>
+  </si>
+  <si>
+    <t>A sword sporting high endurance but low power.</t>
+  </si>
+  <si>
+    <t>Long Sword</t>
+  </si>
+  <si>
+    <t>A long bladed sword. Stronger than a Short Sword.</t>
+  </si>
+  <si>
+    <t>Katana</t>
+  </si>
+  <si>
+    <t>A katana of extraordinary sharpness.</t>
+  </si>
+  <si>
+    <t>Draining Sword</t>
+  </si>
+  <si>
+    <t>A magical sword that drains HP from foes when used.</t>
+  </si>
+  <si>
+    <t>Traveler's Sword</t>
+  </si>
+  <si>
+    <t>Offers high power but hinders movement.</t>
+  </si>
+  <si>
+    <t>Swift Sword</t>
+  </si>
+  <si>
+    <t>May strike twice. Odds increase with high skill.</t>
+  </si>
+  <si>
+    <t>Shoddy Sword</t>
+  </si>
+  <si>
+    <t>A well-worn sword. Has high power but breaks easily.</t>
+  </si>
+  <si>
+    <t>Cursed Sword</t>
+  </si>
+  <si>
+    <t>Grants str+4. A cursed sword that deals 10 dmg to the user every turn.</t>
+  </si>
+  <si>
+    <t>Torturous Sword</t>
+  </si>
+  <si>
+    <t>A sword that deals damage, but will never kill its foe.</t>
+  </si>
+  <si>
+    <t>Dark Sword</t>
+  </si>
+  <si>
+    <t>A sword wreathed in darkness. Strong, but dulls the mind.</t>
+  </si>
+  <si>
+    <t>The holy sword of wind. Strikes twice when attacking.</t>
+  </si>
+  <si>
+    <t>The holy sword of light. Suppresses the power of surrounding succubi.</t>
+  </si>
+  <si>
+    <t>Asagiri</t>
+  </si>
+  <si>
+    <t>A legendary sword with high offensive power.</t>
+  </si>
+  <si>
+    <t>Zanki</t>
+  </si>
+  <si>
+    <t>Kazedachi</t>
+  </si>
+  <si>
+    <t>A legendary sword able to strike twice as fast as the wind.</t>
+  </si>
+  <si>
+    <t>Nobuze</t>
+  </si>
+  <si>
+    <t>A legendary sword with a high critical hit rate.</t>
+  </si>
+  <si>
+    <t>Jouroku</t>
+  </si>
+  <si>
+    <t>A legendary sword with the ability to raise the stats of its user.</t>
+  </si>
+  <si>
+    <t>Chisui</t>
+  </si>
+  <si>
+    <t>A legendary sword able to absorb HP while attacking.</t>
+  </si>
+  <si>
+    <t>Mujin</t>
+  </si>
+  <si>
+    <t>A legendary sword that will never dull no matter how much you use it.</t>
+  </si>
+  <si>
+    <t>Dagger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A standard knife. Not powerful, but offers a high hit rate. </t>
+  </si>
+  <si>
+    <t>Bone Knife</t>
+  </si>
+  <si>
+    <t>A knife crafted from bone.</t>
+  </si>
+  <si>
+    <t>Bronze Dagger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A knife forged from bronze. Not powerful, but offers a high hit rate. </t>
+  </si>
+  <si>
+    <t>Silver Dagger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A silver dagger. Not powerful, but offers a high hit rate. </t>
+  </si>
+  <si>
+    <t>Poison Dagger</t>
+  </si>
+  <si>
+    <t>A knife drenched in poison.</t>
+  </si>
+  <si>
+    <t>Venom Dagger</t>
+  </si>
+  <si>
+    <t>A dagger forged from the fangs of a deadly poisonous snake.</t>
+  </si>
+  <si>
+    <t>Hunter Knife</t>
+  </si>
+  <si>
+    <t>A hunting knife. Offers a high critical rate.</t>
+  </si>
+  <si>
+    <t>Demonslayer Knife</t>
+  </si>
+  <si>
+    <t>A knife that temporarily decreases the magical power of those it hits.</t>
+  </si>
+  <si>
+    <t>Dark Dagger</t>
+  </si>
+  <si>
+    <t>A dagger preferred by assassins. Inflicts "Blindness" on foes.</t>
+  </si>
+  <si>
+    <t>Tranquillizer Dagger</t>
+  </si>
+  <si>
+    <t>A dagger designed to put enemies to sleep. Inflicts "Sleep" on foes.</t>
+  </si>
+  <si>
+    <t>Lethality</t>
+  </si>
+  <si>
+    <t>A dagger able to kill foes in one blow. High skill is needed to trigger this effect.</t>
+  </si>
+  <si>
+    <t>Gambler's Knife</t>
+  </si>
+  <si>
+    <t>Occasionally allows unit to act again after taking an action.</t>
+  </si>
+  <si>
+    <t>Short Spear</t>
+  </si>
+  <si>
+    <t>A short spear.</t>
+  </si>
+  <si>
+    <t>Lance</t>
+  </si>
+  <si>
+    <t>A normal lance.</t>
+  </si>
+  <si>
+    <t>Demon Lance</t>
+  </si>
+  <si>
+    <t>A spear used by monsters. Can hit vital points with ease.</t>
+  </si>
+  <si>
+    <t>Swift Spear</t>
+  </si>
+  <si>
+    <t>Power Lance</t>
+  </si>
+  <si>
+    <t>A lance more powerful than your average lance.</t>
+  </si>
+  <si>
+    <t>Killer Lance</t>
+  </si>
+  <si>
+    <t>A lance with a high critical rate but low hit rate.</t>
+  </si>
+  <si>
+    <t>Blessed Spear</t>
+  </si>
+  <si>
+    <t>A spear blessed by the goddess. Restores HP every turn when equipped.</t>
+  </si>
+  <si>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t>Is this sufficent?</t>
+  </si>
+  <si>
+    <t>Heroes may exchange their merits
+for these sacred relics.</t>
+  </si>
+  <si>
+    <t>Please use these are you see fit.
+Is there anything else you need?</t>
+  </si>
+  <si>
+    <t>What do you desire?</t>
+  </si>
+  <si>
+    <t>Torn leaves that taste bitter when licked. Cures Charm and Arousal.</t>
+  </si>
+  <si>
+    <t>A mantle belonging to an Elf. Grants Spd+5 when held.</t>
+  </si>
+  <si>
+    <t>Grants Mov+1 when held.</t>
+  </si>
+  <si>
+    <t>Grants Mov+3 when held.</t>
+  </si>
+  <si>
+    <t>Grants Mov+12 when held.</t>
+  </si>
+  <si>
+    <t>A gem that when held, increases stat increase odds when leveling up.</t>
+  </si>
+  <si>
+    <t>Use to recover 25 HP (May be used infintely).</t>
+  </si>
+  <si>
+    <t>When held, restores all HP every 10th turn.</t>
+  </si>
+  <si>
+    <t>Restoration Gem</t>
+  </si>
+  <si>
+    <t>A gem that allows an ally to act once more. Can only be used once.</t>
+  </si>
+  <si>
+    <t>When held, increases the odds of leveling up strength.</t>
+  </si>
+  <si>
+    <t>When held, increases the odds of leveling up speed.</t>
+  </si>
+  <si>
+    <t>When held, increases the odds of leveling up skill.</t>
+  </si>
+  <si>
+    <t>When held, increases the odds of leveling up magic.</t>
+  </si>
+  <si>
+    <t>Heavy clothing that when held, greatly increases HP growth.</t>
+  </si>
+  <si>
+    <t>Heavy clothing that when held, increases the odds of HP growth.</t>
+  </si>
+  <si>
+    <t>A doll that was given by a young boy. Strengthens your heart when held.</t>
+  </si>
+  <si>
+    <t>Heavy armour that greatly increases defence.</t>
+  </si>
+  <si>
+    <t>A small, metallic shield.</t>
+  </si>
+  <si>
+    <t>Enables the ability to class change when held.</t>
+  </si>
+  <si>
+    <t>Physic++</t>
+  </si>
+  <si>
+    <t>Restores 25 HP to any ally.</t>
+  </si>
+  <si>
+    <t>Physic</t>
+  </si>
+  <si>
+    <t>Restores 30 HP to any ally within two spaces.</t>
+  </si>
+  <si>
+    <t>Restores 60 HP to any ally within two spaces.</t>
+  </si>
+  <si>
+    <t>Physic+</t>
+  </si>
+  <si>
+    <t>A staff that restores 30 HP to an ally. Magic courses through it's roots.</t>
+  </si>
+  <si>
+    <t>Fortify</t>
+  </si>
+  <si>
+    <t>Fortify+</t>
+  </si>
+  <si>
+    <t>Fortify++</t>
+  </si>
+  <si>
+    <t>A stave that restores 8 HP to all allies.</t>
+  </si>
+  <si>
+    <t>A stave that restores 25 HP to all allies.</t>
+  </si>
+  <si>
+    <t>A stave that restores 60 HP to all allies.</t>
+  </si>
+  <si>
+    <t>A walking stick that replenishes HP equivilant to the user's Mag to allies within 6 spaces.</t>
+  </si>
+  <si>
+    <t>A walking stick that replenishes HP equivilant to the user's Mag*2 to allies within 6 spaces.</t>
+  </si>
+  <si>
+    <t>A stave that cures 'Brainwash'. Range 2.</t>
+  </si>
+  <si>
+    <t>A stave that cures 'Charm'. Range 2.</t>
+  </si>
+  <si>
+    <t>A stave that cures all negative states. Range 2.</t>
+  </si>
+  <si>
+    <t>Inflicts 'Paralysis' on enemies.</t>
+  </si>
+  <si>
+    <t>Temporarily powers up the strength of an adjacent ally.</t>
+  </si>
+  <si>
+    <t>Temporarily powers up the speed of an adjacent ally.</t>
+  </si>
+  <si>
+    <t>Use up one of it's pages to inflict a random curse.</t>
+  </si>
+  <si>
+    <t>All allies stop fighting and offer no resistance.</t>
+  </si>
+  <si>
+    <t>Inflicts a random negative status on the user when used.</t>
+  </si>
+  <si>
+    <t>An alchemist who makes medicine.</t>
+  </si>
+  <si>
+    <t>A support unit who strengthens nearby allies.</t>
+  </si>
+  <si>
+    <t>Boasts excellent strength and HP.</t>
+  </si>
+  <si>
+    <t>A unit who prefers to fight with their body, rarely using weapons and items.</t>
+  </si>
+  <si>
+    <t>Increases the Max HP of adjacent allies.</t>
+  </si>
+  <si>
+    <t>Increases the Skill of adjacent allies.</t>
+  </si>
+  <si>
+    <t>Increases the Speed of adjacent allies.</t>
+  </si>
+  <si>
+    <t>Increases the Attack of adjacent allies.</t>
+  </si>
+  <si>
+    <t>Increases the Luck of adjacent allies.</t>
+  </si>
+  <si>
+    <t>Increases the Magic of adjacent allies.</t>
+  </si>
+  <si>
+    <t>Increases all stats of adjacent allies.</t>
+  </si>
+  <si>
+    <t>Rally Speed</t>
+  </si>
+  <si>
+    <t>Rally Attack+</t>
+  </si>
+  <si>
+    <t>Rally Luck+</t>
+  </si>
+  <si>
+    <t>Rally Skill+</t>
+  </si>
+  <si>
+    <t>Rally Speed+</t>
+  </si>
+  <si>
+    <t>Rally Magic+</t>
+  </si>
+  <si>
+    <t>Rally All</t>
+  </si>
+  <si>
+    <t>Item that inflicts HP-3 when used.</t>
+  </si>
+  <si>
+    <t>Item that inflicts Str-1 when used.</t>
+  </si>
+  <si>
+    <t>Item that inflicts Mag-1 when used.</t>
+  </si>
+  <si>
+    <t>Item that inflicts Skl-1 when used.</t>
+  </si>
+  <si>
+    <t>Item that inflicts Spd-1 when used.</t>
+  </si>
+  <si>
+    <t>Item that inflicts Wil-1 when used.</t>
+  </si>
+  <si>
+    <t>Item that inflicts Luk-1 when used.</t>
+  </si>
+  <si>
+    <t>Force Fetish: Breasts</t>
+  </si>
+  <si>
+    <t>Force Fetish: Feet</t>
+  </si>
+  <si>
+    <t>Force Fetish: Kiss</t>
+  </si>
+  <si>
+    <t>Force Fetish: Fellatio</t>
+  </si>
+  <si>
+    <t>Force Fetish: Handjob</t>
+  </si>
+  <si>
+    <t>Force Fetish: Sex</t>
+  </si>
+  <si>
+    <t>Force Fetish: Charm</t>
+  </si>
+  <si>
+    <t>Resist Fetish: Breasts</t>
+  </si>
+  <si>
+    <t>Resist Fetish: Feet</t>
+  </si>
+  <si>
+    <t>Resist Fetish: Kiss</t>
+  </si>
+  <si>
+    <t>Resist Fetish: Fellatio</t>
+  </si>
+  <si>
+    <t>Resist Fetish: Handjob</t>
+  </si>
+  <si>
+    <t>Resist Fetish: Sex</t>
+  </si>
+  <si>
+    <t>Resist Fetish: Charm</t>
+  </si>
+  <si>
+    <t>A ring that grants Str+2, but inflicts Mag-5.</t>
+  </si>
+  <si>
+    <t>A ring that grants +1 to all stats.</t>
+  </si>
+  <si>
+    <t>A ring that grants Spd/Luck+3, but inflicts Wil-5.</t>
+  </si>
+  <si>
+    <t>Gives a status when held.</t>
+  </si>
+  <si>
+    <t>When held grants Luk+20, and increases luck growth.</t>
+  </si>
+  <si>
+    <t>Grants HP+30, Str+5, Mov+1, but inflicts 10 damage every turn.</t>
+  </si>
+  <si>
+    <t>Depending on the users Luk, may grant an additional action.</t>
+  </si>
+  <si>
+    <t>Negates 'Arousal'.</t>
+  </si>
+  <si>
+    <t>Brainwashes enemies and inflicts a Breast Fetish. Range 3.</t>
+  </si>
+  <si>
+    <t>Deals 30 damage to enemies and inflicts a Breast Fetish. Range 4.</t>
+  </si>
+  <si>
+    <t>Charms enemies and inflicts a Fellatio Fetish. Range 3.</t>
+  </si>
+  <si>
+    <t>Inflicts Arousal and Charm on enemies. Range 2.</t>
+  </si>
+  <si>
+    <t>Inflicts 3 enemies with the 'Mindless Masturbation' status. Range 4.</t>
+  </si>
+  <si>
+    <t>Uses a downpour of kisses to inflict 'Arousal' and 'Erection'. Range 5.</t>
+  </si>
+  <si>
+    <t>Uses a downpour of kisses to inflict 'Betrayal' on 5 enemies.</t>
+  </si>
+  <si>
+    <t>Inflicts 'Seduced' on enemies. Range 6.</t>
+  </si>
+  <si>
+    <t>Greatly increases the speed of nearby allies.</t>
+  </si>
+  <si>
+    <t>Greatly increases the strength of nearby allies.</t>
+  </si>
+  <si>
+    <t>Paizuri Onahole Temptation</t>
+  </si>
+  <si>
+    <t>Inflicts 'Breast Fetish' on 6 surrounding enemies.</t>
+  </si>
+  <si>
+    <t>Shrinks enemies down to the palm of the users hand. (Mini Status required).</t>
+  </si>
+  <si>
+    <t>Brainwashes enemies by trapping them in a dream. (Breast Fetish status Required).</t>
+  </si>
+  <si>
+    <t>Grants Mov+3 to an adjacent ally.</t>
+  </si>
+  <si>
+    <t>Revives all phantoms, even if they've been defeated.</t>
+  </si>
+  <si>
+    <t>Grants Wil+3. Cures the mental negative statuses on all allies. (Infinite use).</t>
+  </si>
+  <si>
+    <t>Panties that a succubus surrended over. It's permeated with her scent.</t>
+  </si>
+  <si>
+    <t>Gloves once worn by a succubus maid. They're silky to the touch. Just holding them makes you horny.</t>
+  </si>
+  <si>
+    <t>The undergarnments of a succubus. It doesn't cover much. Smelling it causes you to lose strength.</t>
+  </si>
+  <si>
+    <t>A bra used by the Breast Succubus Alice. Just holding it makes your reason melt.</t>
+  </si>
+  <si>
+    <t>A mushroom that restores 30 HP when used. May be used up to 5 times.</t>
+  </si>
+  <si>
+    <t>A mushroom capable of draining magic. Permanantly decreases foe's Mag by 1.</t>
+  </si>
+  <si>
+    <t>Poisons an adjacent foe.</t>
+  </si>
+  <si>
+    <t>Badly poisons an adjacent foe.</t>
+  </si>
+  <si>
+    <t>Temporarily decreases the Spd and Mov of one foe.</t>
+  </si>
+  <si>
+    <t>Temporarily prevents the movement of one foe.</t>
+  </si>
+  <si>
+    <t>Temporarily decreases the Mag of one foe.</t>
+  </si>
+  <si>
+    <t>Temporarily decreases the Def of one foe.</t>
+  </si>
+  <si>
+    <t>Temporarily decreases the Luk of one foe.</t>
+  </si>
+  <si>
+    <t>Unit speciallising in disrupting foe actions.</t>
+  </si>
+  <si>
+    <t>Brainwashes an adjacent foe.</t>
+  </si>
+  <si>
+    <t>Brainwashes a foe with the pleasure of their breasts. Range 1.</t>
+  </si>
+  <si>
+    <t>Brainwashes a foe within 5 spaces.</t>
+  </si>
+  <si>
+    <t>Instantly kills a foe with the 'Seduced' status. Range 1.</t>
+  </si>
+  <si>
+    <t>Grass that slows movement. Permanantly decreases foe's Spd by 3.</t>
+  </si>
+  <si>
+    <t>A magical apple filled with energy. Increases max HP by 10.</t>
+  </si>
+  <si>
+    <t>A magical apple filled with energy. Increases max HP by 20.</t>
+  </si>
+  <si>
+    <t>A fang from a beast slain ten years ago. Grants Str+2, Luk+1.</t>
   </si>
 </sst>
 </file>
@@ -7813,7 +8328,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7877,6 +8392,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7983,7 +8504,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="5" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
@@ -8081,6 +8602,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8464,13 +8986,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>2384</v>
+        <v>2345</v>
       </c>
       <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>2385</v>
+        <v>2346</v>
       </c>
       <c r="G1" s="26" t="s">
         <v>3</v>
@@ -8490,7 +9012,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>2386</v>
+        <v>2347</v>
       </c>
       <c r="E2" s="28"/>
       <c r="F2" s="28"/>
@@ -8510,7 +9032,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>2387</v>
+        <v>2348</v>
       </c>
       <c r="E3" s="28"/>
       <c r="F3" s="28"/>
@@ -8528,7 +9050,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>2388</v>
+        <v>2349</v>
       </c>
       <c r="E4" s="28"/>
       <c r="F4" s="28"/>
@@ -8548,7 +9070,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>2391</v>
+        <v>2352</v>
       </c>
       <c r="E5" s="28"/>
       <c r="F5" s="28"/>
@@ -8566,7 +9088,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>2132</v>
+        <v>2119</v>
       </c>
       <c r="E6" s="28"/>
       <c r="F6" s="28"/>
@@ -8584,7 +9106,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>2389</v>
+        <v>2350</v>
       </c>
       <c r="E7" s="28"/>
       <c r="F7" s="28"/>
@@ -8602,7 +9124,7 @@
         <v>22</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>2390</v>
+        <v>2351</v>
       </c>
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
@@ -8622,7 +9144,7 @@
         <v>24</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>2392</v>
+        <v>2353</v>
       </c>
       <c r="E9" s="28"/>
       <c r="F9" s="28"/>
@@ -8640,7 +9162,7 @@
         <v>27</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>2393</v>
+        <v>2354</v>
       </c>
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
@@ -8655,10 +9177,10 @@
       </c>
       <c r="B11" s="28"/>
       <c r="C11" s="28" t="s">
-        <v>2449</v>
+        <v>2409</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>2450</v>
+        <v>2410</v>
       </c>
       <c r="E11" s="28"/>
       <c r="F11" s="28"/>
@@ -8674,7 +9196,7 @@
         <v>29</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>2394</v>
+        <v>2355</v>
       </c>
       <c r="E12" s="28"/>
       <c r="F12" s="28"/>
@@ -8692,7 +9214,7 @@
         <v>32</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>2395</v>
+        <v>2356</v>
       </c>
       <c r="E13" s="28"/>
       <c r="F13" s="28"/>
@@ -8710,7 +9232,7 @@
         <v>34</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>2396</v>
+        <v>2357</v>
       </c>
       <c r="E14" s="28"/>
       <c r="F14" s="28"/>
@@ -8728,7 +9250,7 @@
         <v>36</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>2397</v>
+        <v>2358</v>
       </c>
       <c r="E15" s="28"/>
       <c r="F15" s="28"/>
@@ -8746,7 +9268,7 @@
         <v>38</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>2398</v>
+        <v>2359</v>
       </c>
       <c r="E16" s="28"/>
       <c r="F16" s="28"/>
@@ -8764,7 +9286,7 @@
         <v>40</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>2399</v>
+        <v>2360</v>
       </c>
       <c r="E17" s="28"/>
       <c r="F17" s="28"/>
@@ -8779,10 +9301,10 @@
       </c>
       <c r="B18" s="28"/>
       <c r="C18" s="28" t="s">
-        <v>2451</v>
+        <v>2411</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>2454</v>
+        <v>2414</v>
       </c>
       <c r="E18" s="28"/>
       <c r="F18" s="28"/>
@@ -8795,10 +9317,10 @@
       </c>
       <c r="B19" s="28"/>
       <c r="C19" s="28" t="s">
-        <v>2452</v>
+        <v>2412</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>2455</v>
+        <v>2415</v>
       </c>
       <c r="E19" s="28"/>
       <c r="F19" s="28"/>
@@ -8811,10 +9333,10 @@
       </c>
       <c r="B20" s="28"/>
       <c r="C20" s="28" t="s">
-        <v>2453</v>
+        <v>2413</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>2456</v>
+        <v>2416</v>
       </c>
       <c r="E20" s="28"/>
       <c r="F20" s="28"/>
@@ -8830,7 +9352,7 @@
         <v>42</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>2136</v>
+        <v>2123</v>
       </c>
       <c r="E21" s="28"/>
       <c r="F21" s="28"/>
@@ -8848,7 +9370,7 @@
         <v>44</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>2400</v>
+        <v>2361</v>
       </c>
       <c r="E22" s="28"/>
       <c r="F22" s="28"/>
@@ -8866,7 +9388,7 @@
         <v>46</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>2133</v>
+        <v>2120</v>
       </c>
       <c r="E23" s="28"/>
       <c r="F23" s="28"/>
@@ -8884,7 +9406,7 @@
         <v>48</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>2401</v>
+        <v>2362</v>
       </c>
       <c r="E24" s="28"/>
       <c r="F24" s="28"/>
@@ -8902,7 +9424,7 @@
         <v>49</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>2134</v>
+        <v>2121</v>
       </c>
       <c r="E25" s="28"/>
       <c r="F25" s="28"/>
@@ -8920,7 +9442,7 @@
         <v>51</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>2135</v>
+        <v>2122</v>
       </c>
       <c r="E26" s="28"/>
       <c r="F26" s="28"/>
@@ -8938,7 +9460,7 @@
         <v>53</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>2137</v>
+        <v>2124</v>
       </c>
       <c r="E27" s="28"/>
       <c r="F27" s="28"/>
@@ -8956,7 +9478,7 @@
         <v>55</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>2138</v>
+        <v>2125</v>
       </c>
       <c r="E28" s="28"/>
       <c r="F28" s="28"/>
@@ -8974,7 +9496,7 @@
         <v>57</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>2402</v>
+        <v>2363</v>
       </c>
       <c r="E29" s="28"/>
       <c r="F29" s="28"/>
@@ -8992,7 +9514,7 @@
         <v>59</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>2403</v>
+        <v>2364</v>
       </c>
       <c r="E30" s="28"/>
       <c r="F30" s="28"/>
@@ -9010,7 +9532,7 @@
         <v>61</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>2404</v>
+        <v>2365</v>
       </c>
       <c r="E31" s="28"/>
       <c r="F31" s="28"/>
@@ -9030,13 +9552,13 @@
         <v>65</v>
       </c>
       <c r="D32" s="28" t="s">
+        <v>2367</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>2304</v>
+      </c>
+      <c r="F32" s="28" t="s">
         <v>2407</v>
-      </c>
-      <c r="E32" s="28" t="s">
-        <v>2343</v>
-      </c>
-      <c r="F32" s="28" t="s">
-        <v>2447</v>
       </c>
       <c r="G32" s="28" t="s">
         <v>66</v>
@@ -9054,13 +9576,13 @@
         <v>67</v>
       </c>
       <c r="D33" s="28" t="s">
+        <v>2368</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>2305</v>
+      </c>
+      <c r="F33" s="28" t="s">
         <v>2408</v>
-      </c>
-      <c r="E33" s="28" t="s">
-        <v>2344</v>
-      </c>
-      <c r="F33" s="28" t="s">
-        <v>2448</v>
       </c>
       <c r="G33" s="34" t="s">
         <v>68</v>
@@ -9078,7 +9600,7 @@
         <v>69</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>2409</v>
+        <v>2369</v>
       </c>
       <c r="E34" s="28"/>
       <c r="F34" s="28"/>
@@ -9098,10 +9620,10 @@
         <v>71</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>2410</v>
+        <v>2370</v>
       </c>
       <c r="E35" s="28" t="s">
-        <v>2345</v>
+        <v>2306</v>
       </c>
       <c r="F35" s="28"/>
       <c r="G35" s="28" t="s">
@@ -9120,10 +9642,10 @@
         <v>73</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>2411</v>
+        <v>2371</v>
       </c>
       <c r="E36" s="28" t="s">
-        <v>2346</v>
+        <v>2307</v>
       </c>
       <c r="F36" s="28"/>
       <c r="G36" s="34" t="s">
@@ -9142,10 +9664,10 @@
         <v>75</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>2412</v>
+        <v>2372</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>2347</v>
+        <v>2308</v>
       </c>
       <c r="F37" s="28"/>
       <c r="G37" s="28" t="s">
@@ -9164,10 +9686,10 @@
         <v>77</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>2413</v>
+        <v>2373</v>
       </c>
       <c r="E38" s="28" t="s">
-        <v>2348</v>
+        <v>2309</v>
       </c>
       <c r="F38" s="28"/>
       <c r="G38" s="28" t="s">
@@ -9186,10 +9708,10 @@
         <v>79</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>2417</v>
+        <v>2377</v>
       </c>
       <c r="E39" s="28" t="s">
-        <v>2349</v>
+        <v>2310</v>
       </c>
       <c r="F39" s="28"/>
       <c r="G39" s="28" t="s">
@@ -9208,10 +9730,10 @@
         <v>79</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>2417</v>
+        <v>2377</v>
       </c>
       <c r="E40" s="28" t="s">
-        <v>2350</v>
+        <v>2311</v>
       </c>
       <c r="F40" s="28"/>
       <c r="G40" s="28" t="s">
@@ -9230,10 +9752,10 @@
         <v>81</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>2415</v>
+        <v>2375</v>
       </c>
       <c r="E41" s="28" t="s">
-        <v>2351</v>
+        <v>2312</v>
       </c>
       <c r="F41" s="28"/>
       <c r="G41" s="28" t="s">
@@ -9252,10 +9774,10 @@
         <v>83</v>
       </c>
       <c r="D42" s="28" t="s">
-        <v>2414</v>
+        <v>2374</v>
       </c>
       <c r="E42" s="28" t="s">
-        <v>2352</v>
+        <v>2313</v>
       </c>
       <c r="F42" s="28"/>
       <c r="G42" s="28" t="s">
@@ -9274,10 +9796,10 @@
         <v>85</v>
       </c>
       <c r="D43" s="28" t="s">
-        <v>2416</v>
+        <v>2376</v>
       </c>
       <c r="E43" s="28" t="s">
-        <v>2353</v>
+        <v>2314</v>
       </c>
       <c r="F43" s="28"/>
       <c r="G43" s="28" t="s">
@@ -9296,10 +9818,10 @@
         <v>87</v>
       </c>
       <c r="D44" s="28" t="s">
-        <v>2406</v>
+        <v>2366</v>
       </c>
       <c r="E44" s="28" t="s">
-        <v>2354</v>
+        <v>2315</v>
       </c>
       <c r="F44" s="28"/>
       <c r="G44" s="28" t="s">
@@ -9318,10 +9840,10 @@
         <v>89</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>2418</v>
+        <v>2378</v>
       </c>
       <c r="E45" s="28" t="s">
-        <v>2355</v>
+        <v>2316</v>
       </c>
       <c r="F45" s="28"/>
       <c r="G45" s="41" t="s">
@@ -9340,10 +9862,10 @@
         <v>91</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>2419</v>
+        <v>2379</v>
       </c>
       <c r="E46" s="28" t="s">
-        <v>2356</v>
+        <v>2317</v>
       </c>
       <c r="F46" s="28"/>
       <c r="G46" s="28" t="s">
@@ -9362,10 +9884,10 @@
         <v>93</v>
       </c>
       <c r="D47" s="28" t="s">
-        <v>2420</v>
+        <v>2380</v>
       </c>
       <c r="E47" s="28" t="s">
-        <v>2357</v>
+        <v>2318</v>
       </c>
       <c r="F47" s="28"/>
       <c r="G47" s="28" t="s">
@@ -9384,10 +9906,10 @@
         <v>95</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>2435</v>
+        <v>2395</v>
       </c>
       <c r="E48" s="28" t="s">
-        <v>2358</v>
+        <v>2319</v>
       </c>
       <c r="F48" s="28"/>
       <c r="G48" s="28" t="s">
@@ -9406,10 +9928,10 @@
         <v>97</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>2436</v>
+        <v>2396</v>
       </c>
       <c r="E49" s="28" t="s">
-        <v>2359</v>
+        <v>2320</v>
       </c>
       <c r="F49" s="28"/>
       <c r="G49" s="28" t="s">
@@ -9428,10 +9950,10 @@
         <v>99</v>
       </c>
       <c r="D50" s="28" t="s">
-        <v>2437</v>
+        <v>2397</v>
       </c>
       <c r="E50" s="28" t="s">
-        <v>2360</v>
+        <v>2321</v>
       </c>
       <c r="F50" s="28"/>
       <c r="G50" s="28" t="s">
@@ -9450,10 +9972,10 @@
         <v>101</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>2438</v>
+        <v>2398</v>
       </c>
       <c r="E51" s="28" t="s">
-        <v>2361</v>
+        <v>2322</v>
       </c>
       <c r="F51" s="28"/>
       <c r="G51" s="28" t="s">
@@ -9472,10 +9994,10 @@
         <v>103</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>2444</v>
+        <v>2404</v>
       </c>
       <c r="E52" s="28" t="s">
-        <v>2362</v>
+        <v>2323</v>
       </c>
       <c r="F52" s="28"/>
       <c r="G52" s="28" t="s">
@@ -9494,10 +10016,10 @@
         <v>105</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>2434</v>
+        <v>2394</v>
       </c>
       <c r="E53" s="28" t="s">
-        <v>2363</v>
+        <v>2324</v>
       </c>
       <c r="F53" s="28"/>
       <c r="G53" s="28" t="s">
@@ -9516,10 +10038,10 @@
         <v>108</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>2439</v>
+        <v>2399</v>
       </c>
       <c r="E54" s="28" t="s">
-        <v>2364</v>
+        <v>2325</v>
       </c>
       <c r="F54" s="28"/>
       <c r="G54" s="28" t="s">
@@ -9538,10 +10060,10 @@
         <v>111</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>2440</v>
+        <v>2400</v>
       </c>
       <c r="E55" s="28" t="s">
-        <v>2008</v>
+        <v>2002</v>
       </c>
       <c r="F55" s="28"/>
       <c r="G55" s="28" t="s">
@@ -9560,10 +10082,10 @@
         <v>111</v>
       </c>
       <c r="D56" s="28" t="s">
-        <v>2440</v>
+        <v>2400</v>
       </c>
       <c r="E56" s="28" t="s">
-        <v>2365</v>
+        <v>2326</v>
       </c>
       <c r="F56" s="28"/>
       <c r="G56" s="28" t="s">
@@ -9582,10 +10104,10 @@
         <v>113</v>
       </c>
       <c r="D57" s="28" t="s">
-        <v>2441</v>
+        <v>2401</v>
       </c>
       <c r="E57" s="28" t="s">
-        <v>2366</v>
+        <v>2327</v>
       </c>
       <c r="F57" s="28"/>
       <c r="G57" s="28" t="s">
@@ -9604,10 +10126,10 @@
         <v>115</v>
       </c>
       <c r="D58" s="28" t="s">
-        <v>2442</v>
+        <v>2402</v>
       </c>
       <c r="E58" s="28" t="s">
-        <v>2367</v>
+        <v>2328</v>
       </c>
       <c r="F58" s="28"/>
       <c r="G58" s="28" t="s">
@@ -9626,10 +10148,10 @@
         <v>117</v>
       </c>
       <c r="D59" s="28" t="s">
-        <v>2443</v>
+        <v>2403</v>
       </c>
       <c r="E59" s="28" t="s">
-        <v>2368</v>
+        <v>2329</v>
       </c>
       <c r="F59" s="28"/>
       <c r="G59" s="28" t="s">
@@ -9648,10 +10170,10 @@
         <v>120</v>
       </c>
       <c r="D60" s="28" t="s">
-        <v>2426</v>
+        <v>2386</v>
       </c>
       <c r="E60" s="28" t="s">
-        <v>2369</v>
+        <v>2330</v>
       </c>
       <c r="F60" s="28"/>
       <c r="G60" s="28" t="s">
@@ -9661,7 +10183,7 @@
     </row>
     <row r="61" spans="1:8" ht="15">
       <c r="A61" s="28" t="s">
-        <v>2009</v>
+        <v>2003</v>
       </c>
       <c r="B61" s="28" t="s">
         <v>119</v>
@@ -9670,10 +10192,10 @@
         <v>122</v>
       </c>
       <c r="D61" s="28" t="s">
-        <v>2432</v>
+        <v>2392</v>
       </c>
       <c r="E61" s="28" t="s">
-        <v>2010</v>
+        <v>2004</v>
       </c>
       <c r="F61" s="28"/>
       <c r="G61" s="28" t="s">
@@ -9692,10 +10214,10 @@
         <v>122</v>
       </c>
       <c r="D62" s="28" t="s">
-        <v>2432</v>
+        <v>2392</v>
       </c>
       <c r="E62" s="28" t="s">
-        <v>2370</v>
+        <v>2331</v>
       </c>
       <c r="F62" s="28"/>
       <c r="G62" s="28" t="s">
@@ -9714,10 +10236,10 @@
         <v>124</v>
       </c>
       <c r="D63" s="28" t="s">
-        <v>2433</v>
+        <v>2393</v>
       </c>
       <c r="E63" s="28" t="s">
-        <v>2371</v>
+        <v>2332</v>
       </c>
       <c r="F63" s="28"/>
       <c r="G63" s="28" t="s">
@@ -9736,10 +10258,10 @@
         <v>126</v>
       </c>
       <c r="D64" s="28" t="s">
-        <v>2431</v>
+        <v>2391</v>
       </c>
       <c r="E64" s="28" t="s">
-        <v>2372</v>
+        <v>2333</v>
       </c>
       <c r="F64" s="28"/>
       <c r="G64" s="28" t="s">
@@ -9759,7 +10281,7 @@
       </c>
       <c r="D65" s="28"/>
       <c r="E65" s="28" t="s">
-        <v>2373</v>
+        <v>2334</v>
       </c>
       <c r="F65" s="28"/>
       <c r="G65" s="28" t="s">
@@ -9772,16 +10294,16 @@
         <v>63</v>
       </c>
       <c r="B66" s="28" t="s">
-        <v>2011</v>
+        <v>2005</v>
       </c>
       <c r="C66" s="28" t="s">
         <v>77</v>
       </c>
       <c r="D66" s="28" t="s">
-        <v>2413</v>
+        <v>2373</v>
       </c>
       <c r="E66" s="28" t="s">
-        <v>2374</v>
+        <v>2335</v>
       </c>
       <c r="F66" s="28"/>
       <c r="G66" s="28" t="s">
@@ -9800,10 +10322,10 @@
         <v>130</v>
       </c>
       <c r="D67" s="28" t="s">
-        <v>2427</v>
+        <v>2387</v>
       </c>
       <c r="E67" s="28" t="s">
-        <v>2375</v>
+        <v>2336</v>
       </c>
       <c r="F67" s="28"/>
       <c r="G67" s="28" t="s">
@@ -9822,10 +10344,10 @@
         <v>133</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>2428</v>
+        <v>2388</v>
       </c>
       <c r="E68" s="28" t="s">
-        <v>2376</v>
+        <v>2337</v>
       </c>
       <c r="F68" s="28"/>
       <c r="G68" s="28" t="s">
@@ -9844,10 +10366,10 @@
         <v>135</v>
       </c>
       <c r="D69" s="28" t="s">
-        <v>2429</v>
+        <v>2389</v>
       </c>
       <c r="E69" s="28" t="s">
-        <v>2376</v>
+        <v>2337</v>
       </c>
       <c r="F69" s="28"/>
       <c r="G69" s="28" t="s">
@@ -9866,10 +10388,10 @@
         <v>137</v>
       </c>
       <c r="D70" s="28" t="s">
-        <v>2430</v>
+        <v>2390</v>
       </c>
       <c r="E70" s="28" t="s">
-        <v>2377</v>
+        <v>2338</v>
       </c>
       <c r="F70" s="28"/>
       <c r="G70" s="28" t="s">
@@ -9888,10 +10410,10 @@
         <v>139</v>
       </c>
       <c r="D71" s="28" t="s">
-        <v>2424</v>
+        <v>2384</v>
       </c>
       <c r="E71" s="28" t="s">
-        <v>2378</v>
+        <v>2339</v>
       </c>
       <c r="F71" s="28"/>
       <c r="G71" s="28" t="s">
@@ -9910,10 +10432,10 @@
         <v>141</v>
       </c>
       <c r="D72" s="28" t="s">
-        <v>2425</v>
+        <v>2385</v>
       </c>
       <c r="E72" s="28" t="s">
-        <v>2379</v>
+        <v>2340</v>
       </c>
       <c r="F72" s="28"/>
       <c r="G72" s="28" t="s">
@@ -9932,10 +10454,10 @@
         <v>143</v>
       </c>
       <c r="D73" s="28" t="s">
-        <v>2422</v>
+        <v>2382</v>
       </c>
       <c r="E73" s="28" t="s">
-        <v>2380</v>
+        <v>2341</v>
       </c>
       <c r="F73" s="28"/>
       <c r="G73" s="28" t="s">
@@ -9954,7 +10476,7 @@
         <v>146</v>
       </c>
       <c r="D74" s="28" t="s">
-        <v>2423</v>
+        <v>2383</v>
       </c>
       <c r="E74" s="28"/>
       <c r="F74" s="28"/>
@@ -9974,10 +10496,10 @@
         <v>148</v>
       </c>
       <c r="D75" s="28" t="s">
-        <v>2421</v>
+        <v>2381</v>
       </c>
       <c r="E75" s="28" t="s">
-        <v>2381</v>
+        <v>2342</v>
       </c>
       <c r="F75" s="28"/>
       <c r="G75" s="28" t="s">
@@ -9996,10 +10518,10 @@
         <v>151</v>
       </c>
       <c r="D76" s="28" t="s">
-        <v>2445</v>
+        <v>2405</v>
       </c>
       <c r="E76" s="28" t="s">
-        <v>2382</v>
+        <v>2343</v>
       </c>
       <c r="F76" s="28"/>
       <c r="G76" s="28" t="s">
@@ -10018,10 +10540,10 @@
         <v>153</v>
       </c>
       <c r="D77" s="28" t="s">
-        <v>2446</v>
+        <v>2406</v>
       </c>
       <c r="E77" s="28" t="s">
-        <v>2383</v>
+        <v>2344</v>
       </c>
       <c r="F77" s="28"/>
       <c r="G77" s="28" t="s">
@@ -11431,13 +11953,13 @@
         <v>1628</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>2014</v>
+        <v>2008</v>
       </c>
       <c r="C1" s="39" t="s">
         <v>1629</v>
       </c>
       <c r="D1" s="39" t="s">
-        <v>2325</v>
+        <v>2286</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
@@ -11447,7 +11969,7 @@
         <v>1630</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>2326</v>
+        <v>2287</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>1632</v>
@@ -11464,10 +11986,10 @@
         <v>1634</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>2327</v>
+        <v>2288</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>2342</v>
+        <v>2303</v>
       </c>
       <c r="E3" t="s">
         <v>1635</v>
@@ -11481,10 +12003,10 @@
         <v>1637</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>2328</v>
+        <v>2289</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>2342</v>
+        <v>2303</v>
       </c>
       <c r="E4" t="s">
         <v>1638</v>
@@ -11498,10 +12020,10 @@
         <v>1639</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>2329</v>
+        <v>2290</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>2342</v>
+        <v>2303</v>
       </c>
       <c r="E5" t="s">
         <v>1640</v>
@@ -11515,10 +12037,10 @@
         <v>1641</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>2330</v>
+        <v>2291</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>2342</v>
+        <v>2303</v>
       </c>
       <c r="E6" t="s">
         <v>1642</v>
@@ -11532,7 +12054,7 @@
         <v>1643</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>2337</v>
+        <v>2298</v>
       </c>
       <c r="C7" s="28" t="s">
         <v>1645</v>
@@ -11549,7 +12071,7 @@
         <v>1647</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>2338</v>
+        <v>2299</v>
       </c>
       <c r="C8" s="28" t="s">
         <v>1649</v>
@@ -11566,10 +12088,10 @@
         <v>1651</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>2331</v>
+        <v>2292</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>2342</v>
+        <v>2303</v>
       </c>
       <c r="E9" t="s">
         <v>1652</v>
@@ -11583,10 +12105,10 @@
         <v>1653</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>2332</v>
+        <v>2293</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>2342</v>
+        <v>2303</v>
       </c>
       <c r="E10" t="s">
         <v>1654</v>
@@ -11600,10 +12122,10 @@
         <v>1655</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>2333</v>
+        <v>2294</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>2342</v>
+        <v>2303</v>
       </c>
       <c r="E11" t="s">
         <v>1656</v>
@@ -11617,7 +12139,7 @@
         <v>1657</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>2339</v>
+        <v>2300</v>
       </c>
       <c r="C12" s="28" t="s">
         <v>1659</v>
@@ -11634,7 +12156,7 @@
         <v>1661</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>2340</v>
+        <v>2301</v>
       </c>
       <c r="C13" s="28" t="s">
         <v>1663</v>
@@ -11651,7 +12173,7 @@
         <v>1665</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>2341</v>
+        <v>2302</v>
       </c>
       <c r="C14" s="28" t="s">
         <v>1667</v>
@@ -11668,7 +12190,7 @@
         <v>1669</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>2334</v>
+        <v>2295</v>
       </c>
       <c r="C15" s="28" t="s">
         <v>1671</v>
@@ -11685,10 +12207,10 @@
         <v>1673</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>2335</v>
+        <v>2296</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>2342</v>
+        <v>2303</v>
       </c>
       <c r="E16" t="s">
         <v>1674</v>
@@ -11702,10 +12224,10 @@
         <v>1675</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>2336</v>
+        <v>2297</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>2342</v>
+        <v>2303</v>
       </c>
       <c r="E17" t="s">
         <v>1676</v>
@@ -11753,8 +12275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.15"/>
@@ -11770,37 +12292,37 @@
         <v>1677</v>
       </c>
       <c r="B1" s="45" t="s">
-        <v>2519</v>
+        <v>2479</v>
       </c>
       <c r="C1" s="45"/>
       <c r="D1" s="45"/>
     </row>
     <row r="2" spans="1:4" ht="15">
       <c r="A2" s="45" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>2520</v>
+        <v>2480</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="45"/>
     </row>
     <row r="3" spans="1:4" ht="15">
       <c r="A3" s="45" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>2521</v>
+        <v>2481</v>
       </c>
       <c r="C3" s="45"/>
       <c r="D3" s="45"/>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1">
       <c r="A4" s="45" t="s">
-        <v>1683</v>
+        <v>1680</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>2522</v>
+        <v>2482</v>
       </c>
       <c r="C4" s="45"/>
       <c r="D4" s="45"/>
@@ -11810,95 +12332,95 @@
         <v>1085</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>1685</v>
+        <v>1681</v>
       </c>
       <c r="C5" s="45"/>
       <c r="D5" s="45"/>
     </row>
     <row r="6" spans="1:4" ht="33" customHeight="1">
       <c r="A6" s="48" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>2523</v>
+        <v>2483</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15">
       <c r="A7" s="45"/>
       <c r="B7" s="45" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>2524</v>
+        <v>2484</v>
       </c>
       <c r="D7" s="45" t="s">
-        <v>1690</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="32.15" customHeight="1">
       <c r="A8" s="45"/>
       <c r="B8" s="48" t="s">
-        <v>1691</v>
+        <v>1687</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>2525</v>
+        <v>2485</v>
       </c>
       <c r="D8" s="49" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15">
       <c r="A9" s="45"/>
       <c r="B9" s="45" t="s">
-        <v>1693</v>
+        <v>1689</v>
       </c>
       <c r="C9" s="45" t="s">
-        <v>2526</v>
+        <v>2486</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>1694</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.899999999999999" customHeight="1">
       <c r="A10" s="45"/>
       <c r="B10" s="45" t="s">
-        <v>1695</v>
+        <v>1691</v>
       </c>
       <c r="C10" s="45" t="s">
-        <v>2527</v>
+        <v>2487</v>
       </c>
       <c r="D10" s="45" t="s">
-        <v>1696</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15">
       <c r="A11" s="45"/>
       <c r="B11" s="45" t="s">
-        <v>1697</v>
+        <v>1693</v>
       </c>
       <c r="C11" s="45" t="s">
-        <v>2537</v>
+        <v>2497</v>
       </c>
       <c r="D11" s="45" t="s">
-        <v>1698</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="29.15">
       <c r="A12" s="45"/>
       <c r="B12" s="48" t="s">
-        <v>1699</v>
+        <v>1695</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>2529</v>
+        <v>2489</v>
       </c>
       <c r="D12" s="49" t="s">
-        <v>1700</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15">
@@ -11906,143 +12428,143 @@
       <c r="B13" s="45"/>
       <c r="C13" s="45"/>
       <c r="D13" s="45" t="s">
-        <v>1701</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="29.15">
       <c r="A14" s="32" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
       <c r="B14" s="48" t="s">
-        <v>1703</v>
+        <v>1699</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>2535</v>
+        <v>2495</v>
       </c>
       <c r="D14" s="46" t="s">
-        <v>1704</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15">
       <c r="A15" s="45"/>
       <c r="B15" s="45" t="s">
-        <v>1705</v>
+        <v>1701</v>
       </c>
       <c r="C15" s="45" t="s">
-        <v>2536</v>
+        <v>2496</v>
       </c>
       <c r="D15" s="45" t="s">
-        <v>1706</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15">
       <c r="A16" s="45"/>
       <c r="B16" s="45" t="s">
-        <v>1707</v>
+        <v>1703</v>
       </c>
       <c r="C16" s="45" t="s">
-        <v>2528</v>
+        <v>2488</v>
       </c>
       <c r="D16" s="45" t="s">
-        <v>1708</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15">
       <c r="A17" s="45"/>
       <c r="B17" s="45" t="s">
-        <v>1709</v>
+        <v>1705</v>
       </c>
       <c r="C17" s="45" t="s">
-        <v>2538</v>
+        <v>2498</v>
       </c>
       <c r="D17" s="45" t="s">
-        <v>1710</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="29.15">
       <c r="A18" s="45"/>
       <c r="B18" s="48" t="s">
-        <v>1711</v>
+        <v>1707</v>
       </c>
       <c r="C18" s="48" t="s">
-        <v>2539</v>
+        <v>2499</v>
       </c>
       <c r="D18" s="49" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15">
       <c r="A19" s="45"/>
       <c r="B19" s="45" t="s">
-        <v>1712</v>
+        <v>1708</v>
       </c>
       <c r="C19" s="45" t="s">
-        <v>2540</v>
+        <v>2500</v>
       </c>
       <c r="D19" s="45" t="s">
-        <v>1696</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15">
       <c r="A20" s="45"/>
       <c r="B20" s="45" t="s">
-        <v>1707</v>
+        <v>1703</v>
       </c>
       <c r="C20" s="45" t="s">
-        <v>2528</v>
+        <v>2488</v>
       </c>
       <c r="D20" s="45" t="s">
-        <v>1708</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="29.15">
       <c r="A21" s="45"/>
       <c r="B21" s="48" t="s">
-        <v>1699</v>
+        <v>1695</v>
       </c>
       <c r="C21" s="48" t="s">
-        <v>2541</v>
+        <v>2501</v>
       </c>
       <c r="D21" s="49" t="s">
-        <v>1713</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15">
       <c r="A22" s="45"/>
       <c r="B22" s="45" t="s">
-        <v>1712</v>
+        <v>1708</v>
       </c>
       <c r="C22" s="45" t="s">
-        <v>2542</v>
+        <v>2502</v>
       </c>
       <c r="D22" s="45" t="s">
-        <v>1714</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15">
       <c r="A23" s="32" t="s">
-        <v>1715</v>
+        <v>1711</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>1707</v>
+        <v>1703</v>
       </c>
       <c r="C23" s="45" t="s">
-        <v>2528</v>
+        <v>2488</v>
       </c>
       <c r="D23" s="45" t="s">
-        <v>2530</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="33.75" customHeight="1">
       <c r="A24" s="45"/>
       <c r="B24" s="48" t="s">
-        <v>1716</v>
+        <v>1712</v>
       </c>
       <c r="C24" s="48" t="s">
-        <v>2539</v>
+        <v>2499</v>
       </c>
       <c r="D24" s="46" t="s">
-        <v>2531</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15">
@@ -12050,67 +12572,67 @@
       <c r="B25" s="45"/>
       <c r="C25" s="45"/>
       <c r="D25" s="45" t="s">
-        <v>1694</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15">
       <c r="A26" s="45"/>
       <c r="B26" s="45" t="s">
-        <v>2532</v>
+        <v>2492</v>
       </c>
       <c r="C26" s="45" t="s">
-        <v>2543</v>
+        <v>2503</v>
       </c>
       <c r="D26" s="45" t="s">
-        <v>1708</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="29.15">
       <c r="A27" s="45"/>
       <c r="B27" s="46" t="s">
-        <v>2533</v>
+        <v>2493</v>
       </c>
       <c r="C27" s="46" t="s">
-        <v>2544</v>
+        <v>2504</v>
       </c>
       <c r="D27" s="46" t="s">
-        <v>2534</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15">
       <c r="A28" s="45"/>
       <c r="B28" s="45" t="s">
-        <v>1717</v>
+        <v>1713</v>
       </c>
       <c r="C28" s="45" t="s">
-        <v>2545</v>
+        <v>2505</v>
       </c>
       <c r="D28" s="45" t="s">
-        <v>1718</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="29.15">
       <c r="A29" s="45"/>
       <c r="B29" s="48" t="s">
-        <v>1719</v>
+        <v>1715</v>
       </c>
       <c r="C29" s="48" t="s">
-        <v>2546</v>
+        <v>2506</v>
       </c>
       <c r="D29" s="46" t="s">
-        <v>1720</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15">
       <c r="A30" s="45"/>
       <c r="B30" s="45" t="s">
-        <v>1721</v>
+        <v>1717</v>
       </c>
       <c r="C30" s="45" t="s">
-        <v>2538</v>
+        <v>2498</v>
       </c>
       <c r="D30" s="45" t="s">
-        <v>1694</v>
+        <v>1690</v>
       </c>
     </row>
   </sheetData>
@@ -12123,92 +12645,105 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.15"/>
   <cols>
     <col min="1" max="1" width="21.0703125" customWidth="1"/>
     <col min="2" max="2" width="36.0703125" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="3" max="3" width="40.0703125" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4" ht="15">
       <c r="A1" t="s">
         <v>1677</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="45" t="s">
+        <v>2479</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15">
+      <c r="A2" t="s">
         <v>1678</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="B2" s="45" t="s">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15">
+      <c r="A3" t="s">
         <v>1679</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="45" t="s">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15">
+      <c r="A4" t="s">
         <v>1680</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>1681</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1682</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>1683</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1684</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="B4" s="45" t="s">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="10" t="s">
         <v>1085</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>1685</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="33" customHeight="1">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="60.9" customHeight="1">
       <c r="A6" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>2507</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2508</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" t="s">
         <v>1722</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="C8" t="s">
+        <v>2510</v>
+      </c>
+      <c r="D8" t="s">
         <v>1723</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>1688</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="B7" t="s">
+    </row>
+    <row r="9" spans="1:4" ht="37.5" customHeight="1">
+      <c r="B9" s="14" t="s">
         <v>1724</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>1725</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="B8" t="s">
-        <v>1726</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1727</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="37.5" customHeight="1">
-      <c r="B9" s="14" t="s">
-        <v>1728</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>2012</v>
+      <c r="C9" s="14" t="s">
+        <v>2509</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>2006</v>
       </c>
     </row>
   </sheetData>
@@ -12221,702 +12756,955 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B76"/>
+  <dimension ref="A1:C77"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.15"/>
   <cols>
     <col min="1" max="1" width="68" customWidth="1"/>
-    <col min="2" max="2" width="59" customWidth="1"/>
+    <col min="2" max="2" width="69.0703125" customWidth="1"/>
+    <col min="3" max="3" width="59" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" ht="15">
+      <c r="A1" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>2008</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15">
+      <c r="A2" s="45" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>2511</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15">
+      <c r="A3" s="45" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>2512</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15">
+      <c r="A4" s="45" t="s">
         <v>1729</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B4" s="45" t="s">
+        <v>2513</v>
+      </c>
+      <c r="C4" s="45" t="s">
         <v>1730</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="5" spans="1:3" ht="15">
+      <c r="A5" s="45" t="s">
         <v>1731</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B5" s="45" t="s">
+        <v>2514</v>
+      </c>
+      <c r="C5" s="45" t="s">
         <v>1732</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+    <row r="6" spans="1:3" ht="15">
+      <c r="A6" s="45" t="s">
         <v>1733</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B6" s="45" t="s">
+        <v>2515</v>
+      </c>
+      <c r="C6" s="45" t="s">
         <v>1734</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+    <row r="7" spans="1:3" ht="15">
+      <c r="A7" s="45" t="s">
         <v>1735</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B7" s="45" t="s">
+        <v>2516</v>
+      </c>
+      <c r="C7" s="45" t="s">
         <v>1736</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+    <row r="8" spans="1:3" ht="15">
+      <c r="A8" s="45" t="s">
         <v>1737</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B8" s="45" t="s">
+        <v>2517</v>
+      </c>
+      <c r="C8" s="45" t="s">
         <v>1738</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+    <row r="9" spans="1:3" ht="15">
+      <c r="A9" s="45" t="s">
         <v>1739</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B9" s="45" t="s">
+        <v>2518</v>
+      </c>
+      <c r="C9" s="45" t="s">
         <v>1740</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+    <row r="10" spans="1:3" ht="15">
+      <c r="A10" s="45" t="s">
         <v>1741</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B10" s="45" t="s">
+        <v>2519</v>
+      </c>
+      <c r="C10" s="45" t="s">
         <v>1742</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+    <row r="11" spans="1:3" ht="15">
+      <c r="A11" s="45" t="s">
         <v>1743</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B11" s="45" t="s">
+        <v>2520</v>
+      </c>
+      <c r="C11" s="45" t="s">
         <v>1744</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+    <row r="12" spans="1:3" ht="15">
+      <c r="A12" s="45" t="s">
         <v>1745</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B12" s="45" t="s">
+        <v>2521</v>
+      </c>
+      <c r="C12" s="45" t="s">
         <v>1746</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+    <row r="13" spans="1:3" ht="15">
+      <c r="A13" s="45" t="s">
         <v>1747</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B13" s="45" t="s">
+        <v>2522</v>
+      </c>
+      <c r="C13" s="45" t="s">
         <v>1748</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
+    <row r="14" spans="1:3" ht="15">
+      <c r="A14" s="45" t="s">
         <v>1749</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B14" s="45" t="s">
+        <v>2523</v>
+      </c>
+      <c r="C14" s="45" t="s">
         <v>1750</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
+    <row r="15" spans="1:3" ht="15">
+      <c r="A15" s="45" t="s">
         <v>1751</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B15" s="45" t="s">
+        <v>2524</v>
+      </c>
+      <c r="C15" s="45" t="s">
         <v>1752</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
+    <row r="16" spans="1:3" ht="15">
+      <c r="A16" s="45" t="s">
         <v>1753</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B16" s="45" t="s">
+        <v>2525</v>
+      </c>
+      <c r="C16" s="45" t="s">
         <v>1754</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
+    <row r="17" spans="1:3" ht="15">
+      <c r="A17" s="45" t="s">
         <v>1755</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B17" s="45" t="s">
+        <v>2526</v>
+      </c>
+      <c r="C17" s="45" t="s">
         <v>1756</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
+    <row r="18" spans="1:3" ht="15">
+      <c r="A18" s="45" t="s">
         <v>1757</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B18" s="45" t="s">
+        <v>2527</v>
+      </c>
+      <c r="C18" s="45" t="s">
         <v>1758</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
+    <row r="19" spans="1:3" ht="15">
+      <c r="A19" s="45" t="s">
         <v>1759</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B19" s="45" t="s">
+        <v>2528</v>
+      </c>
+      <c r="C19" s="45" t="s">
         <v>1760</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+    <row r="20" spans="1:3" ht="15">
+      <c r="A20" s="45" t="s">
         <v>1761</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B20" s="45" t="s">
+        <v>2529</v>
+      </c>
+      <c r="C20" s="45" t="s">
         <v>1762</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+    <row r="21" spans="1:3" ht="15">
+      <c r="A21" s="45" t="s">
         <v>1763</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B21" s="45" t="s">
+        <v>2530</v>
+      </c>
+      <c r="C21" s="45" t="s">
         <v>1764</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
+    <row r="22" spans="1:3" ht="15">
+      <c r="A22" s="45" t="s">
+        <v>200</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>2036</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15">
+      <c r="A23" s="45" t="s">
         <v>1765</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B23" s="45" t="s">
+        <v>2531</v>
+      </c>
+      <c r="C23" s="45" t="s">
         <v>1766</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
+    <row r="24" spans="1:3" ht="15">
+      <c r="A24" s="45" t="s">
+        <v>204</v>
+      </c>
+      <c r="B24" s="45" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C24" s="45" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15">
+      <c r="A25" s="45" t="s">
         <v>1767</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B25" s="45" t="s">
+        <v>2532</v>
+      </c>
+      <c r="C25" s="45" t="s">
         <v>1768</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>200</v>
-      </c>
-      <c r="B21" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
+    <row r="26" spans="1:3" ht="15">
+      <c r="A26" s="45" t="s">
         <v>1769</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B26" s="45" t="s">
+        <v>2533</v>
+      </c>
+      <c r="C26" s="45" t="s">
         <v>1770</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>204</v>
-      </c>
-      <c r="B23" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
+    <row r="27" spans="1:3" ht="15">
+      <c r="A27" s="45" t="s">
         <v>1771</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B27" s="45" t="s">
+        <v>2534</v>
+      </c>
+      <c r="C27" s="45" t="s">
         <v>1772</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
+    <row r="28" spans="1:3" ht="15">
+      <c r="A28" s="45" t="s">
         <v>1773</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B28" s="45" t="s">
+        <v>2535</v>
+      </c>
+      <c r="C28" s="45" t="s">
         <v>1774</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
+    <row r="29" spans="1:3" ht="15">
+      <c r="A29" s="45" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B29" s="45" t="s">
+        <v>2534</v>
+      </c>
+      <c r="C29" s="45" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15">
+      <c r="A30" s="45" t="s">
         <v>1775</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B30" s="45" t="s">
+        <v>2536</v>
+      </c>
+      <c r="C30" s="45" t="s">
         <v>1776</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
+    <row r="31" spans="1:3" ht="15">
+      <c r="A31" s="45" t="s">
         <v>1777</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B31" s="45" t="s">
+        <v>2537</v>
+      </c>
+      <c r="C31" s="45" t="s">
         <v>1778</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>1775</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1776</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
+    <row r="32" spans="1:3" ht="15">
+      <c r="A32" s="45" t="s">
         <v>1779</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B32" s="45" t="s">
+        <v>2538</v>
+      </c>
+      <c r="C32" s="45" t="s">
         <v>1780</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
+    <row r="33" spans="1:3" ht="15">
+      <c r="A33" s="45" t="s">
         <v>1781</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B33" s="45" t="s">
+        <v>2539</v>
+      </c>
+      <c r="C33" s="45" t="s">
         <v>1782</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
+    <row r="34" spans="1:3" ht="15">
+      <c r="A34" s="45" t="s">
         <v>1783</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B34" s="45" t="s">
+        <v>2540</v>
+      </c>
+      <c r="C34" s="45" t="s">
         <v>1784</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
+    <row r="35" spans="1:3" ht="15">
+      <c r="A35" s="45" t="s">
         <v>1785</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B35" s="45" t="s">
+        <v>2541</v>
+      </c>
+      <c r="C35" s="45" t="s">
         <v>1786</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
+    <row r="36" spans="1:3" ht="15">
+      <c r="A36" s="45" t="s">
         <v>1787</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B36" s="45" t="s">
+        <v>2542</v>
+      </c>
+      <c r="C36" s="32" t="s">
         <v>1788</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
+    <row r="37" spans="1:3" ht="15">
+      <c r="A37" s="45" t="s">
         <v>1789</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B37" s="45" t="s">
+        <v>2543</v>
+      </c>
+      <c r="C37" s="45" t="s">
         <v>1790</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
+    <row r="38" spans="1:3" ht="15">
+      <c r="A38" s="45" t="s">
         <v>1791</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B38" s="45" t="s">
+        <v>2544</v>
+      </c>
+      <c r="C38" s="45" t="s">
         <v>1792</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
+    <row r="39" spans="1:3" ht="15">
+      <c r="A39" s="45" t="s">
         <v>1793</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B39" s="45" t="s">
+        <v>2545</v>
+      </c>
+      <c r="C39" s="45" t="s">
         <v>1794</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
+    <row r="40" spans="1:3" ht="15">
+      <c r="A40" s="45" t="s">
         <v>1795</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B40" s="45" t="s">
+        <v>2546</v>
+      </c>
+      <c r="C40" s="45" t="s">
         <v>1796</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
+    <row r="41" spans="1:3" ht="15">
+      <c r="A41" s="45" t="s">
         <v>1797</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B41" s="45" t="s">
+        <v>2547</v>
+      </c>
+      <c r="C41" s="45" t="s">
         <v>1798</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
+    <row r="42" spans="1:3" ht="15">
+      <c r="A42" s="45" t="s">
         <v>1799</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B42" s="45" t="s">
+        <v>2548</v>
+      </c>
+      <c r="C42" s="45" t="s">
         <v>1800</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
+    <row r="43" spans="1:3" ht="15">
+      <c r="A43" s="45" t="s">
         <v>1801</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B43" s="45" t="s">
+        <v>2549</v>
+      </c>
+      <c r="C43" s="45" t="s">
         <v>1802</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
+    <row r="44" spans="1:3" ht="15">
+      <c r="A44" s="45" t="s">
         <v>1803</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B44" s="45" t="s">
+        <v>2550</v>
+      </c>
+      <c r="C44" s="45" t="s">
         <v>1804</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
+    <row r="45" spans="1:3" ht="15">
+      <c r="A45" s="45" t="s">
         <v>1805</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B45" s="45" t="s">
+        <v>2551</v>
+      </c>
+      <c r="C45" s="45" t="s">
         <v>1806</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
+    <row r="46" spans="1:3" ht="15">
+      <c r="A46" s="45" t="s">
         <v>1807</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B46" s="45" t="s">
+        <v>2552</v>
+      </c>
+      <c r="C46" s="45" t="s">
         <v>1808</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
+    <row r="47" spans="1:3" ht="15">
+      <c r="A47" s="45" t="s">
         <v>1809</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B47" s="45" t="s">
+        <v>2553</v>
+      </c>
+      <c r="C47" s="45" t="s">
         <v>1810</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
+    <row r="48" spans="1:3" ht="15">
+      <c r="A48" s="45" t="s">
         <v>1811</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B48" s="45" t="s">
+        <v>2554</v>
+      </c>
+      <c r="C48" s="45" t="s">
         <v>1812</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
+    <row r="49" spans="1:3" ht="15">
+      <c r="A49" s="45" t="s">
         <v>1813</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B49" s="45" t="s">
+        <v>2555</v>
+      </c>
+      <c r="C49" s="45" t="s">
         <v>1814</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
+    <row r="50" spans="1:3" ht="15">
+      <c r="A50" s="45" t="s">
         <v>1815</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B50" s="45" t="s">
+        <v>2556</v>
+      </c>
+      <c r="C50" s="45" t="s">
         <v>1816</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
+    <row r="51" spans="1:3" ht="15">
+      <c r="A51" s="45" t="s">
         <v>1817</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B51" s="45" t="s">
+        <v>2557</v>
+      </c>
+      <c r="C51" s="45" t="s">
         <v>1818</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
+    <row r="52" spans="1:3" ht="15">
+      <c r="A52" s="45" t="s">
         <v>1819</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B52" s="45" t="s">
+        <v>2558</v>
+      </c>
+      <c r="C52" s="45" t="s">
         <v>1820</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
+    <row r="53" spans="1:3" ht="15">
+      <c r="A53" s="45" t="s">
         <v>1821</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B53" s="45" t="s">
+        <v>2559</v>
+      </c>
+      <c r="C53" s="45" t="s">
         <v>1822</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
+    <row r="54" spans="1:3" ht="15">
+      <c r="A54" s="45" t="s">
         <v>1823</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B54" s="45" t="s">
+        <v>2560</v>
+      </c>
+      <c r="C54" s="45" t="s">
         <v>1824</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
+    <row r="55" spans="1:3" ht="15">
+      <c r="A55" s="45" t="s">
         <v>1825</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B55" s="45" t="s">
+        <v>2561</v>
+      </c>
+      <c r="C55" s="45" t="s">
         <v>1826</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
+    <row r="56" spans="1:3" ht="15">
+      <c r="A56" s="45" t="s">
         <v>1827</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B56" s="45" t="s">
+        <v>2562</v>
+      </c>
+      <c r="C56" s="45" t="s">
         <v>1828</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
+    <row r="57" spans="1:3" ht="15">
+      <c r="A57" s="45" t="s">
         <v>1829</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B57" s="45" t="s">
+        <v>2563</v>
+      </c>
+      <c r="C57" s="45" t="s">
         <v>1830</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
+    <row r="58" spans="1:3" ht="15">
+      <c r="A58" s="45" t="s">
         <v>1831</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B58" s="45" t="s">
+        <v>2564</v>
+      </c>
+      <c r="C58" s="45" t="s">
         <v>1832</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
+    <row r="59" spans="1:3" ht="15">
+      <c r="A59" s="45" t="s">
         <v>1833</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B59" s="45" t="s">
+        <v>2565</v>
+      </c>
+      <c r="C59" s="45" t="s">
         <v>1834</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
+    <row r="60" spans="1:3" ht="15">
+      <c r="A60" s="45" t="s">
         <v>1835</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B60" s="45" t="s">
+        <v>2566</v>
+      </c>
+      <c r="C60" s="45" t="s">
         <v>1836</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
+    <row r="61" spans="1:3" ht="15">
+      <c r="A61" s="45" t="s">
         <v>1837</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B61" s="45" t="s">
+        <v>2567</v>
+      </c>
+      <c r="C61" s="45" t="s">
         <v>1838</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
+    <row r="62" spans="1:3" ht="15">
+      <c r="A62" s="45" t="s">
         <v>1839</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B62" s="45" t="s">
+        <v>2568</v>
+      </c>
+      <c r="C62" s="45" t="s">
         <v>1840</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
+    <row r="63" spans="1:3" ht="15">
+      <c r="A63" s="45" t="s">
         <v>1841</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B63" s="45" t="s">
+        <v>2569</v>
+      </c>
+      <c r="C63" s="45" t="s">
         <v>1842</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
+    <row r="64" spans="1:3" ht="15">
+      <c r="A64" s="45" t="s">
         <v>1843</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B64" s="45" t="s">
+        <v>2570</v>
+      </c>
+      <c r="C64" s="45" t="s">
         <v>1844</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
+    <row r="65" spans="1:3" ht="15">
+      <c r="A65" s="45" t="s">
         <v>1845</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B65" s="45" t="s">
+        <v>2571</v>
+      </c>
+      <c r="C65" s="45" t="s">
         <v>1846</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
+    <row r="66" spans="1:3" ht="15">
+      <c r="A66" s="45" t="s">
         <v>1847</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B66" s="45" t="s">
+        <v>2572</v>
+      </c>
+      <c r="C66" s="45" t="s">
         <v>1848</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
+    <row r="67" spans="1:3" ht="15">
+      <c r="A67" s="45" t="s">
         <v>1849</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B67" s="45" t="s">
+        <v>2573</v>
+      </c>
+      <c r="C67" s="45" t="s">
         <v>1850</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
+    <row r="68" spans="1:3" ht="15">
+      <c r="A68" s="45" t="s">
         <v>1851</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B68" s="45" t="s">
+        <v>2574</v>
+      </c>
+      <c r="C68" s="45" t="s">
         <v>1852</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
+    <row r="69" spans="1:3" ht="15">
+      <c r="A69" s="45" t="s">
         <v>1853</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B69" s="45" t="s">
+        <v>2575</v>
+      </c>
+      <c r="C69" s="45" t="s">
         <v>1854</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
+    <row r="70" spans="1:3" ht="15">
+      <c r="A70" s="45" t="s">
         <v>1855</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B70" s="45" t="s">
+        <v>2576</v>
+      </c>
+      <c r="C70" s="45" t="s">
         <v>1856</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
+    <row r="71" spans="1:3" ht="15">
+      <c r="A71" s="45" t="s">
+        <v>1747</v>
+      </c>
+      <c r="B71" s="45" t="s">
+        <v>2522</v>
+      </c>
+      <c r="C71" s="45" t="s">
         <v>1857</v>
       </c>
-      <c r="B68" t="s">
+    </row>
+    <row r="72" spans="1:3" ht="15">
+      <c r="A72" s="45" t="s">
         <v>1858</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
+      <c r="B72" s="45" t="s">
+        <v>2577</v>
+      </c>
+      <c r="C72" s="45" t="s">
         <v>1859</v>
       </c>
-      <c r="B69" t="s">
+    </row>
+    <row r="73" spans="1:3" ht="15">
+      <c r="A73" s="45" t="s">
         <v>1860</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
-        <v>1751</v>
-      </c>
-      <c r="B70" t="s">
+      <c r="B73" s="45" t="s">
+        <v>2578</v>
+      </c>
+      <c r="C73" s="45" t="s">
         <v>1861</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
+    <row r="74" spans="1:3" ht="15">
+      <c r="A74" s="45" t="s">
         <v>1862</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B74" s="45" t="s">
+        <v>2579</v>
+      </c>
+      <c r="C74" s="45" t="s">
         <v>1863</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
+    <row r="75" spans="1:3" ht="15">
+      <c r="A75" s="45" t="s">
         <v>1864</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B75" s="45" t="s">
+        <v>2580</v>
+      </c>
+      <c r="C75" s="45" t="s">
         <v>1865</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
+    <row r="76" spans="1:3" ht="15">
+      <c r="A76" s="45" t="s">
         <v>1866</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B76" s="45" t="s">
+        <v>2581</v>
+      </c>
+      <c r="C76" s="45" t="s">
         <v>1867</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
+    <row r="77" spans="1:3" ht="15">
+      <c r="A77" s="45" t="s">
         <v>1868</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B77" s="45" t="s">
+        <v>2582</v>
+      </c>
+      <c r="C77" s="45" t="s">
         <v>1869</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
-        <v>1870</v>
-      </c>
-      <c r="B75" t="s">
-        <v>1871</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
-        <v>1872</v>
-      </c>
-      <c r="B76" t="s">
-        <v>1873</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.15"/>
   <cols>
     <col min="1" max="1" width="31.7109375" customWidth="1"/>
-    <col min="2" max="2" width="27.2109375" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="10" t="s">
         <v>1681</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B4" s="11" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="45" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2585</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>1873</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2584</v>
+      </c>
+      <c r="C6" t="s">
         <v>1874</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>1683</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="7" spans="1:3" ht="28.3">
+      <c r="A7" s="2" t="s">
         <v>1875</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="10" t="s">
-        <v>1685</v>
-      </c>
-      <c r="B4" s="11" t="s">
+      <c r="B7" s="2" t="s">
+        <v>2586</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>1876</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="45" customHeight="1">
-      <c r="A5" s="2" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
         <v>1877</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B8" t="s">
+        <v>2587</v>
+      </c>
+      <c r="C8" t="s">
         <v>1878</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>1879</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1880</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="28.3">
-      <c r="A7" s="2" t="s">
-        <v>1881</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>1882</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>1883</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1884</v>
       </c>
     </row>
   </sheetData>
@@ -12929,316 +13717,317 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15"/>
   <cols>
     <col min="1" max="1" width="45.7109375" customWidth="1"/>
-    <col min="2" max="2" width="45.0703125" customWidth="1"/>
+    <col min="2" max="2" width="55.92578125" customWidth="1"/>
+    <col min="3" max="3" width="45.0703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1">
+    <row r="1" spans="1:3" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" s="5" t="s">
+        <v>1879</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="5" t="s">
+        <v>1881</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="5"/>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="5" t="s">
+        <v>1879</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="5" t="s">
+        <v>1881</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="5" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="5"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
         <v>1885</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C9" t="s">
         <v>1886</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="5" t="s">
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
         <v>1887</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C11" t="s">
         <v>1888</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="5" t="s">
-        <v>1885</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>1886</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="5" t="s">
-        <v>1887</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>1888</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="5" t="s">
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
         <v>1889</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C13" t="s">
         <v>1890</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+    <row r="15" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A15" s="6" t="s">
         <v>1891</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C15" s="7" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="8" t="s">
         <v>1892</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
+      <c r="C16" s="8" t="s">
         <v>1893</v>
       </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="8"/>
+      <c r="C17" s="8"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="8" t="s">
         <v>1894</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
+      <c r="C18" s="8" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="8" t="s">
         <v>1895</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C19" s="8" t="s">
         <v>1896</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A15" s="6" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" s="8"/>
+      <c r="C20" s="8"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="8" t="s">
         <v>1897</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="C21" s="8" t="s">
         <v>1897</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="8" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" s="8" t="s">
         <v>1898</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="C22" s="8" t="s">
         <v>1899</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="8" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" s="8"/>
+      <c r="C23" s="8"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="8" t="s">
         <v>1900</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="C24" s="8" t="s">
         <v>1900</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="8" t="s">
+    <row r="25" spans="1:3">
+      <c r="A25" s="9" t="s">
         <v>1901</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="C25" s="9" t="s">
         <v>1902</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="8" t="s">
+    <row r="26" spans="1:3">
+      <c r="A26" s="7" t="s">
+        <v>1891</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="8" t="s">
         <v>1903</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>1903</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="8" t="s">
+      <c r="C27" s="8" t="s">
         <v>1904</v>
       </c>
-      <c r="B22" s="8" t="s">
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="8"/>
+      <c r="C28" s="8"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="8" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="8" t="s">
         <v>1905</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="8" t="s">
+      <c r="C30" s="8" t="s">
         <v>1906</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>1906</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="9" t="s">
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="8" t="s">
         <v>1907</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="C31" s="8" t="s">
         <v>1908</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="7" t="s">
+    <row r="32" spans="1:3">
+      <c r="A32" s="8"/>
+      <c r="C32" s="8"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="8" t="s">
         <v>1897</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="C33" s="8" t="s">
         <v>1897</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="8" t="s">
+    <row r="34" spans="1:3">
+      <c r="A34" s="8" t="s">
+        <v>1898</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>1909</v>
       </c>
-      <c r="B27" s="8" t="s">
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="8" t="s">
         <v>1910</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="8" t="s">
+      <c r="C35" s="8" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="8"/>
+      <c r="C36" s="8"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="8" t="s">
         <v>1900</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="C37" s="8" t="s">
         <v>1900</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="8" t="s">
-        <v>1911</v>
-      </c>
-      <c r="B30" s="8" t="s">
+    <row r="38" spans="1:3">
+      <c r="A38" s="8" t="s">
         <v>1912</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="8" t="s">
+      <c r="C38" s="8" t="s">
         <v>1913</v>
       </c>
-      <c r="B31" s="8" t="s">
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="9" t="s">
         <v>1914</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="8" t="s">
-        <v>1903</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>1903</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="8" t="s">
-        <v>1904</v>
-      </c>
-      <c r="B34" s="8" t="s">
+      <c r="C39" s="9" t="s">
         <v>1915</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="8" t="s">
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
         <v>1916</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="C41" t="s">
         <v>1917</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="8" t="s">
-        <v>1906</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>1906</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="8" t="s">
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
         <v>1918</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="C43" t="s">
         <v>1919</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="9" t="s">
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
         <v>1920</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="C45" t="s">
         <v>1921</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
+    <row r="47" spans="1:3" ht="42.45">
+      <c r="A47" s="5" t="s">
         <v>1922</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C47" s="5" t="s">
         <v>1923</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
+    <row r="48" spans="1:3">
+      <c r="A48" s="5"/>
+      <c r="C48" s="5"/>
+    </row>
+    <row r="49" spans="1:3" ht="28.3">
+      <c r="A49" s="5" t="s">
         <v>1924</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C49" s="5" t="s">
         <v>1925</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>1926</v>
-      </c>
-      <c r="B45" t="s">
-        <v>1927</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="42.45">
-      <c r="A47" s="5" t="s">
-        <v>1928</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>1929</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-    </row>
-    <row r="49" spans="1:2" ht="28.3">
-      <c r="A49" s="5" t="s">
-        <v>1930</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>1931</v>
       </c>
     </row>
   </sheetData>
@@ -13251,215 +14040,217 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15"/>
   <cols>
     <col min="1" max="1" width="16.92578125" customWidth="1"/>
-    <col min="2" max="2" width="30.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="30.5" customWidth="1"/>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
+    <col min="3" max="3" width="51.640625" customWidth="1"/>
+    <col min="4" max="4" width="30.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1">
+    <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
+        <v>1926</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="4" t="s">
+        <v>1928</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="4" t="s">
+        <v>1930</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="4" t="s">
         <v>1932</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>1933</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="4" t="s">
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
         <v>1934</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D6" s="2" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
         <v>1935</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>1936</v>
       </c>
-      <c r="B4" s="5" t="s">
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
         <v>1937</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="4" t="s">
+      <c r="D8" s="2" t="s">
         <v>1938</v>
       </c>
-      <c r="B5" s="2" t="s">
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
         <v>1939</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="D9" s="2" t="s">
         <v>1940</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>1437</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
         <v>1941</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>1942</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
         <v>1943</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>1944</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
         <v>1945</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>1946</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
         <v>1947</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>1948</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+    <row r="14" spans="1:5" ht="28.3">
+      <c r="A14" t="s">
         <v>1949</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>1950</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
         <v>1951</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>1952</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
         <v>1953</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>1954</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="28.3">
-      <c r="A14" t="s">
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
         <v>1955</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="D17" s="2" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
         <v>1956</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+      <c r="D18" s="2" t="s">
         <v>1957</v>
       </c>
-      <c r="B15" s="2" t="s">
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
         <v>1958</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
+      <c r="D19" s="2" t="s">
         <v>1959</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>1960</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>1961</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>1960</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>1962</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>1963</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>1964</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>1965</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>1240</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>1241</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="29.25" customHeight="1">
+    <row r="21" spans="1:5" ht="29.25" customHeight="1">
       <c r="A21" t="s">
+        <v>1960</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="28.3">
+      <c r="A22" t="s">
+        <v>1962</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>1963</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>1965</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>1966</v>
       </c>
-      <c r="B21" s="2" t="s">
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
         <v>1967</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="28.3">
-      <c r="A22" t="s">
+      <c r="D24" s="2" t="s">
         <v>1968</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>1969</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>1971</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>1972</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>1973</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>1974</v>
       </c>
     </row>
   </sheetData>
@@ -13490,7 +14281,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1975</v>
+        <v>1969</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -13498,110 +14289,110 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>1976</v>
+        <v>1970</v>
       </c>
       <c r="C2" t="s">
-        <v>1977</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>1978</v>
+        <v>1972</v>
       </c>
       <c r="C3" t="s">
-        <v>1979</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>1980</v>
+        <v>1974</v>
       </c>
       <c r="C4" t="s">
-        <v>1981</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>1982</v>
+        <v>1976</v>
       </c>
       <c r="B5" t="s">
-        <v>1983</v>
+        <v>1977</v>
       </c>
       <c r="C5" t="s">
-        <v>1984</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>1985</v>
+        <v>1979</v>
       </c>
       <c r="B6" t="s">
-        <v>1986</v>
+        <v>1980</v>
       </c>
       <c r="C6" t="s">
-        <v>1987</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>1988</v>
+        <v>1982</v>
       </c>
       <c r="B7" t="s">
-        <v>1989</v>
+        <v>1983</v>
       </c>
       <c r="C7" t="s">
-        <v>1990</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>1991</v>
+        <v>1985</v>
       </c>
       <c r="C8" t="s">
-        <v>1992</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>1993</v>
+        <v>1987</v>
       </c>
       <c r="C9" t="s">
-        <v>1994</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>1995</v>
+        <v>1989</v>
       </c>
       <c r="C10" t="s">
-        <v>1996</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>1997</v>
+        <v>1991</v>
       </c>
       <c r="C11" t="s">
-        <v>1998</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>1999</v>
+        <v>1993</v>
       </c>
       <c r="C12" t="s">
-        <v>2000</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>2001</v>
+        <v>1995</v>
       </c>
       <c r="B13" t="s">
-        <v>2002</v>
+        <v>1996</v>
       </c>
       <c r="C13" t="s">
-        <v>2003</v>
+        <v>1997</v>
       </c>
     </row>
   </sheetData>
@@ -13624,26 +14415,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>2004</v>
+        <v>1998</v>
       </c>
       <c r="B1" t="s">
-        <v>2005</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2006</v>
+        <v>2000</v>
       </c>
       <c r="B2" t="s">
-        <v>2006</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>2007</v>
+        <v>2001</v>
       </c>
       <c r="B3" t="s">
-        <v>2006</v>
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
@@ -13675,7 +14466,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>2014</v>
+        <v>2008</v>
       </c>
       <c r="C1" s="26" t="s">
         <v>3</v>
@@ -13686,7 +14477,7 @@
         <v>157</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>2015</v>
+        <v>2009</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>158</v>
@@ -13697,7 +14488,7 @@
         <v>159</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="C3" s="28" t="s">
         <v>160</v>
@@ -13708,7 +14499,7 @@
         <v>161</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>2017</v>
+        <v>2011</v>
       </c>
       <c r="C4" s="28" t="s">
         <v>162</v>
@@ -13719,7 +14510,7 @@
         <v>163</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="C5" s="28" t="s">
         <v>164</v>
@@ -13730,7 +14521,7 @@
         <v>165</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="C6" s="28" t="s">
         <v>166</v>
@@ -13741,7 +14532,7 @@
         <v>167</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="C7" s="28" t="s">
         <v>168</v>
@@ -13752,7 +14543,7 @@
         <v>169</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>2021</v>
+        <v>2015</v>
       </c>
       <c r="C8" s="28" t="s">
         <v>170</v>
@@ -13771,7 +14562,7 @@
   <dimension ref="A1:G143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.15"/>
@@ -13794,10 +14585,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="43" t="s">
-        <v>2014</v>
+        <v>2008</v>
       </c>
       <c r="E1" s="43" t="s">
-        <v>2467</v>
+        <v>2427</v>
       </c>
       <c r="F1" s="39" t="s">
         <v>1436</v>
@@ -13817,7 +14608,7 @@
         <v>909</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>2468</v>
+        <v>2428</v>
       </c>
       <c r="E2" s="28"/>
       <c r="F2" s="28" t="s">
@@ -13836,7 +14627,7 @@
         <v>1439</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>2469</v>
+        <v>2429</v>
       </c>
       <c r="E3" s="28"/>
       <c r="F3" s="28" t="s">
@@ -13855,7 +14646,7 @@
         <v>1441</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>2470</v>
+        <v>2430</v>
       </c>
       <c r="E4" s="28"/>
       <c r="F4" s="28" t="s">
@@ -13874,7 +14665,7 @@
         <v>1443</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>2471</v>
+        <v>2431</v>
       </c>
       <c r="E5" s="28"/>
       <c r="F5" s="28" t="s">
@@ -13893,7 +14684,7 @@
         <v>1445</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>2472</v>
+        <v>2432</v>
       </c>
       <c r="E6" s="28"/>
       <c r="F6" s="28" t="s">
@@ -13912,7 +14703,7 @@
         <v>1447</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>2473</v>
+        <v>2433</v>
       </c>
       <c r="E7" s="28"/>
       <c r="F7" s="28" t="s">
@@ -13931,7 +14722,7 @@
         <v>1449</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>2474</v>
+        <v>2434</v>
       </c>
       <c r="E8" s="28"/>
       <c r="F8" s="28" t="s">
@@ -13950,7 +14741,7 @@
         <v>1452</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>2475</v>
+        <v>2435</v>
       </c>
       <c r="E9" s="28"/>
       <c r="F9" s="28" t="s">
@@ -13969,7 +14760,7 @@
         <v>1454</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>2476</v>
+        <v>2436</v>
       </c>
       <c r="E10" s="28"/>
       <c r="F10" s="32" t="s">
@@ -13988,7 +14779,7 @@
         <v>1456</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>2477</v>
+        <v>2437</v>
       </c>
       <c r="E11" s="28"/>
       <c r="F11" s="32" t="s">
@@ -14007,7 +14798,7 @@
         <v>1458</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>2481</v>
+        <v>2441</v>
       </c>
       <c r="E12" s="28"/>
       <c r="F12" s="32" t="s">
@@ -14026,7 +14817,7 @@
         <v>1460</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>2478</v>
+        <v>2438</v>
       </c>
       <c r="E13" s="28"/>
       <c r="F13" s="32" t="s">
@@ -14045,7 +14836,7 @@
         <v>36</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>2397</v>
+        <v>2358</v>
       </c>
       <c r="E14" s="28"/>
       <c r="F14" s="28" t="s">
@@ -14064,7 +14855,7 @@
         <v>1462</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>2479</v>
+        <v>2439</v>
       </c>
       <c r="E15" s="28"/>
       <c r="F15" s="28" t="s">
@@ -14083,7 +14874,7 @@
         <v>1464</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>2480</v>
+        <v>2440</v>
       </c>
       <c r="E16" s="28"/>
       <c r="F16" s="28" t="s">
@@ -14102,7 +14893,7 @@
         <v>1466</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>2482</v>
+        <v>2442</v>
       </c>
       <c r="E17" s="28"/>
       <c r="F17" s="28" t="s">
@@ -14121,7 +14912,7 @@
         <v>1449</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>2474</v>
+        <v>2434</v>
       </c>
       <c r="E18" s="28"/>
       <c r="F18" s="28" t="s">
@@ -14140,7 +14931,7 @@
         <v>1468</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>2483</v>
+        <v>2443</v>
       </c>
       <c r="E19" s="28"/>
       <c r="F19" s="28" t="s">
@@ -14159,7 +14950,7 @@
         <v>1470</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>2484</v>
+        <v>2444</v>
       </c>
       <c r="E20" s="28"/>
       <c r="F20" s="28" t="s">
@@ -14178,7 +14969,7 @@
         <v>1472</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>2485</v>
+        <v>2445</v>
       </c>
       <c r="E21" s="28"/>
       <c r="F21" s="28" t="s">
@@ -14197,7 +14988,7 @@
         <v>1452</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>2475</v>
+        <v>2435</v>
       </c>
       <c r="E22" s="28"/>
       <c r="F22" s="28" t="s">
@@ -14216,7 +15007,7 @@
         <v>1474</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>2486</v>
+        <v>2446</v>
       </c>
       <c r="E23" s="28"/>
       <c r="F23" s="32" t="s">
@@ -14235,7 +15026,7 @@
         <v>1476</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>2487</v>
+        <v>2447</v>
       </c>
       <c r="E24" s="28"/>
       <c r="F24" s="32" t="s">
@@ -14254,7 +15045,7 @@
         <v>1478</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>2488</v>
+        <v>2448</v>
       </c>
       <c r="E25" s="28"/>
       <c r="F25" s="32" t="s">
@@ -14273,7 +15064,7 @@
         <v>1480</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>2489</v>
+        <v>2449</v>
       </c>
       <c r="E26" s="28"/>
       <c r="F26" s="32" t="s">
@@ -14292,7 +15083,7 @@
         <v>1482</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>2490</v>
+        <v>2450</v>
       </c>
       <c r="E27" s="28"/>
       <c r="F27" s="28" t="s">
@@ -14311,7 +15102,7 @@
         <v>1484</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>2491</v>
+        <v>2451</v>
       </c>
       <c r="E28" s="28"/>
       <c r="F28" s="28" t="s">
@@ -14330,7 +15121,7 @@
         <v>1464</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>2480</v>
+        <v>2440</v>
       </c>
       <c r="E29" s="28"/>
       <c r="F29" s="28" t="s">
@@ -14349,7 +15140,7 @@
         <v>1468</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>2483</v>
+        <v>2443</v>
       </c>
       <c r="E30" s="28"/>
       <c r="F30" s="28" t="s">
@@ -14368,7 +15159,7 @@
         <v>1470</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>2484</v>
+        <v>2444</v>
       </c>
       <c r="E31" s="28"/>
       <c r="F31" s="28" t="s">
@@ -14387,7 +15178,7 @@
         <v>1486</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>2492</v>
+        <v>2452</v>
       </c>
       <c r="E32" s="28"/>
       <c r="F32" s="28" t="s">
@@ -14406,7 +15197,7 @@
         <v>1449</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>2474</v>
+        <v>2434</v>
       </c>
       <c r="E33" s="28"/>
       <c r="F33" s="28" t="s">
@@ -14425,7 +15216,7 @@
         <v>1488</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>2493</v>
+        <v>2453</v>
       </c>
       <c r="E34" s="28"/>
       <c r="F34" s="28" t="s">
@@ -14441,14 +15232,14 @@
         <v>1437</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>2464</v>
+        <v>2424</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>2518</v>
+        <v>2478</v>
       </c>
       <c r="E35" s="28"/>
       <c r="F35" s="28" t="s">
-        <v>2465</v>
+        <v>2425</v>
       </c>
       <c r="G35" s="28"/>
     </row>
@@ -14463,7 +15254,7 @@
         <v>1445</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>2472</v>
+        <v>2432</v>
       </c>
       <c r="E36" s="28"/>
       <c r="F36" s="28" t="s">
@@ -14482,7 +15273,7 @@
         <v>1447</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>2473</v>
+        <v>2433</v>
       </c>
       <c r="E37" s="28"/>
       <c r="F37" s="28" t="s">
@@ -14501,7 +15292,7 @@
         <v>1490</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>2494</v>
+        <v>2454</v>
       </c>
       <c r="E38" s="28"/>
       <c r="F38" s="28" t="s">
@@ -14520,7 +15311,7 @@
         <v>1492</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>2503</v>
+        <v>2463</v>
       </c>
       <c r="E39" s="28"/>
       <c r="F39" s="28" t="s">
@@ -14539,7 +15330,7 @@
         <v>1494</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>2495</v>
+        <v>2455</v>
       </c>
       <c r="E40" s="28"/>
       <c r="F40" s="28" t="s">
@@ -14558,7 +15349,7 @@
         <v>1496</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>2496</v>
+        <v>2456</v>
       </c>
       <c r="E41" s="28"/>
       <c r="F41" s="28" t="s">
@@ -14577,7 +15368,7 @@
         <v>1498</v>
       </c>
       <c r="D42" s="28" t="s">
-        <v>2397</v>
+        <v>2358</v>
       </c>
       <c r="E42" s="28"/>
       <c r="F42" s="28" t="s">
@@ -14596,7 +15387,7 @@
         <v>87</v>
       </c>
       <c r="D43" s="28" t="s">
-        <v>2406</v>
+        <v>2366</v>
       </c>
       <c r="E43" s="28"/>
       <c r="F43" s="28" t="s">
@@ -14615,7 +15406,7 @@
         <v>1452</v>
       </c>
       <c r="D44" s="28" t="s">
-        <v>2475</v>
+        <v>2435</v>
       </c>
       <c r="E44" s="28"/>
       <c r="F44" s="28" t="s">
@@ -14634,7 +15425,7 @@
         <v>1499</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>2497</v>
+        <v>2457</v>
       </c>
       <c r="E45" s="28"/>
       <c r="F45" s="32" t="s">
@@ -14653,7 +15444,7 @@
         <v>1501</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>2498</v>
+        <v>2458</v>
       </c>
       <c r="E46" s="28"/>
       <c r="F46" s="32" t="s">
@@ -14672,7 +15463,7 @@
         <v>1503</v>
       </c>
       <c r="D47" s="28" t="s">
-        <v>2499</v>
+        <v>2459</v>
       </c>
       <c r="E47" s="28"/>
       <c r="F47" s="32" t="s">
@@ -14691,7 +15482,7 @@
         <v>1505</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>2500</v>
+        <v>2460</v>
       </c>
       <c r="E48" s="28"/>
       <c r="F48" s="32" t="s">
@@ -14710,7 +15501,7 @@
         <v>1507</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>2504</v>
+        <v>2464</v>
       </c>
       <c r="E49" s="28"/>
       <c r="F49" s="30" t="s">
@@ -14729,7 +15520,7 @@
         <v>1509</v>
       </c>
       <c r="D50" s="28" t="s">
-        <v>2505</v>
+        <v>2465</v>
       </c>
       <c r="E50" s="28"/>
       <c r="F50" s="30" t="s">
@@ -14748,7 +15539,7 @@
         <v>1492</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>2503</v>
+        <v>2463</v>
       </c>
       <c r="E51" s="28"/>
       <c r="F51" s="30" t="s">
@@ -14767,7 +15558,7 @@
         <v>1511</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>2502</v>
+        <v>2462</v>
       </c>
       <c r="E52" s="28"/>
       <c r="F52" s="30" t="s">
@@ -14786,7 +15577,7 @@
         <v>1513</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>2398</v>
+        <v>2359</v>
       </c>
       <c r="E53" s="28"/>
       <c r="F53" s="30" t="s">
@@ -14805,7 +15596,7 @@
         <v>1515</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>2501</v>
+        <v>2461</v>
       </c>
       <c r="E54" s="28"/>
       <c r="F54" s="30" t="s">
@@ -14824,7 +15615,7 @@
         <v>1452</v>
       </c>
       <c r="D55" s="45" t="s">
-        <v>2475</v>
+        <v>2435</v>
       </c>
       <c r="E55" s="28"/>
       <c r="F55" s="30" t="s">
@@ -14843,7 +15634,7 @@
         <v>1517</v>
       </c>
       <c r="D56" s="45" t="s">
-        <v>2507</v>
+        <v>2467</v>
       </c>
       <c r="E56" s="28"/>
       <c r="F56" s="30" t="s">
@@ -14862,7 +15653,7 @@
         <v>1519</v>
       </c>
       <c r="D57" s="45" t="s">
-        <v>2508</v>
+        <v>2468</v>
       </c>
       <c r="E57" s="28"/>
       <c r="F57" s="30" t="s">
@@ -14881,7 +15672,7 @@
         <v>1521</v>
       </c>
       <c r="D58" s="45" t="s">
-        <v>2509</v>
+        <v>2469</v>
       </c>
       <c r="E58" s="28"/>
       <c r="F58" s="30" t="s">
@@ -14900,7 +15691,7 @@
         <v>1523</v>
       </c>
       <c r="D59" s="45" t="s">
-        <v>2510</v>
+        <v>2470</v>
       </c>
       <c r="E59" s="28"/>
       <c r="F59" s="30" t="s">
@@ -14919,7 +15710,7 @@
         <v>1525</v>
       </c>
       <c r="D60" s="45" t="s">
-        <v>2511</v>
+        <v>2471</v>
       </c>
       <c r="E60" s="28"/>
       <c r="F60" s="30" t="s">
@@ -14938,7 +15729,7 @@
         <v>1527</v>
       </c>
       <c r="D61" s="45" t="s">
-        <v>2506</v>
+        <v>2466</v>
       </c>
       <c r="E61" s="28"/>
       <c r="F61" s="30" t="s">
@@ -14957,7 +15748,7 @@
         <v>1529</v>
       </c>
       <c r="D62" s="28" t="s">
-        <v>2512</v>
+        <v>2472</v>
       </c>
       <c r="E62" s="28"/>
       <c r="F62" s="30" t="s">
@@ -14976,7 +15767,7 @@
         <v>1531</v>
       </c>
       <c r="D63" s="45" t="s">
-        <v>2513</v>
+        <v>2473</v>
       </c>
       <c r="E63" s="28"/>
       <c r="F63" s="30" t="s">
@@ -14995,7 +15786,7 @@
         <v>1533</v>
       </c>
       <c r="D64" s="28" t="s">
-        <v>2514</v>
+        <v>2474</v>
       </c>
       <c r="E64" s="28"/>
       <c r="F64" s="30" t="s">
@@ -15014,7 +15805,7 @@
         <v>1535</v>
       </c>
       <c r="D65" s="28" t="s">
-        <v>2515</v>
+        <v>2475</v>
       </c>
       <c r="E65" s="28"/>
       <c r="F65" s="30" t="s">
@@ -15033,7 +15824,7 @@
         <v>99</v>
       </c>
       <c r="D66" s="28" t="s">
-        <v>2437</v>
+        <v>2397</v>
       </c>
       <c r="E66" s="28"/>
       <c r="F66" s="30" t="s">
@@ -15052,7 +15843,7 @@
         <v>1537</v>
       </c>
       <c r="D67" s="28" t="s">
-        <v>2438</v>
+        <v>2398</v>
       </c>
       <c r="E67" s="28"/>
       <c r="F67" s="30" t="s">
@@ -15071,7 +15862,7 @@
         <v>1538</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>2516</v>
+        <v>2476</v>
       </c>
       <c r="E68" s="28"/>
       <c r="F68" s="30" t="s">
@@ -15090,7 +15881,7 @@
         <v>1498</v>
       </c>
       <c r="D69" s="28" t="s">
-        <v>2397</v>
+        <v>2358</v>
       </c>
       <c r="E69" s="28"/>
       <c r="F69" s="30" t="s">
@@ -15109,7 +15900,7 @@
         <v>1540</v>
       </c>
       <c r="D70" s="28" t="s">
-        <v>2517</v>
+        <v>2477</v>
       </c>
       <c r="E70" s="28"/>
       <c r="F70" s="30" t="s">
@@ -15196,7 +15987,7 @@
         <v>1537</v>
       </c>
       <c r="D75" s="28" t="s">
-        <v>2438</v>
+        <v>2398</v>
       </c>
       <c r="E75" s="28"/>
       <c r="F75" s="30" t="s">
@@ -15215,7 +16006,7 @@
         <v>38</v>
       </c>
       <c r="D76" s="28" t="s">
-        <v>2398</v>
+        <v>2359</v>
       </c>
       <c r="E76" s="28"/>
       <c r="F76" s="30" t="s">
@@ -15248,7 +16039,7 @@
         <v>1437</v>
       </c>
       <c r="C78" s="28" t="s">
-        <v>2466</v>
+        <v>2426</v>
       </c>
       <c r="D78" s="28"/>
       <c r="E78" s="28"/>
@@ -15285,7 +16076,7 @@
         <v>1452</v>
       </c>
       <c r="D80" s="28" t="s">
-        <v>2475</v>
+        <v>2435</v>
       </c>
       <c r="E80" s="28"/>
       <c r="F80" s="30" t="s">
@@ -15457,7 +16248,7 @@
         <v>1498</v>
       </c>
       <c r="D90" s="28" t="s">
-        <v>2397</v>
+        <v>2358</v>
       </c>
       <c r="E90" s="28"/>
       <c r="F90" s="30" t="s">
@@ -15476,7 +16267,7 @@
         <v>38</v>
       </c>
       <c r="D91" s="28" t="s">
-        <v>2398</v>
+        <v>2359</v>
       </c>
       <c r="E91" s="28"/>
       <c r="F91" s="30" t="s">
@@ -15563,7 +16354,7 @@
         <v>34</v>
       </c>
       <c r="D96" s="28" t="s">
-        <v>2396</v>
+        <v>2357</v>
       </c>
       <c r="E96" s="28"/>
       <c r="F96" s="30" t="s">
@@ -15584,7 +16375,7 @@
         <v>1498</v>
       </c>
       <c r="D97" s="28" t="s">
-        <v>2397</v>
+        <v>2358</v>
       </c>
       <c r="E97" s="28"/>
       <c r="F97" s="30" t="s">
@@ -15600,7 +16391,7 @@
         <v>1437</v>
       </c>
       <c r="C98" s="28" t="s">
-        <v>2466</v>
+        <v>2426</v>
       </c>
       <c r="D98" s="28"/>
       <c r="E98" s="28"/>
@@ -15942,7 +16733,7 @@
         <v>1437</v>
       </c>
       <c r="C118" s="28" t="s">
-        <v>2466</v>
+        <v>2426</v>
       </c>
       <c r="D118" s="28"/>
       <c r="E118" s="28"/>
@@ -16180,7 +16971,7 @@
         <v>1437</v>
       </c>
       <c r="C132" s="28" t="s">
-        <v>2466</v>
+        <v>2426</v>
       </c>
       <c r="D132" s="28"/>
       <c r="E132" s="28"/>
@@ -16404,7 +17195,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>2014</v>
+        <v>2008</v>
       </c>
       <c r="C1" s="26" t="s">
         <v>3</v>
@@ -16415,7 +17206,7 @@
         <v>171</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>2022</v>
+        <v>2016</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>171</v>
@@ -16426,7 +17217,7 @@
         <v>172</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>2023</v>
+        <v>2017</v>
       </c>
       <c r="C3" s="28" t="s">
         <v>173</v>
@@ -16437,7 +17228,7 @@
         <v>174</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>2024</v>
+        <v>2018</v>
       </c>
       <c r="C4" s="28" t="s">
         <v>174</v>
@@ -16448,7 +17239,7 @@
         <v>175</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>2025</v>
+        <v>2019</v>
       </c>
       <c r="C5" s="28" t="s">
         <v>176</v>
@@ -16459,7 +17250,7 @@
         <v>177</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>2026</v>
+        <v>2020</v>
       </c>
       <c r="C6" s="28" t="s">
         <v>178</v>
@@ -16470,7 +17261,7 @@
         <v>179</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>2027</v>
+        <v>2021</v>
       </c>
       <c r="C7" s="28" t="s">
         <v>179</v>
@@ -16481,7 +17272,7 @@
         <v>180</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>2028</v>
+        <v>2022</v>
       </c>
       <c r="C8" s="28" t="s">
         <v>181</v>
@@ -16492,7 +17283,7 @@
         <v>182</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>2029</v>
+        <v>2023</v>
       </c>
       <c r="C9" s="28" t="s">
         <v>183</v>
@@ -16503,7 +17294,7 @@
         <v>184</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>2030</v>
+        <v>2024</v>
       </c>
       <c r="C10" s="28" t="s">
         <v>185</v>
@@ -16514,7 +17305,7 @@
         <v>186</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>2031</v>
+        <v>2025</v>
       </c>
       <c r="C11" s="28" t="s">
         <v>186</v>
@@ -16525,7 +17316,7 @@
         <v>187</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>2032</v>
+        <v>2026</v>
       </c>
       <c r="C12" s="28" t="s">
         <v>187</v>
@@ -16536,7 +17327,7 @@
         <v>188</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>2033</v>
+        <v>2027</v>
       </c>
       <c r="C13" s="28" t="s">
         <v>188</v>
@@ -16547,7 +17338,7 @@
         <v>189</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>2035</v>
+        <v>2029</v>
       </c>
       <c r="C14" s="28" t="s">
         <v>189</v>
@@ -16558,7 +17349,7 @@
         <v>187</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>2032</v>
+        <v>2026</v>
       </c>
       <c r="C15" s="28" t="s">
         <v>187</v>
@@ -16569,7 +17360,7 @@
         <v>190</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>2040</v>
+        <v>2034</v>
       </c>
       <c r="C16" s="28" t="s">
         <v>190</v>
@@ -16580,7 +17371,7 @@
         <v>191</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>2039</v>
+        <v>2033</v>
       </c>
       <c r="C17" s="28" t="s">
         <v>192</v>
@@ -16591,7 +17382,7 @@
         <v>193</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>2037</v>
+        <v>2031</v>
       </c>
       <c r="C18" s="28" t="s">
         <v>194</v>
@@ -16602,7 +17393,7 @@
         <v>195</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>2038</v>
+        <v>2032</v>
       </c>
       <c r="C19" s="28" t="s">
         <v>195</v>
@@ -16613,7 +17404,7 @@
         <v>196</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>2034</v>
+        <v>2028</v>
       </c>
       <c r="C20" s="28" t="s">
         <v>197</v>
@@ -16624,7 +17415,7 @@
         <v>198</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>2036</v>
+        <v>2030</v>
       </c>
       <c r="C21" s="28" t="s">
         <v>198</v>
@@ -16642,8 +17433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G203"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="C151" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D197" sqref="D197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15"/>
@@ -16664,10 +17455,10 @@
         <v>155</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>2041</v>
+        <v>2035</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>2229</v>
+        <v>2194</v>
       </c>
       <c r="E1" s="26" t="s">
         <v>3</v>
@@ -16687,10 +17478,10 @@
         <v>201</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>2042</v>
+        <v>2036</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>2294</v>
+        <v>2255</v>
       </c>
       <c r="E2" s="28" t="s">
         <v>202</v>
@@ -16708,10 +17499,10 @@
         <v>205</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>2043</v>
+        <v>2037</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>2295</v>
+        <v>2256</v>
       </c>
       <c r="E3" s="28" t="s">
         <v>206</v>
@@ -16729,10 +17520,10 @@
         <v>209</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>2044</v>
+        <v>2038</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>2230</v>
+        <v>2195</v>
       </c>
       <c r="E4" s="29" t="s">
         <v>210</v>
@@ -16750,10 +17541,10 @@
         <v>213</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>2045</v>
+        <v>2039</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>2231</v>
+        <v>2196</v>
       </c>
       <c r="E5" s="28" t="s">
         <v>214</v>
@@ -16771,10 +17562,10 @@
         <v>217</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>2046</v>
+        <v>2040</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>2232</v>
+        <v>2197</v>
       </c>
       <c r="E6" s="28" t="s">
         <v>218</v>
@@ -16792,10 +17583,10 @@
         <v>221</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>2047</v>
+        <v>2041</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>2233</v>
+        <v>2198</v>
       </c>
       <c r="E7" s="28" t="s">
         <v>222</v>
@@ -16813,10 +17604,10 @@
         <v>225</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>2048</v>
+        <v>2042</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>2234</v>
+        <v>2199</v>
       </c>
       <c r="E8" s="28" t="s">
         <v>226</v>
@@ -16834,10 +17625,10 @@
         <v>229</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>2049</v>
+        <v>2043</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>2235</v>
+        <v>2200</v>
       </c>
       <c r="E9" s="28" t="s">
         <v>230</v>
@@ -16855,10 +17646,10 @@
         <v>229</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>2050</v>
+        <v>2044</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>2235</v>
+        <v>2200</v>
       </c>
       <c r="E10" s="28" t="s">
         <v>233</v>
@@ -16876,10 +17667,10 @@
         <v>229</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>2051</v>
+        <v>2045</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>2235</v>
+        <v>2200</v>
       </c>
       <c r="E11" s="28" t="s">
         <v>235</v>
@@ -16897,10 +17688,10 @@
         <v>237</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>2052</v>
+        <v>2046</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>2236</v>
+        <v>2201</v>
       </c>
       <c r="E12" s="28" t="s">
         <v>238</v>
@@ -16918,10 +17709,10 @@
         <v>241</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>2053</v>
+        <v>2047</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>2237</v>
+        <v>2202</v>
       </c>
       <c r="E13" s="28" t="s">
         <v>242</v>
@@ -16939,10 +17730,10 @@
         <v>245</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>2054</v>
+        <v>2048</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>2238</v>
+        <v>2203</v>
       </c>
       <c r="E14" s="28" t="s">
         <v>246</v>
@@ -16960,10 +17751,10 @@
         <v>249</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>2055</v>
+        <v>2049</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>2239</v>
+        <v>2204</v>
       </c>
       <c r="E15" s="28" t="s">
         <v>250</v>
@@ -16981,10 +17772,10 @@
         <v>253</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>2056</v>
+        <v>2050</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>2240</v>
+        <v>2205</v>
       </c>
       <c r="E16" s="28" t="s">
         <v>254</v>
@@ -17002,10 +17793,10 @@
         <v>257</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>2057</v>
+        <v>2051</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>2463</v>
+        <v>2423</v>
       </c>
       <c r="E17" s="28" t="s">
         <v>258</v>
@@ -17023,10 +17814,10 @@
         <v>261</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>2058</v>
+        <v>2052</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>2241</v>
+        <v>2206</v>
       </c>
       <c r="E18" s="28" t="s">
         <v>262</v>
@@ -17044,10 +17835,10 @@
         <v>265</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>2059</v>
+        <v>2053</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>2242</v>
+        <v>2207</v>
       </c>
       <c r="E19" s="28" t="s">
         <v>266</v>
@@ -17065,10 +17856,10 @@
         <v>269</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>2060</v>
+        <v>2054</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>2243</v>
+        <v>2208</v>
       </c>
       <c r="E20" s="28" t="s">
         <v>270</v>
@@ -17086,10 +17877,10 @@
         <v>273</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>2061</v>
+        <v>2055</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>2244</v>
+        <v>2209</v>
       </c>
       <c r="E21" s="28" t="s">
         <v>274</v>
@@ -17107,10 +17898,10 @@
         <v>277</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>2062</v>
+        <v>2056</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>2245</v>
+        <v>2210</v>
       </c>
       <c r="E22" s="28" t="s">
         <v>278</v>
@@ -17128,10 +17919,10 @@
         <v>281</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>2063</v>
+        <v>2057</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>2246</v>
+        <v>2211</v>
       </c>
       <c r="E23" s="28" t="s">
         <v>282</v>
@@ -17149,10 +17940,10 @@
         <v>285</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>2064</v>
+        <v>2058</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>2247</v>
+        <v>2212</v>
       </c>
       <c r="E24" s="28" t="s">
         <v>286</v>
@@ -17170,10 +17961,10 @@
         <v>289</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>2065</v>
+        <v>2059</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>2248</v>
+        <v>2702</v>
       </c>
       <c r="E25" s="28" t="s">
         <v>290</v>
@@ -17191,10 +17982,10 @@
         <v>293</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>2066</v>
+        <v>2060</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>2249</v>
+        <v>2703</v>
       </c>
       <c r="E26" s="28" t="s">
         <v>294</v>
@@ -17212,10 +18003,10 @@
         <v>297</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>2067</v>
+        <v>2061</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>2250</v>
+        <v>2213</v>
       </c>
       <c r="E27" s="28" t="s">
         <v>298</v>
@@ -17233,10 +18024,10 @@
         <v>301</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>2068</v>
+        <v>2062</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>2251</v>
+        <v>2214</v>
       </c>
       <c r="E28" s="28" t="s">
         <v>302</v>
@@ -17254,10 +18045,10 @@
         <v>305</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>2069</v>
+        <v>2063</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>2252</v>
+        <v>2215</v>
       </c>
       <c r="E29" s="28" t="s">
         <v>306</v>
@@ -17275,10 +18066,10 @@
         <v>305</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>2070</v>
+        <v>2064</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>2253</v>
+        <v>2216</v>
       </c>
       <c r="E30" s="28" t="s">
         <v>309</v>
@@ -17296,10 +18087,10 @@
         <v>312</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>2071</v>
+        <v>2065</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>2254</v>
+        <v>2217</v>
       </c>
       <c r="E31" s="28" t="s">
         <v>313</v>
@@ -17317,10 +18108,10 @@
         <v>316</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>2072</v>
+        <v>2066</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>2255</v>
+        <v>2218</v>
       </c>
       <c r="E32" s="28" t="s">
         <v>317</v>
@@ -17338,10 +18129,10 @@
         <v>320</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>2073</v>
+        <v>2067</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>2256</v>
+        <v>2219</v>
       </c>
       <c r="E33" s="28" t="s">
         <v>321</v>
@@ -17359,10 +18150,10 @@
         <v>324</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>2074</v>
+        <v>2068</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>2257</v>
+        <v>2220</v>
       </c>
       <c r="E34" s="28" t="s">
         <v>325</v>
@@ -17380,10 +18171,10 @@
         <v>328</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>2075</v>
+        <v>2069</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>2258</v>
+        <v>2221</v>
       </c>
       <c r="E35" s="28" t="s">
         <v>329</v>
@@ -17401,10 +18192,10 @@
         <v>332</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>2076</v>
+        <v>2070</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>2259</v>
+        <v>2222</v>
       </c>
       <c r="E36" s="28" t="s">
         <v>333</v>
@@ -17422,10 +18213,10 @@
         <v>336</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>2077</v>
+        <v>2071</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>2260</v>
+        <v>2223</v>
       </c>
       <c r="E37" s="28" t="s">
         <v>337</v>
@@ -17443,10 +18234,10 @@
         <v>340</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>2078</v>
+        <v>2072</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>2261</v>
+        <v>2224</v>
       </c>
       <c r="E38" s="28" t="s">
         <v>341</v>
@@ -17464,10 +18255,10 @@
         <v>344</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>2079</v>
+        <v>2073</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>2262</v>
+        <v>2225</v>
       </c>
       <c r="E39" s="28" t="s">
         <v>345</v>
@@ -17485,10 +18276,10 @@
         <v>348</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>2080</v>
+        <v>2074</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>2263</v>
+        <v>2226</v>
       </c>
       <c r="E40" s="31" t="s">
         <v>349</v>
@@ -17506,10 +18297,10 @@
         <v>352</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>2081</v>
+        <v>2075</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>2264</v>
+        <v>2227</v>
       </c>
       <c r="E41" s="28" t="s">
         <v>353</v>
@@ -17527,10 +18318,10 @@
         <v>352</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>2082</v>
+        <v>2076</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>2264</v>
+        <v>2227</v>
       </c>
       <c r="E42" s="28" t="s">
         <v>356</v>
@@ -17548,10 +18339,10 @@
         <v>352</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>2083</v>
+        <v>2077</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>2264</v>
+        <v>2227</v>
       </c>
       <c r="E43" s="28" t="s">
         <v>358</v>
@@ -17569,10 +18360,10 @@
         <v>360</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>2084</v>
+        <v>2078</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>2265</v>
+        <v>2228</v>
       </c>
       <c r="E44" s="28" t="s">
         <v>361</v>
@@ -17590,10 +18381,10 @@
         <v>364</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>2085</v>
+        <v>2079</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>2266</v>
+        <v>2229</v>
       </c>
       <c r="E45" s="28" t="s">
         <v>365</v>
@@ -17611,10 +18402,10 @@
         <v>368</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>2086</v>
+        <v>2080</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>2267</v>
+        <v>2230</v>
       </c>
       <c r="E46" s="28" t="s">
         <v>369</v>
@@ -17632,10 +18423,10 @@
         <v>372</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>2087</v>
+        <v>2081</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>2268</v>
+        <v>2231</v>
       </c>
       <c r="E47" s="28" t="s">
         <v>373</v>
@@ -17653,10 +18444,10 @@
         <v>376</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>2088</v>
+        <v>2082</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>376</v>
+        <v>2588</v>
       </c>
       <c r="E48" s="28" t="s">
         <v>377</v>
@@ -17674,10 +18465,10 @@
         <v>380</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>2089</v>
+        <v>2083</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>380</v>
+        <v>2589</v>
       </c>
       <c r="E49" s="28" t="s">
         <v>381</v>
@@ -17695,10 +18486,10 @@
         <v>384</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>2090</v>
+        <v>2084</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>384</v>
+        <v>2590</v>
       </c>
       <c r="E50" s="28" t="s">
         <v>385</v>
@@ -17716,10 +18507,10 @@
         <v>388</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>2091</v>
+        <v>2085</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>388</v>
+        <v>2591</v>
       </c>
       <c r="E51" s="28" t="s">
         <v>389</v>
@@ -17737,10 +18528,10 @@
         <v>392</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>2092</v>
+        <v>2086</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>392</v>
+        <v>2592</v>
       </c>
       <c r="E52" s="28" t="s">
         <v>393</v>
@@ -17758,10 +18549,10 @@
         <v>396</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>2093</v>
+        <v>2087</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>396</v>
+        <v>2593</v>
       </c>
       <c r="E53" s="28" t="s">
         <v>397</v>
@@ -17779,10 +18570,10 @@
         <v>400</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>2094</v>
+        <v>2088</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>400</v>
+        <v>2594</v>
       </c>
       <c r="E54" s="28" t="s">
         <v>401</v>
@@ -17800,10 +18591,10 @@
         <v>404</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>2095</v>
+        <v>2596</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>404</v>
+        <v>2595</v>
       </c>
       <c r="E55" s="28" t="s">
         <v>405</v>
@@ -17821,10 +18612,10 @@
         <v>408</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>2096</v>
+        <v>2089</v>
       </c>
       <c r="D56" s="24" t="s">
-        <v>408</v>
+        <v>2597</v>
       </c>
       <c r="E56" s="28" t="s">
         <v>409</v>
@@ -17842,10 +18633,10 @@
         <v>412</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>2097</v>
+        <v>2090</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>412</v>
+        <v>2598</v>
       </c>
       <c r="E57" s="28" t="s">
         <v>413</v>
@@ -17863,10 +18654,10 @@
         <v>416</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>2098</v>
+        <v>2091</v>
       </c>
       <c r="D58" s="24" t="s">
-        <v>416</v>
+        <v>2603</v>
       </c>
       <c r="E58" s="31" t="s">
         <v>417</v>
@@ -17884,10 +18675,10 @@
         <v>420</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>2099</v>
+        <v>2092</v>
       </c>
       <c r="D59" s="24" t="s">
-        <v>420</v>
+        <v>2599</v>
       </c>
       <c r="E59" s="28" t="s">
         <v>421</v>
@@ -17905,10 +18696,10 @@
         <v>423</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>2100</v>
+        <v>2093</v>
       </c>
       <c r="D60" s="24" t="s">
-        <v>423</v>
+        <v>2600</v>
       </c>
       <c r="E60" s="28" t="s">
         <v>424</v>
@@ -17926,10 +18717,10 @@
         <v>426</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>2101</v>
+        <v>2094</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>426</v>
+        <v>2601</v>
       </c>
       <c r="E61" s="28" t="s">
         <v>427</v>
@@ -17947,10 +18738,10 @@
         <v>429</v>
       </c>
       <c r="C62" s="24" t="s">
-        <v>2102</v>
+        <v>2095</v>
       </c>
       <c r="D62" s="24" t="s">
-        <v>429</v>
+        <v>2602</v>
       </c>
       <c r="E62" s="28" t="s">
         <v>430</v>
@@ -17968,10 +18759,10 @@
         <v>433</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>2103</v>
+        <v>2096</v>
       </c>
       <c r="D63" s="24" t="s">
-        <v>433</v>
+        <v>2604</v>
       </c>
       <c r="E63" s="28" t="s">
         <v>434</v>
@@ -17989,10 +18780,10 @@
         <v>437</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>2104</v>
+        <v>2097</v>
       </c>
       <c r="D64" s="24" t="s">
-        <v>2297</v>
+        <v>2258</v>
       </c>
       <c r="E64" s="28" t="s">
         <v>438</v>
@@ -18010,10 +18801,10 @@
         <v>441</v>
       </c>
       <c r="C65" s="24" t="s">
-        <v>2105</v>
+        <v>2098</v>
       </c>
       <c r="D65" s="24" t="s">
-        <v>2296</v>
+        <v>2257</v>
       </c>
       <c r="E65" s="28" t="s">
         <v>442</v>
@@ -18031,10 +18822,10 @@
         <v>444</v>
       </c>
       <c r="C66" s="24" t="s">
-        <v>2106</v>
+        <v>2099</v>
       </c>
       <c r="D66" s="24" t="s">
-        <v>444</v>
+        <v>2605</v>
       </c>
       <c r="E66" s="28" t="s">
         <v>445</v>
@@ -18052,10 +18843,10 @@
         <v>448</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>2107</v>
+        <v>2100</v>
       </c>
       <c r="D67" s="24" t="s">
-        <v>448</v>
+        <v>2606</v>
       </c>
       <c r="E67" s="28" t="s">
         <v>449</v>
@@ -18073,10 +18864,10 @@
         <v>452</v>
       </c>
       <c r="C68" s="24" t="s">
-        <v>2108</v>
+        <v>2101</v>
       </c>
       <c r="D68" s="24" t="s">
-        <v>452</v>
+        <v>2607</v>
       </c>
       <c r="E68" s="28" t="s">
         <v>453</v>
@@ -18094,10 +18885,10 @@
         <v>456</v>
       </c>
       <c r="C69" s="24" t="s">
-        <v>2109</v>
+        <v>2613</v>
       </c>
       <c r="D69" s="24" t="s">
-        <v>456</v>
+        <v>2609</v>
       </c>
       <c r="E69" s="28" t="s">
         <v>457</v>
@@ -18115,10 +18906,10 @@
         <v>460</v>
       </c>
       <c r="C70" s="24" t="s">
-        <v>2110</v>
+        <v>2610</v>
       </c>
       <c r="D70" s="24" t="s">
-        <v>460</v>
+        <v>2611</v>
       </c>
       <c r="E70" s="28" t="s">
         <v>461</v>
@@ -18136,10 +18927,10 @@
         <v>464</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>2111</v>
+        <v>2608</v>
       </c>
       <c r="D71" s="24" t="s">
-        <v>464</v>
+        <v>2612</v>
       </c>
       <c r="E71" s="28" t="s">
         <v>465</v>
@@ -18157,10 +18948,10 @@
         <v>468</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>2112</v>
+        <v>2102</v>
       </c>
       <c r="D72" s="24" t="s">
-        <v>468</v>
+        <v>2614</v>
       </c>
       <c r="E72" s="28" t="s">
         <v>469</v>
@@ -18178,10 +18969,10 @@
         <v>472</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>2113</v>
+        <v>2615</v>
       </c>
       <c r="D73" s="24" t="s">
-        <v>472</v>
+        <v>2618</v>
       </c>
       <c r="E73" s="28" t="s">
         <v>473</v>
@@ -18199,10 +18990,10 @@
         <v>476</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>2114</v>
+        <v>2616</v>
       </c>
       <c r="D74" s="24" t="s">
-        <v>476</v>
+        <v>2619</v>
       </c>
       <c r="E74" s="28" t="s">
         <v>477</v>
@@ -18220,10 +19011,10 @@
         <v>480</v>
       </c>
       <c r="C75" s="24" t="s">
-        <v>2115</v>
+        <v>2617</v>
       </c>
       <c r="D75" s="24" t="s">
-        <v>480</v>
+        <v>2620</v>
       </c>
       <c r="E75" s="28" t="s">
         <v>481</v>
@@ -18241,10 +19032,10 @@
         <v>484</v>
       </c>
       <c r="C76" s="24" t="s">
-        <v>2116</v>
+        <v>2103</v>
       </c>
       <c r="D76" s="24" t="s">
-        <v>484</v>
+        <v>2621</v>
       </c>
       <c r="E76" s="28" t="s">
         <v>485</v>
@@ -18262,10 +19053,10 @@
         <v>488</v>
       </c>
       <c r="C77" s="24" t="s">
-        <v>2117</v>
+        <v>2104</v>
       </c>
       <c r="D77" s="24" t="s">
-        <v>488</v>
+        <v>2622</v>
       </c>
       <c r="E77" s="28" t="s">
         <v>489</v>
@@ -18283,10 +19074,10 @@
         <v>492</v>
       </c>
       <c r="C78" s="24" t="s">
-        <v>2118</v>
+        <v>2105</v>
       </c>
       <c r="D78" s="24" t="s">
-        <v>492</v>
+        <v>2624</v>
       </c>
       <c r="E78" s="28" t="s">
         <v>493</v>
@@ -18304,10 +19095,10 @@
         <v>496</v>
       </c>
       <c r="C79" s="24" t="s">
-        <v>2119</v>
+        <v>2106</v>
       </c>
       <c r="D79" s="24" t="s">
-        <v>496</v>
+        <v>2623</v>
       </c>
       <c r="E79" s="28" t="s">
         <v>497</v>
@@ -18325,10 +19116,10 @@
         <v>500</v>
       </c>
       <c r="C80" s="24" t="s">
-        <v>2120</v>
+        <v>2107</v>
       </c>
       <c r="D80" s="24" t="s">
-        <v>500</v>
+        <v>2625</v>
       </c>
       <c r="E80" s="28" t="s">
         <v>501</v>
@@ -18346,10 +19137,10 @@
         <v>504</v>
       </c>
       <c r="C81" s="24" t="s">
-        <v>2121</v>
+        <v>2108</v>
       </c>
       <c r="D81" s="24" t="s">
-        <v>504</v>
+        <v>2626</v>
       </c>
       <c r="E81" s="28" t="s">
         <v>505</v>
@@ -18367,10 +19158,10 @@
         <v>508</v>
       </c>
       <c r="C82" s="24" t="s">
-        <v>2122</v>
+        <v>2109</v>
       </c>
       <c r="D82" s="24" t="s">
-        <v>508</v>
+        <v>2627</v>
       </c>
       <c r="E82" s="28" t="s">
         <v>509</v>
@@ -18388,10 +19179,10 @@
         <v>512</v>
       </c>
       <c r="C83" s="24" t="s">
-        <v>2123</v>
+        <v>2110</v>
       </c>
       <c r="D83" s="24" t="s">
-        <v>512</v>
+        <v>2628</v>
       </c>
       <c r="E83" s="28" t="s">
         <v>513</v>
@@ -18409,10 +19200,10 @@
         <v>516</v>
       </c>
       <c r="C84" s="24" t="s">
-        <v>2298</v>
+        <v>2259</v>
       </c>
       <c r="D84" s="24" t="s">
-        <v>2300</v>
+        <v>2261</v>
       </c>
       <c r="E84" s="28" t="s">
         <v>517</v>
@@ -18430,10 +19221,10 @@
         <v>520</v>
       </c>
       <c r="C85" s="24" t="s">
-        <v>2299</v>
+        <v>2260</v>
       </c>
       <c r="D85" s="24" t="s">
-        <v>2301</v>
+        <v>2262</v>
       </c>
       <c r="E85" s="28" t="s">
         <v>521</v>
@@ -18451,10 +19242,10 @@
         <v>524</v>
       </c>
       <c r="C86" s="24" t="s">
-        <v>2124</v>
+        <v>2111</v>
       </c>
       <c r="D86" s="24" t="s">
-        <v>524</v>
+        <v>2704</v>
       </c>
       <c r="E86" s="28" t="s">
         <v>525</v>
@@ -18472,10 +19263,10 @@
         <v>528</v>
       </c>
       <c r="C87" s="24" t="s">
-        <v>2125</v>
+        <v>2112</v>
       </c>
       <c r="D87" s="24" t="s">
-        <v>528</v>
+        <v>2705</v>
       </c>
       <c r="E87" s="28" t="s">
         <v>529</v>
@@ -18493,10 +19284,10 @@
         <v>532</v>
       </c>
       <c r="C88" s="24" t="s">
-        <v>2126</v>
+        <v>2113</v>
       </c>
       <c r="D88" s="24" t="s">
-        <v>532</v>
+        <v>2706</v>
       </c>
       <c r="E88" s="28" t="s">
         <v>533</v>
@@ -18514,10 +19305,10 @@
         <v>536</v>
       </c>
       <c r="C89" s="24" t="s">
-        <v>2127</v>
+        <v>2114</v>
       </c>
       <c r="D89" s="24" t="s">
-        <v>536</v>
+        <v>2707</v>
       </c>
       <c r="E89" s="28" t="s">
         <v>537</v>
@@ -18535,10 +19326,10 @@
         <v>540</v>
       </c>
       <c r="C90" s="24" t="s">
-        <v>2128</v>
+        <v>2115</v>
       </c>
       <c r="D90" s="24" t="s">
-        <v>540</v>
+        <v>2708</v>
       </c>
       <c r="E90" s="28" t="s">
         <v>541</v>
@@ -18556,10 +19347,10 @@
         <v>524</v>
       </c>
       <c r="C91" s="24" t="s">
-        <v>2124</v>
+        <v>2111</v>
       </c>
       <c r="D91" s="24" t="s">
-        <v>524</v>
+        <v>2704</v>
       </c>
       <c r="E91" s="28" t="s">
         <v>544</v>
@@ -18577,10 +19368,10 @@
         <v>528</v>
       </c>
       <c r="C92" s="24" t="s">
-        <v>2125</v>
+        <v>2112</v>
       </c>
       <c r="D92" s="24" t="s">
-        <v>528</v>
+        <v>2705</v>
       </c>
       <c r="E92" s="28" t="s">
         <v>546</v>
@@ -18598,10 +19389,10 @@
         <v>532</v>
       </c>
       <c r="C93" s="24" t="s">
-        <v>2126</v>
+        <v>2113</v>
       </c>
       <c r="D93" s="24" t="s">
-        <v>532</v>
+        <v>2706</v>
       </c>
       <c r="E93" s="28" t="s">
         <v>548</v>
@@ -18619,10 +19410,10 @@
         <v>536</v>
       </c>
       <c r="C94" s="24" t="s">
-        <v>2127</v>
+        <v>2114</v>
       </c>
       <c r="D94" s="24" t="s">
-        <v>536</v>
+        <v>2707</v>
       </c>
       <c r="E94" s="28" t="s">
         <v>550</v>
@@ -18640,10 +19431,10 @@
         <v>540</v>
       </c>
       <c r="C95" s="24" t="s">
-        <v>2128</v>
+        <v>2115</v>
       </c>
       <c r="D95" s="24" t="s">
-        <v>540</v>
+        <v>2708</v>
       </c>
       <c r="E95" s="28" t="s">
         <v>552</v>
@@ -18661,10 +19452,10 @@
         <v>554</v>
       </c>
       <c r="C96" s="24" t="s">
-        <v>2129</v>
+        <v>2116</v>
       </c>
       <c r="D96" s="24" t="s">
-        <v>554</v>
+        <v>2629</v>
       </c>
       <c r="E96" s="28" t="s">
         <v>555</v>
@@ -18682,10 +19473,10 @@
         <v>558</v>
       </c>
       <c r="C97" s="24" t="s">
-        <v>2130</v>
+        <v>2117</v>
       </c>
       <c r="D97" s="24" t="s">
-        <v>558</v>
+        <v>2630</v>
       </c>
       <c r="E97" s="28" t="s">
         <v>559</v>
@@ -18703,10 +19494,10 @@
         <v>562</v>
       </c>
       <c r="C98" s="24" t="s">
-        <v>2131</v>
+        <v>2118</v>
       </c>
       <c r="D98" s="24" t="s">
-        <v>562</v>
+        <v>2631</v>
       </c>
       <c r="E98" s="28" t="s">
         <v>563</v>
@@ -18724,10 +19515,10 @@
         <v>565</v>
       </c>
       <c r="C99" s="24" t="s">
-        <v>2132</v>
+        <v>2119</v>
       </c>
       <c r="D99" s="24" t="s">
-        <v>2302</v>
+        <v>2263</v>
       </c>
       <c r="E99" s="28" t="s">
         <v>45</v>
@@ -18745,10 +19536,10 @@
         <v>567</v>
       </c>
       <c r="C100" s="24" t="s">
-        <v>2133</v>
+        <v>2120</v>
       </c>
       <c r="D100" s="24" t="s">
-        <v>2303</v>
+        <v>2264</v>
       </c>
       <c r="E100" s="28" t="s">
         <v>47</v>
@@ -18766,10 +19557,10 @@
         <v>569</v>
       </c>
       <c r="C101" s="24" t="s">
-        <v>2401</v>
+        <v>2362</v>
       </c>
       <c r="D101" s="24" t="s">
-        <v>2304</v>
+        <v>2265</v>
       </c>
       <c r="E101" s="28" t="s">
         <v>48</v>
@@ -18787,10 +19578,10 @@
         <v>571</v>
       </c>
       <c r="C102" s="24" t="s">
-        <v>2134</v>
+        <v>2121</v>
       </c>
       <c r="D102" s="24" t="s">
-        <v>2305</v>
+        <v>2266</v>
       </c>
       <c r="E102" s="28" t="s">
         <v>50</v>
@@ -18808,10 +19599,10 @@
         <v>573</v>
       </c>
       <c r="C103" s="24" t="s">
-        <v>2135</v>
+        <v>2122</v>
       </c>
       <c r="D103" s="24" t="s">
-        <v>2306</v>
+        <v>2267</v>
       </c>
       <c r="E103" s="28" t="s">
         <v>52</v>
@@ -18829,10 +19620,10 @@
         <v>576</v>
       </c>
       <c r="C104" s="24" t="s">
-        <v>2136</v>
+        <v>2123</v>
       </c>
       <c r="D104" s="24" t="s">
-        <v>2307</v>
+        <v>2268</v>
       </c>
       <c r="E104" s="28" t="s">
         <v>43</v>
@@ -18850,10 +19641,10 @@
         <v>578</v>
       </c>
       <c r="C105" s="24" t="s">
-        <v>2137</v>
+        <v>2124</v>
       </c>
       <c r="D105" s="24" t="s">
-        <v>578</v>
+        <v>2632</v>
       </c>
       <c r="E105" s="28" t="s">
         <v>54</v>
@@ -18871,10 +19662,10 @@
         <v>580</v>
       </c>
       <c r="C106" s="24" t="s">
-        <v>2138</v>
+        <v>2125</v>
       </c>
       <c r="D106" s="24" t="s">
-        <v>580</v>
+        <v>2633</v>
       </c>
       <c r="E106" s="28" t="s">
         <v>56</v>
@@ -18892,10 +19683,10 @@
         <v>582</v>
       </c>
       <c r="C107" s="24" t="s">
-        <v>2139</v>
+        <v>2126</v>
       </c>
       <c r="D107" s="24" t="s">
-        <v>582</v>
+        <v>2634</v>
       </c>
       <c r="E107" s="28" t="s">
         <v>58</v>
@@ -18913,10 +19704,10 @@
         <v>584</v>
       </c>
       <c r="C108" s="24" t="s">
-        <v>2404</v>
+        <v>2365</v>
       </c>
       <c r="D108" s="24" t="s">
-        <v>2405</v>
+        <v>2709</v>
       </c>
       <c r="E108" s="28" t="s">
         <v>60</v>
@@ -18934,10 +19725,10 @@
         <v>586</v>
       </c>
       <c r="C109" s="24" t="s">
-        <v>2140</v>
+        <v>2127</v>
       </c>
       <c r="D109" s="24" t="s">
-        <v>586</v>
+        <v>2635</v>
       </c>
       <c r="E109" s="28" t="s">
         <v>62</v>
@@ -18955,10 +19746,10 @@
         <v>589</v>
       </c>
       <c r="C110" s="24" t="s">
-        <v>2308</v>
+        <v>2269</v>
       </c>
       <c r="D110" s="24" t="s">
-        <v>2312</v>
+        <v>2273</v>
       </c>
       <c r="E110" s="28" t="s">
         <v>590</v>
@@ -18976,10 +19767,10 @@
         <v>593</v>
       </c>
       <c r="C111" s="24" t="s">
-        <v>2309</v>
+        <v>2270</v>
       </c>
       <c r="D111" s="24" t="s">
-        <v>593</v>
+        <v>2636</v>
       </c>
       <c r="E111" s="28" t="s">
         <v>592</v>
@@ -18997,10 +19788,10 @@
         <v>593</v>
       </c>
       <c r="C112" s="24" t="s">
-        <v>2310</v>
+        <v>2271</v>
       </c>
       <c r="D112" s="24" t="s">
-        <v>593</v>
+        <v>2636</v>
       </c>
       <c r="E112" s="28" t="s">
         <v>595</v>
@@ -19018,10 +19809,10 @@
         <v>597</v>
       </c>
       <c r="C113" s="24" t="s">
-        <v>2311</v>
+        <v>2272</v>
       </c>
       <c r="D113" s="24" t="s">
-        <v>597</v>
+        <v>2637</v>
       </c>
       <c r="E113" s="28" t="s">
         <v>598</v>
@@ -19039,10 +19830,10 @@
         <v>601</v>
       </c>
       <c r="C114" s="24" t="s">
-        <v>2141</v>
+        <v>2643</v>
       </c>
       <c r="D114" s="24" t="s">
-        <v>601</v>
+        <v>2638</v>
       </c>
       <c r="E114" s="28" t="s">
         <v>602</v>
@@ -19060,10 +19851,10 @@
         <v>589</v>
       </c>
       <c r="C115" s="24" t="s">
-        <v>2142</v>
+        <v>2644</v>
       </c>
       <c r="D115" s="24" t="s">
-        <v>589</v>
+        <v>2639</v>
       </c>
       <c r="E115" s="28" t="s">
         <v>605</v>
@@ -19081,10 +19872,10 @@
         <v>607</v>
       </c>
       <c r="C116" s="24" t="s">
-        <v>2143</v>
+        <v>2645</v>
       </c>
       <c r="D116" s="24" t="s">
-        <v>607</v>
+        <v>2640</v>
       </c>
       <c r="E116" s="28" t="s">
         <v>606</v>
@@ -19102,10 +19893,10 @@
         <v>597</v>
       </c>
       <c r="C117" s="24" t="s">
-        <v>2144</v>
+        <v>2646</v>
       </c>
       <c r="D117" s="24" t="s">
-        <v>2269</v>
+        <v>2637</v>
       </c>
       <c r="E117" s="28" t="s">
         <v>610</v>
@@ -19123,9 +19914,11 @@
         <v>601</v>
       </c>
       <c r="C118" s="24" t="s">
-        <v>2145</v>
-      </c>
-      <c r="D118" s="24"/>
+        <v>2647</v>
+      </c>
+      <c r="D118" s="24" t="s">
+        <v>2638</v>
+      </c>
       <c r="E118" s="28" t="s">
         <v>612</v>
       </c>
@@ -19142,10 +19935,10 @@
         <v>614</v>
       </c>
       <c r="C119" s="24" t="s">
-        <v>2146</v>
+        <v>2648</v>
       </c>
       <c r="D119" s="24" t="s">
-        <v>614</v>
+        <v>2641</v>
       </c>
       <c r="E119" s="28" t="s">
         <v>613</v>
@@ -19163,10 +19956,10 @@
         <v>617</v>
       </c>
       <c r="C120" s="24" t="s">
-        <v>2147</v>
+        <v>2649</v>
       </c>
       <c r="D120" s="24" t="s">
-        <v>617</v>
+        <v>2642</v>
       </c>
       <c r="E120" s="28" t="s">
         <v>616</v>
@@ -19184,10 +19977,10 @@
         <v>620</v>
       </c>
       <c r="C121" s="24" t="s">
-        <v>2148</v>
+        <v>2128</v>
       </c>
       <c r="D121" s="24" t="s">
-        <v>620</v>
+        <v>2650</v>
       </c>
       <c r="E121" s="28" t="s">
         <v>621</v>
@@ -19205,10 +19998,10 @@
         <v>624</v>
       </c>
       <c r="C122" s="24" t="s">
-        <v>2149</v>
+        <v>2129</v>
       </c>
       <c r="D122" s="24" t="s">
-        <v>624</v>
+        <v>2651</v>
       </c>
       <c r="E122" s="30" t="s">
         <v>625</v>
@@ -19226,10 +20019,10 @@
         <v>628</v>
       </c>
       <c r="C123" s="24" t="s">
-        <v>2150</v>
+        <v>2130</v>
       </c>
       <c r="D123" s="24" t="s">
-        <v>628</v>
+        <v>2652</v>
       </c>
       <c r="E123" s="30" t="s">
         <v>629</v>
@@ -19247,10 +20040,10 @@
         <v>632</v>
       </c>
       <c r="C124" s="24" t="s">
-        <v>2151</v>
+        <v>2131</v>
       </c>
       <c r="D124" s="24" t="s">
-        <v>632</v>
+        <v>2653</v>
       </c>
       <c r="E124" s="30" t="s">
         <v>633</v>
@@ -19268,10 +20061,10 @@
         <v>636</v>
       </c>
       <c r="C125" s="24" t="s">
-        <v>2152</v>
+        <v>2132</v>
       </c>
       <c r="D125" s="24" t="s">
-        <v>636</v>
+        <v>2654</v>
       </c>
       <c r="E125" s="30" t="s">
         <v>637</v>
@@ -19289,10 +20082,10 @@
         <v>640</v>
       </c>
       <c r="C126" s="24" t="s">
-        <v>2153</v>
+        <v>2133</v>
       </c>
       <c r="D126" s="24" t="s">
-        <v>640</v>
+        <v>2655</v>
       </c>
       <c r="E126" s="30" t="s">
         <v>641</v>
@@ -19310,10 +20103,10 @@
         <v>644</v>
       </c>
       <c r="C127" s="24" t="s">
-        <v>2154</v>
+        <v>2134</v>
       </c>
       <c r="D127" s="24" t="s">
-        <v>644</v>
+        <v>2656</v>
       </c>
       <c r="E127" s="30" t="s">
         <v>645</v>
@@ -19329,7 +20122,7 @@
       </c>
       <c r="B128" s="27"/>
       <c r="C128" s="24" t="s">
-        <v>2155</v>
+        <v>2657</v>
       </c>
       <c r="D128" s="24"/>
       <c r="E128" s="28" t="s">
@@ -19344,7 +20137,7 @@
       </c>
       <c r="B129" s="27"/>
       <c r="C129" s="24" t="s">
-        <v>2156</v>
+        <v>2658</v>
       </c>
       <c r="D129" s="24"/>
       <c r="E129" s="28" t="s">
@@ -19359,7 +20152,7 @@
       </c>
       <c r="B130" s="27"/>
       <c r="C130" s="24" t="s">
-        <v>2157</v>
+        <v>2659</v>
       </c>
       <c r="D130" s="24"/>
       <c r="E130" s="28" t="s">
@@ -19374,7 +20167,7 @@
       </c>
       <c r="B131" s="27"/>
       <c r="C131" s="24" t="s">
-        <v>2158</v>
+        <v>2660</v>
       </c>
       <c r="D131" s="24"/>
       <c r="E131" s="28" t="s">
@@ -19389,7 +20182,7 @@
       </c>
       <c r="B132" s="27"/>
       <c r="C132" s="24" t="s">
-        <v>2159</v>
+        <v>2661</v>
       </c>
       <c r="D132" s="24"/>
       <c r="E132" s="28" t="s">
@@ -19404,7 +20197,7 @@
       </c>
       <c r="B133" s="27"/>
       <c r="C133" s="24" t="s">
-        <v>2160</v>
+        <v>2662</v>
       </c>
       <c r="D133" s="24"/>
       <c r="E133" s="28" t="s">
@@ -19419,7 +20212,7 @@
       </c>
       <c r="B134" s="27"/>
       <c r="C134" s="24" t="s">
-        <v>2161</v>
+        <v>2663</v>
       </c>
       <c r="D134" s="24"/>
       <c r="E134" s="28" t="s">
@@ -19434,7 +20227,7 @@
       </c>
       <c r="B135" s="27"/>
       <c r="C135" s="24" t="s">
-        <v>2162</v>
+        <v>2664</v>
       </c>
       <c r="D135" s="24"/>
       <c r="E135" s="28" t="s">
@@ -19449,7 +20242,7 @@
       </c>
       <c r="B136" s="27"/>
       <c r="C136" s="24" t="s">
-        <v>2163</v>
+        <v>2665</v>
       </c>
       <c r="D136" s="24"/>
       <c r="E136" s="28" t="s">
@@ -19464,7 +20257,7 @@
       </c>
       <c r="B137" s="27"/>
       <c r="C137" s="24" t="s">
-        <v>2164</v>
+        <v>2666</v>
       </c>
       <c r="D137" s="24"/>
       <c r="E137" s="28" t="s">
@@ -19479,7 +20272,7 @@
       </c>
       <c r="B138" s="27"/>
       <c r="C138" s="24" t="s">
-        <v>2165</v>
+        <v>2667</v>
       </c>
       <c r="D138" s="24"/>
       <c r="E138" s="28" t="s">
@@ -19494,7 +20287,7 @@
       </c>
       <c r="B139" s="27"/>
       <c r="C139" s="24" t="s">
-        <v>2166</v>
+        <v>2668</v>
       </c>
       <c r="D139" s="24"/>
       <c r="E139" s="28" t="s">
@@ -19509,7 +20302,7 @@
       </c>
       <c r="B140" s="27"/>
       <c r="C140" s="24" t="s">
-        <v>2167</v>
+        <v>2669</v>
       </c>
       <c r="D140" s="24"/>
       <c r="E140" s="28" t="s">
@@ -19524,7 +20317,7 @@
       </c>
       <c r="B141" s="27"/>
       <c r="C141" s="24" t="s">
-        <v>2168</v>
+        <v>2670</v>
       </c>
       <c r="D141" s="24"/>
       <c r="E141" s="28" t="s">
@@ -19541,10 +20334,10 @@
         <v>676</v>
       </c>
       <c r="C142" s="24" t="s">
-        <v>2169</v>
+        <v>2135</v>
       </c>
       <c r="D142" s="24" t="s">
-        <v>2270</v>
+        <v>2232</v>
       </c>
       <c r="E142" s="28" t="s">
         <v>677</v>
@@ -19562,10 +20355,10 @@
         <v>680</v>
       </c>
       <c r="C143" s="24" t="s">
-        <v>2170</v>
+        <v>2136</v>
       </c>
       <c r="D143" s="24" t="s">
-        <v>2271</v>
+        <v>2233</v>
       </c>
       <c r="E143" s="28" t="s">
         <v>681</v>
@@ -19583,10 +20376,10 @@
         <v>684</v>
       </c>
       <c r="C144" s="24" t="s">
-        <v>2171</v>
+        <v>2137</v>
       </c>
       <c r="D144" s="24" t="s">
-        <v>2272</v>
+        <v>2234</v>
       </c>
       <c r="E144" s="28" t="s">
         <v>685</v>
@@ -19604,10 +20397,10 @@
         <v>688</v>
       </c>
       <c r="C145" s="24" t="s">
-        <v>2172</v>
+        <v>2138</v>
       </c>
       <c r="D145" s="24" t="s">
-        <v>688</v>
+        <v>2671</v>
       </c>
       <c r="E145" s="28" t="s">
         <v>689</v>
@@ -19625,10 +20418,10 @@
         <v>692</v>
       </c>
       <c r="C146" s="24" t="s">
-        <v>2173</v>
+        <v>2139</v>
       </c>
       <c r="D146" s="24" t="s">
-        <v>692</v>
+        <v>2673</v>
       </c>
       <c r="E146" s="32" t="s">
         <v>693</v>
@@ -19646,10 +20439,10 @@
         <v>696</v>
       </c>
       <c r="C147" s="24" t="s">
-        <v>2174</v>
+        <v>2140</v>
       </c>
       <c r="D147" s="24" t="s">
-        <v>696</v>
+        <v>2672</v>
       </c>
       <c r="E147" s="28" t="s">
         <v>697</v>
@@ -19667,10 +20460,10 @@
         <v>700</v>
       </c>
       <c r="C148" s="24" t="s">
-        <v>2175</v>
+        <v>2141</v>
       </c>
       <c r="D148" s="24" t="s">
-        <v>2283</v>
+        <v>2244</v>
       </c>
       <c r="E148" s="28" t="s">
         <v>701</v>
@@ -19688,10 +20481,10 @@
         <v>704</v>
       </c>
       <c r="C149" s="24" t="s">
-        <v>2176</v>
+        <v>2142</v>
       </c>
       <c r="D149" s="24" t="s">
-        <v>2284</v>
+        <v>2245</v>
       </c>
       <c r="E149" s="28" t="s">
         <v>705</v>
@@ -19709,10 +20502,10 @@
         <v>708</v>
       </c>
       <c r="C150" s="24" t="s">
-        <v>2177</v>
+        <v>2143</v>
       </c>
       <c r="D150" s="24" t="s">
-        <v>2285</v>
+        <v>2246</v>
       </c>
       <c r="E150" s="28" t="s">
         <v>709</v>
@@ -19730,10 +20523,10 @@
         <v>712</v>
       </c>
       <c r="C151" s="24" t="s">
-        <v>2178</v>
+        <v>2144</v>
       </c>
       <c r="D151" s="24" t="s">
-        <v>2286</v>
+        <v>2247</v>
       </c>
       <c r="E151" s="28" t="s">
         <v>713</v>
@@ -19751,10 +20544,10 @@
         <v>716</v>
       </c>
       <c r="C152" s="24" t="s">
-        <v>2179</v>
+        <v>2145</v>
       </c>
       <c r="D152" s="24" t="s">
-        <v>2287</v>
+        <v>2248</v>
       </c>
       <c r="E152" s="28" t="s">
         <v>717</v>
@@ -19772,10 +20565,10 @@
         <v>720</v>
       </c>
       <c r="C153" s="24" t="s">
-        <v>2180</v>
+        <v>2146</v>
       </c>
       <c r="D153" s="24" t="s">
-        <v>2288</v>
+        <v>2249</v>
       </c>
       <c r="E153" s="28" t="s">
         <v>721</v>
@@ -19793,10 +20586,10 @@
         <v>724</v>
       </c>
       <c r="C154" s="24" t="s">
-        <v>2181</v>
+        <v>2147</v>
       </c>
       <c r="D154" s="24" t="s">
-        <v>2289</v>
+        <v>2250</v>
       </c>
       <c r="E154" s="32" t="s">
         <v>725</v>
@@ -19814,10 +20607,10 @@
         <v>700</v>
       </c>
       <c r="C155" s="24" t="s">
-        <v>2182</v>
+        <v>2148</v>
       </c>
       <c r="D155" s="24" t="s">
-        <v>2283</v>
+        <v>2244</v>
       </c>
       <c r="E155" s="28" t="s">
         <v>728</v>
@@ -19835,10 +20628,10 @@
         <v>730</v>
       </c>
       <c r="C156" s="24" t="s">
-        <v>2183</v>
+        <v>2149</v>
       </c>
       <c r="D156" s="24" t="s">
-        <v>2273</v>
+        <v>2235</v>
       </c>
       <c r="E156" s="28" t="s">
         <v>731</v>
@@ -19856,10 +20649,10 @@
         <v>734</v>
       </c>
       <c r="C157" s="24" t="s">
-        <v>2184</v>
+        <v>2150</v>
       </c>
       <c r="D157" s="24" t="s">
-        <v>734</v>
+        <v>2674</v>
       </c>
       <c r="E157" s="28" t="s">
         <v>735</v>
@@ -19877,10 +20670,10 @@
         <v>734</v>
       </c>
       <c r="C158" s="24" t="s">
-        <v>2185</v>
+        <v>2151</v>
       </c>
       <c r="D158" s="24" t="s">
-        <v>734</v>
+        <v>2674</v>
       </c>
       <c r="E158" s="28" t="s">
         <v>738</v>
@@ -19898,10 +20691,10 @@
         <v>740</v>
       </c>
       <c r="C159" s="24" t="s">
-        <v>2186</v>
+        <v>2152</v>
       </c>
       <c r="D159" s="24" t="s">
-        <v>740</v>
+        <v>2675</v>
       </c>
       <c r="E159" s="28" t="s">
         <v>741</v>
@@ -19919,10 +20712,10 @@
         <v>744</v>
       </c>
       <c r="C160" s="24" t="s">
-        <v>2187</v>
+        <v>2153</v>
       </c>
       <c r="D160" s="24" t="s">
-        <v>2290</v>
+        <v>2251</v>
       </c>
       <c r="E160" s="28" t="s">
         <v>745</v>
@@ -19940,10 +20733,10 @@
         <v>747</v>
       </c>
       <c r="C161" s="24" t="s">
-        <v>2188</v>
+        <v>2154</v>
       </c>
       <c r="D161" s="24" t="s">
-        <v>2291</v>
+        <v>2252</v>
       </c>
       <c r="E161" s="28" t="s">
         <v>748</v>
@@ -19961,10 +20754,10 @@
         <v>750</v>
       </c>
       <c r="C162" s="24" t="s">
-        <v>2189</v>
+        <v>2155</v>
       </c>
       <c r="D162" s="24" t="s">
-        <v>2293</v>
+        <v>2254</v>
       </c>
       <c r="E162" s="28" t="s">
         <v>751</v>
@@ -19982,10 +20775,10 @@
         <v>754</v>
       </c>
       <c r="C163" s="24" t="s">
-        <v>2190</v>
+        <v>2156</v>
       </c>
       <c r="D163" s="24" t="s">
-        <v>2292</v>
+        <v>2253</v>
       </c>
       <c r="E163" s="28" t="s">
         <v>755</v>
@@ -20003,10 +20796,10 @@
         <v>758</v>
       </c>
       <c r="C164" s="24" t="s">
-        <v>2191</v>
+        <v>2157</v>
       </c>
       <c r="D164" s="24" t="s">
-        <v>2282</v>
+        <v>2243</v>
       </c>
       <c r="E164" s="28" t="s">
         <v>759</v>
@@ -20024,10 +20817,10 @@
         <v>762</v>
       </c>
       <c r="C165" s="24" t="s">
-        <v>2192</v>
+        <v>2158</v>
       </c>
       <c r="D165" s="24" t="s">
-        <v>762</v>
+        <v>2676</v>
       </c>
       <c r="E165" s="28" t="s">
         <v>763</v>
@@ -20045,10 +20838,10 @@
         <v>766</v>
       </c>
       <c r="C166" s="24" t="s">
-        <v>2193</v>
+        <v>2159</v>
       </c>
       <c r="D166" s="24" t="s">
-        <v>766</v>
+        <v>2677</v>
       </c>
       <c r="E166" s="28" t="s">
         <v>767</v>
@@ -20066,10 +20859,10 @@
         <v>766</v>
       </c>
       <c r="C167" s="24" t="s">
-        <v>2194</v>
+        <v>2160</v>
       </c>
       <c r="D167" s="24" t="s">
-        <v>766</v>
+        <v>2677</v>
       </c>
       <c r="E167" s="28" t="s">
         <v>770</v>
@@ -20087,10 +20880,10 @@
         <v>772</v>
       </c>
       <c r="C168" s="24" t="s">
-        <v>2195</v>
+        <v>2161</v>
       </c>
       <c r="D168" s="24" t="s">
-        <v>2274</v>
+        <v>2236</v>
       </c>
       <c r="E168" s="28" t="s">
         <v>773</v>
@@ -20108,10 +20901,10 @@
         <v>776</v>
       </c>
       <c r="C169" s="24" t="s">
-        <v>2196</v>
+        <v>2162</v>
       </c>
       <c r="D169" s="24" t="s">
-        <v>776</v>
+        <v>2678</v>
       </c>
       <c r="E169" s="28" t="s">
         <v>777</v>
@@ -20129,10 +20922,10 @@
         <v>780</v>
       </c>
       <c r="C170" s="24" t="s">
-        <v>2197</v>
+        <v>2163</v>
       </c>
       <c r="D170" s="24" t="s">
-        <v>780</v>
+        <v>2681</v>
       </c>
       <c r="E170" s="28" t="s">
         <v>781</v>
@@ -20148,10 +20941,10 @@
         <v>783</v>
       </c>
       <c r="C171" s="24" t="s">
-        <v>2198</v>
+        <v>2164</v>
       </c>
       <c r="D171" s="24" t="s">
-        <v>783</v>
+        <v>2680</v>
       </c>
       <c r="E171" s="28" t="s">
         <v>784</v>
@@ -20167,10 +20960,10 @@
         <v>786</v>
       </c>
       <c r="C172" s="24" t="s">
-        <v>2199</v>
+        <v>2165</v>
       </c>
       <c r="D172" s="24" t="s">
-        <v>786</v>
+        <v>2679</v>
       </c>
       <c r="E172" s="28" t="s">
         <v>787</v>
@@ -20186,10 +20979,10 @@
         <v>788</v>
       </c>
       <c r="C173" s="24" t="s">
-        <v>2199</v>
+        <v>2165</v>
       </c>
       <c r="D173" s="24" t="s">
-        <v>788</v>
+        <v>2711</v>
       </c>
       <c r="E173" s="28" t="s">
         <v>787</v>
@@ -20205,10 +20998,10 @@
         <v>790</v>
       </c>
       <c r="C174" s="24" t="s">
-        <v>2200</v>
+        <v>2166</v>
       </c>
       <c r="D174" s="24" t="s">
-        <v>790</v>
+        <v>2682</v>
       </c>
       <c r="E174" s="28" t="s">
         <v>791</v>
@@ -20224,10 +21017,10 @@
         <v>793</v>
       </c>
       <c r="C175" s="24" t="s">
-        <v>2201</v>
+        <v>2167</v>
       </c>
       <c r="D175" s="24" t="s">
-        <v>793</v>
+        <v>2710</v>
       </c>
       <c r="E175" s="28" t="s">
         <v>794</v>
@@ -20243,10 +21036,10 @@
         <v>795</v>
       </c>
       <c r="C176" s="24" t="s">
-        <v>2202</v>
+        <v>2168</v>
       </c>
       <c r="D176" s="24" t="s">
-        <v>795</v>
+        <v>2712</v>
       </c>
       <c r="E176" s="28" t="s">
         <v>794</v>
@@ -20262,10 +21055,10 @@
         <v>797</v>
       </c>
       <c r="C177" s="24" t="s">
-        <v>2203</v>
+        <v>2169</v>
       </c>
       <c r="D177" s="24" t="s">
-        <v>797</v>
+        <v>2713</v>
       </c>
       <c r="E177" s="28" t="s">
         <v>798</v>
@@ -20281,10 +21074,10 @@
         <v>800</v>
       </c>
       <c r="C178" s="24" t="s">
-        <v>2204</v>
+        <v>2170</v>
       </c>
       <c r="D178" s="24" t="s">
-        <v>800</v>
+        <v>2683</v>
       </c>
       <c r="E178" s="28" t="s">
         <v>801</v>
@@ -20302,10 +21095,10 @@
         <v>804</v>
       </c>
       <c r="C179" s="24" t="s">
-        <v>2205</v>
+        <v>2171</v>
       </c>
       <c r="D179" s="24" t="s">
-        <v>804</v>
+        <v>2684</v>
       </c>
       <c r="E179" s="30" t="s">
         <v>805</v>
@@ -20323,10 +21116,10 @@
         <v>808</v>
       </c>
       <c r="C180" s="24" t="s">
-        <v>2206</v>
+        <v>2172</v>
       </c>
       <c r="D180" s="24" t="s">
-        <v>808</v>
+        <v>2685</v>
       </c>
       <c r="E180" s="30" t="s">
         <v>809</v>
@@ -20344,10 +21137,10 @@
         <v>812</v>
       </c>
       <c r="C181" s="24" t="s">
-        <v>2207</v>
+        <v>2173</v>
       </c>
       <c r="D181" s="24" t="s">
-        <v>812</v>
+        <v>2686</v>
       </c>
       <c r="E181" s="28" t="s">
         <v>813</v>
@@ -20365,10 +21158,10 @@
         <v>816</v>
       </c>
       <c r="C182" s="24" t="s">
-        <v>2208</v>
+        <v>2174</v>
       </c>
       <c r="D182" s="24" t="s">
-        <v>816</v>
+        <v>2692</v>
       </c>
       <c r="E182" s="28" t="s">
         <v>817</v>
@@ -20386,10 +21179,10 @@
         <v>820</v>
       </c>
       <c r="C183" s="24" t="s">
-        <v>2209</v>
+        <v>2689</v>
       </c>
       <c r="D183" s="24" t="s">
-        <v>820</v>
+        <v>2690</v>
       </c>
       <c r="E183" s="28" t="s">
         <v>821</v>
@@ -20407,10 +21200,10 @@
         <v>824</v>
       </c>
       <c r="C184" s="24" t="s">
-        <v>2210</v>
+        <v>2175</v>
       </c>
       <c r="D184" s="24" t="s">
-        <v>824</v>
+        <v>2688</v>
       </c>
       <c r="E184" s="28" t="s">
         <v>825</v>
@@ -20428,10 +21221,10 @@
         <v>828</v>
       </c>
       <c r="C185" s="24" t="s">
-        <v>2211</v>
+        <v>2176</v>
       </c>
       <c r="D185" s="24" t="s">
-        <v>828</v>
+        <v>2687</v>
       </c>
       <c r="E185" s="28" t="s">
         <v>829</v>
@@ -20449,10 +21242,10 @@
         <v>832</v>
       </c>
       <c r="C186" s="24" t="s">
-        <v>2212</v>
+        <v>2177</v>
       </c>
       <c r="D186" s="24" t="s">
-        <v>832</v>
+        <v>2691</v>
       </c>
       <c r="E186" s="28" t="s">
         <v>833</v>
@@ -20470,10 +21263,10 @@
         <v>836</v>
       </c>
       <c r="C187" s="24" t="s">
-        <v>2213</v>
+        <v>2178</v>
       </c>
       <c r="D187" s="24" t="s">
-        <v>836</v>
+        <v>2693</v>
       </c>
       <c r="E187" s="28" t="s">
         <v>837</v>
@@ -20491,10 +21284,10 @@
         <v>840</v>
       </c>
       <c r="C188" s="24" t="s">
-        <v>2214</v>
+        <v>2179</v>
       </c>
       <c r="D188" s="24" t="s">
-        <v>840</v>
+        <v>2694</v>
       </c>
       <c r="E188" s="28" t="s">
         <v>841</v>
@@ -20512,10 +21305,10 @@
         <v>844</v>
       </c>
       <c r="C189" s="24" t="s">
-        <v>2215</v>
+        <v>2180</v>
       </c>
       <c r="D189" s="24" t="s">
-        <v>844</v>
+        <v>2695</v>
       </c>
       <c r="E189" s="28" t="s">
         <v>845</v>
@@ -20533,10 +21326,10 @@
         <v>848</v>
       </c>
       <c r="C190" s="24" t="s">
-        <v>2216</v>
+        <v>2181</v>
       </c>
       <c r="D190" s="24" t="s">
-        <v>848</v>
+        <v>2696</v>
       </c>
       <c r="E190" s="28" t="s">
         <v>849</v>
@@ -20554,10 +21347,10 @@
         <v>852</v>
       </c>
       <c r="C191" s="24" t="s">
-        <v>2217</v>
+        <v>2182</v>
       </c>
       <c r="D191" s="24" t="s">
-        <v>2276</v>
+        <v>2237</v>
       </c>
       <c r="E191" s="28" t="s">
         <v>853</v>
@@ -20577,10 +21370,10 @@
         <v>856</v>
       </c>
       <c r="C192" s="24" t="s">
-        <v>2217</v>
+        <v>2182</v>
       </c>
       <c r="D192" s="24" t="s">
-        <v>2279</v>
+        <v>2240</v>
       </c>
       <c r="E192" s="32" t="s">
         <v>853</v>
@@ -20600,10 +21393,10 @@
         <v>860</v>
       </c>
       <c r="C193" s="24" t="s">
-        <v>2218</v>
+        <v>2183</v>
       </c>
       <c r="D193" s="24" t="s">
-        <v>860</v>
+        <v>2697</v>
       </c>
       <c r="E193" s="28" t="s">
         <v>861</v>
@@ -20621,10 +21414,10 @@
         <v>864</v>
       </c>
       <c r="C194" s="24" t="s">
-        <v>2219</v>
+        <v>2184</v>
       </c>
       <c r="D194" s="24" t="s">
-        <v>864</v>
+        <v>2698</v>
       </c>
       <c r="E194" s="28" t="s">
         <v>865</v>
@@ -20642,10 +21435,10 @@
         <v>868</v>
       </c>
       <c r="C195" s="24" t="s">
-        <v>2220</v>
+        <v>2185</v>
       </c>
       <c r="D195" s="24" t="s">
-        <v>868</v>
+        <v>2699</v>
       </c>
       <c r="E195" s="28" t="s">
         <v>869</v>
@@ -20663,10 +21456,10 @@
         <v>872</v>
       </c>
       <c r="C196" s="24" t="s">
-        <v>2221</v>
+        <v>2186</v>
       </c>
       <c r="D196" s="24" t="s">
-        <v>2275</v>
+        <v>2700</v>
       </c>
       <c r="E196" s="28" t="s">
         <v>873</v>
@@ -20684,10 +21477,10 @@
         <v>876</v>
       </c>
       <c r="C197" s="24" t="s">
-        <v>2222</v>
+        <v>2187</v>
       </c>
       <c r="D197" s="24" t="s">
-        <v>876</v>
+        <v>2701</v>
       </c>
       <c r="E197" s="28" t="s">
         <v>875</v>
@@ -20705,10 +21498,10 @@
         <v>879</v>
       </c>
       <c r="C198" s="24" t="s">
-        <v>2223</v>
+        <v>2188</v>
       </c>
       <c r="D198" s="24" t="s">
-        <v>879</v>
+        <v>2714</v>
       </c>
       <c r="E198" s="28" t="s">
         <v>880</v>
@@ -20726,10 +21519,10 @@
         <v>883</v>
       </c>
       <c r="C199" s="24" t="s">
-        <v>2224</v>
+        <v>2189</v>
       </c>
       <c r="D199" s="24" t="s">
-        <v>883</v>
+        <v>2715</v>
       </c>
       <c r="E199" s="28" t="s">
         <v>884</v>
@@ -20747,10 +21540,10 @@
         <v>887</v>
       </c>
       <c r="C200" s="24" t="s">
-        <v>2225</v>
+        <v>2190</v>
       </c>
       <c r="D200" s="24" t="s">
-        <v>887</v>
+        <v>2716</v>
       </c>
       <c r="E200" s="28" t="s">
         <v>888</v>
@@ -20768,10 +21561,10 @@
         <v>891</v>
       </c>
       <c r="C201" s="24" t="s">
-        <v>2226</v>
+        <v>2191</v>
       </c>
       <c r="D201" s="24" t="s">
-        <v>891</v>
+        <v>2717</v>
       </c>
       <c r="E201" s="28" t="s">
         <v>892</v>
@@ -20789,10 +21582,10 @@
         <v>895</v>
       </c>
       <c r="C202" s="24" t="s">
-        <v>2227</v>
+        <v>2192</v>
       </c>
       <c r="D202" s="24" t="s">
-        <v>2280</v>
+        <v>2241</v>
       </c>
       <c r="E202" s="28" t="s">
         <v>896</v>
@@ -20810,10 +21603,10 @@
         <v>899</v>
       </c>
       <c r="C203" s="24" t="s">
-        <v>2228</v>
+        <v>2193</v>
       </c>
       <c r="D203" s="24" t="s">
-        <v>2281</v>
+        <v>2242</v>
       </c>
       <c r="E203" s="28" t="s">
         <v>900</v>
@@ -20862,7 +21655,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>2014</v>
+        <v>2008</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>3</v>
@@ -20880,7 +21673,7 @@
         <v>904</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>2457</v>
+        <v>2417</v>
       </c>
       <c r="F2" s="34" t="s">
         <v>905</v>
@@ -20894,7 +21687,7 @@
         <v>906</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>2458</v>
+        <v>2418</v>
       </c>
       <c r="F3" s="34" t="s">
         <v>907</v>
@@ -20914,7 +21707,7 @@
         <v>910</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>2459</v>
+        <v>2419</v>
       </c>
       <c r="F4" s="34" t="s">
         <v>911</v>
@@ -20928,7 +21721,7 @@
         <v>912</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>2460</v>
+        <v>2420</v>
       </c>
       <c r="F5" s="34" t="s">
         <v>913</v>
@@ -20944,7 +21737,7 @@
         <v>910</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>2459</v>
+        <v>2419</v>
       </c>
       <c r="F6" s="34" t="s">
         <v>911</v>
@@ -20958,7 +21751,7 @@
         <v>912</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>2460</v>
+        <v>2420</v>
       </c>
       <c r="F7" s="34" t="s">
         <v>913</v>
@@ -20976,7 +21769,7 @@
         <v>916</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>2461</v>
+        <v>2421</v>
       </c>
       <c r="F8" s="28" t="s">
         <v>917</v>
@@ -20990,7 +21783,7 @@
         <v>918</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>2462</v>
+        <v>2422</v>
       </c>
       <c r="F9" s="28" t="s">
         <v>919</v>
@@ -21515,7 +22308,7 @@
       </c>
       <c r="E46" s="28"/>
       <c r="F46" s="28" t="s">
-        <v>2013</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15">
@@ -21876,7 +22669,7 @@
         <v>908</v>
       </c>
       <c r="C72" s="38" t="s">
-        <v>2277</v>
+        <v>2238</v>
       </c>
       <c r="D72" s="28" t="s">
         <v>1041</v>
@@ -21902,7 +22695,7 @@
       <c r="A74" s="28"/>
       <c r="B74" s="28"/>
       <c r="C74" s="28" t="s">
-        <v>2278</v>
+        <v>2239</v>
       </c>
       <c r="D74" s="28" t="s">
         <v>1041</v>
@@ -22066,7 +22859,7 @@
         <v>908</v>
       </c>
       <c r="C85" s="38" t="s">
-        <v>2277</v>
+        <v>2238</v>
       </c>
       <c r="D85" s="28" t="s">
         <v>1067</v>
@@ -22126,7 +22919,7 @@
         <v>908</v>
       </c>
       <c r="C89" s="38" t="s">
-        <v>2277</v>
+        <v>2238</v>
       </c>
       <c r="D89" s="28" t="s">
         <v>1077</v>
@@ -22152,7 +22945,7 @@
       <c r="A91" s="28"/>
       <c r="B91" s="28"/>
       <c r="C91" s="28" t="s">
-        <v>2278</v>
+        <v>2239</v>
       </c>
       <c r="D91" s="28" t="s">
         <v>1077</v>
@@ -22192,7 +22985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L92"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -23919,7 +24712,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>2313</v>
+        <v>2274</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>3</v>
@@ -23933,7 +24726,7 @@
         <v>1303</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>2314</v>
+        <v>2275</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>1304</v>
@@ -23947,7 +24740,7 @@
         <v>1306</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>2315</v>
+        <v>2276</v>
       </c>
       <c r="D3" s="28" t="s">
         <v>1307</v>
@@ -23961,7 +24754,7 @@
         <v>1308</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>2319</v>
+        <v>2280</v>
       </c>
       <c r="D4" s="28" t="s">
         <v>1309</v>
@@ -23975,7 +24768,7 @@
         <v>1310</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>2316</v>
+        <v>2277</v>
       </c>
       <c r="D5" s="28" t="s">
         <v>1311</v>
@@ -23989,7 +24782,7 @@
         <v>1312</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>2317</v>
+        <v>2278</v>
       </c>
       <c r="D6" s="28" t="s">
         <v>1313</v>
@@ -24003,7 +24796,7 @@
         <v>1314</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>2318</v>
+        <v>2279</v>
       </c>
       <c r="D7" s="28" t="s">
         <v>1315</v>
@@ -24017,7 +24810,7 @@
         <v>1316</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>2320</v>
+        <v>2281</v>
       </c>
       <c r="D8" s="28" t="s">
         <v>1317</v>
@@ -24031,7 +24824,7 @@
         <v>1318</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>2321</v>
+        <v>2282</v>
       </c>
       <c r="D9" s="28" t="s">
         <v>1318</v>
@@ -24045,7 +24838,7 @@
         <v>1319</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>2322</v>
+        <v>2283</v>
       </c>
       <c r="D10" s="28" t="s">
         <v>1320</v>
@@ -24059,7 +24852,7 @@
         <v>1321</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>2323</v>
+        <v>2284</v>
       </c>
       <c r="D11" s="28" t="s">
         <v>1322</v>
@@ -24073,7 +24866,7 @@
         <v>1323</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>2324</v>
+        <v>2285</v>
       </c>
       <c r="D12" s="28" t="s">
         <v>1324</v>

--- a/English translation/その他文字 (Items, Skills, Characters, Descriptions)/固有名詞 (Literally everything else).xlsx
+++ b/English translation/その他文字 (Items, Skills, Characters, Descriptions)/固有名詞 (Literally everything else).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21943" windowHeight="8091" tabRatio="627" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21943" windowHeight="8091" tabRatio="627" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="names-名前" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3931" uniqueCount="2718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3931" uniqueCount="2717">
   <si>
     <t>カテゴリ</t>
   </si>
@@ -6509,9 +6509,6 @@
     <t>Bullion</t>
   </si>
   <si>
-    <t>Candleabra</t>
-  </si>
-  <si>
     <t>Enigmatic Statue</t>
   </si>
   <si>
@@ -6837,12 +6834,6 @@
     <t>An idol of the Goddess. It increases various abilities.</t>
   </si>
   <si>
-    <t>The holy sword of wind. Use to unleash it's true power.</t>
-  </si>
-  <si>
-    <t>The holy sword of light.  Use to unleash it's true power.</t>
-  </si>
-  <si>
     <t>Luk+10</t>
   </si>
   <si>
@@ -6912,9 +6903,6 @@
     <t>The Holy Sword Revival</t>
   </si>
   <si>
-    <t>The Royal Monastary</t>
-  </si>
-  <si>
     <t>A Tingle of Temptation</t>
   </si>
   <si>
@@ -7161,9 +7149,6 @@
     <t>Professor</t>
   </si>
   <si>
-    <t>Upstart Theif</t>
-  </si>
-  <si>
     <t>Martial Artist</t>
   </si>
   <si>
@@ -7197,9 +7182,6 @@
     <t>Moumei</t>
   </si>
   <si>
-    <t>Highschool Girl</t>
-  </si>
-  <si>
     <t>Middle Student</t>
   </si>
   <si>
@@ -7408,18 +7390,6 @@
   </si>
   <si>
     <t>Two Women</t>
-  </si>
-  <si>
-    <t>Enemy Type 1: Junior Schoolgirl A</t>
-  </si>
-  <si>
-    <t>Enemy Type 2:  Junior Schoolgirl B</t>
-  </si>
-  <si>
-    <t>Enemy Type 3: Middle Schholgirl</t>
-  </si>
-  <si>
-    <t>Enemy Type 4: Highschool Girl</t>
   </si>
   <si>
     <t>Knight (About CC)</t>
@@ -8239,6 +8209,33 @@
   </si>
   <si>
     <t>A fang from a beast slain ten years ago. Grants Str+2, Luk+1.</t>
+  </si>
+  <si>
+    <t>High School Girl</t>
+  </si>
+  <si>
+    <t>Enemy Type 1: Junior Student A</t>
+  </si>
+  <si>
+    <t>Enemy Type 2:  Junior Student B</t>
+  </si>
+  <si>
+    <t>Enemy Type 3: Middle Student</t>
+  </si>
+  <si>
+    <t>Enemy Type 4: High School Girl</t>
+  </si>
+  <si>
+    <t>The holy sword of wind. Use to unleash its true power.</t>
+  </si>
+  <si>
+    <t>The holy sword of light. Use to unleash its true power.</t>
+  </si>
+  <si>
+    <t>Candelabra</t>
+  </si>
+  <si>
+    <t>The Royal Monastery</t>
   </si>
 </sst>
 </file>
@@ -8960,8 +8957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15"/>
@@ -8986,13 +8983,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>2345</v>
+        <v>2341</v>
       </c>
       <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>2346</v>
+        <v>2342</v>
       </c>
       <c r="G1" s="26" t="s">
         <v>3</v>
@@ -9012,7 +9009,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>2347</v>
+        <v>2343</v>
       </c>
       <c r="E2" s="28"/>
       <c r="F2" s="28"/>
@@ -9032,7 +9029,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>2348</v>
+        <v>2344</v>
       </c>
       <c r="E3" s="28"/>
       <c r="F3" s="28"/>
@@ -9050,7 +9047,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>2349</v>
+        <v>2345</v>
       </c>
       <c r="E4" s="28"/>
       <c r="F4" s="28"/>
@@ -9070,7 +9067,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>2352</v>
+        <v>2348</v>
       </c>
       <c r="E5" s="28"/>
       <c r="F5" s="28"/>
@@ -9106,7 +9103,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>2350</v>
+        <v>2346</v>
       </c>
       <c r="E7" s="28"/>
       <c r="F7" s="28"/>
@@ -9124,7 +9121,7 @@
         <v>22</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>2351</v>
+        <v>2347</v>
       </c>
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
@@ -9144,7 +9141,7 @@
         <v>24</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>2353</v>
+        <v>2349</v>
       </c>
       <c r="E9" s="28"/>
       <c r="F9" s="28"/>
@@ -9162,7 +9159,7 @@
         <v>27</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>2354</v>
+        <v>2350</v>
       </c>
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
@@ -9177,10 +9174,10 @@
       </c>
       <c r="B11" s="28"/>
       <c r="C11" s="28" t="s">
-        <v>2409</v>
+        <v>2403</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>2410</v>
+        <v>2404</v>
       </c>
       <c r="E11" s="28"/>
       <c r="F11" s="28"/>
@@ -9196,7 +9193,7 @@
         <v>29</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>2355</v>
+        <v>2351</v>
       </c>
       <c r="E12" s="28"/>
       <c r="F12" s="28"/>
@@ -9214,7 +9211,7 @@
         <v>32</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>2356</v>
+        <v>2352</v>
       </c>
       <c r="E13" s="28"/>
       <c r="F13" s="28"/>
@@ -9232,7 +9229,7 @@
         <v>34</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>2357</v>
+        <v>2353</v>
       </c>
       <c r="E14" s="28"/>
       <c r="F14" s="28"/>
@@ -9250,7 +9247,7 @@
         <v>36</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>2358</v>
+        <v>2354</v>
       </c>
       <c r="E15" s="28"/>
       <c r="F15" s="28"/>
@@ -9268,7 +9265,7 @@
         <v>38</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>2359</v>
+        <v>2355</v>
       </c>
       <c r="E16" s="28"/>
       <c r="F16" s="28"/>
@@ -9286,7 +9283,7 @@
         <v>40</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>2360</v>
+        <v>2356</v>
       </c>
       <c r="E17" s="28"/>
       <c r="F17" s="28"/>
@@ -9301,10 +9298,10 @@
       </c>
       <c r="B18" s="28"/>
       <c r="C18" s="28" t="s">
-        <v>2411</v>
+        <v>2405</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>2414</v>
+        <v>2408</v>
       </c>
       <c r="E18" s="28"/>
       <c r="F18" s="28"/>
@@ -9317,10 +9314,10 @@
       </c>
       <c r="B19" s="28"/>
       <c r="C19" s="28" t="s">
-        <v>2412</v>
+        <v>2406</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>2415</v>
+        <v>2409</v>
       </c>
       <c r="E19" s="28"/>
       <c r="F19" s="28"/>
@@ -9333,10 +9330,10 @@
       </c>
       <c r="B20" s="28"/>
       <c r="C20" s="28" t="s">
-        <v>2413</v>
+        <v>2407</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>2416</v>
+        <v>2410</v>
       </c>
       <c r="E20" s="28"/>
       <c r="F20" s="28"/>
@@ -9370,7 +9367,7 @@
         <v>44</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="E22" s="28"/>
       <c r="F22" s="28"/>
@@ -9406,7 +9403,7 @@
         <v>48</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>2362</v>
+        <v>2358</v>
       </c>
       <c r="E24" s="28"/>
       <c r="F24" s="28"/>
@@ -9496,7 +9493,7 @@
         <v>57</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>2363</v>
+        <v>2126</v>
       </c>
       <c r="E29" s="28"/>
       <c r="F29" s="28"/>
@@ -9514,7 +9511,7 @@
         <v>59</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>2364</v>
+        <v>2359</v>
       </c>
       <c r="E30" s="28"/>
       <c r="F30" s="28"/>
@@ -9532,7 +9529,7 @@
         <v>61</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>2365</v>
+        <v>2360</v>
       </c>
       <c r="E31" s="28"/>
       <c r="F31" s="28"/>
@@ -9552,13 +9549,13 @@
         <v>65</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>2367</v>
+        <v>2362</v>
       </c>
       <c r="E32" s="28" t="s">
-        <v>2304</v>
+        <v>2300</v>
       </c>
       <c r="F32" s="28" t="s">
-        <v>2407</v>
+        <v>2401</v>
       </c>
       <c r="G32" s="28" t="s">
         <v>66</v>
@@ -9576,13 +9573,13 @@
         <v>67</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>2368</v>
+        <v>2363</v>
       </c>
       <c r="E33" s="28" t="s">
-        <v>2305</v>
+        <v>2301</v>
       </c>
       <c r="F33" s="28" t="s">
-        <v>2408</v>
+        <v>2402</v>
       </c>
       <c r="G33" s="34" t="s">
         <v>68</v>
@@ -9600,7 +9597,7 @@
         <v>69</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>2369</v>
+        <v>2364</v>
       </c>
       <c r="E34" s="28"/>
       <c r="F34" s="28"/>
@@ -9620,10 +9617,10 @@
         <v>71</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>2370</v>
+        <v>2365</v>
       </c>
       <c r="E35" s="28" t="s">
-        <v>2306</v>
+        <v>2302</v>
       </c>
       <c r="F35" s="28"/>
       <c r="G35" s="28" t="s">
@@ -9642,10 +9639,10 @@
         <v>73</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>2371</v>
+        <v>2366</v>
       </c>
       <c r="E36" s="28" t="s">
-        <v>2307</v>
+        <v>2303</v>
       </c>
       <c r="F36" s="28"/>
       <c r="G36" s="34" t="s">
@@ -9664,10 +9661,10 @@
         <v>75</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>2372</v>
+        <v>2367</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>2308</v>
+        <v>2304</v>
       </c>
       <c r="F37" s="28"/>
       <c r="G37" s="28" t="s">
@@ -9686,10 +9683,10 @@
         <v>77</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>2373</v>
+        <v>2368</v>
       </c>
       <c r="E38" s="28" t="s">
-        <v>2309</v>
+        <v>2305</v>
       </c>
       <c r="F38" s="28"/>
       <c r="G38" s="28" t="s">
@@ -9708,10 +9705,10 @@
         <v>79</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>2377</v>
+        <v>2371</v>
       </c>
       <c r="E39" s="28" t="s">
-        <v>2310</v>
+        <v>2306</v>
       </c>
       <c r="F39" s="28"/>
       <c r="G39" s="28" t="s">
@@ -9730,10 +9727,10 @@
         <v>79</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>2377</v>
+        <v>2371</v>
       </c>
       <c r="E40" s="28" t="s">
-        <v>2311</v>
+        <v>2307</v>
       </c>
       <c r="F40" s="28"/>
       <c r="G40" s="28" t="s">
@@ -9752,10 +9749,10 @@
         <v>81</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>2375</v>
+        <v>2708</v>
       </c>
       <c r="E41" s="28" t="s">
-        <v>2312</v>
+        <v>2308</v>
       </c>
       <c r="F41" s="28"/>
       <c r="G41" s="28" t="s">
@@ -9774,10 +9771,10 @@
         <v>83</v>
       </c>
       <c r="D42" s="28" t="s">
-        <v>2374</v>
+        <v>2369</v>
       </c>
       <c r="E42" s="28" t="s">
-        <v>2313</v>
+        <v>2309</v>
       </c>
       <c r="F42" s="28"/>
       <c r="G42" s="28" t="s">
@@ -9796,10 +9793,10 @@
         <v>85</v>
       </c>
       <c r="D43" s="28" t="s">
-        <v>2376</v>
+        <v>2370</v>
       </c>
       <c r="E43" s="28" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="F43" s="28"/>
       <c r="G43" s="28" t="s">
@@ -9818,10 +9815,10 @@
         <v>87</v>
       </c>
       <c r="D44" s="28" t="s">
-        <v>2366</v>
+        <v>2361</v>
       </c>
       <c r="E44" s="28" t="s">
-        <v>2315</v>
+        <v>2311</v>
       </c>
       <c r="F44" s="28"/>
       <c r="G44" s="28" t="s">
@@ -9840,10 +9837,10 @@
         <v>89</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>2378</v>
+        <v>2372</v>
       </c>
       <c r="E45" s="28" t="s">
-        <v>2316</v>
+        <v>2312</v>
       </c>
       <c r="F45" s="28"/>
       <c r="G45" s="41" t="s">
@@ -9862,10 +9859,10 @@
         <v>91</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>2379</v>
+        <v>2373</v>
       </c>
       <c r="E46" s="28" t="s">
-        <v>2317</v>
+        <v>2313</v>
       </c>
       <c r="F46" s="28"/>
       <c r="G46" s="28" t="s">
@@ -9884,10 +9881,10 @@
         <v>93</v>
       </c>
       <c r="D47" s="28" t="s">
-        <v>2380</v>
+        <v>2374</v>
       </c>
       <c r="E47" s="28" t="s">
-        <v>2318</v>
+        <v>2314</v>
       </c>
       <c r="F47" s="28"/>
       <c r="G47" s="28" t="s">
@@ -9906,10 +9903,10 @@
         <v>95</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>2395</v>
+        <v>2389</v>
       </c>
       <c r="E48" s="28" t="s">
-        <v>2319</v>
+        <v>2315</v>
       </c>
       <c r="F48" s="28"/>
       <c r="G48" s="28" t="s">
@@ -9928,10 +9925,10 @@
         <v>97</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>2396</v>
+        <v>2390</v>
       </c>
       <c r="E49" s="28" t="s">
-        <v>2320</v>
+        <v>2316</v>
       </c>
       <c r="F49" s="28"/>
       <c r="G49" s="28" t="s">
@@ -9950,10 +9947,10 @@
         <v>99</v>
       </c>
       <c r="D50" s="28" t="s">
-        <v>2397</v>
+        <v>2391</v>
       </c>
       <c r="E50" s="28" t="s">
-        <v>2321</v>
+        <v>2317</v>
       </c>
       <c r="F50" s="28"/>
       <c r="G50" s="28" t="s">
@@ -9972,10 +9969,10 @@
         <v>101</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>2398</v>
+        <v>2392</v>
       </c>
       <c r="E51" s="28" t="s">
-        <v>2322</v>
+        <v>2318</v>
       </c>
       <c r="F51" s="28"/>
       <c r="G51" s="28" t="s">
@@ -9994,10 +9991,10 @@
         <v>103</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>2404</v>
+        <v>2398</v>
       </c>
       <c r="E52" s="28" t="s">
-        <v>2323</v>
+        <v>2319</v>
       </c>
       <c r="F52" s="28"/>
       <c r="G52" s="28" t="s">
@@ -10016,10 +10013,10 @@
         <v>105</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>2394</v>
+        <v>2388</v>
       </c>
       <c r="E53" s="28" t="s">
-        <v>2324</v>
+        <v>2320</v>
       </c>
       <c r="F53" s="28"/>
       <c r="G53" s="28" t="s">
@@ -10038,10 +10035,10 @@
         <v>108</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>2399</v>
+        <v>2393</v>
       </c>
       <c r="E54" s="28" t="s">
-        <v>2325</v>
+        <v>2321</v>
       </c>
       <c r="F54" s="28"/>
       <c r="G54" s="28" t="s">
@@ -10060,7 +10057,7 @@
         <v>111</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>2400</v>
+        <v>2394</v>
       </c>
       <c r="E55" s="28" t="s">
         <v>2002</v>
@@ -10082,10 +10079,10 @@
         <v>111</v>
       </c>
       <c r="D56" s="28" t="s">
-        <v>2400</v>
+        <v>2394</v>
       </c>
       <c r="E56" s="28" t="s">
-        <v>2326</v>
+        <v>2322</v>
       </c>
       <c r="F56" s="28"/>
       <c r="G56" s="28" t="s">
@@ -10104,10 +10101,10 @@
         <v>113</v>
       </c>
       <c r="D57" s="28" t="s">
-        <v>2401</v>
+        <v>2395</v>
       </c>
       <c r="E57" s="28" t="s">
-        <v>2327</v>
+        <v>2323</v>
       </c>
       <c r="F57" s="28"/>
       <c r="G57" s="28" t="s">
@@ -10126,10 +10123,10 @@
         <v>115</v>
       </c>
       <c r="D58" s="28" t="s">
-        <v>2402</v>
+        <v>2396</v>
       </c>
       <c r="E58" s="28" t="s">
-        <v>2328</v>
+        <v>2324</v>
       </c>
       <c r="F58" s="28"/>
       <c r="G58" s="28" t="s">
@@ -10148,10 +10145,10 @@
         <v>117</v>
       </c>
       <c r="D59" s="28" t="s">
-        <v>2403</v>
+        <v>2397</v>
       </c>
       <c r="E59" s="28" t="s">
-        <v>2329</v>
+        <v>2325</v>
       </c>
       <c r="F59" s="28"/>
       <c r="G59" s="28" t="s">
@@ -10170,10 +10167,10 @@
         <v>120</v>
       </c>
       <c r="D60" s="28" t="s">
-        <v>2386</v>
+        <v>2380</v>
       </c>
       <c r="E60" s="28" t="s">
-        <v>2330</v>
+        <v>2326</v>
       </c>
       <c r="F60" s="28"/>
       <c r="G60" s="28" t="s">
@@ -10192,7 +10189,7 @@
         <v>122</v>
       </c>
       <c r="D61" s="28" t="s">
-        <v>2392</v>
+        <v>2386</v>
       </c>
       <c r="E61" s="28" t="s">
         <v>2004</v>
@@ -10214,10 +10211,10 @@
         <v>122</v>
       </c>
       <c r="D62" s="28" t="s">
-        <v>2392</v>
+        <v>2386</v>
       </c>
       <c r="E62" s="28" t="s">
-        <v>2331</v>
+        <v>2327</v>
       </c>
       <c r="F62" s="28"/>
       <c r="G62" s="28" t="s">
@@ -10236,10 +10233,10 @@
         <v>124</v>
       </c>
       <c r="D63" s="28" t="s">
-        <v>2393</v>
+        <v>2387</v>
       </c>
       <c r="E63" s="28" t="s">
-        <v>2332</v>
+        <v>2328</v>
       </c>
       <c r="F63" s="28"/>
       <c r="G63" s="28" t="s">
@@ -10258,10 +10255,10 @@
         <v>126</v>
       </c>
       <c r="D64" s="28" t="s">
-        <v>2391</v>
+        <v>2385</v>
       </c>
       <c r="E64" s="28" t="s">
-        <v>2333</v>
+        <v>2329</v>
       </c>
       <c r="F64" s="28"/>
       <c r="G64" s="28" t="s">
@@ -10281,7 +10278,7 @@
       </c>
       <c r="D65" s="28"/>
       <c r="E65" s="28" t="s">
-        <v>2334</v>
+        <v>2330</v>
       </c>
       <c r="F65" s="28"/>
       <c r="G65" s="28" t="s">
@@ -10300,10 +10297,10 @@
         <v>77</v>
       </c>
       <c r="D66" s="28" t="s">
-        <v>2373</v>
+        <v>2368</v>
       </c>
       <c r="E66" s="28" t="s">
-        <v>2335</v>
+        <v>2331</v>
       </c>
       <c r="F66" s="28"/>
       <c r="G66" s="28" t="s">
@@ -10322,10 +10319,10 @@
         <v>130</v>
       </c>
       <c r="D67" s="28" t="s">
-        <v>2387</v>
+        <v>2381</v>
       </c>
       <c r="E67" s="28" t="s">
-        <v>2336</v>
+        <v>2332</v>
       </c>
       <c r="F67" s="28"/>
       <c r="G67" s="28" t="s">
@@ -10344,10 +10341,10 @@
         <v>133</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>2388</v>
+        <v>2382</v>
       </c>
       <c r="E68" s="28" t="s">
-        <v>2337</v>
+        <v>2333</v>
       </c>
       <c r="F68" s="28"/>
       <c r="G68" s="28" t="s">
@@ -10366,10 +10363,10 @@
         <v>135</v>
       </c>
       <c r="D69" s="28" t="s">
-        <v>2389</v>
+        <v>2383</v>
       </c>
       <c r="E69" s="28" t="s">
-        <v>2337</v>
+        <v>2333</v>
       </c>
       <c r="F69" s="28"/>
       <c r="G69" s="28" t="s">
@@ -10388,10 +10385,10 @@
         <v>137</v>
       </c>
       <c r="D70" s="28" t="s">
-        <v>2390</v>
+        <v>2384</v>
       </c>
       <c r="E70" s="28" t="s">
-        <v>2338</v>
+        <v>2334</v>
       </c>
       <c r="F70" s="28"/>
       <c r="G70" s="28" t="s">
@@ -10410,10 +10407,10 @@
         <v>139</v>
       </c>
       <c r="D71" s="28" t="s">
-        <v>2384</v>
+        <v>2378</v>
       </c>
       <c r="E71" s="28" t="s">
-        <v>2339</v>
+        <v>2335</v>
       </c>
       <c r="F71" s="28"/>
       <c r="G71" s="28" t="s">
@@ -10432,10 +10429,10 @@
         <v>141</v>
       </c>
       <c r="D72" s="28" t="s">
-        <v>2385</v>
+        <v>2379</v>
       </c>
       <c r="E72" s="28" t="s">
-        <v>2340</v>
+        <v>2336</v>
       </c>
       <c r="F72" s="28"/>
       <c r="G72" s="28" t="s">
@@ -10454,10 +10451,10 @@
         <v>143</v>
       </c>
       <c r="D73" s="28" t="s">
-        <v>2382</v>
+        <v>2376</v>
       </c>
       <c r="E73" s="28" t="s">
-        <v>2341</v>
+        <v>2337</v>
       </c>
       <c r="F73" s="28"/>
       <c r="G73" s="28" t="s">
@@ -10476,7 +10473,7 @@
         <v>146</v>
       </c>
       <c r="D74" s="28" t="s">
-        <v>2383</v>
+        <v>2377</v>
       </c>
       <c r="E74" s="28"/>
       <c r="F74" s="28"/>
@@ -10496,10 +10493,10 @@
         <v>148</v>
       </c>
       <c r="D75" s="28" t="s">
-        <v>2381</v>
+        <v>2375</v>
       </c>
       <c r="E75" s="28" t="s">
-        <v>2342</v>
+        <v>2338</v>
       </c>
       <c r="F75" s="28"/>
       <c r="G75" s="28" t="s">
@@ -10518,10 +10515,10 @@
         <v>151</v>
       </c>
       <c r="D76" s="28" t="s">
-        <v>2405</v>
+        <v>2399</v>
       </c>
       <c r="E76" s="28" t="s">
-        <v>2343</v>
+        <v>2339</v>
       </c>
       <c r="F76" s="28"/>
       <c r="G76" s="28" t="s">
@@ -10540,10 +10537,10 @@
         <v>153</v>
       </c>
       <c r="D77" s="28" t="s">
-        <v>2406</v>
+        <v>2400</v>
       </c>
       <c r="E77" s="28" t="s">
-        <v>2344</v>
+        <v>2340</v>
       </c>
       <c r="F77" s="28"/>
       <c r="G77" s="28" t="s">
@@ -11959,7 +11956,7 @@
         <v>1629</v>
       </c>
       <c r="D1" s="39" t="s">
-        <v>2286</v>
+        <v>2282</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
@@ -11969,7 +11966,7 @@
         <v>1630</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>2287</v>
+        <v>2283</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>1632</v>
@@ -11986,10 +11983,10 @@
         <v>1634</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>2288</v>
+        <v>2284</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>2303</v>
+        <v>2299</v>
       </c>
       <c r="E3" t="s">
         <v>1635</v>
@@ -12003,10 +12000,10 @@
         <v>1637</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>2289</v>
+        <v>2285</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>2303</v>
+        <v>2299</v>
       </c>
       <c r="E4" t="s">
         <v>1638</v>
@@ -12020,10 +12017,10 @@
         <v>1639</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>2290</v>
+        <v>2286</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>2303</v>
+        <v>2299</v>
       </c>
       <c r="E5" t="s">
         <v>1640</v>
@@ -12037,10 +12034,10 @@
         <v>1641</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>2291</v>
+        <v>2287</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>2303</v>
+        <v>2299</v>
       </c>
       <c r="E6" t="s">
         <v>1642</v>
@@ -12054,7 +12051,7 @@
         <v>1643</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>2298</v>
+        <v>2294</v>
       </c>
       <c r="C7" s="28" t="s">
         <v>1645</v>
@@ -12071,7 +12068,7 @@
         <v>1647</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>2299</v>
+        <v>2295</v>
       </c>
       <c r="C8" s="28" t="s">
         <v>1649</v>
@@ -12088,10 +12085,10 @@
         <v>1651</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>2292</v>
+        <v>2288</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>2303</v>
+        <v>2299</v>
       </c>
       <c r="E9" t="s">
         <v>1652</v>
@@ -12105,10 +12102,10 @@
         <v>1653</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>2293</v>
+        <v>2289</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>2303</v>
+        <v>2299</v>
       </c>
       <c r="E10" t="s">
         <v>1654</v>
@@ -12122,10 +12119,10 @@
         <v>1655</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>2294</v>
+        <v>2290</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>2303</v>
+        <v>2299</v>
       </c>
       <c r="E11" t="s">
         <v>1656</v>
@@ -12139,7 +12136,7 @@
         <v>1657</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>2300</v>
+        <v>2296</v>
       </c>
       <c r="C12" s="28" t="s">
         <v>1659</v>
@@ -12156,7 +12153,7 @@
         <v>1661</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>2301</v>
+        <v>2297</v>
       </c>
       <c r="C13" s="28" t="s">
         <v>1663</v>
@@ -12173,7 +12170,7 @@
         <v>1665</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>2302</v>
+        <v>2298</v>
       </c>
       <c r="C14" s="28" t="s">
         <v>1667</v>
@@ -12190,7 +12187,7 @@
         <v>1669</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>2295</v>
+        <v>2291</v>
       </c>
       <c r="C15" s="28" t="s">
         <v>1671</v>
@@ -12207,10 +12204,10 @@
         <v>1673</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>2296</v>
+        <v>2292</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>2303</v>
+        <v>2299</v>
       </c>
       <c r="E16" t="s">
         <v>1674</v>
@@ -12224,10 +12221,10 @@
         <v>1675</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>2297</v>
+        <v>2293</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>2303</v>
+        <v>2299</v>
       </c>
       <c r="E17" t="s">
         <v>1676</v>
@@ -12292,7 +12289,7 @@
         <v>1677</v>
       </c>
       <c r="B1" s="45" t="s">
-        <v>2479</v>
+        <v>2469</v>
       </c>
       <c r="C1" s="45"/>
       <c r="D1" s="45"/>
@@ -12302,7 +12299,7 @@
         <v>1678</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>2480</v>
+        <v>2470</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="45"/>
@@ -12312,7 +12309,7 @@
         <v>1679</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>2481</v>
+        <v>2471</v>
       </c>
       <c r="C3" s="45"/>
       <c r="D3" s="45"/>
@@ -12322,7 +12319,7 @@
         <v>1680</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>2482</v>
+        <v>2472</v>
       </c>
       <c r="C4" s="45"/>
       <c r="D4" s="45"/>
@@ -12345,7 +12342,7 @@
         <v>1683</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>2483</v>
+        <v>2473</v>
       </c>
       <c r="D6" s="48" t="s">
         <v>1684</v>
@@ -12357,7 +12354,7 @@
         <v>1685</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>2484</v>
+        <v>2474</v>
       </c>
       <c r="D7" s="45" t="s">
         <v>1686</v>
@@ -12369,7 +12366,7 @@
         <v>1687</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>2485</v>
+        <v>2475</v>
       </c>
       <c r="D8" s="49" t="s">
         <v>1688</v>
@@ -12381,7 +12378,7 @@
         <v>1689</v>
       </c>
       <c r="C9" s="45" t="s">
-        <v>2486</v>
+        <v>2476</v>
       </c>
       <c r="D9" s="45" t="s">
         <v>1690</v>
@@ -12393,7 +12390,7 @@
         <v>1691</v>
       </c>
       <c r="C10" s="45" t="s">
-        <v>2487</v>
+        <v>2477</v>
       </c>
       <c r="D10" s="45" t="s">
         <v>1692</v>
@@ -12405,7 +12402,7 @@
         <v>1693</v>
       </c>
       <c r="C11" s="45" t="s">
-        <v>2497</v>
+        <v>2487</v>
       </c>
       <c r="D11" s="45" t="s">
         <v>1694</v>
@@ -12417,7 +12414,7 @@
         <v>1695</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>2489</v>
+        <v>2479</v>
       </c>
       <c r="D12" s="49" t="s">
         <v>1696</v>
@@ -12439,7 +12436,7 @@
         <v>1699</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>2495</v>
+        <v>2485</v>
       </c>
       <c r="D14" s="46" t="s">
         <v>1700</v>
@@ -12451,7 +12448,7 @@
         <v>1701</v>
       </c>
       <c r="C15" s="45" t="s">
-        <v>2496</v>
+        <v>2486</v>
       </c>
       <c r="D15" s="45" t="s">
         <v>1702</v>
@@ -12463,7 +12460,7 @@
         <v>1703</v>
       </c>
       <c r="C16" s="45" t="s">
-        <v>2488</v>
+        <v>2478</v>
       </c>
       <c r="D16" s="45" t="s">
         <v>1704</v>
@@ -12475,7 +12472,7 @@
         <v>1705</v>
       </c>
       <c r="C17" s="45" t="s">
-        <v>2498</v>
+        <v>2488</v>
       </c>
       <c r="D17" s="45" t="s">
         <v>1706</v>
@@ -12487,7 +12484,7 @@
         <v>1707</v>
       </c>
       <c r="C18" s="48" t="s">
-        <v>2499</v>
+        <v>2489</v>
       </c>
       <c r="D18" s="49" t="s">
         <v>1688</v>
@@ -12499,7 +12496,7 @@
         <v>1708</v>
       </c>
       <c r="C19" s="45" t="s">
-        <v>2500</v>
+        <v>2490</v>
       </c>
       <c r="D19" s="45" t="s">
         <v>1692</v>
@@ -12511,7 +12508,7 @@
         <v>1703</v>
       </c>
       <c r="C20" s="45" t="s">
-        <v>2488</v>
+        <v>2478</v>
       </c>
       <c r="D20" s="45" t="s">
         <v>1704</v>
@@ -12523,7 +12520,7 @@
         <v>1695</v>
       </c>
       <c r="C21" s="48" t="s">
-        <v>2501</v>
+        <v>2491</v>
       </c>
       <c r="D21" s="49" t="s">
         <v>1709</v>
@@ -12535,7 +12532,7 @@
         <v>1708</v>
       </c>
       <c r="C22" s="45" t="s">
-        <v>2502</v>
+        <v>2492</v>
       </c>
       <c r="D22" s="45" t="s">
         <v>1710</v>
@@ -12549,10 +12546,10 @@
         <v>1703</v>
       </c>
       <c r="C23" s="45" t="s">
-        <v>2488</v>
+        <v>2478</v>
       </c>
       <c r="D23" s="45" t="s">
-        <v>2490</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="33.75" customHeight="1">
@@ -12561,10 +12558,10 @@
         <v>1712</v>
       </c>
       <c r="C24" s="48" t="s">
-        <v>2499</v>
+        <v>2489</v>
       </c>
       <c r="D24" s="46" t="s">
-        <v>2491</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15">
@@ -12578,10 +12575,10 @@
     <row r="26" spans="1:4" ht="15">
       <c r="A26" s="45"/>
       <c r="B26" s="45" t="s">
-        <v>2492</v>
+        <v>2482</v>
       </c>
       <c r="C26" s="45" t="s">
-        <v>2503</v>
+        <v>2493</v>
       </c>
       <c r="D26" s="45" t="s">
         <v>1704</v>
@@ -12590,13 +12587,13 @@
     <row r="27" spans="1:4" ht="29.15">
       <c r="A27" s="45"/>
       <c r="B27" s="46" t="s">
-        <v>2493</v>
+        <v>2483</v>
       </c>
       <c r="C27" s="46" t="s">
-        <v>2504</v>
+        <v>2494</v>
       </c>
       <c r="D27" s="46" t="s">
-        <v>2494</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15">
@@ -12605,7 +12602,7 @@
         <v>1713</v>
       </c>
       <c r="C28" s="45" t="s">
-        <v>2505</v>
+        <v>2495</v>
       </c>
       <c r="D28" s="45" t="s">
         <v>1714</v>
@@ -12617,7 +12614,7 @@
         <v>1715</v>
       </c>
       <c r="C29" s="48" t="s">
-        <v>2506</v>
+        <v>2496</v>
       </c>
       <c r="D29" s="46" t="s">
         <v>1716</v>
@@ -12629,7 +12626,7 @@
         <v>1717</v>
       </c>
       <c r="C30" s="45" t="s">
-        <v>2498</v>
+        <v>2488</v>
       </c>
       <c r="D30" s="45" t="s">
         <v>1690</v>
@@ -12664,7 +12661,7 @@
         <v>1677</v>
       </c>
       <c r="B1" s="45" t="s">
-        <v>2479</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
@@ -12672,7 +12669,7 @@
         <v>1678</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>2480</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15">
@@ -12680,7 +12677,7 @@
         <v>1679</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>2481</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15">
@@ -12688,7 +12685,7 @@
         <v>1680</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>2482</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -12707,7 +12704,7 @@
         <v>1719</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>2507</v>
+        <v>2497</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>1684</v>
@@ -12718,7 +12715,7 @@
         <v>1720</v>
       </c>
       <c r="C7" t="s">
-        <v>2508</v>
+        <v>2498</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>1721</v>
@@ -12729,7 +12726,7 @@
         <v>1722</v>
       </c>
       <c r="C8" t="s">
-        <v>2510</v>
+        <v>2500</v>
       </c>
       <c r="D8" t="s">
         <v>1723</v>
@@ -12740,7 +12737,7 @@
         <v>1724</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>2509</v>
+        <v>2499</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>2006</v>
@@ -12777,7 +12774,7 @@
         <v>2008</v>
       </c>
       <c r="C1" s="51" t="s">
-        <v>2583</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15">
@@ -12785,7 +12782,7 @@
         <v>1725</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>2511</v>
+        <v>2501</v>
       </c>
       <c r="C2" s="45" t="s">
         <v>1726</v>
@@ -12796,7 +12793,7 @@
         <v>1727</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>2512</v>
+        <v>2502</v>
       </c>
       <c r="C3" s="45" t="s">
         <v>1728</v>
@@ -12807,7 +12804,7 @@
         <v>1729</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>2513</v>
+        <v>2503</v>
       </c>
       <c r="C4" s="45" t="s">
         <v>1730</v>
@@ -12818,7 +12815,7 @@
         <v>1731</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>2514</v>
+        <v>2504</v>
       </c>
       <c r="C5" s="45" t="s">
         <v>1732</v>
@@ -12829,7 +12826,7 @@
         <v>1733</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>2515</v>
+        <v>2505</v>
       </c>
       <c r="C6" s="45" t="s">
         <v>1734</v>
@@ -12840,7 +12837,7 @@
         <v>1735</v>
       </c>
       <c r="B7" s="45" t="s">
-        <v>2516</v>
+        <v>2506</v>
       </c>
       <c r="C7" s="45" t="s">
         <v>1736</v>
@@ -12851,7 +12848,7 @@
         <v>1737</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>2517</v>
+        <v>2507</v>
       </c>
       <c r="C8" s="45" t="s">
         <v>1738</v>
@@ -12862,7 +12859,7 @@
         <v>1739</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>2518</v>
+        <v>2508</v>
       </c>
       <c r="C9" s="45" t="s">
         <v>1740</v>
@@ -12873,7 +12870,7 @@
         <v>1741</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>2519</v>
+        <v>2509</v>
       </c>
       <c r="C10" s="45" t="s">
         <v>1742</v>
@@ -12884,7 +12881,7 @@
         <v>1743</v>
       </c>
       <c r="B11" s="45" t="s">
-        <v>2520</v>
+        <v>2510</v>
       </c>
       <c r="C11" s="45" t="s">
         <v>1744</v>
@@ -12895,7 +12892,7 @@
         <v>1745</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>2521</v>
+        <v>2511</v>
       </c>
       <c r="C12" s="45" t="s">
         <v>1746</v>
@@ -12906,7 +12903,7 @@
         <v>1747</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>2522</v>
+        <v>2512</v>
       </c>
       <c r="C13" s="45" t="s">
         <v>1748</v>
@@ -12917,7 +12914,7 @@
         <v>1749</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>2523</v>
+        <v>2513</v>
       </c>
       <c r="C14" s="45" t="s">
         <v>1750</v>
@@ -12928,7 +12925,7 @@
         <v>1751</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>2524</v>
+        <v>2514</v>
       </c>
       <c r="C15" s="45" t="s">
         <v>1752</v>
@@ -12939,7 +12936,7 @@
         <v>1753</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>2525</v>
+        <v>2515</v>
       </c>
       <c r="C16" s="45" t="s">
         <v>1754</v>
@@ -12950,7 +12947,7 @@
         <v>1755</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>2526</v>
+        <v>2516</v>
       </c>
       <c r="C17" s="45" t="s">
         <v>1756</v>
@@ -12961,7 +12958,7 @@
         <v>1757</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>2527</v>
+        <v>2517</v>
       </c>
       <c r="C18" s="45" t="s">
         <v>1758</v>
@@ -12972,7 +12969,7 @@
         <v>1759</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>2528</v>
+        <v>2518</v>
       </c>
       <c r="C19" s="45" t="s">
         <v>1760</v>
@@ -12983,7 +12980,7 @@
         <v>1761</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>2529</v>
+        <v>2519</v>
       </c>
       <c r="C20" s="45" t="s">
         <v>1762</v>
@@ -12994,7 +12991,7 @@
         <v>1763</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>2530</v>
+        <v>2520</v>
       </c>
       <c r="C21" s="45" t="s">
         <v>1764</v>
@@ -13016,7 +13013,7 @@
         <v>1765</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>2531</v>
+        <v>2521</v>
       </c>
       <c r="C23" s="45" t="s">
         <v>1766</v>
@@ -13038,7 +13035,7 @@
         <v>1767</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>2532</v>
+        <v>2522</v>
       </c>
       <c r="C25" s="45" t="s">
         <v>1768</v>
@@ -13049,7 +13046,7 @@
         <v>1769</v>
       </c>
       <c r="B26" s="45" t="s">
-        <v>2533</v>
+        <v>2523</v>
       </c>
       <c r="C26" s="45" t="s">
         <v>1770</v>
@@ -13060,7 +13057,7 @@
         <v>1771</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>2534</v>
+        <v>2524</v>
       </c>
       <c r="C27" s="45" t="s">
         <v>1772</v>
@@ -13071,7 +13068,7 @@
         <v>1773</v>
       </c>
       <c r="B28" s="45" t="s">
-        <v>2535</v>
+        <v>2525</v>
       </c>
       <c r="C28" s="45" t="s">
         <v>1774</v>
@@ -13082,7 +13079,7 @@
         <v>1771</v>
       </c>
       <c r="B29" s="45" t="s">
-        <v>2534</v>
+        <v>2524</v>
       </c>
       <c r="C29" s="45" t="s">
         <v>1772</v>
@@ -13093,7 +13090,7 @@
         <v>1775</v>
       </c>
       <c r="B30" s="45" t="s">
-        <v>2536</v>
+        <v>2526</v>
       </c>
       <c r="C30" s="45" t="s">
         <v>1776</v>
@@ -13104,7 +13101,7 @@
         <v>1777</v>
       </c>
       <c r="B31" s="45" t="s">
-        <v>2537</v>
+        <v>2527</v>
       </c>
       <c r="C31" s="45" t="s">
         <v>1778</v>
@@ -13115,7 +13112,7 @@
         <v>1779</v>
       </c>
       <c r="B32" s="45" t="s">
-        <v>2538</v>
+        <v>2528</v>
       </c>
       <c r="C32" s="45" t="s">
         <v>1780</v>
@@ -13126,7 +13123,7 @@
         <v>1781</v>
       </c>
       <c r="B33" s="45" t="s">
-        <v>2539</v>
+        <v>2529</v>
       </c>
       <c r="C33" s="45" t="s">
         <v>1782</v>
@@ -13137,7 +13134,7 @@
         <v>1783</v>
       </c>
       <c r="B34" s="45" t="s">
-        <v>2540</v>
+        <v>2530</v>
       </c>
       <c r="C34" s="45" t="s">
         <v>1784</v>
@@ -13148,7 +13145,7 @@
         <v>1785</v>
       </c>
       <c r="B35" s="45" t="s">
-        <v>2541</v>
+        <v>2531</v>
       </c>
       <c r="C35" s="45" t="s">
         <v>1786</v>
@@ -13159,7 +13156,7 @@
         <v>1787</v>
       </c>
       <c r="B36" s="45" t="s">
-        <v>2542</v>
+        <v>2532</v>
       </c>
       <c r="C36" s="32" t="s">
         <v>1788</v>
@@ -13170,7 +13167,7 @@
         <v>1789</v>
       </c>
       <c r="B37" s="45" t="s">
-        <v>2543</v>
+        <v>2533</v>
       </c>
       <c r="C37" s="45" t="s">
         <v>1790</v>
@@ -13181,7 +13178,7 @@
         <v>1791</v>
       </c>
       <c r="B38" s="45" t="s">
-        <v>2544</v>
+        <v>2534</v>
       </c>
       <c r="C38" s="45" t="s">
         <v>1792</v>
@@ -13192,7 +13189,7 @@
         <v>1793</v>
       </c>
       <c r="B39" s="45" t="s">
-        <v>2545</v>
+        <v>2535</v>
       </c>
       <c r="C39" s="45" t="s">
         <v>1794</v>
@@ -13203,7 +13200,7 @@
         <v>1795</v>
       </c>
       <c r="B40" s="45" t="s">
-        <v>2546</v>
+        <v>2536</v>
       </c>
       <c r="C40" s="45" t="s">
         <v>1796</v>
@@ -13214,7 +13211,7 @@
         <v>1797</v>
       </c>
       <c r="B41" s="45" t="s">
-        <v>2547</v>
+        <v>2537</v>
       </c>
       <c r="C41" s="45" t="s">
         <v>1798</v>
@@ -13225,7 +13222,7 @@
         <v>1799</v>
       </c>
       <c r="B42" s="45" t="s">
-        <v>2548</v>
+        <v>2538</v>
       </c>
       <c r="C42" s="45" t="s">
         <v>1800</v>
@@ -13236,7 +13233,7 @@
         <v>1801</v>
       </c>
       <c r="B43" s="45" t="s">
-        <v>2549</v>
+        <v>2539</v>
       </c>
       <c r="C43" s="45" t="s">
         <v>1802</v>
@@ -13247,7 +13244,7 @@
         <v>1803</v>
       </c>
       <c r="B44" s="45" t="s">
-        <v>2550</v>
+        <v>2540</v>
       </c>
       <c r="C44" s="45" t="s">
         <v>1804</v>
@@ -13258,7 +13255,7 @@
         <v>1805</v>
       </c>
       <c r="B45" s="45" t="s">
-        <v>2551</v>
+        <v>2541</v>
       </c>
       <c r="C45" s="45" t="s">
         <v>1806</v>
@@ -13269,7 +13266,7 @@
         <v>1807</v>
       </c>
       <c r="B46" s="45" t="s">
-        <v>2552</v>
+        <v>2542</v>
       </c>
       <c r="C46" s="45" t="s">
         <v>1808</v>
@@ -13280,7 +13277,7 @@
         <v>1809</v>
       </c>
       <c r="B47" s="45" t="s">
-        <v>2553</v>
+        <v>2543</v>
       </c>
       <c r="C47" s="45" t="s">
         <v>1810</v>
@@ -13291,7 +13288,7 @@
         <v>1811</v>
       </c>
       <c r="B48" s="45" t="s">
-        <v>2554</v>
+        <v>2544</v>
       </c>
       <c r="C48" s="45" t="s">
         <v>1812</v>
@@ -13302,7 +13299,7 @@
         <v>1813</v>
       </c>
       <c r="B49" s="45" t="s">
-        <v>2555</v>
+        <v>2545</v>
       </c>
       <c r="C49" s="45" t="s">
         <v>1814</v>
@@ -13313,7 +13310,7 @@
         <v>1815</v>
       </c>
       <c r="B50" s="45" t="s">
-        <v>2556</v>
+        <v>2546</v>
       </c>
       <c r="C50" s="45" t="s">
         <v>1816</v>
@@ -13324,7 +13321,7 @@
         <v>1817</v>
       </c>
       <c r="B51" s="45" t="s">
-        <v>2557</v>
+        <v>2547</v>
       </c>
       <c r="C51" s="45" t="s">
         <v>1818</v>
@@ -13335,7 +13332,7 @@
         <v>1819</v>
       </c>
       <c r="B52" s="45" t="s">
-        <v>2558</v>
+        <v>2548</v>
       </c>
       <c r="C52" s="45" t="s">
         <v>1820</v>
@@ -13346,7 +13343,7 @@
         <v>1821</v>
       </c>
       <c r="B53" s="45" t="s">
-        <v>2559</v>
+        <v>2549</v>
       </c>
       <c r="C53" s="45" t="s">
         <v>1822</v>
@@ -13357,7 +13354,7 @@
         <v>1823</v>
       </c>
       <c r="B54" s="45" t="s">
-        <v>2560</v>
+        <v>2550</v>
       </c>
       <c r="C54" s="45" t="s">
         <v>1824</v>
@@ -13368,7 +13365,7 @@
         <v>1825</v>
       </c>
       <c r="B55" s="45" t="s">
-        <v>2561</v>
+        <v>2551</v>
       </c>
       <c r="C55" s="45" t="s">
         <v>1826</v>
@@ -13379,7 +13376,7 @@
         <v>1827</v>
       </c>
       <c r="B56" s="45" t="s">
-        <v>2562</v>
+        <v>2552</v>
       </c>
       <c r="C56" s="45" t="s">
         <v>1828</v>
@@ -13390,7 +13387,7 @@
         <v>1829</v>
       </c>
       <c r="B57" s="45" t="s">
-        <v>2563</v>
+        <v>2553</v>
       </c>
       <c r="C57" s="45" t="s">
         <v>1830</v>
@@ -13401,7 +13398,7 @@
         <v>1831</v>
       </c>
       <c r="B58" s="45" t="s">
-        <v>2564</v>
+        <v>2554</v>
       </c>
       <c r="C58" s="45" t="s">
         <v>1832</v>
@@ -13412,7 +13409,7 @@
         <v>1833</v>
       </c>
       <c r="B59" s="45" t="s">
-        <v>2565</v>
+        <v>2555</v>
       </c>
       <c r="C59" s="45" t="s">
         <v>1834</v>
@@ -13423,7 +13420,7 @@
         <v>1835</v>
       </c>
       <c r="B60" s="45" t="s">
-        <v>2566</v>
+        <v>2556</v>
       </c>
       <c r="C60" s="45" t="s">
         <v>1836</v>
@@ -13434,7 +13431,7 @@
         <v>1837</v>
       </c>
       <c r="B61" s="45" t="s">
-        <v>2567</v>
+        <v>2557</v>
       </c>
       <c r="C61" s="45" t="s">
         <v>1838</v>
@@ -13445,7 +13442,7 @@
         <v>1839</v>
       </c>
       <c r="B62" s="45" t="s">
-        <v>2568</v>
+        <v>2558</v>
       </c>
       <c r="C62" s="45" t="s">
         <v>1840</v>
@@ -13456,7 +13453,7 @@
         <v>1841</v>
       </c>
       <c r="B63" s="45" t="s">
-        <v>2569</v>
+        <v>2559</v>
       </c>
       <c r="C63" s="45" t="s">
         <v>1842</v>
@@ -13467,7 +13464,7 @@
         <v>1843</v>
       </c>
       <c r="B64" s="45" t="s">
-        <v>2570</v>
+        <v>2560</v>
       </c>
       <c r="C64" s="45" t="s">
         <v>1844</v>
@@ -13478,7 +13475,7 @@
         <v>1845</v>
       </c>
       <c r="B65" s="45" t="s">
-        <v>2571</v>
+        <v>2561</v>
       </c>
       <c r="C65" s="45" t="s">
         <v>1846</v>
@@ -13489,7 +13486,7 @@
         <v>1847</v>
       </c>
       <c r="B66" s="45" t="s">
-        <v>2572</v>
+        <v>2562</v>
       </c>
       <c r="C66" s="45" t="s">
         <v>1848</v>
@@ -13500,7 +13497,7 @@
         <v>1849</v>
       </c>
       <c r="B67" s="45" t="s">
-        <v>2573</v>
+        <v>2563</v>
       </c>
       <c r="C67" s="45" t="s">
         <v>1850</v>
@@ -13511,7 +13508,7 @@
         <v>1851</v>
       </c>
       <c r="B68" s="45" t="s">
-        <v>2574</v>
+        <v>2564</v>
       </c>
       <c r="C68" s="45" t="s">
         <v>1852</v>
@@ -13522,7 +13519,7 @@
         <v>1853</v>
       </c>
       <c r="B69" s="45" t="s">
-        <v>2575</v>
+        <v>2565</v>
       </c>
       <c r="C69" s="45" t="s">
         <v>1854</v>
@@ -13533,7 +13530,7 @@
         <v>1855</v>
       </c>
       <c r="B70" s="45" t="s">
-        <v>2576</v>
+        <v>2566</v>
       </c>
       <c r="C70" s="45" t="s">
         <v>1856</v>
@@ -13544,7 +13541,7 @@
         <v>1747</v>
       </c>
       <c r="B71" s="45" t="s">
-        <v>2522</v>
+        <v>2512</v>
       </c>
       <c r="C71" s="45" t="s">
         <v>1857</v>
@@ -13555,7 +13552,7 @@
         <v>1858</v>
       </c>
       <c r="B72" s="45" t="s">
-        <v>2577</v>
+        <v>2567</v>
       </c>
       <c r="C72" s="45" t="s">
         <v>1859</v>
@@ -13566,7 +13563,7 @@
         <v>1860</v>
       </c>
       <c r="B73" s="45" t="s">
-        <v>2578</v>
+        <v>2568</v>
       </c>
       <c r="C73" s="45" t="s">
         <v>1861</v>
@@ -13577,7 +13574,7 @@
         <v>1862</v>
       </c>
       <c r="B74" s="45" t="s">
-        <v>2579</v>
+        <v>2569</v>
       </c>
       <c r="C74" s="45" t="s">
         <v>1863</v>
@@ -13588,7 +13585,7 @@
         <v>1864</v>
       </c>
       <c r="B75" s="45" t="s">
-        <v>2580</v>
+        <v>2570</v>
       </c>
       <c r="C75" s="45" t="s">
         <v>1865</v>
@@ -13599,7 +13596,7 @@
         <v>1866</v>
       </c>
       <c r="B76" s="45" t="s">
-        <v>2581</v>
+        <v>2571</v>
       </c>
       <c r="C76" s="45" t="s">
         <v>1867</v>
@@ -13610,7 +13607,7 @@
         <v>1868</v>
       </c>
       <c r="B77" s="45" t="s">
-        <v>2582</v>
+        <v>2572</v>
       </c>
       <c r="C77" s="45" t="s">
         <v>1869</v>
@@ -13644,7 +13641,7 @@
         <v>1679</v>
       </c>
       <c r="B1" t="s">
-        <v>2481</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -13652,7 +13649,7 @@
         <v>1680</v>
       </c>
       <c r="B2" t="s">
-        <v>2482</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -13668,7 +13665,7 @@
         <v>1871</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>2585</v>
+        <v>2575</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>1872</v>
@@ -13679,7 +13676,7 @@
         <v>1873</v>
       </c>
       <c r="B6" t="s">
-        <v>2584</v>
+        <v>2574</v>
       </c>
       <c r="C6" t="s">
         <v>1874</v>
@@ -13690,7 +13687,7 @@
         <v>1875</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>2586</v>
+        <v>2576</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>1876</v>
@@ -13701,7 +13698,7 @@
         <v>1877</v>
       </c>
       <c r="B8" t="s">
-        <v>2587</v>
+        <v>2577</v>
       </c>
       <c r="C8" t="s">
         <v>1878</v>
@@ -14561,8 +14558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G143"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.15"/>
@@ -14588,7 +14585,7 @@
         <v>2008</v>
       </c>
       <c r="E1" s="43" t="s">
-        <v>2427</v>
+        <v>2421</v>
       </c>
       <c r="F1" s="39" t="s">
         <v>1436</v>
@@ -14608,7 +14605,7 @@
         <v>909</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>2428</v>
+        <v>2422</v>
       </c>
       <c r="E2" s="28"/>
       <c r="F2" s="28" t="s">
@@ -14627,7 +14624,7 @@
         <v>1439</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>2429</v>
+        <v>2423</v>
       </c>
       <c r="E3" s="28"/>
       <c r="F3" s="28" t="s">
@@ -14646,7 +14643,7 @@
         <v>1441</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>2430</v>
+        <v>2424</v>
       </c>
       <c r="E4" s="28"/>
       <c r="F4" s="28" t="s">
@@ -14665,7 +14662,7 @@
         <v>1443</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>2431</v>
+        <v>2425</v>
       </c>
       <c r="E5" s="28"/>
       <c r="F5" s="28" t="s">
@@ -14684,7 +14681,7 @@
         <v>1445</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>2432</v>
+        <v>2426</v>
       </c>
       <c r="E6" s="28"/>
       <c r="F6" s="28" t="s">
@@ -14703,7 +14700,7 @@
         <v>1447</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>2433</v>
+        <v>2427</v>
       </c>
       <c r="E7" s="28"/>
       <c r="F7" s="28" t="s">
@@ -14722,7 +14719,7 @@
         <v>1449</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>2434</v>
+        <v>2428</v>
       </c>
       <c r="E8" s="28"/>
       <c r="F8" s="28" t="s">
@@ -14741,7 +14738,7 @@
         <v>1452</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>2435</v>
+        <v>2429</v>
       </c>
       <c r="E9" s="28"/>
       <c r="F9" s="28" t="s">
@@ -14760,7 +14757,7 @@
         <v>1454</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>2436</v>
+        <v>2430</v>
       </c>
       <c r="E10" s="28"/>
       <c r="F10" s="32" t="s">
@@ -14779,7 +14776,7 @@
         <v>1456</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>2437</v>
+        <v>2431</v>
       </c>
       <c r="E11" s="28"/>
       <c r="F11" s="32" t="s">
@@ -14798,7 +14795,7 @@
         <v>1458</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>2441</v>
+        <v>2435</v>
       </c>
       <c r="E12" s="28"/>
       <c r="F12" s="32" t="s">
@@ -14817,7 +14814,7 @@
         <v>1460</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>2438</v>
+        <v>2432</v>
       </c>
       <c r="E13" s="28"/>
       <c r="F13" s="32" t="s">
@@ -14836,7 +14833,7 @@
         <v>36</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>2358</v>
+        <v>2354</v>
       </c>
       <c r="E14" s="28"/>
       <c r="F14" s="28" t="s">
@@ -14855,7 +14852,7 @@
         <v>1462</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>2439</v>
+        <v>2433</v>
       </c>
       <c r="E15" s="28"/>
       <c r="F15" s="28" t="s">
@@ -14874,7 +14871,7 @@
         <v>1464</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>2440</v>
+        <v>2434</v>
       </c>
       <c r="E16" s="28"/>
       <c r="F16" s="28" t="s">
@@ -14893,7 +14890,7 @@
         <v>1466</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>2442</v>
+        <v>2436</v>
       </c>
       <c r="E17" s="28"/>
       <c r="F17" s="28" t="s">
@@ -14912,7 +14909,7 @@
         <v>1449</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>2434</v>
+        <v>2428</v>
       </c>
       <c r="E18" s="28"/>
       <c r="F18" s="28" t="s">
@@ -14931,7 +14928,7 @@
         <v>1468</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>2443</v>
+        <v>2437</v>
       </c>
       <c r="E19" s="28"/>
       <c r="F19" s="28" t="s">
@@ -14950,7 +14947,7 @@
         <v>1470</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>2444</v>
+        <v>2438</v>
       </c>
       <c r="E20" s="28"/>
       <c r="F20" s="28" t="s">
@@ -14969,7 +14966,7 @@
         <v>1472</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>2445</v>
+        <v>2439</v>
       </c>
       <c r="E21" s="28"/>
       <c r="F21" s="28" t="s">
@@ -14988,7 +14985,7 @@
         <v>1452</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>2435</v>
+        <v>2429</v>
       </c>
       <c r="E22" s="28"/>
       <c r="F22" s="28" t="s">
@@ -15007,7 +15004,7 @@
         <v>1474</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>2446</v>
+        <v>2709</v>
       </c>
       <c r="E23" s="28"/>
       <c r="F23" s="32" t="s">
@@ -15026,7 +15023,7 @@
         <v>1476</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>2447</v>
+        <v>2710</v>
       </c>
       <c r="E24" s="28"/>
       <c r="F24" s="32" t="s">
@@ -15045,7 +15042,7 @@
         <v>1478</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>2448</v>
+        <v>2711</v>
       </c>
       <c r="E25" s="28"/>
       <c r="F25" s="32" t="s">
@@ -15064,7 +15061,7 @@
         <v>1480</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>2449</v>
+        <v>2712</v>
       </c>
       <c r="E26" s="28"/>
       <c r="F26" s="32" t="s">
@@ -15083,7 +15080,7 @@
         <v>1482</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>2450</v>
+        <v>2440</v>
       </c>
       <c r="E27" s="28"/>
       <c r="F27" s="28" t="s">
@@ -15102,7 +15099,7 @@
         <v>1484</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>2451</v>
+        <v>2441</v>
       </c>
       <c r="E28" s="28"/>
       <c r="F28" s="28" t="s">
@@ -15121,7 +15118,7 @@
         <v>1464</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>2440</v>
+        <v>2434</v>
       </c>
       <c r="E29" s="28"/>
       <c r="F29" s="28" t="s">
@@ -15140,7 +15137,7 @@
         <v>1468</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>2443</v>
+        <v>2437</v>
       </c>
       <c r="E30" s="28"/>
       <c r="F30" s="28" t="s">
@@ -15159,7 +15156,7 @@
         <v>1470</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>2444</v>
+        <v>2438</v>
       </c>
       <c r="E31" s="28"/>
       <c r="F31" s="28" t="s">
@@ -15178,7 +15175,7 @@
         <v>1486</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>2452</v>
+        <v>2442</v>
       </c>
       <c r="E32" s="28"/>
       <c r="F32" s="28" t="s">
@@ -15197,7 +15194,7 @@
         <v>1449</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>2434</v>
+        <v>2428</v>
       </c>
       <c r="E33" s="28"/>
       <c r="F33" s="28" t="s">
@@ -15216,7 +15213,7 @@
         <v>1488</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>2453</v>
+        <v>2443</v>
       </c>
       <c r="E34" s="28"/>
       <c r="F34" s="28" t="s">
@@ -15232,14 +15229,14 @@
         <v>1437</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>2424</v>
+        <v>2418</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>2478</v>
+        <v>2468</v>
       </c>
       <c r="E35" s="28"/>
       <c r="F35" s="28" t="s">
-        <v>2425</v>
+        <v>2419</v>
       </c>
       <c r="G35" s="28"/>
     </row>
@@ -15254,7 +15251,7 @@
         <v>1445</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>2432</v>
+        <v>2426</v>
       </c>
       <c r="E36" s="28"/>
       <c r="F36" s="28" t="s">
@@ -15273,7 +15270,7 @@
         <v>1447</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>2433</v>
+        <v>2427</v>
       </c>
       <c r="E37" s="28"/>
       <c r="F37" s="28" t="s">
@@ -15292,7 +15289,7 @@
         <v>1490</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>2454</v>
+        <v>2444</v>
       </c>
       <c r="E38" s="28"/>
       <c r="F38" s="28" t="s">
@@ -15311,7 +15308,7 @@
         <v>1492</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>2463</v>
+        <v>2453</v>
       </c>
       <c r="E39" s="28"/>
       <c r="F39" s="28" t="s">
@@ -15330,7 +15327,7 @@
         <v>1494</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>2455</v>
+        <v>2445</v>
       </c>
       <c r="E40" s="28"/>
       <c r="F40" s="28" t="s">
@@ -15349,7 +15346,7 @@
         <v>1496</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>2456</v>
+        <v>2446</v>
       </c>
       <c r="E41" s="28"/>
       <c r="F41" s="28" t="s">
@@ -15368,7 +15365,7 @@
         <v>1498</v>
       </c>
       <c r="D42" s="28" t="s">
-        <v>2358</v>
+        <v>2354</v>
       </c>
       <c r="E42" s="28"/>
       <c r="F42" s="28" t="s">
@@ -15387,7 +15384,7 @@
         <v>87</v>
       </c>
       <c r="D43" s="28" t="s">
-        <v>2366</v>
+        <v>2361</v>
       </c>
       <c r="E43" s="28"/>
       <c r="F43" s="28" t="s">
@@ -15406,7 +15403,7 @@
         <v>1452</v>
       </c>
       <c r="D44" s="28" t="s">
-        <v>2435</v>
+        <v>2429</v>
       </c>
       <c r="E44" s="28"/>
       <c r="F44" s="28" t="s">
@@ -15425,7 +15422,7 @@
         <v>1499</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>2457</v>
+        <v>2447</v>
       </c>
       <c r="E45" s="28"/>
       <c r="F45" s="32" t="s">
@@ -15444,7 +15441,7 @@
         <v>1501</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>2458</v>
+        <v>2448</v>
       </c>
       <c r="E46" s="28"/>
       <c r="F46" s="32" t="s">
@@ -15463,7 +15460,7 @@
         <v>1503</v>
       </c>
       <c r="D47" s="28" t="s">
-        <v>2459</v>
+        <v>2449</v>
       </c>
       <c r="E47" s="28"/>
       <c r="F47" s="32" t="s">
@@ -15482,7 +15479,7 @@
         <v>1505</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>2460</v>
+        <v>2450</v>
       </c>
       <c r="E48" s="28"/>
       <c r="F48" s="32" t="s">
@@ -15501,7 +15498,7 @@
         <v>1507</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>2464</v>
+        <v>2454</v>
       </c>
       <c r="E49" s="28"/>
       <c r="F49" s="30" t="s">
@@ -15520,7 +15517,7 @@
         <v>1509</v>
       </c>
       <c r="D50" s="28" t="s">
-        <v>2465</v>
+        <v>2455</v>
       </c>
       <c r="E50" s="28"/>
       <c r="F50" s="30" t="s">
@@ -15539,7 +15536,7 @@
         <v>1492</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>2463</v>
+        <v>2453</v>
       </c>
       <c r="E51" s="28"/>
       <c r="F51" s="30" t="s">
@@ -15558,7 +15555,7 @@
         <v>1511</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>2462</v>
+        <v>2452</v>
       </c>
       <c r="E52" s="28"/>
       <c r="F52" s="30" t="s">
@@ -15577,7 +15574,7 @@
         <v>1513</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>2359</v>
+        <v>2355</v>
       </c>
       <c r="E53" s="28"/>
       <c r="F53" s="30" t="s">
@@ -15596,7 +15593,7 @@
         <v>1515</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>2461</v>
+        <v>2451</v>
       </c>
       <c r="E54" s="28"/>
       <c r="F54" s="30" t="s">
@@ -15615,7 +15612,7 @@
         <v>1452</v>
       </c>
       <c r="D55" s="45" t="s">
-        <v>2435</v>
+        <v>2429</v>
       </c>
       <c r="E55" s="28"/>
       <c r="F55" s="30" t="s">
@@ -15634,7 +15631,7 @@
         <v>1517</v>
       </c>
       <c r="D56" s="45" t="s">
-        <v>2467</v>
+        <v>2457</v>
       </c>
       <c r="E56" s="28"/>
       <c r="F56" s="30" t="s">
@@ -15653,7 +15650,7 @@
         <v>1519</v>
       </c>
       <c r="D57" s="45" t="s">
-        <v>2468</v>
+        <v>2458</v>
       </c>
       <c r="E57" s="28"/>
       <c r="F57" s="30" t="s">
@@ -15672,7 +15669,7 @@
         <v>1521</v>
       </c>
       <c r="D58" s="45" t="s">
-        <v>2469</v>
+        <v>2459</v>
       </c>
       <c r="E58" s="28"/>
       <c r="F58" s="30" t="s">
@@ -15691,7 +15688,7 @@
         <v>1523</v>
       </c>
       <c r="D59" s="45" t="s">
-        <v>2470</v>
+        <v>2460</v>
       </c>
       <c r="E59" s="28"/>
       <c r="F59" s="30" t="s">
@@ -15710,7 +15707,7 @@
         <v>1525</v>
       </c>
       <c r="D60" s="45" t="s">
-        <v>2471</v>
+        <v>2461</v>
       </c>
       <c r="E60" s="28"/>
       <c r="F60" s="30" t="s">
@@ -15729,7 +15726,7 @@
         <v>1527</v>
       </c>
       <c r="D61" s="45" t="s">
-        <v>2466</v>
+        <v>2456</v>
       </c>
       <c r="E61" s="28"/>
       <c r="F61" s="30" t="s">
@@ -15748,7 +15745,7 @@
         <v>1529</v>
       </c>
       <c r="D62" s="28" t="s">
-        <v>2472</v>
+        <v>2462</v>
       </c>
       <c r="E62" s="28"/>
       <c r="F62" s="30" t="s">
@@ -15767,7 +15764,7 @@
         <v>1531</v>
       </c>
       <c r="D63" s="45" t="s">
-        <v>2473</v>
+        <v>2463</v>
       </c>
       <c r="E63" s="28"/>
       <c r="F63" s="30" t="s">
@@ -15786,7 +15783,7 @@
         <v>1533</v>
       </c>
       <c r="D64" s="28" t="s">
-        <v>2474</v>
+        <v>2464</v>
       </c>
       <c r="E64" s="28"/>
       <c r="F64" s="30" t="s">
@@ -15805,7 +15802,7 @@
         <v>1535</v>
       </c>
       <c r="D65" s="28" t="s">
-        <v>2475</v>
+        <v>2465</v>
       </c>
       <c r="E65" s="28"/>
       <c r="F65" s="30" t="s">
@@ -15824,7 +15821,7 @@
         <v>99</v>
       </c>
       <c r="D66" s="28" t="s">
-        <v>2397</v>
+        <v>2391</v>
       </c>
       <c r="E66" s="28"/>
       <c r="F66" s="30" t="s">
@@ -15843,7 +15840,7 @@
         <v>1537</v>
       </c>
       <c r="D67" s="28" t="s">
-        <v>2398</v>
+        <v>2392</v>
       </c>
       <c r="E67" s="28"/>
       <c r="F67" s="30" t="s">
@@ -15862,7 +15859,7 @@
         <v>1538</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>2476</v>
+        <v>2466</v>
       </c>
       <c r="E68" s="28"/>
       <c r="F68" s="30" t="s">
@@ -15881,7 +15878,7 @@
         <v>1498</v>
       </c>
       <c r="D69" s="28" t="s">
-        <v>2358</v>
+        <v>2354</v>
       </c>
       <c r="E69" s="28"/>
       <c r="F69" s="30" t="s">
@@ -15900,7 +15897,7 @@
         <v>1540</v>
       </c>
       <c r="D70" s="28" t="s">
-        <v>2477</v>
+        <v>2467</v>
       </c>
       <c r="E70" s="28"/>
       <c r="F70" s="30" t="s">
@@ -15987,7 +15984,7 @@
         <v>1537</v>
       </c>
       <c r="D75" s="28" t="s">
-        <v>2398</v>
+        <v>2392</v>
       </c>
       <c r="E75" s="28"/>
       <c r="F75" s="30" t="s">
@@ -16006,7 +16003,7 @@
         <v>38</v>
       </c>
       <c r="D76" s="28" t="s">
-        <v>2359</v>
+        <v>2355</v>
       </c>
       <c r="E76" s="28"/>
       <c r="F76" s="30" t="s">
@@ -16039,7 +16036,7 @@
         <v>1437</v>
       </c>
       <c r="C78" s="28" t="s">
-        <v>2426</v>
+        <v>2420</v>
       </c>
       <c r="D78" s="28"/>
       <c r="E78" s="28"/>
@@ -16076,7 +16073,7 @@
         <v>1452</v>
       </c>
       <c r="D80" s="28" t="s">
-        <v>2435</v>
+        <v>2429</v>
       </c>
       <c r="E80" s="28"/>
       <c r="F80" s="30" t="s">
@@ -16248,7 +16245,7 @@
         <v>1498</v>
       </c>
       <c r="D90" s="28" t="s">
-        <v>2358</v>
+        <v>2354</v>
       </c>
       <c r="E90" s="28"/>
       <c r="F90" s="30" t="s">
@@ -16267,7 +16264,7 @@
         <v>38</v>
       </c>
       <c r="D91" s="28" t="s">
-        <v>2359</v>
+        <v>2355</v>
       </c>
       <c r="E91" s="28"/>
       <c r="F91" s="30" t="s">
@@ -16354,7 +16351,7 @@
         <v>34</v>
       </c>
       <c r="D96" s="28" t="s">
-        <v>2357</v>
+        <v>2353</v>
       </c>
       <c r="E96" s="28"/>
       <c r="F96" s="30" t="s">
@@ -16375,7 +16372,7 @@
         <v>1498</v>
       </c>
       <c r="D97" s="28" t="s">
-        <v>2358</v>
+        <v>2354</v>
       </c>
       <c r="E97" s="28"/>
       <c r="F97" s="30" t="s">
@@ -16391,7 +16388,7 @@
         <v>1437</v>
       </c>
       <c r="C98" s="28" t="s">
-        <v>2426</v>
+        <v>2420</v>
       </c>
       <c r="D98" s="28"/>
       <c r="E98" s="28"/>
@@ -16733,7 +16730,7 @@
         <v>1437</v>
       </c>
       <c r="C118" s="28" t="s">
-        <v>2426</v>
+        <v>2420</v>
       </c>
       <c r="D118" s="28"/>
       <c r="E118" s="28"/>
@@ -16971,7 +16968,7 @@
         <v>1437</v>
       </c>
       <c r="C132" s="28" t="s">
-        <v>2426</v>
+        <v>2420</v>
       </c>
       <c r="D132" s="28"/>
       <c r="E132" s="28"/>
@@ -17433,8 +17430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C151" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D197" sqref="D197"/>
+    <sheetView topLeftCell="C145" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D153" sqref="D153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15"/>
@@ -17458,7 +17455,7 @@
         <v>2035</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="E1" s="26" t="s">
         <v>3</v>
@@ -17481,7 +17478,7 @@
         <v>2036</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>2255</v>
+        <v>2713</v>
       </c>
       <c r="E2" s="28" t="s">
         <v>202</v>
@@ -17502,7 +17499,7 @@
         <v>2037</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>2256</v>
+        <v>2714</v>
       </c>
       <c r="E3" s="28" t="s">
         <v>206</v>
@@ -17523,7 +17520,7 @@
         <v>2038</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="E4" s="29" t="s">
         <v>210</v>
@@ -17544,7 +17541,7 @@
         <v>2039</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="E5" s="28" t="s">
         <v>214</v>
@@ -17565,7 +17562,7 @@
         <v>2040</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="E6" s="28" t="s">
         <v>218</v>
@@ -17586,7 +17583,7 @@
         <v>2041</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="E7" s="28" t="s">
         <v>222</v>
@@ -17607,7 +17604,7 @@
         <v>2042</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="E8" s="28" t="s">
         <v>226</v>
@@ -17628,7 +17625,7 @@
         <v>2043</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="E9" s="28" t="s">
         <v>230</v>
@@ -17649,7 +17646,7 @@
         <v>2044</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="E10" s="28" t="s">
         <v>233</v>
@@ -17670,7 +17667,7 @@
         <v>2045</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="E11" s="28" t="s">
         <v>235</v>
@@ -17691,7 +17688,7 @@
         <v>2046</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="E12" s="28" t="s">
         <v>238</v>
@@ -17712,7 +17709,7 @@
         <v>2047</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="E13" s="28" t="s">
         <v>242</v>
@@ -17733,7 +17730,7 @@
         <v>2048</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="E14" s="28" t="s">
         <v>246</v>
@@ -17754,7 +17751,7 @@
         <v>2049</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="E15" s="28" t="s">
         <v>250</v>
@@ -17775,7 +17772,7 @@
         <v>2050</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="E16" s="28" t="s">
         <v>254</v>
@@ -17796,7 +17793,7 @@
         <v>2051</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>2423</v>
+        <v>2417</v>
       </c>
       <c r="E17" s="28" t="s">
         <v>258</v>
@@ -17817,7 +17814,7 @@
         <v>2052</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="E18" s="28" t="s">
         <v>262</v>
@@ -17838,7 +17835,7 @@
         <v>2053</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="E19" s="28" t="s">
         <v>266</v>
@@ -17859,7 +17856,7 @@
         <v>2054</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="E20" s="28" t="s">
         <v>270</v>
@@ -17880,7 +17877,7 @@
         <v>2055</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="E21" s="28" t="s">
         <v>274</v>
@@ -17901,7 +17898,7 @@
         <v>2056</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="E22" s="28" t="s">
         <v>278</v>
@@ -17922,7 +17919,7 @@
         <v>2057</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="E23" s="28" t="s">
         <v>282</v>
@@ -17943,7 +17940,7 @@
         <v>2058</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="E24" s="28" t="s">
         <v>286</v>
@@ -17964,7 +17961,7 @@
         <v>2059</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>2702</v>
+        <v>2692</v>
       </c>
       <c r="E25" s="28" t="s">
         <v>290</v>
@@ -17985,7 +17982,7 @@
         <v>2060</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>2703</v>
+        <v>2693</v>
       </c>
       <c r="E26" s="28" t="s">
         <v>294</v>
@@ -18006,7 +18003,7 @@
         <v>2061</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="E27" s="28" t="s">
         <v>298</v>
@@ -18027,7 +18024,7 @@
         <v>2062</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="E28" s="28" t="s">
         <v>302</v>
@@ -18048,7 +18045,7 @@
         <v>2063</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="E29" s="28" t="s">
         <v>306</v>
@@ -18069,7 +18066,7 @@
         <v>2064</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="E30" s="28" t="s">
         <v>309</v>
@@ -18090,7 +18087,7 @@
         <v>2065</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="E31" s="28" t="s">
         <v>313</v>
@@ -18111,7 +18108,7 @@
         <v>2066</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="E32" s="28" t="s">
         <v>317</v>
@@ -18132,7 +18129,7 @@
         <v>2067</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="E33" s="28" t="s">
         <v>321</v>
@@ -18153,7 +18150,7 @@
         <v>2068</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="E34" s="28" t="s">
         <v>325</v>
@@ -18174,7 +18171,7 @@
         <v>2069</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="E35" s="28" t="s">
         <v>329</v>
@@ -18195,7 +18192,7 @@
         <v>2070</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="E36" s="28" t="s">
         <v>333</v>
@@ -18216,7 +18213,7 @@
         <v>2071</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="E37" s="28" t="s">
         <v>337</v>
@@ -18237,7 +18234,7 @@
         <v>2072</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="E38" s="28" t="s">
         <v>341</v>
@@ -18258,7 +18255,7 @@
         <v>2073</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="E39" s="28" t="s">
         <v>345</v>
@@ -18279,7 +18276,7 @@
         <v>2074</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="E40" s="31" t="s">
         <v>349</v>
@@ -18300,7 +18297,7 @@
         <v>2075</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="E41" s="28" t="s">
         <v>353</v>
@@ -18321,7 +18318,7 @@
         <v>2076</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="E42" s="28" t="s">
         <v>356</v>
@@ -18342,7 +18339,7 @@
         <v>2077</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="E43" s="28" t="s">
         <v>358</v>
@@ -18363,7 +18360,7 @@
         <v>2078</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="E44" s="28" t="s">
         <v>361</v>
@@ -18384,7 +18381,7 @@
         <v>2079</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="E45" s="28" t="s">
         <v>365</v>
@@ -18405,7 +18402,7 @@
         <v>2080</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="E46" s="28" t="s">
         <v>369</v>
@@ -18426,7 +18423,7 @@
         <v>2081</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="E47" s="28" t="s">
         <v>373</v>
@@ -18447,7 +18444,7 @@
         <v>2082</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>2588</v>
+        <v>2578</v>
       </c>
       <c r="E48" s="28" t="s">
         <v>377</v>
@@ -18468,7 +18465,7 @@
         <v>2083</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>2589</v>
+        <v>2579</v>
       </c>
       <c r="E49" s="28" t="s">
         <v>381</v>
@@ -18489,7 +18486,7 @@
         <v>2084</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>2590</v>
+        <v>2580</v>
       </c>
       <c r="E50" s="28" t="s">
         <v>385</v>
@@ -18510,7 +18507,7 @@
         <v>2085</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>2591</v>
+        <v>2581</v>
       </c>
       <c r="E51" s="28" t="s">
         <v>389</v>
@@ -18531,7 +18528,7 @@
         <v>2086</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>2592</v>
+        <v>2582</v>
       </c>
       <c r="E52" s="28" t="s">
         <v>393</v>
@@ -18552,7 +18549,7 @@
         <v>2087</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>2593</v>
+        <v>2583</v>
       </c>
       <c r="E53" s="28" t="s">
         <v>397</v>
@@ -18573,7 +18570,7 @@
         <v>2088</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>2594</v>
+        <v>2584</v>
       </c>
       <c r="E54" s="28" t="s">
         <v>401</v>
@@ -18591,10 +18588,10 @@
         <v>404</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>2596</v>
+        <v>2586</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>2595</v>
+        <v>2585</v>
       </c>
       <c r="E55" s="28" t="s">
         <v>405</v>
@@ -18615,7 +18612,7 @@
         <v>2089</v>
       </c>
       <c r="D56" s="24" t="s">
-        <v>2597</v>
+        <v>2587</v>
       </c>
       <c r="E56" s="28" t="s">
         <v>409</v>
@@ -18636,7 +18633,7 @@
         <v>2090</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>2598</v>
+        <v>2588</v>
       </c>
       <c r="E57" s="28" t="s">
         <v>413</v>
@@ -18657,7 +18654,7 @@
         <v>2091</v>
       </c>
       <c r="D58" s="24" t="s">
-        <v>2603</v>
+        <v>2593</v>
       </c>
       <c r="E58" s="31" t="s">
         <v>417</v>
@@ -18678,7 +18675,7 @@
         <v>2092</v>
       </c>
       <c r="D59" s="24" t="s">
-        <v>2599</v>
+        <v>2589</v>
       </c>
       <c r="E59" s="28" t="s">
         <v>421</v>
@@ -18699,7 +18696,7 @@
         <v>2093</v>
       </c>
       <c r="D60" s="24" t="s">
-        <v>2600</v>
+        <v>2590</v>
       </c>
       <c r="E60" s="28" t="s">
         <v>424</v>
@@ -18720,7 +18717,7 @@
         <v>2094</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>2601</v>
+        <v>2591</v>
       </c>
       <c r="E61" s="28" t="s">
         <v>427</v>
@@ -18741,7 +18738,7 @@
         <v>2095</v>
       </c>
       <c r="D62" s="24" t="s">
-        <v>2602</v>
+        <v>2592</v>
       </c>
       <c r="E62" s="28" t="s">
         <v>430</v>
@@ -18762,7 +18759,7 @@
         <v>2096</v>
       </c>
       <c r="D63" s="24" t="s">
-        <v>2604</v>
+        <v>2594</v>
       </c>
       <c r="E63" s="28" t="s">
         <v>434</v>
@@ -18783,7 +18780,7 @@
         <v>2097</v>
       </c>
       <c r="D64" s="24" t="s">
-        <v>2258</v>
+        <v>2255</v>
       </c>
       <c r="E64" s="28" t="s">
         <v>438</v>
@@ -18804,7 +18801,7 @@
         <v>2098</v>
       </c>
       <c r="D65" s="24" t="s">
-        <v>2257</v>
+        <v>2254</v>
       </c>
       <c r="E65" s="28" t="s">
         <v>442</v>
@@ -18825,7 +18822,7 @@
         <v>2099</v>
       </c>
       <c r="D66" s="24" t="s">
-        <v>2605</v>
+        <v>2595</v>
       </c>
       <c r="E66" s="28" t="s">
         <v>445</v>
@@ -18846,7 +18843,7 @@
         <v>2100</v>
       </c>
       <c r="D67" s="24" t="s">
-        <v>2606</v>
+        <v>2596</v>
       </c>
       <c r="E67" s="28" t="s">
         <v>449</v>
@@ -18867,7 +18864,7 @@
         <v>2101</v>
       </c>
       <c r="D68" s="24" t="s">
-        <v>2607</v>
+        <v>2597</v>
       </c>
       <c r="E68" s="28" t="s">
         <v>453</v>
@@ -18885,10 +18882,10 @@
         <v>456</v>
       </c>
       <c r="C69" s="24" t="s">
-        <v>2613</v>
+        <v>2603</v>
       </c>
       <c r="D69" s="24" t="s">
-        <v>2609</v>
+        <v>2599</v>
       </c>
       <c r="E69" s="28" t="s">
         <v>457</v>
@@ -18906,10 +18903,10 @@
         <v>460</v>
       </c>
       <c r="C70" s="24" t="s">
-        <v>2610</v>
+        <v>2600</v>
       </c>
       <c r="D70" s="24" t="s">
-        <v>2611</v>
+        <v>2601</v>
       </c>
       <c r="E70" s="28" t="s">
         <v>461</v>
@@ -18927,10 +18924,10 @@
         <v>464</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>2608</v>
+        <v>2598</v>
       </c>
       <c r="D71" s="24" t="s">
-        <v>2612</v>
+        <v>2602</v>
       </c>
       <c r="E71" s="28" t="s">
         <v>465</v>
@@ -18951,7 +18948,7 @@
         <v>2102</v>
       </c>
       <c r="D72" s="24" t="s">
-        <v>2614</v>
+        <v>2604</v>
       </c>
       <c r="E72" s="28" t="s">
         <v>469</v>
@@ -18969,10 +18966,10 @@
         <v>472</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>2615</v>
+        <v>2605</v>
       </c>
       <c r="D73" s="24" t="s">
-        <v>2618</v>
+        <v>2608</v>
       </c>
       <c r="E73" s="28" t="s">
         <v>473</v>
@@ -18990,10 +18987,10 @@
         <v>476</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>2616</v>
+        <v>2606</v>
       </c>
       <c r="D74" s="24" t="s">
-        <v>2619</v>
+        <v>2609</v>
       </c>
       <c r="E74" s="28" t="s">
         <v>477</v>
@@ -19011,10 +19008,10 @@
         <v>480</v>
       </c>
       <c r="C75" s="24" t="s">
-        <v>2617</v>
+        <v>2607</v>
       </c>
       <c r="D75" s="24" t="s">
-        <v>2620</v>
+        <v>2610</v>
       </c>
       <c r="E75" s="28" t="s">
         <v>481</v>
@@ -19035,7 +19032,7 @@
         <v>2103</v>
       </c>
       <c r="D76" s="24" t="s">
-        <v>2621</v>
+        <v>2611</v>
       </c>
       <c r="E76" s="28" t="s">
         <v>485</v>
@@ -19056,7 +19053,7 @@
         <v>2104</v>
       </c>
       <c r="D77" s="24" t="s">
-        <v>2622</v>
+        <v>2612</v>
       </c>
       <c r="E77" s="28" t="s">
         <v>489</v>
@@ -19077,7 +19074,7 @@
         <v>2105</v>
       </c>
       <c r="D78" s="24" t="s">
-        <v>2624</v>
+        <v>2614</v>
       </c>
       <c r="E78" s="28" t="s">
         <v>493</v>
@@ -19098,7 +19095,7 @@
         <v>2106</v>
       </c>
       <c r="D79" s="24" t="s">
-        <v>2623</v>
+        <v>2613</v>
       </c>
       <c r="E79" s="28" t="s">
         <v>497</v>
@@ -19119,7 +19116,7 @@
         <v>2107</v>
       </c>
       <c r="D80" s="24" t="s">
-        <v>2625</v>
+        <v>2615</v>
       </c>
       <c r="E80" s="28" t="s">
         <v>501</v>
@@ -19140,7 +19137,7 @@
         <v>2108</v>
       </c>
       <c r="D81" s="24" t="s">
-        <v>2626</v>
+        <v>2616</v>
       </c>
       <c r="E81" s="28" t="s">
         <v>505</v>
@@ -19161,7 +19158,7 @@
         <v>2109</v>
       </c>
       <c r="D82" s="24" t="s">
-        <v>2627</v>
+        <v>2617</v>
       </c>
       <c r="E82" s="28" t="s">
         <v>509</v>
@@ -19182,7 +19179,7 @@
         <v>2110</v>
       </c>
       <c r="D83" s="24" t="s">
-        <v>2628</v>
+        <v>2618</v>
       </c>
       <c r="E83" s="28" t="s">
         <v>513</v>
@@ -19200,10 +19197,10 @@
         <v>516</v>
       </c>
       <c r="C84" s="24" t="s">
-        <v>2259</v>
+        <v>2256</v>
       </c>
       <c r="D84" s="24" t="s">
-        <v>2261</v>
+        <v>2258</v>
       </c>
       <c r="E84" s="28" t="s">
         <v>517</v>
@@ -19221,10 +19218,10 @@
         <v>520</v>
       </c>
       <c r="C85" s="24" t="s">
-        <v>2260</v>
+        <v>2257</v>
       </c>
       <c r="D85" s="24" t="s">
-        <v>2262</v>
+        <v>2259</v>
       </c>
       <c r="E85" s="28" t="s">
         <v>521</v>
@@ -19245,7 +19242,7 @@
         <v>2111</v>
       </c>
       <c r="D86" s="24" t="s">
-        <v>2704</v>
+        <v>2694</v>
       </c>
       <c r="E86" s="28" t="s">
         <v>525</v>
@@ -19266,7 +19263,7 @@
         <v>2112</v>
       </c>
       <c r="D87" s="24" t="s">
-        <v>2705</v>
+        <v>2695</v>
       </c>
       <c r="E87" s="28" t="s">
         <v>529</v>
@@ -19287,7 +19284,7 @@
         <v>2113</v>
       </c>
       <c r="D88" s="24" t="s">
-        <v>2706</v>
+        <v>2696</v>
       </c>
       <c r="E88" s="28" t="s">
         <v>533</v>
@@ -19308,7 +19305,7 @@
         <v>2114</v>
       </c>
       <c r="D89" s="24" t="s">
-        <v>2707</v>
+        <v>2697</v>
       </c>
       <c r="E89" s="28" t="s">
         <v>537</v>
@@ -19329,7 +19326,7 @@
         <v>2115</v>
       </c>
       <c r="D90" s="24" t="s">
-        <v>2708</v>
+        <v>2698</v>
       </c>
       <c r="E90" s="28" t="s">
         <v>541</v>
@@ -19350,7 +19347,7 @@
         <v>2111</v>
       </c>
       <c r="D91" s="24" t="s">
-        <v>2704</v>
+        <v>2694</v>
       </c>
       <c r="E91" s="28" t="s">
         <v>544</v>
@@ -19371,7 +19368,7 @@
         <v>2112</v>
       </c>
       <c r="D92" s="24" t="s">
-        <v>2705</v>
+        <v>2695</v>
       </c>
       <c r="E92" s="28" t="s">
         <v>546</v>
@@ -19392,7 +19389,7 @@
         <v>2113</v>
       </c>
       <c r="D93" s="24" t="s">
-        <v>2706</v>
+        <v>2696</v>
       </c>
       <c r="E93" s="28" t="s">
         <v>548</v>
@@ -19413,7 +19410,7 @@
         <v>2114</v>
       </c>
       <c r="D94" s="24" t="s">
-        <v>2707</v>
+        <v>2697</v>
       </c>
       <c r="E94" s="28" t="s">
         <v>550</v>
@@ -19434,7 +19431,7 @@
         <v>2115</v>
       </c>
       <c r="D95" s="24" t="s">
-        <v>2708</v>
+        <v>2698</v>
       </c>
       <c r="E95" s="28" t="s">
         <v>552</v>
@@ -19455,7 +19452,7 @@
         <v>2116</v>
       </c>
       <c r="D96" s="24" t="s">
-        <v>2629</v>
+        <v>2619</v>
       </c>
       <c r="E96" s="28" t="s">
         <v>555</v>
@@ -19476,7 +19473,7 @@
         <v>2117</v>
       </c>
       <c r="D97" s="24" t="s">
-        <v>2630</v>
+        <v>2620</v>
       </c>
       <c r="E97" s="28" t="s">
         <v>559</v>
@@ -19497,7 +19494,7 @@
         <v>2118</v>
       </c>
       <c r="D98" s="24" t="s">
-        <v>2631</v>
+        <v>2621</v>
       </c>
       <c r="E98" s="28" t="s">
         <v>563</v>
@@ -19518,7 +19515,7 @@
         <v>2119</v>
       </c>
       <c r="D99" s="24" t="s">
-        <v>2263</v>
+        <v>2260</v>
       </c>
       <c r="E99" s="28" t="s">
         <v>45</v>
@@ -19539,7 +19536,7 @@
         <v>2120</v>
       </c>
       <c r="D100" s="24" t="s">
-        <v>2264</v>
+        <v>2261</v>
       </c>
       <c r="E100" s="28" t="s">
         <v>47</v>
@@ -19557,10 +19554,10 @@
         <v>569</v>
       </c>
       <c r="C101" s="24" t="s">
-        <v>2362</v>
+        <v>2358</v>
       </c>
       <c r="D101" s="24" t="s">
-        <v>2265</v>
+        <v>2262</v>
       </c>
       <c r="E101" s="28" t="s">
         <v>48</v>
@@ -19581,7 +19578,7 @@
         <v>2121</v>
       </c>
       <c r="D102" s="24" t="s">
-        <v>2266</v>
+        <v>2263</v>
       </c>
       <c r="E102" s="28" t="s">
         <v>50</v>
@@ -19602,7 +19599,7 @@
         <v>2122</v>
       </c>
       <c r="D103" s="24" t="s">
-        <v>2267</v>
+        <v>2264</v>
       </c>
       <c r="E103" s="28" t="s">
         <v>52</v>
@@ -19623,7 +19620,7 @@
         <v>2123</v>
       </c>
       <c r="D104" s="24" t="s">
-        <v>2268</v>
+        <v>2265</v>
       </c>
       <c r="E104" s="28" t="s">
         <v>43</v>
@@ -19644,7 +19641,7 @@
         <v>2124</v>
       </c>
       <c r="D105" s="24" t="s">
-        <v>2632</v>
+        <v>2622</v>
       </c>
       <c r="E105" s="28" t="s">
         <v>54</v>
@@ -19665,7 +19662,7 @@
         <v>2125</v>
       </c>
       <c r="D106" s="24" t="s">
-        <v>2633</v>
+        <v>2623</v>
       </c>
       <c r="E106" s="28" t="s">
         <v>56</v>
@@ -19686,7 +19683,7 @@
         <v>2126</v>
       </c>
       <c r="D107" s="24" t="s">
-        <v>2634</v>
+        <v>2624</v>
       </c>
       <c r="E107" s="28" t="s">
         <v>58</v>
@@ -19704,10 +19701,10 @@
         <v>584</v>
       </c>
       <c r="C108" s="24" t="s">
-        <v>2365</v>
+        <v>2360</v>
       </c>
       <c r="D108" s="24" t="s">
-        <v>2709</v>
+        <v>2699</v>
       </c>
       <c r="E108" s="28" t="s">
         <v>60</v>
@@ -19728,7 +19725,7 @@
         <v>2127</v>
       </c>
       <c r="D109" s="24" t="s">
-        <v>2635</v>
+        <v>2625</v>
       </c>
       <c r="E109" s="28" t="s">
         <v>62</v>
@@ -19746,10 +19743,10 @@
         <v>589</v>
       </c>
       <c r="C110" s="24" t="s">
-        <v>2269</v>
+        <v>2266</v>
       </c>
       <c r="D110" s="24" t="s">
-        <v>2273</v>
+        <v>2270</v>
       </c>
       <c r="E110" s="28" t="s">
         <v>590</v>
@@ -19767,10 +19764,10 @@
         <v>593</v>
       </c>
       <c r="C111" s="24" t="s">
-        <v>2270</v>
+        <v>2267</v>
       </c>
       <c r="D111" s="24" t="s">
-        <v>2636</v>
+        <v>2626</v>
       </c>
       <c r="E111" s="28" t="s">
         <v>592</v>
@@ -19788,10 +19785,10 @@
         <v>593</v>
       </c>
       <c r="C112" s="24" t="s">
-        <v>2271</v>
+        <v>2268</v>
       </c>
       <c r="D112" s="24" t="s">
-        <v>2636</v>
+        <v>2626</v>
       </c>
       <c r="E112" s="28" t="s">
         <v>595</v>
@@ -19809,10 +19806,10 @@
         <v>597</v>
       </c>
       <c r="C113" s="24" t="s">
-        <v>2272</v>
+        <v>2269</v>
       </c>
       <c r="D113" s="24" t="s">
-        <v>2637</v>
+        <v>2627</v>
       </c>
       <c r="E113" s="28" t="s">
         <v>598</v>
@@ -19830,10 +19827,10 @@
         <v>601</v>
       </c>
       <c r="C114" s="24" t="s">
-        <v>2643</v>
+        <v>2633</v>
       </c>
       <c r="D114" s="24" t="s">
-        <v>2638</v>
+        <v>2628</v>
       </c>
       <c r="E114" s="28" t="s">
         <v>602</v>
@@ -19851,10 +19848,10 @@
         <v>589</v>
       </c>
       <c r="C115" s="24" t="s">
-        <v>2644</v>
+        <v>2634</v>
       </c>
       <c r="D115" s="24" t="s">
-        <v>2639</v>
+        <v>2629</v>
       </c>
       <c r="E115" s="28" t="s">
         <v>605</v>
@@ -19872,10 +19869,10 @@
         <v>607</v>
       </c>
       <c r="C116" s="24" t="s">
-        <v>2645</v>
+        <v>2635</v>
       </c>
       <c r="D116" s="24" t="s">
-        <v>2640</v>
+        <v>2630</v>
       </c>
       <c r="E116" s="28" t="s">
         <v>606</v>
@@ -19893,10 +19890,10 @@
         <v>597</v>
       </c>
       <c r="C117" s="24" t="s">
-        <v>2646</v>
+        <v>2636</v>
       </c>
       <c r="D117" s="24" t="s">
-        <v>2637</v>
+        <v>2627</v>
       </c>
       <c r="E117" s="28" t="s">
         <v>610</v>
@@ -19914,10 +19911,10 @@
         <v>601</v>
       </c>
       <c r="C118" s="24" t="s">
-        <v>2647</v>
+        <v>2637</v>
       </c>
       <c r="D118" s="24" t="s">
-        <v>2638</v>
+        <v>2628</v>
       </c>
       <c r="E118" s="28" t="s">
         <v>612</v>
@@ -19935,10 +19932,10 @@
         <v>614</v>
       </c>
       <c r="C119" s="24" t="s">
-        <v>2648</v>
+        <v>2638</v>
       </c>
       <c r="D119" s="24" t="s">
-        <v>2641</v>
+        <v>2631</v>
       </c>
       <c r="E119" s="28" t="s">
         <v>613</v>
@@ -19956,10 +19953,10 @@
         <v>617</v>
       </c>
       <c r="C120" s="24" t="s">
-        <v>2649</v>
+        <v>2639</v>
       </c>
       <c r="D120" s="24" t="s">
-        <v>2642</v>
+        <v>2632</v>
       </c>
       <c r="E120" s="28" t="s">
         <v>616</v>
@@ -19980,7 +19977,7 @@
         <v>2128</v>
       </c>
       <c r="D121" s="24" t="s">
-        <v>2650</v>
+        <v>2640</v>
       </c>
       <c r="E121" s="28" t="s">
         <v>621</v>
@@ -20001,7 +19998,7 @@
         <v>2129</v>
       </c>
       <c r="D122" s="24" t="s">
-        <v>2651</v>
+        <v>2641</v>
       </c>
       <c r="E122" s="30" t="s">
         <v>625</v>
@@ -20022,7 +20019,7 @@
         <v>2130</v>
       </c>
       <c r="D123" s="24" t="s">
-        <v>2652</v>
+        <v>2642</v>
       </c>
       <c r="E123" s="30" t="s">
         <v>629</v>
@@ -20043,7 +20040,7 @@
         <v>2131</v>
       </c>
       <c r="D124" s="24" t="s">
-        <v>2653</v>
+        <v>2643</v>
       </c>
       <c r="E124" s="30" t="s">
         <v>633</v>
@@ -20064,7 +20061,7 @@
         <v>2132</v>
       </c>
       <c r="D125" s="24" t="s">
-        <v>2654</v>
+        <v>2644</v>
       </c>
       <c r="E125" s="30" t="s">
         <v>637</v>
@@ -20085,7 +20082,7 @@
         <v>2133</v>
       </c>
       <c r="D126" s="24" t="s">
-        <v>2655</v>
+        <v>2645</v>
       </c>
       <c r="E126" s="30" t="s">
         <v>641</v>
@@ -20106,7 +20103,7 @@
         <v>2134</v>
       </c>
       <c r="D127" s="24" t="s">
-        <v>2656</v>
+        <v>2646</v>
       </c>
       <c r="E127" s="30" t="s">
         <v>645</v>
@@ -20122,7 +20119,7 @@
       </c>
       <c r="B128" s="27"/>
       <c r="C128" s="24" t="s">
-        <v>2657</v>
+        <v>2647</v>
       </c>
       <c r="D128" s="24"/>
       <c r="E128" s="28" t="s">
@@ -20137,7 +20134,7 @@
       </c>
       <c r="B129" s="27"/>
       <c r="C129" s="24" t="s">
-        <v>2658</v>
+        <v>2648</v>
       </c>
       <c r="D129" s="24"/>
       <c r="E129" s="28" t="s">
@@ -20152,7 +20149,7 @@
       </c>
       <c r="B130" s="27"/>
       <c r="C130" s="24" t="s">
-        <v>2659</v>
+        <v>2649</v>
       </c>
       <c r="D130" s="24"/>
       <c r="E130" s="28" t="s">
@@ -20167,7 +20164,7 @@
       </c>
       <c r="B131" s="27"/>
       <c r="C131" s="24" t="s">
-        <v>2660</v>
+        <v>2650</v>
       </c>
       <c r="D131" s="24"/>
       <c r="E131" s="28" t="s">
@@ -20182,7 +20179,7 @@
       </c>
       <c r="B132" s="27"/>
       <c r="C132" s="24" t="s">
-        <v>2661</v>
+        <v>2651</v>
       </c>
       <c r="D132" s="24"/>
       <c r="E132" s="28" t="s">
@@ -20197,7 +20194,7 @@
       </c>
       <c r="B133" s="27"/>
       <c r="C133" s="24" t="s">
-        <v>2662</v>
+        <v>2652</v>
       </c>
       <c r="D133" s="24"/>
       <c r="E133" s="28" t="s">
@@ -20212,7 +20209,7 @@
       </c>
       <c r="B134" s="27"/>
       <c r="C134" s="24" t="s">
-        <v>2663</v>
+        <v>2653</v>
       </c>
       <c r="D134" s="24"/>
       <c r="E134" s="28" t="s">
@@ -20227,7 +20224,7 @@
       </c>
       <c r="B135" s="27"/>
       <c r="C135" s="24" t="s">
-        <v>2664</v>
+        <v>2654</v>
       </c>
       <c r="D135" s="24"/>
       <c r="E135" s="28" t="s">
@@ -20242,7 +20239,7 @@
       </c>
       <c r="B136" s="27"/>
       <c r="C136" s="24" t="s">
-        <v>2665</v>
+        <v>2655</v>
       </c>
       <c r="D136" s="24"/>
       <c r="E136" s="28" t="s">
@@ -20257,7 +20254,7 @@
       </c>
       <c r="B137" s="27"/>
       <c r="C137" s="24" t="s">
-        <v>2666</v>
+        <v>2656</v>
       </c>
       <c r="D137" s="24"/>
       <c r="E137" s="28" t="s">
@@ -20272,7 +20269,7 @@
       </c>
       <c r="B138" s="27"/>
       <c r="C138" s="24" t="s">
-        <v>2667</v>
+        <v>2657</v>
       </c>
       <c r="D138" s="24"/>
       <c r="E138" s="28" t="s">
@@ -20287,7 +20284,7 @@
       </c>
       <c r="B139" s="27"/>
       <c r="C139" s="24" t="s">
-        <v>2668</v>
+        <v>2658</v>
       </c>
       <c r="D139" s="24"/>
       <c r="E139" s="28" t="s">
@@ -20302,7 +20299,7 @@
       </c>
       <c r="B140" s="27"/>
       <c r="C140" s="24" t="s">
-        <v>2669</v>
+        <v>2659</v>
       </c>
       <c r="D140" s="24"/>
       <c r="E140" s="28" t="s">
@@ -20317,7 +20314,7 @@
       </c>
       <c r="B141" s="27"/>
       <c r="C141" s="24" t="s">
-        <v>2670</v>
+        <v>2660</v>
       </c>
       <c r="D141" s="24"/>
       <c r="E141" s="28" t="s">
@@ -20337,7 +20334,7 @@
         <v>2135</v>
       </c>
       <c r="D142" s="24" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="E142" s="28" t="s">
         <v>677</v>
@@ -20358,7 +20355,7 @@
         <v>2136</v>
       </c>
       <c r="D143" s="24" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="E143" s="28" t="s">
         <v>681</v>
@@ -20379,7 +20376,7 @@
         <v>2137</v>
       </c>
       <c r="D144" s="24" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="E144" s="28" t="s">
         <v>685</v>
@@ -20400,7 +20397,7 @@
         <v>2138</v>
       </c>
       <c r="D145" s="24" t="s">
-        <v>2671</v>
+        <v>2661</v>
       </c>
       <c r="E145" s="28" t="s">
         <v>689</v>
@@ -20421,7 +20418,7 @@
         <v>2139</v>
       </c>
       <c r="D146" s="24" t="s">
-        <v>2673</v>
+        <v>2663</v>
       </c>
       <c r="E146" s="32" t="s">
         <v>693</v>
@@ -20442,7 +20439,7 @@
         <v>2140</v>
       </c>
       <c r="D147" s="24" t="s">
-        <v>2672</v>
+        <v>2662</v>
       </c>
       <c r="E147" s="28" t="s">
         <v>697</v>
@@ -20463,7 +20460,7 @@
         <v>2141</v>
       </c>
       <c r="D148" s="24" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="E148" s="28" t="s">
         <v>701</v>
@@ -20484,7 +20481,7 @@
         <v>2142</v>
       </c>
       <c r="D149" s="24" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="E149" s="28" t="s">
         <v>705</v>
@@ -20505,7 +20502,7 @@
         <v>2143</v>
       </c>
       <c r="D150" s="24" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="E150" s="28" t="s">
         <v>709</v>
@@ -20526,7 +20523,7 @@
         <v>2144</v>
       </c>
       <c r="D151" s="24" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="E151" s="28" t="s">
         <v>713</v>
@@ -20547,7 +20544,7 @@
         <v>2145</v>
       </c>
       <c r="D152" s="24" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="E152" s="28" t="s">
         <v>717</v>
@@ -20565,10 +20562,10 @@
         <v>720</v>
       </c>
       <c r="C153" s="24" t="s">
-        <v>2146</v>
+        <v>2715</v>
       </c>
       <c r="D153" s="24" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="E153" s="28" t="s">
         <v>721</v>
@@ -20586,10 +20583,10 @@
         <v>724</v>
       </c>
       <c r="C154" s="24" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="D154" s="24" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="E154" s="32" t="s">
         <v>725</v>
@@ -20607,10 +20604,10 @@
         <v>700</v>
       </c>
       <c r="C155" s="24" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="D155" s="24" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="E155" s="28" t="s">
         <v>728</v>
@@ -20628,10 +20625,10 @@
         <v>730</v>
       </c>
       <c r="C156" s="24" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="D156" s="24" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="E156" s="28" t="s">
         <v>731</v>
@@ -20649,10 +20646,10 @@
         <v>734</v>
       </c>
       <c r="C157" s="24" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="D157" s="24" t="s">
-        <v>2674</v>
+        <v>2664</v>
       </c>
       <c r="E157" s="28" t="s">
         <v>735</v>
@@ -20670,10 +20667,10 @@
         <v>734</v>
       </c>
       <c r="C158" s="24" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="D158" s="24" t="s">
-        <v>2674</v>
+        <v>2664</v>
       </c>
       <c r="E158" s="28" t="s">
         <v>738</v>
@@ -20691,10 +20688,10 @@
         <v>740</v>
       </c>
       <c r="C159" s="24" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="D159" s="24" t="s">
-        <v>2675</v>
+        <v>2665</v>
       </c>
       <c r="E159" s="28" t="s">
         <v>741</v>
@@ -20712,10 +20709,10 @@
         <v>744</v>
       </c>
       <c r="C160" s="24" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="D160" s="24" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="E160" s="28" t="s">
         <v>745</v>
@@ -20733,10 +20730,10 @@
         <v>747</v>
       </c>
       <c r="C161" s="24" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="D161" s="24" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="E161" s="28" t="s">
         <v>748</v>
@@ -20754,10 +20751,10 @@
         <v>750</v>
       </c>
       <c r="C162" s="24" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="D162" s="24" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="E162" s="28" t="s">
         <v>751</v>
@@ -20775,10 +20772,10 @@
         <v>754</v>
       </c>
       <c r="C163" s="24" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="D163" s="24" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="E163" s="28" t="s">
         <v>755</v>
@@ -20796,10 +20793,10 @@
         <v>758</v>
       </c>
       <c r="C164" s="24" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="D164" s="24" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="E164" s="28" t="s">
         <v>759</v>
@@ -20817,10 +20814,10 @@
         <v>762</v>
       </c>
       <c r="C165" s="24" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="D165" s="24" t="s">
-        <v>2676</v>
+        <v>2666</v>
       </c>
       <c r="E165" s="28" t="s">
         <v>763</v>
@@ -20838,10 +20835,10 @@
         <v>766</v>
       </c>
       <c r="C166" s="24" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="D166" s="24" t="s">
-        <v>2677</v>
+        <v>2667</v>
       </c>
       <c r="E166" s="28" t="s">
         <v>767</v>
@@ -20859,10 +20856,10 @@
         <v>766</v>
       </c>
       <c r="C167" s="24" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="D167" s="24" t="s">
-        <v>2677</v>
+        <v>2667</v>
       </c>
       <c r="E167" s="28" t="s">
         <v>770</v>
@@ -20880,10 +20877,10 @@
         <v>772</v>
       </c>
       <c r="C168" s="24" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="D168" s="24" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="E168" s="28" t="s">
         <v>773</v>
@@ -20901,10 +20898,10 @@
         <v>776</v>
       </c>
       <c r="C169" s="24" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="D169" s="24" t="s">
-        <v>2678</v>
+        <v>2668</v>
       </c>
       <c r="E169" s="28" t="s">
         <v>777</v>
@@ -20922,10 +20919,10 @@
         <v>780</v>
       </c>
       <c r="C170" s="24" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="D170" s="24" t="s">
-        <v>2681</v>
+        <v>2671</v>
       </c>
       <c r="E170" s="28" t="s">
         <v>781</v>
@@ -20941,10 +20938,10 @@
         <v>783</v>
       </c>
       <c r="C171" s="24" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="D171" s="24" t="s">
-        <v>2680</v>
+        <v>2670</v>
       </c>
       <c r="E171" s="28" t="s">
         <v>784</v>
@@ -20960,10 +20957,10 @@
         <v>786</v>
       </c>
       <c r="C172" s="24" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="D172" s="24" t="s">
-        <v>2679</v>
+        <v>2669</v>
       </c>
       <c r="E172" s="28" t="s">
         <v>787</v>
@@ -20979,10 +20976,10 @@
         <v>788</v>
       </c>
       <c r="C173" s="24" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="D173" s="24" t="s">
-        <v>2711</v>
+        <v>2701</v>
       </c>
       <c r="E173" s="28" t="s">
         <v>787</v>
@@ -20998,10 +20995,10 @@
         <v>790</v>
       </c>
       <c r="C174" s="24" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="D174" s="24" t="s">
-        <v>2682</v>
+        <v>2672</v>
       </c>
       <c r="E174" s="28" t="s">
         <v>791</v>
@@ -21017,10 +21014,10 @@
         <v>793</v>
       </c>
       <c r="C175" s="24" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="D175" s="24" t="s">
-        <v>2710</v>
+        <v>2700</v>
       </c>
       <c r="E175" s="28" t="s">
         <v>794</v>
@@ -21036,10 +21033,10 @@
         <v>795</v>
       </c>
       <c r="C176" s="24" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="D176" s="24" t="s">
-        <v>2712</v>
+        <v>2702</v>
       </c>
       <c r="E176" s="28" t="s">
         <v>794</v>
@@ -21055,10 +21052,10 @@
         <v>797</v>
       </c>
       <c r="C177" s="24" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="D177" s="24" t="s">
-        <v>2713</v>
+        <v>2703</v>
       </c>
       <c r="E177" s="28" t="s">
         <v>798</v>
@@ -21074,10 +21071,10 @@
         <v>800</v>
       </c>
       <c r="C178" s="24" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="D178" s="24" t="s">
-        <v>2683</v>
+        <v>2673</v>
       </c>
       <c r="E178" s="28" t="s">
         <v>801</v>
@@ -21095,10 +21092,10 @@
         <v>804</v>
       </c>
       <c r="C179" s="24" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="D179" s="24" t="s">
-        <v>2684</v>
+        <v>2674</v>
       </c>
       <c r="E179" s="30" t="s">
         <v>805</v>
@@ -21116,10 +21113,10 @@
         <v>808</v>
       </c>
       <c r="C180" s="24" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="D180" s="24" t="s">
-        <v>2685</v>
+        <v>2675</v>
       </c>
       <c r="E180" s="30" t="s">
         <v>809</v>
@@ -21137,10 +21134,10 @@
         <v>812</v>
       </c>
       <c r="C181" s="24" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="D181" s="24" t="s">
-        <v>2686</v>
+        <v>2676</v>
       </c>
       <c r="E181" s="28" t="s">
         <v>813</v>
@@ -21158,10 +21155,10 @@
         <v>816</v>
       </c>
       <c r="C182" s="24" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="D182" s="24" t="s">
-        <v>2692</v>
+        <v>2682</v>
       </c>
       <c r="E182" s="28" t="s">
         <v>817</v>
@@ -21179,10 +21176,10 @@
         <v>820</v>
       </c>
       <c r="C183" s="24" t="s">
-        <v>2689</v>
+        <v>2679</v>
       </c>
       <c r="D183" s="24" t="s">
-        <v>2690</v>
+        <v>2680</v>
       </c>
       <c r="E183" s="28" t="s">
         <v>821</v>
@@ -21200,10 +21197,10 @@
         <v>824</v>
       </c>
       <c r="C184" s="24" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="D184" s="24" t="s">
-        <v>2688</v>
+        <v>2678</v>
       </c>
       <c r="E184" s="28" t="s">
         <v>825</v>
@@ -21221,10 +21218,10 @@
         <v>828</v>
       </c>
       <c r="C185" s="24" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="D185" s="24" t="s">
-        <v>2687</v>
+        <v>2677</v>
       </c>
       <c r="E185" s="28" t="s">
         <v>829</v>
@@ -21242,10 +21239,10 @@
         <v>832</v>
       </c>
       <c r="C186" s="24" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="D186" s="24" t="s">
-        <v>2691</v>
+        <v>2681</v>
       </c>
       <c r="E186" s="28" t="s">
         <v>833</v>
@@ -21263,10 +21260,10 @@
         <v>836</v>
       </c>
       <c r="C187" s="24" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="D187" s="24" t="s">
-        <v>2693</v>
+        <v>2683</v>
       </c>
       <c r="E187" s="28" t="s">
         <v>837</v>
@@ -21284,10 +21281,10 @@
         <v>840</v>
       </c>
       <c r="C188" s="24" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="D188" s="24" t="s">
-        <v>2694</v>
+        <v>2684</v>
       </c>
       <c r="E188" s="28" t="s">
         <v>841</v>
@@ -21305,10 +21302,10 @@
         <v>844</v>
       </c>
       <c r="C189" s="24" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="D189" s="24" t="s">
-        <v>2695</v>
+        <v>2685</v>
       </c>
       <c r="E189" s="28" t="s">
         <v>845</v>
@@ -21326,10 +21323,10 @@
         <v>848</v>
       </c>
       <c r="C190" s="24" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="D190" s="24" t="s">
-        <v>2696</v>
+        <v>2686</v>
       </c>
       <c r="E190" s="28" t="s">
         <v>849</v>
@@ -21347,10 +21344,10 @@
         <v>852</v>
       </c>
       <c r="C191" s="24" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="D191" s="24" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="E191" s="28" t="s">
         <v>853</v>
@@ -21370,10 +21367,10 @@
         <v>856</v>
       </c>
       <c r="C192" s="24" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="D192" s="24" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="E192" s="32" t="s">
         <v>853</v>
@@ -21393,10 +21390,10 @@
         <v>860</v>
       </c>
       <c r="C193" s="24" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="D193" s="24" t="s">
-        <v>2697</v>
+        <v>2687</v>
       </c>
       <c r="E193" s="28" t="s">
         <v>861</v>
@@ -21414,10 +21411,10 @@
         <v>864</v>
       </c>
       <c r="C194" s="24" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="D194" s="24" t="s">
-        <v>2698</v>
+        <v>2688</v>
       </c>
       <c r="E194" s="28" t="s">
         <v>865</v>
@@ -21435,10 +21432,10 @@
         <v>868</v>
       </c>
       <c r="C195" s="24" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="D195" s="24" t="s">
-        <v>2699</v>
+        <v>2689</v>
       </c>
       <c r="E195" s="28" t="s">
         <v>869</v>
@@ -21456,10 +21453,10 @@
         <v>872</v>
       </c>
       <c r="C196" s="24" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="D196" s="24" t="s">
-        <v>2700</v>
+        <v>2690</v>
       </c>
       <c r="E196" s="28" t="s">
         <v>873</v>
@@ -21477,10 +21474,10 @@
         <v>876</v>
       </c>
       <c r="C197" s="24" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="D197" s="24" t="s">
-        <v>2701</v>
+        <v>2691</v>
       </c>
       <c r="E197" s="28" t="s">
         <v>875</v>
@@ -21498,10 +21495,10 @@
         <v>879</v>
       </c>
       <c r="C198" s="24" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="D198" s="24" t="s">
-        <v>2714</v>
+        <v>2704</v>
       </c>
       <c r="E198" s="28" t="s">
         <v>880</v>
@@ -21519,10 +21516,10 @@
         <v>883</v>
       </c>
       <c r="C199" s="24" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="D199" s="24" t="s">
-        <v>2715</v>
+        <v>2705</v>
       </c>
       <c r="E199" s="28" t="s">
         <v>884</v>
@@ -21540,10 +21537,10 @@
         <v>887</v>
       </c>
       <c r="C200" s="24" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="D200" s="24" t="s">
-        <v>2716</v>
+        <v>2706</v>
       </c>
       <c r="E200" s="28" t="s">
         <v>888</v>
@@ -21561,10 +21558,10 @@
         <v>891</v>
       </c>
       <c r="C201" s="24" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="D201" s="24" t="s">
-        <v>2717</v>
+        <v>2707</v>
       </c>
       <c r="E201" s="28" t="s">
         <v>892</v>
@@ -21582,10 +21579,10 @@
         <v>895</v>
       </c>
       <c r="C202" s="24" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="D202" s="24" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="E202" s="28" t="s">
         <v>896</v>
@@ -21603,10 +21600,10 @@
         <v>899</v>
       </c>
       <c r="C203" s="24" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="D203" s="24" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="E203" s="28" t="s">
         <v>900</v>
@@ -21673,7 +21670,7 @@
         <v>904</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>2417</v>
+        <v>2411</v>
       </c>
       <c r="F2" s="34" t="s">
         <v>905</v>
@@ -21687,7 +21684,7 @@
         <v>906</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>2418</v>
+        <v>2412</v>
       </c>
       <c r="F3" s="34" t="s">
         <v>907</v>
@@ -21707,7 +21704,7 @@
         <v>910</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>2419</v>
+        <v>2413</v>
       </c>
       <c r="F4" s="34" t="s">
         <v>911</v>
@@ -21721,7 +21718,7 @@
         <v>912</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>2420</v>
+        <v>2414</v>
       </c>
       <c r="F5" s="34" t="s">
         <v>913</v>
@@ -21737,7 +21734,7 @@
         <v>910</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>2419</v>
+        <v>2413</v>
       </c>
       <c r="F6" s="34" t="s">
         <v>911</v>
@@ -21751,7 +21748,7 @@
         <v>912</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>2420</v>
+        <v>2414</v>
       </c>
       <c r="F7" s="34" t="s">
         <v>913</v>
@@ -21769,7 +21766,7 @@
         <v>916</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>2421</v>
+        <v>2415</v>
       </c>
       <c r="F8" s="28" t="s">
         <v>917</v>
@@ -21783,7 +21780,7 @@
         <v>918</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>2422</v>
+        <v>2416</v>
       </c>
       <c r="F9" s="28" t="s">
         <v>919</v>
@@ -22669,7 +22666,7 @@
         <v>908</v>
       </c>
       <c r="C72" s="38" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="D72" s="28" t="s">
         <v>1041</v>
@@ -22695,7 +22692,7 @@
       <c r="A74" s="28"/>
       <c r="B74" s="28"/>
       <c r="C74" s="28" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="D74" s="28" t="s">
         <v>1041</v>
@@ -22859,7 +22856,7 @@
         <v>908</v>
       </c>
       <c r="C85" s="38" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="D85" s="28" t="s">
         <v>1067</v>
@@ -22919,7 +22916,7 @@
         <v>908</v>
       </c>
       <c r="C89" s="38" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="D89" s="28" t="s">
         <v>1077</v>
@@ -22945,7 +22942,7 @@
       <c r="A91" s="28"/>
       <c r="B91" s="28"/>
       <c r="C91" s="28" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="D91" s="28" t="s">
         <v>1077</v>
@@ -24692,8 +24689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15"/>
@@ -24712,7 +24709,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>2274</v>
+        <v>2271</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>3</v>
@@ -24726,7 +24723,7 @@
         <v>1303</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>2275</v>
+        <v>2272</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>1304</v>
@@ -24740,7 +24737,7 @@
         <v>1306</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>2276</v>
+        <v>2273</v>
       </c>
       <c r="D3" s="28" t="s">
         <v>1307</v>
@@ -24754,7 +24751,7 @@
         <v>1308</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>2280</v>
+        <v>2716</v>
       </c>
       <c r="D4" s="28" t="s">
         <v>1309</v>
@@ -24768,7 +24765,7 @@
         <v>1310</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>2277</v>
+        <v>2274</v>
       </c>
       <c r="D5" s="28" t="s">
         <v>1311</v>
@@ -24782,7 +24779,7 @@
         <v>1312</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>2278</v>
+        <v>2275</v>
       </c>
       <c r="D6" s="28" t="s">
         <v>1313</v>
@@ -24796,7 +24793,7 @@
         <v>1314</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>2279</v>
+        <v>2276</v>
       </c>
       <c r="D7" s="28" t="s">
         <v>1315</v>
@@ -24810,7 +24807,7 @@
         <v>1316</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>2281</v>
+        <v>2277</v>
       </c>
       <c r="D8" s="28" t="s">
         <v>1317</v>
@@ -24824,7 +24821,7 @@
         <v>1318</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>2282</v>
+        <v>2278</v>
       </c>
       <c r="D9" s="28" t="s">
         <v>1318</v>
@@ -24838,7 +24835,7 @@
         <v>1319</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>2283</v>
+        <v>2279</v>
       </c>
       <c r="D10" s="28" t="s">
         <v>1320</v>
@@ -24852,7 +24849,7 @@
         <v>1321</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>2284</v>
+        <v>2280</v>
       </c>
       <c r="D11" s="28" t="s">
         <v>1322</v>
@@ -24866,7 +24863,7 @@
         <v>1323</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>2285</v>
+        <v>2281</v>
       </c>
       <c r="D12" s="28" t="s">
         <v>1324</v>

--- a/English translation/その他文字 (Items, Skills, Characters, Descriptions)/固有名詞 (Literally everything else).xlsx
+++ b/English translation/その他文字 (Items, Skills, Characters, Descriptions)/固有名詞 (Literally everything else).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21943" windowHeight="8091" tabRatio="627" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21943" windowHeight="8091" tabRatio="627"/>
   </bookViews>
   <sheets>
     <sheet name="names-名前" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3966" uniqueCount="2731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3989" uniqueCount="2754">
   <si>
     <t>カテゴリ</t>
   </si>
@@ -8278,6 +8278,75 @@
   </si>
   <si>
     <t>Nobus and Mizuhide</t>
+  </si>
+  <si>
+    <t>A lesser succubus with huge breasts.</t>
+  </si>
+  <si>
+    <t>A lesser succubus with a younger appearance.</t>
+  </si>
+  <si>
+    <t>A lesser succubus who specializes in footjobs.</t>
+  </si>
+  <si>
+    <t>A middle class succubus. Enemy commander.</t>
+  </si>
+  <si>
+    <t>A junior school girl. Quite cheeky</t>
+  </si>
+  <si>
+    <t>A junior school girl. Has recently fallen in love.</t>
+  </si>
+  <si>
+    <t>A highschool girl with impressive technique and abilities.</t>
+  </si>
+  <si>
+    <t>An intermediate level succubus. Skilled in attacking with their chest.</t>
+  </si>
+  <si>
+    <t>A middle school student who is proud of their huge breasts.</t>
+  </si>
+  <si>
+    <t>A local village girl who was converted into a succubus.</t>
+  </si>
+  <si>
+    <t>A succubus who was once a servant of the church. Proficient in giving puff puffs.</t>
+  </si>
+  <si>
+    <t>A succubus who was once a thief. Proficient in making men melt in her mouth.</t>
+  </si>
+  <si>
+    <t>A succubus proficient in charming men with her sweet pheromones.</t>
+  </si>
+  <si>
+    <t>An elf with a huge breasts. Currently looking for love.</t>
+  </si>
+  <si>
+    <t>An elf with beautiful legs. Looks down on humans.</t>
+  </si>
+  <si>
+    <t>A plant like monster who attacks with pollen.</t>
+  </si>
+  <si>
+    <t>A mermaid with beautiful breasts. Skilled at singing.</t>
+  </si>
+  <si>
+    <t>A mermaid who loves to charm men with kisses.</t>
+  </si>
+  <si>
+    <t>A large snake said to be worshiped. Far bigger than a normal human.</t>
+  </si>
+  <si>
+    <t>A advanced level breast succubus. All men's reason will melt with within her abundant breasts.</t>
+  </si>
+  <si>
+    <t>An elf with a huge breasts that was converted into a succubus.</t>
+  </si>
+  <si>
+    <t>An elf with beautiful legs that was converted into a succubus. Her breasts are bigger now.</t>
+  </si>
+  <si>
+    <t>An elf with beautiful legs that was converted into a succubus.</t>
   </si>
 </sst>
 </file>
@@ -8993,8 +9062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+    <sheetView tabSelected="1" topLeftCell="E34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15"/>
@@ -9003,7 +9072,7 @@
     <col min="3" max="3" width="21.5" customWidth="1"/>
     <col min="4" max="4" width="30.85546875" customWidth="1"/>
     <col min="5" max="5" width="68.140625" customWidth="1"/>
-    <col min="6" max="6" width="60.140625" customWidth="1"/>
+    <col min="6" max="6" width="73.35546875" customWidth="1"/>
     <col min="7" max="7" width="26" customWidth="1"/>
     <col min="8" max="8" width="24.92578125" customWidth="1"/>
   </cols>
@@ -9514,7 +9583,6 @@
         <v>2118</v>
       </c>
       <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
       <c r="G28" s="24" t="s">
         <v>56</v>
       </c>
@@ -9591,7 +9659,7 @@
         <v>2293</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>2394</v>
+        <v>2395</v>
       </c>
       <c r="G32" s="24" t="s">
         <v>66</v>
@@ -9615,7 +9683,7 @@
         <v>2294</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="G33" s="30" t="s">
         <v>68</v>
@@ -9658,7 +9726,9 @@
       <c r="E35" s="24" t="s">
         <v>2295</v>
       </c>
-      <c r="F35" s="24"/>
+      <c r="F35" s="24" t="s">
+        <v>2731</v>
+      </c>
       <c r="G35" s="24" t="s">
         <v>72</v>
       </c>
@@ -9680,7 +9750,9 @@
       <c r="E36" s="24" t="s">
         <v>2296</v>
       </c>
-      <c r="F36" s="24"/>
+      <c r="F36" s="24" t="s">
+        <v>2732</v>
+      </c>
       <c r="G36" s="30" t="s">
         <v>74</v>
       </c>
@@ -9702,7 +9774,9 @@
       <c r="E37" s="24" t="s">
         <v>2297</v>
       </c>
-      <c r="F37" s="24"/>
+      <c r="F37" s="24" t="s">
+        <v>2733</v>
+      </c>
       <c r="G37" s="24" t="s">
         <v>76</v>
       </c>
@@ -9724,7 +9798,9 @@
       <c r="E38" s="24" t="s">
         <v>2298</v>
       </c>
-      <c r="F38" s="24"/>
+      <c r="F38" s="24" t="s">
+        <v>2734</v>
+      </c>
       <c r="G38" s="24" t="s">
         <v>78</v>
       </c>
@@ -9746,7 +9822,9 @@
       <c r="E39" s="24" t="s">
         <v>2299</v>
       </c>
-      <c r="F39" s="24"/>
+      <c r="F39" s="24" t="s">
+        <v>2735</v>
+      </c>
       <c r="G39" s="24" t="s">
         <v>80</v>
       </c>
@@ -9768,7 +9846,9 @@
       <c r="E40" s="24" t="s">
         <v>2300</v>
       </c>
-      <c r="F40" s="24"/>
+      <c r="F40" s="24" t="s">
+        <v>2736</v>
+      </c>
       <c r="G40" s="24" t="s">
         <v>80</v>
       </c>
@@ -9790,7 +9870,9 @@
       <c r="E41" s="24" t="s">
         <v>2301</v>
       </c>
-      <c r="F41" s="24"/>
+      <c r="F41" s="24" t="s">
+        <v>2737</v>
+      </c>
       <c r="G41" s="24" t="s">
         <v>82</v>
       </c>
@@ -9812,7 +9894,9 @@
       <c r="E42" s="24" t="s">
         <v>2302</v>
       </c>
-      <c r="F42" s="24"/>
+      <c r="F42" s="24" t="s">
+        <v>2738</v>
+      </c>
       <c r="G42" s="24" t="s">
         <v>84</v>
       </c>
@@ -9834,7 +9918,9 @@
       <c r="E43" s="24" t="s">
         <v>2303</v>
       </c>
-      <c r="F43" s="24"/>
+      <c r="F43" s="24" t="s">
+        <v>2739</v>
+      </c>
       <c r="G43" s="24" t="s">
         <v>86</v>
       </c>
@@ -9856,7 +9942,9 @@
       <c r="E44" s="24" t="s">
         <v>2304</v>
       </c>
-      <c r="F44" s="24"/>
+      <c r="F44" s="24" t="s">
+        <v>2740</v>
+      </c>
       <c r="G44" s="24" t="s">
         <v>88</v>
       </c>
@@ -9878,7 +9966,9 @@
       <c r="E45" s="24" t="s">
         <v>2305</v>
       </c>
-      <c r="F45" s="24"/>
+      <c r="F45" s="24" t="s">
+        <v>2741</v>
+      </c>
       <c r="G45" s="37" t="s">
         <v>90</v>
       </c>
@@ -9900,7 +9990,9 @@
       <c r="E46" s="24" t="s">
         <v>2306</v>
       </c>
-      <c r="F46" s="24"/>
+      <c r="F46" s="24" t="s">
+        <v>2742</v>
+      </c>
       <c r="G46" s="24" t="s">
         <v>92</v>
       </c>
@@ -9922,7 +10014,9 @@
       <c r="E47" s="24" t="s">
         <v>2307</v>
       </c>
-      <c r="F47" s="24"/>
+      <c r="F47" s="24" t="s">
+        <v>2743</v>
+      </c>
       <c r="G47" s="24" t="s">
         <v>94</v>
       </c>
@@ -9944,7 +10038,9 @@
       <c r="E48" s="24" t="s">
         <v>2308</v>
       </c>
-      <c r="F48" s="24"/>
+      <c r="F48" s="24" t="s">
+        <v>2744</v>
+      </c>
       <c r="G48" s="24" t="s">
         <v>96</v>
       </c>
@@ -9966,7 +10062,9 @@
       <c r="E49" s="24" t="s">
         <v>2309</v>
       </c>
-      <c r="F49" s="24"/>
+      <c r="F49" s="24" t="s">
+        <v>2745</v>
+      </c>
       <c r="G49" s="24" t="s">
         <v>98</v>
       </c>
@@ -9988,7 +10086,9 @@
       <c r="E50" s="24" t="s">
         <v>2310</v>
       </c>
-      <c r="F50" s="24"/>
+      <c r="F50" s="24" t="s">
+        <v>2746</v>
+      </c>
       <c r="G50" s="24" t="s">
         <v>100</v>
       </c>
@@ -10010,7 +10110,9 @@
       <c r="E51" s="24" t="s">
         <v>2311</v>
       </c>
-      <c r="F51" s="24"/>
+      <c r="F51" s="24" t="s">
+        <v>2747</v>
+      </c>
       <c r="G51" s="24" t="s">
         <v>102</v>
       </c>
@@ -10032,7 +10134,9 @@
       <c r="E52" s="24" t="s">
         <v>2312</v>
       </c>
-      <c r="F52" s="24"/>
+      <c r="F52" s="24" t="s">
+        <v>2748</v>
+      </c>
       <c r="G52" s="24" t="s">
         <v>104</v>
       </c>
@@ -10054,7 +10158,9 @@
       <c r="E53" s="24" t="s">
         <v>2313</v>
       </c>
-      <c r="F53" s="24"/>
+      <c r="F53" s="24" t="s">
+        <v>2749</v>
+      </c>
       <c r="G53" s="24" t="s">
         <v>106</v>
       </c>
@@ -10076,7 +10182,9 @@
       <c r="E54" s="24" t="s">
         <v>2314</v>
       </c>
-      <c r="F54" s="24"/>
+      <c r="F54" s="24" t="s">
+        <v>2750</v>
+      </c>
       <c r="G54" s="24" t="s">
         <v>109</v>
       </c>
@@ -10098,7 +10206,9 @@
       <c r="E55" s="24" t="s">
         <v>1995</v>
       </c>
-      <c r="F55" s="24"/>
+      <c r="F55" s="24" t="s">
+        <v>2751</v>
+      </c>
       <c r="G55" s="24" t="s">
         <v>112</v>
       </c>
@@ -10120,7 +10230,9 @@
       <c r="E56" s="24" t="s">
         <v>2315</v>
       </c>
-      <c r="F56" s="24"/>
+      <c r="F56" s="24" t="s">
+        <v>2752</v>
+      </c>
       <c r="G56" s="24" t="s">
         <v>112</v>
       </c>
@@ -10142,7 +10254,9 @@
       <c r="E57" s="24" t="s">
         <v>2316</v>
       </c>
-      <c r="F57" s="24"/>
+      <c r="F57" s="24" t="s">
+        <v>2753</v>
+      </c>
       <c r="G57" s="24" t="s">
         <v>114</v>
       </c>
@@ -13274,7 +13388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>

--- a/English translation/その他文字 (Items, Skills, Characters, Descriptions)/固有名詞 (Literally everything else).xlsx
+++ b/English translation/その他文字 (Items, Skills, Characters, Descriptions)/固有名詞 (Literally everything else).xlsx
@@ -8295,9 +8295,6 @@
     <t>A junior school girl. Quite cheeky</t>
   </si>
   <si>
-    <t>A junior school girl. Has recently fallen in love.</t>
-  </si>
-  <si>
     <t>A highschool girl with impressive technique and abilities.</t>
   </si>
   <si>
@@ -8347,6 +8344,9 @@
   </si>
   <si>
     <t>An elf with beautiful legs that was converted into a succubus.</t>
+  </si>
+  <si>
+    <t>A junior school girl. Enjoys the concept of love.</t>
   </si>
 </sst>
 </file>
@@ -9062,8 +9062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" topLeftCell="E31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15"/>
@@ -9847,7 +9847,7 @@
         <v>2300</v>
       </c>
       <c r="F40" s="24" t="s">
-        <v>2736</v>
+        <v>2753</v>
       </c>
       <c r="G40" s="24" t="s">
         <v>80</v>
@@ -9871,7 +9871,7 @@
         <v>2301</v>
       </c>
       <c r="F41" s="24" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
       <c r="G41" s="24" t="s">
         <v>82</v>
@@ -9895,7 +9895,7 @@
         <v>2302</v>
       </c>
       <c r="F42" s="24" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
       <c r="G42" s="24" t="s">
         <v>84</v>
@@ -9919,7 +9919,7 @@
         <v>2303</v>
       </c>
       <c r="F43" s="24" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
       <c r="G43" s="24" t="s">
         <v>86</v>
@@ -9943,7 +9943,7 @@
         <v>2304</v>
       </c>
       <c r="F44" s="24" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="G44" s="24" t="s">
         <v>88</v>
@@ -9967,7 +9967,7 @@
         <v>2305</v>
       </c>
       <c r="F45" s="24" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="G45" s="37" t="s">
         <v>90</v>
@@ -9991,7 +9991,7 @@
         <v>2306</v>
       </c>
       <c r="F46" s="24" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="G46" s="24" t="s">
         <v>92</v>
@@ -10015,7 +10015,7 @@
         <v>2307</v>
       </c>
       <c r="F47" s="24" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="G47" s="24" t="s">
         <v>94</v>
@@ -10039,7 +10039,7 @@
         <v>2308</v>
       </c>
       <c r="F48" s="24" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="G48" s="24" t="s">
         <v>96</v>
@@ -10063,7 +10063,7 @@
         <v>2309</v>
       </c>
       <c r="F49" s="24" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="G49" s="24" t="s">
         <v>98</v>
@@ -10087,7 +10087,7 @@
         <v>2310</v>
       </c>
       <c r="F50" s="24" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="G50" s="24" t="s">
         <v>100</v>
@@ -10111,7 +10111,7 @@
         <v>2311</v>
       </c>
       <c r="F51" s="24" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="G51" s="24" t="s">
         <v>102</v>
@@ -10135,7 +10135,7 @@
         <v>2312</v>
       </c>
       <c r="F52" s="24" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="G52" s="24" t="s">
         <v>104</v>
@@ -10159,7 +10159,7 @@
         <v>2313</v>
       </c>
       <c r="F53" s="24" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="G53" s="24" t="s">
         <v>106</v>
@@ -10183,7 +10183,7 @@
         <v>2314</v>
       </c>
       <c r="F54" s="24" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="G54" s="24" t="s">
         <v>109</v>
@@ -10207,7 +10207,7 @@
         <v>1995</v>
       </c>
       <c r="F55" s="24" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="G55" s="24" t="s">
         <v>112</v>
@@ -10231,7 +10231,7 @@
         <v>2315</v>
       </c>
       <c r="F56" s="24" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
       <c r="G56" s="24" t="s">
         <v>112</v>
@@ -10255,7 +10255,7 @@
         <v>2316</v>
       </c>
       <c r="F57" s="24" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
       <c r="G57" s="24" t="s">
         <v>114</v>

--- a/English translation/その他文字 (Items, Skills, Characters, Descriptions)/固有名詞 (Literally everything else).xlsx
+++ b/English translation/その他文字 (Items, Skills, Characters, Descriptions)/固有名詞 (Literally everything else).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21943" windowHeight="8091" tabRatio="627" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21943" windowHeight="8091" tabRatio="627" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="names-名前" sheetId="1" r:id="rId1"/>
@@ -6515,9 +6515,6 @@
     <t>Miraculous Tablet</t>
   </si>
   <si>
-    <t>Magic Up</t>
-  </si>
-  <si>
     <t>Cursed Drop</t>
   </si>
   <si>
@@ -6575,9 +6572,6 @@
     <t>Gale Dance</t>
   </si>
   <si>
-    <t>Energy Drain</t>
-  </si>
-  <si>
     <t>Encouraging Kiss</t>
   </si>
   <si>
@@ -6606,9 +6600,6 @@
   </si>
   <si>
     <t>Magic Draining Mushroom</t>
-  </si>
-  <si>
-    <t>Cursed Grass</t>
   </si>
   <si>
     <t>Energy Apple</t>
@@ -7836,9 +7827,6 @@
     <t>Enables the ability to class change when held.</t>
   </si>
   <si>
-    <t>Physic++</t>
-  </si>
-  <si>
     <t>Restores 25 HP to any ally.</t>
   </si>
   <si>
@@ -8779,6 +8767,18 @@
   </si>
   <si>
     <t>Don't give up</t>
+  </si>
+  <si>
+    <t>Lethagic Grass</t>
+  </si>
+  <si>
+    <t>Magic Lamp</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Healer's Tome</t>
   </si>
 </sst>
 </file>
@@ -9526,13 +9526,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>2333</v>
+        <v>2330</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>2334</v>
+        <v>2331</v>
       </c>
       <c r="G1" s="21" t="s">
         <v>3</v>
@@ -9552,7 +9552,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>2335</v>
+        <v>2332</v>
       </c>
       <c r="E2" s="23"/>
       <c r="F2" s="23"/>
@@ -9572,7 +9572,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>2336</v>
+        <v>2333</v>
       </c>
       <c r="E3" s="23"/>
       <c r="F3" s="23"/>
@@ -9590,7 +9590,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>2337</v>
+        <v>2334</v>
       </c>
       <c r="E4" s="23"/>
       <c r="F4" s="23"/>
@@ -9610,7 +9610,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>2340</v>
+        <v>2337</v>
       </c>
       <c r="E5" s="23"/>
       <c r="F5" s="23"/>
@@ -9646,7 +9646,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>2338</v>
+        <v>2335</v>
       </c>
       <c r="E7" s="23"/>
       <c r="F7" s="23"/>
@@ -9664,7 +9664,7 @@
         <v>22</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>2339</v>
+        <v>2336</v>
       </c>
       <c r="E8" s="23"/>
       <c r="F8" s="23"/>
@@ -9684,7 +9684,7 @@
         <v>24</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>2341</v>
+        <v>2338</v>
       </c>
       <c r="E9" s="23"/>
       <c r="F9" s="23"/>
@@ -9702,7 +9702,7 @@
         <v>27</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>2342</v>
+        <v>2339</v>
       </c>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
@@ -9717,10 +9717,10 @@
       </c>
       <c r="B11" s="23"/>
       <c r="C11" s="23" t="s">
-        <v>2395</v>
+        <v>2392</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>2396</v>
+        <v>2393</v>
       </c>
       <c r="E11" s="23"/>
       <c r="F11" s="23"/>
@@ -9736,7 +9736,7 @@
         <v>29</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>2343</v>
+        <v>2340</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="23"/>
@@ -9754,7 +9754,7 @@
         <v>32</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>2344</v>
+        <v>2341</v>
       </c>
       <c r="E13" s="23"/>
       <c r="F13" s="23"/>
@@ -9772,7 +9772,7 @@
         <v>34</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>2345</v>
+        <v>2342</v>
       </c>
       <c r="E14" s="23"/>
       <c r="F14" s="23"/>
@@ -9790,7 +9790,7 @@
         <v>36</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>2346</v>
+        <v>2343</v>
       </c>
       <c r="E15" s="23"/>
       <c r="F15" s="23"/>
@@ -9808,7 +9808,7 @@
         <v>38</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>2347</v>
+        <v>2344</v>
       </c>
       <c r="E16" s="23"/>
       <c r="F16" s="23"/>
@@ -9826,7 +9826,7 @@
         <v>40</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>2348</v>
+        <v>2345</v>
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
@@ -9841,10 +9841,10 @@
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="23" t="s">
+        <v>2394</v>
+      </c>
+      <c r="D18" s="23" t="s">
         <v>2397</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>2400</v>
       </c>
       <c r="E18" s="23"/>
       <c r="F18" s="23"/>
@@ -9857,10 +9857,10 @@
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="23" t="s">
+        <v>2395</v>
+      </c>
+      <c r="D19" s="23" t="s">
         <v>2398</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>2401</v>
       </c>
       <c r="E19" s="23"/>
       <c r="F19" s="23"/>
@@ -9873,10 +9873,10 @@
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="23" t="s">
+        <v>2396</v>
+      </c>
+      <c r="D20" s="23" t="s">
         <v>2399</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>2402</v>
       </c>
       <c r="E20" s="23"/>
       <c r="F20" s="23"/>
@@ -9910,7 +9910,7 @@
         <v>44</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>2349</v>
+        <v>2346</v>
       </c>
       <c r="E22" s="23"/>
       <c r="F22" s="23"/>
@@ -9946,7 +9946,7 @@
         <v>48</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>2350</v>
+        <v>2347</v>
       </c>
       <c r="E24" s="23"/>
       <c r="F24" s="23"/>
@@ -10053,7 +10053,7 @@
         <v>59</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>2351</v>
+        <v>2348</v>
       </c>
       <c r="E30" s="23"/>
       <c r="F30" s="23"/>
@@ -10071,7 +10071,7 @@
         <v>61</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>2352</v>
+        <v>2349</v>
       </c>
       <c r="E31" s="23"/>
       <c r="F31" s="23"/>
@@ -10091,13 +10091,13 @@
         <v>65</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>2354</v>
+        <v>2351</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>2292</v>
+        <v>2289</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>2394</v>
+        <v>2391</v>
       </c>
       <c r="G32" s="23" t="s">
         <v>66</v>
@@ -10115,13 +10115,13 @@
         <v>67</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>2355</v>
+        <v>2352</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>2293</v>
+        <v>2290</v>
       </c>
       <c r="F33" s="23" t="s">
-        <v>2393</v>
+        <v>2390</v>
       </c>
       <c r="G33" s="29" t="s">
         <v>68</v>
@@ -10139,7 +10139,7 @@
         <v>69</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>2356</v>
+        <v>2353</v>
       </c>
       <c r="E34" s="23"/>
       <c r="F34" s="23"/>
@@ -10159,13 +10159,13 @@
         <v>71</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>2357</v>
+        <v>2354</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>2294</v>
+        <v>2291</v>
       </c>
       <c r="F35" s="23" t="s">
-        <v>2728</v>
+        <v>2724</v>
       </c>
       <c r="G35" s="23" t="s">
         <v>72</v>
@@ -10183,13 +10183,13 @@
         <v>73</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>2358</v>
+        <v>2355</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>2295</v>
+        <v>2292</v>
       </c>
       <c r="F36" s="23" t="s">
-        <v>2729</v>
+        <v>2725</v>
       </c>
       <c r="G36" s="29" t="s">
         <v>74</v>
@@ -10207,13 +10207,13 @@
         <v>75</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>2359</v>
+        <v>2356</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>2296</v>
+        <v>2293</v>
       </c>
       <c r="F37" s="23" t="s">
-        <v>2730</v>
+        <v>2726</v>
       </c>
       <c r="G37" s="23" t="s">
         <v>76</v>
@@ -10231,13 +10231,13 @@
         <v>77</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>2360</v>
+        <v>2357</v>
       </c>
       <c r="E38" s="23" t="s">
-        <v>2297</v>
+        <v>2294</v>
       </c>
       <c r="F38" s="23" t="s">
-        <v>2731</v>
+        <v>2727</v>
       </c>
       <c r="G38" s="23" t="s">
         <v>78</v>
@@ -10255,13 +10255,13 @@
         <v>79</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>2363</v>
+        <v>2360</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>2298</v>
+        <v>2295</v>
       </c>
       <c r="F39" s="23" t="s">
-        <v>2732</v>
+        <v>2728</v>
       </c>
       <c r="G39" s="23" t="s">
         <v>80</v>
@@ -10279,13 +10279,13 @@
         <v>79</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>2363</v>
+        <v>2360</v>
       </c>
       <c r="E40" s="23" t="s">
-        <v>2299</v>
+        <v>2296</v>
       </c>
       <c r="F40" s="23" t="s">
-        <v>2750</v>
+        <v>2746</v>
       </c>
       <c r="G40" s="23" t="s">
         <v>80</v>
@@ -10303,13 +10303,13 @@
         <v>81</v>
       </c>
       <c r="D41" s="23" t="s">
-        <v>2694</v>
+        <v>2690</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>2300</v>
+        <v>2297</v>
       </c>
       <c r="F41" s="23" t="s">
-        <v>2733</v>
+        <v>2729</v>
       </c>
       <c r="G41" s="23" t="s">
         <v>82</v>
@@ -10327,13 +10327,13 @@
         <v>83</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>2361</v>
+        <v>2358</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>2301</v>
+        <v>2298</v>
       </c>
       <c r="F42" s="23" t="s">
-        <v>2734</v>
+        <v>2730</v>
       </c>
       <c r="G42" s="23" t="s">
         <v>84</v>
@@ -10351,13 +10351,13 @@
         <v>85</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>2362</v>
+        <v>2359</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>2302</v>
+        <v>2299</v>
       </c>
       <c r="F43" s="23" t="s">
-        <v>2735</v>
+        <v>2731</v>
       </c>
       <c r="G43" s="23" t="s">
         <v>86</v>
@@ -10375,13 +10375,13 @@
         <v>87</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>2353</v>
+        <v>2350</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>2303</v>
+        <v>2300</v>
       </c>
       <c r="F44" s="23" t="s">
-        <v>2736</v>
+        <v>2732</v>
       </c>
       <c r="G44" s="23" t="s">
         <v>88</v>
@@ -10399,13 +10399,13 @@
         <v>89</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>2364</v>
+        <v>2361</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>2304</v>
+        <v>2301</v>
       </c>
       <c r="F45" s="23" t="s">
-        <v>2737</v>
+        <v>2733</v>
       </c>
       <c r="G45" s="36" t="s">
         <v>90</v>
@@ -10423,13 +10423,13 @@
         <v>91</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>2365</v>
+        <v>2362</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>2305</v>
+        <v>2302</v>
       </c>
       <c r="F46" s="23" t="s">
-        <v>2738</v>
+        <v>2734</v>
       </c>
       <c r="G46" s="23" t="s">
         <v>92</v>
@@ -10447,13 +10447,13 @@
         <v>93</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>2366</v>
+        <v>2363</v>
       </c>
       <c r="E47" s="23" t="s">
-        <v>2306</v>
+        <v>2303</v>
       </c>
       <c r="F47" s="23" t="s">
-        <v>2739</v>
+        <v>2735</v>
       </c>
       <c r="G47" s="23" t="s">
         <v>94</v>
@@ -10471,13 +10471,13 @@
         <v>95</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>2381</v>
+        <v>2378</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>2307</v>
+        <v>2304</v>
       </c>
       <c r="F48" s="23" t="s">
-        <v>2740</v>
+        <v>2736</v>
       </c>
       <c r="G48" s="23" t="s">
         <v>96</v>
@@ -10495,13 +10495,13 @@
         <v>97</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>2382</v>
+        <v>2379</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>2308</v>
+        <v>2305</v>
       </c>
       <c r="F49" s="23" t="s">
-        <v>2741</v>
+        <v>2737</v>
       </c>
       <c r="G49" s="23" t="s">
         <v>98</v>
@@ -10519,13 +10519,13 @@
         <v>99</v>
       </c>
       <c r="D50" s="23" t="s">
-        <v>2383</v>
+        <v>2380</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>2309</v>
+        <v>2306</v>
       </c>
       <c r="F50" s="23" t="s">
-        <v>2742</v>
+        <v>2738</v>
       </c>
       <c r="G50" s="23" t="s">
         <v>100</v>
@@ -10543,13 +10543,13 @@
         <v>101</v>
       </c>
       <c r="D51" s="23" t="s">
-        <v>2384</v>
+        <v>2381</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>2310</v>
+        <v>2307</v>
       </c>
       <c r="F51" s="23" t="s">
-        <v>2743</v>
+        <v>2739</v>
       </c>
       <c r="G51" s="23" t="s">
         <v>102</v>
@@ -10567,13 +10567,13 @@
         <v>103</v>
       </c>
       <c r="D52" s="23" t="s">
-        <v>2390</v>
+        <v>2387</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>2311</v>
+        <v>2308</v>
       </c>
       <c r="F52" s="23" t="s">
-        <v>2744</v>
+        <v>2740</v>
       </c>
       <c r="G52" s="23" t="s">
         <v>104</v>
@@ -10591,13 +10591,13 @@
         <v>105</v>
       </c>
       <c r="D53" s="23" t="s">
-        <v>2380</v>
+        <v>2377</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>2312</v>
+        <v>2309</v>
       </c>
       <c r="F53" s="23" t="s">
-        <v>2745</v>
+        <v>2741</v>
       </c>
       <c r="G53" s="23" t="s">
         <v>106</v>
@@ -10615,13 +10615,13 @@
         <v>108</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>2385</v>
+        <v>2382</v>
       </c>
       <c r="E54" s="23" t="s">
-        <v>2313</v>
+        <v>2310</v>
       </c>
       <c r="F54" s="23" t="s">
-        <v>2746</v>
+        <v>2742</v>
       </c>
       <c r="G54" s="23" t="s">
         <v>109</v>
@@ -10639,13 +10639,13 @@
         <v>111</v>
       </c>
       <c r="D55" s="23" t="s">
-        <v>2386</v>
+        <v>2383</v>
       </c>
       <c r="E55" s="23" t="s">
         <v>1994</v>
       </c>
       <c r="F55" s="23" t="s">
-        <v>2747</v>
+        <v>2743</v>
       </c>
       <c r="G55" s="23" t="s">
         <v>112</v>
@@ -10663,13 +10663,13 @@
         <v>111</v>
       </c>
       <c r="D56" s="23" t="s">
-        <v>2386</v>
+        <v>2383</v>
       </c>
       <c r="E56" s="23" t="s">
-        <v>2314</v>
+        <v>2311</v>
       </c>
       <c r="F56" s="23" t="s">
-        <v>2748</v>
+        <v>2744</v>
       </c>
       <c r="G56" s="23" t="s">
         <v>112</v>
@@ -10687,13 +10687,13 @@
         <v>113</v>
       </c>
       <c r="D57" s="23" t="s">
-        <v>2387</v>
+        <v>2384</v>
       </c>
       <c r="E57" s="23" t="s">
-        <v>2315</v>
+        <v>2312</v>
       </c>
       <c r="F57" s="23" t="s">
-        <v>2749</v>
+        <v>2745</v>
       </c>
       <c r="G57" s="23" t="s">
         <v>114</v>
@@ -10711,10 +10711,10 @@
         <v>115</v>
       </c>
       <c r="D58" s="23" t="s">
-        <v>2388</v>
+        <v>2385</v>
       </c>
       <c r="E58" s="23" t="s">
-        <v>2316</v>
+        <v>2313</v>
       </c>
       <c r="F58" s="23"/>
       <c r="G58" s="23" t="s">
@@ -10733,10 +10733,10 @@
         <v>117</v>
       </c>
       <c r="D59" s="23" t="s">
-        <v>2389</v>
+        <v>2386</v>
       </c>
       <c r="E59" s="23" t="s">
-        <v>2317</v>
+        <v>2314</v>
       </c>
       <c r="F59" s="23"/>
       <c r="G59" s="23" t="s">
@@ -10755,10 +10755,10 @@
         <v>120</v>
       </c>
       <c r="D60" s="23" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="E60" s="23" t="s">
-        <v>2318</v>
+        <v>2315</v>
       </c>
       <c r="F60" s="23"/>
       <c r="G60" s="23" t="s">
@@ -10777,7 +10777,7 @@
         <v>122</v>
       </c>
       <c r="D61" s="23" t="s">
-        <v>2378</v>
+        <v>2375</v>
       </c>
       <c r="E61" s="23" t="s">
         <v>1996</v>
@@ -10799,10 +10799,10 @@
         <v>122</v>
       </c>
       <c r="D62" s="23" t="s">
-        <v>2378</v>
+        <v>2375</v>
       </c>
       <c r="E62" s="23" t="s">
-        <v>2319</v>
+        <v>2316</v>
       </c>
       <c r="F62" s="23"/>
       <c r="G62" s="23" t="s">
@@ -10821,10 +10821,10 @@
         <v>124</v>
       </c>
       <c r="D63" s="23" t="s">
-        <v>2379</v>
+        <v>2376</v>
       </c>
       <c r="E63" s="23" t="s">
-        <v>2320</v>
+        <v>2317</v>
       </c>
       <c r="F63" s="23"/>
       <c r="G63" s="23" t="s">
@@ -10843,10 +10843,10 @@
         <v>126</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>2377</v>
+        <v>2374</v>
       </c>
       <c r="E64" s="23" t="s">
-        <v>2321</v>
+        <v>2318</v>
       </c>
       <c r="F64" s="23"/>
       <c r="G64" s="23" t="s">
@@ -10866,7 +10866,7 @@
       </c>
       <c r="D65" s="23"/>
       <c r="E65" s="23" t="s">
-        <v>2322</v>
+        <v>2319</v>
       </c>
       <c r="F65" s="23"/>
       <c r="G65" s="23" t="s">
@@ -10885,10 +10885,10 @@
         <v>77</v>
       </c>
       <c r="D66" s="23" t="s">
-        <v>2360</v>
+        <v>2357</v>
       </c>
       <c r="E66" s="23" t="s">
-        <v>2323</v>
+        <v>2320</v>
       </c>
       <c r="F66" s="23"/>
       <c r="G66" s="23" t="s">
@@ -10907,10 +10907,10 @@
         <v>130</v>
       </c>
       <c r="D67" s="23" t="s">
-        <v>2373</v>
+        <v>2370</v>
       </c>
       <c r="E67" s="23" t="s">
-        <v>2324</v>
+        <v>2321</v>
       </c>
       <c r="F67" s="23"/>
       <c r="G67" s="23" t="s">
@@ -10929,10 +10929,10 @@
         <v>133</v>
       </c>
       <c r="D68" s="23" t="s">
-        <v>2374</v>
+        <v>2371</v>
       </c>
       <c r="E68" s="23" t="s">
-        <v>2325</v>
+        <v>2322</v>
       </c>
       <c r="F68" s="23"/>
       <c r="G68" s="23" t="s">
@@ -10951,10 +10951,10 @@
         <v>135</v>
       </c>
       <c r="D69" s="23" t="s">
-        <v>2375</v>
+        <v>2372</v>
       </c>
       <c r="E69" s="23" t="s">
-        <v>2325</v>
+        <v>2322</v>
       </c>
       <c r="F69" s="23"/>
       <c r="G69" s="23" t="s">
@@ -10973,10 +10973,10 @@
         <v>137</v>
       </c>
       <c r="D70" s="23" t="s">
-        <v>2376</v>
+        <v>2373</v>
       </c>
       <c r="E70" s="23" t="s">
-        <v>2326</v>
+        <v>2323</v>
       </c>
       <c r="F70" s="23"/>
       <c r="G70" s="23" t="s">
@@ -10995,10 +10995,10 @@
         <v>139</v>
       </c>
       <c r="D71" s="23" t="s">
-        <v>2370</v>
+        <v>2367</v>
       </c>
       <c r="E71" s="23" t="s">
-        <v>2327</v>
+        <v>2324</v>
       </c>
       <c r="F71" s="23"/>
       <c r="G71" s="23" t="s">
@@ -11017,10 +11017,10 @@
         <v>141</v>
       </c>
       <c r="D72" s="23" t="s">
-        <v>2371</v>
+        <v>2368</v>
       </c>
       <c r="E72" s="23" t="s">
-        <v>2328</v>
+        <v>2325</v>
       </c>
       <c r="F72" s="23"/>
       <c r="G72" s="23" t="s">
@@ -11039,10 +11039,10 @@
         <v>143</v>
       </c>
       <c r="D73" s="23" t="s">
-        <v>2368</v>
+        <v>2365</v>
       </c>
       <c r="E73" s="23" t="s">
-        <v>2329</v>
+        <v>2326</v>
       </c>
       <c r="F73" s="23"/>
       <c r="G73" s="23" t="s">
@@ -11061,7 +11061,7 @@
         <v>146</v>
       </c>
       <c r="D74" s="23" t="s">
-        <v>2369</v>
+        <v>2366</v>
       </c>
       <c r="E74" s="23"/>
       <c r="F74" s="23"/>
@@ -11081,10 +11081,10 @@
         <v>148</v>
       </c>
       <c r="D75" s="23" t="s">
-        <v>2367</v>
+        <v>2364</v>
       </c>
       <c r="E75" s="23" t="s">
-        <v>2330</v>
+        <v>2327</v>
       </c>
       <c r="F75" s="23"/>
       <c r="G75" s="23" t="s">
@@ -11103,10 +11103,10 @@
         <v>151</v>
       </c>
       <c r="D76" s="23" t="s">
-        <v>2391</v>
+        <v>2388</v>
       </c>
       <c r="E76" s="23" t="s">
-        <v>2331</v>
+        <v>2328</v>
       </c>
       <c r="F76" s="23"/>
       <c r="G76" s="23" t="s">
@@ -11125,10 +11125,10 @@
         <v>153</v>
       </c>
       <c r="D77" s="23" t="s">
-        <v>2392</v>
+        <v>2389</v>
       </c>
       <c r="E77" s="23" t="s">
-        <v>2332</v>
+        <v>2329</v>
       </c>
       <c r="F77" s="23"/>
       <c r="G77" s="23" t="s">
@@ -11174,7 +11174,7 @@
         <v>1628</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>2274</v>
+        <v>2271</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
@@ -11184,10 +11184,10 @@
         <v>1629</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>2275</v>
+        <v>2272</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>2703</v>
+        <v>2699</v>
       </c>
       <c r="E2" t="s">
         <v>1630</v>
@@ -11201,10 +11201,10 @@
         <v>1632</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>2276</v>
+        <v>2273</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>2291</v>
+        <v>2288</v>
       </c>
       <c r="E3" t="s">
         <v>1633</v>
@@ -11218,10 +11218,10 @@
         <v>1635</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>2277</v>
+        <v>2274</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>2291</v>
+        <v>2288</v>
       </c>
       <c r="E4" t="s">
         <v>1636</v>
@@ -11235,10 +11235,10 @@
         <v>1637</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>2278</v>
+        <v>2275</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>2291</v>
+        <v>2288</v>
       </c>
       <c r="E5" t="s">
         <v>1638</v>
@@ -11252,10 +11252,10 @@
         <v>1639</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>2279</v>
+        <v>2276</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>2291</v>
+        <v>2288</v>
       </c>
       <c r="E6" t="s">
         <v>1640</v>
@@ -11269,10 +11269,10 @@
         <v>1641</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>2286</v>
+        <v>2283</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>2704</v>
+        <v>2700</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>1642</v>
@@ -11286,10 +11286,10 @@
         <v>1644</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>2287</v>
+        <v>2284</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>2707</v>
+        <v>2703</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>1645</v>
@@ -11303,10 +11303,10 @@
         <v>1647</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>2280</v>
+        <v>2277</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>2291</v>
+        <v>2288</v>
       </c>
       <c r="E9" t="s">
         <v>1648</v>
@@ -11320,10 +11320,10 @@
         <v>1649</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>2281</v>
+        <v>2278</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>2291</v>
+        <v>2288</v>
       </c>
       <c r="E10" t="s">
         <v>1650</v>
@@ -11337,10 +11337,10 @@
         <v>1651</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>2282</v>
+        <v>2279</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>2291</v>
+        <v>2288</v>
       </c>
       <c r="E11" t="s">
         <v>1652</v>
@@ -11354,10 +11354,10 @@
         <v>1653</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>2288</v>
+        <v>2285</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>2706</v>
+        <v>2702</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>1654</v>
@@ -11371,10 +11371,10 @@
         <v>1656</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>2289</v>
+        <v>2286</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>2708</v>
+        <v>2704</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>1657</v>
@@ -11388,10 +11388,10 @@
         <v>1659</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>2290</v>
+        <v>2287</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>2709</v>
+        <v>2705</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>1660</v>
@@ -11405,10 +11405,10 @@
         <v>1662</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>2283</v>
+        <v>2280</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>2705</v>
+        <v>2701</v>
       </c>
       <c r="E15" t="s">
         <v>1663</v>
@@ -11422,10 +11422,10 @@
         <v>1665</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>2284</v>
+        <v>2281</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>2291</v>
+        <v>2288</v>
       </c>
       <c r="E16" t="s">
         <v>1666</v>
@@ -11439,10 +11439,10 @@
         <v>1667</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>2285</v>
+        <v>2282</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>2291</v>
+        <v>2288</v>
       </c>
       <c r="E17" t="s">
         <v>1668</v>
@@ -11507,7 +11507,7 @@
         <v>1669</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>2458</v>
+        <v>2455</v>
       </c>
       <c r="C1" s="40"/>
       <c r="D1" s="40"/>
@@ -11517,7 +11517,7 @@
         <v>1670</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>2459</v>
+        <v>2456</v>
       </c>
       <c r="C2" s="40"/>
       <c r="D2" s="40"/>
@@ -11527,7 +11527,7 @@
         <v>1671</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>2460</v>
+        <v>2457</v>
       </c>
       <c r="C3" s="40"/>
       <c r="D3" s="40"/>
@@ -11537,7 +11537,7 @@
         <v>1672</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>2461</v>
+        <v>2458</v>
       </c>
       <c r="C4" s="40"/>
       <c r="D4" s="40"/>
@@ -11560,7 +11560,7 @@
         <v>1675</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>2462</v>
+        <v>2459</v>
       </c>
       <c r="D6" s="43" t="s">
         <v>1676</v>
@@ -11572,7 +11572,7 @@
         <v>1677</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>2463</v>
+        <v>2460</v>
       </c>
       <c r="D7" s="40" t="s">
         <v>1678</v>
@@ -11584,7 +11584,7 @@
         <v>1679</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>2464</v>
+        <v>2461</v>
       </c>
       <c r="D8" s="44" t="s">
         <v>1680</v>
@@ -11596,7 +11596,7 @@
         <v>1681</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>2465</v>
+        <v>2462</v>
       </c>
       <c r="D9" s="40" t="s">
         <v>1682</v>
@@ -11608,7 +11608,7 @@
         <v>1683</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>2466</v>
+        <v>2463</v>
       </c>
       <c r="D10" s="40" t="s">
         <v>1684</v>
@@ -11620,7 +11620,7 @@
         <v>1685</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>2476</v>
+        <v>2473</v>
       </c>
       <c r="D11" s="40" t="s">
         <v>1686</v>
@@ -11632,7 +11632,7 @@
         <v>1687</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>2468</v>
+        <v>2465</v>
       </c>
       <c r="D12" s="44" t="s">
         <v>1688</v>
@@ -11654,7 +11654,7 @@
         <v>1691</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>2474</v>
+        <v>2471</v>
       </c>
       <c r="D14" s="41" t="s">
         <v>1692</v>
@@ -11666,7 +11666,7 @@
         <v>1693</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>2475</v>
+        <v>2472</v>
       </c>
       <c r="D15" s="40" t="s">
         <v>1694</v>
@@ -11678,7 +11678,7 @@
         <v>1695</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>2467</v>
+        <v>2464</v>
       </c>
       <c r="D16" s="40" t="s">
         <v>1696</v>
@@ -11690,7 +11690,7 @@
         <v>1697</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>2477</v>
+        <v>2474</v>
       </c>
       <c r="D17" s="40" t="s">
         <v>1698</v>
@@ -11702,7 +11702,7 @@
         <v>1699</v>
       </c>
       <c r="C18" s="43" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="D18" s="44" t="s">
         <v>1680</v>
@@ -11714,7 +11714,7 @@
         <v>1700</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="D19" s="40" t="s">
         <v>1684</v>
@@ -11726,7 +11726,7 @@
         <v>1695</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>2467</v>
+        <v>2464</v>
       </c>
       <c r="D20" s="40" t="s">
         <v>1696</v>
@@ -11738,7 +11738,7 @@
         <v>1687</v>
       </c>
       <c r="C21" s="43" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="D21" s="44" t="s">
         <v>1701</v>
@@ -11750,7 +11750,7 @@
         <v>1700</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="D22" s="40" t="s">
         <v>1702</v>
@@ -11764,10 +11764,10 @@
         <v>1695</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>2467</v>
+        <v>2464</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>2469</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="33.75" customHeight="1">
@@ -11776,10 +11776,10 @@
         <v>1704</v>
       </c>
       <c r="C24" s="43" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="D24" s="41" t="s">
-        <v>2470</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15">
@@ -11793,10 +11793,10 @@
     <row r="26" spans="1:4" ht="15">
       <c r="A26" s="40"/>
       <c r="B26" s="40" t="s">
-        <v>2471</v>
+        <v>2468</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>2482</v>
+        <v>2479</v>
       </c>
       <c r="D26" s="40" t="s">
         <v>1696</v>
@@ -11805,13 +11805,13 @@
     <row r="27" spans="1:4" ht="29.15">
       <c r="A27" s="40"/>
       <c r="B27" s="41" t="s">
-        <v>2472</v>
+        <v>2469</v>
       </c>
       <c r="C27" s="41" t="s">
-        <v>2483</v>
+        <v>2480</v>
       </c>
       <c r="D27" s="41" t="s">
-        <v>2473</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15">
@@ -11820,7 +11820,7 @@
         <v>1705</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>2484</v>
+        <v>2481</v>
       </c>
       <c r="D28" s="40" t="s">
         <v>1706</v>
@@ -11832,7 +11832,7 @@
         <v>1707</v>
       </c>
       <c r="C29" s="43" t="s">
-        <v>2485</v>
+        <v>2482</v>
       </c>
       <c r="D29" s="41" t="s">
         <v>1708</v>
@@ -11844,7 +11844,7 @@
         <v>1709</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>2477</v>
+        <v>2474</v>
       </c>
       <c r="D30" s="40" t="s">
         <v>1682</v>
@@ -11879,7 +11879,7 @@
         <v>1669</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>2458</v>
+        <v>2455</v>
       </c>
       <c r="C1" s="40"/>
       <c r="D1" s="40"/>
@@ -11889,7 +11889,7 @@
         <v>1670</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>2459</v>
+        <v>2456</v>
       </c>
       <c r="C2" s="40"/>
       <c r="D2" s="40"/>
@@ -11899,7 +11899,7 @@
         <v>1671</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>2460</v>
+        <v>2457</v>
       </c>
       <c r="C3" s="40"/>
       <c r="D3" s="40"/>
@@ -11909,7 +11909,7 @@
         <v>1672</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>2461</v>
+        <v>2458</v>
       </c>
       <c r="C4" s="40"/>
       <c r="D4" s="40"/>
@@ -11932,7 +11932,7 @@
         <v>1711</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>2710</v>
+        <v>2706</v>
       </c>
       <c r="D6" s="43" t="s">
         <v>1676</v>
@@ -11944,7 +11944,7 @@
         <v>1712</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>2486</v>
+        <v>2483</v>
       </c>
       <c r="D7" s="27" t="s">
         <v>1713</v>
@@ -11956,7 +11956,7 @@
         <v>1714</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>2488</v>
+        <v>2485</v>
       </c>
       <c r="D8" s="40" t="s">
         <v>1715</v>
@@ -11968,7 +11968,7 @@
         <v>1716</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>2487</v>
+        <v>2484</v>
       </c>
       <c r="D9" s="44" t="s">
         <v>1998</v>
@@ -12005,7 +12005,7 @@
         <v>2000</v>
       </c>
       <c r="C1" s="46" t="s">
-        <v>2561</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15">
@@ -12013,7 +12013,7 @@
         <v>1717</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>2489</v>
+        <v>2486</v>
       </c>
       <c r="C2" s="40" t="s">
         <v>1718</v>
@@ -12024,7 +12024,7 @@
         <v>1719</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>2490</v>
+        <v>2487</v>
       </c>
       <c r="C3" s="40" t="s">
         <v>1720</v>
@@ -12035,7 +12035,7 @@
         <v>1721</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>2491</v>
+        <v>2488</v>
       </c>
       <c r="C4" s="40" t="s">
         <v>1722</v>
@@ -12046,7 +12046,7 @@
         <v>1723</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>2492</v>
+        <v>2489</v>
       </c>
       <c r="C5" s="40" t="s">
         <v>1724</v>
@@ -12057,7 +12057,7 @@
         <v>1725</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>2493</v>
+        <v>2490</v>
       </c>
       <c r="C6" s="40" t="s">
         <v>1726</v>
@@ -12068,7 +12068,7 @@
         <v>1727</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>2494</v>
+        <v>2491</v>
       </c>
       <c r="C7" s="40" t="s">
         <v>1728</v>
@@ -12079,7 +12079,7 @@
         <v>1729</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>2495</v>
+        <v>2492</v>
       </c>
       <c r="C8" s="40" t="s">
         <v>1730</v>
@@ -12090,7 +12090,7 @@
         <v>1731</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>2496</v>
+        <v>2493</v>
       </c>
       <c r="C9" s="40" t="s">
         <v>1732</v>
@@ -12101,7 +12101,7 @@
         <v>1733</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>2497</v>
+        <v>2494</v>
       </c>
       <c r="C10" s="40" t="s">
         <v>1734</v>
@@ -12112,7 +12112,7 @@
         <v>1735</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>2498</v>
+        <v>2495</v>
       </c>
       <c r="C11" s="40" t="s">
         <v>1736</v>
@@ -12123,7 +12123,7 @@
         <v>1737</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>2499</v>
+        <v>2496</v>
       </c>
       <c r="C12" s="40" t="s">
         <v>1738</v>
@@ -12134,7 +12134,7 @@
         <v>1739</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>2500</v>
+        <v>2497</v>
       </c>
       <c r="C13" s="40" t="s">
         <v>1740</v>
@@ -12145,7 +12145,7 @@
         <v>1741</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>2501</v>
+        <v>2498</v>
       </c>
       <c r="C14" s="40" t="s">
         <v>1742</v>
@@ -12156,7 +12156,7 @@
         <v>1743</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>2502</v>
+        <v>2499</v>
       </c>
       <c r="C15" s="40" t="s">
         <v>1744</v>
@@ -12167,7 +12167,7 @@
         <v>1745</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>2503</v>
+        <v>2500</v>
       </c>
       <c r="C16" s="40" t="s">
         <v>1746</v>
@@ -12178,7 +12178,7 @@
         <v>1747</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>2504</v>
+        <v>2501</v>
       </c>
       <c r="C17" s="40" t="s">
         <v>1748</v>
@@ -12189,7 +12189,7 @@
         <v>1749</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>2505</v>
+        <v>2502</v>
       </c>
       <c r="C18" s="40" t="s">
         <v>1750</v>
@@ -12200,7 +12200,7 @@
         <v>1751</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>2506</v>
+        <v>2503</v>
       </c>
       <c r="C19" s="40" t="s">
         <v>1752</v>
@@ -12211,7 +12211,7 @@
         <v>1753</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>2507</v>
+        <v>2504</v>
       </c>
       <c r="C20" s="40" t="s">
         <v>1754</v>
@@ -12222,7 +12222,7 @@
         <v>1755</v>
       </c>
       <c r="B21" s="40" t="s">
-        <v>2508</v>
+        <v>2505</v>
       </c>
       <c r="C21" s="40" t="s">
         <v>1756</v>
@@ -12244,7 +12244,7 @@
         <v>1757</v>
       </c>
       <c r="B23" s="40" t="s">
-        <v>2509</v>
+        <v>2506</v>
       </c>
       <c r="C23" s="40" t="s">
         <v>1758</v>
@@ -12266,7 +12266,7 @@
         <v>1759</v>
       </c>
       <c r="B25" s="40" t="s">
-        <v>2510</v>
+        <v>2507</v>
       </c>
       <c r="C25" s="40" t="s">
         <v>1760</v>
@@ -12277,7 +12277,7 @@
         <v>1761</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>2511</v>
+        <v>2508</v>
       </c>
       <c r="C26" s="40" t="s">
         <v>1762</v>
@@ -12288,7 +12288,7 @@
         <v>1763</v>
       </c>
       <c r="B27" s="40" t="s">
-        <v>2512</v>
+        <v>2509</v>
       </c>
       <c r="C27" s="40" t="s">
         <v>1764</v>
@@ -12299,7 +12299,7 @@
         <v>1765</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>2513</v>
+        <v>2510</v>
       </c>
       <c r="C28" s="40" t="s">
         <v>1766</v>
@@ -12310,7 +12310,7 @@
         <v>1763</v>
       </c>
       <c r="B29" s="40" t="s">
-        <v>2512</v>
+        <v>2509</v>
       </c>
       <c r="C29" s="40" t="s">
         <v>1764</v>
@@ -12321,7 +12321,7 @@
         <v>1767</v>
       </c>
       <c r="B30" s="40" t="s">
-        <v>2514</v>
+        <v>2511</v>
       </c>
       <c r="C30" s="40" t="s">
         <v>1768</v>
@@ -12332,7 +12332,7 @@
         <v>1769</v>
       </c>
       <c r="B31" s="40" t="s">
-        <v>2515</v>
+        <v>2512</v>
       </c>
       <c r="C31" s="40" t="s">
         <v>1770</v>
@@ -12343,7 +12343,7 @@
         <v>1771</v>
       </c>
       <c r="B32" s="40" t="s">
-        <v>2516</v>
+        <v>2513</v>
       </c>
       <c r="C32" s="40" t="s">
         <v>1772</v>
@@ -12354,7 +12354,7 @@
         <v>1773</v>
       </c>
       <c r="B33" s="40" t="s">
-        <v>2517</v>
+        <v>2514</v>
       </c>
       <c r="C33" s="40" t="s">
         <v>1774</v>
@@ -12365,7 +12365,7 @@
         <v>1775</v>
       </c>
       <c r="B34" s="40" t="s">
-        <v>2518</v>
+        <v>2515</v>
       </c>
       <c r="C34" s="40" t="s">
         <v>1776</v>
@@ -12376,7 +12376,7 @@
         <v>1777</v>
       </c>
       <c r="B35" s="40" t="s">
-        <v>2519</v>
+        <v>2516</v>
       </c>
       <c r="C35" s="40" t="s">
         <v>1778</v>
@@ -12387,7 +12387,7 @@
         <v>1779</v>
       </c>
       <c r="B36" s="40" t="s">
-        <v>2520</v>
+        <v>2517</v>
       </c>
       <c r="C36" s="27" t="s">
         <v>1780</v>
@@ -12398,7 +12398,7 @@
         <v>1781</v>
       </c>
       <c r="B37" s="40" t="s">
-        <v>2521</v>
+        <v>2518</v>
       </c>
       <c r="C37" s="40" t="s">
         <v>1782</v>
@@ -12409,7 +12409,7 @@
         <v>1783</v>
       </c>
       <c r="B38" s="40" t="s">
-        <v>2522</v>
+        <v>2519</v>
       </c>
       <c r="C38" s="40" t="s">
         <v>1784</v>
@@ -12420,7 +12420,7 @@
         <v>1785</v>
       </c>
       <c r="B39" s="40" t="s">
-        <v>2523</v>
+        <v>2520</v>
       </c>
       <c r="C39" s="40" t="s">
         <v>1786</v>
@@ -12431,7 +12431,7 @@
         <v>1787</v>
       </c>
       <c r="B40" s="40" t="s">
-        <v>2524</v>
+        <v>2521</v>
       </c>
       <c r="C40" s="40" t="s">
         <v>1788</v>
@@ -12442,7 +12442,7 @@
         <v>1789</v>
       </c>
       <c r="B41" s="40" t="s">
-        <v>2525</v>
+        <v>2522</v>
       </c>
       <c r="C41" s="40" t="s">
         <v>1790</v>
@@ -12453,7 +12453,7 @@
         <v>1791</v>
       </c>
       <c r="B42" s="40" t="s">
-        <v>2526</v>
+        <v>2523</v>
       </c>
       <c r="C42" s="40" t="s">
         <v>1792</v>
@@ -12464,7 +12464,7 @@
         <v>1793</v>
       </c>
       <c r="B43" s="40" t="s">
-        <v>2527</v>
+        <v>2524</v>
       </c>
       <c r="C43" s="40" t="s">
         <v>1794</v>
@@ -12475,7 +12475,7 @@
         <v>1795</v>
       </c>
       <c r="B44" s="40" t="s">
-        <v>2528</v>
+        <v>2525</v>
       </c>
       <c r="C44" s="40" t="s">
         <v>1796</v>
@@ -12486,7 +12486,7 @@
         <v>1797</v>
       </c>
       <c r="B45" s="40" t="s">
-        <v>2529</v>
+        <v>2526</v>
       </c>
       <c r="C45" s="40" t="s">
         <v>1798</v>
@@ -12497,7 +12497,7 @@
         <v>1799</v>
       </c>
       <c r="B46" s="40" t="s">
-        <v>2530</v>
+        <v>2527</v>
       </c>
       <c r="C46" s="40" t="s">
         <v>1800</v>
@@ -12508,7 +12508,7 @@
         <v>1801</v>
       </c>
       <c r="B47" s="40" t="s">
-        <v>2531</v>
+        <v>2528</v>
       </c>
       <c r="C47" s="40" t="s">
         <v>1802</v>
@@ -12519,7 +12519,7 @@
         <v>1803</v>
       </c>
       <c r="B48" s="40" t="s">
-        <v>2532</v>
+        <v>2529</v>
       </c>
       <c r="C48" s="40" t="s">
         <v>1804</v>
@@ -12530,7 +12530,7 @@
         <v>1805</v>
       </c>
       <c r="B49" s="40" t="s">
-        <v>2533</v>
+        <v>2530</v>
       </c>
       <c r="C49" s="40" t="s">
         <v>1806</v>
@@ -12541,7 +12541,7 @@
         <v>1807</v>
       </c>
       <c r="B50" s="40" t="s">
-        <v>2534</v>
+        <v>2531</v>
       </c>
       <c r="C50" s="40" t="s">
         <v>1808</v>
@@ -12552,7 +12552,7 @@
         <v>1809</v>
       </c>
       <c r="B51" s="40" t="s">
-        <v>2535</v>
+        <v>2532</v>
       </c>
       <c r="C51" s="40" t="s">
         <v>1810</v>
@@ -12563,7 +12563,7 @@
         <v>1811</v>
       </c>
       <c r="B52" s="40" t="s">
-        <v>2536</v>
+        <v>2533</v>
       </c>
       <c r="C52" s="40" t="s">
         <v>1812</v>
@@ -12574,7 +12574,7 @@
         <v>1813</v>
       </c>
       <c r="B53" s="40" t="s">
-        <v>2537</v>
+        <v>2534</v>
       </c>
       <c r="C53" s="40" t="s">
         <v>1814</v>
@@ -12585,7 +12585,7 @@
         <v>1815</v>
       </c>
       <c r="B54" s="40" t="s">
-        <v>2538</v>
+        <v>2535</v>
       </c>
       <c r="C54" s="40" t="s">
         <v>1816</v>
@@ -12596,7 +12596,7 @@
         <v>1817</v>
       </c>
       <c r="B55" s="40" t="s">
-        <v>2539</v>
+        <v>2536</v>
       </c>
       <c r="C55" s="40" t="s">
         <v>1818</v>
@@ -12607,7 +12607,7 @@
         <v>1819</v>
       </c>
       <c r="B56" s="40" t="s">
-        <v>2540</v>
+        <v>2537</v>
       </c>
       <c r="C56" s="40" t="s">
         <v>1820</v>
@@ -12618,7 +12618,7 @@
         <v>1821</v>
       </c>
       <c r="B57" s="40" t="s">
-        <v>2541</v>
+        <v>2538</v>
       </c>
       <c r="C57" s="40" t="s">
         <v>1822</v>
@@ -12629,7 +12629,7 @@
         <v>1823</v>
       </c>
       <c r="B58" s="40" t="s">
-        <v>2542</v>
+        <v>2539</v>
       </c>
       <c r="C58" s="40" t="s">
         <v>1824</v>
@@ -12640,7 +12640,7 @@
         <v>1825</v>
       </c>
       <c r="B59" s="40" t="s">
-        <v>2543</v>
+        <v>2540</v>
       </c>
       <c r="C59" s="40" t="s">
         <v>1826</v>
@@ -12651,7 +12651,7 @@
         <v>1827</v>
       </c>
       <c r="B60" s="40" t="s">
-        <v>2544</v>
+        <v>2541</v>
       </c>
       <c r="C60" s="40" t="s">
         <v>1828</v>
@@ -12662,7 +12662,7 @@
         <v>1829</v>
       </c>
       <c r="B61" s="40" t="s">
-        <v>2545</v>
+        <v>2542</v>
       </c>
       <c r="C61" s="40" t="s">
         <v>1830</v>
@@ -12673,7 +12673,7 @@
         <v>1831</v>
       </c>
       <c r="B62" s="40" t="s">
-        <v>2546</v>
+        <v>2543</v>
       </c>
       <c r="C62" s="40" t="s">
         <v>1832</v>
@@ -12684,7 +12684,7 @@
         <v>1833</v>
       </c>
       <c r="B63" s="40" t="s">
-        <v>2547</v>
+        <v>2544</v>
       </c>
       <c r="C63" s="40" t="s">
         <v>1834</v>
@@ -12695,7 +12695,7 @@
         <v>1835</v>
       </c>
       <c r="B64" s="40" t="s">
-        <v>2548</v>
+        <v>2545</v>
       </c>
       <c r="C64" s="40" t="s">
         <v>1836</v>
@@ -12706,7 +12706,7 @@
         <v>1837</v>
       </c>
       <c r="B65" s="40" t="s">
-        <v>2549</v>
+        <v>2546</v>
       </c>
       <c r="C65" s="40" t="s">
         <v>1838</v>
@@ -12717,7 +12717,7 @@
         <v>1839</v>
       </c>
       <c r="B66" s="40" t="s">
-        <v>2550</v>
+        <v>2547</v>
       </c>
       <c r="C66" s="40" t="s">
         <v>1840</v>
@@ -12728,7 +12728,7 @@
         <v>1841</v>
       </c>
       <c r="B67" s="40" t="s">
-        <v>2551</v>
+        <v>2548</v>
       </c>
       <c r="C67" s="40" t="s">
         <v>1842</v>
@@ -12739,7 +12739,7 @@
         <v>1843</v>
       </c>
       <c r="B68" s="40" t="s">
-        <v>2552</v>
+        <v>2549</v>
       </c>
       <c r="C68" s="40" t="s">
         <v>1844</v>
@@ -12750,7 +12750,7 @@
         <v>1845</v>
       </c>
       <c r="B69" s="40" t="s">
-        <v>2553</v>
+        <v>2550</v>
       </c>
       <c r="C69" s="40" t="s">
         <v>1846</v>
@@ -12761,7 +12761,7 @@
         <v>1847</v>
       </c>
       <c r="B70" s="40" t="s">
-        <v>2554</v>
+        <v>2551</v>
       </c>
       <c r="C70" s="40" t="s">
         <v>1848</v>
@@ -12772,7 +12772,7 @@
         <v>1739</v>
       </c>
       <c r="B71" s="40" t="s">
-        <v>2500</v>
+        <v>2497</v>
       </c>
       <c r="C71" s="40" t="s">
         <v>1849</v>
@@ -12783,7 +12783,7 @@
         <v>1850</v>
       </c>
       <c r="B72" s="40" t="s">
-        <v>2555</v>
+        <v>2552</v>
       </c>
       <c r="C72" s="40" t="s">
         <v>1851</v>
@@ -12794,7 +12794,7 @@
         <v>1852</v>
       </c>
       <c r="B73" s="40" t="s">
-        <v>2556</v>
+        <v>2553</v>
       </c>
       <c r="C73" s="40" t="s">
         <v>1853</v>
@@ -12805,7 +12805,7 @@
         <v>1854</v>
       </c>
       <c r="B74" s="40" t="s">
-        <v>2557</v>
+        <v>2554</v>
       </c>
       <c r="C74" s="40" t="s">
         <v>1855</v>
@@ -12816,7 +12816,7 @@
         <v>1856</v>
       </c>
       <c r="B75" s="40" t="s">
-        <v>2558</v>
+        <v>2555</v>
       </c>
       <c r="C75" s="40" t="s">
         <v>1857</v>
@@ -12827,7 +12827,7 @@
         <v>1858</v>
       </c>
       <c r="B76" s="40" t="s">
-        <v>2559</v>
+        <v>2556</v>
       </c>
       <c r="C76" s="40" t="s">
         <v>1859</v>
@@ -12838,7 +12838,7 @@
         <v>1860</v>
       </c>
       <c r="B77" s="40" t="s">
-        <v>2560</v>
+        <v>2557</v>
       </c>
       <c r="C77" s="40" t="s">
         <v>1861</v>
@@ -12873,7 +12873,7 @@
         <v>1671</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>2460</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -12881,7 +12881,7 @@
         <v>1672</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>2461</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -12897,7 +12897,7 @@
         <v>1863</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>2711</v>
+        <v>2707</v>
       </c>
       <c r="C5" s="48" t="s">
         <v>1864</v>
@@ -12908,7 +12908,7 @@
         <v>1865</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>2562</v>
+        <v>2559</v>
       </c>
       <c r="C6" s="40" t="s">
         <v>1866</v>
@@ -12919,7 +12919,7 @@
         <v>1867</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>2712</v>
+        <v>2708</v>
       </c>
       <c r="C7" s="48" t="s">
         <v>1868</v>
@@ -12930,7 +12930,7 @@
         <v>1869</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>2563</v>
+        <v>2560</v>
       </c>
       <c r="C8" s="40" t="s">
         <v>1870</v>
@@ -13853,7 +13853,7 @@
         <v>2000</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>2411</v>
+        <v>2408</v>
       </c>
       <c r="F1" s="34" t="s">
         <v>1435</v>
@@ -13873,7 +13873,7 @@
         <v>909</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>2412</v>
+        <v>2409</v>
       </c>
       <c r="E2" s="23"/>
       <c r="F2" s="23" t="s">
@@ -13892,7 +13892,7 @@
         <v>1438</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>2713</v>
+        <v>2709</v>
       </c>
       <c r="E3" s="23"/>
       <c r="F3" s="23" t="s">
@@ -13911,7 +13911,7 @@
         <v>1440</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>2413</v>
+        <v>2410</v>
       </c>
       <c r="E4" s="23"/>
       <c r="F4" s="23" t="s">
@@ -13930,7 +13930,7 @@
         <v>1442</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>2414</v>
+        <v>2411</v>
       </c>
       <c r="E5" s="23"/>
       <c r="F5" s="23" t="s">
@@ -13949,7 +13949,7 @@
         <v>1444</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>2415</v>
+        <v>2412</v>
       </c>
       <c r="E6" s="23"/>
       <c r="F6" s="23" t="s">
@@ -13968,7 +13968,7 @@
         <v>1446</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>2416</v>
+        <v>2413</v>
       </c>
       <c r="E7" s="23"/>
       <c r="F7" s="23" t="s">
@@ -13987,7 +13987,7 @@
         <v>1448</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>2417</v>
+        <v>2414</v>
       </c>
       <c r="E8" s="23"/>
       <c r="F8" s="23" t="s">
@@ -14006,7 +14006,7 @@
         <v>1451</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>2418</v>
+        <v>2415</v>
       </c>
       <c r="E9" s="23"/>
       <c r="F9" s="23" t="s">
@@ -14025,7 +14025,7 @@
         <v>1453</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>2419</v>
+        <v>2416</v>
       </c>
       <c r="E10" s="23"/>
       <c r="F10" s="27" t="s">
@@ -14044,7 +14044,7 @@
         <v>1455</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>2420</v>
+        <v>2417</v>
       </c>
       <c r="E11" s="23"/>
       <c r="F11" s="27" t="s">
@@ -14063,7 +14063,7 @@
         <v>1457</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>2424</v>
+        <v>2421</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="27" t="s">
@@ -14082,7 +14082,7 @@
         <v>1459</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>2421</v>
+        <v>2418</v>
       </c>
       <c r="E13" s="23"/>
       <c r="F13" s="27" t="s">
@@ -14101,7 +14101,7 @@
         <v>36</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>2346</v>
+        <v>2343</v>
       </c>
       <c r="E14" s="23"/>
       <c r="F14" s="23" t="s">
@@ -14120,7 +14120,7 @@
         <v>1461</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>2422</v>
+        <v>2419</v>
       </c>
       <c r="E15" s="23"/>
       <c r="F15" s="23" t="s">
@@ -14139,7 +14139,7 @@
         <v>1463</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>2423</v>
+        <v>2420</v>
       </c>
       <c r="E16" s="23"/>
       <c r="F16" s="23" t="s">
@@ -14158,7 +14158,7 @@
         <v>1465</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>2425</v>
+        <v>2422</v>
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="23" t="s">
@@ -14177,7 +14177,7 @@
         <v>1448</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>2417</v>
+        <v>2414</v>
       </c>
       <c r="E18" s="23"/>
       <c r="F18" s="23" t="s">
@@ -14196,7 +14196,7 @@
         <v>1467</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>2426</v>
+        <v>2423</v>
       </c>
       <c r="E19" s="23"/>
       <c r="F19" s="23" t="s">
@@ -14215,7 +14215,7 @@
         <v>1469</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>2427</v>
+        <v>2424</v>
       </c>
       <c r="E20" s="23"/>
       <c r="F20" s="23" t="s">
@@ -14234,7 +14234,7 @@
         <v>1471</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>2428</v>
+        <v>2425</v>
       </c>
       <c r="E21" s="23"/>
       <c r="F21" s="23" t="s">
@@ -14253,7 +14253,7 @@
         <v>1451</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>2418</v>
+        <v>2415</v>
       </c>
       <c r="E22" s="23"/>
       <c r="F22" s="23" t="s">
@@ -14272,7 +14272,7 @@
         <v>1473</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>2695</v>
+        <v>2691</v>
       </c>
       <c r="E23" s="23"/>
       <c r="F23" s="27" t="s">
@@ -14291,7 +14291,7 @@
         <v>1475</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>2696</v>
+        <v>2692</v>
       </c>
       <c r="E24" s="23"/>
       <c r="F24" s="27" t="s">
@@ -14310,7 +14310,7 @@
         <v>1477</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>2697</v>
+        <v>2693</v>
       </c>
       <c r="E25" s="23"/>
       <c r="F25" s="27" t="s">
@@ -14329,7 +14329,7 @@
         <v>1479</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>2698</v>
+        <v>2694</v>
       </c>
       <c r="E26" s="23"/>
       <c r="F26" s="27" t="s">
@@ -14348,7 +14348,7 @@
         <v>1481</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>2429</v>
+        <v>2426</v>
       </c>
       <c r="E27" s="23"/>
       <c r="F27" s="23" t="s">
@@ -14367,7 +14367,7 @@
         <v>1483</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>2430</v>
+        <v>2427</v>
       </c>
       <c r="E28" s="23"/>
       <c r="F28" s="23" t="s">
@@ -14386,7 +14386,7 @@
         <v>1463</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>2423</v>
+        <v>2420</v>
       </c>
       <c r="E29" s="23"/>
       <c r="F29" s="23" t="s">
@@ -14405,7 +14405,7 @@
         <v>1467</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>2426</v>
+        <v>2423</v>
       </c>
       <c r="E30" s="23"/>
       <c r="F30" s="23" t="s">
@@ -14424,7 +14424,7 @@
         <v>1469</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>2427</v>
+        <v>2424</v>
       </c>
       <c r="E31" s="23"/>
       <c r="F31" s="23" t="s">
@@ -14443,7 +14443,7 @@
         <v>1485</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>2431</v>
+        <v>2428</v>
       </c>
       <c r="E32" s="23"/>
       <c r="F32" s="23" t="s">
@@ -14462,7 +14462,7 @@
         <v>1448</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>2417</v>
+        <v>2414</v>
       </c>
       <c r="E33" s="23"/>
       <c r="F33" s="23" t="s">
@@ -14481,7 +14481,7 @@
         <v>1487</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>2432</v>
+        <v>2429</v>
       </c>
       <c r="E34" s="23"/>
       <c r="F34" s="23" t="s">
@@ -14497,14 +14497,14 @@
         <v>1436</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>2408</v>
+        <v>2405</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>2457</v>
+        <v>2454</v>
       </c>
       <c r="E35" s="23"/>
       <c r="F35" s="23" t="s">
-        <v>2409</v>
+        <v>2406</v>
       </c>
       <c r="G35" s="23"/>
     </row>
@@ -14519,7 +14519,7 @@
         <v>1444</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>2415</v>
+        <v>2412</v>
       </c>
       <c r="E36" s="23"/>
       <c r="F36" s="23" t="s">
@@ -14538,7 +14538,7 @@
         <v>1446</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>2416</v>
+        <v>2413</v>
       </c>
       <c r="E37" s="23"/>
       <c r="F37" s="23" t="s">
@@ -14557,7 +14557,7 @@
         <v>1489</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>2433</v>
+        <v>2430</v>
       </c>
       <c r="E38" s="23"/>
       <c r="F38" s="23" t="s">
@@ -14576,7 +14576,7 @@
         <v>1491</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>2442</v>
+        <v>2439</v>
       </c>
       <c r="E39" s="23"/>
       <c r="F39" s="23" t="s">
@@ -14595,7 +14595,7 @@
         <v>1493</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>2434</v>
+        <v>2431</v>
       </c>
       <c r="E40" s="23"/>
       <c r="F40" s="23" t="s">
@@ -14614,7 +14614,7 @@
         <v>1495</v>
       </c>
       <c r="D41" s="23" t="s">
-        <v>2435</v>
+        <v>2432</v>
       </c>
       <c r="E41" s="23"/>
       <c r="F41" s="23" t="s">
@@ -14633,7 +14633,7 @@
         <v>1497</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>2346</v>
+        <v>2343</v>
       </c>
       <c r="E42" s="23"/>
       <c r="F42" s="23" t="s">
@@ -14652,7 +14652,7 @@
         <v>87</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>2353</v>
+        <v>2350</v>
       </c>
       <c r="E43" s="23"/>
       <c r="F43" s="23" t="s">
@@ -14671,7 +14671,7 @@
         <v>1451</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>2418</v>
+        <v>2415</v>
       </c>
       <c r="E44" s="23"/>
       <c r="F44" s="23" t="s">
@@ -14690,7 +14690,7 @@
         <v>1498</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>2436</v>
+        <v>2433</v>
       </c>
       <c r="E45" s="23"/>
       <c r="F45" s="27" t="s">
@@ -14709,7 +14709,7 @@
         <v>1500</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>2437</v>
+        <v>2434</v>
       </c>
       <c r="E46" s="23"/>
       <c r="F46" s="27" t="s">
@@ -14728,7 +14728,7 @@
         <v>1502</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>2438</v>
+        <v>2435</v>
       </c>
       <c r="E47" s="23"/>
       <c r="F47" s="27" t="s">
@@ -14747,7 +14747,7 @@
         <v>1504</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>2439</v>
+        <v>2436</v>
       </c>
       <c r="E48" s="23"/>
       <c r="F48" s="27" t="s">
@@ -14766,7 +14766,7 @@
         <v>1506</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>2443</v>
+        <v>2440</v>
       </c>
       <c r="E49" s="23"/>
       <c r="F49" s="25" t="s">
@@ -14785,7 +14785,7 @@
         <v>1508</v>
       </c>
       <c r="D50" s="23" t="s">
-        <v>2444</v>
+        <v>2441</v>
       </c>
       <c r="E50" s="23"/>
       <c r="F50" s="25" t="s">
@@ -14804,7 +14804,7 @@
         <v>1491</v>
       </c>
       <c r="D51" s="23" t="s">
-        <v>2442</v>
+        <v>2439</v>
       </c>
       <c r="E51" s="23"/>
       <c r="F51" s="25" t="s">
@@ -14823,7 +14823,7 @@
         <v>1510</v>
       </c>
       <c r="D52" s="23" t="s">
-        <v>2441</v>
+        <v>2438</v>
       </c>
       <c r="E52" s="23"/>
       <c r="F52" s="25" t="s">
@@ -14842,7 +14842,7 @@
         <v>1512</v>
       </c>
       <c r="D53" s="23" t="s">
-        <v>2347</v>
+        <v>2344</v>
       </c>
       <c r="E53" s="23"/>
       <c r="F53" s="25" t="s">
@@ -14861,7 +14861,7 @@
         <v>1514</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>2440</v>
+        <v>2437</v>
       </c>
       <c r="E54" s="23"/>
       <c r="F54" s="25" t="s">
@@ -14880,7 +14880,7 @@
         <v>1451</v>
       </c>
       <c r="D55" s="40" t="s">
-        <v>2418</v>
+        <v>2415</v>
       </c>
       <c r="E55" s="23"/>
       <c r="F55" s="25" t="s">
@@ -14899,7 +14899,7 @@
         <v>1516</v>
       </c>
       <c r="D56" s="40" t="s">
-        <v>2446</v>
+        <v>2443</v>
       </c>
       <c r="E56" s="23"/>
       <c r="F56" s="25" t="s">
@@ -14918,7 +14918,7 @@
         <v>1518</v>
       </c>
       <c r="D57" s="40" t="s">
-        <v>2447</v>
+        <v>2444</v>
       </c>
       <c r="E57" s="23"/>
       <c r="F57" s="25" t="s">
@@ -14937,7 +14937,7 @@
         <v>1520</v>
       </c>
       <c r="D58" s="40" t="s">
-        <v>2448</v>
+        <v>2445</v>
       </c>
       <c r="E58" s="23"/>
       <c r="F58" s="25" t="s">
@@ -14956,7 +14956,7 @@
         <v>1522</v>
       </c>
       <c r="D59" s="40" t="s">
-        <v>2449</v>
+        <v>2446</v>
       </c>
       <c r="E59" s="23"/>
       <c r="F59" s="25" t="s">
@@ -14975,7 +14975,7 @@
         <v>1524</v>
       </c>
       <c r="D60" s="40" t="s">
-        <v>2450</v>
+        <v>2447</v>
       </c>
       <c r="E60" s="23"/>
       <c r="F60" s="25" t="s">
@@ -14994,7 +14994,7 @@
         <v>1526</v>
       </c>
       <c r="D61" s="40" t="s">
-        <v>2445</v>
+        <v>2442</v>
       </c>
       <c r="E61" s="23"/>
       <c r="F61" s="25" t="s">
@@ -15013,7 +15013,7 @@
         <v>1528</v>
       </c>
       <c r="D62" s="23" t="s">
-        <v>2451</v>
+        <v>2448</v>
       </c>
       <c r="E62" s="23"/>
       <c r="F62" s="25" t="s">
@@ -15032,7 +15032,7 @@
         <v>1530</v>
       </c>
       <c r="D63" s="40" t="s">
-        <v>2452</v>
+        <v>2449</v>
       </c>
       <c r="E63" s="23"/>
       <c r="F63" s="25" t="s">
@@ -15051,7 +15051,7 @@
         <v>1532</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>2453</v>
+        <v>2450</v>
       </c>
       <c r="E64" s="23"/>
       <c r="F64" s="25" t="s">
@@ -15070,7 +15070,7 @@
         <v>1534</v>
       </c>
       <c r="D65" s="23" t="s">
-        <v>2454</v>
+        <v>2451</v>
       </c>
       <c r="E65" s="23"/>
       <c r="F65" s="25" t="s">
@@ -15089,7 +15089,7 @@
         <v>99</v>
       </c>
       <c r="D66" s="23" t="s">
-        <v>2383</v>
+        <v>2380</v>
       </c>
       <c r="E66" s="23"/>
       <c r="F66" s="25" t="s">
@@ -15108,7 +15108,7 @@
         <v>1536</v>
       </c>
       <c r="D67" s="23" t="s">
-        <v>2384</v>
+        <v>2381</v>
       </c>
       <c r="E67" s="23"/>
       <c r="F67" s="25" t="s">
@@ -15127,7 +15127,7 @@
         <v>1537</v>
       </c>
       <c r="D68" s="23" t="s">
-        <v>2455</v>
+        <v>2452</v>
       </c>
       <c r="E68" s="23"/>
       <c r="F68" s="25" t="s">
@@ -15146,7 +15146,7 @@
         <v>1497</v>
       </c>
       <c r="D69" s="23" t="s">
-        <v>2346</v>
+        <v>2343</v>
       </c>
       <c r="E69" s="23"/>
       <c r="F69" s="25" t="s">
@@ -15165,7 +15165,7 @@
         <v>1539</v>
       </c>
       <c r="D70" s="23" t="s">
-        <v>2456</v>
+        <v>2453</v>
       </c>
       <c r="E70" s="23"/>
       <c r="F70" s="25" t="s">
@@ -15184,7 +15184,7 @@
         <v>1541</v>
       </c>
       <c r="D71" s="23" t="s">
-        <v>2453</v>
+        <v>2450</v>
       </c>
       <c r="E71" s="23"/>
       <c r="F71" s="25" t="s">
@@ -15203,7 +15203,7 @@
         <v>1543</v>
       </c>
       <c r="D72" s="23" t="s">
-        <v>2454</v>
+        <v>2451</v>
       </c>
       <c r="E72" s="23"/>
       <c r="F72" s="25" t="s">
@@ -15222,7 +15222,7 @@
         <v>1545</v>
       </c>
       <c r="D73" s="23" t="s">
-        <v>2714</v>
+        <v>2710</v>
       </c>
       <c r="E73" s="23"/>
       <c r="F73" s="25" t="s">
@@ -15241,7 +15241,7 @@
         <v>1547</v>
       </c>
       <c r="D74" s="40" t="s">
-        <v>2715</v>
+        <v>2711</v>
       </c>
       <c r="E74" s="23"/>
       <c r="F74" s="25" t="s">
@@ -15260,7 +15260,7 @@
         <v>1536</v>
       </c>
       <c r="D75" s="23" t="s">
-        <v>2384</v>
+        <v>2381</v>
       </c>
       <c r="E75" s="23"/>
       <c r="F75" s="25" t="s">
@@ -15279,7 +15279,7 @@
         <v>38</v>
       </c>
       <c r="D76" s="23" t="s">
-        <v>2347</v>
+        <v>2344</v>
       </c>
       <c r="E76" s="23"/>
       <c r="F76" s="25" t="s">
@@ -15298,7 +15298,7 @@
         <v>1550</v>
       </c>
       <c r="D77" s="23" t="s">
-        <v>2716</v>
+        <v>2712</v>
       </c>
       <c r="E77" s="23"/>
       <c r="F77" s="25" t="s">
@@ -15314,10 +15314,10 @@
         <v>1436</v>
       </c>
       <c r="C78" s="23" t="s">
-        <v>2410</v>
+        <v>2407</v>
       </c>
       <c r="D78" s="23" t="s">
-        <v>2717</v>
+        <v>2713</v>
       </c>
       <c r="E78" s="23"/>
       <c r="F78" s="25" t="s">
@@ -15336,7 +15336,7 @@
         <v>1553</v>
       </c>
       <c r="D79" s="40" t="s">
-        <v>2718</v>
+        <v>2714</v>
       </c>
       <c r="E79" s="23"/>
       <c r="F79" s="25" t="s">
@@ -15355,7 +15355,7 @@
         <v>1451</v>
       </c>
       <c r="D80" s="23" t="s">
-        <v>2418</v>
+        <v>2415</v>
       </c>
       <c r="E80" s="23"/>
       <c r="F80" s="25" t="s">
@@ -15374,7 +15374,7 @@
         <v>1555</v>
       </c>
       <c r="D81" s="40" t="s">
-        <v>2719</v>
+        <v>2715</v>
       </c>
       <c r="E81" s="23"/>
       <c r="F81" s="25" t="s">
@@ -15393,7 +15393,7 @@
         <v>1557</v>
       </c>
       <c r="D82" s="40" t="s">
-        <v>2720</v>
+        <v>2716</v>
       </c>
       <c r="E82" s="23"/>
       <c r="F82" s="25" t="s">
@@ -15412,7 +15412,7 @@
         <v>1559</v>
       </c>
       <c r="D83" s="40" t="s">
-        <v>2721</v>
+        <v>2717</v>
       </c>
       <c r="E83" s="23"/>
       <c r="F83" s="25" t="s">
@@ -15431,7 +15431,7 @@
         <v>1561</v>
       </c>
       <c r="D84" s="40" t="s">
-        <v>2722</v>
+        <v>2718</v>
       </c>
       <c r="E84" s="23"/>
       <c r="F84" s="25" t="s">
@@ -15450,7 +15450,7 @@
         <v>1563</v>
       </c>
       <c r="D85" s="40" t="s">
-        <v>2723</v>
+        <v>2719</v>
       </c>
       <c r="E85" s="23"/>
       <c r="F85" s="25" t="s">
@@ -15469,7 +15469,7 @@
         <v>1565</v>
       </c>
       <c r="D86" s="23" t="s">
-        <v>2724</v>
+        <v>2720</v>
       </c>
       <c r="E86" s="23"/>
       <c r="F86" s="25" t="s">
@@ -15488,7 +15488,7 @@
         <v>1567</v>
       </c>
       <c r="D87" s="23" t="s">
-        <v>2335</v>
+        <v>2332</v>
       </c>
       <c r="E87" s="23"/>
       <c r="F87" s="25" t="s">
@@ -15507,7 +15507,7 @@
         <v>1463</v>
       </c>
       <c r="D88" s="23" t="s">
-        <v>2423</v>
+        <v>2420</v>
       </c>
       <c r="E88" s="23"/>
       <c r="F88" s="25" t="s">
@@ -15526,7 +15526,7 @@
         <v>1448</v>
       </c>
       <c r="D89" s="23" t="s">
-        <v>2417</v>
+        <v>2414</v>
       </c>
       <c r="E89" s="23"/>
       <c r="F89" s="25" t="s">
@@ -15545,7 +15545,7 @@
         <v>1497</v>
       </c>
       <c r="D90" s="23" t="s">
-        <v>2346</v>
+        <v>2343</v>
       </c>
       <c r="E90" s="23"/>
       <c r="F90" s="25" t="s">
@@ -15564,7 +15564,7 @@
         <v>38</v>
       </c>
       <c r="D91" s="23" t="s">
-        <v>2347</v>
+        <v>2344</v>
       </c>
       <c r="E91" s="23"/>
       <c r="F91" s="25" t="s">
@@ -15583,7 +15583,7 @@
         <v>1569</v>
       </c>
       <c r="D92" s="23" t="s">
-        <v>2725</v>
+        <v>2721</v>
       </c>
       <c r="E92" s="23"/>
       <c r="F92" s="25" t="s">
@@ -15602,7 +15602,7 @@
         <v>1571</v>
       </c>
       <c r="D93" s="23" t="s">
-        <v>2726</v>
+        <v>2722</v>
       </c>
       <c r="E93" s="23"/>
       <c r="F93" s="25" t="s">
@@ -15621,7 +15621,7 @@
         <v>1553</v>
       </c>
       <c r="D94" s="40" t="s">
-        <v>2718</v>
+        <v>2714</v>
       </c>
       <c r="E94" s="23"/>
       <c r="F94" s="25" t="s">
@@ -15640,7 +15640,7 @@
         <v>1550</v>
       </c>
       <c r="D95" s="40" t="s">
-        <v>2716</v>
+        <v>2712</v>
       </c>
       <c r="E95" s="23"/>
       <c r="F95" s="25" t="s">
@@ -15659,7 +15659,7 @@
         <v>34</v>
       </c>
       <c r="D96" s="23" t="s">
-        <v>2345</v>
+        <v>2342</v>
       </c>
       <c r="E96" s="23"/>
       <c r="F96" s="25" t="s">
@@ -15680,7 +15680,7 @@
         <v>1497</v>
       </c>
       <c r="D97" s="23" t="s">
-        <v>2346</v>
+        <v>2343</v>
       </c>
       <c r="E97" s="23"/>
       <c r="F97" s="25" t="s">
@@ -15696,10 +15696,10 @@
         <v>1436</v>
       </c>
       <c r="C98" s="23" t="s">
-        <v>2410</v>
+        <v>2407</v>
       </c>
       <c r="D98" s="40" t="s">
-        <v>2717</v>
+        <v>2713</v>
       </c>
       <c r="E98" s="23"/>
       <c r="F98" s="25" t="s">
@@ -15718,7 +15718,7 @@
         <v>1553</v>
       </c>
       <c r="D99" s="40" t="s">
-        <v>2718</v>
+        <v>2714</v>
       </c>
       <c r="E99" s="23"/>
       <c r="F99" s="25" t="s">
@@ -15737,7 +15737,7 @@
         <v>1550</v>
       </c>
       <c r="D100" s="40" t="s">
-        <v>2716</v>
+        <v>2712</v>
       </c>
       <c r="E100" s="23"/>
       <c r="F100" s="25" t="s">
@@ -15758,7 +15758,7 @@
         <v>1451</v>
       </c>
       <c r="D101" s="40" t="s">
-        <v>2418</v>
+        <v>2415</v>
       </c>
       <c r="E101" s="23"/>
       <c r="F101" s="25" t="s">
@@ -15777,7 +15777,7 @@
         <v>1575</v>
       </c>
       <c r="D102" s="40" t="s">
-        <v>2719</v>
+        <v>2715</v>
       </c>
       <c r="E102" s="23"/>
       <c r="F102" s="25" t="s">
@@ -15796,7 +15796,7 @@
         <v>1577</v>
       </c>
       <c r="D103" s="40" t="s">
-        <v>2720</v>
+        <v>2716</v>
       </c>
       <c r="E103" s="23"/>
       <c r="F103" s="25" t="s">
@@ -15815,7 +15815,7 @@
         <v>1579</v>
       </c>
       <c r="D104" s="40" t="s">
-        <v>2721</v>
+        <v>2717</v>
       </c>
       <c r="E104" s="23"/>
       <c r="F104" s="25" t="s">
@@ -15834,7 +15834,7 @@
         <v>1581</v>
       </c>
       <c r="D105" s="40" t="s">
-        <v>2722</v>
+        <v>2718</v>
       </c>
       <c r="E105" s="23"/>
       <c r="F105" s="25" t="s">
@@ -15853,7 +15853,7 @@
         <v>1583</v>
       </c>
       <c r="D106" s="40" t="s">
-        <v>2723</v>
+        <v>2719</v>
       </c>
       <c r="E106" s="23"/>
       <c r="F106" s="25" t="s">
@@ -15872,7 +15872,7 @@
         <v>1585</v>
       </c>
       <c r="D107" s="40" t="s">
-        <v>2721</v>
+        <v>2717</v>
       </c>
       <c r="E107" s="23"/>
       <c r="F107" s="25" t="s">
@@ -15891,7 +15891,7 @@
         <v>1587</v>
       </c>
       <c r="D108" s="40" t="s">
-        <v>2722</v>
+        <v>2718</v>
       </c>
       <c r="E108" s="23"/>
       <c r="F108" s="25" t="s">
@@ -15910,7 +15910,7 @@
         <v>1589</v>
       </c>
       <c r="D109" s="40" t="s">
-        <v>2723</v>
+        <v>2719</v>
       </c>
       <c r="E109" s="23"/>
       <c r="F109" s="25" t="s">
@@ -15929,7 +15929,7 @@
         <v>1591</v>
       </c>
       <c r="D110" s="40" t="s">
-        <v>2721</v>
+        <v>2717</v>
       </c>
       <c r="E110" s="23"/>
       <c r="F110" s="25" t="s">
@@ -15948,7 +15948,7 @@
         <v>1593</v>
       </c>
       <c r="D111" s="23" t="s">
-        <v>2727</v>
+        <v>2723</v>
       </c>
       <c r="E111" s="23"/>
       <c r="F111" s="25" t="s">
@@ -15967,7 +15967,7 @@
         <v>34</v>
       </c>
       <c r="D112" s="23" t="s">
-        <v>2345</v>
+        <v>2342</v>
       </c>
       <c r="E112" s="23"/>
       <c r="F112" s="25" t="s">
@@ -16068,7 +16068,7 @@
         <v>1436</v>
       </c>
       <c r="C118" s="23" t="s">
-        <v>2410</v>
+        <v>2407</v>
       </c>
       <c r="D118" s="23"/>
       <c r="E118" s="23"/>
@@ -16306,7 +16306,7 @@
         <v>1436</v>
       </c>
       <c r="C132" s="23" t="s">
-        <v>2410</v>
+        <v>2407</v>
       </c>
       <c r="D132" s="23"/>
       <c r="E132" s="23"/>
@@ -16768,8 +16768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G203"/>
   <sheetViews>
-    <sheetView topLeftCell="C145" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D153" sqref="D153"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15"/>
@@ -16793,7 +16793,7 @@
         <v>2027</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>2185</v>
+        <v>2182</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>3</v>
@@ -16816,7 +16816,7 @@
         <v>2028</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>2699</v>
+        <v>2695</v>
       </c>
       <c r="E2" s="23" t="s">
         <v>202</v>
@@ -16837,7 +16837,7 @@
         <v>2029</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>2700</v>
+        <v>2696</v>
       </c>
       <c r="E3" s="23" t="s">
         <v>206</v>
@@ -16858,7 +16858,7 @@
         <v>2030</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>2186</v>
+        <v>2183</v>
       </c>
       <c r="E4" s="24" t="s">
         <v>210</v>
@@ -16879,7 +16879,7 @@
         <v>2031</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>2187</v>
+        <v>2184</v>
       </c>
       <c r="E5" s="23" t="s">
         <v>214</v>
@@ -16900,7 +16900,7 @@
         <v>2032</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>2188</v>
+        <v>2185</v>
       </c>
       <c r="E6" s="23" t="s">
         <v>218</v>
@@ -16921,7 +16921,7 @@
         <v>2033</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>2189</v>
+        <v>2186</v>
       </c>
       <c r="E7" s="23" t="s">
         <v>222</v>
@@ -16942,7 +16942,7 @@
         <v>2034</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>2190</v>
+        <v>2187</v>
       </c>
       <c r="E8" s="23" t="s">
         <v>226</v>
@@ -16963,7 +16963,7 @@
         <v>2035</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>2191</v>
+        <v>2188</v>
       </c>
       <c r="E9" s="23" t="s">
         <v>230</v>
@@ -16984,7 +16984,7 @@
         <v>2036</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>2191</v>
+        <v>2188</v>
       </c>
       <c r="E10" s="23" t="s">
         <v>233</v>
@@ -17005,7 +17005,7 @@
         <v>2037</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>2191</v>
+        <v>2188</v>
       </c>
       <c r="E11" s="23" t="s">
         <v>235</v>
@@ -17026,7 +17026,7 @@
         <v>2038</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>2192</v>
+        <v>2189</v>
       </c>
       <c r="E12" s="23" t="s">
         <v>238</v>
@@ -17047,7 +17047,7 @@
         <v>2039</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>2193</v>
+        <v>2190</v>
       </c>
       <c r="E13" s="23" t="s">
         <v>242</v>
@@ -17068,7 +17068,7 @@
         <v>2040</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>2194</v>
+        <v>2191</v>
       </c>
       <c r="E14" s="23" t="s">
         <v>246</v>
@@ -17089,7 +17089,7 @@
         <v>2041</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>2195</v>
+        <v>2192</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>250</v>
@@ -17110,7 +17110,7 @@
         <v>2042</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>2196</v>
+        <v>2193</v>
       </c>
       <c r="E16" s="23" t="s">
         <v>254</v>
@@ -17131,7 +17131,7 @@
         <v>2043</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>2407</v>
+        <v>2404</v>
       </c>
       <c r="E17" s="23" t="s">
         <v>258</v>
@@ -17152,7 +17152,7 @@
         <v>2044</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>2197</v>
+        <v>2194</v>
       </c>
       <c r="E18" s="23" t="s">
         <v>262</v>
@@ -17173,7 +17173,7 @@
         <v>2045</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>2198</v>
+        <v>2195</v>
       </c>
       <c r="E19" s="23" t="s">
         <v>266</v>
@@ -17194,7 +17194,7 @@
         <v>2046</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>2199</v>
+        <v>2196</v>
       </c>
       <c r="E20" s="23" t="s">
         <v>270</v>
@@ -17215,7 +17215,7 @@
         <v>2047</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>2200</v>
+        <v>2197</v>
       </c>
       <c r="E21" s="23" t="s">
         <v>274</v>
@@ -17236,7 +17236,7 @@
         <v>2048</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>2201</v>
+        <v>2198</v>
       </c>
       <c r="E22" s="23" t="s">
         <v>278</v>
@@ -17257,7 +17257,7 @@
         <v>2049</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>2202</v>
+        <v>2199</v>
       </c>
       <c r="E23" s="23" t="s">
         <v>282</v>
@@ -17278,7 +17278,7 @@
         <v>2050</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>2203</v>
+        <v>2200</v>
       </c>
       <c r="E24" s="23" t="s">
         <v>286</v>
@@ -17299,7 +17299,7 @@
         <v>2051</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>2678</v>
+        <v>2674</v>
       </c>
       <c r="E25" s="23" t="s">
         <v>290</v>
@@ -17320,7 +17320,7 @@
         <v>2052</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>2679</v>
+        <v>2675</v>
       </c>
       <c r="E26" s="23" t="s">
         <v>294</v>
@@ -17341,7 +17341,7 @@
         <v>2053</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>2204</v>
+        <v>2201</v>
       </c>
       <c r="E27" s="23" t="s">
         <v>298</v>
@@ -17362,7 +17362,7 @@
         <v>2054</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>2205</v>
+        <v>2202</v>
       </c>
       <c r="E28" s="23" t="s">
         <v>302</v>
@@ -17383,7 +17383,7 @@
         <v>2055</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>2206</v>
+        <v>2203</v>
       </c>
       <c r="E29" s="23" t="s">
         <v>306</v>
@@ -17404,7 +17404,7 @@
         <v>2056</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>2207</v>
+        <v>2204</v>
       </c>
       <c r="E30" s="23" t="s">
         <v>309</v>
@@ -17425,7 +17425,7 @@
         <v>2057</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>2208</v>
+        <v>2205</v>
       </c>
       <c r="E31" s="23" t="s">
         <v>313</v>
@@ -17446,7 +17446,7 @@
         <v>2058</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>2209</v>
+        <v>2206</v>
       </c>
       <c r="E32" s="23" t="s">
         <v>317</v>
@@ -17467,7 +17467,7 @@
         <v>2059</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>2210</v>
+        <v>2207</v>
       </c>
       <c r="E33" s="23" t="s">
         <v>321</v>
@@ -17488,7 +17488,7 @@
         <v>2060</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>2211</v>
+        <v>2208</v>
       </c>
       <c r="E34" s="23" t="s">
         <v>325</v>
@@ -17509,7 +17509,7 @@
         <v>2061</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>2212</v>
+        <v>2209</v>
       </c>
       <c r="E35" s="23" t="s">
         <v>329</v>
@@ -17530,7 +17530,7 @@
         <v>2062</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>2213</v>
+        <v>2210</v>
       </c>
       <c r="E36" s="23" t="s">
         <v>333</v>
@@ -17551,7 +17551,7 @@
         <v>2063</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>2214</v>
+        <v>2211</v>
       </c>
       <c r="E37" s="23" t="s">
         <v>337</v>
@@ -17572,7 +17572,7 @@
         <v>2064</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>2215</v>
+        <v>2212</v>
       </c>
       <c r="E38" s="23" t="s">
         <v>341</v>
@@ -17593,7 +17593,7 @@
         <v>2065</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>2216</v>
+        <v>2213</v>
       </c>
       <c r="E39" s="23" t="s">
         <v>345</v>
@@ -17614,7 +17614,7 @@
         <v>2066</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>2217</v>
+        <v>2214</v>
       </c>
       <c r="E40" s="26" t="s">
         <v>349</v>
@@ -17635,7 +17635,7 @@
         <v>2067</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>2218</v>
+        <v>2215</v>
       </c>
       <c r="E41" s="23" t="s">
         <v>353</v>
@@ -17656,7 +17656,7 @@
         <v>2068</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>2218</v>
+        <v>2215</v>
       </c>
       <c r="E42" s="23" t="s">
         <v>356</v>
@@ -17677,7 +17677,7 @@
         <v>2069</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>2218</v>
+        <v>2215</v>
       </c>
       <c r="E43" s="23" t="s">
         <v>358</v>
@@ -17698,7 +17698,7 @@
         <v>2070</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>2219</v>
+        <v>2216</v>
       </c>
       <c r="E44" s="23" t="s">
         <v>361</v>
@@ -17719,7 +17719,7 @@
         <v>2071</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>2220</v>
+        <v>2217</v>
       </c>
       <c r="E45" s="23" t="s">
         <v>365</v>
@@ -17740,7 +17740,7 @@
         <v>2072</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>2221</v>
+        <v>2218</v>
       </c>
       <c r="E46" s="23" t="s">
         <v>369</v>
@@ -17761,7 +17761,7 @@
         <v>2073</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>2222</v>
+        <v>2219</v>
       </c>
       <c r="E47" s="23" t="s">
         <v>373</v>
@@ -17782,7 +17782,7 @@
         <v>2074</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>2564</v>
+        <v>2561</v>
       </c>
       <c r="E48" s="23" t="s">
         <v>377</v>
@@ -17803,7 +17803,7 @@
         <v>2075</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>2565</v>
+        <v>2562</v>
       </c>
       <c r="E49" s="23" t="s">
         <v>381</v>
@@ -17824,7 +17824,7 @@
         <v>2076</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>2566</v>
+        <v>2563</v>
       </c>
       <c r="E50" s="23" t="s">
         <v>385</v>
@@ -17845,7 +17845,7 @@
         <v>2077</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>2567</v>
+        <v>2564</v>
       </c>
       <c r="E51" s="23" t="s">
         <v>389</v>
@@ -17866,7 +17866,7 @@
         <v>2078</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>2568</v>
+        <v>2565</v>
       </c>
       <c r="E52" s="23" t="s">
         <v>393</v>
@@ -17887,7 +17887,7 @@
         <v>2079</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>2569</v>
+        <v>2566</v>
       </c>
       <c r="E53" s="23" t="s">
         <v>397</v>
@@ -17908,7 +17908,7 @@
         <v>2080</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>2570</v>
+        <v>2567</v>
       </c>
       <c r="E54" s="23" t="s">
         <v>401</v>
@@ -17926,10 +17926,10 @@
         <v>404</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>2572</v>
+        <v>2569</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>2571</v>
+        <v>2568</v>
       </c>
       <c r="E55" s="23" t="s">
         <v>405</v>
@@ -17950,7 +17950,7 @@
         <v>2081</v>
       </c>
       <c r="D56" s="19" t="s">
-        <v>2573</v>
+        <v>2570</v>
       </c>
       <c r="E56" s="23" t="s">
         <v>409</v>
@@ -17971,7 +17971,7 @@
         <v>2082</v>
       </c>
       <c r="D57" s="19" t="s">
-        <v>2574</v>
+        <v>2571</v>
       </c>
       <c r="E57" s="23" t="s">
         <v>413</v>
@@ -17992,7 +17992,7 @@
         <v>2083</v>
       </c>
       <c r="D58" s="19" t="s">
-        <v>2579</v>
+        <v>2576</v>
       </c>
       <c r="E58" s="26" t="s">
         <v>417</v>
@@ -18013,7 +18013,7 @@
         <v>2084</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>2575</v>
+        <v>2572</v>
       </c>
       <c r="E59" s="23" t="s">
         <v>421</v>
@@ -18034,7 +18034,7 @@
         <v>2085</v>
       </c>
       <c r="D60" s="19" t="s">
-        <v>2576</v>
+        <v>2573</v>
       </c>
       <c r="E60" s="23" t="s">
         <v>424</v>
@@ -18055,7 +18055,7 @@
         <v>2086</v>
       </c>
       <c r="D61" s="19" t="s">
-        <v>2577</v>
+        <v>2574</v>
       </c>
       <c r="E61" s="23" t="s">
         <v>427</v>
@@ -18076,7 +18076,7 @@
         <v>2087</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>2578</v>
+        <v>2575</v>
       </c>
       <c r="E62" s="23" t="s">
         <v>430</v>
@@ -18097,7 +18097,7 @@
         <v>2088</v>
       </c>
       <c r="D63" s="19" t="s">
-        <v>2580</v>
+        <v>2577</v>
       </c>
       <c r="E63" s="23" t="s">
         <v>434</v>
@@ -18118,7 +18118,7 @@
         <v>2089</v>
       </c>
       <c r="D64" s="19" t="s">
-        <v>2247</v>
+        <v>2244</v>
       </c>
       <c r="E64" s="23" t="s">
         <v>438</v>
@@ -18139,7 +18139,7 @@
         <v>2090</v>
       </c>
       <c r="D65" s="19" t="s">
-        <v>2246</v>
+        <v>2243</v>
       </c>
       <c r="E65" s="23" t="s">
         <v>442</v>
@@ -18160,7 +18160,7 @@
         <v>2091</v>
       </c>
       <c r="D66" s="19" t="s">
-        <v>2581</v>
+        <v>2578</v>
       </c>
       <c r="E66" s="23" t="s">
         <v>445</v>
@@ -18181,7 +18181,7 @@
         <v>2092</v>
       </c>
       <c r="D67" s="19" t="s">
-        <v>2582</v>
+        <v>2579</v>
       </c>
       <c r="E67" s="23" t="s">
         <v>449</v>
@@ -18202,7 +18202,7 @@
         <v>2093</v>
       </c>
       <c r="D68" s="19" t="s">
-        <v>2583</v>
+        <v>2580</v>
       </c>
       <c r="E68" s="23" t="s">
         <v>453</v>
@@ -18220,10 +18220,10 @@
         <v>456</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>2589</v>
+        <v>2897</v>
       </c>
       <c r="D69" s="19" t="s">
-        <v>2585</v>
+        <v>2581</v>
       </c>
       <c r="E69" s="23" t="s">
         <v>457</v>
@@ -18241,10 +18241,10 @@
         <v>460</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>2586</v>
+        <v>2582</v>
       </c>
       <c r="D70" s="19" t="s">
-        <v>2587</v>
+        <v>2583</v>
       </c>
       <c r="E70" s="23" t="s">
         <v>461</v>
@@ -18262,10 +18262,10 @@
         <v>464</v>
       </c>
       <c r="C71" s="19" t="s">
+        <v>2585</v>
+      </c>
+      <c r="D71" s="19" t="s">
         <v>2584</v>
-      </c>
-      <c r="D71" s="19" t="s">
-        <v>2588</v>
       </c>
       <c r="E71" s="23" t="s">
         <v>465</v>
@@ -18286,7 +18286,7 @@
         <v>2094</v>
       </c>
       <c r="D72" s="19" t="s">
-        <v>2590</v>
+        <v>2586</v>
       </c>
       <c r="E72" s="23" t="s">
         <v>469</v>
@@ -18304,10 +18304,10 @@
         <v>472</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>2591</v>
+        <v>2587</v>
       </c>
       <c r="D73" s="19" t="s">
-        <v>2594</v>
+        <v>2590</v>
       </c>
       <c r="E73" s="23" t="s">
         <v>473</v>
@@ -18325,10 +18325,10 @@
         <v>476</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>2592</v>
+        <v>2588</v>
       </c>
       <c r="D74" s="19" t="s">
-        <v>2595</v>
+        <v>2591</v>
       </c>
       <c r="E74" s="23" t="s">
         <v>477</v>
@@ -18346,10 +18346,10 @@
         <v>480</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>2593</v>
+        <v>2589</v>
       </c>
       <c r="D75" s="19" t="s">
-        <v>2596</v>
+        <v>2592</v>
       </c>
       <c r="E75" s="23" t="s">
         <v>481</v>
@@ -18370,7 +18370,7 @@
         <v>2095</v>
       </c>
       <c r="D76" s="19" t="s">
-        <v>2597</v>
+        <v>2593</v>
       </c>
       <c r="E76" s="23" t="s">
         <v>485</v>
@@ -18391,7 +18391,7 @@
         <v>2096</v>
       </c>
       <c r="D77" s="19" t="s">
-        <v>2598</v>
+        <v>2594</v>
       </c>
       <c r="E77" s="23" t="s">
         <v>489</v>
@@ -18412,7 +18412,7 @@
         <v>2097</v>
       </c>
       <c r="D78" s="19" t="s">
-        <v>2600</v>
+        <v>2596</v>
       </c>
       <c r="E78" s="23" t="s">
         <v>493</v>
@@ -18433,7 +18433,7 @@
         <v>2098</v>
       </c>
       <c r="D79" s="19" t="s">
-        <v>2599</v>
+        <v>2595</v>
       </c>
       <c r="E79" s="23" t="s">
         <v>497</v>
@@ -18454,7 +18454,7 @@
         <v>2099</v>
       </c>
       <c r="D80" s="19" t="s">
-        <v>2601</v>
+        <v>2597</v>
       </c>
       <c r="E80" s="23" t="s">
         <v>501</v>
@@ -18475,7 +18475,7 @@
         <v>2100</v>
       </c>
       <c r="D81" s="19" t="s">
-        <v>2602</v>
+        <v>2598</v>
       </c>
       <c r="E81" s="23" t="s">
         <v>505</v>
@@ -18496,7 +18496,7 @@
         <v>2101</v>
       </c>
       <c r="D82" s="19" t="s">
-        <v>2603</v>
+        <v>2599</v>
       </c>
       <c r="E82" s="23" t="s">
         <v>509</v>
@@ -18517,7 +18517,7 @@
         <v>2102</v>
       </c>
       <c r="D83" s="19" t="s">
-        <v>2604</v>
+        <v>2600</v>
       </c>
       <c r="E83" s="23" t="s">
         <v>513</v>
@@ -18535,10 +18535,10 @@
         <v>516</v>
       </c>
       <c r="C84" s="19" t="s">
-        <v>2248</v>
+        <v>2245</v>
       </c>
       <c r="D84" s="19" t="s">
-        <v>2250</v>
+        <v>2247</v>
       </c>
       <c r="E84" s="23" t="s">
         <v>517</v>
@@ -18556,10 +18556,10 @@
         <v>520</v>
       </c>
       <c r="C85" s="19" t="s">
-        <v>2249</v>
+        <v>2246</v>
       </c>
       <c r="D85" s="19" t="s">
-        <v>2251</v>
+        <v>2248</v>
       </c>
       <c r="E85" s="23" t="s">
         <v>521</v>
@@ -18580,7 +18580,7 @@
         <v>2103</v>
       </c>
       <c r="D86" s="19" t="s">
-        <v>2680</v>
+        <v>2676</v>
       </c>
       <c r="E86" s="23" t="s">
         <v>525</v>
@@ -18601,7 +18601,7 @@
         <v>2104</v>
       </c>
       <c r="D87" s="19" t="s">
-        <v>2681</v>
+        <v>2677</v>
       </c>
       <c r="E87" s="23" t="s">
         <v>529</v>
@@ -18622,7 +18622,7 @@
         <v>2105</v>
       </c>
       <c r="D88" s="19" t="s">
-        <v>2682</v>
+        <v>2678</v>
       </c>
       <c r="E88" s="23" t="s">
         <v>533</v>
@@ -18643,7 +18643,7 @@
         <v>2106</v>
       </c>
       <c r="D89" s="19" t="s">
-        <v>2683</v>
+        <v>2679</v>
       </c>
       <c r="E89" s="23" t="s">
         <v>537</v>
@@ -18664,7 +18664,7 @@
         <v>2107</v>
       </c>
       <c r="D90" s="19" t="s">
-        <v>2684</v>
+        <v>2680</v>
       </c>
       <c r="E90" s="23" t="s">
         <v>541</v>
@@ -18685,7 +18685,7 @@
         <v>2103</v>
       </c>
       <c r="D91" s="19" t="s">
-        <v>2680</v>
+        <v>2676</v>
       </c>
       <c r="E91" s="23" t="s">
         <v>544</v>
@@ -18706,7 +18706,7 @@
         <v>2104</v>
       </c>
       <c r="D92" s="19" t="s">
-        <v>2681</v>
+        <v>2677</v>
       </c>
       <c r="E92" s="23" t="s">
         <v>546</v>
@@ -18727,7 +18727,7 @@
         <v>2105</v>
       </c>
       <c r="D93" s="19" t="s">
-        <v>2682</v>
+        <v>2678</v>
       </c>
       <c r="E93" s="23" t="s">
         <v>548</v>
@@ -18748,7 +18748,7 @@
         <v>2106</v>
       </c>
       <c r="D94" s="19" t="s">
-        <v>2683</v>
+        <v>2679</v>
       </c>
       <c r="E94" s="23" t="s">
         <v>550</v>
@@ -18769,7 +18769,7 @@
         <v>2107</v>
       </c>
       <c r="D95" s="19" t="s">
-        <v>2684</v>
+        <v>2680</v>
       </c>
       <c r="E95" s="23" t="s">
         <v>552</v>
@@ -18790,7 +18790,7 @@
         <v>2108</v>
       </c>
       <c r="D96" s="19" t="s">
-        <v>2605</v>
+        <v>2601</v>
       </c>
       <c r="E96" s="23" t="s">
         <v>555</v>
@@ -18811,7 +18811,7 @@
         <v>2109</v>
       </c>
       <c r="D97" s="19" t="s">
-        <v>2606</v>
+        <v>2602</v>
       </c>
       <c r="E97" s="23" t="s">
         <v>559</v>
@@ -18832,7 +18832,7 @@
         <v>2110</v>
       </c>
       <c r="D98" s="19" t="s">
-        <v>2607</v>
+        <v>2603</v>
       </c>
       <c r="E98" s="23" t="s">
         <v>563</v>
@@ -18853,7 +18853,7 @@
         <v>2111</v>
       </c>
       <c r="D99" s="19" t="s">
-        <v>2252</v>
+        <v>2249</v>
       </c>
       <c r="E99" s="23" t="s">
         <v>45</v>
@@ -18874,7 +18874,7 @@
         <v>2112</v>
       </c>
       <c r="D100" s="19" t="s">
-        <v>2253</v>
+        <v>2250</v>
       </c>
       <c r="E100" s="23" t="s">
         <v>47</v>
@@ -18892,10 +18892,10 @@
         <v>569</v>
       </c>
       <c r="C101" s="19" t="s">
-        <v>2350</v>
+        <v>2347</v>
       </c>
       <c r="D101" s="19" t="s">
-        <v>2254</v>
+        <v>2251</v>
       </c>
       <c r="E101" s="23" t="s">
         <v>48</v>
@@ -18916,7 +18916,7 @@
         <v>2113</v>
       </c>
       <c r="D102" s="19" t="s">
-        <v>2255</v>
+        <v>2252</v>
       </c>
       <c r="E102" s="23" t="s">
         <v>50</v>
@@ -18937,7 +18937,7 @@
         <v>2114</v>
       </c>
       <c r="D103" s="19" t="s">
-        <v>2256</v>
+        <v>2253</v>
       </c>
       <c r="E103" s="23" t="s">
         <v>52</v>
@@ -18958,7 +18958,7 @@
         <v>2115</v>
       </c>
       <c r="D104" s="19" t="s">
-        <v>2257</v>
+        <v>2254</v>
       </c>
       <c r="E104" s="23" t="s">
         <v>43</v>
@@ -18979,7 +18979,7 @@
         <v>2116</v>
       </c>
       <c r="D105" s="19" t="s">
-        <v>2608</v>
+        <v>2604</v>
       </c>
       <c r="E105" s="23" t="s">
         <v>54</v>
@@ -19000,7 +19000,7 @@
         <v>2117</v>
       </c>
       <c r="D106" s="19" t="s">
-        <v>2609</v>
+        <v>2605</v>
       </c>
       <c r="E106" s="23" t="s">
         <v>56</v>
@@ -19021,7 +19021,7 @@
         <v>2118</v>
       </c>
       <c r="D107" s="19" t="s">
-        <v>2610</v>
+        <v>2606</v>
       </c>
       <c r="E107" s="23" t="s">
         <v>58</v>
@@ -19039,10 +19039,10 @@
         <v>584</v>
       </c>
       <c r="C108" s="19" t="s">
-        <v>2352</v>
+        <v>2349</v>
       </c>
       <c r="D108" s="19" t="s">
-        <v>2685</v>
+        <v>2681</v>
       </c>
       <c r="E108" s="23" t="s">
         <v>60</v>
@@ -19063,7 +19063,7 @@
         <v>2119</v>
       </c>
       <c r="D109" s="19" t="s">
-        <v>2611</v>
+        <v>2607</v>
       </c>
       <c r="E109" s="23" t="s">
         <v>62</v>
@@ -19081,10 +19081,10 @@
         <v>589</v>
       </c>
       <c r="C110" s="19" t="s">
-        <v>2258</v>
+        <v>2255</v>
       </c>
       <c r="D110" s="19" t="s">
-        <v>2262</v>
+        <v>2259</v>
       </c>
       <c r="E110" s="23" t="s">
         <v>590</v>
@@ -19102,10 +19102,10 @@
         <v>593</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>2259</v>
+        <v>2256</v>
       </c>
       <c r="D111" s="19" t="s">
-        <v>2612</v>
+        <v>2608</v>
       </c>
       <c r="E111" s="23" t="s">
         <v>592</v>
@@ -19123,10 +19123,10 @@
         <v>593</v>
       </c>
       <c r="C112" s="19" t="s">
-        <v>2260</v>
+        <v>2257</v>
       </c>
       <c r="D112" s="19" t="s">
-        <v>2612</v>
+        <v>2608</v>
       </c>
       <c r="E112" s="23" t="s">
         <v>595</v>
@@ -19144,10 +19144,10 @@
         <v>597</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>2261</v>
+        <v>2258</v>
       </c>
       <c r="D113" s="19" t="s">
-        <v>2613</v>
+        <v>2609</v>
       </c>
       <c r="E113" s="23" t="s">
         <v>598</v>
@@ -19165,10 +19165,10 @@
         <v>601</v>
       </c>
       <c r="C114" s="19" t="s">
-        <v>2619</v>
+        <v>2615</v>
       </c>
       <c r="D114" s="19" t="s">
-        <v>2614</v>
+        <v>2610</v>
       </c>
       <c r="E114" s="23" t="s">
         <v>602</v>
@@ -19186,10 +19186,10 @@
         <v>589</v>
       </c>
       <c r="C115" s="19" t="s">
-        <v>2620</v>
+        <v>2616</v>
       </c>
       <c r="D115" s="19" t="s">
-        <v>2615</v>
+        <v>2611</v>
       </c>
       <c r="E115" s="23" t="s">
         <v>605</v>
@@ -19207,10 +19207,10 @@
         <v>607</v>
       </c>
       <c r="C116" s="19" t="s">
-        <v>2621</v>
+        <v>2617</v>
       </c>
       <c r="D116" s="19" t="s">
-        <v>2616</v>
+        <v>2612</v>
       </c>
       <c r="E116" s="23" t="s">
         <v>606</v>
@@ -19228,10 +19228,10 @@
         <v>597</v>
       </c>
       <c r="C117" s="19" t="s">
-        <v>2622</v>
+        <v>2618</v>
       </c>
       <c r="D117" s="19" t="s">
-        <v>2613</v>
+        <v>2609</v>
       </c>
       <c r="E117" s="23" t="s">
         <v>610</v>
@@ -19249,10 +19249,10 @@
         <v>601</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>2623</v>
+        <v>2619</v>
       </c>
       <c r="D118" s="19" t="s">
-        <v>2614</v>
+        <v>2610</v>
       </c>
       <c r="E118" s="23" t="s">
         <v>612</v>
@@ -19270,10 +19270,10 @@
         <v>614</v>
       </c>
       <c r="C119" s="19" t="s">
-        <v>2624</v>
+        <v>2620</v>
       </c>
       <c r="D119" s="19" t="s">
-        <v>2617</v>
+        <v>2613</v>
       </c>
       <c r="E119" s="23" t="s">
         <v>613</v>
@@ -19291,10 +19291,10 @@
         <v>617</v>
       </c>
       <c r="C120" s="19" t="s">
-        <v>2625</v>
+        <v>2621</v>
       </c>
       <c r="D120" s="19" t="s">
-        <v>2618</v>
+        <v>2614</v>
       </c>
       <c r="E120" s="23" t="s">
         <v>616</v>
@@ -19315,7 +19315,7 @@
         <v>2120</v>
       </c>
       <c r="D121" s="19" t="s">
-        <v>2626</v>
+        <v>2622</v>
       </c>
       <c r="E121" s="23" t="s">
         <v>621</v>
@@ -19336,7 +19336,7 @@
         <v>2121</v>
       </c>
       <c r="D122" s="19" t="s">
-        <v>2627</v>
+        <v>2623</v>
       </c>
       <c r="E122" s="25" t="s">
         <v>625</v>
@@ -19357,7 +19357,7 @@
         <v>2122</v>
       </c>
       <c r="D123" s="19" t="s">
-        <v>2628</v>
+        <v>2624</v>
       </c>
       <c r="E123" s="25" t="s">
         <v>629</v>
@@ -19378,7 +19378,7 @@
         <v>2123</v>
       </c>
       <c r="D124" s="19" t="s">
-        <v>2629</v>
+        <v>2625</v>
       </c>
       <c r="E124" s="25" t="s">
         <v>633</v>
@@ -19399,7 +19399,7 @@
         <v>2124</v>
       </c>
       <c r="D125" s="19" t="s">
-        <v>2630</v>
+        <v>2626</v>
       </c>
       <c r="E125" s="25" t="s">
         <v>637</v>
@@ -19420,7 +19420,7 @@
         <v>2125</v>
       </c>
       <c r="D126" s="19" t="s">
-        <v>2631</v>
+        <v>2627</v>
       </c>
       <c r="E126" s="25" t="s">
         <v>641</v>
@@ -19441,7 +19441,7 @@
         <v>2126</v>
       </c>
       <c r="D127" s="19" t="s">
-        <v>2632</v>
+        <v>2628</v>
       </c>
       <c r="E127" s="25" t="s">
         <v>645</v>
@@ -19457,7 +19457,7 @@
       </c>
       <c r="B128" s="22"/>
       <c r="C128" s="19" t="s">
-        <v>2633</v>
+        <v>2629</v>
       </c>
       <c r="D128" s="19"/>
       <c r="E128" s="23" t="s">
@@ -19472,7 +19472,7 @@
       </c>
       <c r="B129" s="22"/>
       <c r="C129" s="19" t="s">
-        <v>2634</v>
+        <v>2630</v>
       </c>
       <c r="D129" s="19"/>
       <c r="E129" s="23" t="s">
@@ -19487,7 +19487,7 @@
       </c>
       <c r="B130" s="22"/>
       <c r="C130" s="19" t="s">
-        <v>2635</v>
+        <v>2631</v>
       </c>
       <c r="D130" s="19"/>
       <c r="E130" s="23" t="s">
@@ -19502,7 +19502,7 @@
       </c>
       <c r="B131" s="22"/>
       <c r="C131" s="19" t="s">
-        <v>2636</v>
+        <v>2632</v>
       </c>
       <c r="D131" s="19"/>
       <c r="E131" s="23" t="s">
@@ -19517,7 +19517,7 @@
       </c>
       <c r="B132" s="22"/>
       <c r="C132" s="19" t="s">
-        <v>2637</v>
+        <v>2633</v>
       </c>
       <c r="D132" s="19"/>
       <c r="E132" s="23" t="s">
@@ -19532,7 +19532,7 @@
       </c>
       <c r="B133" s="22"/>
       <c r="C133" s="19" t="s">
-        <v>2638</v>
+        <v>2634</v>
       </c>
       <c r="D133" s="19"/>
       <c r="E133" s="23" t="s">
@@ -19547,7 +19547,7 @@
       </c>
       <c r="B134" s="22"/>
       <c r="C134" s="19" t="s">
-        <v>2639</v>
+        <v>2635</v>
       </c>
       <c r="D134" s="19"/>
       <c r="E134" s="23" t="s">
@@ -19562,7 +19562,7 @@
       </c>
       <c r="B135" s="22"/>
       <c r="C135" s="19" t="s">
-        <v>2640</v>
+        <v>2636</v>
       </c>
       <c r="D135" s="19"/>
       <c r="E135" s="23" t="s">
@@ -19577,7 +19577,7 @@
       </c>
       <c r="B136" s="22"/>
       <c r="C136" s="19" t="s">
-        <v>2641</v>
+        <v>2637</v>
       </c>
       <c r="D136" s="19"/>
       <c r="E136" s="23" t="s">
@@ -19592,7 +19592,7 @@
       </c>
       <c r="B137" s="22"/>
       <c r="C137" s="19" t="s">
-        <v>2642</v>
+        <v>2638</v>
       </c>
       <c r="D137" s="19"/>
       <c r="E137" s="23" t="s">
@@ -19607,7 +19607,7 @@
       </c>
       <c r="B138" s="22"/>
       <c r="C138" s="19" t="s">
-        <v>2643</v>
+        <v>2639</v>
       </c>
       <c r="D138" s="19"/>
       <c r="E138" s="23" t="s">
@@ -19622,7 +19622,7 @@
       </c>
       <c r="B139" s="22"/>
       <c r="C139" s="19" t="s">
-        <v>2644</v>
+        <v>2640</v>
       </c>
       <c r="D139" s="19"/>
       <c r="E139" s="23" t="s">
@@ -19637,7 +19637,7 @@
       </c>
       <c r="B140" s="22"/>
       <c r="C140" s="19" t="s">
-        <v>2645</v>
+        <v>2641</v>
       </c>
       <c r="D140" s="19"/>
       <c r="E140" s="23" t="s">
@@ -19652,7 +19652,7 @@
       </c>
       <c r="B141" s="22"/>
       <c r="C141" s="19" t="s">
-        <v>2646</v>
+        <v>2642</v>
       </c>
       <c r="D141" s="19"/>
       <c r="E141" s="23" t="s">
@@ -19672,7 +19672,7 @@
         <v>2127</v>
       </c>
       <c r="D142" s="19" t="s">
-        <v>2223</v>
+        <v>2220</v>
       </c>
       <c r="E142" s="23" t="s">
         <v>677</v>
@@ -19693,7 +19693,7 @@
         <v>2128</v>
       </c>
       <c r="D143" s="19" t="s">
-        <v>2224</v>
+        <v>2221</v>
       </c>
       <c r="E143" s="23" t="s">
         <v>681</v>
@@ -19714,7 +19714,7 @@
         <v>2129</v>
       </c>
       <c r="D144" s="19" t="s">
-        <v>2225</v>
+        <v>2222</v>
       </c>
       <c r="E144" s="23" t="s">
         <v>685</v>
@@ -19735,7 +19735,7 @@
         <v>2130</v>
       </c>
       <c r="D145" s="19" t="s">
-        <v>2647</v>
+        <v>2643</v>
       </c>
       <c r="E145" s="23" t="s">
         <v>689</v>
@@ -19756,7 +19756,7 @@
         <v>2131</v>
       </c>
       <c r="D146" s="19" t="s">
-        <v>2649</v>
+        <v>2645</v>
       </c>
       <c r="E146" s="27" t="s">
         <v>693</v>
@@ -19777,7 +19777,7 @@
         <v>2132</v>
       </c>
       <c r="D147" s="19" t="s">
-        <v>2648</v>
+        <v>2644</v>
       </c>
       <c r="E147" s="23" t="s">
         <v>697</v>
@@ -19798,7 +19798,7 @@
         <v>2133</v>
       </c>
       <c r="D148" s="19" t="s">
-        <v>2235</v>
+        <v>2232</v>
       </c>
       <c r="E148" s="23" t="s">
         <v>701</v>
@@ -19819,7 +19819,7 @@
         <v>2134</v>
       </c>
       <c r="D149" s="19" t="s">
-        <v>2236</v>
+        <v>2233</v>
       </c>
       <c r="E149" s="23" t="s">
         <v>705</v>
@@ -19840,7 +19840,7 @@
         <v>2135</v>
       </c>
       <c r="D150" s="19" t="s">
-        <v>2237</v>
+        <v>2234</v>
       </c>
       <c r="E150" s="23" t="s">
         <v>709</v>
@@ -19861,7 +19861,7 @@
         <v>2136</v>
       </c>
       <c r="D151" s="19" t="s">
-        <v>2238</v>
+        <v>2235</v>
       </c>
       <c r="E151" s="23" t="s">
         <v>713</v>
@@ -19882,7 +19882,7 @@
         <v>2137</v>
       </c>
       <c r="D152" s="19" t="s">
-        <v>2239</v>
+        <v>2236</v>
       </c>
       <c r="E152" s="23" t="s">
         <v>717</v>
@@ -19900,10 +19900,10 @@
         <v>720</v>
       </c>
       <c r="C153" s="19" t="s">
-        <v>2701</v>
+        <v>2697</v>
       </c>
       <c r="D153" s="19" t="s">
-        <v>2240</v>
+        <v>2237</v>
       </c>
       <c r="E153" s="23" t="s">
         <v>721</v>
@@ -19924,7 +19924,7 @@
         <v>2138</v>
       </c>
       <c r="D154" s="19" t="s">
-        <v>2241</v>
+        <v>2238</v>
       </c>
       <c r="E154" s="27" t="s">
         <v>725</v>
@@ -19945,7 +19945,7 @@
         <v>2139</v>
       </c>
       <c r="D155" s="19" t="s">
-        <v>2235</v>
+        <v>2232</v>
       </c>
       <c r="E155" s="23" t="s">
         <v>728</v>
@@ -19966,7 +19966,7 @@
         <v>2140</v>
       </c>
       <c r="D156" s="19" t="s">
-        <v>2226</v>
+        <v>2223</v>
       </c>
       <c r="E156" s="23" t="s">
         <v>731</v>
@@ -19987,7 +19987,7 @@
         <v>2141</v>
       </c>
       <c r="D157" s="19" t="s">
-        <v>2650</v>
+        <v>2646</v>
       </c>
       <c r="E157" s="23" t="s">
         <v>735</v>
@@ -20008,7 +20008,7 @@
         <v>2142</v>
       </c>
       <c r="D158" s="19" t="s">
-        <v>2650</v>
+        <v>2646</v>
       </c>
       <c r="E158" s="23" t="s">
         <v>738</v>
@@ -20029,7 +20029,7 @@
         <v>2143</v>
       </c>
       <c r="D159" s="19" t="s">
-        <v>2651</v>
+        <v>2647</v>
       </c>
       <c r="E159" s="23" t="s">
         <v>741</v>
@@ -20050,7 +20050,7 @@
         <v>2144</v>
       </c>
       <c r="D160" s="19" t="s">
-        <v>2242</v>
+        <v>2239</v>
       </c>
       <c r="E160" s="23" t="s">
         <v>745</v>
@@ -20071,7 +20071,7 @@
         <v>2145</v>
       </c>
       <c r="D161" s="19" t="s">
-        <v>2243</v>
+        <v>2240</v>
       </c>
       <c r="E161" s="23" t="s">
         <v>748</v>
@@ -20092,7 +20092,7 @@
         <v>2146</v>
       </c>
       <c r="D162" s="19" t="s">
-        <v>2245</v>
+        <v>2242</v>
       </c>
       <c r="E162" s="23" t="s">
         <v>751</v>
@@ -20113,7 +20113,7 @@
         <v>2147</v>
       </c>
       <c r="D163" s="19" t="s">
-        <v>2244</v>
+        <v>2241</v>
       </c>
       <c r="E163" s="23" t="s">
         <v>755</v>
@@ -20131,10 +20131,10 @@
         <v>758</v>
       </c>
       <c r="C164" s="19" t="s">
-        <v>2148</v>
+        <v>2895</v>
       </c>
       <c r="D164" s="19" t="s">
-        <v>2234</v>
+        <v>2231</v>
       </c>
       <c r="E164" s="23" t="s">
         <v>759</v>
@@ -20152,10 +20152,10 @@
         <v>762</v>
       </c>
       <c r="C165" s="19" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="D165" s="19" t="s">
-        <v>2652</v>
+        <v>2648</v>
       </c>
       <c r="E165" s="23" t="s">
         <v>763</v>
@@ -20173,10 +20173,10 @@
         <v>766</v>
       </c>
       <c r="C166" s="19" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="D166" s="19" t="s">
-        <v>2653</v>
+        <v>2649</v>
       </c>
       <c r="E166" s="23" t="s">
         <v>767</v>
@@ -20194,10 +20194,10 @@
         <v>766</v>
       </c>
       <c r="C167" s="19" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="D167" s="19" t="s">
-        <v>2653</v>
+        <v>2649</v>
       </c>
       <c r="E167" s="23" t="s">
         <v>770</v>
@@ -20215,10 +20215,10 @@
         <v>772</v>
       </c>
       <c r="C168" s="19" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="D168" s="19" t="s">
-        <v>2227</v>
+        <v>2224</v>
       </c>
       <c r="E168" s="23" t="s">
         <v>773</v>
@@ -20236,10 +20236,10 @@
         <v>776</v>
       </c>
       <c r="C169" s="19" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="D169" s="19" t="s">
-        <v>2654</v>
+        <v>2650</v>
       </c>
       <c r="E169" s="23" t="s">
         <v>777</v>
@@ -20257,10 +20257,10 @@
         <v>780</v>
       </c>
       <c r="C170" s="19" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="D170" s="19" t="s">
-        <v>2657</v>
+        <v>2653</v>
       </c>
       <c r="E170" s="23" t="s">
         <v>781</v>
@@ -20276,10 +20276,10 @@
         <v>783</v>
       </c>
       <c r="C171" s="19" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="D171" s="19" t="s">
-        <v>2656</v>
+        <v>2652</v>
       </c>
       <c r="E171" s="23" t="s">
         <v>784</v>
@@ -20295,10 +20295,10 @@
         <v>786</v>
       </c>
       <c r="C172" s="19" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="D172" s="19" t="s">
-        <v>2655</v>
+        <v>2651</v>
       </c>
       <c r="E172" s="23" t="s">
         <v>787</v>
@@ -20314,10 +20314,10 @@
         <v>788</v>
       </c>
       <c r="C173" s="19" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="D173" s="19" t="s">
-        <v>2687</v>
+        <v>2683</v>
       </c>
       <c r="E173" s="23" t="s">
         <v>787</v>
@@ -20333,10 +20333,10 @@
         <v>790</v>
       </c>
       <c r="C174" s="19" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="D174" s="19" t="s">
-        <v>2658</v>
+        <v>2654</v>
       </c>
       <c r="E174" s="23" t="s">
         <v>791</v>
@@ -20352,10 +20352,10 @@
         <v>793</v>
       </c>
       <c r="C175" s="19" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="D175" s="19" t="s">
-        <v>2686</v>
+        <v>2682</v>
       </c>
       <c r="E175" s="23" t="s">
         <v>794</v>
@@ -20371,10 +20371,10 @@
         <v>795</v>
       </c>
       <c r="C176" s="19" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="D176" s="19" t="s">
-        <v>2688</v>
+        <v>2684</v>
       </c>
       <c r="E176" s="23" t="s">
         <v>794</v>
@@ -20390,10 +20390,10 @@
         <v>797</v>
       </c>
       <c r="C177" s="19" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="D177" s="19" t="s">
-        <v>2689</v>
+        <v>2685</v>
       </c>
       <c r="E177" s="23" t="s">
         <v>798</v>
@@ -20409,10 +20409,10 @@
         <v>800</v>
       </c>
       <c r="C178" s="19" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="D178" s="19" t="s">
-        <v>2659</v>
+        <v>2655</v>
       </c>
       <c r="E178" s="23" t="s">
         <v>801</v>
@@ -20430,10 +20430,10 @@
         <v>804</v>
       </c>
       <c r="C179" s="19" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="D179" s="19" t="s">
-        <v>2660</v>
+        <v>2656</v>
       </c>
       <c r="E179" s="25" t="s">
         <v>805</v>
@@ -20451,10 +20451,10 @@
         <v>808</v>
       </c>
       <c r="C180" s="19" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="D180" s="19" t="s">
-        <v>2661</v>
+        <v>2657</v>
       </c>
       <c r="E180" s="25" t="s">
         <v>809</v>
@@ -20472,10 +20472,10 @@
         <v>812</v>
       </c>
       <c r="C181" s="19" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="D181" s="19" t="s">
-        <v>2662</v>
+        <v>2658</v>
       </c>
       <c r="E181" s="23" t="s">
         <v>813</v>
@@ -20493,10 +20493,10 @@
         <v>816</v>
       </c>
       <c r="C182" s="19" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="D182" s="19" t="s">
-        <v>2668</v>
+        <v>2664</v>
       </c>
       <c r="E182" s="23" t="s">
         <v>817</v>
@@ -20514,10 +20514,10 @@
         <v>820</v>
       </c>
       <c r="C183" s="19" t="s">
-        <v>2665</v>
+        <v>2661</v>
       </c>
       <c r="D183" s="19" t="s">
-        <v>2666</v>
+        <v>2662</v>
       </c>
       <c r="E183" s="23" t="s">
         <v>821</v>
@@ -20535,10 +20535,10 @@
         <v>824</v>
       </c>
       <c r="C184" s="19" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="D184" s="19" t="s">
-        <v>2664</v>
+        <v>2660</v>
       </c>
       <c r="E184" s="23" t="s">
         <v>825</v>
@@ -20556,10 +20556,10 @@
         <v>828</v>
       </c>
       <c r="C185" s="19" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="D185" s="19" t="s">
-        <v>2663</v>
+        <v>2659</v>
       </c>
       <c r="E185" s="23" t="s">
         <v>829</v>
@@ -20577,10 +20577,10 @@
         <v>832</v>
       </c>
       <c r="C186" s="19" t="s">
-        <v>2168</v>
+        <v>2896</v>
       </c>
       <c r="D186" s="19" t="s">
-        <v>2667</v>
+        <v>2663</v>
       </c>
       <c r="E186" s="23" t="s">
         <v>833</v>
@@ -20598,10 +20598,10 @@
         <v>836</v>
       </c>
       <c r="C187" s="19" t="s">
-        <v>2169</v>
+        <v>2167</v>
       </c>
       <c r="D187" s="19" t="s">
-        <v>2669</v>
+        <v>2665</v>
       </c>
       <c r="E187" s="23" t="s">
         <v>837</v>
@@ -20619,10 +20619,10 @@
         <v>840</v>
       </c>
       <c r="C188" s="19" t="s">
-        <v>2170</v>
+        <v>2168</v>
       </c>
       <c r="D188" s="19" t="s">
-        <v>2670</v>
+        <v>2666</v>
       </c>
       <c r="E188" s="23" t="s">
         <v>841</v>
@@ -20640,10 +20640,10 @@
         <v>844</v>
       </c>
       <c r="C189" s="19" t="s">
-        <v>2171</v>
+        <v>2169</v>
       </c>
       <c r="D189" s="19" t="s">
-        <v>2671</v>
+        <v>2667</v>
       </c>
       <c r="E189" s="23" t="s">
         <v>845</v>
@@ -20661,10 +20661,10 @@
         <v>848</v>
       </c>
       <c r="C190" s="19" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
       <c r="D190" s="19" t="s">
-        <v>2672</v>
+        <v>2668</v>
       </c>
       <c r="E190" s="23" t="s">
         <v>849</v>
@@ -20682,10 +20682,10 @@
         <v>852</v>
       </c>
       <c r="C191" s="19" t="s">
-        <v>2173</v>
+        <v>2171</v>
       </c>
       <c r="D191" s="19" t="s">
-        <v>2228</v>
+        <v>2225</v>
       </c>
       <c r="E191" s="23" t="s">
         <v>853</v>
@@ -20705,10 +20705,10 @@
         <v>856</v>
       </c>
       <c r="C192" s="19" t="s">
-        <v>2173</v>
+        <v>2171</v>
       </c>
       <c r="D192" s="19" t="s">
-        <v>2231</v>
+        <v>2228</v>
       </c>
       <c r="E192" s="27" t="s">
         <v>853</v>
@@ -20728,10 +20728,10 @@
         <v>860</v>
       </c>
       <c r="C193" s="19" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
       <c r="D193" s="19" t="s">
-        <v>2673</v>
+        <v>2669</v>
       </c>
       <c r="E193" s="23" t="s">
         <v>861</v>
@@ -20749,10 +20749,10 @@
         <v>864</v>
       </c>
       <c r="C194" s="19" t="s">
-        <v>2175</v>
+        <v>2173</v>
       </c>
       <c r="D194" s="19" t="s">
-        <v>2674</v>
+        <v>2670</v>
       </c>
       <c r="E194" s="23" t="s">
         <v>865</v>
@@ -20770,10 +20770,10 @@
         <v>868</v>
       </c>
       <c r="C195" s="19" t="s">
-        <v>2176</v>
+        <v>2174</v>
       </c>
       <c r="D195" s="19" t="s">
-        <v>2675</v>
+        <v>2671</v>
       </c>
       <c r="E195" s="23" t="s">
         <v>869</v>
@@ -20791,10 +20791,10 @@
         <v>872</v>
       </c>
       <c r="C196" s="19" t="s">
-        <v>2177</v>
+        <v>2175</v>
       </c>
       <c r="D196" s="19" t="s">
-        <v>2676</v>
+        <v>2672</v>
       </c>
       <c r="E196" s="23" t="s">
         <v>873</v>
@@ -20812,10 +20812,10 @@
         <v>876</v>
       </c>
       <c r="C197" s="19" t="s">
-        <v>2178</v>
+        <v>2176</v>
       </c>
       <c r="D197" s="19" t="s">
-        <v>2677</v>
+        <v>2673</v>
       </c>
       <c r="E197" s="23" t="s">
         <v>875</v>
@@ -20833,10 +20833,10 @@
         <v>879</v>
       </c>
       <c r="C198" s="19" t="s">
-        <v>2179</v>
+        <v>2894</v>
       </c>
       <c r="D198" s="19" t="s">
-        <v>2690</v>
+        <v>2686</v>
       </c>
       <c r="E198" s="23" t="s">
         <v>880</v>
@@ -20854,10 +20854,10 @@
         <v>883</v>
       </c>
       <c r="C199" s="19" t="s">
-        <v>2180</v>
+        <v>2177</v>
       </c>
       <c r="D199" s="19" t="s">
-        <v>2691</v>
+        <v>2687</v>
       </c>
       <c r="E199" s="23" t="s">
         <v>884</v>
@@ -20875,10 +20875,10 @@
         <v>887</v>
       </c>
       <c r="C200" s="19" t="s">
-        <v>2181</v>
+        <v>2178</v>
       </c>
       <c r="D200" s="19" t="s">
-        <v>2692</v>
+        <v>2688</v>
       </c>
       <c r="E200" s="23" t="s">
         <v>888</v>
@@ -20896,10 +20896,10 @@
         <v>891</v>
       </c>
       <c r="C201" s="19" t="s">
-        <v>2182</v>
+        <v>2179</v>
       </c>
       <c r="D201" s="19" t="s">
-        <v>2693</v>
+        <v>2689</v>
       </c>
       <c r="E201" s="23" t="s">
         <v>892</v>
@@ -20917,10 +20917,10 @@
         <v>895</v>
       </c>
       <c r="C202" s="19" t="s">
-        <v>2183</v>
+        <v>2180</v>
       </c>
       <c r="D202" s="19" t="s">
-        <v>2232</v>
+        <v>2229</v>
       </c>
       <c r="E202" s="23" t="s">
         <v>896</v>
@@ -20938,10 +20938,10 @@
         <v>899</v>
       </c>
       <c r="C203" s="19" t="s">
-        <v>2184</v>
+        <v>2181</v>
       </c>
       <c r="D203" s="19" t="s">
-        <v>2233</v>
+        <v>2230</v>
       </c>
       <c r="E203" s="23" t="s">
         <v>900</v>
@@ -20963,7 +20963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
@@ -21008,7 +21008,7 @@
         <v>904</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>2403</v>
+        <v>2400</v>
       </c>
       <c r="F2" s="29" t="s">
         <v>905</v>
@@ -21022,7 +21022,7 @@
         <v>906</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>2404</v>
+        <v>2401</v>
       </c>
       <c r="F3" s="29" t="s">
         <v>907</v>
@@ -21042,7 +21042,7 @@
         <v>910</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>2864</v>
+        <v>2860</v>
       </c>
       <c r="F4" s="29" t="s">
         <v>911</v>
@@ -21056,7 +21056,7 @@
         <v>912</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>2865</v>
+        <v>2861</v>
       </c>
       <c r="F5" s="29" t="s">
         <v>913</v>
@@ -21072,7 +21072,7 @@
         <v>910</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>2864</v>
+        <v>2860</v>
       </c>
       <c r="F6" s="29" t="s">
         <v>911</v>
@@ -21086,7 +21086,7 @@
         <v>912</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>2865</v>
+        <v>2861</v>
       </c>
       <c r="F7" s="29" t="s">
         <v>913</v>
@@ -21104,7 +21104,7 @@
         <v>916</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>2405</v>
+        <v>2402</v>
       </c>
       <c r="F8" s="23" t="s">
         <v>917</v>
@@ -21118,7 +21118,7 @@
         <v>918</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>2406</v>
+        <v>2403</v>
       </c>
       <c r="F9" s="23" t="s">
         <v>919</v>
@@ -21138,7 +21138,7 @@
         <v>921</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>2867</v>
+        <v>2863</v>
       </c>
       <c r="F10" s="23" t="s">
         <v>922</v>
@@ -21152,7 +21152,7 @@
         <v>923</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>2866</v>
+        <v>2862</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>924</v>
@@ -21168,7 +21168,7 @@
         <v>921</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>2867</v>
+        <v>2863</v>
       </c>
       <c r="F12" s="23" t="s">
         <v>922</v>
@@ -21182,7 +21182,7 @@
         <v>923</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>2866</v>
+        <v>2862</v>
       </c>
       <c r="F13" s="23" t="s">
         <v>924</v>
@@ -21198,7 +21198,7 @@
         <v>921</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>2867</v>
+        <v>2863</v>
       </c>
       <c r="F14" s="23" t="s">
         <v>922</v>
@@ -21212,7 +21212,7 @@
         <v>921</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>2867</v>
+        <v>2863</v>
       </c>
       <c r="F15" s="23" t="s">
         <v>922</v>
@@ -21232,7 +21232,7 @@
         <v>929</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>2868</v>
+        <v>2864</v>
       </c>
       <c r="F16" s="23" t="s">
         <v>930</v>
@@ -21246,7 +21246,7 @@
         <v>931</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>2869</v>
+        <v>2865</v>
       </c>
       <c r="F17" s="23" t="s">
         <v>924</v>
@@ -21264,7 +21264,7 @@
         <v>933</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>2871</v>
+        <v>2867</v>
       </c>
       <c r="F18" s="23" t="s">
         <v>934</v>
@@ -21278,7 +21278,7 @@
         <v>935</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>2870</v>
+        <v>2866</v>
       </c>
       <c r="F19" s="32" t="s">
         <v>936</v>
@@ -21296,7 +21296,7 @@
         <v>938</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>2871</v>
+        <v>2867</v>
       </c>
       <c r="F20" s="32" t="s">
         <v>939</v>
@@ -21310,7 +21310,7 @@
         <v>940</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>2872</v>
+        <v>2868</v>
       </c>
       <c r="F21" s="32" t="s">
         <v>941</v>
@@ -21326,7 +21326,7 @@
         <v>938</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>2871</v>
+        <v>2867</v>
       </c>
       <c r="F22" s="32" t="s">
         <v>939</v>
@@ -21340,7 +21340,7 @@
         <v>940</v>
       </c>
       <c r="E23" s="40" t="s">
-        <v>2872</v>
+        <v>2868</v>
       </c>
       <c r="F23" s="32" t="s">
         <v>941</v>
@@ -21358,7 +21358,7 @@
         <v>944</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>2873</v>
+        <v>2869</v>
       </c>
       <c r="F24" s="32" t="s">
         <v>945</v>
@@ -21372,7 +21372,7 @@
         <v>935</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>2870</v>
+        <v>2866</v>
       </c>
       <c r="F25" s="32" t="s">
         <v>936</v>
@@ -21392,7 +21392,7 @@
         <v>948</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>2874</v>
+        <v>2870</v>
       </c>
       <c r="F26" s="32" t="s">
         <v>949</v>
@@ -21408,7 +21408,7 @@
         <v>951</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>2876</v>
+        <v>2872</v>
       </c>
       <c r="F27" s="32" t="s">
         <v>952</v>
@@ -21422,7 +21422,7 @@
         <v>953</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>2875</v>
+        <v>2871</v>
       </c>
       <c r="F28" s="32" t="s">
         <v>954</v>
@@ -21438,7 +21438,7 @@
         <v>956</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>2877</v>
+        <v>2873</v>
       </c>
       <c r="F29" s="32" t="s">
         <v>957</v>
@@ -21454,7 +21454,7 @@
         <v>959</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>2878</v>
+        <v>2874</v>
       </c>
       <c r="F30" s="32" t="s">
         <v>930</v>
@@ -21468,7 +21468,7 @@
         <v>960</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>2879</v>
+        <v>2875</v>
       </c>
       <c r="F31" s="32" t="s">
         <v>961</v>
@@ -21488,7 +21488,7 @@
         <v>963</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>2880</v>
+        <v>2876</v>
       </c>
       <c r="F32" s="32" t="s">
         <v>964</v>
@@ -21504,7 +21504,7 @@
         <v>966</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>2881</v>
+        <v>2877</v>
       </c>
       <c r="F33" s="32" t="s">
         <v>967</v>
@@ -21518,7 +21518,7 @@
         <v>968</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>2882</v>
+        <v>2878</v>
       </c>
       <c r="F34" s="32" t="s">
         <v>969</v>
@@ -21536,7 +21536,7 @@
         <v>970</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>2883</v>
+        <v>2879</v>
       </c>
       <c r="F35" s="32" t="s">
         <v>971</v>
@@ -21550,7 +21550,7 @@
         <v>972</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>2884</v>
+        <v>2880</v>
       </c>
       <c r="F36" s="32" t="s">
         <v>973</v>
@@ -21570,7 +21570,7 @@
         <v>975</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>2885</v>
+        <v>2881</v>
       </c>
       <c r="F37" s="32" t="s">
         <v>976</v>
@@ -21584,7 +21584,7 @@
         <v>977</v>
       </c>
       <c r="E38" s="40" t="s">
-        <v>2886</v>
+        <v>2882</v>
       </c>
       <c r="F38" s="32" t="s">
         <v>978</v>
@@ -21602,7 +21602,7 @@
         <v>929</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>2887</v>
+        <v>2883</v>
       </c>
       <c r="F39" s="23" t="s">
         <v>980</v>
@@ -21616,7 +21616,7 @@
         <v>968</v>
       </c>
       <c r="E40" s="40" t="s">
-        <v>2882</v>
+        <v>2878</v>
       </c>
       <c r="F40" s="23" t="s">
         <v>981</v>
@@ -21634,7 +21634,7 @@
         <v>929</v>
       </c>
       <c r="E41" s="40" t="s">
-        <v>2887</v>
+        <v>2883</v>
       </c>
       <c r="F41" s="23" t="s">
         <v>980</v>
@@ -21648,7 +21648,7 @@
         <v>983</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>2888</v>
+        <v>2884</v>
       </c>
       <c r="F42" s="23" t="s">
         <v>984</v>
@@ -21668,7 +21668,7 @@
         <v>987</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>2889</v>
+        <v>2885</v>
       </c>
       <c r="F43" s="23" t="s">
         <v>988</v>
@@ -21682,7 +21682,7 @@
         <v>989</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>2890</v>
+        <v>2886</v>
       </c>
       <c r="F44" s="23" t="s">
         <v>990</v>
@@ -21696,7 +21696,7 @@
         <v>991</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>2891</v>
+        <v>2887</v>
       </c>
       <c r="F45" s="23" t="s">
         <v>992</v>
@@ -21714,7 +21714,7 @@
         <v>995</v>
       </c>
       <c r="E46" s="40" t="s">
-        <v>2893</v>
+        <v>2889</v>
       </c>
       <c r="F46" s="23" t="s">
         <v>1999</v>
@@ -21728,7 +21728,7 @@
         <v>997</v>
       </c>
       <c r="E47" s="40" t="s">
-        <v>2892</v>
+        <v>2888</v>
       </c>
       <c r="F47" s="23" t="s">
         <v>998</v>
@@ -21746,7 +21746,7 @@
         <v>995</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>2893</v>
+        <v>2889</v>
       </c>
       <c r="F48" s="23" t="s">
         <v>996</v>
@@ -21760,7 +21760,7 @@
         <v>997</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>2892</v>
+        <v>2888</v>
       </c>
       <c r="F49" s="23" t="s">
         <v>998</v>
@@ -21778,7 +21778,7 @@
         <v>1001</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>2894</v>
+        <v>2890</v>
       </c>
       <c r="F50" s="23" t="s">
         <v>1002</v>
@@ -21792,7 +21792,7 @@
         <v>1003</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>2895</v>
+        <v>2891</v>
       </c>
       <c r="F51" s="23" t="s">
         <v>1004</v>
@@ -21810,7 +21810,7 @@
         <v>1006</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>2897</v>
+        <v>2893</v>
       </c>
       <c r="F52" s="23" t="s">
         <v>1007</v>
@@ -21824,7 +21824,7 @@
         <v>1008</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>2896</v>
+        <v>2892</v>
       </c>
       <c r="F53" s="23" t="s">
         <v>1009</v>
@@ -21842,7 +21842,7 @@
         <v>1006</v>
       </c>
       <c r="E54" s="40" t="s">
-        <v>2897</v>
+        <v>2893</v>
       </c>
       <c r="F54" s="23" t="s">
         <v>1007</v>
@@ -21856,7 +21856,7 @@
         <v>1008</v>
       </c>
       <c r="E55" s="40" t="s">
-        <v>2896</v>
+        <v>2892</v>
       </c>
       <c r="F55" s="23" t="s">
         <v>1009</v>
@@ -21874,7 +21874,7 @@
         <v>1006</v>
       </c>
       <c r="E56" s="40" t="s">
-        <v>2897</v>
+        <v>2893</v>
       </c>
       <c r="F56" s="23" t="s">
         <v>1007</v>
@@ -21888,7 +21888,7 @@
         <v>1008</v>
       </c>
       <c r="E57" s="40" t="s">
-        <v>2896</v>
+        <v>2892</v>
       </c>
       <c r="F57" s="23" t="s">
         <v>1009</v>
@@ -21906,7 +21906,7 @@
         <v>1006</v>
       </c>
       <c r="E58" s="40" t="s">
-        <v>2897</v>
+        <v>2893</v>
       </c>
       <c r="F58" s="23" t="s">
         <v>1007</v>
@@ -21920,7 +21920,7 @@
         <v>1008</v>
       </c>
       <c r="E59" s="40" t="s">
-        <v>2896</v>
+        <v>2892</v>
       </c>
       <c r="F59" s="23" t="s">
         <v>1009</v>
@@ -21938,7 +21938,7 @@
         <v>1006</v>
       </c>
       <c r="E60" s="40" t="s">
-        <v>2897</v>
+        <v>2893</v>
       </c>
       <c r="F60" s="23" t="s">
         <v>1007</v>
@@ -21952,7 +21952,7 @@
         <v>1008</v>
       </c>
       <c r="E61" s="40" t="s">
-        <v>2896</v>
+        <v>2892</v>
       </c>
       <c r="F61" s="23" t="s">
         <v>1009</v>
@@ -22108,7 +22108,7 @@
         <v>908</v>
       </c>
       <c r="C72" s="33" t="s">
-        <v>2229</v>
+        <v>2226</v>
       </c>
       <c r="D72" s="23" t="s">
         <v>1041</v>
@@ -22134,7 +22134,7 @@
       <c r="A74" s="23"/>
       <c r="B74" s="23"/>
       <c r="C74" s="23" t="s">
-        <v>2230</v>
+        <v>2227</v>
       </c>
       <c r="D74" s="23" t="s">
         <v>1041</v>
@@ -22298,7 +22298,7 @@
         <v>908</v>
       </c>
       <c r="C85" s="33" t="s">
-        <v>2229</v>
+        <v>2226</v>
       </c>
       <c r="D85" s="23" t="s">
         <v>1067</v>
@@ -22358,7 +22358,7 @@
         <v>908</v>
       </c>
       <c r="C89" s="33" t="s">
-        <v>2229</v>
+        <v>2226</v>
       </c>
       <c r="D89" s="23" t="s">
         <v>1077</v>
@@ -22384,7 +22384,7 @@
       <c r="A91" s="23"/>
       <c r="B91" s="23"/>
       <c r="C91" s="23" t="s">
-        <v>2230</v>
+        <v>2227</v>
       </c>
       <c r="D91" s="23" t="s">
         <v>1077</v>
@@ -22451,13 +22451,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>2333</v>
+        <v>2330</v>
       </c>
       <c r="D1" s="39" t="s">
         <v>1086</v>
       </c>
       <c r="I1" s="39" t="s">
-        <v>2751</v>
+        <v>2747</v>
       </c>
       <c r="S1" s="39" t="s">
         <v>3</v>
@@ -22474,7 +22474,7 @@
         <v>1089</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>2752</v>
+        <v>2748</v>
       </c>
       <c r="Q2" s="40" t="s">
         <v>1090</v>
@@ -22491,7 +22491,7 @@
         <v>1091</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>2753</v>
+        <v>2749</v>
       </c>
       <c r="Q3" s="40" t="s">
         <v>1092</v>
@@ -22508,7 +22508,7 @@
         <v>1093</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>2754</v>
+        <v>2750</v>
       </c>
       <c r="Q4" s="40" t="s">
         <v>1094</v>
@@ -22525,7 +22525,7 @@
         <v>1095</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>2755</v>
+        <v>2751</v>
       </c>
       <c r="Q5" s="40" t="s">
         <v>1096</v>
@@ -22542,13 +22542,13 @@
         <v>1098</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>2756</v>
+        <v>2752</v>
       </c>
       <c r="D6" s="27" t="s">
         <v>1100</v>
       </c>
       <c r="I6" s="49" t="s">
-        <v>2765</v>
+        <v>2761</v>
       </c>
       <c r="Q6" s="40" t="s">
         <v>1099</v>
@@ -22568,13 +22568,13 @@
         <v>1102</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>2757</v>
+        <v>2753</v>
       </c>
       <c r="D7" s="27" t="s">
         <v>1104</v>
       </c>
       <c r="I7" s="49" t="s">
-        <v>2764</v>
+        <v>2760</v>
       </c>
       <c r="Q7" s="40" t="s">
         <v>1103</v>
@@ -22594,13 +22594,13 @@
         <v>1106</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>2761</v>
+        <v>2757</v>
       </c>
       <c r="D8" s="27" t="s">
         <v>1108</v>
       </c>
       <c r="I8" s="49" t="s">
-        <v>2766</v>
+        <v>2762</v>
       </c>
       <c r="Q8" s="40" t="s">
         <v>1107</v>
@@ -22620,13 +22620,13 @@
         <v>1110</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>2758</v>
+        <v>2754</v>
       </c>
       <c r="D9" s="27" t="s">
         <v>1112</v>
       </c>
       <c r="I9" s="49" t="s">
-        <v>2767</v>
+        <v>2763</v>
       </c>
       <c r="Q9" s="40" t="s">
         <v>1111</v>
@@ -22646,13 +22646,13 @@
         <v>1114</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>2759</v>
+        <v>2755</v>
       </c>
       <c r="D10" s="27" t="s">
         <v>1116</v>
       </c>
       <c r="I10" s="49" t="s">
-        <v>2768</v>
+        <v>2764</v>
       </c>
       <c r="Q10" s="40" t="s">
         <v>1115</v>
@@ -22672,13 +22672,13 @@
         <v>1117</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>2760</v>
+        <v>2756</v>
       </c>
       <c r="D11" s="27" t="s">
         <v>1119</v>
       </c>
       <c r="I11" s="49" t="s">
-        <v>2769</v>
+        <v>2765</v>
       </c>
       <c r="Q11" s="40" t="s">
         <v>1118</v>
@@ -22698,7 +22698,7 @@
         <v>1122</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>2762</v>
+        <v>2758</v>
       </c>
       <c r="Q12" s="40" t="s">
         <v>1123</v>
@@ -22715,7 +22715,7 @@
         <v>1097</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>2763</v>
+        <v>2759</v>
       </c>
       <c r="Q13" s="40" t="s">
         <v>1124</v>
@@ -22732,7 +22732,7 @@
         <v>1125</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>2770</v>
+        <v>2766</v>
       </c>
       <c r="Q14" s="40" t="s">
         <v>1125</v>
@@ -22749,7 +22749,7 @@
         <v>1093</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>2754</v>
+        <v>2750</v>
       </c>
       <c r="Q15" s="40" t="s">
         <v>1094</v>
@@ -22766,7 +22766,7 @@
         <v>1126</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>2771</v>
+        <v>2767</v>
       </c>
       <c r="Q16" s="40" t="s">
         <v>1126</v>
@@ -22783,7 +22783,7 @@
         <v>1127</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>2772</v>
+        <v>2768</v>
       </c>
       <c r="Q17" s="40" t="s">
         <v>1128</v>
@@ -22800,7 +22800,7 @@
         <v>1130</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>2773</v>
+        <v>2769</v>
       </c>
       <c r="D18" s="27" t="s">
         <v>1132</v>
@@ -22814,13 +22814,13 @@
       <c r="G18" s="32"/>
       <c r="H18" s="32"/>
       <c r="I18" s="27" t="s">
-        <v>2779</v>
+        <v>2775</v>
       </c>
       <c r="J18" s="27" t="s">
-        <v>2778</v>
+        <v>2774</v>
       </c>
       <c r="K18" s="27" t="s">
-        <v>2780</v>
+        <v>2776</v>
       </c>
       <c r="Q18" s="40" t="s">
         <v>1131</v>
@@ -22843,7 +22843,7 @@
         <v>1137</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>2774</v>
+        <v>2770</v>
       </c>
       <c r="D19" s="27" t="s">
         <v>1139</v>
@@ -22852,10 +22852,10 @@
         <v>1141</v>
       </c>
       <c r="I19" s="27" t="s">
-        <v>2781</v>
+        <v>2777</v>
       </c>
       <c r="J19" s="27" t="s">
-        <v>2782</v>
+        <v>2778</v>
       </c>
       <c r="Q19" s="40" t="s">
         <v>1138</v>
@@ -22878,7 +22878,7 @@
         <v>1143</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>2775</v>
+        <v>2771</v>
       </c>
       <c r="D20" s="27" t="s">
         <v>1145</v>
@@ -22887,10 +22887,10 @@
         <v>1147</v>
       </c>
       <c r="I20" s="27" t="s">
-        <v>2777</v>
+        <v>2773</v>
       </c>
       <c r="J20" s="27" t="s">
-        <v>2776</v>
+        <v>2772</v>
       </c>
       <c r="Q20" s="40" t="s">
         <v>1144</v>
@@ -22913,7 +22913,7 @@
         <v>1149</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>2783</v>
+        <v>2779</v>
       </c>
       <c r="D21" s="27" t="s">
         <v>1151</v>
@@ -22922,10 +22922,10 @@
         <v>1153</v>
       </c>
       <c r="I21" s="27" t="s">
-        <v>2784</v>
+        <v>2780</v>
       </c>
       <c r="J21" s="27" t="s">
-        <v>2785</v>
+        <v>2781</v>
       </c>
       <c r="Q21" s="40" t="s">
         <v>1150</v>
@@ -22948,7 +22948,7 @@
         <v>1155</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>2786</v>
+        <v>2782</v>
       </c>
       <c r="D22" s="27" t="s">
         <v>1151</v>
@@ -22957,10 +22957,10 @@
         <v>1153</v>
       </c>
       <c r="I22" s="27" t="s">
-        <v>2784</v>
+        <v>2780</v>
       </c>
       <c r="J22" s="27" t="s">
-        <v>2785</v>
+        <v>2781</v>
       </c>
       <c r="Q22" s="40" t="s">
         <v>1156</v>
@@ -22983,7 +22983,7 @@
         <v>1157</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>2787</v>
+        <v>2783</v>
       </c>
       <c r="D23" s="27" t="s">
         <v>1159</v>
@@ -22992,10 +22992,10 @@
         <v>1161</v>
       </c>
       <c r="I23" s="27" t="s">
-        <v>2790</v>
+        <v>2786</v>
       </c>
       <c r="J23" s="27" t="s">
-        <v>2791</v>
+        <v>2787</v>
       </c>
       <c r="Q23" s="40" t="s">
         <v>1158</v>
@@ -23018,7 +23018,7 @@
         <v>1163</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>2788</v>
+        <v>2784</v>
       </c>
       <c r="D24" s="27" t="s">
         <v>1159</v>
@@ -23027,10 +23027,10 @@
         <v>1161</v>
       </c>
       <c r="I24" s="27" t="s">
-        <v>2790</v>
+        <v>2786</v>
       </c>
       <c r="J24" s="27" t="s">
-        <v>2791</v>
+        <v>2787</v>
       </c>
       <c r="Q24" s="40" t="s">
         <v>1164</v>
@@ -23053,7 +23053,7 @@
         <v>1165</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>2789</v>
+        <v>2785</v>
       </c>
       <c r="D25" s="27" t="s">
         <v>1159</v>
@@ -23062,10 +23062,10 @@
         <v>1161</v>
       </c>
       <c r="I25" s="27" t="s">
-        <v>2790</v>
+        <v>2786</v>
       </c>
       <c r="J25" s="27" t="s">
-        <v>2791</v>
+        <v>2787</v>
       </c>
       <c r="Q25" s="40" t="s">
         <v>1166</v>
@@ -23088,7 +23088,7 @@
         <v>1167</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>2792</v>
+        <v>2788</v>
       </c>
       <c r="D26" s="27" t="s">
         <v>1159</v>
@@ -23097,10 +23097,10 @@
         <v>1169</v>
       </c>
       <c r="I26" s="40" t="s">
-        <v>2797</v>
+        <v>2793</v>
       </c>
       <c r="J26" s="40" t="s">
-        <v>2798</v>
+        <v>2794</v>
       </c>
       <c r="Q26" s="40" t="s">
         <v>1168</v>
@@ -23123,7 +23123,7 @@
         <v>1170</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>2793</v>
+        <v>2789</v>
       </c>
       <c r="D27" s="27" t="s">
         <v>1172</v>
@@ -23132,10 +23132,10 @@
         <v>1173</v>
       </c>
       <c r="I27" s="40" t="s">
-        <v>2794</v>
+        <v>2790</v>
       </c>
       <c r="J27" s="40" t="s">
-        <v>2795</v>
+        <v>2791</v>
       </c>
       <c r="Q27" s="40" t="s">
         <v>1171</v>
@@ -23158,7 +23158,7 @@
         <v>1174</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>2796</v>
+        <v>2792</v>
       </c>
       <c r="D28" s="27" t="s">
         <v>1159</v>
@@ -23167,10 +23167,10 @@
         <v>1169</v>
       </c>
       <c r="I28" s="40" t="s">
-        <v>2797</v>
+        <v>2793</v>
       </c>
       <c r="J28" s="40" t="s">
-        <v>2798</v>
+        <v>2794</v>
       </c>
       <c r="Q28" s="40" t="s">
         <v>1175</v>
@@ -23193,7 +23193,7 @@
         <v>1177</v>
       </c>
       <c r="C29" s="40" t="s">
-        <v>2799</v>
+        <v>2795</v>
       </c>
       <c r="S29" s="40" t="s">
         <v>1178</v>
@@ -23207,7 +23207,7 @@
         <v>1179</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>2800</v>
+        <v>2796</v>
       </c>
       <c r="S30" s="40" t="s">
         <v>1180</v>
@@ -23221,7 +23221,7 @@
         <v>1181</v>
       </c>
       <c r="C31" s="40" t="s">
-        <v>2801</v>
+        <v>2797</v>
       </c>
       <c r="T31" s="40" t="s">
         <v>186</v>
@@ -23235,7 +23235,7 @@
         <v>1182</v>
       </c>
       <c r="C32" s="40" t="s">
-        <v>2759</v>
+        <v>2755</v>
       </c>
       <c r="T32" s="40" t="s">
         <v>1183</v>
@@ -23249,7 +23249,7 @@
         <v>1184</v>
       </c>
       <c r="C33" s="40" t="s">
-        <v>2756</v>
+        <v>2752</v>
       </c>
       <c r="T33" s="40" t="s">
         <v>1185</v>
@@ -23263,7 +23263,7 @@
         <v>1186</v>
       </c>
       <c r="C34" s="40" t="s">
-        <v>2802</v>
+        <v>2798</v>
       </c>
       <c r="T34" s="40" t="s">
         <v>1186</v>
@@ -23277,7 +23277,7 @@
         <v>1187</v>
       </c>
       <c r="C35" s="40" t="s">
-        <v>2803</v>
+        <v>2799</v>
       </c>
       <c r="T35" s="40" t="s">
         <v>1188</v>
@@ -23291,7 +23291,7 @@
         <v>1189</v>
       </c>
       <c r="C36" s="40" t="s">
-        <v>2804</v>
+        <v>2800</v>
       </c>
       <c r="T36" s="40" t="s">
         <v>1190</v>
@@ -23305,7 +23305,7 @@
         <v>1191</v>
       </c>
       <c r="C37" s="40" t="s">
-        <v>2805</v>
+        <v>2801</v>
       </c>
       <c r="T37" s="40" t="s">
         <v>1192</v>
@@ -23319,7 +23319,7 @@
         <v>928</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>2806</v>
+        <v>2802</v>
       </c>
       <c r="T38" s="40" t="s">
         <v>1193</v>
@@ -23333,7 +23333,7 @@
         <v>1194</v>
       </c>
       <c r="C39" s="40" t="s">
-        <v>2807</v>
+        <v>2803</v>
       </c>
       <c r="T39" s="40" t="s">
         <v>1195</v>
@@ -23347,7 +23347,7 @@
         <v>1196</v>
       </c>
       <c r="C40" s="40" t="s">
-        <v>2808</v>
+        <v>2804</v>
       </c>
       <c r="T40" s="40" t="s">
         <v>1197</v>
@@ -23361,7 +23361,7 @@
         <v>1198</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>2800</v>
+        <v>2796</v>
       </c>
       <c r="T41" s="40" t="s">
         <v>1199</v>
@@ -23375,7 +23375,7 @@
         <v>1200</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>2809</v>
+        <v>2805</v>
       </c>
       <c r="T42" s="40" t="s">
         <v>1190</v>
@@ -23389,7 +23389,7 @@
         <v>1201</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>2811</v>
+        <v>2807</v>
       </c>
       <c r="T43" s="40" t="s">
         <v>1202</v>
@@ -23403,7 +23403,7 @@
         <v>1203</v>
       </c>
       <c r="C44" s="40" t="s">
-        <v>2810</v>
+        <v>2806</v>
       </c>
       <c r="T44" s="40" t="s">
         <v>1204</v>
@@ -23417,7 +23417,7 @@
         <v>1205</v>
       </c>
       <c r="C45" s="40" t="s">
-        <v>2812</v>
+        <v>2808</v>
       </c>
       <c r="T45" s="40" t="s">
         <v>1206</v>
@@ -23431,7 +23431,7 @@
         <v>1207</v>
       </c>
       <c r="C46" s="40" t="s">
-        <v>2813</v>
+        <v>2809</v>
       </c>
       <c r="T46" s="40" t="s">
         <v>1208</v>
@@ -23445,7 +23445,7 @@
         <v>1209</v>
       </c>
       <c r="C47" s="40" t="s">
-        <v>2814</v>
+        <v>2810</v>
       </c>
       <c r="T47" s="40" t="s">
         <v>1210</v>
@@ -23459,7 +23459,7 @@
         <v>1211</v>
       </c>
       <c r="C48" s="40" t="s">
-        <v>2815</v>
+        <v>2811</v>
       </c>
       <c r="T48" s="40" t="s">
         <v>1212</v>
@@ -23473,7 +23473,7 @@
         <v>1213</v>
       </c>
       <c r="C49" s="40" t="s">
-        <v>2816</v>
+        <v>2812</v>
       </c>
       <c r="T49" s="40" t="s">
         <v>1214</v>
@@ -23487,7 +23487,7 @@
         <v>1215</v>
       </c>
       <c r="C50" s="40" t="s">
-        <v>2817</v>
+        <v>2813</v>
       </c>
       <c r="T50" s="40" t="s">
         <v>1216</v>
@@ -23501,7 +23501,7 @@
         <v>1217</v>
       </c>
       <c r="C51" s="40" t="s">
-        <v>2818</v>
+        <v>2814</v>
       </c>
       <c r="T51" s="40" t="s">
         <v>1218</v>
@@ -23515,7 +23515,7 @@
         <v>1219</v>
       </c>
       <c r="C52" s="40" t="s">
-        <v>2819</v>
+        <v>2815</v>
       </c>
       <c r="T52" s="40" t="s">
         <v>1220</v>
@@ -23529,7 +23529,7 @@
         <v>1221</v>
       </c>
       <c r="C53" s="40" t="s">
-        <v>2820</v>
+        <v>2816</v>
       </c>
       <c r="T53" s="40" t="s">
         <v>1222</v>
@@ -23543,7 +23543,7 @@
         <v>1223</v>
       </c>
       <c r="C54" s="40" t="s">
-        <v>2821</v>
+        <v>2817</v>
       </c>
       <c r="T54" s="40" t="s">
         <v>1223</v>
@@ -23557,7 +23557,7 @@
         <v>1127</v>
       </c>
       <c r="C55" s="40" t="s">
-        <v>2772</v>
+        <v>2768</v>
       </c>
       <c r="T55" s="40" t="s">
         <v>1128</v>
@@ -23571,7 +23571,7 @@
         <v>1225</v>
       </c>
       <c r="C56" s="40" t="s">
-        <v>2822</v>
+        <v>2818</v>
       </c>
       <c r="T56" s="40" t="s">
         <v>1226</v>
@@ -23585,7 +23585,7 @@
         <v>1125</v>
       </c>
       <c r="C57" s="40" t="s">
-        <v>2770</v>
+        <v>2766</v>
       </c>
       <c r="T57" s="40" t="s">
         <v>1227</v>
@@ -23599,7 +23599,7 @@
         <v>1228</v>
       </c>
       <c r="C58" s="40" t="s">
-        <v>2823</v>
+        <v>2819</v>
       </c>
       <c r="T58" s="40" t="s">
         <v>1229</v>
@@ -23613,7 +23613,7 @@
         <v>1230</v>
       </c>
       <c r="C59" s="40" t="s">
-        <v>2824</v>
+        <v>2820</v>
       </c>
       <c r="T59" s="40" t="s">
         <v>1231</v>
@@ -23627,7 +23627,7 @@
         <v>1232</v>
       </c>
       <c r="C60" s="40" t="s">
-        <v>2825</v>
+        <v>2821</v>
       </c>
       <c r="T60" s="40" t="s">
         <v>1233</v>
@@ -23641,7 +23641,7 @@
         <v>1129</v>
       </c>
       <c r="C61" s="40" t="s">
-        <v>2826</v>
+        <v>2822</v>
       </c>
       <c r="T61" s="40" t="s">
         <v>1234</v>
@@ -23655,7 +23655,7 @@
         <v>1097</v>
       </c>
       <c r="C62" s="40" t="s">
-        <v>2827</v>
+        <v>2823</v>
       </c>
       <c r="T62" s="40" t="s">
         <v>1235</v>
@@ -23669,7 +23669,7 @@
         <v>1236</v>
       </c>
       <c r="C63" s="40" t="s">
-        <v>2755</v>
+        <v>2751</v>
       </c>
       <c r="T63" s="40" t="s">
         <v>1096</v>
@@ -23683,7 +23683,7 @@
         <v>1165</v>
       </c>
       <c r="C64" s="40" t="s">
-        <v>2789</v>
+        <v>2785</v>
       </c>
       <c r="T64" s="40" t="s">
         <v>1166</v>
@@ -23697,7 +23697,7 @@
         <v>1163</v>
       </c>
       <c r="C65" s="40" t="s">
-        <v>2788</v>
+        <v>2784</v>
       </c>
       <c r="T65" s="40" t="s">
         <v>1164</v>
@@ -23711,7 +23711,7 @@
         <v>1237</v>
       </c>
       <c r="C66" s="40" t="s">
-        <v>2828</v>
+        <v>2824</v>
       </c>
       <c r="T66" s="40" t="s">
         <v>1238</v>
@@ -23725,7 +23725,7 @@
         <v>1239</v>
       </c>
       <c r="C67" s="40" t="s">
-        <v>2829</v>
+        <v>2825</v>
       </c>
       <c r="T67" s="40" t="s">
         <v>1240</v>
@@ -23739,7 +23739,7 @@
         <v>1241</v>
       </c>
       <c r="C68" s="40" t="s">
-        <v>2830</v>
+        <v>2826</v>
       </c>
       <c r="T68" s="27" t="s">
         <v>1242</v>
@@ -23753,7 +23753,7 @@
         <v>1243</v>
       </c>
       <c r="C69" s="40" t="s">
-        <v>2833</v>
+        <v>2829</v>
       </c>
       <c r="T69" s="27" t="s">
         <v>1244</v>
@@ -23767,7 +23767,7 @@
         <v>1245</v>
       </c>
       <c r="C70" s="40" t="s">
-        <v>2832</v>
+        <v>2828</v>
       </c>
       <c r="T70" s="27" t="s">
         <v>1246</v>
@@ -23781,7 +23781,7 @@
         <v>1247</v>
       </c>
       <c r="C71" s="40" t="s">
-        <v>2831</v>
+        <v>2827</v>
       </c>
       <c r="T71" s="27" t="s">
         <v>1248</v>
@@ -23798,7 +23798,7 @@
         <v>1249</v>
       </c>
       <c r="C73" s="40" t="s">
-        <v>2836</v>
+        <v>2832</v>
       </c>
       <c r="D73" s="40" t="s">
         <v>1250</v>
@@ -23812,13 +23812,13 @@
         <v>1251</v>
       </c>
       <c r="C74" s="40" t="s">
-        <v>2835</v>
+        <v>2831</v>
       </c>
       <c r="D74" s="40" t="s">
         <v>1252</v>
       </c>
       <c r="I74" s="40" t="s">
-        <v>2850</v>
+        <v>2846</v>
       </c>
     </row>
     <row r="75" spans="1:20">
@@ -23829,13 +23829,13 @@
         <v>1253</v>
       </c>
       <c r="C75" s="40" t="s">
-        <v>2837</v>
+        <v>2833</v>
       </c>
       <c r="D75" s="40" t="s">
         <v>1254</v>
       </c>
       <c r="I75" s="40" t="s">
-        <v>2851</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="76" spans="1:20">
@@ -23846,7 +23846,7 @@
         <v>1255</v>
       </c>
       <c r="C76" s="40" t="s">
-        <v>2852</v>
+        <v>2848</v>
       </c>
       <c r="D76" s="40" t="s">
         <v>1256</v>
@@ -23858,13 +23858,13 @@
         <v>1258</v>
       </c>
       <c r="I76" s="40" t="s">
-        <v>2862</v>
+        <v>2858</v>
       </c>
       <c r="J76" s="40" t="s">
-        <v>2794</v>
+        <v>2790</v>
       </c>
       <c r="K76" s="40" t="s">
-        <v>2795</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="77" spans="1:20">
@@ -23875,7 +23875,7 @@
         <v>1259</v>
       </c>
       <c r="C77" s="40" t="s">
-        <v>2838</v>
+        <v>2834</v>
       </c>
       <c r="D77" s="40" t="s">
         <v>1260</v>
@@ -23887,13 +23887,13 @@
         <v>1258</v>
       </c>
       <c r="I77" s="40" t="s">
-        <v>2863</v>
+        <v>2859</v>
       </c>
       <c r="J77" s="40" t="s">
-        <v>2794</v>
+        <v>2790</v>
       </c>
       <c r="K77" s="40" t="s">
-        <v>2795</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="78" spans="1:20">
@@ -23904,7 +23904,7 @@
         <v>1261</v>
       </c>
       <c r="C78" s="40" t="s">
-        <v>2839</v>
+        <v>2835</v>
       </c>
       <c r="D78" s="40" t="s">
         <v>1262</v>
@@ -23919,16 +23919,16 @@
         <v>1265</v>
       </c>
       <c r="I78" s="40" t="s">
-        <v>2858</v>
+        <v>2854</v>
       </c>
       <c r="J78" s="40" t="s">
-        <v>2859</v>
+        <v>2855</v>
       </c>
       <c r="K78" s="40" t="s">
-        <v>2860</v>
+        <v>2856</v>
       </c>
       <c r="L78" s="40" t="s">
-        <v>2861</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="79" spans="1:20">
@@ -23939,7 +23939,7 @@
         <v>1266</v>
       </c>
       <c r="C79" s="40" t="s">
-        <v>2840</v>
+        <v>2836</v>
       </c>
       <c r="D79" s="40" t="s">
         <v>1267</v>
@@ -23951,10 +23951,10 @@
         <v>1258</v>
       </c>
       <c r="J79" s="40" t="s">
-        <v>2794</v>
+        <v>2790</v>
       </c>
       <c r="K79" s="40" t="s">
-        <v>2795</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="80" spans="1:20">
@@ -23965,7 +23965,7 @@
         <v>1268</v>
       </c>
       <c r="C80" s="40" t="s">
-        <v>2841</v>
+        <v>2837</v>
       </c>
       <c r="D80" s="40" t="s">
         <v>1269</v>
@@ -23977,10 +23977,10 @@
         <v>1258</v>
       </c>
       <c r="J80" s="40" t="s">
-        <v>2794</v>
+        <v>2790</v>
       </c>
       <c r="K80" s="40" t="s">
-        <v>2795</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -23991,7 +23991,7 @@
         <v>1270</v>
       </c>
       <c r="C81" s="40" t="s">
-        <v>2842</v>
+        <v>2838</v>
       </c>
       <c r="D81" s="40" t="s">
         <v>1271</v>
@@ -24014,7 +24014,7 @@
         <v>1274</v>
       </c>
       <c r="C82" s="40" t="s">
-        <v>2834</v>
+        <v>2830</v>
       </c>
       <c r="D82" s="40" t="s">
         <v>1275</v>
@@ -24037,7 +24037,7 @@
         <v>1276</v>
       </c>
       <c r="C83" s="40" t="s">
-        <v>2843</v>
+        <v>2839</v>
       </c>
       <c r="D83" s="40" t="s">
         <v>1277</v>
@@ -24060,7 +24060,7 @@
         <v>1278</v>
       </c>
       <c r="C84" s="40" t="s">
-        <v>2844</v>
+        <v>2840</v>
       </c>
       <c r="D84" s="40" t="s">
         <v>1279</v>
@@ -24072,10 +24072,10 @@
         <v>1258</v>
       </c>
       <c r="J84" s="40" t="s">
-        <v>2794</v>
+        <v>2790</v>
       </c>
       <c r="K84" s="40" t="s">
-        <v>2795</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -24086,7 +24086,7 @@
         <v>1280</v>
       </c>
       <c r="C85" s="40" t="s">
-        <v>2845</v>
+        <v>2841</v>
       </c>
       <c r="D85" s="40" t="s">
         <v>1281</v>
@@ -24112,7 +24112,7 @@
         <v>1282</v>
       </c>
       <c r="C86" s="40" t="s">
-        <v>2846</v>
+        <v>2842</v>
       </c>
       <c r="D86" s="40" t="s">
         <v>1283</v>
@@ -24127,7 +24127,7 @@
         <v>1265</v>
       </c>
       <c r="I86" s="40" t="s">
-        <v>2848</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -24138,7 +24138,7 @@
         <v>1286</v>
       </c>
       <c r="C87" s="40" t="s">
-        <v>2847</v>
+        <v>2843</v>
       </c>
       <c r="D87" s="40" t="s">
         <v>1287</v>
@@ -24150,13 +24150,13 @@
         <v>1258</v>
       </c>
       <c r="I87" s="40" t="s">
-        <v>2849</v>
+        <v>2845</v>
       </c>
       <c r="J87" s="40" t="s">
-        <v>2794</v>
+        <v>2790</v>
       </c>
       <c r="K87" s="40" t="s">
-        <v>2795</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -24167,7 +24167,7 @@
         <v>1288</v>
       </c>
       <c r="C88" s="40" t="s">
-        <v>2853</v>
+        <v>2849</v>
       </c>
       <c r="D88" s="40" t="s">
         <v>1289</v>
@@ -24179,10 +24179,10 @@
         <v>1258</v>
       </c>
       <c r="J88" s="40" t="s">
-        <v>2794</v>
+        <v>2790</v>
       </c>
       <c r="K88" s="40" t="s">
-        <v>2795</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -24193,7 +24193,7 @@
         <v>1290</v>
       </c>
       <c r="C89" s="40" t="s">
-        <v>2854</v>
+        <v>2850</v>
       </c>
       <c r="D89" s="40" t="s">
         <v>1291</v>
@@ -24205,10 +24205,10 @@
         <v>1258</v>
       </c>
       <c r="J89" s="40" t="s">
-        <v>2794</v>
+        <v>2790</v>
       </c>
       <c r="K89" s="40" t="s">
-        <v>2795</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -24219,7 +24219,7 @@
         <v>1292</v>
       </c>
       <c r="C90" s="40" t="s">
-        <v>2855</v>
+        <v>2851</v>
       </c>
       <c r="D90" s="40" t="s">
         <v>1293</v>
@@ -24242,7 +24242,7 @@
         <v>1296</v>
       </c>
       <c r="C91" s="40" t="s">
-        <v>2856</v>
+        <v>2852</v>
       </c>
       <c r="D91" s="40" t="s">
         <v>1297</v>
@@ -24254,10 +24254,10 @@
         <v>1258</v>
       </c>
       <c r="J91" s="40" t="s">
-        <v>2794</v>
+        <v>2790</v>
       </c>
       <c r="K91" s="40" t="s">
-        <v>2795</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -24268,7 +24268,7 @@
         <v>1298</v>
       </c>
       <c r="C92" s="40" t="s">
-        <v>2857</v>
+        <v>2853</v>
       </c>
       <c r="D92" s="40" t="s">
         <v>1299</v>
@@ -24280,10 +24280,10 @@
         <v>1258</v>
       </c>
       <c r="J92" s="40" t="s">
-        <v>2794</v>
+        <v>2790</v>
       </c>
       <c r="K92" s="40" t="s">
-        <v>2795</v>
+        <v>2791</v>
       </c>
     </row>
   </sheetData>
@@ -24321,7 +24321,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>2263</v>
+        <v>2260</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>3</v>
@@ -24335,7 +24335,7 @@
         <v>1302</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>2264</v>
+        <v>2261</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>1303</v>
@@ -24349,7 +24349,7 @@
         <v>1305</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>2265</v>
+        <v>2262</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>1306</v>
@@ -24363,7 +24363,7 @@
         <v>1307</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>2702</v>
+        <v>2698</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>1308</v>
@@ -24377,7 +24377,7 @@
         <v>1309</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>2266</v>
+        <v>2263</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>1310</v>
@@ -24391,7 +24391,7 @@
         <v>1311</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>2267</v>
+        <v>2264</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>1312</v>
@@ -24405,7 +24405,7 @@
         <v>1313</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>2268</v>
+        <v>2265</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>1314</v>
@@ -24419,7 +24419,7 @@
         <v>1315</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>2269</v>
+        <v>2266</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>1316</v>
@@ -24433,7 +24433,7 @@
         <v>1317</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>2270</v>
+        <v>2267</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>1317</v>
@@ -24447,7 +24447,7 @@
         <v>1318</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>2271</v>
+        <v>2268</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>1319</v>
@@ -24461,7 +24461,7 @@
         <v>1320</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>2272</v>
+        <v>2269</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>1321</v>
@@ -24475,7 +24475,7 @@
         <v>1322</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>2273</v>
+        <v>2270</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>1323</v>

--- a/English translation/その他文字 (Items, Skills, Characters, Descriptions)/固有名詞 (Literally everything else).xlsx
+++ b/English translation/その他文字 (Items, Skills, Characters, Descriptions)/固有名詞 (Literally everything else).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21943" windowHeight="8091" tabRatio="627" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21943" windowHeight="8091" tabRatio="627" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="names-名前" sheetId="1" r:id="rId1"/>
@@ -6515,6 +6515,9 @@
     <t>Miraculous Tablet</t>
   </si>
   <si>
+    <t>Magic Up</t>
+  </si>
+  <si>
     <t>Cursed Drop</t>
   </si>
   <si>
@@ -6572,6 +6575,9 @@
     <t>Gale Dance</t>
   </si>
   <si>
+    <t>Energy Drain</t>
+  </si>
+  <si>
     <t>Encouraging Kiss</t>
   </si>
   <si>
@@ -6600,6 +6606,9 @@
   </si>
   <si>
     <t>Magic Draining Mushroom</t>
+  </si>
+  <si>
+    <t>Cursed Grass</t>
   </si>
   <si>
     <t>Energy Apple</t>
@@ -7827,6 +7836,9 @@
     <t>Enables the ability to class change when held.</t>
   </si>
   <si>
+    <t>Physic++</t>
+  </si>
+  <si>
     <t>Restores 25 HP to any ally.</t>
   </si>
   <si>
@@ -8767,18 +8779,6 @@
   </si>
   <si>
     <t>Don't give up</t>
-  </si>
-  <si>
-    <t>Lethagic Grass</t>
-  </si>
-  <si>
-    <t>Magic Lamp</t>
-  </si>
-  <si>
-    <t>Regression</t>
-  </si>
-  <si>
-    <t>Healer's Tome</t>
   </si>
 </sst>
 </file>
@@ -9526,13 +9526,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>2330</v>
+        <v>2333</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>2331</v>
+        <v>2334</v>
       </c>
       <c r="G1" s="21" t="s">
         <v>3</v>
@@ -9552,7 +9552,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>2332</v>
+        <v>2335</v>
       </c>
       <c r="E2" s="23"/>
       <c r="F2" s="23"/>
@@ -9572,7 +9572,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>2333</v>
+        <v>2336</v>
       </c>
       <c r="E3" s="23"/>
       <c r="F3" s="23"/>
@@ -9590,7 +9590,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>2334</v>
+        <v>2337</v>
       </c>
       <c r="E4" s="23"/>
       <c r="F4" s="23"/>
@@ -9610,7 +9610,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>2337</v>
+        <v>2340</v>
       </c>
       <c r="E5" s="23"/>
       <c r="F5" s="23"/>
@@ -9646,7 +9646,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>2335</v>
+        <v>2338</v>
       </c>
       <c r="E7" s="23"/>
       <c r="F7" s="23"/>
@@ -9664,7 +9664,7 @@
         <v>22</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>2336</v>
+        <v>2339</v>
       </c>
       <c r="E8" s="23"/>
       <c r="F8" s="23"/>
@@ -9684,7 +9684,7 @@
         <v>24</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>2338</v>
+        <v>2341</v>
       </c>
       <c r="E9" s="23"/>
       <c r="F9" s="23"/>
@@ -9702,7 +9702,7 @@
         <v>27</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>2339</v>
+        <v>2342</v>
       </c>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
@@ -9717,10 +9717,10 @@
       </c>
       <c r="B11" s="23"/>
       <c r="C11" s="23" t="s">
-        <v>2392</v>
+        <v>2395</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>2393</v>
+        <v>2396</v>
       </c>
       <c r="E11" s="23"/>
       <c r="F11" s="23"/>
@@ -9736,7 +9736,7 @@
         <v>29</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>2340</v>
+        <v>2343</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="23"/>
@@ -9754,7 +9754,7 @@
         <v>32</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>2341</v>
+        <v>2344</v>
       </c>
       <c r="E13" s="23"/>
       <c r="F13" s="23"/>
@@ -9772,7 +9772,7 @@
         <v>34</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>2342</v>
+        <v>2345</v>
       </c>
       <c r="E14" s="23"/>
       <c r="F14" s="23"/>
@@ -9790,7 +9790,7 @@
         <v>36</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>2343</v>
+        <v>2346</v>
       </c>
       <c r="E15" s="23"/>
       <c r="F15" s="23"/>
@@ -9808,7 +9808,7 @@
         <v>38</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>2344</v>
+        <v>2347</v>
       </c>
       <c r="E16" s="23"/>
       <c r="F16" s="23"/>
@@ -9826,7 +9826,7 @@
         <v>40</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>2345</v>
+        <v>2348</v>
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
@@ -9841,10 +9841,10 @@
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="23" t="s">
-        <v>2394</v>
+        <v>2397</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>2397</v>
+        <v>2400</v>
       </c>
       <c r="E18" s="23"/>
       <c r="F18" s="23"/>
@@ -9857,10 +9857,10 @@
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="23" t="s">
-        <v>2395</v>
+        <v>2398</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>2398</v>
+        <v>2401</v>
       </c>
       <c r="E19" s="23"/>
       <c r="F19" s="23"/>
@@ -9873,10 +9873,10 @@
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="23" t="s">
-        <v>2396</v>
+        <v>2399</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>2399</v>
+        <v>2402</v>
       </c>
       <c r="E20" s="23"/>
       <c r="F20" s="23"/>
@@ -9910,7 +9910,7 @@
         <v>44</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>2346</v>
+        <v>2349</v>
       </c>
       <c r="E22" s="23"/>
       <c r="F22" s="23"/>
@@ -9946,7 +9946,7 @@
         <v>48</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>2347</v>
+        <v>2350</v>
       </c>
       <c r="E24" s="23"/>
       <c r="F24" s="23"/>
@@ -10053,7 +10053,7 @@
         <v>59</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>2348</v>
+        <v>2351</v>
       </c>
       <c r="E30" s="23"/>
       <c r="F30" s="23"/>
@@ -10071,7 +10071,7 @@
         <v>61</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>2349</v>
+        <v>2352</v>
       </c>
       <c r="E31" s="23"/>
       <c r="F31" s="23"/>
@@ -10091,13 +10091,13 @@
         <v>65</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>2351</v>
+        <v>2354</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>2289</v>
+        <v>2292</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>2391</v>
+        <v>2394</v>
       </c>
       <c r="G32" s="23" t="s">
         <v>66</v>
@@ -10115,13 +10115,13 @@
         <v>67</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>2352</v>
+        <v>2355</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>2290</v>
+        <v>2293</v>
       </c>
       <c r="F33" s="23" t="s">
-        <v>2390</v>
+        <v>2393</v>
       </c>
       <c r="G33" s="29" t="s">
         <v>68</v>
@@ -10139,7 +10139,7 @@
         <v>69</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>2353</v>
+        <v>2356</v>
       </c>
       <c r="E34" s="23"/>
       <c r="F34" s="23"/>
@@ -10159,13 +10159,13 @@
         <v>71</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>2354</v>
+        <v>2357</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>2291</v>
+        <v>2294</v>
       </c>
       <c r="F35" s="23" t="s">
-        <v>2724</v>
+        <v>2728</v>
       </c>
       <c r="G35" s="23" t="s">
         <v>72</v>
@@ -10183,13 +10183,13 @@
         <v>73</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>2355</v>
+        <v>2358</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>2292</v>
+        <v>2295</v>
       </c>
       <c r="F36" s="23" t="s">
-        <v>2725</v>
+        <v>2729</v>
       </c>
       <c r="G36" s="29" t="s">
         <v>74</v>
@@ -10207,13 +10207,13 @@
         <v>75</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>2356</v>
+        <v>2359</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>2293</v>
+        <v>2296</v>
       </c>
       <c r="F37" s="23" t="s">
-        <v>2726</v>
+        <v>2730</v>
       </c>
       <c r="G37" s="23" t="s">
         <v>76</v>
@@ -10231,13 +10231,13 @@
         <v>77</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>2357</v>
+        <v>2360</v>
       </c>
       <c r="E38" s="23" t="s">
-        <v>2294</v>
+        <v>2297</v>
       </c>
       <c r="F38" s="23" t="s">
-        <v>2727</v>
+        <v>2731</v>
       </c>
       <c r="G38" s="23" t="s">
         <v>78</v>
@@ -10255,13 +10255,13 @@
         <v>79</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>2360</v>
+        <v>2363</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>2295</v>
+        <v>2298</v>
       </c>
       <c r="F39" s="23" t="s">
-        <v>2728</v>
+        <v>2732</v>
       </c>
       <c r="G39" s="23" t="s">
         <v>80</v>
@@ -10279,13 +10279,13 @@
         <v>79</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>2360</v>
+        <v>2363</v>
       </c>
       <c r="E40" s="23" t="s">
-        <v>2296</v>
+        <v>2299</v>
       </c>
       <c r="F40" s="23" t="s">
-        <v>2746</v>
+        <v>2750</v>
       </c>
       <c r="G40" s="23" t="s">
         <v>80</v>
@@ -10303,13 +10303,13 @@
         <v>81</v>
       </c>
       <c r="D41" s="23" t="s">
-        <v>2690</v>
+        <v>2694</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>2297</v>
+        <v>2300</v>
       </c>
       <c r="F41" s="23" t="s">
-        <v>2729</v>
+        <v>2733</v>
       </c>
       <c r="G41" s="23" t="s">
         <v>82</v>
@@ -10327,13 +10327,13 @@
         <v>83</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>2358</v>
+        <v>2361</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>2298</v>
+        <v>2301</v>
       </c>
       <c r="F42" s="23" t="s">
-        <v>2730</v>
+        <v>2734</v>
       </c>
       <c r="G42" s="23" t="s">
         <v>84</v>
@@ -10351,13 +10351,13 @@
         <v>85</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>2359</v>
+        <v>2362</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>2299</v>
+        <v>2302</v>
       </c>
       <c r="F43" s="23" t="s">
-        <v>2731</v>
+        <v>2735</v>
       </c>
       <c r="G43" s="23" t="s">
         <v>86</v>
@@ -10375,13 +10375,13 @@
         <v>87</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>2350</v>
+        <v>2353</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>2300</v>
+        <v>2303</v>
       </c>
       <c r="F44" s="23" t="s">
-        <v>2732</v>
+        <v>2736</v>
       </c>
       <c r="G44" s="23" t="s">
         <v>88</v>
@@ -10399,13 +10399,13 @@
         <v>89</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>2361</v>
+        <v>2364</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>2301</v>
+        <v>2304</v>
       </c>
       <c r="F45" s="23" t="s">
-        <v>2733</v>
+        <v>2737</v>
       </c>
       <c r="G45" s="36" t="s">
         <v>90</v>
@@ -10423,13 +10423,13 @@
         <v>91</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>2362</v>
+        <v>2365</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>2302</v>
+        <v>2305</v>
       </c>
       <c r="F46" s="23" t="s">
-        <v>2734</v>
+        <v>2738</v>
       </c>
       <c r="G46" s="23" t="s">
         <v>92</v>
@@ -10447,13 +10447,13 @@
         <v>93</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>2363</v>
+        <v>2366</v>
       </c>
       <c r="E47" s="23" t="s">
-        <v>2303</v>
+        <v>2306</v>
       </c>
       <c r="F47" s="23" t="s">
-        <v>2735</v>
+        <v>2739</v>
       </c>
       <c r="G47" s="23" t="s">
         <v>94</v>
@@ -10471,13 +10471,13 @@
         <v>95</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>2378</v>
+        <v>2381</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>2304</v>
+        <v>2307</v>
       </c>
       <c r="F48" s="23" t="s">
-        <v>2736</v>
+        <v>2740</v>
       </c>
       <c r="G48" s="23" t="s">
         <v>96</v>
@@ -10495,13 +10495,13 @@
         <v>97</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>2379</v>
+        <v>2382</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>2305</v>
+        <v>2308</v>
       </c>
       <c r="F49" s="23" t="s">
-        <v>2737</v>
+        <v>2741</v>
       </c>
       <c r="G49" s="23" t="s">
         <v>98</v>
@@ -10519,13 +10519,13 @@
         <v>99</v>
       </c>
       <c r="D50" s="23" t="s">
-        <v>2380</v>
+        <v>2383</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>2306</v>
+        <v>2309</v>
       </c>
       <c r="F50" s="23" t="s">
-        <v>2738</v>
+        <v>2742</v>
       </c>
       <c r="G50" s="23" t="s">
         <v>100</v>
@@ -10543,13 +10543,13 @@
         <v>101</v>
       </c>
       <c r="D51" s="23" t="s">
-        <v>2381</v>
+        <v>2384</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>2307</v>
+        <v>2310</v>
       </c>
       <c r="F51" s="23" t="s">
-        <v>2739</v>
+        <v>2743</v>
       </c>
       <c r="G51" s="23" t="s">
         <v>102</v>
@@ -10567,13 +10567,13 @@
         <v>103</v>
       </c>
       <c r="D52" s="23" t="s">
-        <v>2387</v>
+        <v>2390</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>2308</v>
+        <v>2311</v>
       </c>
       <c r="F52" s="23" t="s">
-        <v>2740</v>
+        <v>2744</v>
       </c>
       <c r="G52" s="23" t="s">
         <v>104</v>
@@ -10591,13 +10591,13 @@
         <v>105</v>
       </c>
       <c r="D53" s="23" t="s">
-        <v>2377</v>
+        <v>2380</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>2309</v>
+        <v>2312</v>
       </c>
       <c r="F53" s="23" t="s">
-        <v>2741</v>
+        <v>2745</v>
       </c>
       <c r="G53" s="23" t="s">
         <v>106</v>
@@ -10615,13 +10615,13 @@
         <v>108</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>2382</v>
+        <v>2385</v>
       </c>
       <c r="E54" s="23" t="s">
-        <v>2310</v>
+        <v>2313</v>
       </c>
       <c r="F54" s="23" t="s">
-        <v>2742</v>
+        <v>2746</v>
       </c>
       <c r="G54" s="23" t="s">
         <v>109</v>
@@ -10639,13 +10639,13 @@
         <v>111</v>
       </c>
       <c r="D55" s="23" t="s">
-        <v>2383</v>
+        <v>2386</v>
       </c>
       <c r="E55" s="23" t="s">
         <v>1994</v>
       </c>
       <c r="F55" s="23" t="s">
-        <v>2743</v>
+        <v>2747</v>
       </c>
       <c r="G55" s="23" t="s">
         <v>112</v>
@@ -10663,13 +10663,13 @@
         <v>111</v>
       </c>
       <c r="D56" s="23" t="s">
-        <v>2383</v>
+        <v>2386</v>
       </c>
       <c r="E56" s="23" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F56" s="23" t="s">
-        <v>2744</v>
+        <v>2748</v>
       </c>
       <c r="G56" s="23" t="s">
         <v>112</v>
@@ -10687,13 +10687,13 @@
         <v>113</v>
       </c>
       <c r="D57" s="23" t="s">
-        <v>2384</v>
+        <v>2387</v>
       </c>
       <c r="E57" s="23" t="s">
-        <v>2312</v>
+        <v>2315</v>
       </c>
       <c r="F57" s="23" t="s">
-        <v>2745</v>
+        <v>2749</v>
       </c>
       <c r="G57" s="23" t="s">
         <v>114</v>
@@ -10711,10 +10711,10 @@
         <v>115</v>
       </c>
       <c r="D58" s="23" t="s">
-        <v>2385</v>
+        <v>2388</v>
       </c>
       <c r="E58" s="23" t="s">
-        <v>2313</v>
+        <v>2316</v>
       </c>
       <c r="F58" s="23"/>
       <c r="G58" s="23" t="s">
@@ -10733,10 +10733,10 @@
         <v>117</v>
       </c>
       <c r="D59" s="23" t="s">
-        <v>2386</v>
+        <v>2389</v>
       </c>
       <c r="E59" s="23" t="s">
-        <v>2314</v>
+        <v>2317</v>
       </c>
       <c r="F59" s="23"/>
       <c r="G59" s="23" t="s">
@@ -10755,10 +10755,10 @@
         <v>120</v>
       </c>
       <c r="D60" s="23" t="s">
-        <v>2369</v>
+        <v>2372</v>
       </c>
       <c r="E60" s="23" t="s">
-        <v>2315</v>
+        <v>2318</v>
       </c>
       <c r="F60" s="23"/>
       <c r="G60" s="23" t="s">
@@ -10777,7 +10777,7 @@
         <v>122</v>
       </c>
       <c r="D61" s="23" t="s">
-        <v>2375</v>
+        <v>2378</v>
       </c>
       <c r="E61" s="23" t="s">
         <v>1996</v>
@@ -10799,10 +10799,10 @@
         <v>122</v>
       </c>
       <c r="D62" s="23" t="s">
-        <v>2375</v>
+        <v>2378</v>
       </c>
       <c r="E62" s="23" t="s">
-        <v>2316</v>
+        <v>2319</v>
       </c>
       <c r="F62" s="23"/>
       <c r="G62" s="23" t="s">
@@ -10821,10 +10821,10 @@
         <v>124</v>
       </c>
       <c r="D63" s="23" t="s">
-        <v>2376</v>
+        <v>2379</v>
       </c>
       <c r="E63" s="23" t="s">
-        <v>2317</v>
+        <v>2320</v>
       </c>
       <c r="F63" s="23"/>
       <c r="G63" s="23" t="s">
@@ -10843,10 +10843,10 @@
         <v>126</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>2374</v>
+        <v>2377</v>
       </c>
       <c r="E64" s="23" t="s">
-        <v>2318</v>
+        <v>2321</v>
       </c>
       <c r="F64" s="23"/>
       <c r="G64" s="23" t="s">
@@ -10866,7 +10866,7 @@
       </c>
       <c r="D65" s="23"/>
       <c r="E65" s="23" t="s">
-        <v>2319</v>
+        <v>2322</v>
       </c>
       <c r="F65" s="23"/>
       <c r="G65" s="23" t="s">
@@ -10885,10 +10885,10 @@
         <v>77</v>
       </c>
       <c r="D66" s="23" t="s">
-        <v>2357</v>
+        <v>2360</v>
       </c>
       <c r="E66" s="23" t="s">
-        <v>2320</v>
+        <v>2323</v>
       </c>
       <c r="F66" s="23"/>
       <c r="G66" s="23" t="s">
@@ -10907,10 +10907,10 @@
         <v>130</v>
       </c>
       <c r="D67" s="23" t="s">
-        <v>2370</v>
+        <v>2373</v>
       </c>
       <c r="E67" s="23" t="s">
-        <v>2321</v>
+        <v>2324</v>
       </c>
       <c r="F67" s="23"/>
       <c r="G67" s="23" t="s">
@@ -10929,10 +10929,10 @@
         <v>133</v>
       </c>
       <c r="D68" s="23" t="s">
-        <v>2371</v>
+        <v>2374</v>
       </c>
       <c r="E68" s="23" t="s">
-        <v>2322</v>
+        <v>2325</v>
       </c>
       <c r="F68" s="23"/>
       <c r="G68" s="23" t="s">
@@ -10951,10 +10951,10 @@
         <v>135</v>
       </c>
       <c r="D69" s="23" t="s">
-        <v>2372</v>
+        <v>2375</v>
       </c>
       <c r="E69" s="23" t="s">
-        <v>2322</v>
+        <v>2325</v>
       </c>
       <c r="F69" s="23"/>
       <c r="G69" s="23" t="s">
@@ -10973,10 +10973,10 @@
         <v>137</v>
       </c>
       <c r="D70" s="23" t="s">
-        <v>2373</v>
+        <v>2376</v>
       </c>
       <c r="E70" s="23" t="s">
-        <v>2323</v>
+        <v>2326</v>
       </c>
       <c r="F70" s="23"/>
       <c r="G70" s="23" t="s">
@@ -10995,10 +10995,10 @@
         <v>139</v>
       </c>
       <c r="D71" s="23" t="s">
-        <v>2367</v>
+        <v>2370</v>
       </c>
       <c r="E71" s="23" t="s">
-        <v>2324</v>
+        <v>2327</v>
       </c>
       <c r="F71" s="23"/>
       <c r="G71" s="23" t="s">
@@ -11017,10 +11017,10 @@
         <v>141</v>
       </c>
       <c r="D72" s="23" t="s">
-        <v>2368</v>
+        <v>2371</v>
       </c>
       <c r="E72" s="23" t="s">
-        <v>2325</v>
+        <v>2328</v>
       </c>
       <c r="F72" s="23"/>
       <c r="G72" s="23" t="s">
@@ -11039,10 +11039,10 @@
         <v>143</v>
       </c>
       <c r="D73" s="23" t="s">
-        <v>2365</v>
+        <v>2368</v>
       </c>
       <c r="E73" s="23" t="s">
-        <v>2326</v>
+        <v>2329</v>
       </c>
       <c r="F73" s="23"/>
       <c r="G73" s="23" t="s">
@@ -11061,7 +11061,7 @@
         <v>146</v>
       </c>
       <c r="D74" s="23" t="s">
-        <v>2366</v>
+        <v>2369</v>
       </c>
       <c r="E74" s="23"/>
       <c r="F74" s="23"/>
@@ -11081,10 +11081,10 @@
         <v>148</v>
       </c>
       <c r="D75" s="23" t="s">
-        <v>2364</v>
+        <v>2367</v>
       </c>
       <c r="E75" s="23" t="s">
-        <v>2327</v>
+        <v>2330</v>
       </c>
       <c r="F75" s="23"/>
       <c r="G75" s="23" t="s">
@@ -11103,10 +11103,10 @@
         <v>151</v>
       </c>
       <c r="D76" s="23" t="s">
-        <v>2388</v>
+        <v>2391</v>
       </c>
       <c r="E76" s="23" t="s">
-        <v>2328</v>
+        <v>2331</v>
       </c>
       <c r="F76" s="23"/>
       <c r="G76" s="23" t="s">
@@ -11125,10 +11125,10 @@
         <v>153</v>
       </c>
       <c r="D77" s="23" t="s">
-        <v>2389</v>
+        <v>2392</v>
       </c>
       <c r="E77" s="23" t="s">
-        <v>2329</v>
+        <v>2332</v>
       </c>
       <c r="F77" s="23"/>
       <c r="G77" s="23" t="s">
@@ -11174,7 +11174,7 @@
         <v>1628</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>2271</v>
+        <v>2274</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
@@ -11184,10 +11184,10 @@
         <v>1629</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>2272</v>
+        <v>2275</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>2699</v>
+        <v>2703</v>
       </c>
       <c r="E2" t="s">
         <v>1630</v>
@@ -11201,10 +11201,10 @@
         <v>1632</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>2273</v>
+        <v>2276</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>2288</v>
+        <v>2291</v>
       </c>
       <c r="E3" t="s">
         <v>1633</v>
@@ -11218,10 +11218,10 @@
         <v>1635</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>2274</v>
+        <v>2277</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>2288</v>
+        <v>2291</v>
       </c>
       <c r="E4" t="s">
         <v>1636</v>
@@ -11235,10 +11235,10 @@
         <v>1637</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>2275</v>
+        <v>2278</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>2288</v>
+        <v>2291</v>
       </c>
       <c r="E5" t="s">
         <v>1638</v>
@@ -11252,10 +11252,10 @@
         <v>1639</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>2276</v>
+        <v>2279</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>2288</v>
+        <v>2291</v>
       </c>
       <c r="E6" t="s">
         <v>1640</v>
@@ -11269,10 +11269,10 @@
         <v>1641</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>2283</v>
+        <v>2286</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>2700</v>
+        <v>2704</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>1642</v>
@@ -11286,10 +11286,10 @@
         <v>1644</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>2284</v>
+        <v>2287</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>2703</v>
+        <v>2707</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>1645</v>
@@ -11303,10 +11303,10 @@
         <v>1647</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>2277</v>
+        <v>2280</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>2288</v>
+        <v>2291</v>
       </c>
       <c r="E9" t="s">
         <v>1648</v>
@@ -11320,10 +11320,10 @@
         <v>1649</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>2278</v>
+        <v>2281</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>2288</v>
+        <v>2291</v>
       </c>
       <c r="E10" t="s">
         <v>1650</v>
@@ -11337,10 +11337,10 @@
         <v>1651</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>2279</v>
+        <v>2282</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>2288</v>
+        <v>2291</v>
       </c>
       <c r="E11" t="s">
         <v>1652</v>
@@ -11354,10 +11354,10 @@
         <v>1653</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>2285</v>
+        <v>2288</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>2702</v>
+        <v>2706</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>1654</v>
@@ -11371,10 +11371,10 @@
         <v>1656</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>2286</v>
+        <v>2289</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>2704</v>
+        <v>2708</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>1657</v>
@@ -11388,10 +11388,10 @@
         <v>1659</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>2287</v>
+        <v>2290</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>2705</v>
+        <v>2709</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>1660</v>
@@ -11405,10 +11405,10 @@
         <v>1662</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>2280</v>
+        <v>2283</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>2701</v>
+        <v>2705</v>
       </c>
       <c r="E15" t="s">
         <v>1663</v>
@@ -11422,10 +11422,10 @@
         <v>1665</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>2281</v>
+        <v>2284</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>2288</v>
+        <v>2291</v>
       </c>
       <c r="E16" t="s">
         <v>1666</v>
@@ -11439,10 +11439,10 @@
         <v>1667</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>2282</v>
+        <v>2285</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>2288</v>
+        <v>2291</v>
       </c>
       <c r="E17" t="s">
         <v>1668</v>
@@ -11507,7 +11507,7 @@
         <v>1669</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>2455</v>
+        <v>2458</v>
       </c>
       <c r="C1" s="40"/>
       <c r="D1" s="40"/>
@@ -11517,7 +11517,7 @@
         <v>1670</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>2456</v>
+        <v>2459</v>
       </c>
       <c r="C2" s="40"/>
       <c r="D2" s="40"/>
@@ -11527,7 +11527,7 @@
         <v>1671</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>2457</v>
+        <v>2460</v>
       </c>
       <c r="C3" s="40"/>
       <c r="D3" s="40"/>
@@ -11537,7 +11537,7 @@
         <v>1672</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>2458</v>
+        <v>2461</v>
       </c>
       <c r="C4" s="40"/>
       <c r="D4" s="40"/>
@@ -11560,7 +11560,7 @@
         <v>1675</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>2459</v>
+        <v>2462</v>
       </c>
       <c r="D6" s="43" t="s">
         <v>1676</v>
@@ -11572,7 +11572,7 @@
         <v>1677</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>2460</v>
+        <v>2463</v>
       </c>
       <c r="D7" s="40" t="s">
         <v>1678</v>
@@ -11584,7 +11584,7 @@
         <v>1679</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>2461</v>
+        <v>2464</v>
       </c>
       <c r="D8" s="44" t="s">
         <v>1680</v>
@@ -11596,7 +11596,7 @@
         <v>1681</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>2462</v>
+        <v>2465</v>
       </c>
       <c r="D9" s="40" t="s">
         <v>1682</v>
@@ -11608,7 +11608,7 @@
         <v>1683</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>2463</v>
+        <v>2466</v>
       </c>
       <c r="D10" s="40" t="s">
         <v>1684</v>
@@ -11620,7 +11620,7 @@
         <v>1685</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>2473</v>
+        <v>2476</v>
       </c>
       <c r="D11" s="40" t="s">
         <v>1686</v>
@@ -11632,7 +11632,7 @@
         <v>1687</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>2465</v>
+        <v>2468</v>
       </c>
       <c r="D12" s="44" t="s">
         <v>1688</v>
@@ -11654,7 +11654,7 @@
         <v>1691</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>2471</v>
+        <v>2474</v>
       </c>
       <c r="D14" s="41" t="s">
         <v>1692</v>
@@ -11666,7 +11666,7 @@
         <v>1693</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>2472</v>
+        <v>2475</v>
       </c>
       <c r="D15" s="40" t="s">
         <v>1694</v>
@@ -11678,7 +11678,7 @@
         <v>1695</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>2464</v>
+        <v>2467</v>
       </c>
       <c r="D16" s="40" t="s">
         <v>1696</v>
@@ -11690,7 +11690,7 @@
         <v>1697</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>2474</v>
+        <v>2477</v>
       </c>
       <c r="D17" s="40" t="s">
         <v>1698</v>
@@ -11702,7 +11702,7 @@
         <v>1699</v>
       </c>
       <c r="C18" s="43" t="s">
-        <v>2475</v>
+        <v>2478</v>
       </c>
       <c r="D18" s="44" t="s">
         <v>1680</v>
@@ -11714,7 +11714,7 @@
         <v>1700</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>2476</v>
+        <v>2479</v>
       </c>
       <c r="D19" s="40" t="s">
         <v>1684</v>
@@ -11726,7 +11726,7 @@
         <v>1695</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>2464</v>
+        <v>2467</v>
       </c>
       <c r="D20" s="40" t="s">
         <v>1696</v>
@@ -11738,7 +11738,7 @@
         <v>1687</v>
       </c>
       <c r="C21" s="43" t="s">
-        <v>2477</v>
+        <v>2480</v>
       </c>
       <c r="D21" s="44" t="s">
         <v>1701</v>
@@ -11750,7 +11750,7 @@
         <v>1700</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>2478</v>
+        <v>2481</v>
       </c>
       <c r="D22" s="40" t="s">
         <v>1702</v>
@@ -11764,10 +11764,10 @@
         <v>1695</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>2464</v>
+        <v>2467</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>2466</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="33.75" customHeight="1">
@@ -11776,10 +11776,10 @@
         <v>1704</v>
       </c>
       <c r="C24" s="43" t="s">
-        <v>2475</v>
+        <v>2478</v>
       </c>
       <c r="D24" s="41" t="s">
-        <v>2467</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15">
@@ -11793,10 +11793,10 @@
     <row r="26" spans="1:4" ht="15">
       <c r="A26" s="40"/>
       <c r="B26" s="40" t="s">
-        <v>2468</v>
+        <v>2471</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>2479</v>
+        <v>2482</v>
       </c>
       <c r="D26" s="40" t="s">
         <v>1696</v>
@@ -11805,13 +11805,13 @@
     <row r="27" spans="1:4" ht="29.15">
       <c r="A27" s="40"/>
       <c r="B27" s="41" t="s">
-        <v>2469</v>
+        <v>2472</v>
       </c>
       <c r="C27" s="41" t="s">
-        <v>2480</v>
+        <v>2483</v>
       </c>
       <c r="D27" s="41" t="s">
-        <v>2470</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15">
@@ -11820,7 +11820,7 @@
         <v>1705</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>2481</v>
+        <v>2484</v>
       </c>
       <c r="D28" s="40" t="s">
         <v>1706</v>
@@ -11832,7 +11832,7 @@
         <v>1707</v>
       </c>
       <c r="C29" s="43" t="s">
-        <v>2482</v>
+        <v>2485</v>
       </c>
       <c r="D29" s="41" t="s">
         <v>1708</v>
@@ -11844,7 +11844,7 @@
         <v>1709</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>2474</v>
+        <v>2477</v>
       </c>
       <c r="D30" s="40" t="s">
         <v>1682</v>
@@ -11879,7 +11879,7 @@
         <v>1669</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>2455</v>
+        <v>2458</v>
       </c>
       <c r="C1" s="40"/>
       <c r="D1" s="40"/>
@@ -11889,7 +11889,7 @@
         <v>1670</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>2456</v>
+        <v>2459</v>
       </c>
       <c r="C2" s="40"/>
       <c r="D2" s="40"/>
@@ -11899,7 +11899,7 @@
         <v>1671</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>2457</v>
+        <v>2460</v>
       </c>
       <c r="C3" s="40"/>
       <c r="D3" s="40"/>
@@ -11909,7 +11909,7 @@
         <v>1672</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>2458</v>
+        <v>2461</v>
       </c>
       <c r="C4" s="40"/>
       <c r="D4" s="40"/>
@@ -11932,7 +11932,7 @@
         <v>1711</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>2706</v>
+        <v>2710</v>
       </c>
       <c r="D6" s="43" t="s">
         <v>1676</v>
@@ -11944,7 +11944,7 @@
         <v>1712</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>2483</v>
+        <v>2486</v>
       </c>
       <c r="D7" s="27" t="s">
         <v>1713</v>
@@ -11956,7 +11956,7 @@
         <v>1714</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>2485</v>
+        <v>2488</v>
       </c>
       <c r="D8" s="40" t="s">
         <v>1715</v>
@@ -11968,7 +11968,7 @@
         <v>1716</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>2484</v>
+        <v>2487</v>
       </c>
       <c r="D9" s="44" t="s">
         <v>1998</v>
@@ -12005,7 +12005,7 @@
         <v>2000</v>
       </c>
       <c r="C1" s="46" t="s">
-        <v>2558</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15">
@@ -12013,7 +12013,7 @@
         <v>1717</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>2486</v>
+        <v>2489</v>
       </c>
       <c r="C2" s="40" t="s">
         <v>1718</v>
@@ -12024,7 +12024,7 @@
         <v>1719</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>2487</v>
+        <v>2490</v>
       </c>
       <c r="C3" s="40" t="s">
         <v>1720</v>
@@ -12035,7 +12035,7 @@
         <v>1721</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>2488</v>
+        <v>2491</v>
       </c>
       <c r="C4" s="40" t="s">
         <v>1722</v>
@@ -12046,7 +12046,7 @@
         <v>1723</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>2489</v>
+        <v>2492</v>
       </c>
       <c r="C5" s="40" t="s">
         <v>1724</v>
@@ -12057,7 +12057,7 @@
         <v>1725</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>2490</v>
+        <v>2493</v>
       </c>
       <c r="C6" s="40" t="s">
         <v>1726</v>
@@ -12068,7 +12068,7 @@
         <v>1727</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>2491</v>
+        <v>2494</v>
       </c>
       <c r="C7" s="40" t="s">
         <v>1728</v>
@@ -12079,7 +12079,7 @@
         <v>1729</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>2492</v>
+        <v>2495</v>
       </c>
       <c r="C8" s="40" t="s">
         <v>1730</v>
@@ -12090,7 +12090,7 @@
         <v>1731</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>2493</v>
+        <v>2496</v>
       </c>
       <c r="C9" s="40" t="s">
         <v>1732</v>
@@ -12101,7 +12101,7 @@
         <v>1733</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>2494</v>
+        <v>2497</v>
       </c>
       <c r="C10" s="40" t="s">
         <v>1734</v>
@@ -12112,7 +12112,7 @@
         <v>1735</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>2495</v>
+        <v>2498</v>
       </c>
       <c r="C11" s="40" t="s">
         <v>1736</v>
@@ -12123,7 +12123,7 @@
         <v>1737</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>2496</v>
+        <v>2499</v>
       </c>
       <c r="C12" s="40" t="s">
         <v>1738</v>
@@ -12134,7 +12134,7 @@
         <v>1739</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>2497</v>
+        <v>2500</v>
       </c>
       <c r="C13" s="40" t="s">
         <v>1740</v>
@@ -12145,7 +12145,7 @@
         <v>1741</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>2498</v>
+        <v>2501</v>
       </c>
       <c r="C14" s="40" t="s">
         <v>1742</v>
@@ -12156,7 +12156,7 @@
         <v>1743</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>2499</v>
+        <v>2502</v>
       </c>
       <c r="C15" s="40" t="s">
         <v>1744</v>
@@ -12167,7 +12167,7 @@
         <v>1745</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>2500</v>
+        <v>2503</v>
       </c>
       <c r="C16" s="40" t="s">
         <v>1746</v>
@@ -12178,7 +12178,7 @@
         <v>1747</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>2501</v>
+        <v>2504</v>
       </c>
       <c r="C17" s="40" t="s">
         <v>1748</v>
@@ -12189,7 +12189,7 @@
         <v>1749</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>2502</v>
+        <v>2505</v>
       </c>
       <c r="C18" s="40" t="s">
         <v>1750</v>
@@ -12200,7 +12200,7 @@
         <v>1751</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>2503</v>
+        <v>2506</v>
       </c>
       <c r="C19" s="40" t="s">
         <v>1752</v>
@@ -12211,7 +12211,7 @@
         <v>1753</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>2504</v>
+        <v>2507</v>
       </c>
       <c r="C20" s="40" t="s">
         <v>1754</v>
@@ -12222,7 +12222,7 @@
         <v>1755</v>
       </c>
       <c r="B21" s="40" t="s">
-        <v>2505</v>
+        <v>2508</v>
       </c>
       <c r="C21" s="40" t="s">
         <v>1756</v>
@@ -12244,7 +12244,7 @@
         <v>1757</v>
       </c>
       <c r="B23" s="40" t="s">
-        <v>2506</v>
+        <v>2509</v>
       </c>
       <c r="C23" s="40" t="s">
         <v>1758</v>
@@ -12266,7 +12266,7 @@
         <v>1759</v>
       </c>
       <c r="B25" s="40" t="s">
-        <v>2507</v>
+        <v>2510</v>
       </c>
       <c r="C25" s="40" t="s">
         <v>1760</v>
@@ -12277,7 +12277,7 @@
         <v>1761</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>2508</v>
+        <v>2511</v>
       </c>
       <c r="C26" s="40" t="s">
         <v>1762</v>
@@ -12288,7 +12288,7 @@
         <v>1763</v>
       </c>
       <c r="B27" s="40" t="s">
-        <v>2509</v>
+        <v>2512</v>
       </c>
       <c r="C27" s="40" t="s">
         <v>1764</v>
@@ -12299,7 +12299,7 @@
         <v>1765</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>2510</v>
+        <v>2513</v>
       </c>
       <c r="C28" s="40" t="s">
         <v>1766</v>
@@ -12310,7 +12310,7 @@
         <v>1763</v>
       </c>
       <c r="B29" s="40" t="s">
-        <v>2509</v>
+        <v>2512</v>
       </c>
       <c r="C29" s="40" t="s">
         <v>1764</v>
@@ -12321,7 +12321,7 @@
         <v>1767</v>
       </c>
       <c r="B30" s="40" t="s">
-        <v>2511</v>
+        <v>2514</v>
       </c>
       <c r="C30" s="40" t="s">
         <v>1768</v>
@@ -12332,7 +12332,7 @@
         <v>1769</v>
       </c>
       <c r="B31" s="40" t="s">
-        <v>2512</v>
+        <v>2515</v>
       </c>
       <c r="C31" s="40" t="s">
         <v>1770</v>
@@ -12343,7 +12343,7 @@
         <v>1771</v>
       </c>
       <c r="B32" s="40" t="s">
-        <v>2513</v>
+        <v>2516</v>
       </c>
       <c r="C32" s="40" t="s">
         <v>1772</v>
@@ -12354,7 +12354,7 @@
         <v>1773</v>
       </c>
       <c r="B33" s="40" t="s">
-        <v>2514</v>
+        <v>2517</v>
       </c>
       <c r="C33" s="40" t="s">
         <v>1774</v>
@@ -12365,7 +12365,7 @@
         <v>1775</v>
       </c>
       <c r="B34" s="40" t="s">
-        <v>2515</v>
+        <v>2518</v>
       </c>
       <c r="C34" s="40" t="s">
         <v>1776</v>
@@ -12376,7 +12376,7 @@
         <v>1777</v>
       </c>
       <c r="B35" s="40" t="s">
-        <v>2516</v>
+        <v>2519</v>
       </c>
       <c r="C35" s="40" t="s">
         <v>1778</v>
@@ -12387,7 +12387,7 @@
         <v>1779</v>
       </c>
       <c r="B36" s="40" t="s">
-        <v>2517</v>
+        <v>2520</v>
       </c>
       <c r="C36" s="27" t="s">
         <v>1780</v>
@@ -12398,7 +12398,7 @@
         <v>1781</v>
       </c>
       <c r="B37" s="40" t="s">
-        <v>2518</v>
+        <v>2521</v>
       </c>
       <c r="C37" s="40" t="s">
         <v>1782</v>
@@ -12409,7 +12409,7 @@
         <v>1783</v>
       </c>
       <c r="B38" s="40" t="s">
-        <v>2519</v>
+        <v>2522</v>
       </c>
       <c r="C38" s="40" t="s">
         <v>1784</v>
@@ -12420,7 +12420,7 @@
         <v>1785</v>
       </c>
       <c r="B39" s="40" t="s">
-        <v>2520</v>
+        <v>2523</v>
       </c>
       <c r="C39" s="40" t="s">
         <v>1786</v>
@@ -12431,7 +12431,7 @@
         <v>1787</v>
       </c>
       <c r="B40" s="40" t="s">
-        <v>2521</v>
+        <v>2524</v>
       </c>
       <c r="C40" s="40" t="s">
         <v>1788</v>
@@ -12442,7 +12442,7 @@
         <v>1789</v>
       </c>
       <c r="B41" s="40" t="s">
-        <v>2522</v>
+        <v>2525</v>
       </c>
       <c r="C41" s="40" t="s">
         <v>1790</v>
@@ -12453,7 +12453,7 @@
         <v>1791</v>
       </c>
       <c r="B42" s="40" t="s">
-        <v>2523</v>
+        <v>2526</v>
       </c>
       <c r="C42" s="40" t="s">
         <v>1792</v>
@@ -12464,7 +12464,7 @@
         <v>1793</v>
       </c>
       <c r="B43" s="40" t="s">
-        <v>2524</v>
+        <v>2527</v>
       </c>
       <c r="C43" s="40" t="s">
         <v>1794</v>
@@ -12475,7 +12475,7 @@
         <v>1795</v>
       </c>
       <c r="B44" s="40" t="s">
-        <v>2525</v>
+        <v>2528</v>
       </c>
       <c r="C44" s="40" t="s">
         <v>1796</v>
@@ -12486,7 +12486,7 @@
         <v>1797</v>
       </c>
       <c r="B45" s="40" t="s">
-        <v>2526</v>
+        <v>2529</v>
       </c>
       <c r="C45" s="40" t="s">
         <v>1798</v>
@@ -12497,7 +12497,7 @@
         <v>1799</v>
       </c>
       <c r="B46" s="40" t="s">
-        <v>2527</v>
+        <v>2530</v>
       </c>
       <c r="C46" s="40" t="s">
         <v>1800</v>
@@ -12508,7 +12508,7 @@
         <v>1801</v>
       </c>
       <c r="B47" s="40" t="s">
-        <v>2528</v>
+        <v>2531</v>
       </c>
       <c r="C47" s="40" t="s">
         <v>1802</v>
@@ -12519,7 +12519,7 @@
         <v>1803</v>
       </c>
       <c r="B48" s="40" t="s">
-        <v>2529</v>
+        <v>2532</v>
       </c>
       <c r="C48" s="40" t="s">
         <v>1804</v>
@@ -12530,7 +12530,7 @@
         <v>1805</v>
       </c>
       <c r="B49" s="40" t="s">
-        <v>2530</v>
+        <v>2533</v>
       </c>
       <c r="C49" s="40" t="s">
         <v>1806</v>
@@ -12541,7 +12541,7 @@
         <v>1807</v>
       </c>
       <c r="B50" s="40" t="s">
-        <v>2531</v>
+        <v>2534</v>
       </c>
       <c r="C50" s="40" t="s">
         <v>1808</v>
@@ -12552,7 +12552,7 @@
         <v>1809</v>
       </c>
       <c r="B51" s="40" t="s">
-        <v>2532</v>
+        <v>2535</v>
       </c>
       <c r="C51" s="40" t="s">
         <v>1810</v>
@@ -12563,7 +12563,7 @@
         <v>1811</v>
       </c>
       <c r="B52" s="40" t="s">
-        <v>2533</v>
+        <v>2536</v>
       </c>
       <c r="C52" s="40" t="s">
         <v>1812</v>
@@ -12574,7 +12574,7 @@
         <v>1813</v>
       </c>
       <c r="B53" s="40" t="s">
-        <v>2534</v>
+        <v>2537</v>
       </c>
       <c r="C53" s="40" t="s">
         <v>1814</v>
@@ -12585,7 +12585,7 @@
         <v>1815</v>
       </c>
       <c r="B54" s="40" t="s">
-        <v>2535</v>
+        <v>2538</v>
       </c>
       <c r="C54" s="40" t="s">
         <v>1816</v>
@@ -12596,7 +12596,7 @@
         <v>1817</v>
       </c>
       <c r="B55" s="40" t="s">
-        <v>2536</v>
+        <v>2539</v>
       </c>
       <c r="C55" s="40" t="s">
         <v>1818</v>
@@ -12607,7 +12607,7 @@
         <v>1819</v>
       </c>
       <c r="B56" s="40" t="s">
-        <v>2537</v>
+        <v>2540</v>
       </c>
       <c r="C56" s="40" t="s">
         <v>1820</v>
@@ -12618,7 +12618,7 @@
         <v>1821</v>
       </c>
       <c r="B57" s="40" t="s">
-        <v>2538</v>
+        <v>2541</v>
       </c>
       <c r="C57" s="40" t="s">
         <v>1822</v>
@@ -12629,7 +12629,7 @@
         <v>1823</v>
       </c>
       <c r="B58" s="40" t="s">
-        <v>2539</v>
+        <v>2542</v>
       </c>
       <c r="C58" s="40" t="s">
         <v>1824</v>
@@ -12640,7 +12640,7 @@
         <v>1825</v>
       </c>
       <c r="B59" s="40" t="s">
-        <v>2540</v>
+        <v>2543</v>
       </c>
       <c r="C59" s="40" t="s">
         <v>1826</v>
@@ -12651,7 +12651,7 @@
         <v>1827</v>
       </c>
       <c r="B60" s="40" t="s">
-        <v>2541</v>
+        <v>2544</v>
       </c>
       <c r="C60" s="40" t="s">
         <v>1828</v>
@@ -12662,7 +12662,7 @@
         <v>1829</v>
       </c>
       <c r="B61" s="40" t="s">
-        <v>2542</v>
+        <v>2545</v>
       </c>
       <c r="C61" s="40" t="s">
         <v>1830</v>
@@ -12673,7 +12673,7 @@
         <v>1831</v>
       </c>
       <c r="B62" s="40" t="s">
-        <v>2543</v>
+        <v>2546</v>
       </c>
       <c r="C62" s="40" t="s">
         <v>1832</v>
@@ -12684,7 +12684,7 @@
         <v>1833</v>
       </c>
       <c r="B63" s="40" t="s">
-        <v>2544</v>
+        <v>2547</v>
       </c>
       <c r="C63" s="40" t="s">
         <v>1834</v>
@@ -12695,7 +12695,7 @@
         <v>1835</v>
       </c>
       <c r="B64" s="40" t="s">
-        <v>2545</v>
+        <v>2548</v>
       </c>
       <c r="C64" s="40" t="s">
         <v>1836</v>
@@ -12706,7 +12706,7 @@
         <v>1837</v>
       </c>
       <c r="B65" s="40" t="s">
-        <v>2546</v>
+        <v>2549</v>
       </c>
       <c r="C65" s="40" t="s">
         <v>1838</v>
@@ -12717,7 +12717,7 @@
         <v>1839</v>
       </c>
       <c r="B66" s="40" t="s">
-        <v>2547</v>
+        <v>2550</v>
       </c>
       <c r="C66" s="40" t="s">
         <v>1840</v>
@@ -12728,7 +12728,7 @@
         <v>1841</v>
       </c>
       <c r="B67" s="40" t="s">
-        <v>2548</v>
+        <v>2551</v>
       </c>
       <c r="C67" s="40" t="s">
         <v>1842</v>
@@ -12739,7 +12739,7 @@
         <v>1843</v>
       </c>
       <c r="B68" s="40" t="s">
-        <v>2549</v>
+        <v>2552</v>
       </c>
       <c r="C68" s="40" t="s">
         <v>1844</v>
@@ -12750,7 +12750,7 @@
         <v>1845</v>
       </c>
       <c r="B69" s="40" t="s">
-        <v>2550</v>
+        <v>2553</v>
       </c>
       <c r="C69" s="40" t="s">
         <v>1846</v>
@@ -12761,7 +12761,7 @@
         <v>1847</v>
       </c>
       <c r="B70" s="40" t="s">
-        <v>2551</v>
+        <v>2554</v>
       </c>
       <c r="C70" s="40" t="s">
         <v>1848</v>
@@ -12772,7 +12772,7 @@
         <v>1739</v>
       </c>
       <c r="B71" s="40" t="s">
-        <v>2497</v>
+        <v>2500</v>
       </c>
       <c r="C71" s="40" t="s">
         <v>1849</v>
@@ -12783,7 +12783,7 @@
         <v>1850</v>
       </c>
       <c r="B72" s="40" t="s">
-        <v>2552</v>
+        <v>2555</v>
       </c>
       <c r="C72" s="40" t="s">
         <v>1851</v>
@@ -12794,7 +12794,7 @@
         <v>1852</v>
       </c>
       <c r="B73" s="40" t="s">
-        <v>2553</v>
+        <v>2556</v>
       </c>
       <c r="C73" s="40" t="s">
         <v>1853</v>
@@ -12805,7 +12805,7 @@
         <v>1854</v>
       </c>
       <c r="B74" s="40" t="s">
-        <v>2554</v>
+        <v>2557</v>
       </c>
       <c r="C74" s="40" t="s">
         <v>1855</v>
@@ -12816,7 +12816,7 @@
         <v>1856</v>
       </c>
       <c r="B75" s="40" t="s">
-        <v>2555</v>
+        <v>2558</v>
       </c>
       <c r="C75" s="40" t="s">
         <v>1857</v>
@@ -12827,7 +12827,7 @@
         <v>1858</v>
       </c>
       <c r="B76" s="40" t="s">
-        <v>2556</v>
+        <v>2559</v>
       </c>
       <c r="C76" s="40" t="s">
         <v>1859</v>
@@ -12838,7 +12838,7 @@
         <v>1860</v>
       </c>
       <c r="B77" s="40" t="s">
-        <v>2557</v>
+        <v>2560</v>
       </c>
       <c r="C77" s="40" t="s">
         <v>1861</v>
@@ -12873,7 +12873,7 @@
         <v>1671</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>2457</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -12881,7 +12881,7 @@
         <v>1672</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>2458</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -12897,7 +12897,7 @@
         <v>1863</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>2707</v>
+        <v>2711</v>
       </c>
       <c r="C5" s="48" t="s">
         <v>1864</v>
@@ -12908,7 +12908,7 @@
         <v>1865</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>2559</v>
+        <v>2562</v>
       </c>
       <c r="C6" s="40" t="s">
         <v>1866</v>
@@ -12919,7 +12919,7 @@
         <v>1867</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>2708</v>
+        <v>2712</v>
       </c>
       <c r="C7" s="48" t="s">
         <v>1868</v>
@@ -12930,7 +12930,7 @@
         <v>1869</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>2560</v>
+        <v>2563</v>
       </c>
       <c r="C8" s="40" t="s">
         <v>1870</v>
@@ -13853,7 +13853,7 @@
         <v>2000</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>2408</v>
+        <v>2411</v>
       </c>
       <c r="F1" s="34" t="s">
         <v>1435</v>
@@ -13873,7 +13873,7 @@
         <v>909</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>2409</v>
+        <v>2412</v>
       </c>
       <c r="E2" s="23"/>
       <c r="F2" s="23" t="s">
@@ -13892,7 +13892,7 @@
         <v>1438</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>2709</v>
+        <v>2713</v>
       </c>
       <c r="E3" s="23"/>
       <c r="F3" s="23" t="s">
@@ -13911,7 +13911,7 @@
         <v>1440</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>2410</v>
+        <v>2413</v>
       </c>
       <c r="E4" s="23"/>
       <c r="F4" s="23" t="s">
@@ -13930,7 +13930,7 @@
         <v>1442</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>2411</v>
+        <v>2414</v>
       </c>
       <c r="E5" s="23"/>
       <c r="F5" s="23" t="s">
@@ -13949,7 +13949,7 @@
         <v>1444</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>2412</v>
+        <v>2415</v>
       </c>
       <c r="E6" s="23"/>
       <c r="F6" s="23" t="s">
@@ -13968,7 +13968,7 @@
         <v>1446</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>2413</v>
+        <v>2416</v>
       </c>
       <c r="E7" s="23"/>
       <c r="F7" s="23" t="s">
@@ -13987,7 +13987,7 @@
         <v>1448</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>2414</v>
+        <v>2417</v>
       </c>
       <c r="E8" s="23"/>
       <c r="F8" s="23" t="s">
@@ -14006,7 +14006,7 @@
         <v>1451</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>2415</v>
+        <v>2418</v>
       </c>
       <c r="E9" s="23"/>
       <c r="F9" s="23" t="s">
@@ -14025,7 +14025,7 @@
         <v>1453</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>2416</v>
+        <v>2419</v>
       </c>
       <c r="E10" s="23"/>
       <c r="F10" s="27" t="s">
@@ -14044,7 +14044,7 @@
         <v>1455</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>2417</v>
+        <v>2420</v>
       </c>
       <c r="E11" s="23"/>
       <c r="F11" s="27" t="s">
@@ -14063,7 +14063,7 @@
         <v>1457</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>2421</v>
+        <v>2424</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="27" t="s">
@@ -14082,7 +14082,7 @@
         <v>1459</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>2418</v>
+        <v>2421</v>
       </c>
       <c r="E13" s="23"/>
       <c r="F13" s="27" t="s">
@@ -14101,7 +14101,7 @@
         <v>36</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>2343</v>
+        <v>2346</v>
       </c>
       <c r="E14" s="23"/>
       <c r="F14" s="23" t="s">
@@ -14120,7 +14120,7 @@
         <v>1461</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>2419</v>
+        <v>2422</v>
       </c>
       <c r="E15" s="23"/>
       <c r="F15" s="23" t="s">
@@ -14139,7 +14139,7 @@
         <v>1463</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>2420</v>
+        <v>2423</v>
       </c>
       <c r="E16" s="23"/>
       <c r="F16" s="23" t="s">
@@ -14158,7 +14158,7 @@
         <v>1465</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>2422</v>
+        <v>2425</v>
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="23" t="s">
@@ -14177,7 +14177,7 @@
         <v>1448</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>2414</v>
+        <v>2417</v>
       </c>
       <c r="E18" s="23"/>
       <c r="F18" s="23" t="s">
@@ -14196,7 +14196,7 @@
         <v>1467</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>2423</v>
+        <v>2426</v>
       </c>
       <c r="E19" s="23"/>
       <c r="F19" s="23" t="s">
@@ -14215,7 +14215,7 @@
         <v>1469</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>2424</v>
+        <v>2427</v>
       </c>
       <c r="E20" s="23"/>
       <c r="F20" s="23" t="s">
@@ -14234,7 +14234,7 @@
         <v>1471</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>2425</v>
+        <v>2428</v>
       </c>
       <c r="E21" s="23"/>
       <c r="F21" s="23" t="s">
@@ -14253,7 +14253,7 @@
         <v>1451</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>2415</v>
+        <v>2418</v>
       </c>
       <c r="E22" s="23"/>
       <c r="F22" s="23" t="s">
@@ -14272,7 +14272,7 @@
         <v>1473</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>2691</v>
+        <v>2695</v>
       </c>
       <c r="E23" s="23"/>
       <c r="F23" s="27" t="s">
@@ -14291,7 +14291,7 @@
         <v>1475</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>2692</v>
+        <v>2696</v>
       </c>
       <c r="E24" s="23"/>
       <c r="F24" s="27" t="s">
@@ -14310,7 +14310,7 @@
         <v>1477</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>2693</v>
+        <v>2697</v>
       </c>
       <c r="E25" s="23"/>
       <c r="F25" s="27" t="s">
@@ -14329,7 +14329,7 @@
         <v>1479</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>2694</v>
+        <v>2698</v>
       </c>
       <c r="E26" s="23"/>
       <c r="F26" s="27" t="s">
@@ -14348,7 +14348,7 @@
         <v>1481</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>2426</v>
+        <v>2429</v>
       </c>
       <c r="E27" s="23"/>
       <c r="F27" s="23" t="s">
@@ -14367,7 +14367,7 @@
         <v>1483</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>2427</v>
+        <v>2430</v>
       </c>
       <c r="E28" s="23"/>
       <c r="F28" s="23" t="s">
@@ -14386,7 +14386,7 @@
         <v>1463</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>2420</v>
+        <v>2423</v>
       </c>
       <c r="E29" s="23"/>
       <c r="F29" s="23" t="s">
@@ -14405,7 +14405,7 @@
         <v>1467</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>2423</v>
+        <v>2426</v>
       </c>
       <c r="E30" s="23"/>
       <c r="F30" s="23" t="s">
@@ -14424,7 +14424,7 @@
         <v>1469</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>2424</v>
+        <v>2427</v>
       </c>
       <c r="E31" s="23"/>
       <c r="F31" s="23" t="s">
@@ -14443,7 +14443,7 @@
         <v>1485</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>2428</v>
+        <v>2431</v>
       </c>
       <c r="E32" s="23"/>
       <c r="F32" s="23" t="s">
@@ -14462,7 +14462,7 @@
         <v>1448</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>2414</v>
+        <v>2417</v>
       </c>
       <c r="E33" s="23"/>
       <c r="F33" s="23" t="s">
@@ -14481,7 +14481,7 @@
         <v>1487</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>2429</v>
+        <v>2432</v>
       </c>
       <c r="E34" s="23"/>
       <c r="F34" s="23" t="s">
@@ -14497,14 +14497,14 @@
         <v>1436</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>2405</v>
+        <v>2408</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>2454</v>
+        <v>2457</v>
       </c>
       <c r="E35" s="23"/>
       <c r="F35" s="23" t="s">
-        <v>2406</v>
+        <v>2409</v>
       </c>
       <c r="G35" s="23"/>
     </row>
@@ -14519,7 +14519,7 @@
         <v>1444</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>2412</v>
+        <v>2415</v>
       </c>
       <c r="E36" s="23"/>
       <c r="F36" s="23" t="s">
@@ -14538,7 +14538,7 @@
         <v>1446</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>2413</v>
+        <v>2416</v>
       </c>
       <c r="E37" s="23"/>
       <c r="F37" s="23" t="s">
@@ -14557,7 +14557,7 @@
         <v>1489</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>2430</v>
+        <v>2433</v>
       </c>
       <c r="E38" s="23"/>
       <c r="F38" s="23" t="s">
@@ -14576,7 +14576,7 @@
         <v>1491</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>2439</v>
+        <v>2442</v>
       </c>
       <c r="E39" s="23"/>
       <c r="F39" s="23" t="s">
@@ -14595,7 +14595,7 @@
         <v>1493</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>2431</v>
+        <v>2434</v>
       </c>
       <c r="E40" s="23"/>
       <c r="F40" s="23" t="s">
@@ -14614,7 +14614,7 @@
         <v>1495</v>
       </c>
       <c r="D41" s="23" t="s">
-        <v>2432</v>
+        <v>2435</v>
       </c>
       <c r="E41" s="23"/>
       <c r="F41" s="23" t="s">
@@ -14633,7 +14633,7 @@
         <v>1497</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>2343</v>
+        <v>2346</v>
       </c>
       <c r="E42" s="23"/>
       <c r="F42" s="23" t="s">
@@ -14652,7 +14652,7 @@
         <v>87</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>2350</v>
+        <v>2353</v>
       </c>
       <c r="E43" s="23"/>
       <c r="F43" s="23" t="s">
@@ -14671,7 +14671,7 @@
         <v>1451</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>2415</v>
+        <v>2418</v>
       </c>
       <c r="E44" s="23"/>
       <c r="F44" s="23" t="s">
@@ -14690,7 +14690,7 @@
         <v>1498</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>2433</v>
+        <v>2436</v>
       </c>
       <c r="E45" s="23"/>
       <c r="F45" s="27" t="s">
@@ -14709,7 +14709,7 @@
         <v>1500</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>2434</v>
+        <v>2437</v>
       </c>
       <c r="E46" s="23"/>
       <c r="F46" s="27" t="s">
@@ -14728,7 +14728,7 @@
         <v>1502</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>2435</v>
+        <v>2438</v>
       </c>
       <c r="E47" s="23"/>
       <c r="F47" s="27" t="s">
@@ -14747,7 +14747,7 @@
         <v>1504</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>2436</v>
+        <v>2439</v>
       </c>
       <c r="E48" s="23"/>
       <c r="F48" s="27" t="s">
@@ -14766,7 +14766,7 @@
         <v>1506</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>2440</v>
+        <v>2443</v>
       </c>
       <c r="E49" s="23"/>
       <c r="F49" s="25" t="s">
@@ -14785,7 +14785,7 @@
         <v>1508</v>
       </c>
       <c r="D50" s="23" t="s">
-        <v>2441</v>
+        <v>2444</v>
       </c>
       <c r="E50" s="23"/>
       <c r="F50" s="25" t="s">
@@ -14804,7 +14804,7 @@
         <v>1491</v>
       </c>
       <c r="D51" s="23" t="s">
-        <v>2439</v>
+        <v>2442</v>
       </c>
       <c r="E51" s="23"/>
       <c r="F51" s="25" t="s">
@@ -14823,7 +14823,7 @@
         <v>1510</v>
       </c>
       <c r="D52" s="23" t="s">
-        <v>2438</v>
+        <v>2441</v>
       </c>
       <c r="E52" s="23"/>
       <c r="F52" s="25" t="s">
@@ -14842,7 +14842,7 @@
         <v>1512</v>
       </c>
       <c r="D53" s="23" t="s">
-        <v>2344</v>
+        <v>2347</v>
       </c>
       <c r="E53" s="23"/>
       <c r="F53" s="25" t="s">
@@ -14861,7 +14861,7 @@
         <v>1514</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>2437</v>
+        <v>2440</v>
       </c>
       <c r="E54" s="23"/>
       <c r="F54" s="25" t="s">
@@ -14880,7 +14880,7 @@
         <v>1451</v>
       </c>
       <c r="D55" s="40" t="s">
-        <v>2415</v>
+        <v>2418</v>
       </c>
       <c r="E55" s="23"/>
       <c r="F55" s="25" t="s">
@@ -14899,7 +14899,7 @@
         <v>1516</v>
       </c>
       <c r="D56" s="40" t="s">
-        <v>2443</v>
+        <v>2446</v>
       </c>
       <c r="E56" s="23"/>
       <c r="F56" s="25" t="s">
@@ -14918,7 +14918,7 @@
         <v>1518</v>
       </c>
       <c r="D57" s="40" t="s">
-        <v>2444</v>
+        <v>2447</v>
       </c>
       <c r="E57" s="23"/>
       <c r="F57" s="25" t="s">
@@ -14937,7 +14937,7 @@
         <v>1520</v>
       </c>
       <c r="D58" s="40" t="s">
-        <v>2445</v>
+        <v>2448</v>
       </c>
       <c r="E58" s="23"/>
       <c r="F58" s="25" t="s">
@@ -14956,7 +14956,7 @@
         <v>1522</v>
       </c>
       <c r="D59" s="40" t="s">
-        <v>2446</v>
+        <v>2449</v>
       </c>
       <c r="E59" s="23"/>
       <c r="F59" s="25" t="s">
@@ -14975,7 +14975,7 @@
         <v>1524</v>
       </c>
       <c r="D60" s="40" t="s">
-        <v>2447</v>
+        <v>2450</v>
       </c>
       <c r="E60" s="23"/>
       <c r="F60" s="25" t="s">
@@ -14994,7 +14994,7 @@
         <v>1526</v>
       </c>
       <c r="D61" s="40" t="s">
-        <v>2442</v>
+        <v>2445</v>
       </c>
       <c r="E61" s="23"/>
       <c r="F61" s="25" t="s">
@@ -15013,7 +15013,7 @@
         <v>1528</v>
       </c>
       <c r="D62" s="23" t="s">
-        <v>2448</v>
+        <v>2451</v>
       </c>
       <c r="E62" s="23"/>
       <c r="F62" s="25" t="s">
@@ -15032,7 +15032,7 @@
         <v>1530</v>
       </c>
       <c r="D63" s="40" t="s">
-        <v>2449</v>
+        <v>2452</v>
       </c>
       <c r="E63" s="23"/>
       <c r="F63" s="25" t="s">
@@ -15051,7 +15051,7 @@
         <v>1532</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>2450</v>
+        <v>2453</v>
       </c>
       <c r="E64" s="23"/>
       <c r="F64" s="25" t="s">
@@ -15070,7 +15070,7 @@
         <v>1534</v>
       </c>
       <c r="D65" s="23" t="s">
-        <v>2451</v>
+        <v>2454</v>
       </c>
       <c r="E65" s="23"/>
       <c r="F65" s="25" t="s">
@@ -15089,7 +15089,7 @@
         <v>99</v>
       </c>
       <c r="D66" s="23" t="s">
-        <v>2380</v>
+        <v>2383</v>
       </c>
       <c r="E66" s="23"/>
       <c r="F66" s="25" t="s">
@@ -15108,7 +15108,7 @@
         <v>1536</v>
       </c>
       <c r="D67" s="23" t="s">
-        <v>2381</v>
+        <v>2384</v>
       </c>
       <c r="E67" s="23"/>
       <c r="F67" s="25" t="s">
@@ -15127,7 +15127,7 @@
         <v>1537</v>
       </c>
       <c r="D68" s="23" t="s">
-        <v>2452</v>
+        <v>2455</v>
       </c>
       <c r="E68" s="23"/>
       <c r="F68" s="25" t="s">
@@ -15146,7 +15146,7 @@
         <v>1497</v>
       </c>
       <c r="D69" s="23" t="s">
-        <v>2343</v>
+        <v>2346</v>
       </c>
       <c r="E69" s="23"/>
       <c r="F69" s="25" t="s">
@@ -15165,7 +15165,7 @@
         <v>1539</v>
       </c>
       <c r="D70" s="23" t="s">
-        <v>2453</v>
+        <v>2456</v>
       </c>
       <c r="E70" s="23"/>
       <c r="F70" s="25" t="s">
@@ -15184,7 +15184,7 @@
         <v>1541</v>
       </c>
       <c r="D71" s="23" t="s">
-        <v>2450</v>
+        <v>2453</v>
       </c>
       <c r="E71" s="23"/>
       <c r="F71" s="25" t="s">
@@ -15203,7 +15203,7 @@
         <v>1543</v>
       </c>
       <c r="D72" s="23" t="s">
-        <v>2451</v>
+        <v>2454</v>
       </c>
       <c r="E72" s="23"/>
       <c r="F72" s="25" t="s">
@@ -15222,7 +15222,7 @@
         <v>1545</v>
       </c>
       <c r="D73" s="23" t="s">
-        <v>2710</v>
+        <v>2714</v>
       </c>
       <c r="E73" s="23"/>
       <c r="F73" s="25" t="s">
@@ -15241,7 +15241,7 @@
         <v>1547</v>
       </c>
       <c r="D74" s="40" t="s">
-        <v>2711</v>
+        <v>2715</v>
       </c>
       <c r="E74" s="23"/>
       <c r="F74" s="25" t="s">
@@ -15260,7 +15260,7 @@
         <v>1536</v>
       </c>
       <c r="D75" s="23" t="s">
-        <v>2381</v>
+        <v>2384</v>
       </c>
       <c r="E75" s="23"/>
       <c r="F75" s="25" t="s">
@@ -15279,7 +15279,7 @@
         <v>38</v>
       </c>
       <c r="D76" s="23" t="s">
-        <v>2344</v>
+        <v>2347</v>
       </c>
       <c r="E76" s="23"/>
       <c r="F76" s="25" t="s">
@@ -15298,7 +15298,7 @@
         <v>1550</v>
       </c>
       <c r="D77" s="23" t="s">
-        <v>2712</v>
+        <v>2716</v>
       </c>
       <c r="E77" s="23"/>
       <c r="F77" s="25" t="s">
@@ -15314,10 +15314,10 @@
         <v>1436</v>
       </c>
       <c r="C78" s="23" t="s">
-        <v>2407</v>
+        <v>2410</v>
       </c>
       <c r="D78" s="23" t="s">
-        <v>2713</v>
+        <v>2717</v>
       </c>
       <c r="E78" s="23"/>
       <c r="F78" s="25" t="s">
@@ -15336,7 +15336,7 @@
         <v>1553</v>
       </c>
       <c r="D79" s="40" t="s">
-        <v>2714</v>
+        <v>2718</v>
       </c>
       <c r="E79" s="23"/>
       <c r="F79" s="25" t="s">
@@ -15355,7 +15355,7 @@
         <v>1451</v>
       </c>
       <c r="D80" s="23" t="s">
-        <v>2415</v>
+        <v>2418</v>
       </c>
       <c r="E80" s="23"/>
       <c r="F80" s="25" t="s">
@@ -15374,7 +15374,7 @@
         <v>1555</v>
       </c>
       <c r="D81" s="40" t="s">
-        <v>2715</v>
+        <v>2719</v>
       </c>
       <c r="E81" s="23"/>
       <c r="F81" s="25" t="s">
@@ -15393,7 +15393,7 @@
         <v>1557</v>
       </c>
       <c r="D82" s="40" t="s">
-        <v>2716</v>
+        <v>2720</v>
       </c>
       <c r="E82" s="23"/>
       <c r="F82" s="25" t="s">
@@ -15412,7 +15412,7 @@
         <v>1559</v>
       </c>
       <c r="D83" s="40" t="s">
-        <v>2717</v>
+        <v>2721</v>
       </c>
       <c r="E83" s="23"/>
       <c r="F83" s="25" t="s">
@@ -15431,7 +15431,7 @@
         <v>1561</v>
       </c>
       <c r="D84" s="40" t="s">
-        <v>2718</v>
+        <v>2722</v>
       </c>
       <c r="E84" s="23"/>
       <c r="F84" s="25" t="s">
@@ -15450,7 +15450,7 @@
         <v>1563</v>
       </c>
       <c r="D85" s="40" t="s">
-        <v>2719</v>
+        <v>2723</v>
       </c>
       <c r="E85" s="23"/>
       <c r="F85" s="25" t="s">
@@ -15469,7 +15469,7 @@
         <v>1565</v>
       </c>
       <c r="D86" s="23" t="s">
-        <v>2720</v>
+        <v>2724</v>
       </c>
       <c r="E86" s="23"/>
       <c r="F86" s="25" t="s">
@@ -15488,7 +15488,7 @@
         <v>1567</v>
       </c>
       <c r="D87" s="23" t="s">
-        <v>2332</v>
+        <v>2335</v>
       </c>
       <c r="E87" s="23"/>
       <c r="F87" s="25" t="s">
@@ -15507,7 +15507,7 @@
         <v>1463</v>
       </c>
       <c r="D88" s="23" t="s">
-        <v>2420</v>
+        <v>2423</v>
       </c>
       <c r="E88" s="23"/>
       <c r="F88" s="25" t="s">
@@ -15526,7 +15526,7 @@
         <v>1448</v>
       </c>
       <c r="D89" s="23" t="s">
-        <v>2414</v>
+        <v>2417</v>
       </c>
       <c r="E89" s="23"/>
       <c r="F89" s="25" t="s">
@@ -15545,7 +15545,7 @@
         <v>1497</v>
       </c>
       <c r="D90" s="23" t="s">
-        <v>2343</v>
+        <v>2346</v>
       </c>
       <c r="E90" s="23"/>
       <c r="F90" s="25" t="s">
@@ -15564,7 +15564,7 @@
         <v>38</v>
       </c>
       <c r="D91" s="23" t="s">
-        <v>2344</v>
+        <v>2347</v>
       </c>
       <c r="E91" s="23"/>
       <c r="F91" s="25" t="s">
@@ -15583,7 +15583,7 @@
         <v>1569</v>
       </c>
       <c r="D92" s="23" t="s">
-        <v>2721</v>
+        <v>2725</v>
       </c>
       <c r="E92" s="23"/>
       <c r="F92" s="25" t="s">
@@ -15602,7 +15602,7 @@
         <v>1571</v>
       </c>
       <c r="D93" s="23" t="s">
-        <v>2722</v>
+        <v>2726</v>
       </c>
       <c r="E93" s="23"/>
       <c r="F93" s="25" t="s">
@@ -15621,7 +15621,7 @@
         <v>1553</v>
       </c>
       <c r="D94" s="40" t="s">
-        <v>2714</v>
+        <v>2718</v>
       </c>
       <c r="E94" s="23"/>
       <c r="F94" s="25" t="s">
@@ -15640,7 +15640,7 @@
         <v>1550</v>
       </c>
       <c r="D95" s="40" t="s">
-        <v>2712</v>
+        <v>2716</v>
       </c>
       <c r="E95" s="23"/>
       <c r="F95" s="25" t="s">
@@ -15659,7 +15659,7 @@
         <v>34</v>
       </c>
       <c r="D96" s="23" t="s">
-        <v>2342</v>
+        <v>2345</v>
       </c>
       <c r="E96" s="23"/>
       <c r="F96" s="25" t="s">
@@ -15680,7 +15680,7 @@
         <v>1497</v>
       </c>
       <c r="D97" s="23" t="s">
-        <v>2343</v>
+        <v>2346</v>
       </c>
       <c r="E97" s="23"/>
       <c r="F97" s="25" t="s">
@@ -15696,10 +15696,10 @@
         <v>1436</v>
       </c>
       <c r="C98" s="23" t="s">
-        <v>2407</v>
+        <v>2410</v>
       </c>
       <c r="D98" s="40" t="s">
-        <v>2713</v>
+        <v>2717</v>
       </c>
       <c r="E98" s="23"/>
       <c r="F98" s="25" t="s">
@@ -15718,7 +15718,7 @@
         <v>1553</v>
       </c>
       <c r="D99" s="40" t="s">
-        <v>2714</v>
+        <v>2718</v>
       </c>
       <c r="E99" s="23"/>
       <c r="F99" s="25" t="s">
@@ -15737,7 +15737,7 @@
         <v>1550</v>
       </c>
       <c r="D100" s="40" t="s">
-        <v>2712</v>
+        <v>2716</v>
       </c>
       <c r="E100" s="23"/>
       <c r="F100" s="25" t="s">
@@ -15758,7 +15758,7 @@
         <v>1451</v>
       </c>
       <c r="D101" s="40" t="s">
-        <v>2415</v>
+        <v>2418</v>
       </c>
       <c r="E101" s="23"/>
       <c r="F101" s="25" t="s">
@@ -15777,7 +15777,7 @@
         <v>1575</v>
       </c>
       <c r="D102" s="40" t="s">
-        <v>2715</v>
+        <v>2719</v>
       </c>
       <c r="E102" s="23"/>
       <c r="F102" s="25" t="s">
@@ -15796,7 +15796,7 @@
         <v>1577</v>
       </c>
       <c r="D103" s="40" t="s">
-        <v>2716</v>
+        <v>2720</v>
       </c>
       <c r="E103" s="23"/>
       <c r="F103" s="25" t="s">
@@ -15815,7 +15815,7 @@
         <v>1579</v>
       </c>
       <c r="D104" s="40" t="s">
-        <v>2717</v>
+        <v>2721</v>
       </c>
       <c r="E104" s="23"/>
       <c r="F104" s="25" t="s">
@@ -15834,7 +15834,7 @@
         <v>1581</v>
       </c>
       <c r="D105" s="40" t="s">
-        <v>2718</v>
+        <v>2722</v>
       </c>
       <c r="E105" s="23"/>
       <c r="F105" s="25" t="s">
@@ -15853,7 +15853,7 @@
         <v>1583</v>
       </c>
       <c r="D106" s="40" t="s">
-        <v>2719</v>
+        <v>2723</v>
       </c>
       <c r="E106" s="23"/>
       <c r="F106" s="25" t="s">
@@ -15872,7 +15872,7 @@
         <v>1585</v>
       </c>
       <c r="D107" s="40" t="s">
-        <v>2717</v>
+        <v>2721</v>
       </c>
       <c r="E107" s="23"/>
       <c r="F107" s="25" t="s">
@@ -15891,7 +15891,7 @@
         <v>1587</v>
       </c>
       <c r="D108" s="40" t="s">
-        <v>2718</v>
+        <v>2722</v>
       </c>
       <c r="E108" s="23"/>
       <c r="F108" s="25" t="s">
@@ -15910,7 +15910,7 @@
         <v>1589</v>
       </c>
       <c r="D109" s="40" t="s">
-        <v>2719</v>
+        <v>2723</v>
       </c>
       <c r="E109" s="23"/>
       <c r="F109" s="25" t="s">
@@ -15929,7 +15929,7 @@
         <v>1591</v>
       </c>
       <c r="D110" s="40" t="s">
-        <v>2717</v>
+        <v>2721</v>
       </c>
       <c r="E110" s="23"/>
       <c r="F110" s="25" t="s">
@@ -15948,7 +15948,7 @@
         <v>1593</v>
       </c>
       <c r="D111" s="23" t="s">
-        <v>2723</v>
+        <v>2727</v>
       </c>
       <c r="E111" s="23"/>
       <c r="F111" s="25" t="s">
@@ -15967,7 +15967,7 @@
         <v>34</v>
       </c>
       <c r="D112" s="23" t="s">
-        <v>2342</v>
+        <v>2345</v>
       </c>
       <c r="E112" s="23"/>
       <c r="F112" s="25" t="s">
@@ -16068,7 +16068,7 @@
         <v>1436</v>
       </c>
       <c r="C118" s="23" t="s">
-        <v>2407</v>
+        <v>2410</v>
       </c>
       <c r="D118" s="23"/>
       <c r="E118" s="23"/>
@@ -16306,7 +16306,7 @@
         <v>1436</v>
       </c>
       <c r="C132" s="23" t="s">
-        <v>2407</v>
+        <v>2410</v>
       </c>
       <c r="D132" s="23"/>
       <c r="E132" s="23"/>
@@ -16768,8 +16768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView topLeftCell="C145" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D153" sqref="D153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15"/>
@@ -16793,7 +16793,7 @@
         <v>2027</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>2182</v>
+        <v>2185</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>3</v>
@@ -16816,7 +16816,7 @@
         <v>2028</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>2695</v>
+        <v>2699</v>
       </c>
       <c r="E2" s="23" t="s">
         <v>202</v>
@@ -16837,7 +16837,7 @@
         <v>2029</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>2696</v>
+        <v>2700</v>
       </c>
       <c r="E3" s="23" t="s">
         <v>206</v>
@@ -16858,7 +16858,7 @@
         <v>2030</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>2183</v>
+        <v>2186</v>
       </c>
       <c r="E4" s="24" t="s">
         <v>210</v>
@@ -16879,7 +16879,7 @@
         <v>2031</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>2184</v>
+        <v>2187</v>
       </c>
       <c r="E5" s="23" t="s">
         <v>214</v>
@@ -16900,7 +16900,7 @@
         <v>2032</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>2185</v>
+        <v>2188</v>
       </c>
       <c r="E6" s="23" t="s">
         <v>218</v>
@@ -16921,7 +16921,7 @@
         <v>2033</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>2186</v>
+        <v>2189</v>
       </c>
       <c r="E7" s="23" t="s">
         <v>222</v>
@@ -16942,7 +16942,7 @@
         <v>2034</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>2187</v>
+        <v>2190</v>
       </c>
       <c r="E8" s="23" t="s">
         <v>226</v>
@@ -16963,7 +16963,7 @@
         <v>2035</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>2188</v>
+        <v>2191</v>
       </c>
       <c r="E9" s="23" t="s">
         <v>230</v>
@@ -16984,7 +16984,7 @@
         <v>2036</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>2188</v>
+        <v>2191</v>
       </c>
       <c r="E10" s="23" t="s">
         <v>233</v>
@@ -17005,7 +17005,7 @@
         <v>2037</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>2188</v>
+        <v>2191</v>
       </c>
       <c r="E11" s="23" t="s">
         <v>235</v>
@@ -17026,7 +17026,7 @@
         <v>2038</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>2189</v>
+        <v>2192</v>
       </c>
       <c r="E12" s="23" t="s">
         <v>238</v>
@@ -17047,7 +17047,7 @@
         <v>2039</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>2190</v>
+        <v>2193</v>
       </c>
       <c r="E13" s="23" t="s">
         <v>242</v>
@@ -17068,7 +17068,7 @@
         <v>2040</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>2191</v>
+        <v>2194</v>
       </c>
       <c r="E14" s="23" t="s">
         <v>246</v>
@@ -17089,7 +17089,7 @@
         <v>2041</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>2192</v>
+        <v>2195</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>250</v>
@@ -17110,7 +17110,7 @@
         <v>2042</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>2193</v>
+        <v>2196</v>
       </c>
       <c r="E16" s="23" t="s">
         <v>254</v>
@@ -17131,7 +17131,7 @@
         <v>2043</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>2404</v>
+        <v>2407</v>
       </c>
       <c r="E17" s="23" t="s">
         <v>258</v>
@@ -17152,7 +17152,7 @@
         <v>2044</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>2194</v>
+        <v>2197</v>
       </c>
       <c r="E18" s="23" t="s">
         <v>262</v>
@@ -17173,7 +17173,7 @@
         <v>2045</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>2195</v>
+        <v>2198</v>
       </c>
       <c r="E19" s="23" t="s">
         <v>266</v>
@@ -17194,7 +17194,7 @@
         <v>2046</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>2196</v>
+        <v>2199</v>
       </c>
       <c r="E20" s="23" t="s">
         <v>270</v>
@@ -17215,7 +17215,7 @@
         <v>2047</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>2197</v>
+        <v>2200</v>
       </c>
       <c r="E21" s="23" t="s">
         <v>274</v>
@@ -17236,7 +17236,7 @@
         <v>2048</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>2198</v>
+        <v>2201</v>
       </c>
       <c r="E22" s="23" t="s">
         <v>278</v>
@@ -17257,7 +17257,7 @@
         <v>2049</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>2199</v>
+        <v>2202</v>
       </c>
       <c r="E23" s="23" t="s">
         <v>282</v>
@@ -17278,7 +17278,7 @@
         <v>2050</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>2200</v>
+        <v>2203</v>
       </c>
       <c r="E24" s="23" t="s">
         <v>286</v>
@@ -17299,7 +17299,7 @@
         <v>2051</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>2674</v>
+        <v>2678</v>
       </c>
       <c r="E25" s="23" t="s">
         <v>290</v>
@@ -17320,7 +17320,7 @@
         <v>2052</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>2675</v>
+        <v>2679</v>
       </c>
       <c r="E26" s="23" t="s">
         <v>294</v>
@@ -17341,7 +17341,7 @@
         <v>2053</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>2201</v>
+        <v>2204</v>
       </c>
       <c r="E27" s="23" t="s">
         <v>298</v>
@@ -17362,7 +17362,7 @@
         <v>2054</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>2202</v>
+        <v>2205</v>
       </c>
       <c r="E28" s="23" t="s">
         <v>302</v>
@@ -17383,7 +17383,7 @@
         <v>2055</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>2203</v>
+        <v>2206</v>
       </c>
       <c r="E29" s="23" t="s">
         <v>306</v>
@@ -17404,7 +17404,7 @@
         <v>2056</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>2204</v>
+        <v>2207</v>
       </c>
       <c r="E30" s="23" t="s">
         <v>309</v>
@@ -17425,7 +17425,7 @@
         <v>2057</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>2205</v>
+        <v>2208</v>
       </c>
       <c r="E31" s="23" t="s">
         <v>313</v>
@@ -17446,7 +17446,7 @@
         <v>2058</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>2206</v>
+        <v>2209</v>
       </c>
       <c r="E32" s="23" t="s">
         <v>317</v>
@@ -17467,7 +17467,7 @@
         <v>2059</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>2207</v>
+        <v>2210</v>
       </c>
       <c r="E33" s="23" t="s">
         <v>321</v>
@@ -17488,7 +17488,7 @@
         <v>2060</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>2208</v>
+        <v>2211</v>
       </c>
       <c r="E34" s="23" t="s">
         <v>325</v>
@@ -17509,7 +17509,7 @@
         <v>2061</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>2209</v>
+        <v>2212</v>
       </c>
       <c r="E35" s="23" t="s">
         <v>329</v>
@@ -17530,7 +17530,7 @@
         <v>2062</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>2210</v>
+        <v>2213</v>
       </c>
       <c r="E36" s="23" t="s">
         <v>333</v>
@@ -17551,7 +17551,7 @@
         <v>2063</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>2211</v>
+        <v>2214</v>
       </c>
       <c r="E37" s="23" t="s">
         <v>337</v>
@@ -17572,7 +17572,7 @@
         <v>2064</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>2212</v>
+        <v>2215</v>
       </c>
       <c r="E38" s="23" t="s">
         <v>341</v>
@@ -17593,7 +17593,7 @@
         <v>2065</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>2213</v>
+        <v>2216</v>
       </c>
       <c r="E39" s="23" t="s">
         <v>345</v>
@@ -17614,7 +17614,7 @@
         <v>2066</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>2214</v>
+        <v>2217</v>
       </c>
       <c r="E40" s="26" t="s">
         <v>349</v>
@@ -17635,7 +17635,7 @@
         <v>2067</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>2215</v>
+        <v>2218</v>
       </c>
       <c r="E41" s="23" t="s">
         <v>353</v>
@@ -17656,7 +17656,7 @@
         <v>2068</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>2215</v>
+        <v>2218</v>
       </c>
       <c r="E42" s="23" t="s">
         <v>356</v>
@@ -17677,7 +17677,7 @@
         <v>2069</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>2215</v>
+        <v>2218</v>
       </c>
       <c r="E43" s="23" t="s">
         <v>358</v>
@@ -17698,7 +17698,7 @@
         <v>2070</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>2216</v>
+        <v>2219</v>
       </c>
       <c r="E44" s="23" t="s">
         <v>361</v>
@@ -17719,7 +17719,7 @@
         <v>2071</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>2217</v>
+        <v>2220</v>
       </c>
       <c r="E45" s="23" t="s">
         <v>365</v>
@@ -17740,7 +17740,7 @@
         <v>2072</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>2218</v>
+        <v>2221</v>
       </c>
       <c r="E46" s="23" t="s">
         <v>369</v>
@@ -17761,7 +17761,7 @@
         <v>2073</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>2219</v>
+        <v>2222</v>
       </c>
       <c r="E47" s="23" t="s">
         <v>373</v>
@@ -17782,7 +17782,7 @@
         <v>2074</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>2561</v>
+        <v>2564</v>
       </c>
       <c r="E48" s="23" t="s">
         <v>377</v>
@@ -17803,7 +17803,7 @@
         <v>2075</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>2562</v>
+        <v>2565</v>
       </c>
       <c r="E49" s="23" t="s">
         <v>381</v>
@@ -17824,7 +17824,7 @@
         <v>2076</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>2563</v>
+        <v>2566</v>
       </c>
       <c r="E50" s="23" t="s">
         <v>385</v>
@@ -17845,7 +17845,7 @@
         <v>2077</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>2564</v>
+        <v>2567</v>
       </c>
       <c r="E51" s="23" t="s">
         <v>389</v>
@@ -17866,7 +17866,7 @@
         <v>2078</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>2565</v>
+        <v>2568</v>
       </c>
       <c r="E52" s="23" t="s">
         <v>393</v>
@@ -17887,7 +17887,7 @@
         <v>2079</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>2566</v>
+        <v>2569</v>
       </c>
       <c r="E53" s="23" t="s">
         <v>397</v>
@@ -17908,7 +17908,7 @@
         <v>2080</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>2567</v>
+        <v>2570</v>
       </c>
       <c r="E54" s="23" t="s">
         <v>401</v>
@@ -17926,10 +17926,10 @@
         <v>404</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>2569</v>
+        <v>2572</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>2568</v>
+        <v>2571</v>
       </c>
       <c r="E55" s="23" t="s">
         <v>405</v>
@@ -17950,7 +17950,7 @@
         <v>2081</v>
       </c>
       <c r="D56" s="19" t="s">
-        <v>2570</v>
+        <v>2573</v>
       </c>
       <c r="E56" s="23" t="s">
         <v>409</v>
@@ -17971,7 +17971,7 @@
         <v>2082</v>
       </c>
       <c r="D57" s="19" t="s">
-        <v>2571</v>
+        <v>2574</v>
       </c>
       <c r="E57" s="23" t="s">
         <v>413</v>
@@ -17992,7 +17992,7 @@
         <v>2083</v>
       </c>
       <c r="D58" s="19" t="s">
-        <v>2576</v>
+        <v>2579</v>
       </c>
       <c r="E58" s="26" t="s">
         <v>417</v>
@@ -18013,7 +18013,7 @@
         <v>2084</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>2572</v>
+        <v>2575</v>
       </c>
       <c r="E59" s="23" t="s">
         <v>421</v>
@@ -18034,7 +18034,7 @@
         <v>2085</v>
       </c>
       <c r="D60" s="19" t="s">
-        <v>2573</v>
+        <v>2576</v>
       </c>
       <c r="E60" s="23" t="s">
         <v>424</v>
@@ -18055,7 +18055,7 @@
         <v>2086</v>
       </c>
       <c r="D61" s="19" t="s">
-        <v>2574</v>
+        <v>2577</v>
       </c>
       <c r="E61" s="23" t="s">
         <v>427</v>
@@ -18076,7 +18076,7 @@
         <v>2087</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>2575</v>
+        <v>2578</v>
       </c>
       <c r="E62" s="23" t="s">
         <v>430</v>
@@ -18097,7 +18097,7 @@
         <v>2088</v>
       </c>
       <c r="D63" s="19" t="s">
-        <v>2577</v>
+        <v>2580</v>
       </c>
       <c r="E63" s="23" t="s">
         <v>434</v>
@@ -18118,7 +18118,7 @@
         <v>2089</v>
       </c>
       <c r="D64" s="19" t="s">
-        <v>2244</v>
+        <v>2247</v>
       </c>
       <c r="E64" s="23" t="s">
         <v>438</v>
@@ -18139,7 +18139,7 @@
         <v>2090</v>
       </c>
       <c r="D65" s="19" t="s">
-        <v>2243</v>
+        <v>2246</v>
       </c>
       <c r="E65" s="23" t="s">
         <v>442</v>
@@ -18160,7 +18160,7 @@
         <v>2091</v>
       </c>
       <c r="D66" s="19" t="s">
-        <v>2578</v>
+        <v>2581</v>
       </c>
       <c r="E66" s="23" t="s">
         <v>445</v>
@@ -18181,7 +18181,7 @@
         <v>2092</v>
       </c>
       <c r="D67" s="19" t="s">
-        <v>2579</v>
+        <v>2582</v>
       </c>
       <c r="E67" s="23" t="s">
         <v>449</v>
@@ -18202,7 +18202,7 @@
         <v>2093</v>
       </c>
       <c r="D68" s="19" t="s">
-        <v>2580</v>
+        <v>2583</v>
       </c>
       <c r="E68" s="23" t="s">
         <v>453</v>
@@ -18220,10 +18220,10 @@
         <v>456</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>2897</v>
+        <v>2589</v>
       </c>
       <c r="D69" s="19" t="s">
-        <v>2581</v>
+        <v>2585</v>
       </c>
       <c r="E69" s="23" t="s">
         <v>457</v>
@@ -18241,10 +18241,10 @@
         <v>460</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>2582</v>
+        <v>2586</v>
       </c>
       <c r="D70" s="19" t="s">
-        <v>2583</v>
+        <v>2587</v>
       </c>
       <c r="E70" s="23" t="s">
         <v>461</v>
@@ -18262,10 +18262,10 @@
         <v>464</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="D71" s="19" t="s">
-        <v>2584</v>
+        <v>2588</v>
       </c>
       <c r="E71" s="23" t="s">
         <v>465</v>
@@ -18286,7 +18286,7 @@
         <v>2094</v>
       </c>
       <c r="D72" s="19" t="s">
-        <v>2586</v>
+        <v>2590</v>
       </c>
       <c r="E72" s="23" t="s">
         <v>469</v>
@@ -18304,10 +18304,10 @@
         <v>472</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>2587</v>
+        <v>2591</v>
       </c>
       <c r="D73" s="19" t="s">
-        <v>2590</v>
+        <v>2594</v>
       </c>
       <c r="E73" s="23" t="s">
         <v>473</v>
@@ -18325,10 +18325,10 @@
         <v>476</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>2588</v>
+        <v>2592</v>
       </c>
       <c r="D74" s="19" t="s">
-        <v>2591</v>
+        <v>2595</v>
       </c>
       <c r="E74" s="23" t="s">
         <v>477</v>
@@ -18346,10 +18346,10 @@
         <v>480</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>2589</v>
+        <v>2593</v>
       </c>
       <c r="D75" s="19" t="s">
-        <v>2592</v>
+        <v>2596</v>
       </c>
       <c r="E75" s="23" t="s">
         <v>481</v>
@@ -18370,7 +18370,7 @@
         <v>2095</v>
       </c>
       <c r="D76" s="19" t="s">
-        <v>2593</v>
+        <v>2597</v>
       </c>
       <c r="E76" s="23" t="s">
         <v>485</v>
@@ -18391,7 +18391,7 @@
         <v>2096</v>
       </c>
       <c r="D77" s="19" t="s">
-        <v>2594</v>
+        <v>2598</v>
       </c>
       <c r="E77" s="23" t="s">
         <v>489</v>
@@ -18412,7 +18412,7 @@
         <v>2097</v>
       </c>
       <c r="D78" s="19" t="s">
-        <v>2596</v>
+        <v>2600</v>
       </c>
       <c r="E78" s="23" t="s">
         <v>493</v>
@@ -18433,7 +18433,7 @@
         <v>2098</v>
       </c>
       <c r="D79" s="19" t="s">
-        <v>2595</v>
+        <v>2599</v>
       </c>
       <c r="E79" s="23" t="s">
         <v>497</v>
@@ -18454,7 +18454,7 @@
         <v>2099</v>
       </c>
       <c r="D80" s="19" t="s">
-        <v>2597</v>
+        <v>2601</v>
       </c>
       <c r="E80" s="23" t="s">
         <v>501</v>
@@ -18475,7 +18475,7 @@
         <v>2100</v>
       </c>
       <c r="D81" s="19" t="s">
-        <v>2598</v>
+        <v>2602</v>
       </c>
       <c r="E81" s="23" t="s">
         <v>505</v>
@@ -18496,7 +18496,7 @@
         <v>2101</v>
       </c>
       <c r="D82" s="19" t="s">
-        <v>2599</v>
+        <v>2603</v>
       </c>
       <c r="E82" s="23" t="s">
         <v>509</v>
@@ -18517,7 +18517,7 @@
         <v>2102</v>
       </c>
       <c r="D83" s="19" t="s">
-        <v>2600</v>
+        <v>2604</v>
       </c>
       <c r="E83" s="23" t="s">
         <v>513</v>
@@ -18535,10 +18535,10 @@
         <v>516</v>
       </c>
       <c r="C84" s="19" t="s">
-        <v>2245</v>
+        <v>2248</v>
       </c>
       <c r="D84" s="19" t="s">
-        <v>2247</v>
+        <v>2250</v>
       </c>
       <c r="E84" s="23" t="s">
         <v>517</v>
@@ -18556,10 +18556,10 @@
         <v>520</v>
       </c>
       <c r="C85" s="19" t="s">
-        <v>2246</v>
+        <v>2249</v>
       </c>
       <c r="D85" s="19" t="s">
-        <v>2248</v>
+        <v>2251</v>
       </c>
       <c r="E85" s="23" t="s">
         <v>521</v>
@@ -18580,7 +18580,7 @@
         <v>2103</v>
       </c>
       <c r="D86" s="19" t="s">
-        <v>2676</v>
+        <v>2680</v>
       </c>
       <c r="E86" s="23" t="s">
         <v>525</v>
@@ -18601,7 +18601,7 @@
         <v>2104</v>
       </c>
       <c r="D87" s="19" t="s">
-        <v>2677</v>
+        <v>2681</v>
       </c>
       <c r="E87" s="23" t="s">
         <v>529</v>
@@ -18622,7 +18622,7 @@
         <v>2105</v>
       </c>
       <c r="D88" s="19" t="s">
-        <v>2678</v>
+        <v>2682</v>
       </c>
       <c r="E88" s="23" t="s">
         <v>533</v>
@@ -18643,7 +18643,7 @@
         <v>2106</v>
       </c>
       <c r="D89" s="19" t="s">
-        <v>2679</v>
+        <v>2683</v>
       </c>
       <c r="E89" s="23" t="s">
         <v>537</v>
@@ -18664,7 +18664,7 @@
         <v>2107</v>
       </c>
       <c r="D90" s="19" t="s">
-        <v>2680</v>
+        <v>2684</v>
       </c>
       <c r="E90" s="23" t="s">
         <v>541</v>
@@ -18685,7 +18685,7 @@
         <v>2103</v>
       </c>
       <c r="D91" s="19" t="s">
-        <v>2676</v>
+        <v>2680</v>
       </c>
       <c r="E91" s="23" t="s">
         <v>544</v>
@@ -18706,7 +18706,7 @@
         <v>2104</v>
       </c>
       <c r="D92" s="19" t="s">
-        <v>2677</v>
+        <v>2681</v>
       </c>
       <c r="E92" s="23" t="s">
         <v>546</v>
@@ -18727,7 +18727,7 @@
         <v>2105</v>
       </c>
       <c r="D93" s="19" t="s">
-        <v>2678</v>
+        <v>2682</v>
       </c>
       <c r="E93" s="23" t="s">
         <v>548</v>
@@ -18748,7 +18748,7 @@
         <v>2106</v>
       </c>
       <c r="D94" s="19" t="s">
-        <v>2679</v>
+        <v>2683</v>
       </c>
       <c r="E94" s="23" t="s">
         <v>550</v>
@@ -18769,7 +18769,7 @@
         <v>2107</v>
       </c>
       <c r="D95" s="19" t="s">
-        <v>2680</v>
+        <v>2684</v>
       </c>
       <c r="E95" s="23" t="s">
         <v>552</v>
@@ -18790,7 +18790,7 @@
         <v>2108</v>
       </c>
       <c r="D96" s="19" t="s">
-        <v>2601</v>
+        <v>2605</v>
       </c>
       <c r="E96" s="23" t="s">
         <v>555</v>
@@ -18811,7 +18811,7 @@
         <v>2109</v>
       </c>
       <c r="D97" s="19" t="s">
-        <v>2602</v>
+        <v>2606</v>
       </c>
       <c r="E97" s="23" t="s">
         <v>559</v>
@@ -18832,7 +18832,7 @@
         <v>2110</v>
       </c>
       <c r="D98" s="19" t="s">
-        <v>2603</v>
+        <v>2607</v>
       </c>
       <c r="E98" s="23" t="s">
         <v>563</v>
@@ -18853,7 +18853,7 @@
         <v>2111</v>
       </c>
       <c r="D99" s="19" t="s">
-        <v>2249</v>
+        <v>2252</v>
       </c>
       <c r="E99" s="23" t="s">
         <v>45</v>
@@ -18874,7 +18874,7 @@
         <v>2112</v>
       </c>
       <c r="D100" s="19" t="s">
-        <v>2250</v>
+        <v>2253</v>
       </c>
       <c r="E100" s="23" t="s">
         <v>47</v>
@@ -18892,10 +18892,10 @@
         <v>569</v>
       </c>
       <c r="C101" s="19" t="s">
-        <v>2347</v>
+        <v>2350</v>
       </c>
       <c r="D101" s="19" t="s">
-        <v>2251</v>
+        <v>2254</v>
       </c>
       <c r="E101" s="23" t="s">
         <v>48</v>
@@ -18916,7 +18916,7 @@
         <v>2113</v>
       </c>
       <c r="D102" s="19" t="s">
-        <v>2252</v>
+        <v>2255</v>
       </c>
       <c r="E102" s="23" t="s">
         <v>50</v>
@@ -18937,7 +18937,7 @@
         <v>2114</v>
       </c>
       <c r="D103" s="19" t="s">
-        <v>2253</v>
+        <v>2256</v>
       </c>
       <c r="E103" s="23" t="s">
         <v>52</v>
@@ -18958,7 +18958,7 @@
         <v>2115</v>
       </c>
       <c r="D104" s="19" t="s">
-        <v>2254</v>
+        <v>2257</v>
       </c>
       <c r="E104" s="23" t="s">
         <v>43</v>
@@ -18979,7 +18979,7 @@
         <v>2116</v>
       </c>
       <c r="D105" s="19" t="s">
-        <v>2604</v>
+        <v>2608</v>
       </c>
       <c r="E105" s="23" t="s">
         <v>54</v>
@@ -19000,7 +19000,7 @@
         <v>2117</v>
       </c>
       <c r="D106" s="19" t="s">
-        <v>2605</v>
+        <v>2609</v>
       </c>
       <c r="E106" s="23" t="s">
         <v>56</v>
@@ -19021,7 +19021,7 @@
         <v>2118</v>
       </c>
       <c r="D107" s="19" t="s">
-        <v>2606</v>
+        <v>2610</v>
       </c>
       <c r="E107" s="23" t="s">
         <v>58</v>
@@ -19039,10 +19039,10 @@
         <v>584</v>
       </c>
       <c r="C108" s="19" t="s">
-        <v>2349</v>
+        <v>2352</v>
       </c>
       <c r="D108" s="19" t="s">
-        <v>2681</v>
+        <v>2685</v>
       </c>
       <c r="E108" s="23" t="s">
         <v>60</v>
@@ -19063,7 +19063,7 @@
         <v>2119</v>
       </c>
       <c r="D109" s="19" t="s">
-        <v>2607</v>
+        <v>2611</v>
       </c>
       <c r="E109" s="23" t="s">
         <v>62</v>
@@ -19081,10 +19081,10 @@
         <v>589</v>
       </c>
       <c r="C110" s="19" t="s">
-        <v>2255</v>
+        <v>2258</v>
       </c>
       <c r="D110" s="19" t="s">
-        <v>2259</v>
+        <v>2262</v>
       </c>
       <c r="E110" s="23" t="s">
         <v>590</v>
@@ -19102,10 +19102,10 @@
         <v>593</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>2256</v>
+        <v>2259</v>
       </c>
       <c r="D111" s="19" t="s">
-        <v>2608</v>
+        <v>2612</v>
       </c>
       <c r="E111" s="23" t="s">
         <v>592</v>
@@ -19123,10 +19123,10 @@
         <v>593</v>
       </c>
       <c r="C112" s="19" t="s">
-        <v>2257</v>
+        <v>2260</v>
       </c>
       <c r="D112" s="19" t="s">
-        <v>2608</v>
+        <v>2612</v>
       </c>
       <c r="E112" s="23" t="s">
         <v>595</v>
@@ -19144,10 +19144,10 @@
         <v>597</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>2258</v>
+        <v>2261</v>
       </c>
       <c r="D113" s="19" t="s">
-        <v>2609</v>
+        <v>2613</v>
       </c>
       <c r="E113" s="23" t="s">
         <v>598</v>
@@ -19165,10 +19165,10 @@
         <v>601</v>
       </c>
       <c r="C114" s="19" t="s">
-        <v>2615</v>
+        <v>2619</v>
       </c>
       <c r="D114" s="19" t="s">
-        <v>2610</v>
+        <v>2614</v>
       </c>
       <c r="E114" s="23" t="s">
         <v>602</v>
@@ -19186,10 +19186,10 @@
         <v>589</v>
       </c>
       <c r="C115" s="19" t="s">
-        <v>2616</v>
+        <v>2620</v>
       </c>
       <c r="D115" s="19" t="s">
-        <v>2611</v>
+        <v>2615</v>
       </c>
       <c r="E115" s="23" t="s">
         <v>605</v>
@@ -19207,10 +19207,10 @@
         <v>607</v>
       </c>
       <c r="C116" s="19" t="s">
-        <v>2617</v>
+        <v>2621</v>
       </c>
       <c r="D116" s="19" t="s">
-        <v>2612</v>
+        <v>2616</v>
       </c>
       <c r="E116" s="23" t="s">
         <v>606</v>
@@ -19228,10 +19228,10 @@
         <v>597</v>
       </c>
       <c r="C117" s="19" t="s">
-        <v>2618</v>
+        <v>2622</v>
       </c>
       <c r="D117" s="19" t="s">
-        <v>2609</v>
+        <v>2613</v>
       </c>
       <c r="E117" s="23" t="s">
         <v>610</v>
@@ -19249,10 +19249,10 @@
         <v>601</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>2619</v>
+        <v>2623</v>
       </c>
       <c r="D118" s="19" t="s">
-        <v>2610</v>
+        <v>2614</v>
       </c>
       <c r="E118" s="23" t="s">
         <v>612</v>
@@ -19270,10 +19270,10 @@
         <v>614</v>
       </c>
       <c r="C119" s="19" t="s">
-        <v>2620</v>
+        <v>2624</v>
       </c>
       <c r="D119" s="19" t="s">
-        <v>2613</v>
+        <v>2617</v>
       </c>
       <c r="E119" s="23" t="s">
         <v>613</v>
@@ -19291,10 +19291,10 @@
         <v>617</v>
       </c>
       <c r="C120" s="19" t="s">
-        <v>2621</v>
+        <v>2625</v>
       </c>
       <c r="D120" s="19" t="s">
-        <v>2614</v>
+        <v>2618</v>
       </c>
       <c r="E120" s="23" t="s">
         <v>616</v>
@@ -19315,7 +19315,7 @@
         <v>2120</v>
       </c>
       <c r="D121" s="19" t="s">
-        <v>2622</v>
+        <v>2626</v>
       </c>
       <c r="E121" s="23" t="s">
         <v>621</v>
@@ -19336,7 +19336,7 @@
         <v>2121</v>
       </c>
       <c r="D122" s="19" t="s">
-        <v>2623</v>
+        <v>2627</v>
       </c>
       <c r="E122" s="25" t="s">
         <v>625</v>
@@ -19357,7 +19357,7 @@
         <v>2122</v>
       </c>
       <c r="D123" s="19" t="s">
-        <v>2624</v>
+        <v>2628</v>
       </c>
       <c r="E123" s="25" t="s">
         <v>629</v>
@@ -19378,7 +19378,7 @@
         <v>2123</v>
       </c>
       <c r="D124" s="19" t="s">
-        <v>2625</v>
+        <v>2629</v>
       </c>
       <c r="E124" s="25" t="s">
         <v>633</v>
@@ -19399,7 +19399,7 @@
         <v>2124</v>
       </c>
       <c r="D125" s="19" t="s">
-        <v>2626</v>
+        <v>2630</v>
       </c>
       <c r="E125" s="25" t="s">
         <v>637</v>
@@ -19420,7 +19420,7 @@
         <v>2125</v>
       </c>
       <c r="D126" s="19" t="s">
-        <v>2627</v>
+        <v>2631</v>
       </c>
       <c r="E126" s="25" t="s">
         <v>641</v>
@@ -19441,7 +19441,7 @@
         <v>2126</v>
       </c>
       <c r="D127" s="19" t="s">
-        <v>2628</v>
+        <v>2632</v>
       </c>
       <c r="E127" s="25" t="s">
         <v>645</v>
@@ -19457,7 +19457,7 @@
       </c>
       <c r="B128" s="22"/>
       <c r="C128" s="19" t="s">
-        <v>2629</v>
+        <v>2633</v>
       </c>
       <c r="D128" s="19"/>
       <c r="E128" s="23" t="s">
@@ -19472,7 +19472,7 @@
       </c>
       <c r="B129" s="22"/>
       <c r="C129" s="19" t="s">
-        <v>2630</v>
+        <v>2634</v>
       </c>
       <c r="D129" s="19"/>
       <c r="E129" s="23" t="s">
@@ -19487,7 +19487,7 @@
       </c>
       <c r="B130" s="22"/>
       <c r="C130" s="19" t="s">
-        <v>2631</v>
+        <v>2635</v>
       </c>
       <c r="D130" s="19"/>
       <c r="E130" s="23" t="s">
@@ -19502,7 +19502,7 @@
       </c>
       <c r="B131" s="22"/>
       <c r="C131" s="19" t="s">
-        <v>2632</v>
+        <v>2636</v>
       </c>
       <c r="D131" s="19"/>
       <c r="E131" s="23" t="s">
@@ -19517,7 +19517,7 @@
       </c>
       <c r="B132" s="22"/>
       <c r="C132" s="19" t="s">
-        <v>2633</v>
+        <v>2637</v>
       </c>
       <c r="D132" s="19"/>
       <c r="E132" s="23" t="s">
@@ -19532,7 +19532,7 @@
       </c>
       <c r="B133" s="22"/>
       <c r="C133" s="19" t="s">
-        <v>2634</v>
+        <v>2638</v>
       </c>
       <c r="D133" s="19"/>
       <c r="E133" s="23" t="s">
@@ -19547,7 +19547,7 @@
       </c>
       <c r="B134" s="22"/>
       <c r="C134" s="19" t="s">
-        <v>2635</v>
+        <v>2639</v>
       </c>
       <c r="D134" s="19"/>
       <c r="E134" s="23" t="s">
@@ -19562,7 +19562,7 @@
       </c>
       <c r="B135" s="22"/>
       <c r="C135" s="19" t="s">
-        <v>2636</v>
+        <v>2640</v>
       </c>
       <c r="D135" s="19"/>
       <c r="E135" s="23" t="s">
@@ -19577,7 +19577,7 @@
       </c>
       <c r="B136" s="22"/>
       <c r="C136" s="19" t="s">
-        <v>2637</v>
+        <v>2641</v>
       </c>
       <c r="D136" s="19"/>
       <c r="E136" s="23" t="s">
@@ -19592,7 +19592,7 @@
       </c>
       <c r="B137" s="22"/>
       <c r="C137" s="19" t="s">
-        <v>2638</v>
+        <v>2642</v>
       </c>
       <c r="D137" s="19"/>
       <c r="E137" s="23" t="s">
@@ -19607,7 +19607,7 @@
       </c>
       <c r="B138" s="22"/>
       <c r="C138" s="19" t="s">
-        <v>2639</v>
+        <v>2643</v>
       </c>
       <c r="D138" s="19"/>
       <c r="E138" s="23" t="s">
@@ -19622,7 +19622,7 @@
       </c>
       <c r="B139" s="22"/>
       <c r="C139" s="19" t="s">
-        <v>2640</v>
+        <v>2644</v>
       </c>
       <c r="D139" s="19"/>
       <c r="E139" s="23" t="s">
@@ -19637,7 +19637,7 @@
       </c>
       <c r="B140" s="22"/>
       <c r="C140" s="19" t="s">
-        <v>2641</v>
+        <v>2645</v>
       </c>
       <c r="D140" s="19"/>
       <c r="E140" s="23" t="s">
@@ -19652,7 +19652,7 @@
       </c>
       <c r="B141" s="22"/>
       <c r="C141" s="19" t="s">
-        <v>2642</v>
+        <v>2646</v>
       </c>
       <c r="D141" s="19"/>
       <c r="E141" s="23" t="s">
@@ -19672,7 +19672,7 @@
         <v>2127</v>
       </c>
       <c r="D142" s="19" t="s">
-        <v>2220</v>
+        <v>2223</v>
       </c>
       <c r="E142" s="23" t="s">
         <v>677</v>
@@ -19693,7 +19693,7 @@
         <v>2128</v>
       </c>
       <c r="D143" s="19" t="s">
-        <v>2221</v>
+        <v>2224</v>
       </c>
       <c r="E143" s="23" t="s">
         <v>681</v>
@@ -19714,7 +19714,7 @@
         <v>2129</v>
       </c>
       <c r="D144" s="19" t="s">
-        <v>2222</v>
+        <v>2225</v>
       </c>
       <c r="E144" s="23" t="s">
         <v>685</v>
@@ -19735,7 +19735,7 @@
         <v>2130</v>
       </c>
       <c r="D145" s="19" t="s">
-        <v>2643</v>
+        <v>2647</v>
       </c>
       <c r="E145" s="23" t="s">
         <v>689</v>
@@ -19756,7 +19756,7 @@
         <v>2131</v>
       </c>
       <c r="D146" s="19" t="s">
-        <v>2645</v>
+        <v>2649</v>
       </c>
       <c r="E146" s="27" t="s">
         <v>693</v>
@@ -19777,7 +19777,7 @@
         <v>2132</v>
       </c>
       <c r="D147" s="19" t="s">
-        <v>2644</v>
+        <v>2648</v>
       </c>
       <c r="E147" s="23" t="s">
         <v>697</v>
@@ -19798,7 +19798,7 @@
         <v>2133</v>
       </c>
       <c r="D148" s="19" t="s">
-        <v>2232</v>
+        <v>2235</v>
       </c>
       <c r="E148" s="23" t="s">
         <v>701</v>
@@ -19819,7 +19819,7 @@
         <v>2134</v>
       </c>
       <c r="D149" s="19" t="s">
-        <v>2233</v>
+        <v>2236</v>
       </c>
       <c r="E149" s="23" t="s">
         <v>705</v>
@@ -19840,7 +19840,7 @@
         <v>2135</v>
       </c>
       <c r="D150" s="19" t="s">
-        <v>2234</v>
+        <v>2237</v>
       </c>
       <c r="E150" s="23" t="s">
         <v>709</v>
@@ -19861,7 +19861,7 @@
         <v>2136</v>
       </c>
       <c r="D151" s="19" t="s">
-        <v>2235</v>
+        <v>2238</v>
       </c>
       <c r="E151" s="23" t="s">
         <v>713</v>
@@ -19882,7 +19882,7 @@
         <v>2137</v>
       </c>
       <c r="D152" s="19" t="s">
-        <v>2236</v>
+        <v>2239</v>
       </c>
       <c r="E152" s="23" t="s">
         <v>717</v>
@@ -19900,10 +19900,10 @@
         <v>720</v>
       </c>
       <c r="C153" s="19" t="s">
-        <v>2697</v>
+        <v>2701</v>
       </c>
       <c r="D153" s="19" t="s">
-        <v>2237</v>
+        <v>2240</v>
       </c>
       <c r="E153" s="23" t="s">
         <v>721</v>
@@ -19924,7 +19924,7 @@
         <v>2138</v>
       </c>
       <c r="D154" s="19" t="s">
-        <v>2238</v>
+        <v>2241</v>
       </c>
       <c r="E154" s="27" t="s">
         <v>725</v>
@@ -19945,7 +19945,7 @@
         <v>2139</v>
       </c>
       <c r="D155" s="19" t="s">
-        <v>2232</v>
+        <v>2235</v>
       </c>
       <c r="E155" s="23" t="s">
         <v>728</v>
@@ -19966,7 +19966,7 @@
         <v>2140</v>
       </c>
       <c r="D156" s="19" t="s">
-        <v>2223</v>
+        <v>2226</v>
       </c>
       <c r="E156" s="23" t="s">
         <v>731</v>
@@ -19987,7 +19987,7 @@
         <v>2141</v>
       </c>
       <c r="D157" s="19" t="s">
-        <v>2646</v>
+        <v>2650</v>
       </c>
       <c r="E157" s="23" t="s">
         <v>735</v>
@@ -20008,7 +20008,7 @@
         <v>2142</v>
       </c>
       <c r="D158" s="19" t="s">
-        <v>2646</v>
+        <v>2650</v>
       </c>
       <c r="E158" s="23" t="s">
         <v>738</v>
@@ -20029,7 +20029,7 @@
         <v>2143</v>
       </c>
       <c r="D159" s="19" t="s">
-        <v>2647</v>
+        <v>2651</v>
       </c>
       <c r="E159" s="23" t="s">
         <v>741</v>
@@ -20050,7 +20050,7 @@
         <v>2144</v>
       </c>
       <c r="D160" s="19" t="s">
-        <v>2239</v>
+        <v>2242</v>
       </c>
       <c r="E160" s="23" t="s">
         <v>745</v>
@@ -20071,7 +20071,7 @@
         <v>2145</v>
       </c>
       <c r="D161" s="19" t="s">
-        <v>2240</v>
+        <v>2243</v>
       </c>
       <c r="E161" s="23" t="s">
         <v>748</v>
@@ -20092,7 +20092,7 @@
         <v>2146</v>
       </c>
       <c r="D162" s="19" t="s">
-        <v>2242</v>
+        <v>2245</v>
       </c>
       <c r="E162" s="23" t="s">
         <v>751</v>
@@ -20113,7 +20113,7 @@
         <v>2147</v>
       </c>
       <c r="D163" s="19" t="s">
-        <v>2241</v>
+        <v>2244</v>
       </c>
       <c r="E163" s="23" t="s">
         <v>755</v>
@@ -20131,10 +20131,10 @@
         <v>758</v>
       </c>
       <c r="C164" s="19" t="s">
-        <v>2895</v>
+        <v>2148</v>
       </c>
       <c r="D164" s="19" t="s">
-        <v>2231</v>
+        <v>2234</v>
       </c>
       <c r="E164" s="23" t="s">
         <v>759</v>
@@ -20152,10 +20152,10 @@
         <v>762</v>
       </c>
       <c r="C165" s="19" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="D165" s="19" t="s">
-        <v>2648</v>
+        <v>2652</v>
       </c>
       <c r="E165" s="23" t="s">
         <v>763</v>
@@ -20173,10 +20173,10 @@
         <v>766</v>
       </c>
       <c r="C166" s="19" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="D166" s="19" t="s">
-        <v>2649</v>
+        <v>2653</v>
       </c>
       <c r="E166" s="23" t="s">
         <v>767</v>
@@ -20194,10 +20194,10 @@
         <v>766</v>
       </c>
       <c r="C167" s="19" t="s">
-        <v>2150</v>
+        <v>2151</v>
       </c>
       <c r="D167" s="19" t="s">
-        <v>2649</v>
+        <v>2653</v>
       </c>
       <c r="E167" s="23" t="s">
         <v>770</v>
@@ -20215,10 +20215,10 @@
         <v>772</v>
       </c>
       <c r="C168" s="19" t="s">
-        <v>2151</v>
+        <v>2152</v>
       </c>
       <c r="D168" s="19" t="s">
-        <v>2224</v>
+        <v>2227</v>
       </c>
       <c r="E168" s="23" t="s">
         <v>773</v>
@@ -20236,10 +20236,10 @@
         <v>776</v>
       </c>
       <c r="C169" s="19" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="D169" s="19" t="s">
-        <v>2650</v>
+        <v>2654</v>
       </c>
       <c r="E169" s="23" t="s">
         <v>777</v>
@@ -20257,10 +20257,10 @@
         <v>780</v>
       </c>
       <c r="C170" s="19" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="D170" s="19" t="s">
-        <v>2653</v>
+        <v>2657</v>
       </c>
       <c r="E170" s="23" t="s">
         <v>781</v>
@@ -20276,10 +20276,10 @@
         <v>783</v>
       </c>
       <c r="C171" s="19" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="D171" s="19" t="s">
-        <v>2652</v>
+        <v>2656</v>
       </c>
       <c r="E171" s="23" t="s">
         <v>784</v>
@@ -20295,10 +20295,10 @@
         <v>786</v>
       </c>
       <c r="C172" s="19" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="D172" s="19" t="s">
-        <v>2651</v>
+        <v>2655</v>
       </c>
       <c r="E172" s="23" t="s">
         <v>787</v>
@@ -20314,10 +20314,10 @@
         <v>788</v>
       </c>
       <c r="C173" s="19" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="D173" s="19" t="s">
-        <v>2683</v>
+        <v>2687</v>
       </c>
       <c r="E173" s="23" t="s">
         <v>787</v>
@@ -20333,10 +20333,10 @@
         <v>790</v>
       </c>
       <c r="C174" s="19" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="D174" s="19" t="s">
-        <v>2654</v>
+        <v>2658</v>
       </c>
       <c r="E174" s="23" t="s">
         <v>791</v>
@@ -20352,10 +20352,10 @@
         <v>793</v>
       </c>
       <c r="C175" s="19" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="D175" s="19" t="s">
-        <v>2682</v>
+        <v>2686</v>
       </c>
       <c r="E175" s="23" t="s">
         <v>794</v>
@@ -20371,10 +20371,10 @@
         <v>795</v>
       </c>
       <c r="C176" s="19" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="D176" s="19" t="s">
-        <v>2684</v>
+        <v>2688</v>
       </c>
       <c r="E176" s="23" t="s">
         <v>794</v>
@@ -20390,10 +20390,10 @@
         <v>797</v>
       </c>
       <c r="C177" s="19" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="D177" s="19" t="s">
-        <v>2685</v>
+        <v>2689</v>
       </c>
       <c r="E177" s="23" t="s">
         <v>798</v>
@@ -20409,10 +20409,10 @@
         <v>800</v>
       </c>
       <c r="C178" s="19" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="D178" s="19" t="s">
-        <v>2655</v>
+        <v>2659</v>
       </c>
       <c r="E178" s="23" t="s">
         <v>801</v>
@@ -20430,10 +20430,10 @@
         <v>804</v>
       </c>
       <c r="C179" s="19" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="D179" s="19" t="s">
-        <v>2656</v>
+        <v>2660</v>
       </c>
       <c r="E179" s="25" t="s">
         <v>805</v>
@@ -20451,10 +20451,10 @@
         <v>808</v>
       </c>
       <c r="C180" s="19" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="D180" s="19" t="s">
-        <v>2657</v>
+        <v>2661</v>
       </c>
       <c r="E180" s="25" t="s">
         <v>809</v>
@@ -20472,10 +20472,10 @@
         <v>812</v>
       </c>
       <c r="C181" s="19" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="D181" s="19" t="s">
-        <v>2658</v>
+        <v>2662</v>
       </c>
       <c r="E181" s="23" t="s">
         <v>813</v>
@@ -20493,10 +20493,10 @@
         <v>816</v>
       </c>
       <c r="C182" s="19" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="D182" s="19" t="s">
-        <v>2664</v>
+        <v>2668</v>
       </c>
       <c r="E182" s="23" t="s">
         <v>817</v>
@@ -20514,10 +20514,10 @@
         <v>820</v>
       </c>
       <c r="C183" s="19" t="s">
-        <v>2661</v>
+        <v>2665</v>
       </c>
       <c r="D183" s="19" t="s">
-        <v>2662</v>
+        <v>2666</v>
       </c>
       <c r="E183" s="23" t="s">
         <v>821</v>
@@ -20535,10 +20535,10 @@
         <v>824</v>
       </c>
       <c r="C184" s="19" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="D184" s="19" t="s">
-        <v>2660</v>
+        <v>2664</v>
       </c>
       <c r="E184" s="23" t="s">
         <v>825</v>
@@ -20556,10 +20556,10 @@
         <v>828</v>
       </c>
       <c r="C185" s="19" t="s">
-        <v>2166</v>
+        <v>2167</v>
       </c>
       <c r="D185" s="19" t="s">
-        <v>2659</v>
+        <v>2663</v>
       </c>
       <c r="E185" s="23" t="s">
         <v>829</v>
@@ -20577,10 +20577,10 @@
         <v>832</v>
       </c>
       <c r="C186" s="19" t="s">
-        <v>2896</v>
+        <v>2168</v>
       </c>
       <c r="D186" s="19" t="s">
-        <v>2663</v>
+        <v>2667</v>
       </c>
       <c r="E186" s="23" t="s">
         <v>833</v>
@@ -20598,10 +20598,10 @@
         <v>836</v>
       </c>
       <c r="C187" s="19" t="s">
-        <v>2167</v>
+        <v>2169</v>
       </c>
       <c r="D187" s="19" t="s">
-        <v>2665</v>
+        <v>2669</v>
       </c>
       <c r="E187" s="23" t="s">
         <v>837</v>
@@ -20619,10 +20619,10 @@
         <v>840</v>
       </c>
       <c r="C188" s="19" t="s">
-        <v>2168</v>
+        <v>2170</v>
       </c>
       <c r="D188" s="19" t="s">
-        <v>2666</v>
+        <v>2670</v>
       </c>
       <c r="E188" s="23" t="s">
         <v>841</v>
@@ -20640,10 +20640,10 @@
         <v>844</v>
       </c>
       <c r="C189" s="19" t="s">
-        <v>2169</v>
+        <v>2171</v>
       </c>
       <c r="D189" s="19" t="s">
-        <v>2667</v>
+        <v>2671</v>
       </c>
       <c r="E189" s="23" t="s">
         <v>845</v>
@@ -20661,10 +20661,10 @@
         <v>848</v>
       </c>
       <c r="C190" s="19" t="s">
-        <v>2170</v>
+        <v>2172</v>
       </c>
       <c r="D190" s="19" t="s">
-        <v>2668</v>
+        <v>2672</v>
       </c>
       <c r="E190" s="23" t="s">
         <v>849</v>
@@ -20682,10 +20682,10 @@
         <v>852</v>
       </c>
       <c r="C191" s="19" t="s">
-        <v>2171</v>
+        <v>2173</v>
       </c>
       <c r="D191" s="19" t="s">
-        <v>2225</v>
+        <v>2228</v>
       </c>
       <c r="E191" s="23" t="s">
         <v>853</v>
@@ -20705,10 +20705,10 @@
         <v>856</v>
       </c>
       <c r="C192" s="19" t="s">
-        <v>2171</v>
+        <v>2173</v>
       </c>
       <c r="D192" s="19" t="s">
-        <v>2228</v>
+        <v>2231</v>
       </c>
       <c r="E192" s="27" t="s">
         <v>853</v>
@@ -20728,10 +20728,10 @@
         <v>860</v>
       </c>
       <c r="C193" s="19" t="s">
-        <v>2172</v>
+        <v>2174</v>
       </c>
       <c r="D193" s="19" t="s">
-        <v>2669</v>
+        <v>2673</v>
       </c>
       <c r="E193" s="23" t="s">
         <v>861</v>
@@ -20749,10 +20749,10 @@
         <v>864</v>
       </c>
       <c r="C194" s="19" t="s">
-        <v>2173</v>
+        <v>2175</v>
       </c>
       <c r="D194" s="19" t="s">
-        <v>2670</v>
+        <v>2674</v>
       </c>
       <c r="E194" s="23" t="s">
         <v>865</v>
@@ -20770,10 +20770,10 @@
         <v>868</v>
       </c>
       <c r="C195" s="19" t="s">
-        <v>2174</v>
+        <v>2176</v>
       </c>
       <c r="D195" s="19" t="s">
-        <v>2671</v>
+        <v>2675</v>
       </c>
       <c r="E195" s="23" t="s">
         <v>869</v>
@@ -20791,10 +20791,10 @@
         <v>872</v>
       </c>
       <c r="C196" s="19" t="s">
-        <v>2175</v>
+        <v>2177</v>
       </c>
       <c r="D196" s="19" t="s">
-        <v>2672</v>
+        <v>2676</v>
       </c>
       <c r="E196" s="23" t="s">
         <v>873</v>
@@ -20812,10 +20812,10 @@
         <v>876</v>
       </c>
       <c r="C197" s="19" t="s">
-        <v>2176</v>
+        <v>2178</v>
       </c>
       <c r="D197" s="19" t="s">
-        <v>2673</v>
+        <v>2677</v>
       </c>
       <c r="E197" s="23" t="s">
         <v>875</v>
@@ -20833,10 +20833,10 @@
         <v>879</v>
       </c>
       <c r="C198" s="19" t="s">
-        <v>2894</v>
+        <v>2179</v>
       </c>
       <c r="D198" s="19" t="s">
-        <v>2686</v>
+        <v>2690</v>
       </c>
       <c r="E198" s="23" t="s">
         <v>880</v>
@@ -20854,10 +20854,10 @@
         <v>883</v>
       </c>
       <c r="C199" s="19" t="s">
-        <v>2177</v>
+        <v>2180</v>
       </c>
       <c r="D199" s="19" t="s">
-        <v>2687</v>
+        <v>2691</v>
       </c>
       <c r="E199" s="23" t="s">
         <v>884</v>
@@ -20875,10 +20875,10 @@
         <v>887</v>
       </c>
       <c r="C200" s="19" t="s">
-        <v>2178</v>
+        <v>2181</v>
       </c>
       <c r="D200" s="19" t="s">
-        <v>2688</v>
+        <v>2692</v>
       </c>
       <c r="E200" s="23" t="s">
         <v>888</v>
@@ -20896,10 +20896,10 @@
         <v>891</v>
       </c>
       <c r="C201" s="19" t="s">
-        <v>2179</v>
+        <v>2182</v>
       </c>
       <c r="D201" s="19" t="s">
-        <v>2689</v>
+        <v>2693</v>
       </c>
       <c r="E201" s="23" t="s">
         <v>892</v>
@@ -20917,10 +20917,10 @@
         <v>895</v>
       </c>
       <c r="C202" s="19" t="s">
-        <v>2180</v>
+        <v>2183</v>
       </c>
       <c r="D202" s="19" t="s">
-        <v>2229</v>
+        <v>2232</v>
       </c>
       <c r="E202" s="23" t="s">
         <v>896</v>
@@ -20938,10 +20938,10 @@
         <v>899</v>
       </c>
       <c r="C203" s="19" t="s">
-        <v>2181</v>
+        <v>2184</v>
       </c>
       <c r="D203" s="19" t="s">
-        <v>2230</v>
+        <v>2233</v>
       </c>
       <c r="E203" s="23" t="s">
         <v>900</v>
@@ -20963,7 +20963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
@@ -21008,7 +21008,7 @@
         <v>904</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>2400</v>
+        <v>2403</v>
       </c>
       <c r="F2" s="29" t="s">
         <v>905</v>
@@ -21022,7 +21022,7 @@
         <v>906</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>2401</v>
+        <v>2404</v>
       </c>
       <c r="F3" s="29" t="s">
         <v>907</v>
@@ -21042,7 +21042,7 @@
         <v>910</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>2860</v>
+        <v>2864</v>
       </c>
       <c r="F4" s="29" t="s">
         <v>911</v>
@@ -21056,7 +21056,7 @@
         <v>912</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>2861</v>
+        <v>2865</v>
       </c>
       <c r="F5" s="29" t="s">
         <v>913</v>
@@ -21072,7 +21072,7 @@
         <v>910</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>2860</v>
+        <v>2864</v>
       </c>
       <c r="F6" s="29" t="s">
         <v>911</v>
@@ -21086,7 +21086,7 @@
         <v>912</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>2861</v>
+        <v>2865</v>
       </c>
       <c r="F7" s="29" t="s">
         <v>913</v>
@@ -21104,7 +21104,7 @@
         <v>916</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>2402</v>
+        <v>2405</v>
       </c>
       <c r="F8" s="23" t="s">
         <v>917</v>
@@ -21118,7 +21118,7 @@
         <v>918</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>2403</v>
+        <v>2406</v>
       </c>
       <c r="F9" s="23" t="s">
         <v>919</v>
@@ -21138,7 +21138,7 @@
         <v>921</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>2863</v>
+        <v>2867</v>
       </c>
       <c r="F10" s="23" t="s">
         <v>922</v>
@@ -21152,7 +21152,7 @@
         <v>923</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>2862</v>
+        <v>2866</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>924</v>
@@ -21168,7 +21168,7 @@
         <v>921</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>2863</v>
+        <v>2867</v>
       </c>
       <c r="F12" s="23" t="s">
         <v>922</v>
@@ -21182,7 +21182,7 @@
         <v>923</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>2862</v>
+        <v>2866</v>
       </c>
       <c r="F13" s="23" t="s">
         <v>924</v>
@@ -21198,7 +21198,7 @@
         <v>921</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>2863</v>
+        <v>2867</v>
       </c>
       <c r="F14" s="23" t="s">
         <v>922</v>
@@ -21212,7 +21212,7 @@
         <v>921</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>2863</v>
+        <v>2867</v>
       </c>
       <c r="F15" s="23" t="s">
         <v>922</v>
@@ -21232,7 +21232,7 @@
         <v>929</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>2864</v>
+        <v>2868</v>
       </c>
       <c r="F16" s="23" t="s">
         <v>930</v>
@@ -21246,7 +21246,7 @@
         <v>931</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>2865</v>
+        <v>2869</v>
       </c>
       <c r="F17" s="23" t="s">
         <v>924</v>
@@ -21264,7 +21264,7 @@
         <v>933</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>2867</v>
+        <v>2871</v>
       </c>
       <c r="F18" s="23" t="s">
         <v>934</v>
@@ -21278,7 +21278,7 @@
         <v>935</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>2866</v>
+        <v>2870</v>
       </c>
       <c r="F19" s="32" t="s">
         <v>936</v>
@@ -21296,7 +21296,7 @@
         <v>938</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>2867</v>
+        <v>2871</v>
       </c>
       <c r="F20" s="32" t="s">
         <v>939</v>
@@ -21310,7 +21310,7 @@
         <v>940</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>2868</v>
+        <v>2872</v>
       </c>
       <c r="F21" s="32" t="s">
         <v>941</v>
@@ -21326,7 +21326,7 @@
         <v>938</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>2867</v>
+        <v>2871</v>
       </c>
       <c r="F22" s="32" t="s">
         <v>939</v>
@@ -21340,7 +21340,7 @@
         <v>940</v>
       </c>
       <c r="E23" s="40" t="s">
-        <v>2868</v>
+        <v>2872</v>
       </c>
       <c r="F23" s="32" t="s">
         <v>941</v>
@@ -21358,7 +21358,7 @@
         <v>944</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>2869</v>
+        <v>2873</v>
       </c>
       <c r="F24" s="32" t="s">
         <v>945</v>
@@ -21372,7 +21372,7 @@
         <v>935</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>2866</v>
+        <v>2870</v>
       </c>
       <c r="F25" s="32" t="s">
         <v>936</v>
@@ -21392,7 +21392,7 @@
         <v>948</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>2870</v>
+        <v>2874</v>
       </c>
       <c r="F26" s="32" t="s">
         <v>949</v>
@@ -21408,7 +21408,7 @@
         <v>951</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>2872</v>
+        <v>2876</v>
       </c>
       <c r="F27" s="32" t="s">
         <v>952</v>
@@ -21422,7 +21422,7 @@
         <v>953</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>2871</v>
+        <v>2875</v>
       </c>
       <c r="F28" s="32" t="s">
         <v>954</v>
@@ -21438,7 +21438,7 @@
         <v>956</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>2873</v>
+        <v>2877</v>
       </c>
       <c r="F29" s="32" t="s">
         <v>957</v>
@@ -21454,7 +21454,7 @@
         <v>959</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>2874</v>
+        <v>2878</v>
       </c>
       <c r="F30" s="32" t="s">
         <v>930</v>
@@ -21468,7 +21468,7 @@
         <v>960</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>2875</v>
+        <v>2879</v>
       </c>
       <c r="F31" s="32" t="s">
         <v>961</v>
@@ -21488,7 +21488,7 @@
         <v>963</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>2876</v>
+        <v>2880</v>
       </c>
       <c r="F32" s="32" t="s">
         <v>964</v>
@@ -21504,7 +21504,7 @@
         <v>966</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>2877</v>
+        <v>2881</v>
       </c>
       <c r="F33" s="32" t="s">
         <v>967</v>
@@ -21518,7 +21518,7 @@
         <v>968</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>2878</v>
+        <v>2882</v>
       </c>
       <c r="F34" s="32" t="s">
         <v>969</v>
@@ -21536,7 +21536,7 @@
         <v>970</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>2879</v>
+        <v>2883</v>
       </c>
       <c r="F35" s="32" t="s">
         <v>971</v>
@@ -21550,7 +21550,7 @@
         <v>972</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>2880</v>
+        <v>2884</v>
       </c>
       <c r="F36" s="32" t="s">
         <v>973</v>
@@ -21570,7 +21570,7 @@
         <v>975</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>2881</v>
+        <v>2885</v>
       </c>
       <c r="F37" s="32" t="s">
         <v>976</v>
@@ -21584,7 +21584,7 @@
         <v>977</v>
       </c>
       <c r="E38" s="40" t="s">
-        <v>2882</v>
+        <v>2886</v>
       </c>
       <c r="F38" s="32" t="s">
         <v>978</v>
@@ -21602,7 +21602,7 @@
         <v>929</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>2883</v>
+        <v>2887</v>
       </c>
       <c r="F39" s="23" t="s">
         <v>980</v>
@@ -21616,7 +21616,7 @@
         <v>968</v>
       </c>
       <c r="E40" s="40" t="s">
-        <v>2878</v>
+        <v>2882</v>
       </c>
       <c r="F40" s="23" t="s">
         <v>981</v>
@@ -21634,7 +21634,7 @@
         <v>929</v>
       </c>
       <c r="E41" s="40" t="s">
-        <v>2883</v>
+        <v>2887</v>
       </c>
       <c r="F41" s="23" t="s">
         <v>980</v>
@@ -21648,7 +21648,7 @@
         <v>983</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>2884</v>
+        <v>2888</v>
       </c>
       <c r="F42" s="23" t="s">
         <v>984</v>
@@ -21668,7 +21668,7 @@
         <v>987</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>2885</v>
+        <v>2889</v>
       </c>
       <c r="F43" s="23" t="s">
         <v>988</v>
@@ -21682,7 +21682,7 @@
         <v>989</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>2886</v>
+        <v>2890</v>
       </c>
       <c r="F44" s="23" t="s">
         <v>990</v>
@@ -21696,7 +21696,7 @@
         <v>991</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>2887</v>
+        <v>2891</v>
       </c>
       <c r="F45" s="23" t="s">
         <v>992</v>
@@ -21714,7 +21714,7 @@
         <v>995</v>
       </c>
       <c r="E46" s="40" t="s">
-        <v>2889</v>
+        <v>2893</v>
       </c>
       <c r="F46" s="23" t="s">
         <v>1999</v>
@@ -21728,7 +21728,7 @@
         <v>997</v>
       </c>
       <c r="E47" s="40" t="s">
-        <v>2888</v>
+        <v>2892</v>
       </c>
       <c r="F47" s="23" t="s">
         <v>998</v>
@@ -21746,7 +21746,7 @@
         <v>995</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>2889</v>
+        <v>2893</v>
       </c>
       <c r="F48" s="23" t="s">
         <v>996</v>
@@ -21760,7 +21760,7 @@
         <v>997</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>2888</v>
+        <v>2892</v>
       </c>
       <c r="F49" s="23" t="s">
         <v>998</v>
@@ -21778,7 +21778,7 @@
         <v>1001</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>2890</v>
+        <v>2894</v>
       </c>
       <c r="F50" s="23" t="s">
         <v>1002</v>
@@ -21792,7 +21792,7 @@
         <v>1003</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>2891</v>
+        <v>2895</v>
       </c>
       <c r="F51" s="23" t="s">
         <v>1004</v>
@@ -21810,7 +21810,7 @@
         <v>1006</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>2893</v>
+        <v>2897</v>
       </c>
       <c r="F52" s="23" t="s">
         <v>1007</v>
@@ -21824,7 +21824,7 @@
         <v>1008</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>2892</v>
+        <v>2896</v>
       </c>
       <c r="F53" s="23" t="s">
         <v>1009</v>
@@ -21842,7 +21842,7 @@
         <v>1006</v>
       </c>
       <c r="E54" s="40" t="s">
-        <v>2893</v>
+        <v>2897</v>
       </c>
       <c r="F54" s="23" t="s">
         <v>1007</v>
@@ -21856,7 +21856,7 @@
         <v>1008</v>
       </c>
       <c r="E55" s="40" t="s">
-        <v>2892</v>
+        <v>2896</v>
       </c>
       <c r="F55" s="23" t="s">
         <v>1009</v>
@@ -21874,7 +21874,7 @@
         <v>1006</v>
       </c>
       <c r="E56" s="40" t="s">
-        <v>2893</v>
+        <v>2897</v>
       </c>
       <c r="F56" s="23" t="s">
         <v>1007</v>
@@ -21888,7 +21888,7 @@
         <v>1008</v>
       </c>
       <c r="E57" s="40" t="s">
-        <v>2892</v>
+        <v>2896</v>
       </c>
       <c r="F57" s="23" t="s">
         <v>1009</v>
@@ -21906,7 +21906,7 @@
         <v>1006</v>
       </c>
       <c r="E58" s="40" t="s">
-        <v>2893</v>
+        <v>2897</v>
       </c>
       <c r="F58" s="23" t="s">
         <v>1007</v>
@@ -21920,7 +21920,7 @@
         <v>1008</v>
       </c>
       <c r="E59" s="40" t="s">
-        <v>2892</v>
+        <v>2896</v>
       </c>
       <c r="F59" s="23" t="s">
         <v>1009</v>
@@ -21938,7 +21938,7 @@
         <v>1006</v>
       </c>
       <c r="E60" s="40" t="s">
-        <v>2893</v>
+        <v>2897</v>
       </c>
       <c r="F60" s="23" t="s">
         <v>1007</v>
@@ -21952,7 +21952,7 @@
         <v>1008</v>
       </c>
       <c r="E61" s="40" t="s">
-        <v>2892</v>
+        <v>2896</v>
       </c>
       <c r="F61" s="23" t="s">
         <v>1009</v>
@@ -22108,7 +22108,7 @@
         <v>908</v>
       </c>
       <c r="C72" s="33" t="s">
-        <v>2226</v>
+        <v>2229</v>
       </c>
       <c r="D72" s="23" t="s">
         <v>1041</v>
@@ -22134,7 +22134,7 @@
       <c r="A74" s="23"/>
       <c r="B74" s="23"/>
       <c r="C74" s="23" t="s">
-        <v>2227</v>
+        <v>2230</v>
       </c>
       <c r="D74" s="23" t="s">
         <v>1041</v>
@@ -22298,7 +22298,7 @@
         <v>908</v>
       </c>
       <c r="C85" s="33" t="s">
-        <v>2226</v>
+        <v>2229</v>
       </c>
       <c r="D85" s="23" t="s">
         <v>1067</v>
@@ -22358,7 +22358,7 @@
         <v>908</v>
       </c>
       <c r="C89" s="33" t="s">
-        <v>2226</v>
+        <v>2229</v>
       </c>
       <c r="D89" s="23" t="s">
         <v>1077</v>
@@ -22384,7 +22384,7 @@
       <c r="A91" s="23"/>
       <c r="B91" s="23"/>
       <c r="C91" s="23" t="s">
-        <v>2227</v>
+        <v>2230</v>
       </c>
       <c r="D91" s="23" t="s">
         <v>1077</v>
@@ -22451,13 +22451,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>2330</v>
+        <v>2333</v>
       </c>
       <c r="D1" s="39" t="s">
         <v>1086</v>
       </c>
       <c r="I1" s="39" t="s">
-        <v>2747</v>
+        <v>2751</v>
       </c>
       <c r="S1" s="39" t="s">
         <v>3</v>
@@ -22474,7 +22474,7 @@
         <v>1089</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>2748</v>
+        <v>2752</v>
       </c>
       <c r="Q2" s="40" t="s">
         <v>1090</v>
@@ -22491,7 +22491,7 @@
         <v>1091</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>2749</v>
+        <v>2753</v>
       </c>
       <c r="Q3" s="40" t="s">
         <v>1092</v>
@@ -22508,7 +22508,7 @@
         <v>1093</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>2750</v>
+        <v>2754</v>
       </c>
       <c r="Q4" s="40" t="s">
         <v>1094</v>
@@ -22525,7 +22525,7 @@
         <v>1095</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>2751</v>
+        <v>2755</v>
       </c>
       <c r="Q5" s="40" t="s">
         <v>1096</v>
@@ -22542,13 +22542,13 @@
         <v>1098</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>2752</v>
+        <v>2756</v>
       </c>
       <c r="D6" s="27" t="s">
         <v>1100</v>
       </c>
       <c r="I6" s="49" t="s">
-        <v>2761</v>
+        <v>2765</v>
       </c>
       <c r="Q6" s="40" t="s">
         <v>1099</v>
@@ -22568,13 +22568,13 @@
         <v>1102</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>2753</v>
+        <v>2757</v>
       </c>
       <c r="D7" s="27" t="s">
         <v>1104</v>
       </c>
       <c r="I7" s="49" t="s">
-        <v>2760</v>
+        <v>2764</v>
       </c>
       <c r="Q7" s="40" t="s">
         <v>1103</v>
@@ -22594,13 +22594,13 @@
         <v>1106</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>2757</v>
+        <v>2761</v>
       </c>
       <c r="D8" s="27" t="s">
         <v>1108</v>
       </c>
       <c r="I8" s="49" t="s">
-        <v>2762</v>
+        <v>2766</v>
       </c>
       <c r="Q8" s="40" t="s">
         <v>1107</v>
@@ -22620,13 +22620,13 @@
         <v>1110</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>2754</v>
+        <v>2758</v>
       </c>
       <c r="D9" s="27" t="s">
         <v>1112</v>
       </c>
       <c r="I9" s="49" t="s">
-        <v>2763</v>
+        <v>2767</v>
       </c>
       <c r="Q9" s="40" t="s">
         <v>1111</v>
@@ -22646,13 +22646,13 @@
         <v>1114</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>2755</v>
+        <v>2759</v>
       </c>
       <c r="D10" s="27" t="s">
         <v>1116</v>
       </c>
       <c r="I10" s="49" t="s">
-        <v>2764</v>
+        <v>2768</v>
       </c>
       <c r="Q10" s="40" t="s">
         <v>1115</v>
@@ -22672,13 +22672,13 @@
         <v>1117</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>2756</v>
+        <v>2760</v>
       </c>
       <c r="D11" s="27" t="s">
         <v>1119</v>
       </c>
       <c r="I11" s="49" t="s">
-        <v>2765</v>
+        <v>2769</v>
       </c>
       <c r="Q11" s="40" t="s">
         <v>1118</v>
@@ -22698,7 +22698,7 @@
         <v>1122</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>2758</v>
+        <v>2762</v>
       </c>
       <c r="Q12" s="40" t="s">
         <v>1123</v>
@@ -22715,7 +22715,7 @@
         <v>1097</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>2759</v>
+        <v>2763</v>
       </c>
       <c r="Q13" s="40" t="s">
         <v>1124</v>
@@ -22732,7 +22732,7 @@
         <v>1125</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>2766</v>
+        <v>2770</v>
       </c>
       <c r="Q14" s="40" t="s">
         <v>1125</v>
@@ -22749,7 +22749,7 @@
         <v>1093</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>2750</v>
+        <v>2754</v>
       </c>
       <c r="Q15" s="40" t="s">
         <v>1094</v>
@@ -22766,7 +22766,7 @@
         <v>1126</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>2767</v>
+        <v>2771</v>
       </c>
       <c r="Q16" s="40" t="s">
         <v>1126</v>
@@ -22783,7 +22783,7 @@
         <v>1127</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>2768</v>
+        <v>2772</v>
       </c>
       <c r="Q17" s="40" t="s">
         <v>1128</v>
@@ -22800,7 +22800,7 @@
         <v>1130</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>2769</v>
+        <v>2773</v>
       </c>
       <c r="D18" s="27" t="s">
         <v>1132</v>
@@ -22814,13 +22814,13 @@
       <c r="G18" s="32"/>
       <c r="H18" s="32"/>
       <c r="I18" s="27" t="s">
-        <v>2775</v>
+        <v>2779</v>
       </c>
       <c r="J18" s="27" t="s">
-        <v>2774</v>
+        <v>2778</v>
       </c>
       <c r="K18" s="27" t="s">
-        <v>2776</v>
+        <v>2780</v>
       </c>
       <c r="Q18" s="40" t="s">
         <v>1131</v>
@@ -22843,7 +22843,7 @@
         <v>1137</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>2770</v>
+        <v>2774</v>
       </c>
       <c r="D19" s="27" t="s">
         <v>1139</v>
@@ -22852,10 +22852,10 @@
         <v>1141</v>
       </c>
       <c r="I19" s="27" t="s">
-        <v>2777</v>
+        <v>2781</v>
       </c>
       <c r="J19" s="27" t="s">
-        <v>2778</v>
+        <v>2782</v>
       </c>
       <c r="Q19" s="40" t="s">
         <v>1138</v>
@@ -22878,7 +22878,7 @@
         <v>1143</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>2771</v>
+        <v>2775</v>
       </c>
       <c r="D20" s="27" t="s">
         <v>1145</v>
@@ -22887,10 +22887,10 @@
         <v>1147</v>
       </c>
       <c r="I20" s="27" t="s">
-        <v>2773</v>
+        <v>2777</v>
       </c>
       <c r="J20" s="27" t="s">
-        <v>2772</v>
+        <v>2776</v>
       </c>
       <c r="Q20" s="40" t="s">
         <v>1144</v>
@@ -22913,7 +22913,7 @@
         <v>1149</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>2779</v>
+        <v>2783</v>
       </c>
       <c r="D21" s="27" t="s">
         <v>1151</v>
@@ -22922,10 +22922,10 @@
         <v>1153</v>
       </c>
       <c r="I21" s="27" t="s">
-        <v>2780</v>
+        <v>2784</v>
       </c>
       <c r="J21" s="27" t="s">
-        <v>2781</v>
+        <v>2785</v>
       </c>
       <c r="Q21" s="40" t="s">
         <v>1150</v>
@@ -22948,7 +22948,7 @@
         <v>1155</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>2782</v>
+        <v>2786</v>
       </c>
       <c r="D22" s="27" t="s">
         <v>1151</v>
@@ -22957,10 +22957,10 @@
         <v>1153</v>
       </c>
       <c r="I22" s="27" t="s">
-        <v>2780</v>
+        <v>2784</v>
       </c>
       <c r="J22" s="27" t="s">
-        <v>2781</v>
+        <v>2785</v>
       </c>
       <c r="Q22" s="40" t="s">
         <v>1156</v>
@@ -22983,7 +22983,7 @@
         <v>1157</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>2783</v>
+        <v>2787</v>
       </c>
       <c r="D23" s="27" t="s">
         <v>1159</v>
@@ -22992,10 +22992,10 @@
         <v>1161</v>
       </c>
       <c r="I23" s="27" t="s">
-        <v>2786</v>
+        <v>2790</v>
       </c>
       <c r="J23" s="27" t="s">
-        <v>2787</v>
+        <v>2791</v>
       </c>
       <c r="Q23" s="40" t="s">
         <v>1158</v>
@@ -23018,7 +23018,7 @@
         <v>1163</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>2784</v>
+        <v>2788</v>
       </c>
       <c r="D24" s="27" t="s">
         <v>1159</v>
@@ -23027,10 +23027,10 @@
         <v>1161</v>
       </c>
       <c r="I24" s="27" t="s">
-        <v>2786</v>
+        <v>2790</v>
       </c>
       <c r="J24" s="27" t="s">
-        <v>2787</v>
+        <v>2791</v>
       </c>
       <c r="Q24" s="40" t="s">
         <v>1164</v>
@@ -23053,7 +23053,7 @@
         <v>1165</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>2785</v>
+        <v>2789</v>
       </c>
       <c r="D25" s="27" t="s">
         <v>1159</v>
@@ -23062,10 +23062,10 @@
         <v>1161</v>
       </c>
       <c r="I25" s="27" t="s">
-        <v>2786</v>
+        <v>2790</v>
       </c>
       <c r="J25" s="27" t="s">
-        <v>2787</v>
+        <v>2791</v>
       </c>
       <c r="Q25" s="40" t="s">
         <v>1166</v>
@@ -23088,7 +23088,7 @@
         <v>1167</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>2788</v>
+        <v>2792</v>
       </c>
       <c r="D26" s="27" t="s">
         <v>1159</v>
@@ -23097,10 +23097,10 @@
         <v>1169</v>
       </c>
       <c r="I26" s="40" t="s">
-        <v>2793</v>
+        <v>2797</v>
       </c>
       <c r="J26" s="40" t="s">
-        <v>2794</v>
+        <v>2798</v>
       </c>
       <c r="Q26" s="40" t="s">
         <v>1168</v>
@@ -23123,7 +23123,7 @@
         <v>1170</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>2789</v>
+        <v>2793</v>
       </c>
       <c r="D27" s="27" t="s">
         <v>1172</v>
@@ -23132,10 +23132,10 @@
         <v>1173</v>
       </c>
       <c r="I27" s="40" t="s">
-        <v>2790</v>
+        <v>2794</v>
       </c>
       <c r="J27" s="40" t="s">
-        <v>2791</v>
+        <v>2795</v>
       </c>
       <c r="Q27" s="40" t="s">
         <v>1171</v>
@@ -23158,7 +23158,7 @@
         <v>1174</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>2792</v>
+        <v>2796</v>
       </c>
       <c r="D28" s="27" t="s">
         <v>1159</v>
@@ -23167,10 +23167,10 @@
         <v>1169</v>
       </c>
       <c r="I28" s="40" t="s">
-        <v>2793</v>
+        <v>2797</v>
       </c>
       <c r="J28" s="40" t="s">
-        <v>2794</v>
+        <v>2798</v>
       </c>
       <c r="Q28" s="40" t="s">
         <v>1175</v>
@@ -23193,7 +23193,7 @@
         <v>1177</v>
       </c>
       <c r="C29" s="40" t="s">
-        <v>2795</v>
+        <v>2799</v>
       </c>
       <c r="S29" s="40" t="s">
         <v>1178</v>
@@ -23207,7 +23207,7 @@
         <v>1179</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>2796</v>
+        <v>2800</v>
       </c>
       <c r="S30" s="40" t="s">
         <v>1180</v>
@@ -23221,7 +23221,7 @@
         <v>1181</v>
       </c>
       <c r="C31" s="40" t="s">
-        <v>2797</v>
+        <v>2801</v>
       </c>
       <c r="T31" s="40" t="s">
         <v>186</v>
@@ -23235,7 +23235,7 @@
         <v>1182</v>
       </c>
       <c r="C32" s="40" t="s">
-        <v>2755</v>
+        <v>2759</v>
       </c>
       <c r="T32" s="40" t="s">
         <v>1183</v>
@@ -23249,7 +23249,7 @@
         <v>1184</v>
       </c>
       <c r="C33" s="40" t="s">
-        <v>2752</v>
+        <v>2756</v>
       </c>
       <c r="T33" s="40" t="s">
         <v>1185</v>
@@ -23263,7 +23263,7 @@
         <v>1186</v>
       </c>
       <c r="C34" s="40" t="s">
-        <v>2798</v>
+        <v>2802</v>
       </c>
       <c r="T34" s="40" t="s">
         <v>1186</v>
@@ -23277,7 +23277,7 @@
         <v>1187</v>
       </c>
       <c r="C35" s="40" t="s">
-        <v>2799</v>
+        <v>2803</v>
       </c>
       <c r="T35" s="40" t="s">
         <v>1188</v>
@@ -23291,7 +23291,7 @@
         <v>1189</v>
       </c>
       <c r="C36" s="40" t="s">
-        <v>2800</v>
+        <v>2804</v>
       </c>
       <c r="T36" s="40" t="s">
         <v>1190</v>
@@ -23305,7 +23305,7 @@
         <v>1191</v>
       </c>
       <c r="C37" s="40" t="s">
-        <v>2801</v>
+        <v>2805</v>
       </c>
       <c r="T37" s="40" t="s">
         <v>1192</v>
@@ -23319,7 +23319,7 @@
         <v>928</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>2802</v>
+        <v>2806</v>
       </c>
       <c r="T38" s="40" t="s">
         <v>1193</v>
@@ -23333,7 +23333,7 @@
         <v>1194</v>
       </c>
       <c r="C39" s="40" t="s">
-        <v>2803</v>
+        <v>2807</v>
       </c>
       <c r="T39" s="40" t="s">
         <v>1195</v>
@@ -23347,7 +23347,7 @@
         <v>1196</v>
       </c>
       <c r="C40" s="40" t="s">
-        <v>2804</v>
+        <v>2808</v>
       </c>
       <c r="T40" s="40" t="s">
         <v>1197</v>
@@ -23361,7 +23361,7 @@
         <v>1198</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>2796</v>
+        <v>2800</v>
       </c>
       <c r="T41" s="40" t="s">
         <v>1199</v>
@@ -23375,7 +23375,7 @@
         <v>1200</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>2805</v>
+        <v>2809</v>
       </c>
       <c r="T42" s="40" t="s">
         <v>1190</v>
@@ -23389,7 +23389,7 @@
         <v>1201</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>2807</v>
+        <v>2811</v>
       </c>
       <c r="T43" s="40" t="s">
         <v>1202</v>
@@ -23403,7 +23403,7 @@
         <v>1203</v>
       </c>
       <c r="C44" s="40" t="s">
-        <v>2806</v>
+        <v>2810</v>
       </c>
       <c r="T44" s="40" t="s">
         <v>1204</v>
@@ -23417,7 +23417,7 @@
         <v>1205</v>
       </c>
       <c r="C45" s="40" t="s">
-        <v>2808</v>
+        <v>2812</v>
       </c>
       <c r="T45" s="40" t="s">
         <v>1206</v>
@@ -23431,7 +23431,7 @@
         <v>1207</v>
       </c>
       <c r="C46" s="40" t="s">
-        <v>2809</v>
+        <v>2813</v>
       </c>
       <c r="T46" s="40" t="s">
         <v>1208</v>
@@ -23445,7 +23445,7 @@
         <v>1209</v>
       </c>
       <c r="C47" s="40" t="s">
-        <v>2810</v>
+        <v>2814</v>
       </c>
       <c r="T47" s="40" t="s">
         <v>1210</v>
@@ -23459,7 +23459,7 @@
         <v>1211</v>
       </c>
       <c r="C48" s="40" t="s">
-        <v>2811</v>
+        <v>2815</v>
       </c>
       <c r="T48" s="40" t="s">
         <v>1212</v>
@@ -23473,7 +23473,7 @@
         <v>1213</v>
       </c>
       <c r="C49" s="40" t="s">
-        <v>2812</v>
+        <v>2816</v>
       </c>
       <c r="T49" s="40" t="s">
         <v>1214</v>
@@ -23487,7 +23487,7 @@
         <v>1215</v>
       </c>
       <c r="C50" s="40" t="s">
-        <v>2813</v>
+        <v>2817</v>
       </c>
       <c r="T50" s="40" t="s">
         <v>1216</v>
@@ -23501,7 +23501,7 @@
         <v>1217</v>
       </c>
       <c r="C51" s="40" t="s">
-        <v>2814</v>
+        <v>2818</v>
       </c>
       <c r="T51" s="40" t="s">
         <v>1218</v>
@@ -23515,7 +23515,7 @@
         <v>1219</v>
       </c>
       <c r="C52" s="40" t="s">
-        <v>2815</v>
+        <v>2819</v>
       </c>
       <c r="T52" s="40" t="s">
         <v>1220</v>
@@ -23529,7 +23529,7 @@
         <v>1221</v>
       </c>
       <c r="C53" s="40" t="s">
-        <v>2816</v>
+        <v>2820</v>
       </c>
       <c r="T53" s="40" t="s">
         <v>1222</v>
@@ -23543,7 +23543,7 @@
         <v>1223</v>
       </c>
       <c r="C54" s="40" t="s">
-        <v>2817</v>
+        <v>2821</v>
       </c>
       <c r="T54" s="40" t="s">
         <v>1223</v>
@@ -23557,7 +23557,7 @@
         <v>1127</v>
       </c>
       <c r="C55" s="40" t="s">
-        <v>2768</v>
+        <v>2772</v>
       </c>
       <c r="T55" s="40" t="s">
         <v>1128</v>
@@ -23571,7 +23571,7 @@
         <v>1225</v>
       </c>
       <c r="C56" s="40" t="s">
-        <v>2818</v>
+        <v>2822</v>
       </c>
       <c r="T56" s="40" t="s">
         <v>1226</v>
@@ -23585,7 +23585,7 @@
         <v>1125</v>
       </c>
       <c r="C57" s="40" t="s">
-        <v>2766</v>
+        <v>2770</v>
       </c>
       <c r="T57" s="40" t="s">
         <v>1227</v>
@@ -23599,7 +23599,7 @@
         <v>1228</v>
       </c>
       <c r="C58" s="40" t="s">
-        <v>2819</v>
+        <v>2823</v>
       </c>
       <c r="T58" s="40" t="s">
         <v>1229</v>
@@ -23613,7 +23613,7 @@
         <v>1230</v>
       </c>
       <c r="C59" s="40" t="s">
-        <v>2820</v>
+        <v>2824</v>
       </c>
       <c r="T59" s="40" t="s">
         <v>1231</v>
@@ -23627,7 +23627,7 @@
         <v>1232</v>
       </c>
       <c r="C60" s="40" t="s">
-        <v>2821</v>
+        <v>2825</v>
       </c>
       <c r="T60" s="40" t="s">
         <v>1233</v>
@@ -23641,7 +23641,7 @@
         <v>1129</v>
       </c>
       <c r="C61" s="40" t="s">
-        <v>2822</v>
+        <v>2826</v>
       </c>
       <c r="T61" s="40" t="s">
         <v>1234</v>
@@ -23655,7 +23655,7 @@
         <v>1097</v>
       </c>
       <c r="C62" s="40" t="s">
-        <v>2823</v>
+        <v>2827</v>
       </c>
       <c r="T62" s="40" t="s">
         <v>1235</v>
@@ -23669,7 +23669,7 @@
         <v>1236</v>
       </c>
       <c r="C63" s="40" t="s">
-        <v>2751</v>
+        <v>2755</v>
       </c>
       <c r="T63" s="40" t="s">
         <v>1096</v>
@@ -23683,7 +23683,7 @@
         <v>1165</v>
       </c>
       <c r="C64" s="40" t="s">
-        <v>2785</v>
+        <v>2789</v>
       </c>
       <c r="T64" s="40" t="s">
         <v>1166</v>
@@ -23697,7 +23697,7 @@
         <v>1163</v>
       </c>
       <c r="C65" s="40" t="s">
-        <v>2784</v>
+        <v>2788</v>
       </c>
       <c r="T65" s="40" t="s">
         <v>1164</v>
@@ -23711,7 +23711,7 @@
         <v>1237</v>
       </c>
       <c r="C66" s="40" t="s">
-        <v>2824</v>
+        <v>2828</v>
       </c>
       <c r="T66" s="40" t="s">
         <v>1238</v>
@@ -23725,7 +23725,7 @@
         <v>1239</v>
       </c>
       <c r="C67" s="40" t="s">
-        <v>2825</v>
+        <v>2829</v>
       </c>
       <c r="T67" s="40" t="s">
         <v>1240</v>
@@ -23739,7 +23739,7 @@
         <v>1241</v>
       </c>
       <c r="C68" s="40" t="s">
-        <v>2826</v>
+        <v>2830</v>
       </c>
       <c r="T68" s="27" t="s">
         <v>1242</v>
@@ -23753,7 +23753,7 @@
         <v>1243</v>
       </c>
       <c r="C69" s="40" t="s">
-        <v>2829</v>
+        <v>2833</v>
       </c>
       <c r="T69" s="27" t="s">
         <v>1244</v>
@@ -23767,7 +23767,7 @@
         <v>1245</v>
       </c>
       <c r="C70" s="40" t="s">
-        <v>2828</v>
+        <v>2832</v>
       </c>
       <c r="T70" s="27" t="s">
         <v>1246</v>
@@ -23781,7 +23781,7 @@
         <v>1247</v>
       </c>
       <c r="C71" s="40" t="s">
-        <v>2827</v>
+        <v>2831</v>
       </c>
       <c r="T71" s="27" t="s">
         <v>1248</v>
@@ -23798,7 +23798,7 @@
         <v>1249</v>
       </c>
       <c r="C73" s="40" t="s">
-        <v>2832</v>
+        <v>2836</v>
       </c>
       <c r="D73" s="40" t="s">
         <v>1250</v>
@@ -23812,13 +23812,13 @@
         <v>1251</v>
       </c>
       <c r="C74" s="40" t="s">
-        <v>2831</v>
+        <v>2835</v>
       </c>
       <c r="D74" s="40" t="s">
         <v>1252</v>
       </c>
       <c r="I74" s="40" t="s">
-        <v>2846</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="75" spans="1:20">
@@ -23829,13 +23829,13 @@
         <v>1253</v>
       </c>
       <c r="C75" s="40" t="s">
-        <v>2833</v>
+        <v>2837</v>
       </c>
       <c r="D75" s="40" t="s">
         <v>1254</v>
       </c>
       <c r="I75" s="40" t="s">
-        <v>2847</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="76" spans="1:20">
@@ -23846,7 +23846,7 @@
         <v>1255</v>
       </c>
       <c r="C76" s="40" t="s">
-        <v>2848</v>
+        <v>2852</v>
       </c>
       <c r="D76" s="40" t="s">
         <v>1256</v>
@@ -23858,13 +23858,13 @@
         <v>1258</v>
       </c>
       <c r="I76" s="40" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="J76" s="40" t="s">
-        <v>2790</v>
+        <v>2794</v>
       </c>
       <c r="K76" s="40" t="s">
-        <v>2791</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="77" spans="1:20">
@@ -23875,7 +23875,7 @@
         <v>1259</v>
       </c>
       <c r="C77" s="40" t="s">
-        <v>2834</v>
+        <v>2838</v>
       </c>
       <c r="D77" s="40" t="s">
         <v>1260</v>
@@ -23887,13 +23887,13 @@
         <v>1258</v>
       </c>
       <c r="I77" s="40" t="s">
-        <v>2859</v>
+        <v>2863</v>
       </c>
       <c r="J77" s="40" t="s">
-        <v>2790</v>
+        <v>2794</v>
       </c>
       <c r="K77" s="40" t="s">
-        <v>2791</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="78" spans="1:20">
@@ -23904,7 +23904,7 @@
         <v>1261</v>
       </c>
       <c r="C78" s="40" t="s">
-        <v>2835</v>
+        <v>2839</v>
       </c>
       <c r="D78" s="40" t="s">
         <v>1262</v>
@@ -23919,16 +23919,16 @@
         <v>1265</v>
       </c>
       <c r="I78" s="40" t="s">
-        <v>2854</v>
+        <v>2858</v>
       </c>
       <c r="J78" s="40" t="s">
-        <v>2855</v>
+        <v>2859</v>
       </c>
       <c r="K78" s="40" t="s">
-        <v>2856</v>
+        <v>2860</v>
       </c>
       <c r="L78" s="40" t="s">
-        <v>2857</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="79" spans="1:20">
@@ -23939,7 +23939,7 @@
         <v>1266</v>
       </c>
       <c r="C79" s="40" t="s">
-        <v>2836</v>
+        <v>2840</v>
       </c>
       <c r="D79" s="40" t="s">
         <v>1267</v>
@@ -23951,10 +23951,10 @@
         <v>1258</v>
       </c>
       <c r="J79" s="40" t="s">
-        <v>2790</v>
+        <v>2794</v>
       </c>
       <c r="K79" s="40" t="s">
-        <v>2791</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="80" spans="1:20">
@@ -23965,7 +23965,7 @@
         <v>1268</v>
       </c>
       <c r="C80" s="40" t="s">
-        <v>2837</v>
+        <v>2841</v>
       </c>
       <c r="D80" s="40" t="s">
         <v>1269</v>
@@ -23977,10 +23977,10 @@
         <v>1258</v>
       </c>
       <c r="J80" s="40" t="s">
-        <v>2790</v>
+        <v>2794</v>
       </c>
       <c r="K80" s="40" t="s">
-        <v>2791</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -23991,7 +23991,7 @@
         <v>1270</v>
       </c>
       <c r="C81" s="40" t="s">
-        <v>2838</v>
+        <v>2842</v>
       </c>
       <c r="D81" s="40" t="s">
         <v>1271</v>
@@ -24014,7 +24014,7 @@
         <v>1274</v>
       </c>
       <c r="C82" s="40" t="s">
-        <v>2830</v>
+        <v>2834</v>
       </c>
       <c r="D82" s="40" t="s">
         <v>1275</v>
@@ -24037,7 +24037,7 @@
         <v>1276</v>
       </c>
       <c r="C83" s="40" t="s">
-        <v>2839</v>
+        <v>2843</v>
       </c>
       <c r="D83" s="40" t="s">
         <v>1277</v>
@@ -24060,7 +24060,7 @@
         <v>1278</v>
       </c>
       <c r="C84" s="40" t="s">
-        <v>2840</v>
+        <v>2844</v>
       </c>
       <c r="D84" s="40" t="s">
         <v>1279</v>
@@ -24072,10 +24072,10 @@
         <v>1258</v>
       </c>
       <c r="J84" s="40" t="s">
-        <v>2790</v>
+        <v>2794</v>
       </c>
       <c r="K84" s="40" t="s">
-        <v>2791</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -24086,7 +24086,7 @@
         <v>1280</v>
       </c>
       <c r="C85" s="40" t="s">
-        <v>2841</v>
+        <v>2845</v>
       </c>
       <c r="D85" s="40" t="s">
         <v>1281</v>
@@ -24112,7 +24112,7 @@
         <v>1282</v>
       </c>
       <c r="C86" s="40" t="s">
-        <v>2842</v>
+        <v>2846</v>
       </c>
       <c r="D86" s="40" t="s">
         <v>1283</v>
@@ -24127,7 +24127,7 @@
         <v>1265</v>
       </c>
       <c r="I86" s="40" t="s">
-        <v>2844</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -24138,7 +24138,7 @@
         <v>1286</v>
       </c>
       <c r="C87" s="40" t="s">
-        <v>2843</v>
+        <v>2847</v>
       </c>
       <c r="D87" s="40" t="s">
         <v>1287</v>
@@ -24150,13 +24150,13 @@
         <v>1258</v>
       </c>
       <c r="I87" s="40" t="s">
-        <v>2845</v>
+        <v>2849</v>
       </c>
       <c r="J87" s="40" t="s">
-        <v>2790</v>
+        <v>2794</v>
       </c>
       <c r="K87" s="40" t="s">
-        <v>2791</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -24167,7 +24167,7 @@
         <v>1288</v>
       </c>
       <c r="C88" s="40" t="s">
-        <v>2849</v>
+        <v>2853</v>
       </c>
       <c r="D88" s="40" t="s">
         <v>1289</v>
@@ -24179,10 +24179,10 @@
         <v>1258</v>
       </c>
       <c r="J88" s="40" t="s">
-        <v>2790</v>
+        <v>2794</v>
       </c>
       <c r="K88" s="40" t="s">
-        <v>2791</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -24193,7 +24193,7 @@
         <v>1290</v>
       </c>
       <c r="C89" s="40" t="s">
-        <v>2850</v>
+        <v>2854</v>
       </c>
       <c r="D89" s="40" t="s">
         <v>1291</v>
@@ -24205,10 +24205,10 @@
         <v>1258</v>
       </c>
       <c r="J89" s="40" t="s">
-        <v>2790</v>
+        <v>2794</v>
       </c>
       <c r="K89" s="40" t="s">
-        <v>2791</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -24219,7 +24219,7 @@
         <v>1292</v>
       </c>
       <c r="C90" s="40" t="s">
-        <v>2851</v>
+        <v>2855</v>
       </c>
       <c r="D90" s="40" t="s">
         <v>1293</v>
@@ -24242,7 +24242,7 @@
         <v>1296</v>
       </c>
       <c r="C91" s="40" t="s">
-        <v>2852</v>
+        <v>2856</v>
       </c>
       <c r="D91" s="40" t="s">
         <v>1297</v>
@@ -24254,10 +24254,10 @@
         <v>1258</v>
       </c>
       <c r="J91" s="40" t="s">
-        <v>2790</v>
+        <v>2794</v>
       </c>
       <c r="K91" s="40" t="s">
-        <v>2791</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -24268,7 +24268,7 @@
         <v>1298</v>
       </c>
       <c r="C92" s="40" t="s">
-        <v>2853</v>
+        <v>2857</v>
       </c>
       <c r="D92" s="40" t="s">
         <v>1299</v>
@@ -24280,10 +24280,10 @@
         <v>1258</v>
       </c>
       <c r="J92" s="40" t="s">
-        <v>2790</v>
+        <v>2794</v>
       </c>
       <c r="K92" s="40" t="s">
-        <v>2791</v>
+        <v>2795</v>
       </c>
     </row>
   </sheetData>
@@ -24321,7 +24321,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>2260</v>
+        <v>2263</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>3</v>
@@ -24335,7 +24335,7 @@
         <v>1302</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>2261</v>
+        <v>2264</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>1303</v>
@@ -24349,7 +24349,7 @@
         <v>1305</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>2262</v>
+        <v>2265</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>1306</v>
@@ -24363,7 +24363,7 @@
         <v>1307</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>2698</v>
+        <v>2702</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>1308</v>
@@ -24377,7 +24377,7 @@
         <v>1309</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>2263</v>
+        <v>2266</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>1310</v>
@@ -24391,7 +24391,7 @@
         <v>1311</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>2264</v>
+        <v>2267</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>1312</v>
@@ -24405,7 +24405,7 @@
         <v>1313</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>2265</v>
+        <v>2268</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>1314</v>
@@ -24419,7 +24419,7 @@
         <v>1315</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>2266</v>
+        <v>2269</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>1316</v>
@@ -24433,7 +24433,7 @@
         <v>1317</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>2267</v>
+        <v>2270</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>1317</v>
@@ -24447,7 +24447,7 @@
         <v>1318</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>2268</v>
+        <v>2271</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>1319</v>
@@ -24461,7 +24461,7 @@
         <v>1320</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>2269</v>
+        <v>2272</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>1321</v>
@@ -24475,7 +24475,7 @@
         <v>1322</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>2270</v>
+        <v>2273</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>1323</v>

--- a/English translation/その他文字 (Items, Skills, Characters, Descriptions)/固有名詞 (Literally everything else).xlsx
+++ b/English translation/その他文字 (Items, Skills, Characters, Descriptions)/固有名詞 (Literally everything else).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21943" windowHeight="8091" tabRatio="627" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21943" windowHeight="8091" tabRatio="627" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="names-名前" sheetId="1" r:id="rId1"/>
@@ -6425,9 +6425,6 @@
     <t>Flag Bearer</t>
   </si>
   <si>
-    <t>Upstart Thief</t>
-  </si>
-  <si>
     <t>Martial artist</t>
   </si>
   <si>
@@ -8779,6 +8776,9 @@
   </si>
   <si>
     <t>Don't give up</t>
+  </si>
+  <si>
+    <t>Bandit</t>
   </si>
 </sst>
 </file>
@@ -9500,8 +9500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView topLeftCell="E31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15"/>
@@ -9526,13 +9526,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="G1" s="21" t="s">
         <v>3</v>
@@ -9552,7 +9552,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="E2" s="23"/>
       <c r="F2" s="23"/>
@@ -9572,7 +9572,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="E3" s="23"/>
       <c r="F3" s="23"/>
@@ -9590,7 +9590,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="E4" s="23"/>
       <c r="F4" s="23"/>
@@ -9610,7 +9610,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="E5" s="23"/>
       <c r="F5" s="23"/>
@@ -9646,7 +9646,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="E7" s="23"/>
       <c r="F7" s="23"/>
@@ -9664,7 +9664,7 @@
         <v>22</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="E8" s="23"/>
       <c r="F8" s="23"/>
@@ -9684,7 +9684,7 @@
         <v>24</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="E9" s="23"/>
       <c r="F9" s="23"/>
@@ -9702,7 +9702,7 @@
         <v>27</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
@@ -9717,10 +9717,10 @@
       </c>
       <c r="B11" s="23"/>
       <c r="C11" s="23" t="s">
+        <v>2394</v>
+      </c>
+      <c r="D11" s="23" t="s">
         <v>2395</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>2396</v>
       </c>
       <c r="E11" s="23"/>
       <c r="F11" s="23"/>
@@ -9736,7 +9736,7 @@
         <v>29</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="23"/>
@@ -9754,7 +9754,7 @@
         <v>32</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="E13" s="23"/>
       <c r="F13" s="23"/>
@@ -9772,7 +9772,7 @@
         <v>34</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="E14" s="23"/>
       <c r="F14" s="23"/>
@@ -9790,7 +9790,7 @@
         <v>36</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="E15" s="23"/>
       <c r="F15" s="23"/>
@@ -9808,7 +9808,7 @@
         <v>38</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="E16" s="23"/>
       <c r="F16" s="23"/>
@@ -9826,7 +9826,7 @@
         <v>40</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
@@ -9841,10 +9841,10 @@
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="23" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="E18" s="23"/>
       <c r="F18" s="23"/>
@@ -9857,10 +9857,10 @@
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="23" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="E19" s="23"/>
       <c r="F19" s="23"/>
@@ -9873,10 +9873,10 @@
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="23" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="E20" s="23"/>
       <c r="F20" s="23"/>
@@ -9910,7 +9910,7 @@
         <v>44</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="E22" s="23"/>
       <c r="F22" s="23"/>
@@ -9946,7 +9946,7 @@
         <v>48</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="E24" s="23"/>
       <c r="F24" s="23"/>
@@ -10035,7 +10035,7 @@
         <v>57</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>2118</v>
+        <v>2897</v>
       </c>
       <c r="E29" s="23"/>
       <c r="F29" s="23"/>
@@ -10053,7 +10053,7 @@
         <v>59</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="E30" s="23"/>
       <c r="F30" s="23"/>
@@ -10071,7 +10071,7 @@
         <v>61</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="E31" s="23"/>
       <c r="F31" s="23"/>
@@ -10091,13 +10091,13 @@
         <v>65</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="G32" s="23" t="s">
         <v>66</v>
@@ -10115,13 +10115,13 @@
         <v>67</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="F33" s="23" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="G33" s="29" t="s">
         <v>68</v>
@@ -10139,7 +10139,7 @@
         <v>69</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="E34" s="23"/>
       <c r="F34" s="23"/>
@@ -10159,13 +10159,13 @@
         <v>71</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="F35" s="23" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="G35" s="23" t="s">
         <v>72</v>
@@ -10183,13 +10183,13 @@
         <v>73</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="F36" s="23" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="G36" s="29" t="s">
         <v>74</v>
@@ -10207,13 +10207,13 @@
         <v>75</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="F37" s="23" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="G37" s="23" t="s">
         <v>76</v>
@@ -10231,13 +10231,13 @@
         <v>77</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="E38" s="23" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="F38" s="23" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="G38" s="23" t="s">
         <v>78</v>
@@ -10255,13 +10255,13 @@
         <v>79</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="F39" s="23" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="G39" s="23" t="s">
         <v>80</v>
@@ -10279,13 +10279,13 @@
         <v>79</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="E40" s="23" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="F40" s="23" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="G40" s="23" t="s">
         <v>80</v>
@@ -10303,13 +10303,13 @@
         <v>81</v>
       </c>
       <c r="D41" s="23" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="F41" s="23" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="G41" s="23" t="s">
         <v>82</v>
@@ -10327,13 +10327,13 @@
         <v>83</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="F42" s="23" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="G42" s="23" t="s">
         <v>84</v>
@@ -10351,13 +10351,13 @@
         <v>85</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="F43" s="23" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="G43" s="23" t="s">
         <v>86</v>
@@ -10375,13 +10375,13 @@
         <v>87</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="F44" s="23" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
       <c r="G44" s="23" t="s">
         <v>88</v>
@@ -10399,13 +10399,13 @@
         <v>89</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="F45" s="23" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
       <c r="G45" s="36" t="s">
         <v>90</v>
@@ -10423,13 +10423,13 @@
         <v>91</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="F46" s="23" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
       <c r="G46" s="23" t="s">
         <v>92</v>
@@ -10447,13 +10447,13 @@
         <v>93</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="E47" s="23" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="F47" s="23" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
       <c r="G47" s="23" t="s">
         <v>94</v>
@@ -10471,13 +10471,13 @@
         <v>95</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="F48" s="23" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="G48" s="23" t="s">
         <v>96</v>
@@ -10495,13 +10495,13 @@
         <v>97</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="F49" s="23" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="G49" s="23" t="s">
         <v>98</v>
@@ -10519,13 +10519,13 @@
         <v>99</v>
       </c>
       <c r="D50" s="23" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="F50" s="23" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="G50" s="23" t="s">
         <v>100</v>
@@ -10543,13 +10543,13 @@
         <v>101</v>
       </c>
       <c r="D51" s="23" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="F51" s="23" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="G51" s="23" t="s">
         <v>102</v>
@@ -10567,13 +10567,13 @@
         <v>103</v>
       </c>
       <c r="D52" s="23" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="F52" s="23" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="G52" s="23" t="s">
         <v>104</v>
@@ -10591,13 +10591,13 @@
         <v>105</v>
       </c>
       <c r="D53" s="23" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="F53" s="23" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="G53" s="23" t="s">
         <v>106</v>
@@ -10615,13 +10615,13 @@
         <v>108</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="E54" s="23" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="F54" s="23" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="G54" s="23" t="s">
         <v>109</v>
@@ -10639,13 +10639,13 @@
         <v>111</v>
       </c>
       <c r="D55" s="23" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="E55" s="23" t="s">
         <v>1994</v>
       </c>
       <c r="F55" s="23" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="G55" s="23" t="s">
         <v>112</v>
@@ -10663,13 +10663,13 @@
         <v>111</v>
       </c>
       <c r="D56" s="23" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="E56" s="23" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="F56" s="23" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="G56" s="23" t="s">
         <v>112</v>
@@ -10687,13 +10687,13 @@
         <v>113</v>
       </c>
       <c r="D57" s="23" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="E57" s="23" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="F57" s="23" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="G57" s="23" t="s">
         <v>114</v>
@@ -10711,10 +10711,10 @@
         <v>115</v>
       </c>
       <c r="D58" s="23" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="E58" s="23" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="F58" s="23"/>
       <c r="G58" s="23" t="s">
@@ -10733,10 +10733,10 @@
         <v>117</v>
       </c>
       <c r="D59" s="23" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="E59" s="23" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="F59" s="23"/>
       <c r="G59" s="23" t="s">
@@ -10755,10 +10755,10 @@
         <v>120</v>
       </c>
       <c r="D60" s="23" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="E60" s="23" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="F60" s="23"/>
       <c r="G60" s="23" t="s">
@@ -10777,7 +10777,7 @@
         <v>122</v>
       </c>
       <c r="D61" s="23" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="E61" s="23" t="s">
         <v>1996</v>
@@ -10799,10 +10799,10 @@
         <v>122</v>
       </c>
       <c r="D62" s="23" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="E62" s="23" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="F62" s="23"/>
       <c r="G62" s="23" t="s">
@@ -10821,10 +10821,10 @@
         <v>124</v>
       </c>
       <c r="D63" s="23" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="E63" s="23" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="F63" s="23"/>
       <c r="G63" s="23" t="s">
@@ -10843,10 +10843,10 @@
         <v>126</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="E64" s="23" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="F64" s="23"/>
       <c r="G64" s="23" t="s">
@@ -10866,7 +10866,7 @@
       </c>
       <c r="D65" s="23"/>
       <c r="E65" s="23" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="F65" s="23"/>
       <c r="G65" s="23" t="s">
@@ -10885,10 +10885,10 @@
         <v>77</v>
       </c>
       <c r="D66" s="23" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="E66" s="23" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="F66" s="23"/>
       <c r="G66" s="23" t="s">
@@ -10907,10 +10907,10 @@
         <v>130</v>
       </c>
       <c r="D67" s="23" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="E67" s="23" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="F67" s="23"/>
       <c r="G67" s="23" t="s">
@@ -10929,10 +10929,10 @@
         <v>133</v>
       </c>
       <c r="D68" s="23" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="E68" s="23" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="F68" s="23"/>
       <c r="G68" s="23" t="s">
@@ -10951,10 +10951,10 @@
         <v>135</v>
       </c>
       <c r="D69" s="23" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="E69" s="23" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="F69" s="23"/>
       <c r="G69" s="23" t="s">
@@ -10973,10 +10973,10 @@
         <v>137</v>
       </c>
       <c r="D70" s="23" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="E70" s="23" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="F70" s="23"/>
       <c r="G70" s="23" t="s">
@@ -10995,10 +10995,10 @@
         <v>139</v>
       </c>
       <c r="D71" s="23" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="E71" s="23" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="F71" s="23"/>
       <c r="G71" s="23" t="s">
@@ -11017,10 +11017,10 @@
         <v>141</v>
       </c>
       <c r="D72" s="23" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="E72" s="23" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="F72" s="23"/>
       <c r="G72" s="23" t="s">
@@ -11039,10 +11039,10 @@
         <v>143</v>
       </c>
       <c r="D73" s="23" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="E73" s="23" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="F73" s="23"/>
       <c r="G73" s="23" t="s">
@@ -11061,7 +11061,7 @@
         <v>146</v>
       </c>
       <c r="D74" s="23" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="E74" s="23"/>
       <c r="F74" s="23"/>
@@ -11081,10 +11081,10 @@
         <v>148</v>
       </c>
       <c r="D75" s="23" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="E75" s="23" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="F75" s="23"/>
       <c r="G75" s="23" t="s">
@@ -11103,10 +11103,10 @@
         <v>151</v>
       </c>
       <c r="D76" s="23" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="E76" s="23" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="F76" s="23"/>
       <c r="G76" s="23" t="s">
@@ -11125,10 +11125,10 @@
         <v>153</v>
       </c>
       <c r="D77" s="23" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="E77" s="23" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="F77" s="23"/>
       <c r="G77" s="23" t="s">
@@ -11174,7 +11174,7 @@
         <v>1628</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
@@ -11184,10 +11184,10 @@
         <v>1629</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
       <c r="E2" t="s">
         <v>1630</v>
@@ -11201,10 +11201,10 @@
         <v>1632</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="E3" t="s">
         <v>1633</v>
@@ -11218,10 +11218,10 @@
         <v>1635</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="E4" t="s">
         <v>1636</v>
@@ -11235,10 +11235,10 @@
         <v>1637</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="E5" t="s">
         <v>1638</v>
@@ -11252,10 +11252,10 @@
         <v>1639</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="E6" t="s">
         <v>1640</v>
@@ -11269,10 +11269,10 @@
         <v>1641</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>1642</v>
@@ -11286,10 +11286,10 @@
         <v>1644</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>1645</v>
@@ -11303,10 +11303,10 @@
         <v>1647</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="E9" t="s">
         <v>1648</v>
@@ -11320,10 +11320,10 @@
         <v>1649</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="E10" t="s">
         <v>1650</v>
@@ -11337,10 +11337,10 @@
         <v>1651</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="E11" t="s">
         <v>1652</v>
@@ -11354,10 +11354,10 @@
         <v>1653</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>1654</v>
@@ -11371,10 +11371,10 @@
         <v>1656</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>1657</v>
@@ -11388,10 +11388,10 @@
         <v>1659</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>1660</v>
@@ -11405,10 +11405,10 @@
         <v>1662</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="E15" t="s">
         <v>1663</v>
@@ -11422,10 +11422,10 @@
         <v>1665</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="E16" t="s">
         <v>1666</v>
@@ -11439,10 +11439,10 @@
         <v>1667</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="E17" t="s">
         <v>1668</v>
@@ -11507,7 +11507,7 @@
         <v>1669</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="C1" s="40"/>
       <c r="D1" s="40"/>
@@ -11517,7 +11517,7 @@
         <v>1670</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="C2" s="40"/>
       <c r="D2" s="40"/>
@@ -11527,7 +11527,7 @@
         <v>1671</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="C3" s="40"/>
       <c r="D3" s="40"/>
@@ -11537,7 +11537,7 @@
         <v>1672</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="C4" s="40"/>
       <c r="D4" s="40"/>
@@ -11560,7 +11560,7 @@
         <v>1675</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="D6" s="43" t="s">
         <v>1676</v>
@@ -11572,7 +11572,7 @@
         <v>1677</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="D7" s="40" t="s">
         <v>1678</v>
@@ -11584,7 +11584,7 @@
         <v>1679</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="D8" s="44" t="s">
         <v>1680</v>
@@ -11596,7 +11596,7 @@
         <v>1681</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="D9" s="40" t="s">
         <v>1682</v>
@@ -11608,7 +11608,7 @@
         <v>1683</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="D10" s="40" t="s">
         <v>1684</v>
@@ -11620,7 +11620,7 @@
         <v>1685</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="D11" s="40" t="s">
         <v>1686</v>
@@ -11632,7 +11632,7 @@
         <v>1687</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="D12" s="44" t="s">
         <v>1688</v>
@@ -11654,7 +11654,7 @@
         <v>1691</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="D14" s="41" t="s">
         <v>1692</v>
@@ -11666,7 +11666,7 @@
         <v>1693</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="D15" s="40" t="s">
         <v>1694</v>
@@ -11678,7 +11678,7 @@
         <v>1695</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="D16" s="40" t="s">
         <v>1696</v>
@@ -11690,7 +11690,7 @@
         <v>1697</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="D17" s="40" t="s">
         <v>1698</v>
@@ -11702,7 +11702,7 @@
         <v>1699</v>
       </c>
       <c r="C18" s="43" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="D18" s="44" t="s">
         <v>1680</v>
@@ -11714,7 +11714,7 @@
         <v>1700</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="D19" s="40" t="s">
         <v>1684</v>
@@ -11726,7 +11726,7 @@
         <v>1695</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="D20" s="40" t="s">
         <v>1696</v>
@@ -11738,7 +11738,7 @@
         <v>1687</v>
       </c>
       <c r="C21" s="43" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="D21" s="44" t="s">
         <v>1701</v>
@@ -11750,7 +11750,7 @@
         <v>1700</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="D22" s="40" t="s">
         <v>1702</v>
@@ -11764,10 +11764,10 @@
         <v>1695</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="33.75" customHeight="1">
@@ -11776,10 +11776,10 @@
         <v>1704</v>
       </c>
       <c r="C24" s="43" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="D24" s="41" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15">
@@ -11793,10 +11793,10 @@
     <row r="26" spans="1:4" ht="15">
       <c r="A26" s="40"/>
       <c r="B26" s="40" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="D26" s="40" t="s">
         <v>1696</v>
@@ -11805,13 +11805,13 @@
     <row r="27" spans="1:4" ht="29.15">
       <c r="A27" s="40"/>
       <c r="B27" s="41" t="s">
+        <v>2471</v>
+      </c>
+      <c r="C27" s="41" t="s">
+        <v>2482</v>
+      </c>
+      <c r="D27" s="41" t="s">
         <v>2472</v>
-      </c>
-      <c r="C27" s="41" t="s">
-        <v>2483</v>
-      </c>
-      <c r="D27" s="41" t="s">
-        <v>2473</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15">
@@ -11820,7 +11820,7 @@
         <v>1705</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="D28" s="40" t="s">
         <v>1706</v>
@@ -11832,7 +11832,7 @@
         <v>1707</v>
       </c>
       <c r="C29" s="43" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="D29" s="41" t="s">
         <v>1708</v>
@@ -11844,7 +11844,7 @@
         <v>1709</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="D30" s="40" t="s">
         <v>1682</v>
@@ -11879,7 +11879,7 @@
         <v>1669</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="C1" s="40"/>
       <c r="D1" s="40"/>
@@ -11889,7 +11889,7 @@
         <v>1670</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="C2" s="40"/>
       <c r="D2" s="40"/>
@@ -11899,7 +11899,7 @@
         <v>1671</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="C3" s="40"/>
       <c r="D3" s="40"/>
@@ -11909,7 +11909,7 @@
         <v>1672</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="C4" s="40"/>
       <c r="D4" s="40"/>
@@ -11932,7 +11932,7 @@
         <v>1711</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="D6" s="43" t="s">
         <v>1676</v>
@@ -11944,7 +11944,7 @@
         <v>1712</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="D7" s="27" t="s">
         <v>1713</v>
@@ -11956,7 +11956,7 @@
         <v>1714</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="D8" s="40" t="s">
         <v>1715</v>
@@ -11968,7 +11968,7 @@
         <v>1716</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="D9" s="44" t="s">
         <v>1998</v>
@@ -12005,7 +12005,7 @@
         <v>2000</v>
       </c>
       <c r="C1" s="46" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15">
@@ -12013,7 +12013,7 @@
         <v>1717</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="C2" s="40" t="s">
         <v>1718</v>
@@ -12024,7 +12024,7 @@
         <v>1719</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="C3" s="40" t="s">
         <v>1720</v>
@@ -12035,7 +12035,7 @@
         <v>1721</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="C4" s="40" t="s">
         <v>1722</v>
@@ -12046,7 +12046,7 @@
         <v>1723</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="C5" s="40" t="s">
         <v>1724</v>
@@ -12057,7 +12057,7 @@
         <v>1725</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="C6" s="40" t="s">
         <v>1726</v>
@@ -12068,7 +12068,7 @@
         <v>1727</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="C7" s="40" t="s">
         <v>1728</v>
@@ -12079,7 +12079,7 @@
         <v>1729</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="C8" s="40" t="s">
         <v>1730</v>
@@ -12090,7 +12090,7 @@
         <v>1731</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="C9" s="40" t="s">
         <v>1732</v>
@@ -12101,7 +12101,7 @@
         <v>1733</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="C10" s="40" t="s">
         <v>1734</v>
@@ -12112,7 +12112,7 @@
         <v>1735</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="C11" s="40" t="s">
         <v>1736</v>
@@ -12123,7 +12123,7 @@
         <v>1737</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="C12" s="40" t="s">
         <v>1738</v>
@@ -12134,7 +12134,7 @@
         <v>1739</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="C13" s="40" t="s">
         <v>1740</v>
@@ -12145,7 +12145,7 @@
         <v>1741</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="C14" s="40" t="s">
         <v>1742</v>
@@ -12156,7 +12156,7 @@
         <v>1743</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="C15" s="40" t="s">
         <v>1744</v>
@@ -12167,7 +12167,7 @@
         <v>1745</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="C16" s="40" t="s">
         <v>1746</v>
@@ -12178,7 +12178,7 @@
         <v>1747</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="C17" s="40" t="s">
         <v>1748</v>
@@ -12189,7 +12189,7 @@
         <v>1749</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="C18" s="40" t="s">
         <v>1750</v>
@@ -12200,7 +12200,7 @@
         <v>1751</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="C19" s="40" t="s">
         <v>1752</v>
@@ -12211,7 +12211,7 @@
         <v>1753</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="C20" s="40" t="s">
         <v>1754</v>
@@ -12222,7 +12222,7 @@
         <v>1755</v>
       </c>
       <c r="B21" s="40" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="C21" s="40" t="s">
         <v>1756</v>
@@ -12244,7 +12244,7 @@
         <v>1757</v>
       </c>
       <c r="B23" s="40" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="C23" s="40" t="s">
         <v>1758</v>
@@ -12266,7 +12266,7 @@
         <v>1759</v>
       </c>
       <c r="B25" s="40" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="C25" s="40" t="s">
         <v>1760</v>
@@ -12277,7 +12277,7 @@
         <v>1761</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="C26" s="40" t="s">
         <v>1762</v>
@@ -12288,7 +12288,7 @@
         <v>1763</v>
       </c>
       <c r="B27" s="40" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="C27" s="40" t="s">
         <v>1764</v>
@@ -12299,7 +12299,7 @@
         <v>1765</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="C28" s="40" t="s">
         <v>1766</v>
@@ -12310,7 +12310,7 @@
         <v>1763</v>
       </c>
       <c r="B29" s="40" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="C29" s="40" t="s">
         <v>1764</v>
@@ -12321,7 +12321,7 @@
         <v>1767</v>
       </c>
       <c r="B30" s="40" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="C30" s="40" t="s">
         <v>1768</v>
@@ -12332,7 +12332,7 @@
         <v>1769</v>
       </c>
       <c r="B31" s="40" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="C31" s="40" t="s">
         <v>1770</v>
@@ -12343,7 +12343,7 @@
         <v>1771</v>
       </c>
       <c r="B32" s="40" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="C32" s="40" t="s">
         <v>1772</v>
@@ -12354,7 +12354,7 @@
         <v>1773</v>
       </c>
       <c r="B33" s="40" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="C33" s="40" t="s">
         <v>1774</v>
@@ -12365,7 +12365,7 @@
         <v>1775</v>
       </c>
       <c r="B34" s="40" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="C34" s="40" t="s">
         <v>1776</v>
@@ -12376,7 +12376,7 @@
         <v>1777</v>
       </c>
       <c r="B35" s="40" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="C35" s="40" t="s">
         <v>1778</v>
@@ -12387,7 +12387,7 @@
         <v>1779</v>
       </c>
       <c r="B36" s="40" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="C36" s="27" t="s">
         <v>1780</v>
@@ -12398,7 +12398,7 @@
         <v>1781</v>
       </c>
       <c r="B37" s="40" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="C37" s="40" t="s">
         <v>1782</v>
@@ -12409,7 +12409,7 @@
         <v>1783</v>
       </c>
       <c r="B38" s="40" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="C38" s="40" t="s">
         <v>1784</v>
@@ -12420,7 +12420,7 @@
         <v>1785</v>
       </c>
       <c r="B39" s="40" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="C39" s="40" t="s">
         <v>1786</v>
@@ -12431,7 +12431,7 @@
         <v>1787</v>
       </c>
       <c r="B40" s="40" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="C40" s="40" t="s">
         <v>1788</v>
@@ -12442,7 +12442,7 @@
         <v>1789</v>
       </c>
       <c r="B41" s="40" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="C41" s="40" t="s">
         <v>1790</v>
@@ -12453,7 +12453,7 @@
         <v>1791</v>
       </c>
       <c r="B42" s="40" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="C42" s="40" t="s">
         <v>1792</v>
@@ -12464,7 +12464,7 @@
         <v>1793</v>
       </c>
       <c r="B43" s="40" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="C43" s="40" t="s">
         <v>1794</v>
@@ -12475,7 +12475,7 @@
         <v>1795</v>
       </c>
       <c r="B44" s="40" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="C44" s="40" t="s">
         <v>1796</v>
@@ -12486,7 +12486,7 @@
         <v>1797</v>
       </c>
       <c r="B45" s="40" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="C45" s="40" t="s">
         <v>1798</v>
@@ -12497,7 +12497,7 @@
         <v>1799</v>
       </c>
       <c r="B46" s="40" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="C46" s="40" t="s">
         <v>1800</v>
@@ -12508,7 +12508,7 @@
         <v>1801</v>
       </c>
       <c r="B47" s="40" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="C47" s="40" t="s">
         <v>1802</v>
@@ -12519,7 +12519,7 @@
         <v>1803</v>
       </c>
       <c r="B48" s="40" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="C48" s="40" t="s">
         <v>1804</v>
@@ -12530,7 +12530,7 @@
         <v>1805</v>
       </c>
       <c r="B49" s="40" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="C49" s="40" t="s">
         <v>1806</v>
@@ -12541,7 +12541,7 @@
         <v>1807</v>
       </c>
       <c r="B50" s="40" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="C50" s="40" t="s">
         <v>1808</v>
@@ -12552,7 +12552,7 @@
         <v>1809</v>
       </c>
       <c r="B51" s="40" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="C51" s="40" t="s">
         <v>1810</v>
@@ -12563,7 +12563,7 @@
         <v>1811</v>
       </c>
       <c r="B52" s="40" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="C52" s="40" t="s">
         <v>1812</v>
@@ -12574,7 +12574,7 @@
         <v>1813</v>
       </c>
       <c r="B53" s="40" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="C53" s="40" t="s">
         <v>1814</v>
@@ -12585,7 +12585,7 @@
         <v>1815</v>
       </c>
       <c r="B54" s="40" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="C54" s="40" t="s">
         <v>1816</v>
@@ -12596,7 +12596,7 @@
         <v>1817</v>
       </c>
       <c r="B55" s="40" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="C55" s="40" t="s">
         <v>1818</v>
@@ -12607,7 +12607,7 @@
         <v>1819</v>
       </c>
       <c r="B56" s="40" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="C56" s="40" t="s">
         <v>1820</v>
@@ -12618,7 +12618,7 @@
         <v>1821</v>
       </c>
       <c r="B57" s="40" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="C57" s="40" t="s">
         <v>1822</v>
@@ -12629,7 +12629,7 @@
         <v>1823</v>
       </c>
       <c r="B58" s="40" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="C58" s="40" t="s">
         <v>1824</v>
@@ -12640,7 +12640,7 @@
         <v>1825</v>
       </c>
       <c r="B59" s="40" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="C59" s="40" t="s">
         <v>1826</v>
@@ -12651,7 +12651,7 @@
         <v>1827</v>
       </c>
       <c r="B60" s="40" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="C60" s="40" t="s">
         <v>1828</v>
@@ -12662,7 +12662,7 @@
         <v>1829</v>
       </c>
       <c r="B61" s="40" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="C61" s="40" t="s">
         <v>1830</v>
@@ -12673,7 +12673,7 @@
         <v>1831</v>
       </c>
       <c r="B62" s="40" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="C62" s="40" t="s">
         <v>1832</v>
@@ -12684,7 +12684,7 @@
         <v>1833</v>
       </c>
       <c r="B63" s="40" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="C63" s="40" t="s">
         <v>1834</v>
@@ -12695,7 +12695,7 @@
         <v>1835</v>
       </c>
       <c r="B64" s="40" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="C64" s="40" t="s">
         <v>1836</v>
@@ -12706,7 +12706,7 @@
         <v>1837</v>
       </c>
       <c r="B65" s="40" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="C65" s="40" t="s">
         <v>1838</v>
@@ -12717,7 +12717,7 @@
         <v>1839</v>
       </c>
       <c r="B66" s="40" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="C66" s="40" t="s">
         <v>1840</v>
@@ -12728,7 +12728,7 @@
         <v>1841</v>
       </c>
       <c r="B67" s="40" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="C67" s="40" t="s">
         <v>1842</v>
@@ -12739,7 +12739,7 @@
         <v>1843</v>
       </c>
       <c r="B68" s="40" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="C68" s="40" t="s">
         <v>1844</v>
@@ -12750,7 +12750,7 @@
         <v>1845</v>
       </c>
       <c r="B69" s="40" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="C69" s="40" t="s">
         <v>1846</v>
@@ -12761,7 +12761,7 @@
         <v>1847</v>
       </c>
       <c r="B70" s="40" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="C70" s="40" t="s">
         <v>1848</v>
@@ -12772,7 +12772,7 @@
         <v>1739</v>
       </c>
       <c r="B71" s="40" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="C71" s="40" t="s">
         <v>1849</v>
@@ -12783,7 +12783,7 @@
         <v>1850</v>
       </c>
       <c r="B72" s="40" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="C72" s="40" t="s">
         <v>1851</v>
@@ -12794,7 +12794,7 @@
         <v>1852</v>
       </c>
       <c r="B73" s="40" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="C73" s="40" t="s">
         <v>1853</v>
@@ -12805,7 +12805,7 @@
         <v>1854</v>
       </c>
       <c r="B74" s="40" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="C74" s="40" t="s">
         <v>1855</v>
@@ -12816,7 +12816,7 @@
         <v>1856</v>
       </c>
       <c r="B75" s="40" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="C75" s="40" t="s">
         <v>1857</v>
@@ -12827,7 +12827,7 @@
         <v>1858</v>
       </c>
       <c r="B76" s="40" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="C76" s="40" t="s">
         <v>1859</v>
@@ -12838,7 +12838,7 @@
         <v>1860</v>
       </c>
       <c r="B77" s="40" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="C77" s="40" t="s">
         <v>1861</v>
@@ -12873,7 +12873,7 @@
         <v>1671</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -12881,7 +12881,7 @@
         <v>1672</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -12897,7 +12897,7 @@
         <v>1863</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="C5" s="48" t="s">
         <v>1864</v>
@@ -12908,7 +12908,7 @@
         <v>1865</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="C6" s="40" t="s">
         <v>1866</v>
@@ -12919,7 +12919,7 @@
         <v>1867</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="C7" s="48" t="s">
         <v>1868</v>
@@ -12930,7 +12930,7 @@
         <v>1869</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="C8" s="40" t="s">
         <v>1870</v>
@@ -13853,7 +13853,7 @@
         <v>2000</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="F1" s="34" t="s">
         <v>1435</v>
@@ -13873,7 +13873,7 @@
         <v>909</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="E2" s="23"/>
       <c r="F2" s="23" t="s">
@@ -13892,7 +13892,7 @@
         <v>1438</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="E3" s="23"/>
       <c r="F3" s="23" t="s">
@@ -13911,7 +13911,7 @@
         <v>1440</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="E4" s="23"/>
       <c r="F4" s="23" t="s">
@@ -13930,7 +13930,7 @@
         <v>1442</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="E5" s="23"/>
       <c r="F5" s="23" t="s">
@@ -13949,7 +13949,7 @@
         <v>1444</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="E6" s="23"/>
       <c r="F6" s="23" t="s">
@@ -13968,7 +13968,7 @@
         <v>1446</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="E7" s="23"/>
       <c r="F7" s="23" t="s">
@@ -13987,7 +13987,7 @@
         <v>1448</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="E8" s="23"/>
       <c r="F8" s="23" t="s">
@@ -14006,7 +14006,7 @@
         <v>1451</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="E9" s="23"/>
       <c r="F9" s="23" t="s">
@@ -14025,7 +14025,7 @@
         <v>1453</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="E10" s="23"/>
       <c r="F10" s="27" t="s">
@@ -14044,7 +14044,7 @@
         <v>1455</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="E11" s="23"/>
       <c r="F11" s="27" t="s">
@@ -14063,7 +14063,7 @@
         <v>1457</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="27" t="s">
@@ -14082,7 +14082,7 @@
         <v>1459</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="E13" s="23"/>
       <c r="F13" s="27" t="s">
@@ -14101,7 +14101,7 @@
         <v>36</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="E14" s="23"/>
       <c r="F14" s="23" t="s">
@@ -14120,7 +14120,7 @@
         <v>1461</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="E15" s="23"/>
       <c r="F15" s="23" t="s">
@@ -14139,7 +14139,7 @@
         <v>1463</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="E16" s="23"/>
       <c r="F16" s="23" t="s">
@@ -14158,7 +14158,7 @@
         <v>1465</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="23" t="s">
@@ -14177,7 +14177,7 @@
         <v>1448</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="E18" s="23"/>
       <c r="F18" s="23" t="s">
@@ -14196,7 +14196,7 @@
         <v>1467</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="E19" s="23"/>
       <c r="F19" s="23" t="s">
@@ -14215,7 +14215,7 @@
         <v>1469</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="E20" s="23"/>
       <c r="F20" s="23" t="s">
@@ -14234,7 +14234,7 @@
         <v>1471</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="E21" s="23"/>
       <c r="F21" s="23" t="s">
@@ -14253,7 +14253,7 @@
         <v>1451</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="E22" s="23"/>
       <c r="F22" s="23" t="s">
@@ -14272,7 +14272,7 @@
         <v>1473</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
       <c r="E23" s="23"/>
       <c r="F23" s="27" t="s">
@@ -14291,7 +14291,7 @@
         <v>1475</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
       <c r="E24" s="23"/>
       <c r="F24" s="27" t="s">
@@ -14310,7 +14310,7 @@
         <v>1477</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
       <c r="E25" s="23"/>
       <c r="F25" s="27" t="s">
@@ -14329,7 +14329,7 @@
         <v>1479</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="E26" s="23"/>
       <c r="F26" s="27" t="s">
@@ -14348,7 +14348,7 @@
         <v>1481</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="E27" s="23"/>
       <c r="F27" s="23" t="s">
@@ -14367,7 +14367,7 @@
         <v>1483</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="E28" s="23"/>
       <c r="F28" s="23" t="s">
@@ -14386,7 +14386,7 @@
         <v>1463</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="E29" s="23"/>
       <c r="F29" s="23" t="s">
@@ -14405,7 +14405,7 @@
         <v>1467</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="E30" s="23"/>
       <c r="F30" s="23" t="s">
@@ -14424,7 +14424,7 @@
         <v>1469</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="E31" s="23"/>
       <c r="F31" s="23" t="s">
@@ -14443,7 +14443,7 @@
         <v>1485</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="E32" s="23"/>
       <c r="F32" s="23" t="s">
@@ -14462,7 +14462,7 @@
         <v>1448</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="E33" s="23"/>
       <c r="F33" s="23" t="s">
@@ -14481,7 +14481,7 @@
         <v>1487</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="E34" s="23"/>
       <c r="F34" s="23" t="s">
@@ -14497,14 +14497,14 @@
         <v>1436</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="E35" s="23"/>
       <c r="F35" s="23" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="G35" s="23"/>
     </row>
@@ -14519,7 +14519,7 @@
         <v>1444</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="E36" s="23"/>
       <c r="F36" s="23" t="s">
@@ -14538,7 +14538,7 @@
         <v>1446</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="E37" s="23"/>
       <c r="F37" s="23" t="s">
@@ -14557,7 +14557,7 @@
         <v>1489</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="E38" s="23"/>
       <c r="F38" s="23" t="s">
@@ -14576,7 +14576,7 @@
         <v>1491</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="E39" s="23"/>
       <c r="F39" s="23" t="s">
@@ -14595,7 +14595,7 @@
         <v>1493</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="E40" s="23"/>
       <c r="F40" s="23" t="s">
@@ -14614,7 +14614,7 @@
         <v>1495</v>
       </c>
       <c r="D41" s="23" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="E41" s="23"/>
       <c r="F41" s="23" t="s">
@@ -14633,7 +14633,7 @@
         <v>1497</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="E42" s="23"/>
       <c r="F42" s="23" t="s">
@@ -14652,7 +14652,7 @@
         <v>87</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="E43" s="23"/>
       <c r="F43" s="23" t="s">
@@ -14671,7 +14671,7 @@
         <v>1451</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="E44" s="23"/>
       <c r="F44" s="23" t="s">
@@ -14690,7 +14690,7 @@
         <v>1498</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="E45" s="23"/>
       <c r="F45" s="27" t="s">
@@ -14709,7 +14709,7 @@
         <v>1500</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="E46" s="23"/>
       <c r="F46" s="27" t="s">
@@ -14728,7 +14728,7 @@
         <v>1502</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="E47" s="23"/>
       <c r="F47" s="27" t="s">
@@ -14747,7 +14747,7 @@
         <v>1504</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="E48" s="23"/>
       <c r="F48" s="27" t="s">
@@ -14766,7 +14766,7 @@
         <v>1506</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="E49" s="23"/>
       <c r="F49" s="25" t="s">
@@ -14785,7 +14785,7 @@
         <v>1508</v>
       </c>
       <c r="D50" s="23" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="E50" s="23"/>
       <c r="F50" s="25" t="s">
@@ -14804,7 +14804,7 @@
         <v>1491</v>
       </c>
       <c r="D51" s="23" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="E51" s="23"/>
       <c r="F51" s="25" t="s">
@@ -14823,7 +14823,7 @@
         <v>1510</v>
       </c>
       <c r="D52" s="23" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="E52" s="23"/>
       <c r="F52" s="25" t="s">
@@ -14842,7 +14842,7 @@
         <v>1512</v>
       </c>
       <c r="D53" s="23" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="E53" s="23"/>
       <c r="F53" s="25" t="s">
@@ -14861,7 +14861,7 @@
         <v>1514</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="E54" s="23"/>
       <c r="F54" s="25" t="s">
@@ -14880,7 +14880,7 @@
         <v>1451</v>
       </c>
       <c r="D55" s="40" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="E55" s="23"/>
       <c r="F55" s="25" t="s">
@@ -14899,7 +14899,7 @@
         <v>1516</v>
       </c>
       <c r="D56" s="40" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="E56" s="23"/>
       <c r="F56" s="25" t="s">
@@ -14918,7 +14918,7 @@
         <v>1518</v>
       </c>
       <c r="D57" s="40" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="E57" s="23"/>
       <c r="F57" s="25" t="s">
@@ -14937,7 +14937,7 @@
         <v>1520</v>
       </c>
       <c r="D58" s="40" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="E58" s="23"/>
       <c r="F58" s="25" t="s">
@@ -14956,7 +14956,7 @@
         <v>1522</v>
       </c>
       <c r="D59" s="40" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="E59" s="23"/>
       <c r="F59" s="25" t="s">
@@ -14975,7 +14975,7 @@
         <v>1524</v>
       </c>
       <c r="D60" s="40" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="E60" s="23"/>
       <c r="F60" s="25" t="s">
@@ -14994,7 +14994,7 @@
         <v>1526</v>
       </c>
       <c r="D61" s="40" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="E61" s="23"/>
       <c r="F61" s="25" t="s">
@@ -15013,7 +15013,7 @@
         <v>1528</v>
       </c>
       <c r="D62" s="23" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="E62" s="23"/>
       <c r="F62" s="25" t="s">
@@ -15032,7 +15032,7 @@
         <v>1530</v>
       </c>
       <c r="D63" s="40" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="E63" s="23"/>
       <c r="F63" s="25" t="s">
@@ -15051,7 +15051,7 @@
         <v>1532</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="E64" s="23"/>
       <c r="F64" s="25" t="s">
@@ -15070,7 +15070,7 @@
         <v>1534</v>
       </c>
       <c r="D65" s="23" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="E65" s="23"/>
       <c r="F65" s="25" t="s">
@@ -15089,7 +15089,7 @@
         <v>99</v>
       </c>
       <c r="D66" s="23" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="E66" s="23"/>
       <c r="F66" s="25" t="s">
@@ -15108,7 +15108,7 @@
         <v>1536</v>
       </c>
       <c r="D67" s="23" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="E67" s="23"/>
       <c r="F67" s="25" t="s">
@@ -15127,7 +15127,7 @@
         <v>1537</v>
       </c>
       <c r="D68" s="23" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="E68" s="23"/>
       <c r="F68" s="25" t="s">
@@ -15146,7 +15146,7 @@
         <v>1497</v>
       </c>
       <c r="D69" s="23" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="E69" s="23"/>
       <c r="F69" s="25" t="s">
@@ -15165,7 +15165,7 @@
         <v>1539</v>
       </c>
       <c r="D70" s="23" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="E70" s="23"/>
       <c r="F70" s="25" t="s">
@@ -15184,7 +15184,7 @@
         <v>1541</v>
       </c>
       <c r="D71" s="23" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="E71" s="23"/>
       <c r="F71" s="25" t="s">
@@ -15203,7 +15203,7 @@
         <v>1543</v>
       </c>
       <c r="D72" s="23" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="E72" s="23"/>
       <c r="F72" s="25" t="s">
@@ -15222,7 +15222,7 @@
         <v>1545</v>
       </c>
       <c r="D73" s="23" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="E73" s="23"/>
       <c r="F73" s="25" t="s">
@@ -15241,7 +15241,7 @@
         <v>1547</v>
       </c>
       <c r="D74" s="40" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="E74" s="23"/>
       <c r="F74" s="25" t="s">
@@ -15260,7 +15260,7 @@
         <v>1536</v>
       </c>
       <c r="D75" s="23" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="E75" s="23"/>
       <c r="F75" s="25" t="s">
@@ -15279,7 +15279,7 @@
         <v>38</v>
       </c>
       <c r="D76" s="23" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="E76" s="23"/>
       <c r="F76" s="25" t="s">
@@ -15298,7 +15298,7 @@
         <v>1550</v>
       </c>
       <c r="D77" s="23" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="E77" s="23"/>
       <c r="F77" s="25" t="s">
@@ -15314,10 +15314,10 @@
         <v>1436</v>
       </c>
       <c r="C78" s="23" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="D78" s="23" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="E78" s="23"/>
       <c r="F78" s="25" t="s">
@@ -15336,7 +15336,7 @@
         <v>1553</v>
       </c>
       <c r="D79" s="40" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="E79" s="23"/>
       <c r="F79" s="25" t="s">
@@ -15355,7 +15355,7 @@
         <v>1451</v>
       </c>
       <c r="D80" s="23" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="E80" s="23"/>
       <c r="F80" s="25" t="s">
@@ -15374,7 +15374,7 @@
         <v>1555</v>
       </c>
       <c r="D81" s="40" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="E81" s="23"/>
       <c r="F81" s="25" t="s">
@@ -15393,7 +15393,7 @@
         <v>1557</v>
       </c>
       <c r="D82" s="40" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
       <c r="E82" s="23"/>
       <c r="F82" s="25" t="s">
@@ -15412,7 +15412,7 @@
         <v>1559</v>
       </c>
       <c r="D83" s="40" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="E83" s="23"/>
       <c r="F83" s="25" t="s">
@@ -15431,7 +15431,7 @@
         <v>1561</v>
       </c>
       <c r="D84" s="40" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="E84" s="23"/>
       <c r="F84" s="25" t="s">
@@ -15450,7 +15450,7 @@
         <v>1563</v>
       </c>
       <c r="D85" s="40" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="E85" s="23"/>
       <c r="F85" s="25" t="s">
@@ -15469,7 +15469,7 @@
         <v>1565</v>
       </c>
       <c r="D86" s="23" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="E86" s="23"/>
       <c r="F86" s="25" t="s">
@@ -15488,7 +15488,7 @@
         <v>1567</v>
       </c>
       <c r="D87" s="23" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="E87" s="23"/>
       <c r="F87" s="25" t="s">
@@ -15507,7 +15507,7 @@
         <v>1463</v>
       </c>
       <c r="D88" s="23" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="E88" s="23"/>
       <c r="F88" s="25" t="s">
@@ -15526,7 +15526,7 @@
         <v>1448</v>
       </c>
       <c r="D89" s="23" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="E89" s="23"/>
       <c r="F89" s="25" t="s">
@@ -15545,7 +15545,7 @@
         <v>1497</v>
       </c>
       <c r="D90" s="23" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="E90" s="23"/>
       <c r="F90" s="25" t="s">
@@ -15564,7 +15564,7 @@
         <v>38</v>
       </c>
       <c r="D91" s="23" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="E91" s="23"/>
       <c r="F91" s="25" t="s">
@@ -15583,7 +15583,7 @@
         <v>1569</v>
       </c>
       <c r="D92" s="23" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="E92" s="23"/>
       <c r="F92" s="25" t="s">
@@ -15602,7 +15602,7 @@
         <v>1571</v>
       </c>
       <c r="D93" s="23" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="E93" s="23"/>
       <c r="F93" s="25" t="s">
@@ -15621,7 +15621,7 @@
         <v>1553</v>
       </c>
       <c r="D94" s="40" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="E94" s="23"/>
       <c r="F94" s="25" t="s">
@@ -15640,7 +15640,7 @@
         <v>1550</v>
       </c>
       <c r="D95" s="40" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="E95" s="23"/>
       <c r="F95" s="25" t="s">
@@ -15659,7 +15659,7 @@
         <v>34</v>
       </c>
       <c r="D96" s="23" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="E96" s="23"/>
       <c r="F96" s="25" t="s">
@@ -15680,7 +15680,7 @@
         <v>1497</v>
       </c>
       <c r="D97" s="23" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="E97" s="23"/>
       <c r="F97" s="25" t="s">
@@ -15696,10 +15696,10 @@
         <v>1436</v>
       </c>
       <c r="C98" s="23" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="D98" s="40" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="E98" s="23"/>
       <c r="F98" s="25" t="s">
@@ -15718,7 +15718,7 @@
         <v>1553</v>
       </c>
       <c r="D99" s="40" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="E99" s="23"/>
       <c r="F99" s="25" t="s">
@@ -15737,7 +15737,7 @@
         <v>1550</v>
       </c>
       <c r="D100" s="40" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="E100" s="23"/>
       <c r="F100" s="25" t="s">
@@ -15758,7 +15758,7 @@
         <v>1451</v>
       </c>
       <c r="D101" s="40" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="E101" s="23"/>
       <c r="F101" s="25" t="s">
@@ -15777,7 +15777,7 @@
         <v>1575</v>
       </c>
       <c r="D102" s="40" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="E102" s="23"/>
       <c r="F102" s="25" t="s">
@@ -15796,7 +15796,7 @@
         <v>1577</v>
       </c>
       <c r="D103" s="40" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
       <c r="E103" s="23"/>
       <c r="F103" s="25" t="s">
@@ -15815,7 +15815,7 @@
         <v>1579</v>
       </c>
       <c r="D104" s="40" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="E104" s="23"/>
       <c r="F104" s="25" t="s">
@@ -15834,7 +15834,7 @@
         <v>1581</v>
       </c>
       <c r="D105" s="40" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="E105" s="23"/>
       <c r="F105" s="25" t="s">
@@ -15853,7 +15853,7 @@
         <v>1583</v>
       </c>
       <c r="D106" s="40" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="E106" s="23"/>
       <c r="F106" s="25" t="s">
@@ -15872,7 +15872,7 @@
         <v>1585</v>
       </c>
       <c r="D107" s="40" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="E107" s="23"/>
       <c r="F107" s="25" t="s">
@@ -15891,7 +15891,7 @@
         <v>1587</v>
       </c>
       <c r="D108" s="40" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="E108" s="23"/>
       <c r="F108" s="25" t="s">
@@ -15910,7 +15910,7 @@
         <v>1589</v>
       </c>
       <c r="D109" s="40" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="E109" s="23"/>
       <c r="F109" s="25" t="s">
@@ -15929,7 +15929,7 @@
         <v>1591</v>
       </c>
       <c r="D110" s="40" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="E110" s="23"/>
       <c r="F110" s="25" t="s">
@@ -15948,7 +15948,7 @@
         <v>1593</v>
       </c>
       <c r="D111" s="23" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="E111" s="23"/>
       <c r="F111" s="25" t="s">
@@ -15967,7 +15967,7 @@
         <v>34</v>
       </c>
       <c r="D112" s="23" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="E112" s="23"/>
       <c r="F112" s="25" t="s">
@@ -16068,7 +16068,7 @@
         <v>1436</v>
       </c>
       <c r="C118" s="23" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="D118" s="23"/>
       <c r="E118" s="23"/>
@@ -16306,7 +16306,7 @@
         <v>1436</v>
       </c>
       <c r="C132" s="23" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="D132" s="23"/>
       <c r="E132" s="23"/>
@@ -16768,8 +16768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G203"/>
   <sheetViews>
-    <sheetView topLeftCell="C145" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D153" sqref="D153"/>
+    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15"/>
@@ -16793,7 +16793,7 @@
         <v>2027</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>3</v>
@@ -16816,7 +16816,7 @@
         <v>2028</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="E2" s="23" t="s">
         <v>202</v>
@@ -16837,7 +16837,7 @@
         <v>2029</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
       <c r="E3" s="23" t="s">
         <v>206</v>
@@ -16858,7 +16858,7 @@
         <v>2030</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="E4" s="24" t="s">
         <v>210</v>
@@ -16879,7 +16879,7 @@
         <v>2031</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="E5" s="23" t="s">
         <v>214</v>
@@ -16900,7 +16900,7 @@
         <v>2032</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="E6" s="23" t="s">
         <v>218</v>
@@ -16921,7 +16921,7 @@
         <v>2033</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="E7" s="23" t="s">
         <v>222</v>
@@ -16942,7 +16942,7 @@
         <v>2034</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="E8" s="23" t="s">
         <v>226</v>
@@ -16963,7 +16963,7 @@
         <v>2035</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="E9" s="23" t="s">
         <v>230</v>
@@ -16984,7 +16984,7 @@
         <v>2036</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="E10" s="23" t="s">
         <v>233</v>
@@ -17005,7 +17005,7 @@
         <v>2037</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="E11" s="23" t="s">
         <v>235</v>
@@ -17026,7 +17026,7 @@
         <v>2038</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="E12" s="23" t="s">
         <v>238</v>
@@ -17047,7 +17047,7 @@
         <v>2039</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="E13" s="23" t="s">
         <v>242</v>
@@ -17068,7 +17068,7 @@
         <v>2040</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="E14" s="23" t="s">
         <v>246</v>
@@ -17089,7 +17089,7 @@
         <v>2041</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>250</v>
@@ -17110,7 +17110,7 @@
         <v>2042</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="E16" s="23" t="s">
         <v>254</v>
@@ -17131,7 +17131,7 @@
         <v>2043</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="E17" s="23" t="s">
         <v>258</v>
@@ -17152,7 +17152,7 @@
         <v>2044</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="E18" s="23" t="s">
         <v>262</v>
@@ -17173,7 +17173,7 @@
         <v>2045</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="E19" s="23" t="s">
         <v>266</v>
@@ -17194,7 +17194,7 @@
         <v>2046</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="E20" s="23" t="s">
         <v>270</v>
@@ -17215,7 +17215,7 @@
         <v>2047</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="E21" s="23" t="s">
         <v>274</v>
@@ -17236,7 +17236,7 @@
         <v>2048</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="E22" s="23" t="s">
         <v>278</v>
@@ -17257,7 +17257,7 @@
         <v>2049</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="E23" s="23" t="s">
         <v>282</v>
@@ -17278,7 +17278,7 @@
         <v>2050</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="E24" s="23" t="s">
         <v>286</v>
@@ -17299,7 +17299,7 @@
         <v>2051</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
       <c r="E25" s="23" t="s">
         <v>290</v>
@@ -17320,7 +17320,7 @@
         <v>2052</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
       <c r="E26" s="23" t="s">
         <v>294</v>
@@ -17341,7 +17341,7 @@
         <v>2053</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="E27" s="23" t="s">
         <v>298</v>
@@ -17362,7 +17362,7 @@
         <v>2054</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="E28" s="23" t="s">
         <v>302</v>
@@ -17383,7 +17383,7 @@
         <v>2055</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="E29" s="23" t="s">
         <v>306</v>
@@ -17404,7 +17404,7 @@
         <v>2056</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="E30" s="23" t="s">
         <v>309</v>
@@ -17425,7 +17425,7 @@
         <v>2057</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="E31" s="23" t="s">
         <v>313</v>
@@ -17446,7 +17446,7 @@
         <v>2058</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="E32" s="23" t="s">
         <v>317</v>
@@ -17467,7 +17467,7 @@
         <v>2059</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="E33" s="23" t="s">
         <v>321</v>
@@ -17488,7 +17488,7 @@
         <v>2060</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="E34" s="23" t="s">
         <v>325</v>
@@ -17509,7 +17509,7 @@
         <v>2061</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="E35" s="23" t="s">
         <v>329</v>
@@ -17530,7 +17530,7 @@
         <v>2062</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="E36" s="23" t="s">
         <v>333</v>
@@ -17551,7 +17551,7 @@
         <v>2063</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="E37" s="23" t="s">
         <v>337</v>
@@ -17572,7 +17572,7 @@
         <v>2064</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="E38" s="23" t="s">
         <v>341</v>
@@ -17593,7 +17593,7 @@
         <v>2065</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="E39" s="23" t="s">
         <v>345</v>
@@ -17614,7 +17614,7 @@
         <v>2066</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="E40" s="26" t="s">
         <v>349</v>
@@ -17635,7 +17635,7 @@
         <v>2067</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="E41" s="23" t="s">
         <v>353</v>
@@ -17656,7 +17656,7 @@
         <v>2068</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="E42" s="23" t="s">
         <v>356</v>
@@ -17677,7 +17677,7 @@
         <v>2069</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="E43" s="23" t="s">
         <v>358</v>
@@ -17698,7 +17698,7 @@
         <v>2070</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="E44" s="23" t="s">
         <v>361</v>
@@ -17719,7 +17719,7 @@
         <v>2071</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="E45" s="23" t="s">
         <v>365</v>
@@ -17740,7 +17740,7 @@
         <v>2072</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="E46" s="23" t="s">
         <v>369</v>
@@ -17761,7 +17761,7 @@
         <v>2073</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="E47" s="23" t="s">
         <v>373</v>
@@ -17782,7 +17782,7 @@
         <v>2074</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="E48" s="23" t="s">
         <v>377</v>
@@ -17803,7 +17803,7 @@
         <v>2075</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="E49" s="23" t="s">
         <v>381</v>
@@ -17824,7 +17824,7 @@
         <v>2076</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="E50" s="23" t="s">
         <v>385</v>
@@ -17845,7 +17845,7 @@
         <v>2077</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="E51" s="23" t="s">
         <v>389</v>
@@ -17866,7 +17866,7 @@
         <v>2078</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="E52" s="23" t="s">
         <v>393</v>
@@ -17887,7 +17887,7 @@
         <v>2079</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="E53" s="23" t="s">
         <v>397</v>
@@ -17908,7 +17908,7 @@
         <v>2080</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="E54" s="23" t="s">
         <v>401</v>
@@ -17926,10 +17926,10 @@
         <v>404</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="E55" s="23" t="s">
         <v>405</v>
@@ -17950,7 +17950,7 @@
         <v>2081</v>
       </c>
       <c r="D56" s="19" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="E56" s="23" t="s">
         <v>409</v>
@@ -17971,7 +17971,7 @@
         <v>2082</v>
       </c>
       <c r="D57" s="19" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="E57" s="23" t="s">
         <v>413</v>
@@ -17992,7 +17992,7 @@
         <v>2083</v>
       </c>
       <c r="D58" s="19" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="E58" s="26" t="s">
         <v>417</v>
@@ -18013,7 +18013,7 @@
         <v>2084</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="E59" s="23" t="s">
         <v>421</v>
@@ -18034,7 +18034,7 @@
         <v>2085</v>
       </c>
       <c r="D60" s="19" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="E60" s="23" t="s">
         <v>424</v>
@@ -18055,7 +18055,7 @@
         <v>2086</v>
       </c>
       <c r="D61" s="19" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="E61" s="23" t="s">
         <v>427</v>
@@ -18076,7 +18076,7 @@
         <v>2087</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="E62" s="23" t="s">
         <v>430</v>
@@ -18097,7 +18097,7 @@
         <v>2088</v>
       </c>
       <c r="D63" s="19" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="E63" s="23" t="s">
         <v>434</v>
@@ -18118,7 +18118,7 @@
         <v>2089</v>
       </c>
       <c r="D64" s="19" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="E64" s="23" t="s">
         <v>438</v>
@@ -18139,7 +18139,7 @@
         <v>2090</v>
       </c>
       <c r="D65" s="19" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="E65" s="23" t="s">
         <v>442</v>
@@ -18160,7 +18160,7 @@
         <v>2091</v>
       </c>
       <c r="D66" s="19" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="E66" s="23" t="s">
         <v>445</v>
@@ -18181,7 +18181,7 @@
         <v>2092</v>
       </c>
       <c r="D67" s="19" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="E67" s="23" t="s">
         <v>449</v>
@@ -18202,7 +18202,7 @@
         <v>2093</v>
       </c>
       <c r="D68" s="19" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="E68" s="23" t="s">
         <v>453</v>
@@ -18220,10 +18220,10 @@
         <v>456</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="D69" s="19" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="E69" s="23" t="s">
         <v>457</v>
@@ -18241,10 +18241,10 @@
         <v>460</v>
       </c>
       <c r="C70" s="19" t="s">
+        <v>2585</v>
+      </c>
+      <c r="D70" s="19" t="s">
         <v>2586</v>
-      </c>
-      <c r="D70" s="19" t="s">
-        <v>2587</v>
       </c>
       <c r="E70" s="23" t="s">
         <v>461</v>
@@ -18262,10 +18262,10 @@
         <v>464</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="D71" s="19" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="E71" s="23" t="s">
         <v>465</v>
@@ -18286,7 +18286,7 @@
         <v>2094</v>
       </c>
       <c r="D72" s="19" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="E72" s="23" t="s">
         <v>469</v>
@@ -18304,10 +18304,10 @@
         <v>472</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="D73" s="19" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="E73" s="23" t="s">
         <v>473</v>
@@ -18325,10 +18325,10 @@
         <v>476</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="D74" s="19" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
       <c r="E74" s="23" t="s">
         <v>477</v>
@@ -18346,10 +18346,10 @@
         <v>480</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="D75" s="19" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="E75" s="23" t="s">
         <v>481</v>
@@ -18370,7 +18370,7 @@
         <v>2095</v>
       </c>
       <c r="D76" s="19" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="E76" s="23" t="s">
         <v>485</v>
@@ -18391,7 +18391,7 @@
         <v>2096</v>
       </c>
       <c r="D77" s="19" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="E77" s="23" t="s">
         <v>489</v>
@@ -18412,7 +18412,7 @@
         <v>2097</v>
       </c>
       <c r="D78" s="19" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="E78" s="23" t="s">
         <v>493</v>
@@ -18433,7 +18433,7 @@
         <v>2098</v>
       </c>
       <c r="D79" s="19" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E79" s="23" t="s">
         <v>497</v>
@@ -18454,7 +18454,7 @@
         <v>2099</v>
       </c>
       <c r="D80" s="19" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="E80" s="23" t="s">
         <v>501</v>
@@ -18475,7 +18475,7 @@
         <v>2100</v>
       </c>
       <c r="D81" s="19" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="E81" s="23" t="s">
         <v>505</v>
@@ -18496,7 +18496,7 @@
         <v>2101</v>
       </c>
       <c r="D82" s="19" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
       <c r="E82" s="23" t="s">
         <v>509</v>
@@ -18517,7 +18517,7 @@
         <v>2102</v>
       </c>
       <c r="D83" s="19" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="E83" s="23" t="s">
         <v>513</v>
@@ -18535,10 +18535,10 @@
         <v>516</v>
       </c>
       <c r="C84" s="19" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="D84" s="19" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="E84" s="23" t="s">
         <v>517</v>
@@ -18556,10 +18556,10 @@
         <v>520</v>
       </c>
       <c r="C85" s="19" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="D85" s="19" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="E85" s="23" t="s">
         <v>521</v>
@@ -18580,7 +18580,7 @@
         <v>2103</v>
       </c>
       <c r="D86" s="19" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
       <c r="E86" s="23" t="s">
         <v>525</v>
@@ -18601,7 +18601,7 @@
         <v>2104</v>
       </c>
       <c r="D87" s="19" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="E87" s="23" t="s">
         <v>529</v>
@@ -18622,7 +18622,7 @@
         <v>2105</v>
       </c>
       <c r="D88" s="19" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
       <c r="E88" s="23" t="s">
         <v>533</v>
@@ -18643,7 +18643,7 @@
         <v>2106</v>
       </c>
       <c r="D89" s="19" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
       <c r="E89" s="23" t="s">
         <v>537</v>
@@ -18664,7 +18664,7 @@
         <v>2107</v>
       </c>
       <c r="D90" s="19" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
       <c r="E90" s="23" t="s">
         <v>541</v>
@@ -18685,7 +18685,7 @@
         <v>2103</v>
       </c>
       <c r="D91" s="19" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
       <c r="E91" s="23" t="s">
         <v>544</v>
@@ -18706,7 +18706,7 @@
         <v>2104</v>
       </c>
       <c r="D92" s="19" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="E92" s="23" t="s">
         <v>546</v>
@@ -18727,7 +18727,7 @@
         <v>2105</v>
       </c>
       <c r="D93" s="19" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
       <c r="E93" s="23" t="s">
         <v>548</v>
@@ -18748,7 +18748,7 @@
         <v>2106</v>
       </c>
       <c r="D94" s="19" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
       <c r="E94" s="23" t="s">
         <v>550</v>
@@ -18769,7 +18769,7 @@
         <v>2107</v>
       </c>
       <c r="D95" s="19" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
       <c r="E95" s="23" t="s">
         <v>552</v>
@@ -18790,7 +18790,7 @@
         <v>2108</v>
       </c>
       <c r="D96" s="19" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="E96" s="23" t="s">
         <v>555</v>
@@ -18811,7 +18811,7 @@
         <v>2109</v>
       </c>
       <c r="D97" s="19" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="E97" s="23" t="s">
         <v>559</v>
@@ -18832,7 +18832,7 @@
         <v>2110</v>
       </c>
       <c r="D98" s="19" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="E98" s="23" t="s">
         <v>563</v>
@@ -18853,7 +18853,7 @@
         <v>2111</v>
       </c>
       <c r="D99" s="19" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="E99" s="23" t="s">
         <v>45</v>
@@ -18874,7 +18874,7 @@
         <v>2112</v>
       </c>
       <c r="D100" s="19" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="E100" s="23" t="s">
         <v>47</v>
@@ -18892,10 +18892,10 @@
         <v>569</v>
       </c>
       <c r="C101" s="19" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="D101" s="19" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="E101" s="23" t="s">
         <v>48</v>
@@ -18916,7 +18916,7 @@
         <v>2113</v>
       </c>
       <c r="D102" s="19" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="E102" s="23" t="s">
         <v>50</v>
@@ -18937,7 +18937,7 @@
         <v>2114</v>
       </c>
       <c r="D103" s="19" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="E103" s="23" t="s">
         <v>52</v>
@@ -18958,7 +18958,7 @@
         <v>2115</v>
       </c>
       <c r="D104" s="19" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="E104" s="23" t="s">
         <v>43</v>
@@ -18979,7 +18979,7 @@
         <v>2116</v>
       </c>
       <c r="D105" s="19" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="E105" s="23" t="s">
         <v>54</v>
@@ -19000,7 +19000,7 @@
         <v>2117</v>
       </c>
       <c r="D106" s="19" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="E106" s="23" t="s">
         <v>56</v>
@@ -19018,10 +19018,10 @@
         <v>582</v>
       </c>
       <c r="C107" s="19" t="s">
-        <v>2118</v>
+        <v>2897</v>
       </c>
       <c r="D107" s="19" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="E107" s="23" t="s">
         <v>58</v>
@@ -19039,10 +19039,10 @@
         <v>584</v>
       </c>
       <c r="C108" s="19" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="D108" s="19" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
       <c r="E108" s="23" t="s">
         <v>60</v>
@@ -19060,10 +19060,10 @@
         <v>586</v>
       </c>
       <c r="C109" s="19" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="D109" s="19" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="E109" s="23" t="s">
         <v>62</v>
@@ -19081,10 +19081,10 @@
         <v>589</v>
       </c>
       <c r="C110" s="19" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="D110" s="19" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="E110" s="23" t="s">
         <v>590</v>
@@ -19102,10 +19102,10 @@
         <v>593</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="D111" s="19" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="E111" s="23" t="s">
         <v>592</v>
@@ -19123,10 +19123,10 @@
         <v>593</v>
       </c>
       <c r="C112" s="19" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="D112" s="19" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="E112" s="23" t="s">
         <v>595</v>
@@ -19144,10 +19144,10 @@
         <v>597</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="D113" s="19" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="E113" s="23" t="s">
         <v>598</v>
@@ -19165,10 +19165,10 @@
         <v>601</v>
       </c>
       <c r="C114" s="19" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="D114" s="19" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
       <c r="E114" s="23" t="s">
         <v>602</v>
@@ -19186,10 +19186,10 @@
         <v>589</v>
       </c>
       <c r="C115" s="19" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="D115" s="19" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="E115" s="23" t="s">
         <v>605</v>
@@ -19207,10 +19207,10 @@
         <v>607</v>
       </c>
       <c r="C116" s="19" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="D116" s="19" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="E116" s="23" t="s">
         <v>606</v>
@@ -19228,10 +19228,10 @@
         <v>597</v>
       </c>
       <c r="C117" s="19" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="D117" s="19" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="E117" s="23" t="s">
         <v>610</v>
@@ -19249,10 +19249,10 @@
         <v>601</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
       <c r="D118" s="19" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
       <c r="E118" s="23" t="s">
         <v>612</v>
@@ -19270,10 +19270,10 @@
         <v>614</v>
       </c>
       <c r="C119" s="19" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
       <c r="D119" s="19" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="E119" s="23" t="s">
         <v>613</v>
@@ -19291,10 +19291,10 @@
         <v>617</v>
       </c>
       <c r="C120" s="19" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
       <c r="D120" s="19" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="E120" s="23" t="s">
         <v>616</v>
@@ -19312,10 +19312,10 @@
         <v>620</v>
       </c>
       <c r="C121" s="19" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="D121" s="19" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
       <c r="E121" s="23" t="s">
         <v>621</v>
@@ -19333,10 +19333,10 @@
         <v>624</v>
       </c>
       <c r="C122" s="19" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="D122" s="19" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="E122" s="25" t="s">
         <v>625</v>
@@ -19354,10 +19354,10 @@
         <v>628</v>
       </c>
       <c r="C123" s="19" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="D123" s="19" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="E123" s="25" t="s">
         <v>629</v>
@@ -19375,10 +19375,10 @@
         <v>632</v>
       </c>
       <c r="C124" s="19" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="D124" s="19" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="E124" s="25" t="s">
         <v>633</v>
@@ -19396,10 +19396,10 @@
         <v>636</v>
       </c>
       <c r="C125" s="19" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="D125" s="19" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="E125" s="25" t="s">
         <v>637</v>
@@ -19417,10 +19417,10 @@
         <v>640</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="D126" s="19" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="E126" s="25" t="s">
         <v>641</v>
@@ -19438,10 +19438,10 @@
         <v>644</v>
       </c>
       <c r="C127" s="19" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="D127" s="19" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="E127" s="25" t="s">
         <v>645</v>
@@ -19457,7 +19457,7 @@
       </c>
       <c r="B128" s="22"/>
       <c r="C128" s="19" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="D128" s="19"/>
       <c r="E128" s="23" t="s">
@@ -19472,7 +19472,7 @@
       </c>
       <c r="B129" s="22"/>
       <c r="C129" s="19" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="D129" s="19"/>
       <c r="E129" s="23" t="s">
@@ -19487,7 +19487,7 @@
       </c>
       <c r="B130" s="22"/>
       <c r="C130" s="19" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="D130" s="19"/>
       <c r="E130" s="23" t="s">
@@ -19502,7 +19502,7 @@
       </c>
       <c r="B131" s="22"/>
       <c r="C131" s="19" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
       <c r="D131" s="19"/>
       <c r="E131" s="23" t="s">
@@ -19517,7 +19517,7 @@
       </c>
       <c r="B132" s="22"/>
       <c r="C132" s="19" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
       <c r="D132" s="19"/>
       <c r="E132" s="23" t="s">
@@ -19532,7 +19532,7 @@
       </c>
       <c r="B133" s="22"/>
       <c r="C133" s="19" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="D133" s="19"/>
       <c r="E133" s="23" t="s">
@@ -19547,7 +19547,7 @@
       </c>
       <c r="B134" s="22"/>
       <c r="C134" s="19" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="D134" s="19"/>
       <c r="E134" s="23" t="s">
@@ -19562,7 +19562,7 @@
       </c>
       <c r="B135" s="22"/>
       <c r="C135" s="19" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
       <c r="D135" s="19"/>
       <c r="E135" s="23" t="s">
@@ -19577,7 +19577,7 @@
       </c>
       <c r="B136" s="22"/>
       <c r="C136" s="19" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="D136" s="19"/>
       <c r="E136" s="23" t="s">
@@ -19592,7 +19592,7 @@
       </c>
       <c r="B137" s="22"/>
       <c r="C137" s="19" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="D137" s="19"/>
       <c r="E137" s="23" t="s">
@@ -19607,7 +19607,7 @@
       </c>
       <c r="B138" s="22"/>
       <c r="C138" s="19" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="D138" s="19"/>
       <c r="E138" s="23" t="s">
@@ -19622,7 +19622,7 @@
       </c>
       <c r="B139" s="22"/>
       <c r="C139" s="19" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
       <c r="D139" s="19"/>
       <c r="E139" s="23" t="s">
@@ -19637,7 +19637,7 @@
       </c>
       <c r="B140" s="22"/>
       <c r="C140" s="19" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
       <c r="D140" s="19"/>
       <c r="E140" s="23" t="s">
@@ -19652,7 +19652,7 @@
       </c>
       <c r="B141" s="22"/>
       <c r="C141" s="19" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
       <c r="D141" s="19"/>
       <c r="E141" s="23" t="s">
@@ -19669,10 +19669,10 @@
         <v>676</v>
       </c>
       <c r="C142" s="19" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="D142" s="19" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="E142" s="23" t="s">
         <v>677</v>
@@ -19690,10 +19690,10 @@
         <v>680</v>
       </c>
       <c r="C143" s="19" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="D143" s="19" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="E143" s="23" t="s">
         <v>681</v>
@@ -19711,10 +19711,10 @@
         <v>684</v>
       </c>
       <c r="C144" s="19" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="D144" s="19" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="E144" s="23" t="s">
         <v>685</v>
@@ -19732,10 +19732,10 @@
         <v>688</v>
       </c>
       <c r="C145" s="19" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="D145" s="19" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="E145" s="23" t="s">
         <v>689</v>
@@ -19753,10 +19753,10 @@
         <v>692</v>
       </c>
       <c r="C146" s="19" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="D146" s="19" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
       <c r="E146" s="27" t="s">
         <v>693</v>
@@ -19774,10 +19774,10 @@
         <v>696</v>
       </c>
       <c r="C147" s="19" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="D147" s="19" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
       <c r="E147" s="23" t="s">
         <v>697</v>
@@ -19795,10 +19795,10 @@
         <v>700</v>
       </c>
       <c r="C148" s="19" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="D148" s="19" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="E148" s="23" t="s">
         <v>701</v>
@@ -19816,10 +19816,10 @@
         <v>704</v>
       </c>
       <c r="C149" s="19" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="D149" s="19" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="E149" s="23" t="s">
         <v>705</v>
@@ -19837,10 +19837,10 @@
         <v>708</v>
       </c>
       <c r="C150" s="19" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="D150" s="19" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="E150" s="23" t="s">
         <v>709</v>
@@ -19858,10 +19858,10 @@
         <v>712</v>
       </c>
       <c r="C151" s="19" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="D151" s="19" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="E151" s="23" t="s">
         <v>713</v>
@@ -19879,10 +19879,10 @@
         <v>716</v>
       </c>
       <c r="C152" s="19" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="D152" s="19" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="E152" s="23" t="s">
         <v>717</v>
@@ -19900,10 +19900,10 @@
         <v>720</v>
       </c>
       <c r="C153" s="19" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
       <c r="D153" s="19" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="E153" s="23" t="s">
         <v>721</v>
@@ -19921,10 +19921,10 @@
         <v>724</v>
       </c>
       <c r="C154" s="19" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="D154" s="19" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="E154" s="27" t="s">
         <v>725</v>
@@ -19942,10 +19942,10 @@
         <v>700</v>
       </c>
       <c r="C155" s="19" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="D155" s="19" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="E155" s="23" t="s">
         <v>728</v>
@@ -19963,10 +19963,10 @@
         <v>730</v>
       </c>
       <c r="C156" s="19" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="D156" s="19" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="E156" s="23" t="s">
         <v>731</v>
@@ -19984,10 +19984,10 @@
         <v>734</v>
       </c>
       <c r="C157" s="19" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="D157" s="19" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
       <c r="E157" s="23" t="s">
         <v>735</v>
@@ -20005,10 +20005,10 @@
         <v>734</v>
       </c>
       <c r="C158" s="19" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="D158" s="19" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
       <c r="E158" s="23" t="s">
         <v>738</v>
@@ -20026,10 +20026,10 @@
         <v>740</v>
       </c>
       <c r="C159" s="19" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="D159" s="19" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
       <c r="E159" s="23" t="s">
         <v>741</v>
@@ -20047,10 +20047,10 @@
         <v>744</v>
       </c>
       <c r="C160" s="19" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="D160" s="19" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="E160" s="23" t="s">
         <v>745</v>
@@ -20068,10 +20068,10 @@
         <v>747</v>
       </c>
       <c r="C161" s="19" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="D161" s="19" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="E161" s="23" t="s">
         <v>748</v>
@@ -20089,10 +20089,10 @@
         <v>750</v>
       </c>
       <c r="C162" s="19" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="D162" s="19" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="E162" s="23" t="s">
         <v>751</v>
@@ -20110,10 +20110,10 @@
         <v>754</v>
       </c>
       <c r="C163" s="19" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="D163" s="19" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="E163" s="23" t="s">
         <v>755</v>
@@ -20131,10 +20131,10 @@
         <v>758</v>
       </c>
       <c r="C164" s="19" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="D164" s="19" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="E164" s="23" t="s">
         <v>759</v>
@@ -20152,10 +20152,10 @@
         <v>762</v>
       </c>
       <c r="C165" s="19" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="D165" s="19" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
       <c r="E165" s="23" t="s">
         <v>763</v>
@@ -20173,10 +20173,10 @@
         <v>766</v>
       </c>
       <c r="C166" s="19" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="D166" s="19" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
       <c r="E166" s="23" t="s">
         <v>767</v>
@@ -20194,10 +20194,10 @@
         <v>766</v>
       </c>
       <c r="C167" s="19" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="D167" s="19" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
       <c r="E167" s="23" t="s">
         <v>770</v>
@@ -20215,10 +20215,10 @@
         <v>772</v>
       </c>
       <c r="C168" s="19" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="D168" s="19" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="E168" s="23" t="s">
         <v>773</v>
@@ -20236,10 +20236,10 @@
         <v>776</v>
       </c>
       <c r="C169" s="19" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="D169" s="19" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
       <c r="E169" s="23" t="s">
         <v>777</v>
@@ -20257,10 +20257,10 @@
         <v>780</v>
       </c>
       <c r="C170" s="19" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="D170" s="19" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
       <c r="E170" s="23" t="s">
         <v>781</v>
@@ -20276,10 +20276,10 @@
         <v>783</v>
       </c>
       <c r="C171" s="19" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="D171" s="19" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
       <c r="E171" s="23" t="s">
         <v>784</v>
@@ -20295,10 +20295,10 @@
         <v>786</v>
       </c>
       <c r="C172" s="19" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="D172" s="19" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
       <c r="E172" s="23" t="s">
         <v>787</v>
@@ -20314,10 +20314,10 @@
         <v>788</v>
       </c>
       <c r="C173" s="19" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="D173" s="19" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
       <c r="E173" s="23" t="s">
         <v>787</v>
@@ -20333,10 +20333,10 @@
         <v>790</v>
       </c>
       <c r="C174" s="19" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="D174" s="19" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="E174" s="23" t="s">
         <v>791</v>
@@ -20352,10 +20352,10 @@
         <v>793</v>
       </c>
       <c r="C175" s="19" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="D175" s="19" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
       <c r="E175" s="23" t="s">
         <v>794</v>
@@ -20371,10 +20371,10 @@
         <v>795</v>
       </c>
       <c r="C176" s="19" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="D176" s="19" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
       <c r="E176" s="23" t="s">
         <v>794</v>
@@ -20390,10 +20390,10 @@
         <v>797</v>
       </c>
       <c r="C177" s="19" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="D177" s="19" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
       <c r="E177" s="23" t="s">
         <v>798</v>
@@ -20409,10 +20409,10 @@
         <v>800</v>
       </c>
       <c r="C178" s="19" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="D178" s="19" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
       <c r="E178" s="23" t="s">
         <v>801</v>
@@ -20430,10 +20430,10 @@
         <v>804</v>
       </c>
       <c r="C179" s="19" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="D179" s="19" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
       <c r="E179" s="25" t="s">
         <v>805</v>
@@ -20451,10 +20451,10 @@
         <v>808</v>
       </c>
       <c r="C180" s="19" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="D180" s="19" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
       <c r="E180" s="25" t="s">
         <v>809</v>
@@ -20472,10 +20472,10 @@
         <v>812</v>
       </c>
       <c r="C181" s="19" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="D181" s="19" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="E181" s="23" t="s">
         <v>813</v>
@@ -20493,10 +20493,10 @@
         <v>816</v>
       </c>
       <c r="C182" s="19" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="D182" s="19" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
       <c r="E182" s="23" t="s">
         <v>817</v>
@@ -20514,10 +20514,10 @@
         <v>820</v>
       </c>
       <c r="C183" s="19" t="s">
+        <v>2664</v>
+      </c>
+      <c r="D183" s="19" t="s">
         <v>2665</v>
-      </c>
-      <c r="D183" s="19" t="s">
-        <v>2666</v>
       </c>
       <c r="E183" s="23" t="s">
         <v>821</v>
@@ -20535,10 +20535,10 @@
         <v>824</v>
       </c>
       <c r="C184" s="19" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="D184" s="19" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="E184" s="23" t="s">
         <v>825</v>
@@ -20556,10 +20556,10 @@
         <v>828</v>
       </c>
       <c r="C185" s="19" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="D185" s="19" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
       <c r="E185" s="23" t="s">
         <v>829</v>
@@ -20577,10 +20577,10 @@
         <v>832</v>
       </c>
       <c r="C186" s="19" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="D186" s="19" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
       <c r="E186" s="23" t="s">
         <v>833</v>
@@ -20598,10 +20598,10 @@
         <v>836</v>
       </c>
       <c r="C187" s="19" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="D187" s="19" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
       <c r="E187" s="23" t="s">
         <v>837</v>
@@ -20619,10 +20619,10 @@
         <v>840</v>
       </c>
       <c r="C188" s="19" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="D188" s="19" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="E188" s="23" t="s">
         <v>841</v>
@@ -20640,10 +20640,10 @@
         <v>844</v>
       </c>
       <c r="C189" s="19" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="D189" s="19" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
       <c r="E189" s="23" t="s">
         <v>845</v>
@@ -20661,10 +20661,10 @@
         <v>848</v>
       </c>
       <c r="C190" s="19" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="D190" s="19" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
       <c r="E190" s="23" t="s">
         <v>849</v>
@@ -20682,10 +20682,10 @@
         <v>852</v>
       </c>
       <c r="C191" s="19" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="D191" s="19" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="E191" s="23" t="s">
         <v>853</v>
@@ -20705,10 +20705,10 @@
         <v>856</v>
       </c>
       <c r="C192" s="19" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="D192" s="19" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="E192" s="27" t="s">
         <v>853</v>
@@ -20728,10 +20728,10 @@
         <v>860</v>
       </c>
       <c r="C193" s="19" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="D193" s="19" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
       <c r="E193" s="23" t="s">
         <v>861</v>
@@ -20749,10 +20749,10 @@
         <v>864</v>
       </c>
       <c r="C194" s="19" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="D194" s="19" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="E194" s="23" t="s">
         <v>865</v>
@@ -20770,10 +20770,10 @@
         <v>868</v>
       </c>
       <c r="C195" s="19" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="D195" s="19" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
       <c r="E195" s="23" t="s">
         <v>869</v>
@@ -20791,10 +20791,10 @@
         <v>872</v>
       </c>
       <c r="C196" s="19" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="D196" s="19" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
       <c r="E196" s="23" t="s">
         <v>873</v>
@@ -20812,10 +20812,10 @@
         <v>876</v>
       </c>
       <c r="C197" s="19" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="D197" s="19" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
       <c r="E197" s="23" t="s">
         <v>875</v>
@@ -20833,10 +20833,10 @@
         <v>879</v>
       </c>
       <c r="C198" s="19" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="D198" s="19" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="E198" s="23" t="s">
         <v>880</v>
@@ -20854,10 +20854,10 @@
         <v>883</v>
       </c>
       <c r="C199" s="19" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="D199" s="19" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="E199" s="23" t="s">
         <v>884</v>
@@ -20875,10 +20875,10 @@
         <v>887</v>
       </c>
       <c r="C200" s="19" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="D200" s="19" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
       <c r="E200" s="23" t="s">
         <v>888</v>
@@ -20896,10 +20896,10 @@
         <v>891</v>
       </c>
       <c r="C201" s="19" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="D201" s="19" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
       <c r="E201" s="23" t="s">
         <v>892</v>
@@ -20917,10 +20917,10 @@
         <v>895</v>
       </c>
       <c r="C202" s="19" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="D202" s="19" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="E202" s="23" t="s">
         <v>896</v>
@@ -20938,10 +20938,10 @@
         <v>899</v>
       </c>
       <c r="C203" s="19" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="D203" s="19" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="E203" s="23" t="s">
         <v>900</v>
@@ -20963,7 +20963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
@@ -21008,7 +21008,7 @@
         <v>904</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="F2" s="29" t="s">
         <v>905</v>
@@ -21022,7 +21022,7 @@
         <v>906</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="F3" s="29" t="s">
         <v>907</v>
@@ -21042,7 +21042,7 @@
         <v>910</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="F4" s="29" t="s">
         <v>911</v>
@@ -21056,7 +21056,7 @@
         <v>912</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="F5" s="29" t="s">
         <v>913</v>
@@ -21072,7 +21072,7 @@
         <v>910</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="F6" s="29" t="s">
         <v>911</v>
@@ -21086,7 +21086,7 @@
         <v>912</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="F7" s="29" t="s">
         <v>913</v>
@@ -21104,7 +21104,7 @@
         <v>916</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="F8" s="23" t="s">
         <v>917</v>
@@ -21118,7 +21118,7 @@
         <v>918</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="F9" s="23" t="s">
         <v>919</v>
@@ -21138,7 +21138,7 @@
         <v>921</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
       <c r="F10" s="23" t="s">
         <v>922</v>
@@ -21152,7 +21152,7 @@
         <v>923</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>924</v>
@@ -21168,7 +21168,7 @@
         <v>921</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
       <c r="F12" s="23" t="s">
         <v>922</v>
@@ -21182,7 +21182,7 @@
         <v>923</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="F13" s="23" t="s">
         <v>924</v>
@@ -21198,7 +21198,7 @@
         <v>921</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
       <c r="F14" s="23" t="s">
         <v>922</v>
@@ -21212,7 +21212,7 @@
         <v>921</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
       <c r="F15" s="23" t="s">
         <v>922</v>
@@ -21232,7 +21232,7 @@
         <v>929</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
       <c r="F16" s="23" t="s">
         <v>930</v>
@@ -21246,7 +21246,7 @@
         <v>931</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>2869</v>
+        <v>2868</v>
       </c>
       <c r="F17" s="23" t="s">
         <v>924</v>
@@ -21264,7 +21264,7 @@
         <v>933</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="F18" s="23" t="s">
         <v>934</v>
@@ -21278,7 +21278,7 @@
         <v>935</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>2870</v>
+        <v>2869</v>
       </c>
       <c r="F19" s="32" t="s">
         <v>936</v>
@@ -21296,7 +21296,7 @@
         <v>938</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="F20" s="32" t="s">
         <v>939</v>
@@ -21310,7 +21310,7 @@
         <v>940</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>2872</v>
+        <v>2871</v>
       </c>
       <c r="F21" s="32" t="s">
         <v>941</v>
@@ -21326,7 +21326,7 @@
         <v>938</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="F22" s="32" t="s">
         <v>939</v>
@@ -21340,7 +21340,7 @@
         <v>940</v>
       </c>
       <c r="E23" s="40" t="s">
-        <v>2872</v>
+        <v>2871</v>
       </c>
       <c r="F23" s="32" t="s">
         <v>941</v>
@@ -21358,7 +21358,7 @@
         <v>944</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
       <c r="F24" s="32" t="s">
         <v>945</v>
@@ -21372,7 +21372,7 @@
         <v>935</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>2870</v>
+        <v>2869</v>
       </c>
       <c r="F25" s="32" t="s">
         <v>936</v>
@@ -21392,7 +21392,7 @@
         <v>948</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
       <c r="F26" s="32" t="s">
         <v>949</v>
@@ -21408,7 +21408,7 @@
         <v>951</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
       <c r="F27" s="32" t="s">
         <v>952</v>
@@ -21422,7 +21422,7 @@
         <v>953</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="F28" s="32" t="s">
         <v>954</v>
@@ -21438,7 +21438,7 @@
         <v>956</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="F29" s="32" t="s">
         <v>957</v>
@@ -21454,7 +21454,7 @@
         <v>959</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
       <c r="F30" s="32" t="s">
         <v>930</v>
@@ -21468,7 +21468,7 @@
         <v>960</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
       <c r="F31" s="32" t="s">
         <v>961</v>
@@ -21488,7 +21488,7 @@
         <v>963</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
       <c r="F32" s="32" t="s">
         <v>964</v>
@@ -21504,7 +21504,7 @@
         <v>966</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>2881</v>
+        <v>2880</v>
       </c>
       <c r="F33" s="32" t="s">
         <v>967</v>
@@ -21518,7 +21518,7 @@
         <v>968</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>2882</v>
+        <v>2881</v>
       </c>
       <c r="F34" s="32" t="s">
         <v>969</v>
@@ -21536,7 +21536,7 @@
         <v>970</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
       <c r="F35" s="32" t="s">
         <v>971</v>
@@ -21550,7 +21550,7 @@
         <v>972</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
       <c r="F36" s="32" t="s">
         <v>973</v>
@@ -21570,7 +21570,7 @@
         <v>975</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
       <c r="F37" s="32" t="s">
         <v>976</v>
@@ -21584,7 +21584,7 @@
         <v>977</v>
       </c>
       <c r="E38" s="40" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
       <c r="F38" s="32" t="s">
         <v>978</v>
@@ -21602,7 +21602,7 @@
         <v>929</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>2887</v>
+        <v>2886</v>
       </c>
       <c r="F39" s="23" t="s">
         <v>980</v>
@@ -21616,7 +21616,7 @@
         <v>968</v>
       </c>
       <c r="E40" s="40" t="s">
-        <v>2882</v>
+        <v>2881</v>
       </c>
       <c r="F40" s="23" t="s">
         <v>981</v>
@@ -21634,7 +21634,7 @@
         <v>929</v>
       </c>
       <c r="E41" s="40" t="s">
-        <v>2887</v>
+        <v>2886</v>
       </c>
       <c r="F41" s="23" t="s">
         <v>980</v>
@@ -21648,7 +21648,7 @@
         <v>983</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
       <c r="F42" s="23" t="s">
         <v>984</v>
@@ -21668,7 +21668,7 @@
         <v>987</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
       <c r="F43" s="23" t="s">
         <v>988</v>
@@ -21682,7 +21682,7 @@
         <v>989</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
       <c r="F44" s="23" t="s">
         <v>990</v>
@@ -21696,7 +21696,7 @@
         <v>991</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
       <c r="F45" s="23" t="s">
         <v>992</v>
@@ -21714,7 +21714,7 @@
         <v>995</v>
       </c>
       <c r="E46" s="40" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
       <c r="F46" s="23" t="s">
         <v>1999</v>
@@ -21728,7 +21728,7 @@
         <v>997</v>
       </c>
       <c r="E47" s="40" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
       <c r="F47" s="23" t="s">
         <v>998</v>
@@ -21746,7 +21746,7 @@
         <v>995</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
       <c r="F48" s="23" t="s">
         <v>996</v>
@@ -21760,7 +21760,7 @@
         <v>997</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
       <c r="F49" s="23" t="s">
         <v>998</v>
@@ -21778,7 +21778,7 @@
         <v>1001</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
       <c r="F50" s="23" t="s">
         <v>1002</v>
@@ -21792,7 +21792,7 @@
         <v>1003</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
       <c r="F51" s="23" t="s">
         <v>1004</v>
@@ -21810,7 +21810,7 @@
         <v>1006</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
       <c r="F52" s="23" t="s">
         <v>1007</v>
@@ -21824,7 +21824,7 @@
         <v>1008</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="F53" s="23" t="s">
         <v>1009</v>
@@ -21842,7 +21842,7 @@
         <v>1006</v>
       </c>
       <c r="E54" s="40" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
       <c r="F54" s="23" t="s">
         <v>1007</v>
@@ -21856,7 +21856,7 @@
         <v>1008</v>
       </c>
       <c r="E55" s="40" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="F55" s="23" t="s">
         <v>1009</v>
@@ -21874,7 +21874,7 @@
         <v>1006</v>
       </c>
       <c r="E56" s="40" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
       <c r="F56" s="23" t="s">
         <v>1007</v>
@@ -21888,7 +21888,7 @@
         <v>1008</v>
       </c>
       <c r="E57" s="40" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="F57" s="23" t="s">
         <v>1009</v>
@@ -21906,7 +21906,7 @@
         <v>1006</v>
       </c>
       <c r="E58" s="40" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
       <c r="F58" s="23" t="s">
         <v>1007</v>
@@ -21920,7 +21920,7 @@
         <v>1008</v>
       </c>
       <c r="E59" s="40" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="F59" s="23" t="s">
         <v>1009</v>
@@ -21938,7 +21938,7 @@
         <v>1006</v>
       </c>
       <c r="E60" s="40" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
       <c r="F60" s="23" t="s">
         <v>1007</v>
@@ -21952,7 +21952,7 @@
         <v>1008</v>
       </c>
       <c r="E61" s="40" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="F61" s="23" t="s">
         <v>1009</v>
@@ -22108,7 +22108,7 @@
         <v>908</v>
       </c>
       <c r="C72" s="33" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="D72" s="23" t="s">
         <v>1041</v>
@@ -22134,7 +22134,7 @@
       <c r="A74" s="23"/>
       <c r="B74" s="23"/>
       <c r="C74" s="23" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="D74" s="23" t="s">
         <v>1041</v>
@@ -22298,7 +22298,7 @@
         <v>908</v>
       </c>
       <c r="C85" s="33" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="D85" s="23" t="s">
         <v>1067</v>
@@ -22358,7 +22358,7 @@
         <v>908</v>
       </c>
       <c r="C89" s="33" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="D89" s="23" t="s">
         <v>1077</v>
@@ -22384,7 +22384,7 @@
       <c r="A91" s="23"/>
       <c r="B91" s="23"/>
       <c r="C91" s="23" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="D91" s="23" t="s">
         <v>1077</v>
@@ -22451,13 +22451,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="D1" s="39" t="s">
         <v>1086</v>
       </c>
       <c r="I1" s="39" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="S1" s="39" t="s">
         <v>3</v>
@@ -22474,7 +22474,7 @@
         <v>1089</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
       <c r="Q2" s="40" t="s">
         <v>1090</v>
@@ -22491,7 +22491,7 @@
         <v>1091</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
       <c r="Q3" s="40" t="s">
         <v>1092</v>
@@ -22508,7 +22508,7 @@
         <v>1093</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="Q4" s="40" t="s">
         <v>1094</v>
@@ -22525,7 +22525,7 @@
         <v>1095</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="Q5" s="40" t="s">
         <v>1096</v>
@@ -22542,13 +22542,13 @@
         <v>1098</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="D6" s="27" t="s">
         <v>1100</v>
       </c>
       <c r="I6" s="49" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
       <c r="Q6" s="40" t="s">
         <v>1099</v>
@@ -22568,13 +22568,13 @@
         <v>1102</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
       <c r="D7" s="27" t="s">
         <v>1104</v>
       </c>
       <c r="I7" s="49" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
       <c r="Q7" s="40" t="s">
         <v>1103</v>
@@ -22594,13 +22594,13 @@
         <v>1106</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
       <c r="D8" s="27" t="s">
         <v>1108</v>
       </c>
       <c r="I8" s="49" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="Q8" s="40" t="s">
         <v>1107</v>
@@ -22620,13 +22620,13 @@
         <v>1110</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="D9" s="27" t="s">
         <v>1112</v>
       </c>
       <c r="I9" s="49" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
       <c r="Q9" s="40" t="s">
         <v>1111</v>
@@ -22646,13 +22646,13 @@
         <v>1114</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
       <c r="D10" s="27" t="s">
         <v>1116</v>
       </c>
       <c r="I10" s="49" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
       <c r="Q10" s="40" t="s">
         <v>1115</v>
@@ -22672,13 +22672,13 @@
         <v>1117</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
       <c r="D11" s="27" t="s">
         <v>1119</v>
       </c>
       <c r="I11" s="49" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
       <c r="Q11" s="40" t="s">
         <v>1118</v>
@@ -22698,7 +22698,7 @@
         <v>1122</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
       <c r="Q12" s="40" t="s">
         <v>1123</v>
@@ -22715,7 +22715,7 @@
         <v>1097</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
       <c r="Q13" s="40" t="s">
         <v>1124</v>
@@ -22732,7 +22732,7 @@
         <v>1125</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
       <c r="Q14" s="40" t="s">
         <v>1125</v>
@@ -22749,7 +22749,7 @@
         <v>1093</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="Q15" s="40" t="s">
         <v>1094</v>
@@ -22766,7 +22766,7 @@
         <v>1126</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
       <c r="Q16" s="40" t="s">
         <v>1126</v>
@@ -22783,7 +22783,7 @@
         <v>1127</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
       <c r="Q17" s="40" t="s">
         <v>1128</v>
@@ -22800,7 +22800,7 @@
         <v>1130</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
       <c r="D18" s="27" t="s">
         <v>1132</v>
@@ -22814,13 +22814,13 @@
       <c r="G18" s="32"/>
       <c r="H18" s="32"/>
       <c r="I18" s="27" t="s">
+        <v>2778</v>
+      </c>
+      <c r="J18" s="27" t="s">
+        <v>2777</v>
+      </c>
+      <c r="K18" s="27" t="s">
         <v>2779</v>
-      </c>
-      <c r="J18" s="27" t="s">
-        <v>2778</v>
-      </c>
-      <c r="K18" s="27" t="s">
-        <v>2780</v>
       </c>
       <c r="Q18" s="40" t="s">
         <v>1131</v>
@@ -22843,7 +22843,7 @@
         <v>1137</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
       <c r="D19" s="27" t="s">
         <v>1139</v>
@@ -22852,10 +22852,10 @@
         <v>1141</v>
       </c>
       <c r="I19" s="27" t="s">
+        <v>2780</v>
+      </c>
+      <c r="J19" s="27" t="s">
         <v>2781</v>
-      </c>
-      <c r="J19" s="27" t="s">
-        <v>2782</v>
       </c>
       <c r="Q19" s="40" t="s">
         <v>1138</v>
@@ -22878,7 +22878,7 @@
         <v>1143</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="D20" s="27" t="s">
         <v>1145</v>
@@ -22887,10 +22887,10 @@
         <v>1147</v>
       </c>
       <c r="I20" s="27" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
       <c r="J20" s="27" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="Q20" s="40" t="s">
         <v>1144</v>
@@ -22913,7 +22913,7 @@
         <v>1149</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
       <c r="D21" s="27" t="s">
         <v>1151</v>
@@ -22922,10 +22922,10 @@
         <v>1153</v>
       </c>
       <c r="I21" s="27" t="s">
+        <v>2783</v>
+      </c>
+      <c r="J21" s="27" t="s">
         <v>2784</v>
-      </c>
-      <c r="J21" s="27" t="s">
-        <v>2785</v>
       </c>
       <c r="Q21" s="40" t="s">
         <v>1150</v>
@@ -22948,7 +22948,7 @@
         <v>1155</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
       <c r="D22" s="27" t="s">
         <v>1151</v>
@@ -22957,10 +22957,10 @@
         <v>1153</v>
       </c>
       <c r="I22" s="27" t="s">
+        <v>2783</v>
+      </c>
+      <c r="J22" s="27" t="s">
         <v>2784</v>
-      </c>
-      <c r="J22" s="27" t="s">
-        <v>2785</v>
       </c>
       <c r="Q22" s="40" t="s">
         <v>1156</v>
@@ -22983,7 +22983,7 @@
         <v>1157</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
       <c r="D23" s="27" t="s">
         <v>1159</v>
@@ -22992,10 +22992,10 @@
         <v>1161</v>
       </c>
       <c r="I23" s="27" t="s">
+        <v>2789</v>
+      </c>
+      <c r="J23" s="27" t="s">
         <v>2790</v>
-      </c>
-      <c r="J23" s="27" t="s">
-        <v>2791</v>
       </c>
       <c r="Q23" s="40" t="s">
         <v>1158</v>
@@ -23018,7 +23018,7 @@
         <v>1163</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="D24" s="27" t="s">
         <v>1159</v>
@@ -23027,10 +23027,10 @@
         <v>1161</v>
       </c>
       <c r="I24" s="27" t="s">
+        <v>2789</v>
+      </c>
+      <c r="J24" s="27" t="s">
         <v>2790</v>
-      </c>
-      <c r="J24" s="27" t="s">
-        <v>2791</v>
       </c>
       <c r="Q24" s="40" t="s">
         <v>1164</v>
@@ -23053,7 +23053,7 @@
         <v>1165</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="D25" s="27" t="s">
         <v>1159</v>
@@ -23062,10 +23062,10 @@
         <v>1161</v>
       </c>
       <c r="I25" s="27" t="s">
+        <v>2789</v>
+      </c>
+      <c r="J25" s="27" t="s">
         <v>2790</v>
-      </c>
-      <c r="J25" s="27" t="s">
-        <v>2791</v>
       </c>
       <c r="Q25" s="40" t="s">
         <v>1166</v>
@@ -23088,7 +23088,7 @@
         <v>1167</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="D26" s="27" t="s">
         <v>1159</v>
@@ -23097,10 +23097,10 @@
         <v>1169</v>
       </c>
       <c r="I26" s="40" t="s">
+        <v>2796</v>
+      </c>
+      <c r="J26" s="40" t="s">
         <v>2797</v>
-      </c>
-      <c r="J26" s="40" t="s">
-        <v>2798</v>
       </c>
       <c r="Q26" s="40" t="s">
         <v>1168</v>
@@ -23123,7 +23123,7 @@
         <v>1170</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="D27" s="27" t="s">
         <v>1172</v>
@@ -23132,10 +23132,10 @@
         <v>1173</v>
       </c>
       <c r="I27" s="40" t="s">
+        <v>2793</v>
+      </c>
+      <c r="J27" s="40" t="s">
         <v>2794</v>
-      </c>
-      <c r="J27" s="40" t="s">
-        <v>2795</v>
       </c>
       <c r="Q27" s="40" t="s">
         <v>1171</v>
@@ -23158,7 +23158,7 @@
         <v>1174</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="D28" s="27" t="s">
         <v>1159</v>
@@ -23167,10 +23167,10 @@
         <v>1169</v>
       </c>
       <c r="I28" s="40" t="s">
+        <v>2796</v>
+      </c>
+      <c r="J28" s="40" t="s">
         <v>2797</v>
-      </c>
-      <c r="J28" s="40" t="s">
-        <v>2798</v>
       </c>
       <c r="Q28" s="40" t="s">
         <v>1175</v>
@@ -23193,7 +23193,7 @@
         <v>1177</v>
       </c>
       <c r="C29" s="40" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="S29" s="40" t="s">
         <v>1178</v>
@@ -23207,7 +23207,7 @@
         <v>1179</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="S30" s="40" t="s">
         <v>1180</v>
@@ -23221,7 +23221,7 @@
         <v>1181</v>
       </c>
       <c r="C31" s="40" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="T31" s="40" t="s">
         <v>186</v>
@@ -23235,7 +23235,7 @@
         <v>1182</v>
       </c>
       <c r="C32" s="40" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
       <c r="T32" s="40" t="s">
         <v>1183</v>
@@ -23249,7 +23249,7 @@
         <v>1184</v>
       </c>
       <c r="C33" s="40" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="T33" s="40" t="s">
         <v>1185</v>
@@ -23263,7 +23263,7 @@
         <v>1186</v>
       </c>
       <c r="C34" s="40" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="T34" s="40" t="s">
         <v>1186</v>
@@ -23277,7 +23277,7 @@
         <v>1187</v>
       </c>
       <c r="C35" s="40" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="T35" s="40" t="s">
         <v>1188</v>
@@ -23291,7 +23291,7 @@
         <v>1189</v>
       </c>
       <c r="C36" s="40" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="T36" s="40" t="s">
         <v>1190</v>
@@ -23305,7 +23305,7 @@
         <v>1191</v>
       </c>
       <c r="C37" s="40" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="T37" s="40" t="s">
         <v>1192</v>
@@ -23319,7 +23319,7 @@
         <v>928</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="T38" s="40" t="s">
         <v>1193</v>
@@ -23333,7 +23333,7 @@
         <v>1194</v>
       </c>
       <c r="C39" s="40" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="T39" s="40" t="s">
         <v>1195</v>
@@ -23347,7 +23347,7 @@
         <v>1196</v>
       </c>
       <c r="C40" s="40" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="T40" s="40" t="s">
         <v>1197</v>
@@ -23361,7 +23361,7 @@
         <v>1198</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="T41" s="40" t="s">
         <v>1199</v>
@@ -23375,7 +23375,7 @@
         <v>1200</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="T42" s="40" t="s">
         <v>1190</v>
@@ -23389,7 +23389,7 @@
         <v>1201</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="T43" s="40" t="s">
         <v>1202</v>
@@ -23403,7 +23403,7 @@
         <v>1203</v>
       </c>
       <c r="C44" s="40" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="T44" s="40" t="s">
         <v>1204</v>
@@ -23417,7 +23417,7 @@
         <v>1205</v>
       </c>
       <c r="C45" s="40" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="T45" s="40" t="s">
         <v>1206</v>
@@ -23431,7 +23431,7 @@
         <v>1207</v>
       </c>
       <c r="C46" s="40" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
       <c r="T46" s="40" t="s">
         <v>1208</v>
@@ -23445,7 +23445,7 @@
         <v>1209</v>
       </c>
       <c r="C47" s="40" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
       <c r="T47" s="40" t="s">
         <v>1210</v>
@@ -23459,7 +23459,7 @@
         <v>1211</v>
       </c>
       <c r="C48" s="40" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
       <c r="T48" s="40" t="s">
         <v>1212</v>
@@ -23473,7 +23473,7 @@
         <v>1213</v>
       </c>
       <c r="C49" s="40" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
       <c r="T49" s="40" t="s">
         <v>1214</v>
@@ -23487,7 +23487,7 @@
         <v>1215</v>
       </c>
       <c r="C50" s="40" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
       <c r="T50" s="40" t="s">
         <v>1216</v>
@@ -23501,7 +23501,7 @@
         <v>1217</v>
       </c>
       <c r="C51" s="40" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
       <c r="T51" s="40" t="s">
         <v>1218</v>
@@ -23515,7 +23515,7 @@
         <v>1219</v>
       </c>
       <c r="C52" s="40" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
       <c r="T52" s="40" t="s">
         <v>1220</v>
@@ -23529,7 +23529,7 @@
         <v>1221</v>
       </c>
       <c r="C53" s="40" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
       <c r="T53" s="40" t="s">
         <v>1222</v>
@@ -23543,7 +23543,7 @@
         <v>1223</v>
       </c>
       <c r="C54" s="40" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="T54" s="40" t="s">
         <v>1223</v>
@@ -23557,7 +23557,7 @@
         <v>1127</v>
       </c>
       <c r="C55" s="40" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
       <c r="T55" s="40" t="s">
         <v>1128</v>
@@ -23571,7 +23571,7 @@
         <v>1225</v>
       </c>
       <c r="C56" s="40" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="T56" s="40" t="s">
         <v>1226</v>
@@ -23585,7 +23585,7 @@
         <v>1125</v>
       </c>
       <c r="C57" s="40" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
       <c r="T57" s="40" t="s">
         <v>1227</v>
@@ -23599,7 +23599,7 @@
         <v>1228</v>
       </c>
       <c r="C58" s="40" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
       <c r="T58" s="40" t="s">
         <v>1229</v>
@@ -23613,7 +23613,7 @@
         <v>1230</v>
       </c>
       <c r="C59" s="40" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="T59" s="40" t="s">
         <v>1231</v>
@@ -23627,7 +23627,7 @@
         <v>1232</v>
       </c>
       <c r="C60" s="40" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
       <c r="T60" s="40" t="s">
         <v>1233</v>
@@ -23641,7 +23641,7 @@
         <v>1129</v>
       </c>
       <c r="C61" s="40" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
       <c r="T61" s="40" t="s">
         <v>1234</v>
@@ -23655,7 +23655,7 @@
         <v>1097</v>
       </c>
       <c r="C62" s="40" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
       <c r="T62" s="40" t="s">
         <v>1235</v>
@@ -23669,7 +23669,7 @@
         <v>1236</v>
       </c>
       <c r="C63" s="40" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="T63" s="40" t="s">
         <v>1096</v>
@@ -23683,7 +23683,7 @@
         <v>1165</v>
       </c>
       <c r="C64" s="40" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="T64" s="40" t="s">
         <v>1166</v>
@@ -23697,7 +23697,7 @@
         <v>1163</v>
       </c>
       <c r="C65" s="40" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="T65" s="40" t="s">
         <v>1164</v>
@@ -23711,7 +23711,7 @@
         <v>1237</v>
       </c>
       <c r="C66" s="40" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
       <c r="T66" s="40" t="s">
         <v>1238</v>
@@ -23725,7 +23725,7 @@
         <v>1239</v>
       </c>
       <c r="C67" s="40" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
       <c r="T67" s="40" t="s">
         <v>1240</v>
@@ -23739,7 +23739,7 @@
         <v>1241</v>
       </c>
       <c r="C68" s="40" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="T68" s="27" t="s">
         <v>1242</v>
@@ -23753,7 +23753,7 @@
         <v>1243</v>
       </c>
       <c r="C69" s="40" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="T69" s="27" t="s">
         <v>1244</v>
@@ -23767,7 +23767,7 @@
         <v>1245</v>
       </c>
       <c r="C70" s="40" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
       <c r="T70" s="27" t="s">
         <v>1246</v>
@@ -23781,7 +23781,7 @@
         <v>1247</v>
       </c>
       <c r="C71" s="40" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
       <c r="T71" s="27" t="s">
         <v>1248</v>
@@ -23798,7 +23798,7 @@
         <v>1249</v>
       </c>
       <c r="C73" s="40" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
       <c r="D73" s="40" t="s">
         <v>1250</v>
@@ -23812,13 +23812,13 @@
         <v>1251</v>
       </c>
       <c r="C74" s="40" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="D74" s="40" t="s">
         <v>1252</v>
       </c>
       <c r="I74" s="40" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="75" spans="1:20">
@@ -23829,13 +23829,13 @@
         <v>1253</v>
       </c>
       <c r="C75" s="40" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="D75" s="40" t="s">
         <v>1254</v>
       </c>
       <c r="I75" s="40" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="76" spans="1:20">
@@ -23846,7 +23846,7 @@
         <v>1255</v>
       </c>
       <c r="C76" s="40" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="D76" s="40" t="s">
         <v>1256</v>
@@ -23858,13 +23858,13 @@
         <v>1258</v>
       </c>
       <c r="I76" s="40" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
       <c r="J76" s="40" t="s">
+        <v>2793</v>
+      </c>
+      <c r="K76" s="40" t="s">
         <v>2794</v>
-      </c>
-      <c r="K76" s="40" t="s">
-        <v>2795</v>
       </c>
     </row>
     <row r="77" spans="1:20">
@@ -23875,7 +23875,7 @@
         <v>1259</v>
       </c>
       <c r="C77" s="40" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="D77" s="40" t="s">
         <v>1260</v>
@@ -23887,13 +23887,13 @@
         <v>1258</v>
       </c>
       <c r="I77" s="40" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
       <c r="J77" s="40" t="s">
+        <v>2793</v>
+      </c>
+      <c r="K77" s="40" t="s">
         <v>2794</v>
-      </c>
-      <c r="K77" s="40" t="s">
-        <v>2795</v>
       </c>
     </row>
     <row r="78" spans="1:20">
@@ -23904,7 +23904,7 @@
         <v>1261</v>
       </c>
       <c r="C78" s="40" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
       <c r="D78" s="40" t="s">
         <v>1262</v>
@@ -23919,16 +23919,16 @@
         <v>1265</v>
       </c>
       <c r="I78" s="40" t="s">
+        <v>2857</v>
+      </c>
+      <c r="J78" s="40" t="s">
         <v>2858</v>
       </c>
-      <c r="J78" s="40" t="s">
+      <c r="K78" s="40" t="s">
         <v>2859</v>
       </c>
-      <c r="K78" s="40" t="s">
+      <c r="L78" s="40" t="s">
         <v>2860</v>
-      </c>
-      <c r="L78" s="40" t="s">
-        <v>2861</v>
       </c>
     </row>
     <row r="79" spans="1:20">
@@ -23939,7 +23939,7 @@
         <v>1266</v>
       </c>
       <c r="C79" s="40" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
       <c r="D79" s="40" t="s">
         <v>1267</v>
@@ -23951,10 +23951,10 @@
         <v>1258</v>
       </c>
       <c r="J79" s="40" t="s">
+        <v>2793</v>
+      </c>
+      <c r="K79" s="40" t="s">
         <v>2794</v>
-      </c>
-      <c r="K79" s="40" t="s">
-        <v>2795</v>
       </c>
     </row>
     <row r="80" spans="1:20">
@@ -23965,7 +23965,7 @@
         <v>1268</v>
       </c>
       <c r="C80" s="40" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
       <c r="D80" s="40" t="s">
         <v>1269</v>
@@ -23977,10 +23977,10 @@
         <v>1258</v>
       </c>
       <c r="J80" s="40" t="s">
+        <v>2793</v>
+      </c>
+      <c r="K80" s="40" t="s">
         <v>2794</v>
-      </c>
-      <c r="K80" s="40" t="s">
-        <v>2795</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -23991,7 +23991,7 @@
         <v>1270</v>
       </c>
       <c r="C81" s="40" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
       <c r="D81" s="40" t="s">
         <v>1271</v>
@@ -24014,7 +24014,7 @@
         <v>1274</v>
       </c>
       <c r="C82" s="40" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
       <c r="D82" s="40" t="s">
         <v>1275</v>
@@ -24037,7 +24037,7 @@
         <v>1276</v>
       </c>
       <c r="C83" s="40" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
       <c r="D83" s="40" t="s">
         <v>1277</v>
@@ -24060,7 +24060,7 @@
         <v>1278</v>
       </c>
       <c r="C84" s="40" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
       <c r="D84" s="40" t="s">
         <v>1279</v>
@@ -24072,10 +24072,10 @@
         <v>1258</v>
       </c>
       <c r="J84" s="40" t="s">
+        <v>2793</v>
+      </c>
+      <c r="K84" s="40" t="s">
         <v>2794</v>
-      </c>
-      <c r="K84" s="40" t="s">
-        <v>2795</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -24086,7 +24086,7 @@
         <v>1280</v>
       </c>
       <c r="C85" s="40" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
       <c r="D85" s="40" t="s">
         <v>1281</v>
@@ -24112,7 +24112,7 @@
         <v>1282</v>
       </c>
       <c r="C86" s="40" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
       <c r="D86" s="40" t="s">
         <v>1283</v>
@@ -24127,7 +24127,7 @@
         <v>1265</v>
       </c>
       <c r="I86" s="40" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -24138,7 +24138,7 @@
         <v>1286</v>
       </c>
       <c r="C87" s="40" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
       <c r="D87" s="40" t="s">
         <v>1287</v>
@@ -24150,13 +24150,13 @@
         <v>1258</v>
       </c>
       <c r="I87" s="40" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
       <c r="J87" s="40" t="s">
+        <v>2793</v>
+      </c>
+      <c r="K87" s="40" t="s">
         <v>2794</v>
-      </c>
-      <c r="K87" s="40" t="s">
-        <v>2795</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -24167,7 +24167,7 @@
         <v>1288</v>
       </c>
       <c r="C88" s="40" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
       <c r="D88" s="40" t="s">
         <v>1289</v>
@@ -24179,10 +24179,10 @@
         <v>1258</v>
       </c>
       <c r="J88" s="40" t="s">
+        <v>2793</v>
+      </c>
+      <c r="K88" s="40" t="s">
         <v>2794</v>
-      </c>
-      <c r="K88" s="40" t="s">
-        <v>2795</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -24193,7 +24193,7 @@
         <v>1290</v>
       </c>
       <c r="C89" s="40" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
       <c r="D89" s="40" t="s">
         <v>1291</v>
@@ -24205,10 +24205,10 @@
         <v>1258</v>
       </c>
       <c r="J89" s="40" t="s">
+        <v>2793</v>
+      </c>
+      <c r="K89" s="40" t="s">
         <v>2794</v>
-      </c>
-      <c r="K89" s="40" t="s">
-        <v>2795</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -24219,7 +24219,7 @@
         <v>1292</v>
       </c>
       <c r="C90" s="40" t="s">
-        <v>2855</v>
+        <v>2854</v>
       </c>
       <c r="D90" s="40" t="s">
         <v>1293</v>
@@ -24242,7 +24242,7 @@
         <v>1296</v>
       </c>
       <c r="C91" s="40" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
       <c r="D91" s="40" t="s">
         <v>1297</v>
@@ -24254,10 +24254,10 @@
         <v>1258</v>
       </c>
       <c r="J91" s="40" t="s">
+        <v>2793</v>
+      </c>
+      <c r="K91" s="40" t="s">
         <v>2794</v>
-      </c>
-      <c r="K91" s="40" t="s">
-        <v>2795</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -24268,7 +24268,7 @@
         <v>1298</v>
       </c>
       <c r="C92" s="40" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
       <c r="D92" s="40" t="s">
         <v>1299</v>
@@ -24280,10 +24280,10 @@
         <v>1258</v>
       </c>
       <c r="J92" s="40" t="s">
+        <v>2793</v>
+      </c>
+      <c r="K92" s="40" t="s">
         <v>2794</v>
-      </c>
-      <c r="K92" s="40" t="s">
-        <v>2795</v>
       </c>
     </row>
   </sheetData>
@@ -24321,7 +24321,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>3</v>
@@ -24335,7 +24335,7 @@
         <v>1302</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>1303</v>
@@ -24349,7 +24349,7 @@
         <v>1305</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>1306</v>
@@ -24363,7 +24363,7 @@
         <v>1307</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>1308</v>
@@ -24377,7 +24377,7 @@
         <v>1309</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>1310</v>
@@ -24391,7 +24391,7 @@
         <v>1311</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>1312</v>
@@ -24405,7 +24405,7 @@
         <v>1313</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>1314</v>
@@ -24419,7 +24419,7 @@
         <v>1315</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>1316</v>
@@ -24433,7 +24433,7 @@
         <v>1317</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>1317</v>
@@ -24447,7 +24447,7 @@
         <v>1318</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>1319</v>
@@ -24461,7 +24461,7 @@
         <v>1320</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>1321</v>
@@ -24475,7 +24475,7 @@
         <v>1322</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>1323</v>
